--- a/data/TXT.MI.xlsx
+++ b/data/TXT.MI.xlsx
@@ -44,52 +44,52 @@
     <t xml:space="preserve">TXT.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43539381027222</t>
+    <t xml:space="preserve">6.43539476394653</t>
   </si>
   <si>
     <t xml:space="preserve">6.44345855712891</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27410650253296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31442880630493</t>
+    <t xml:space="preserve">6.27410697937012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31442832946777</t>
   </si>
   <si>
     <t xml:space="preserve">6.13701152801514</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16926956176758</t>
+    <t xml:space="preserve">6.16926908493042</t>
   </si>
   <si>
     <t xml:space="preserve">6.12894773483276</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96765899658203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89507913589478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80637121200562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98782014846802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79024219512939</t>
+    <t xml:space="preserve">5.96765947341919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89507961273193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80637073516846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98782062530518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79024171829224</t>
   </si>
   <si>
     <t xml:space="preserve">5.76201677322388</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76604890823364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78217697143555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04023885726929</t>
+    <t xml:space="preserve">5.76604843139648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78217792510986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04023838043213</t>
   </si>
   <si>
     <t xml:space="preserve">5.92733716964722</t>
@@ -98,49 +98,49 @@
     <t xml:space="preserve">5.9595947265625</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98378801345825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0483021736145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89104652404785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81846809387207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21765613555908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19346189498901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24991321563721</t>
+    <t xml:space="preserve">5.98378753662109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04830312728882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89104700088501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81846761703491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21765565872192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19346237182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24991273880005</t>
   </si>
   <si>
     <t xml:space="preserve">6.33862161636353</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26604270935059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24184799194336</t>
+    <t xml:space="preserve">6.26604223251343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24184846878052</t>
   </si>
   <si>
     <t xml:space="preserve">6.25394535064697</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4515233039856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50394201278687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45958805084229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53216743469238</t>
+    <t xml:space="preserve">6.45152282714844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50394153594971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45958852767944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53216695785522</t>
   </si>
   <si>
     <t xml:space="preserve">6.54829597473145</t>
@@ -155,7 +155,7 @@
     <t xml:space="preserve">6.12088346481323</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29829883575439</t>
+    <t xml:space="preserve">6.29829978942871</t>
   </si>
   <si>
     <t xml:space="preserve">6.23781633377075</t>
@@ -164,22 +164,22 @@
     <t xml:space="preserve">6.18539810180664</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19749450683594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15314054489136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15717267990112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03217458724976</t>
+    <t xml:space="preserve">6.19749402999878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15314102172852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15717315673828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0321741104126</t>
   </si>
   <si>
     <t xml:space="preserve">6.06040000915527</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99185228347778</t>
+    <t xml:space="preserve">5.99185180664062</t>
   </si>
   <si>
     <t xml:space="preserve">6.17733335494995</t>
@@ -188,7 +188,7 @@
     <t xml:space="preserve">6.09668922424316</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20152711868286</t>
+    <t xml:space="preserve">6.2015266418457</t>
   </si>
   <si>
     <t xml:space="preserve">6.14104318618774</t>
@@ -200,55 +200,55 @@
     <t xml:space="preserve">6.16523694992065</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25797843933105</t>
+    <t xml:space="preserve">6.25797748565674</t>
   </si>
   <si>
     <t xml:space="preserve">6.07652807235718</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14507579803467</t>
+    <t xml:space="preserve">6.14507484436035</t>
   </si>
   <si>
     <t xml:space="preserve">6.05636739730835</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99991607666016</t>
+    <t xml:space="preserve">5.99991655349731</t>
   </si>
   <si>
     <t xml:space="preserve">5.97975540161133</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16120386123657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11685085296631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11281824111938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23734998703003</t>
+    <t xml:space="preserve">6.16120481491089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11685037612915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11281871795654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23735046386719</t>
   </si>
   <si>
     <t xml:space="preserve">6.2707052230835</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11643838882446</t>
+    <t xml:space="preserve">6.11643934249878</t>
   </si>
   <si>
     <t xml:space="preserve">6.20399570465088</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25402736663818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13728618621826</t>
+    <t xml:space="preserve">6.25402784347534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1372857093811</t>
   </si>
   <si>
     <t xml:space="preserve">6.21233415603638</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23318099975586</t>
+    <t xml:space="preserve">6.23318147659302</t>
   </si>
   <si>
     <t xml:space="preserve">6.24568891525269</t>
@@ -257,13 +257,13 @@
     <t xml:space="preserve">6.16230154037476</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33324527740479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24151945114136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17064094543457</t>
+    <t xml:space="preserve">6.33324480056763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24151992797852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17064046859741</t>
   </si>
   <si>
     <t xml:space="preserve">6.18314838409424</t>
@@ -275,13 +275,13 @@
     <t xml:space="preserve">6.08725357055664</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93715667724609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94966459274292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85377025604248</t>
+    <t xml:space="preserve">5.93715715408325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94966506958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85376977920532</t>
   </si>
   <si>
     <t xml:space="preserve">6.03722143173218</t>
@@ -296,16 +296,16 @@
     <t xml:space="preserve">6.00386619567871</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89546346664429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82875394821167</t>
+    <t xml:space="preserve">5.89546394348145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82875347137451</t>
   </si>
   <si>
     <t xml:space="preserve">5.90380191802979</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95383405685425</t>
+    <t xml:space="preserve">5.95383453369141</t>
   </si>
   <si>
     <t xml:space="preserve">5.90797185897827</t>
@@ -323,7 +323,7 @@
     <t xml:space="preserve">6.31239891052246</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19982624053955</t>
+    <t xml:space="preserve">6.19982576370239</t>
   </si>
   <si>
     <t xml:space="preserve">6.07474565505981</t>
@@ -332,34 +332,34 @@
     <t xml:space="preserve">6.14145517349243</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22067260742188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29572153091431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17480993270874</t>
+    <t xml:space="preserve">6.22067308425903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29572105407715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1748104095459</t>
   </si>
   <si>
     <t xml:space="preserve">6.19565629959106</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18731832504272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12060880661011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19148778915405</t>
+    <t xml:space="preserve">6.18731784820557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12060832977295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19148731231689</t>
   </si>
   <si>
     <t xml:space="preserve">6.11226940155029</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09559202194214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01220607757568</t>
+    <t xml:space="preserve">6.0955924987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01220560073853</t>
   </si>
   <si>
     <t xml:space="preserve">6.14979410171509</t>
@@ -371,7 +371,7 @@
     <t xml:space="preserve">5.96634340286255</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99552774429321</t>
+    <t xml:space="preserve">5.99552726745605</t>
   </si>
   <si>
     <t xml:space="preserve">6.07891416549683</t>
@@ -383,7 +383,7 @@
     <t xml:space="preserve">6.04556035995483</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9288182258606</t>
+    <t xml:space="preserve">5.92881870269775</t>
   </si>
   <si>
     <t xml:space="preserve">5.97468137741089</t>
@@ -392,34 +392,34 @@
     <t xml:space="preserve">5.86627769470215</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85793972015381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89129400253296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89963293075562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79956865310669</t>
+    <t xml:space="preserve">5.85793924331665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89129447937012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89963245391846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79956817626953</t>
   </si>
   <si>
     <t xml:space="preserve">5.94549560546875</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97885084152222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92047882080078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96217346191406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10393095016479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47083425521851</t>
+    <t xml:space="preserve">5.97885036468506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92047929763794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9621729850769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10393142700195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47083377838135</t>
   </si>
   <si>
     <t xml:space="preserve">6.49585008621216</t>
@@ -428,19 +428,19 @@
     <t xml:space="preserve">6.57923746109009</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59591436386108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50002002716064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33741521835327</t>
+    <t xml:space="preserve">6.59591484069824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50001955032349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33741474151611</t>
   </si>
   <si>
     <t xml:space="preserve">6.50418901443481</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42914056777954</t>
+    <t xml:space="preserve">6.4291410446167</t>
   </si>
   <si>
     <t xml:space="preserve">6.4458179473877</t>
@@ -452,7 +452,7 @@
     <t xml:space="preserve">6.38327789306641</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42497110366821</t>
+    <t xml:space="preserve">6.42497062683105</t>
   </si>
   <si>
     <t xml:space="preserve">6.45415639877319</t>
@@ -464,10 +464,10 @@
     <t xml:space="preserve">6.55422067642212</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38744640350342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53754377365112</t>
+    <t xml:space="preserve">6.38744688034058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53754425048828</t>
   </si>
   <si>
     <t xml:space="preserve">6.37910795211792</t>
@@ -479,7 +479,7 @@
     <t xml:space="preserve">6.34992265701294</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43747901916504</t>
+    <t xml:space="preserve">6.43747854232788</t>
   </si>
   <si>
     <t xml:space="preserve">6.22901105880737</t>
@@ -494,28 +494,28 @@
     <t xml:space="preserve">6.06223726272583</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07057619094849</t>
+    <t xml:space="preserve">6.0705771446228</t>
   </si>
   <si>
     <t xml:space="preserve">6.37076950073242</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41246366500854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32907629013062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45832586288452</t>
+    <t xml:space="preserve">6.41246318817139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32907676696777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45832633972168</t>
   </si>
   <si>
     <t xml:space="preserve">6.28738260269165</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21650362014771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74601173400879</t>
+    <t xml:space="preserve">6.21650314331055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74601221084595</t>
   </si>
   <si>
     <t xml:space="preserve">6.72933387756348</t>
@@ -524,7 +524,7 @@
     <t xml:space="preserve">6.69597864151001</t>
   </si>
   <si>
-    <t xml:space="preserve">6.77102708816528</t>
+    <t xml:space="preserve">6.77102756500244</t>
   </si>
   <si>
     <t xml:space="preserve">6.78770446777344</t>
@@ -533,79 +533,79 @@
     <t xml:space="preserve">7.08789777755737</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25467157363892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22965621948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0837287902832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06288194656372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12959146499634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07122039794922</t>
+    <t xml:space="preserve">7.25467109680176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22965526580811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08372926712036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06288146972656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1295919418335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07121992111206</t>
   </si>
   <si>
     <t xml:space="preserve">7.10457563400269</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03786563873291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2588415145874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65493011474609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68828535079956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65076065063477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13793134689331</t>
+    <t xml:space="preserve">7.03786516189575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25884199142456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65492963790894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6882848739624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65076112747192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13793087005615</t>
   </si>
   <si>
     <t xml:space="preserve">7.354736328125</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49649429321289</t>
+    <t xml:space="preserve">7.49649477005005</t>
   </si>
   <si>
     <t xml:space="preserve">7.5298490524292</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54235792160034</t>
+    <t xml:space="preserve">7.54235696792603</t>
   </si>
   <si>
     <t xml:space="preserve">7.48815584182739</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32972097396851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22131729125977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15460777282715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99200344085693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12125253677368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10874462127686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09206771850586</t>
+    <t xml:space="preserve">7.32972049713135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22131776809692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15460729598999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99200296401978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.121253490448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10874509811401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0920672416687</t>
   </si>
   <si>
     <t xml:space="preserve">7.05454349517822</t>
@@ -614,79 +614,79 @@
     <t xml:space="preserve">6.88359975814819</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00451135635376</t>
+    <t xml:space="preserve">7.0045108795166</t>
   </si>
   <si>
     <t xml:space="preserve">7.06705093383789</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93780088424683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96281766891479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00868034362793</t>
+    <t xml:space="preserve">6.93780040740967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96281814575195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00867986679077</t>
   </si>
   <si>
     <t xml:space="preserve">7.27968788146973</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32138156890869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59655857086182</t>
+    <t xml:space="preserve">7.32138109207153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59655809402466</t>
   </si>
   <si>
     <t xml:space="preserve">7.56320381164551</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69662237167358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74665546417236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7133002281189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9592924118042</t>
+    <t xml:space="preserve">7.6966233253479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74665403366089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71330165863037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95929336547852</t>
   </si>
   <si>
     <t xml:space="preserve">8.06352615356445</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08854198455811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13023662567139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90926027297974</t>
+    <t xml:space="preserve">8.08854293823242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13023567199707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90925931930542</t>
   </si>
   <si>
     <t xml:space="preserve">8.31785774230957</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25114822387695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31368827819824</t>
+    <t xml:space="preserve">8.25114727020264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31368732452393</t>
   </si>
   <si>
     <t xml:space="preserve">8.5471715927124</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55550956726074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42209148406982</t>
+    <t xml:space="preserve">8.55551052093506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42209053039551</t>
   </si>
   <si>
     <t xml:space="preserve">8.45544528961182</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49713706970215</t>
+    <t xml:space="preserve">8.49713802337646</t>
   </si>
   <si>
     <t xml:space="preserve">8.68892955780029</t>
@@ -698,64 +698,64 @@
     <t xml:space="preserve">8.65557384490967</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58886528015137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3887357711792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09688091278076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82170486450195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01766395568848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23447036743164</t>
+    <t xml:space="preserve">8.58886432647705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38873672485352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09687995910645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82170391082764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01766300201416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23446941375732</t>
   </si>
   <si>
     <t xml:space="preserve">8.57218742370605</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66391372680664</t>
+    <t xml:space="preserve">8.66391277313232</t>
   </si>
   <si>
     <t xml:space="preserve">8.83902645111084</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92241287231445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43941211700439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51446056365967</t>
+    <t xml:space="preserve">8.92241382598877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43941116333008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51446151733398</t>
   </si>
   <si>
     <t xml:space="preserve">10.1565408706665</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2315893173218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5651369094849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7652654647827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8319759368896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3650093078613</t>
+    <t xml:space="preserve">10.2315912246704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5651378631592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7652673721313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.831976890564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.365008354187</t>
   </si>
   <si>
     <t xml:space="preserve">10.4233798980713</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6540622711182</t>
+    <t xml:space="preserve">10.6540613174438</t>
   </si>
   <si>
     <t xml:space="preserve">10.5344486236572</t>
@@ -764,28 +764,28 @@
     <t xml:space="preserve">9.94493007659912</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1328926086426</t>
+    <t xml:space="preserve">10.1328916549683</t>
   </si>
   <si>
     <t xml:space="preserve">10.1926975250244</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1243476867676</t>
+    <t xml:space="preserve">10.1243486404419</t>
   </si>
   <si>
     <t xml:space="preserve">10.2439603805542</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2525043487549</t>
+    <t xml:space="preserve">10.2525033950806</t>
   </si>
   <si>
     <t xml:space="preserve">10.1499795913696</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4575538635254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7822170257568</t>
+    <t xml:space="preserve">10.4575548171997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7822160720825</t>
   </si>
   <si>
     <t xml:space="preserve">10.7394981384277</t>
@@ -794,7 +794,7 @@
     <t xml:space="preserve">10.6882352828979</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5515356063843</t>
+    <t xml:space="preserve">10.5515365600586</t>
   </si>
   <si>
     <t xml:space="preserve">10.7993049621582</t>
@@ -818,13 +818,13 @@
     <t xml:space="preserve">10.3464851379395</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3806600570679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1158037185669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97910404205322</t>
+    <t xml:space="preserve">10.3806591033936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1158046722412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97910499572754</t>
   </si>
   <si>
     <t xml:space="preserve">9.9022102355957</t>
@@ -833,10 +833,10 @@
     <t xml:space="preserve">9.85094738006592</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68007373809814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50065326690674</t>
+    <t xml:space="preserve">9.68007183074951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50065422058105</t>
   </si>
   <si>
     <t xml:space="preserve">9.16744709014893</t>
@@ -851,7 +851,7 @@
     <t xml:space="preserve">9.26142978668213</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30414772033691</t>
+    <t xml:space="preserve">9.30414867401123</t>
   </si>
   <si>
     <t xml:space="preserve">9.29560375213623</t>
@@ -860,13 +860,13 @@
     <t xml:space="preserve">9.39812850952148</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27851676940918</t>
+    <t xml:space="preserve">9.27851581573486</t>
   </si>
   <si>
     <t xml:space="preserve">9.44084739685059</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75696659088135</t>
+    <t xml:space="preserve">9.75696754455566</t>
   </si>
   <si>
     <t xml:space="preserve">10.1670665740967</t>
@@ -878,7 +878,7 @@
     <t xml:space="preserve">9.97056102752686</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91929721832275</t>
+    <t xml:space="preserve">9.91929626464844</t>
   </si>
   <si>
     <t xml:space="preserve">10.295223236084</t>
@@ -890,7 +890,7 @@
     <t xml:space="preserve">10.3550291061401</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3293981552124</t>
+    <t xml:space="preserve">10.3293991088867</t>
   </si>
   <si>
     <t xml:space="preserve">10.3635740280151</t>
@@ -899,16 +899,16 @@
     <t xml:space="preserve">10.4404668807983</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2781362533569</t>
+    <t xml:space="preserve">10.2781352996826</t>
   </si>
   <si>
     <t xml:space="preserve">10.0901737213135</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0389108657837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96201610565186</t>
+    <t xml:space="preserve">10.0389099121094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96201705932617</t>
   </si>
   <si>
     <t xml:space="preserve">9.92784214019775</t>
@@ -920,7 +920,7 @@
     <t xml:space="preserve">9.57754802703857</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77405261993408</t>
+    <t xml:space="preserve">9.7740535736084</t>
   </si>
   <si>
     <t xml:space="preserve">9.52628421783447</t>
@@ -944,19 +944,19 @@
     <t xml:space="preserve">9.3468656539917</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44939136505127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51774311065674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58609199523926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33832168579102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26997184753418</t>
+    <t xml:space="preserve">9.44939231872559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51774120330811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58609104156494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33832263946533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26997375488281</t>
   </si>
   <si>
     <t xml:space="preserve">9.65444278717041</t>
@@ -965,10 +965,10 @@
     <t xml:space="preserve">9.56046009063721</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91075420379639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74842262268066</t>
+    <t xml:space="preserve">9.9107551574707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74842357635498</t>
   </si>
   <si>
     <t xml:space="preserve">9.71424770355225</t>
@@ -977,16 +977,16 @@
     <t xml:space="preserve">9.70570278167725</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8253173828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89366722106934</t>
+    <t xml:space="preserve">9.82531642913818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89366626739502</t>
   </si>
   <si>
     <t xml:space="preserve">9.84240531921387</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86803531646729</t>
+    <t xml:space="preserve">9.8680362701416</t>
   </si>
   <si>
     <t xml:space="preserve">9.76551055908203</t>
@@ -995,22 +995,22 @@
     <t xml:space="preserve">9.73987865447998</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69716167449951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85949230194092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79968643188477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54337310791016</t>
+    <t xml:space="preserve">9.6971607208252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85949039459229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79968547821045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54337215423584</t>
   </si>
   <si>
     <t xml:space="preserve">9.20162296295166</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06492233276367</t>
+    <t xml:space="preserve">9.06492137908936</t>
   </si>
   <si>
     <t xml:space="preserve">8.78297901153564</t>
@@ -1019,7 +1019,7 @@
     <t xml:space="preserve">8.65482234954834</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13365459442139</t>
+    <t xml:space="preserve">8.13365364074707</t>
   </si>
   <si>
     <t xml:space="preserve">8.38569355010986</t>
@@ -1028,10 +1028,10 @@
     <t xml:space="preserve">8.15928554534912</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18064403533936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68899631500244</t>
+    <t xml:space="preserve">8.18064498901367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68899726867676</t>
   </si>
   <si>
     <t xml:space="preserve">8.38996601104736</t>
@@ -1040,25 +1040,25 @@
     <t xml:space="preserve">8.40278148651123</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25326538085938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33016014099121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43268489837646</t>
+    <t xml:space="preserve">8.25326633453369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33015918731689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43268585205078</t>
   </si>
   <si>
     <t xml:space="preserve">8.37287902832031</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35151863098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15074157714844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09520816802979</t>
+    <t xml:space="preserve">8.35151958465576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15074062347412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09520721435547</t>
   </si>
   <si>
     <t xml:space="preserve">7.90724325180054</t>
@@ -1067,19 +1067,19 @@
     <t xml:space="preserve">7.88161277770996</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85598182678223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96705007553101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9115161895752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01404190063477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.035400390625</t>
+    <t xml:space="preserve">7.85598039627075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96705102920532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91151666641235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01404094696045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03539943695068</t>
   </si>
   <si>
     <t xml:space="preserve">8.0781192779541</t>
@@ -1088,19 +1088,19 @@
     <t xml:space="preserve">8.0695743560791</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31307125091553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21909141540527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20627403259277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10802173614502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13792514801025</t>
+    <t xml:space="preserve">8.31307220458984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21909236907959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20627498626709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1080207824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13792610168457</t>
   </si>
   <si>
     <t xml:space="preserve">8.23190689086914</t>
@@ -1109,19 +1109,19 @@
     <t xml:space="preserve">8.28316879272461</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34724712371826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48394775390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62919139862061</t>
+    <t xml:space="preserve">8.34724807739258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48394680023193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62919044494629</t>
   </si>
   <si>
     <t xml:space="preserve">8.57792854309082</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80006694793701</t>
+    <t xml:space="preserve">8.8000659942627</t>
   </si>
   <si>
     <t xml:space="preserve">8.61210441589355</t>
@@ -1139,13 +1139,13 @@
     <t xml:space="preserve">8.64627838134766</t>
   </si>
   <si>
-    <t xml:space="preserve">8.52666473388672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51812267303467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4668607711792</t>
+    <t xml:space="preserve">8.52666568756104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51812171936035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46685981750488</t>
   </si>
   <si>
     <t xml:space="preserve">8.44122886657715</t>
@@ -1154,7 +1154,7 @@
     <t xml:space="preserve">8.26181030273438</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0738468170166</t>
+    <t xml:space="preserve">8.07384777069092</t>
   </si>
   <si>
     <t xml:space="preserve">8.04821586608887</t>
@@ -1163,25 +1163,25 @@
     <t xml:space="preserve">7.97132205963135</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18491554260254</t>
+    <t xml:space="preserve">8.18491649627686</t>
   </si>
   <si>
     <t xml:space="preserve">8.03112888336182</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38142108917236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97094249725342</t>
+    <t xml:space="preserve">8.381422996521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97094058990479</t>
   </si>
   <si>
     <t xml:space="preserve">8.81715297698975</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88550281524658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83424186706543</t>
+    <t xml:space="preserve">8.8855037689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83424091339111</t>
   </si>
   <si>
     <t xml:space="preserve">8.68045330047607</t>
@@ -1196,10 +1196,10 @@
     <t xml:space="preserve">9.0051155090332</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4323034286499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3126916885376</t>
+    <t xml:space="preserve">9.43230438232422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31269073486328</t>
   </si>
   <si>
     <t xml:space="preserve">9.19307899475098</t>
@@ -1208,46 +1208,46 @@
     <t xml:space="preserve">9.17599201202393</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10764026641846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15890407562256</t>
+    <t xml:space="preserve">9.10764122009277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15890312194824</t>
   </si>
   <si>
     <t xml:space="preserve">9.32977867126465</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48356628417969</t>
+    <t xml:space="preserve">9.483567237854</t>
   </si>
   <si>
     <t xml:space="preserve">10.2866792678833</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6455163955688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7480421066284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6967802047729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0385303497314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5169801712036</t>
+    <t xml:space="preserve">10.6455173492432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7480411529541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6967811584473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0385293960571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5169792175293</t>
   </si>
   <si>
     <t xml:space="preserve">11.4486293792725</t>
   </si>
   <si>
-    <t xml:space="preserve">11.551155090332</t>
+    <t xml:space="preserve">11.5511560440063</t>
   </si>
   <si>
     <t xml:space="preserve">11.6249647140503</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9571056365967</t>
+    <t xml:space="preserve">11.9571046829224</t>
   </si>
   <si>
     <t xml:space="preserve">11.9202013015747</t>
@@ -1259,10 +1259,10 @@
     <t xml:space="preserve">11.3850841522217</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3666305541992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0344905853271</t>
+    <t xml:space="preserve">11.3666315078735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0344896316528</t>
   </si>
   <si>
     <t xml:space="preserve">10.9606809616089</t>
@@ -1271,13 +1271,13 @@
     <t xml:space="preserve">10.5731811523438</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7761573791504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.683895111084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.720799446106</t>
+    <t xml:space="preserve">10.7761583328247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6838941574097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7208003997803</t>
   </si>
   <si>
     <t xml:space="preserve">10.5547294616699</t>
@@ -1313,28 +1313,28 @@
     <t xml:space="preserve">10.4809188842773</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3886594772339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5178241729736</t>
+    <t xml:space="preserve">10.3886585235596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5178232192993</t>
   </si>
   <si>
     <t xml:space="preserve">10.4071102142334</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2779455184937</t>
+    <t xml:space="preserve">10.2779445648193</t>
   </si>
   <si>
     <t xml:space="preserve">10.1672306060791</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85354232788086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87199306488037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7797327041626</t>
+    <t xml:space="preserve">9.85354137420654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87199401855469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77973175048828</t>
   </si>
   <si>
     <t xml:space="preserve">9.53985118865967</t>
@@ -1349,10 +1349,10 @@
     <t xml:space="preserve">9.72437381744385</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68747043609619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81663703918457</t>
+    <t xml:space="preserve">9.68746948242188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81663608551025</t>
   </si>
   <si>
     <t xml:space="preserve">9.76127910614014</t>
@@ -1364,16 +1364,16 @@
     <t xml:space="preserve">9.37378025054932</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31842231750488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42913722991943</t>
+    <t xml:space="preserve">9.3184232711792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42913818359375</t>
   </si>
   <si>
     <t xml:space="preserve">9.39223289489746</t>
   </si>
   <si>
-    <t xml:space="preserve">9.33687591552734</t>
+    <t xml:space="preserve">9.33687496185303</t>
   </si>
   <si>
     <t xml:space="preserve">9.1338996887207</t>
@@ -1388,34 +1388,34 @@
     <t xml:space="preserve">8.94015026092529</t>
   </si>
   <si>
-    <t xml:space="preserve">9.09699630737305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02318668365479</t>
+    <t xml:space="preserve">9.09699535369873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02318572998047</t>
   </si>
   <si>
     <t xml:space="preserve">9.04163932800293</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00473403930664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58033180236816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34045124053955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9862813949585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76485443115234</t>
+    <t xml:space="preserve">9.00473499298096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58033084869385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34045028686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98628044128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76485347747803</t>
   </si>
   <si>
     <t xml:space="preserve">8.700270652771</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71872234344482</t>
+    <t xml:space="preserve">8.71872329711914</t>
   </si>
   <si>
     <t xml:space="preserve">8.69104480743408</t>
@@ -1424,10 +1424,10 @@
     <t xml:space="preserve">8.4142599105835</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5065221786499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46604156494141</t>
+    <t xml:space="preserve">8.50652122497559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46604251861572</t>
   </si>
   <si>
     <t xml:space="preserve">9.44758987426758</t>
@@ -1436,22 +1436,22 @@
     <t xml:space="preserve">9.26306629180908</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06931686401367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20771026611328</t>
+    <t xml:space="preserve">9.06931781768799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20770931243896</t>
   </si>
   <si>
     <t xml:space="preserve">9.18925762176514</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10622119903564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0324125289917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06009101867676</t>
+    <t xml:space="preserve">9.10622215270996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03241157531738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06009006500244</t>
   </si>
   <si>
     <t xml:space="preserve">8.94937705993652</t>
@@ -1469,7 +1469,7 @@
     <t xml:space="preserve">8.90324592590332</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83866310119629</t>
+    <t xml:space="preserve">8.83866405487061</t>
   </si>
   <si>
     <t xml:space="preserve">8.77408027648926</t>
@@ -1478,28 +1478,28 @@
     <t xml:space="preserve">8.65413951873779</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46961688995361</t>
+    <t xml:space="preserve">8.4696159362793</t>
   </si>
   <si>
     <t xml:space="preserve">8.36812877655029</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30354595184326</t>
+    <t xml:space="preserve">8.30354499816895</t>
   </si>
   <si>
     <t xml:space="preserve">7.79610681533813</t>
   </si>
   <si>
-    <t xml:space="preserve">7.759202003479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74075031280518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61158323287964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64848852157593</t>
+    <t xml:space="preserve">7.75920248031616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74075078964233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6115837097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64848756790161</t>
   </si>
   <si>
     <t xml:space="preserve">7.54700088500977</t>
@@ -1511,7 +1511,7 @@
     <t xml:space="preserve">7.45473861694336</t>
   </si>
   <si>
-    <t xml:space="preserve">7.13182353973389</t>
+    <t xml:space="preserve">7.13182306289673</t>
   </si>
   <si>
     <t xml:space="preserve">7.15950155258179</t>
@@ -1526,58 +1526,58 @@
     <t xml:space="preserve">7.3532509803772</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37170267105103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53777408599854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47319173812866</t>
+    <t xml:space="preserve">7.37170314788818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53777360916138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4731912612915</t>
   </si>
   <si>
     <t xml:space="preserve">7.82378435134888</t>
   </si>
   <si>
-    <t xml:space="preserve">7.86069059371948</t>
+    <t xml:space="preserve">7.86069011688232</t>
   </si>
   <si>
     <t xml:space="preserve">7.74997520446777</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51009654998779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63926124572754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62080955505371</t>
+    <t xml:space="preserve">7.51009607315063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6392617225647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62080907821655</t>
   </si>
   <si>
     <t xml:space="preserve">7.3993821144104</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56545257568359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27944135665894</t>
+    <t xml:space="preserve">7.56545305252075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27944183349609</t>
   </si>
   <si>
     <t xml:space="preserve">7.19640636444092</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20563316345215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11337041854858</t>
+    <t xml:space="preserve">7.20563220977783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11337089538574</t>
   </si>
   <si>
     <t xml:space="preserve">7.10414409637451</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49164295196533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59313106536865</t>
+    <t xml:space="preserve">7.49164342880249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59313154220581</t>
   </si>
   <si>
     <t xml:space="preserve">7.58390522003174</t>
@@ -1586,13 +1586,13 @@
     <t xml:space="preserve">7.52854824066162</t>
   </si>
   <si>
-    <t xml:space="preserve">7.39015579223633</t>
+    <t xml:space="preserve">7.39015531539917</t>
   </si>
   <si>
     <t xml:space="preserve">7.34402513504028</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33479833602905</t>
+    <t xml:space="preserve">7.33479881286621</t>
   </si>
   <si>
     <t xml:space="preserve">7.36247730255127</t>
@@ -1601,10 +1601,10 @@
     <t xml:space="preserve">7.29789400100708</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32557249069214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.408607006073</t>
+    <t xml:space="preserve">7.32557201385498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40860748291016</t>
   </si>
   <si>
     <t xml:space="preserve">7.7315239906311</t>
@@ -1622,34 +1622,34 @@
     <t xml:space="preserve">8.43271255493164</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45116519927979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55265235900879</t>
+    <t xml:space="preserve">8.45116424560547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55265331268311</t>
   </si>
   <si>
     <t xml:space="preserve">8.4603910446167</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40503311157227</t>
+    <t xml:space="preserve">8.40503215789795</t>
   </si>
   <si>
     <t xml:space="preserve">8.39580726623535</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08776950836182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19848346710205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80175876617432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17080593109131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11544799804688</t>
+    <t xml:space="preserve">9.08777046203613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19848251342773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8017578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17080497741699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11544895172119</t>
   </si>
   <si>
     <t xml:space="preserve">8.85711574554443</t>
@@ -1661,7 +1661,7 @@
     <t xml:space="preserve">8.92169857025146</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07854270935059</t>
+    <t xml:space="preserve">9.0785436630249</t>
   </si>
   <si>
     <t xml:space="preserve">8.97705554962158</t>
@@ -1670,7 +1670,7 @@
     <t xml:space="preserve">8.96782875061035</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91247177124023</t>
+    <t xml:space="preserve">8.91247272491455</t>
   </si>
   <si>
     <t xml:space="preserve">8.86634063720703</t>
@@ -1685,31 +1685,31 @@
     <t xml:space="preserve">8.74640083312988</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31277179718018</t>
+    <t xml:space="preserve">8.31277275085449</t>
   </si>
   <si>
     <t xml:space="preserve">8.44193744659424</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33122444152832</t>
+    <t xml:space="preserve">8.331223487854</t>
   </si>
   <si>
     <t xml:space="preserve">8.1836051940918</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32199764251709</t>
+    <t xml:space="preserve">8.32199859619141</t>
   </si>
   <si>
     <t xml:space="preserve">8.29432010650635</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49729442596436</t>
+    <t xml:space="preserve">8.49729537963867</t>
   </si>
   <si>
     <t xml:space="preserve">8.5157470703125</t>
   </si>
   <si>
-    <t xml:space="preserve">8.53419876098633</t>
+    <t xml:space="preserve">8.53419971466064</t>
   </si>
   <si>
     <t xml:space="preserve">8.56187725067139</t>
@@ -1721,7 +1721,7 @@
     <t xml:space="preserve">8.52497386932373</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57110404968262</t>
+    <t xml:space="preserve">8.5711030960083</t>
   </si>
   <si>
     <t xml:space="preserve">8.59878253936768</t>
@@ -1730,7 +1730,7 @@
     <t xml:space="preserve">8.68181800842285</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67259120941162</t>
+    <t xml:space="preserve">8.67259311676025</t>
   </si>
   <si>
     <t xml:space="preserve">8.60800838470459</t>
@@ -1763,13 +1763,13 @@
     <t xml:space="preserve">8.14982414245605</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09133434295654</t>
+    <t xml:space="preserve">8.09133338928223</t>
   </si>
   <si>
     <t xml:space="preserve">8.11083030700684</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08158588409424</t>
+    <t xml:space="preserve">8.08158493041992</t>
   </si>
   <si>
     <t xml:space="preserve">8.15957355499268</t>
@@ -1778,13 +1778,13 @@
     <t xml:space="preserve">8.17907238006592</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20831680297852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03284168243408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02309226989746</t>
+    <t xml:space="preserve">8.20831775665283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0328426361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02309322357178</t>
   </si>
   <si>
     <t xml:space="preserve">8.22781372070312</t>
@@ -1796,7 +1796,7 @@
     <t xml:space="preserve">8.31555080413818</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19856739044189</t>
+    <t xml:space="preserve">8.19856834411621</t>
   </si>
   <si>
     <t xml:space="preserve">7.9840989112854</t>
@@ -1808,19 +1808,19 @@
     <t xml:space="preserve">8.14007759094238</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96460247039795</t>
+    <t xml:space="preserve">7.96460151672363</t>
   </si>
   <si>
     <t xml:space="preserve">7.99384832382202</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23756217956543</t>
+    <t xml:space="preserve">8.23756313323975</t>
   </si>
   <si>
     <t xml:space="preserve">8.1693229675293</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18881988525391</t>
+    <t xml:space="preserve">8.18881893157959</t>
   </si>
   <si>
     <t xml:space="preserve">8.10108280181885</t>
@@ -1829,7 +1829,7 @@
     <t xml:space="preserve">8.00359630584717</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26680850982666</t>
+    <t xml:space="preserve">8.26680755615234</t>
   </si>
   <si>
     <t xml:space="preserve">8.21806526184082</t>
@@ -1844,7 +1844,7 @@
     <t xml:space="preserve">8.07183647155762</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92560768127441</t>
+    <t xml:space="preserve">7.92560815811157</t>
   </si>
   <si>
     <t xml:space="preserve">7.93535614013672</t>
@@ -1853,13 +1853,13 @@
     <t xml:space="preserve">7.97435092926025</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01334476470947</t>
+    <t xml:space="preserve">8.01334571838379</t>
   </si>
   <si>
     <t xml:space="preserve">8.50077533721924</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39353942871094</t>
+    <t xml:space="preserve">8.39354038238525</t>
   </si>
   <si>
     <t xml:space="preserve">8.34479713439941</t>
@@ -1874,7 +1874,7 @@
     <t xml:space="preserve">8.5885124206543</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85172462463379</t>
+    <t xml:space="preserve">8.85172367095947</t>
   </si>
   <si>
     <t xml:space="preserve">9.21242237091064</t>
@@ -1901,19 +1901,19 @@
     <t xml:space="preserve">9.62186336517334</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60236644744873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59261703491211</t>
+    <t xml:space="preserve">9.60236740112305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59261798858643</t>
   </si>
   <si>
     <t xml:space="preserve">10.0995435714722</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3920011520386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1190423965454</t>
+    <t xml:space="preserve">10.3920021057129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1190414428711</t>
   </si>
   <si>
     <t xml:space="preserve">10.1385383605957</t>
@@ -1928,13 +1928,13 @@
     <t xml:space="preserve">9.67060661315918</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74859523773193</t>
+    <t xml:space="preserve">9.74859428405762</t>
   </si>
   <si>
     <t xml:space="preserve">9.68035411834717</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76809215545654</t>
+    <t xml:space="preserve">9.76809310913086</t>
   </si>
   <si>
     <t xml:space="preserve">9.78758907318115</t>
@@ -1943,10 +1943,10 @@
     <t xml:space="preserve">9.5731201171875</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65110874176025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53412628173828</t>
+    <t xml:space="preserve">9.65110778808594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53412532806396</t>
   </si>
   <si>
     <t xml:space="preserve">9.94356632232666</t>
@@ -1955,19 +1955,19 @@
     <t xml:space="preserve">9.47563457489014</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41714191436768</t>
+    <t xml:space="preserve">9.41714286804199</t>
   </si>
   <si>
     <t xml:space="preserve">9.50487995147705</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44638824462891</t>
+    <t xml:space="preserve">9.44638729095459</t>
   </si>
   <si>
     <t xml:space="preserve">9.39764595031738</t>
   </si>
   <si>
-    <t xml:space="preserve">9.84608173370361</t>
+    <t xml:space="preserve">9.8460807800293</t>
   </si>
   <si>
     <t xml:space="preserve">9.7096004486084</t>
@@ -1976,7 +1976,7 @@
     <t xml:space="preserve">9.72909736633301</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18317604064941</t>
+    <t xml:space="preserve">9.18317699432373</t>
   </si>
   <si>
     <t xml:space="preserve">9.1636791229248</t>
@@ -1985,10 +1985,10 @@
     <t xml:space="preserve">9.15393161773682</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26116561889648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23191928863525</t>
+    <t xml:space="preserve">9.26116466522217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23192024230957</t>
   </si>
   <si>
     <t xml:space="preserve">9.1441822052002</t>
@@ -2003,22 +2003,22 @@
     <t xml:space="preserve">8.98820495605469</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00770092010498</t>
+    <t xml:space="preserve">9.0077018737793</t>
   </si>
   <si>
     <t xml:space="preserve">8.91996383666992</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78348350524902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83222675323486</t>
+    <t xml:space="preserve">8.78348445892334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83222770690918</t>
   </si>
   <si>
     <t xml:space="preserve">8.99795246124268</t>
   </si>
   <si>
-    <t xml:space="preserve">9.05644512176514</t>
+    <t xml:space="preserve">9.05644416809082</t>
   </si>
   <si>
     <t xml:space="preserve">9.02719879150391</t>
@@ -2033,43 +2033,43 @@
     <t xml:space="preserve">9.03694820404053</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86147403717041</t>
+    <t xml:space="preserve">8.86147308349609</t>
   </si>
   <si>
     <t xml:space="preserve">8.38379192352295</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89636278152466</t>
+    <t xml:space="preserve">7.8963623046875</t>
   </si>
   <si>
     <t xml:space="preserve">7.84761905670166</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66239595413208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58440685272217</t>
+    <t xml:space="preserve">7.66239547729492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58440732955933</t>
   </si>
   <si>
     <t xml:space="preserve">7.67214393615723</t>
   </si>
   <si>
-    <t xml:space="preserve">7.39918327331543</t>
+    <t xml:space="preserve">7.39918375015259</t>
   </si>
   <si>
     <t xml:space="preserve">6.57055234909058</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62904500961304</t>
+    <t xml:space="preserve">6.62904453277588</t>
   </si>
   <si>
     <t xml:space="preserve">6.49256420135498</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17650365829468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51770448684692</t>
+    <t xml:space="preserve">5.17650413513184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51770401000977</t>
   </si>
   <si>
     <t xml:space="preserve">4.5720911026001</t>
@@ -2084,10 +2084,10 @@
     <t xml:space="preserve">4.55259370803833</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87429761886597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16675567626953</t>
+    <t xml:space="preserve">4.87429714202881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16675519943237</t>
   </si>
   <si>
     <t xml:space="preserve">5.5566987991333</t>
@@ -2096,10 +2096,10 @@
     <t xml:space="preserve">6.08312320709229</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04412889480591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02463150024414</t>
+    <t xml:space="preserve">6.04412841796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02463102340698</t>
   </si>
   <si>
     <t xml:space="preserve">5.92714548110962</t>
@@ -2147,19 +2147,19 @@
     <t xml:space="preserve">7.60390424728394</t>
   </si>
   <si>
-    <t xml:space="preserve">7.64289808273315</t>
+    <t xml:space="preserve">7.64289855957031</t>
   </si>
   <si>
     <t xml:space="preserve">7.76962995529175</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69164085388184</t>
+    <t xml:space="preserve">7.69164133071899</t>
   </si>
   <si>
     <t xml:space="preserve">7.44792604446411</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48692035675049</t>
+    <t xml:space="preserve">7.48692083358765</t>
   </si>
   <si>
     <t xml:space="preserve">7.24320554733276</t>
@@ -2171,7 +2171,7 @@
     <t xml:space="preserve">7.33094358444214</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49666929244995</t>
+    <t xml:space="preserve">7.49666976928711</t>
   </si>
   <si>
     <t xml:space="preserve">7.54541206359863</t>
@@ -2189,7 +2189,7 @@
     <t xml:space="preserve">7.37968683242798</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61365270614624</t>
+    <t xml:space="preserve">7.61365222930908</t>
   </si>
   <si>
     <t xml:space="preserve">7.65264701843262</t>
@@ -2207,7 +2207,7 @@
     <t xml:space="preserve">7.36018943786621</t>
   </si>
   <si>
-    <t xml:space="preserve">7.28220081329346</t>
+    <t xml:space="preserve">7.2822003364563</t>
   </si>
   <si>
     <t xml:space="preserve">7.57465791702271</t>
@@ -2225,13 +2225,13 @@
     <t xml:space="preserve">7.38943481445312</t>
   </si>
   <si>
-    <t xml:space="preserve">7.40893220901489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50641822814941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70139026641846</t>
+    <t xml:space="preserve">7.40893173217773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50641775131226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7013897895813</t>
   </si>
   <si>
     <t xml:space="preserve">7.63314962387085</t>
@@ -2240,7 +2240,7 @@
     <t xml:space="preserve">7.46742343902588</t>
   </si>
   <si>
-    <t xml:space="preserve">7.35044002532959</t>
+    <t xml:space="preserve">7.35044050216675</t>
   </si>
   <si>
     <t xml:space="preserve">7.31144618988037</t>
@@ -2261,19 +2261,19 @@
     <t xml:space="preserve">7.79887628555298</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78912687301636</t>
+    <t xml:space="preserve">7.78912734985352</t>
   </si>
   <si>
     <t xml:space="preserve">7.4186806678772</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32119512557983</t>
+    <t xml:space="preserve">7.32119464874268</t>
   </si>
   <si>
     <t xml:space="preserve">7.26270294189453</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21396064758301</t>
+    <t xml:space="preserve">7.21396017074585</t>
   </si>
   <si>
     <t xml:space="preserve">7.17496585845947</t>
@@ -2285,22 +2285,22 @@
     <t xml:space="preserve">7.75988149642944</t>
   </si>
   <si>
-    <t xml:space="preserve">7.77937841415405</t>
+    <t xml:space="preserve">7.77937889099121</t>
   </si>
   <si>
     <t xml:space="preserve">7.53566360473633</t>
   </si>
   <si>
-    <t xml:space="preserve">7.72088718414307</t>
+    <t xml:space="preserve">7.72088670730591</t>
   </si>
   <si>
     <t xml:space="preserve">7.4771728515625</t>
   </si>
   <si>
-    <t xml:space="preserve">7.19446277618408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09697723388672</t>
+    <t xml:space="preserve">7.19446325302124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09697771072388</t>
   </si>
   <si>
     <t xml:space="preserve">7.15546846389771</t>
@@ -2315,13 +2315,13 @@
     <t xml:space="preserve">7.30169725418091</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2919487953186</t>
+    <t xml:space="preserve">7.29194927215576</t>
   </si>
   <si>
     <t xml:space="preserve">7.25295448303223</t>
   </si>
   <si>
-    <t xml:space="preserve">7.23345804214478</t>
+    <t xml:space="preserve">7.23345756530762</t>
   </si>
   <si>
     <t xml:space="preserve">7.18471479415894</t>
@@ -2348,22 +2348,22 @@
     <t xml:space="preserve">6.94099950790405</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02873706817627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11647462844849</t>
+    <t xml:space="preserve">7.02873659133911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11647415161133</t>
   </si>
   <si>
     <t xml:space="preserve">7.10672521591187</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92150259017944</t>
+    <t xml:space="preserve">6.92150211334229</t>
   </si>
   <si>
     <t xml:space="preserve">6.98974275588989</t>
   </si>
   <si>
-    <t xml:space="preserve">6.95074796676636</t>
+    <t xml:space="preserve">6.95074844360352</t>
   </si>
   <si>
     <t xml:space="preserve">6.87275981903076</t>
@@ -2381,7 +2381,7 @@
     <t xml:space="preserve">6.88250780105591</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83376550674438</t>
+    <t xml:space="preserve">6.83376502990723</t>
   </si>
   <si>
     <t xml:space="preserve">6.86301040649414</t>
@@ -2390,13 +2390,13 @@
     <t xml:space="preserve">6.84351348876953</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80451917648315</t>
+    <t xml:space="preserve">6.80451965332031</t>
   </si>
   <si>
     <t xml:space="preserve">6.78502225875854</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67778730392456</t>
+    <t xml:space="preserve">6.67778778076172</t>
   </si>
   <si>
     <t xml:space="preserve">6.7265305519104</t>
@@ -2411,7 +2411,7 @@
     <t xml:space="preserve">7.19347906112671</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2718825340271</t>
+    <t xml:space="preserve">7.27188205718994</t>
   </si>
   <si>
     <t xml:space="preserve">7.34048461914062</t>
@@ -2420,7 +2420,7 @@
     <t xml:space="preserve">7.22288036346436</t>
   </si>
   <si>
-    <t xml:space="preserve">7.23268032073975</t>
+    <t xml:space="preserve">7.2326807975769</t>
   </si>
   <si>
     <t xml:space="preserve">7.48749017715454</t>
@@ -2432,7 +2432,7 @@
     <t xml:space="preserve">7.55609321594238</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54629278182983</t>
+    <t xml:space="preserve">7.54629230499268</t>
   </si>
   <si>
     <t xml:space="preserve">7.64429664611816</t>
@@ -2444,22 +2444,22 @@
     <t xml:space="preserve">7.51689195632935</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76190137863159</t>
+    <t xml:space="preserve">7.76190090179443</t>
   </si>
   <si>
     <t xml:space="preserve">7.88930606842041</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12451553344727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09511470794678</t>
+    <t xml:space="preserve">8.12451457977295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09511375427246</t>
   </si>
   <si>
     <t xml:space="preserve">8.14411640167236</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06571197509766</t>
+    <t xml:space="preserve">8.06571292877197</t>
   </si>
   <si>
     <t xml:space="preserve">8.15391540527344</t>
@@ -2468,7 +2468,7 @@
     <t xml:space="preserve">8.18331813812256</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25191974639893</t>
+    <t xml:space="preserve">8.25192070007324</t>
   </si>
   <si>
     <t xml:space="preserve">8.19311714172363</t>
@@ -2483,10 +2483,10 @@
     <t xml:space="preserve">7.84030437469482</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65409708023071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62469577789307</t>
+    <t xml:space="preserve">7.65409660339355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62469625473022</t>
   </si>
   <si>
     <t xml:space="preserve">7.78150177001953</t>
@@ -2513,7 +2513,7 @@
     <t xml:space="preserve">7.87950563430786</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70309925079346</t>
+    <t xml:space="preserve">7.7030987739563</t>
   </si>
   <si>
     <t xml:space="preserve">7.59529447555542</t>
@@ -2525,7 +2525,7 @@
     <t xml:space="preserve">7.69329833984375</t>
   </si>
   <si>
-    <t xml:space="preserve">7.6834979057312</t>
+    <t xml:space="preserve">7.68349838256836</t>
   </si>
   <si>
     <t xml:space="preserve">7.61489534378052</t>
@@ -2534,13 +2534,13 @@
     <t xml:space="preserve">7.89910697937012</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85990571975708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85010480880737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07551288604736</t>
+    <t xml:space="preserve">7.85990524291992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85010433197021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07551383972168</t>
   </si>
   <si>
     <t xml:space="preserve">7.99711036682129</t>
@@ -2552,7 +2552,7 @@
     <t xml:space="preserve">8.33032321929932</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13431644439697</t>
+    <t xml:space="preserve">8.13431549072266</t>
   </si>
   <si>
     <t xml:space="preserve">8.50673007965088</t>
@@ -2564,22 +2564,22 @@
     <t xml:space="preserve">8.4283275604248</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40872669219971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59493446350098</t>
+    <t xml:space="preserve">8.40872573852539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59493350982666</t>
   </si>
   <si>
     <t xml:space="preserve">8.81054210662842</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73213768005371</t>
+    <t xml:space="preserve">8.73213863372803</t>
   </si>
   <si>
     <t xml:space="preserve">8.74193859100342</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8791446685791</t>
+    <t xml:space="preserve">8.87914562225342</t>
   </si>
   <si>
     <t xml:space="preserve">9.08495330810547</t>
@@ -2591,13 +2591,13 @@
     <t xml:space="preserve">9.17315578460693</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10455322265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82034301757812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86934375762939</t>
+    <t xml:space="preserve">9.10455226898193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82034206390381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86934471130371</t>
   </si>
   <si>
     <t xml:space="preserve">8.63413524627686</t>
@@ -2606,13 +2606,13 @@
     <t xml:space="preserve">8.61453437805176</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46752834320068</t>
+    <t xml:space="preserve">8.467529296875</t>
   </si>
   <si>
     <t xml:space="preserve">8.57533264160156</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30092239379883</t>
+    <t xml:space="preserve">8.30092144012451</t>
   </si>
   <si>
     <t xml:space="preserve">8.3597240447998</t>
@@ -2621,10 +2621,10 @@
     <t xml:space="preserve">8.3793249130249</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49693012237549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52633094787598</t>
+    <t xml:space="preserve">8.49692916870117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52632999420166</t>
   </si>
   <si>
     <t xml:space="preserve">8.51653003692627</t>
@@ -2639,7 +2639,7 @@
     <t xml:space="preserve">8.29112148284912</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23231983184814</t>
+    <t xml:space="preserve">8.23231887817383</t>
   </si>
   <si>
     <t xml:space="preserve">8.20291805267334</t>
@@ -2648,19 +2648,19 @@
     <t xml:space="preserve">8.26172065734863</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31072235107422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28132057189941</t>
+    <t xml:space="preserve">8.3107213973999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28132152557373</t>
   </si>
   <si>
     <t xml:space="preserve">8.38912582397461</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70273780822754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64393424987793</t>
+    <t xml:space="preserve">8.70273685455322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64393520355225</t>
   </si>
   <si>
     <t xml:space="preserve">8.67333698272705</t>
@@ -2672,16 +2672,16 @@
     <t xml:space="preserve">8.56553173065186</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66353607177734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8987455368042</t>
+    <t xml:space="preserve">8.66353702545166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89874458312988</t>
   </si>
   <si>
     <t xml:space="preserve">8.77134037017822</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90854644775391</t>
+    <t xml:space="preserve">8.90854549407959</t>
   </si>
   <si>
     <t xml:space="preserve">9.07515239715576</t>
@@ -2690,19 +2690,19 @@
     <t xml:space="preserve">9.99638748168945</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81998062133789</t>
+    <t xml:space="preserve">9.81998157501221</t>
   </si>
   <si>
     <t xml:space="preserve">9.95718574523926</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3884038925171</t>
+    <t xml:space="preserve">10.3884029388428</t>
   </si>
   <si>
     <t xml:space="preserve">10.427604675293</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4472045898438</t>
+    <t xml:space="preserve">10.4472055435181</t>
   </si>
   <si>
     <t xml:space="preserve">9.83958148956299</t>
@@ -2747,10 +2747,10 @@
     <t xml:space="preserve">9.18295574188232</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31036186218262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99674987792969</t>
+    <t xml:space="preserve">9.3103609085083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99674892425537</t>
   </si>
   <si>
     <t xml:space="preserve">9.19275665283203</t>
@@ -2759,19 +2759,19 @@
     <t xml:space="preserve">9.26135921478271</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42796516418457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69257640838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64357376098633</t>
+    <t xml:space="preserve">9.42796611785889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69257545471191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64357471466064</t>
   </si>
   <si>
     <t xml:space="preserve">9.60437297821045</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8983850479126</t>
+    <t xml:space="preserve">9.89838409423828</t>
   </si>
   <si>
     <t xml:space="preserve">9.93758583068848</t>
@@ -2783,7 +2783,7 @@
     <t xml:space="preserve">9.7415771484375</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68277549743652</t>
+    <t xml:space="preserve">9.68277645111084</t>
   </si>
   <si>
     <t xml:space="preserve">9.66317462921143</t>
@@ -2798,19 +2798,19 @@
     <t xml:space="preserve">9.25155830383301</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24175834655762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28096008300781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30056095123291</t>
+    <t xml:space="preserve">9.24175930023193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28096103668213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30055999755859</t>
   </si>
   <si>
     <t xml:space="preserve">9.27116012573242</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06535148620605</t>
+    <t xml:space="preserve">9.06535243988037</t>
   </si>
   <si>
     <t xml:space="preserve">9.04575061798096</t>
@@ -2825,16 +2825,16 @@
     <t xml:space="preserve">8.44792747497559</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8301420211792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47732830047607</t>
+    <t xml:space="preserve">8.83014297485352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47732925415039</t>
   </si>
   <si>
     <t xml:space="preserve">8.34012317657471</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43812656402588</t>
+    <t xml:space="preserve">8.4381275177002</t>
   </si>
   <si>
     <t xml:space="preserve">8.78114032745361</t>
@@ -2864,7 +2864,7 @@
     <t xml:space="preserve">9.09475231170654</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49656867980957</t>
+    <t xml:space="preserve">9.49656772613525</t>
   </si>
   <si>
     <t xml:space="preserve">9.56517124176025</t>
@@ -2876,10 +2876,10 @@
     <t xml:space="preserve">9.73177719116211</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0551900863647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58477210998535</t>
+    <t xml:space="preserve">10.0551910400391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58477115631104</t>
   </si>
   <si>
     <t xml:space="preserve">9.54556941986084</t>
@@ -2894,7 +2894,7 @@
     <t xml:space="preserve">9.62397289276123</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51616954803467</t>
+    <t xml:space="preserve">9.51616859436035</t>
   </si>
   <si>
     <t xml:space="preserve">9.37896347045898</t>
@@ -2903,7 +2903,7 @@
     <t xml:space="preserve">9.3495626449585</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80038070678711</t>
+    <t xml:space="preserve">9.80037975311279</t>
   </si>
   <si>
     <t xml:space="preserve">10.1923952102661</t>
@@ -2912,7 +2912,7 @@
     <t xml:space="preserve">10.0747909545898</t>
   </si>
   <si>
-    <t xml:space="preserve">10.231595993042</t>
+    <t xml:space="preserve">10.2315969467163</t>
   </si>
   <si>
     <t xml:space="preserve">10.1531934738159</t>
@@ -2921,7 +2921,7 @@
     <t xml:space="preserve">10.2511978149414</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0943918228149</t>
+    <t xml:space="preserve">10.0943908691406</t>
   </si>
   <si>
     <t xml:space="preserve">10.1139917373657</t>
@@ -2939,25 +2939,25 @@
     <t xml:space="preserve">9.2907600402832</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3985652923584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32016086578369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46716690063477</t>
+    <t xml:space="preserve">9.39856433868408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32016181945801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46716785430908</t>
   </si>
   <si>
     <t xml:space="preserve">9.55537033081055</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70237636566162</t>
+    <t xml:space="preserve">9.7023754119873</t>
   </si>
   <si>
     <t xml:space="preserve">9.91798400878906</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4080028533936</t>
+    <t xml:space="preserve">10.4080038070679</t>
   </si>
   <si>
     <t xml:space="preserve">10.8784227371216</t>
@@ -2966,7 +2966,7 @@
     <t xml:space="preserve">11.2704372406006</t>
   </si>
   <si>
-    <t xml:space="preserve">11.348840713501</t>
+    <t xml:space="preserve">11.3488397598267</t>
   </si>
   <si>
     <t xml:space="preserve">11.6624526977539</t>
@@ -2984,7 +2984,7 @@
     <t xml:space="preserve">11.5056457519531</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5252475738525</t>
+    <t xml:space="preserve">11.5252466201782</t>
   </si>
   <si>
     <t xml:space="preserve">11.4860458374023</t>
@@ -2999,16 +2999,16 @@
     <t xml:space="preserve">11.7016534805298</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5644493103027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4468441009521</t>
+    <t xml:space="preserve">11.5644483566284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4468450546265</t>
   </si>
   <si>
     <t xml:space="preserve">11.7212543487549</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1524715423584</t>
+    <t xml:space="preserve">12.1524705886841</t>
   </si>
   <si>
     <t xml:space="preserve">12.407280921936</t>
@@ -3017,7 +3017,7 @@
     <t xml:space="preserve">12.662091255188</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5640878677368</t>
+    <t xml:space="preserve">12.5640869140625</t>
   </si>
   <si>
     <t xml:space="preserve">12.270076751709</t>
@@ -3026,13 +3026,13 @@
     <t xml:space="preserve">12.4464826583862</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7800579071045</t>
+    <t xml:space="preserve">11.7800569534302</t>
   </si>
   <si>
     <t xml:space="preserve">11.3096380233765</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9764261245728</t>
+    <t xml:space="preserve">10.9764251708984</t>
   </si>
   <si>
     <t xml:space="preserve">10.9176235198975</t>
@@ -3044,19 +3044,19 @@
     <t xml:space="preserve">10.7804183959961</t>
   </si>
   <si>
-    <t xml:space="preserve">11.094030380249</t>
+    <t xml:space="preserve">11.0940294265747</t>
   </si>
   <si>
     <t xml:space="preserve">10.9568252563477</t>
   </si>
   <si>
-    <t xml:space="preserve">10.819619178772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0352277755737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2707977294922</t>
+    <t xml:space="preserve">10.8196201324463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.035228729248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2707986831665</t>
   </si>
   <si>
     <t xml:space="preserve">10.6824140548706</t>
@@ -3071,16 +3071,16 @@
     <t xml:space="preserve">11.0156269073486</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9372243881226</t>
+    <t xml:space="preserve">10.9372234344482</t>
   </si>
   <si>
     <t xml:space="preserve">10.7020149230957</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9960260391235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2900390625</t>
+    <t xml:space="preserve">10.9960269927979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2900381088257</t>
   </si>
   <si>
     <t xml:space="preserve">11.6036500930786</t>
@@ -3098,10 +3098,10 @@
     <t xml:space="preserve">11.9368629455566</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9760656356812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2112731933594</t>
+    <t xml:space="preserve">11.9760646820068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2112741470337</t>
   </si>
   <si>
     <t xml:space="preserve">12.1916723251343</t>
@@ -3110,31 +3110,31 @@
     <t xml:space="preserve">12.6228895187378</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7404947280884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9169015884399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9757022857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6816911697388</t>
+    <t xml:space="preserve">12.7404937744141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9169006347656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9757032394409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6816921234131</t>
   </si>
   <si>
     <t xml:space="preserve">12.720892906189</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7992963790894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9561033248901</t>
+    <t xml:space="preserve">12.7992973327637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9561023712158</t>
   </si>
   <si>
     <t xml:space="preserve">12.6032886505127</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4856834411621</t>
+    <t xml:space="preserve">12.4856843948364</t>
   </si>
   <si>
     <t xml:space="preserve">12.5248851776123</t>
@@ -3143,7 +3143,7 @@
     <t xml:space="preserve">12.3484792709351</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3680801391602</t>
+    <t xml:space="preserve">12.3680791854858</t>
   </si>
   <si>
     <t xml:space="preserve">12.2308740615845</t>
@@ -3158,19 +3158,19 @@
     <t xml:space="preserve">12.6424903869629</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5836877822876</t>
+    <t xml:space="preserve">12.5836887359619</t>
   </si>
   <si>
     <t xml:space="preserve">12.1720724105835</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8776998519897</t>
+    <t xml:space="preserve">12.8777008056641</t>
   </si>
   <si>
     <t xml:space="preserve">12.3092775344849</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2697143554688</t>
+    <t xml:space="preserve">13.2697153091431</t>
   </si>
   <si>
     <t xml:space="preserve">13.0541067123413</t>
@@ -3179,7 +3179,7 @@
     <t xml:space="preserve">12.9365015029907</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1521110534668</t>
+    <t xml:space="preserve">13.1521100997925</t>
   </si>
   <si>
     <t xml:space="preserve">13.0345058441162</t>
@@ -3191,10 +3191,10 @@
     <t xml:space="preserve">13.1717100143433</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5441255569458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5637254714966</t>
+    <t xml:space="preserve">13.5441246032715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5637264251709</t>
   </si>
   <si>
     <t xml:space="preserve">14.1517486572266</t>
@@ -3209,13 +3209,13 @@
     <t xml:space="preserve">14.0341444015503</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0733451843262</t>
+    <t xml:space="preserve">14.0733461380005</t>
   </si>
   <si>
     <t xml:space="preserve">14.4065589904785</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7201719284058</t>
+    <t xml:space="preserve">14.7201709747314</t>
   </si>
   <si>
     <t xml:space="preserve">14.8573760986328</t>
@@ -3224,7 +3224,7 @@
     <t xml:space="preserve">15.2885932922363</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0533828735352</t>
+    <t xml:space="preserve">15.0533838272095</t>
   </si>
   <si>
     <t xml:space="preserve">15.0337839126587</t>
@@ -3248,16 +3248,16 @@
     <t xml:space="preserve">17.3466739654541</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6602840423584</t>
+    <t xml:space="preserve">17.660285949707</t>
   </si>
   <si>
     <t xml:space="preserve">17.5426807403564</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9150943756104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7386875152588</t>
+    <t xml:space="preserve">17.915096282959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7386894226074</t>
   </si>
   <si>
     <t xml:space="preserve">17.8954944610596</t>
@@ -3284,13 +3284,13 @@
     <t xml:space="preserve">18.7383270263672</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1695442199707</t>
+    <t xml:space="preserve">19.1695423126221</t>
   </si>
   <si>
     <t xml:space="preserve">18.1699066162109</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1307029724121</t>
+    <t xml:space="preserve">18.1307048797607</t>
   </si>
   <si>
     <t xml:space="preserve">18.6795234680176</t>
@@ -3308,7 +3308,7 @@
     <t xml:space="preserve">19.9927749633789</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8947715759277</t>
+    <t xml:space="preserve">19.8947696685791</t>
   </si>
   <si>
     <t xml:space="preserve">19.6497611999512</t>
@@ -3323,16 +3323,16 @@
     <t xml:space="preserve">18.8363304138184</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0323390960693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3067493438721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9343338012695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6403217315674</t>
+    <t xml:space="preserve">19.0323371887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3067512512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9343357086182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.640323638916</t>
   </si>
   <si>
     <t xml:space="preserve">19.0127372741699</t>
@@ -3344,7 +3344,7 @@
     <t xml:space="preserve">19.1107406616211</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9931373596191</t>
+    <t xml:space="preserve">18.9931354522705</t>
   </si>
   <si>
     <t xml:space="preserve">18.7187271118164</t>
@@ -3353,19 +3353,19 @@
     <t xml:space="preserve">18.7775287628174</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6011219024658</t>
+    <t xml:space="preserve">18.6011199951172</t>
   </si>
   <si>
     <t xml:space="preserve">18.444314956665</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3851528167725</t>
+    <t xml:space="preserve">19.3851509094238</t>
   </si>
   <si>
     <t xml:space="preserve">19.1891441345215</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2871475219727</t>
+    <t xml:space="preserve">19.2871494293213</t>
   </si>
   <si>
     <t xml:space="preserve">19.0519390106201</t>
@@ -3374,7 +3374,7 @@
     <t xml:space="preserve">19.1303424835205</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8559303283691</t>
+    <t xml:space="preserve">18.8559322357178</t>
   </si>
   <si>
     <t xml:space="preserve">19.0735759735107</t>
@@ -59920,7 +59920,7 @@
     </row>
     <row r="2144">
       <c r="A2144" s="1" t="n">
-        <v>45447.6496180556</v>
+        <v>45447.2916666667</v>
       </c>
       <c r="B2144" t="n">
         <v>18819</v>
@@ -59941,6 +59941,32 @@
         <v>1282</v>
       </c>
       <c r="H2144" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2145">
+      <c r="A2145" s="1" t="n">
+        <v>45448.649375</v>
+      </c>
+      <c r="B2145" t="n">
+        <v>11088</v>
+      </c>
+      <c r="C2145" t="n">
+        <v>23.6000003814697</v>
+      </c>
+      <c r="D2145" t="n">
+        <v>23.2999992370605</v>
+      </c>
+      <c r="E2145" t="n">
+        <v>23.3999996185303</v>
+      </c>
+      <c r="F2145" t="n">
+        <v>23.6000003814697</v>
+      </c>
+      <c r="G2145" t="s">
+        <v>1281</v>
+      </c>
+      <c r="H2145" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TXT.MI.xlsx
+++ b/data/TXT.MI.xlsx
@@ -38,13 +38,13 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45555591583252</t>
+    <t xml:space="preserve">6.45555543899536</t>
   </si>
   <si>
     <t xml:space="preserve">TXT.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43539476394653</t>
+    <t xml:space="preserve">6.43539524078369</t>
   </si>
   <si>
     <t xml:space="preserve">6.44345903396606</t>
@@ -53,16 +53,16 @@
     <t xml:space="preserve">6.27410697937012</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31442785263062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13701248168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16926956176758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12894678115845</t>
+    <t xml:space="preserve">6.31442832946777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13701152801514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16926860809326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12894725799561</t>
   </si>
   <si>
     <t xml:space="preserve">5.96765899658203</t>
@@ -71,16 +71,16 @@
     <t xml:space="preserve">5.89507961273193</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80637121200562</t>
+    <t xml:space="preserve">5.80637073516846</t>
   </si>
   <si>
     <t xml:space="preserve">5.98782014846802</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79024171829224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76201629638672</t>
+    <t xml:space="preserve">5.79024219512939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76201677322388</t>
   </si>
   <si>
     <t xml:space="preserve">5.76604890823364</t>
@@ -89,61 +89,61 @@
     <t xml:space="preserve">5.78217792510986</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04023790359497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92733669281006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9595947265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98378753662109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04830360412598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89104795455933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81846809387207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21765518188477</t>
+    <t xml:space="preserve">6.04023933410645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92733716964722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95959520339966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98378801345825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04830312728882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89104700088501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81846857070923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21765565872192</t>
   </si>
   <si>
     <t xml:space="preserve">6.19346237182617</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24991321563721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33862257003784</t>
+    <t xml:space="preserve">6.24991273880005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33862161636353</t>
   </si>
   <si>
     <t xml:space="preserve">6.26604223251343</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24184846878052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25394535064697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45152425765991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50394153594971</t>
+    <t xml:space="preserve">6.24184894561768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25394582748413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4515233039856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50394201278687</t>
   </si>
   <si>
     <t xml:space="preserve">6.45958852767944</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53216743469238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5482964515686</t>
+    <t xml:space="preserve">6.53216791152954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54829597473145</t>
   </si>
   <si>
     <t xml:space="preserve">6.54023170471191</t>
@@ -155,19 +155,19 @@
     <t xml:space="preserve">6.12088251113892</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29829978942871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23781633377075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18539810180664</t>
+    <t xml:space="preserve">6.29829931259155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23781681060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18539762496948</t>
   </si>
   <si>
     <t xml:space="preserve">6.1974949836731</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15314054489136</t>
+    <t xml:space="preserve">6.1531400680542</t>
   </si>
   <si>
     <t xml:space="preserve">6.15717315673828</t>
@@ -176,25 +176,25 @@
     <t xml:space="preserve">6.0321741104126</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06040000915527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99185180664062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17733335494995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09668922424316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20152711868286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1410436630249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2257194519043</t>
+    <t xml:space="preserve">6.06039953231812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99185276031494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17733430862427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09668970108032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2015266418457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14104318618774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22572040557861</t>
   </si>
   <si>
     <t xml:space="preserve">6.16523694992065</t>
@@ -203,25 +203,25 @@
     <t xml:space="preserve">6.2579779624939</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07652854919434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14507579803467</t>
+    <t xml:space="preserve">6.07652807235718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14507627487183</t>
   </si>
   <si>
     <t xml:space="preserve">6.05636787414551</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99991703033447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97975492477417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16120481491089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11685037612915</t>
+    <t xml:space="preserve">5.99991607666016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97975540161133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16120433807373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11685085296631</t>
   </si>
   <si>
     <t xml:space="preserve">6.11281824111938</t>
@@ -233,13 +233,13 @@
     <t xml:space="preserve">6.2707052230835</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11643981933594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20399522781372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25402736663818</t>
+    <t xml:space="preserve">6.11643934249878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20399570465088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25402784347534</t>
   </si>
   <si>
     <t xml:space="preserve">6.13728618621826</t>
@@ -248,22 +248,22 @@
     <t xml:space="preserve">6.21233367919922</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23318004608154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24568843841553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16230154037476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33324575424194</t>
+    <t xml:space="preserve">6.23318099975586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24568891525269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16230201721191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33324527740479</t>
   </si>
   <si>
     <t xml:space="preserve">6.24151992797852</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17063999176025</t>
+    <t xml:space="preserve">6.17064094543457</t>
   </si>
   <si>
     <t xml:space="preserve">6.18314838409424</t>
@@ -272,19 +272,19 @@
     <t xml:space="preserve">6.15396308898926</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08725357055664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93715667724609</t>
+    <t xml:space="preserve">6.0872540473938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93715715408325</t>
   </si>
   <si>
     <t xml:space="preserve">5.94966506958008</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85376930236816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03722143173218</t>
+    <t xml:space="preserve">5.85376977920532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03722095489502</t>
   </si>
   <si>
     <t xml:space="preserve">6.08308458328247</t>
@@ -308,10 +308,10 @@
     <t xml:space="preserve">5.95383453369141</t>
   </si>
   <si>
-    <t xml:space="preserve">5.90797138214111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16647100448608</t>
+    <t xml:space="preserve">5.90797185897827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16647148132324</t>
   </si>
   <si>
     <t xml:space="preserve">6.05806827545166</t>
@@ -326,7 +326,7 @@
     <t xml:space="preserve">6.19982624053955</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07474565505981</t>
+    <t xml:space="preserve">6.07474517822266</t>
   </si>
   <si>
     <t xml:space="preserve">6.14145517349243</t>
@@ -335,88 +335,88 @@
     <t xml:space="preserve">6.22067308425903</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29572105407715</t>
+    <t xml:space="preserve">6.29572153091431</t>
   </si>
   <si>
     <t xml:space="preserve">6.17480993270874</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19565629959106</t>
+    <t xml:space="preserve">6.19565725326538</t>
   </si>
   <si>
     <t xml:space="preserve">6.18731784820557</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12060928344727</t>
+    <t xml:space="preserve">6.12060880661011</t>
   </si>
   <si>
     <t xml:space="preserve">6.19148731231689</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11227035522461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0955924987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01220560073853</t>
+    <t xml:space="preserve">6.11226940155029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09559297561646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01220512390137</t>
   </si>
   <si>
     <t xml:space="preserve">6.14979362487793</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02888298034668</t>
+    <t xml:space="preserve">6.02888345718384</t>
   </si>
   <si>
     <t xml:space="preserve">5.96634292602539</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99552822113037</t>
+    <t xml:space="preserve">5.99552774429321</t>
   </si>
   <si>
     <t xml:space="preserve">6.07891511917114</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9996976852417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04555988311768</t>
+    <t xml:space="preserve">5.99969720840454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04556035995483</t>
   </si>
   <si>
     <t xml:space="preserve">5.9288182258606</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97468137741089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86627769470215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85793972015381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89129447937012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89963293075562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79956865310669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94549608230591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97885036468506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92047929763794</t>
+    <t xml:space="preserve">5.97468090057373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86627817153931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85793924331665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89129400253296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89963245391846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79956817626953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94549560546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97885084152222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9204797744751</t>
   </si>
   <si>
     <t xml:space="preserve">5.9621729850769</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10393142700195</t>
+    <t xml:space="preserve">6.10393095016479</t>
   </si>
   <si>
     <t xml:space="preserve">6.47083425521851</t>
@@ -434,94 +434,94 @@
     <t xml:space="preserve">6.50001955032349</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33741426467896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50418949127197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4291410446167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44581747055054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27904367446899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38327741622925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42497110366821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45415639877319</t>
+    <t xml:space="preserve">6.33741474151611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50418901443481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42914056777954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44581842422485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27904415130615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38327789306641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42497062683105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45415687561035</t>
   </si>
   <si>
     <t xml:space="preserve">6.42080163955688</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55422067642212</t>
+    <t xml:space="preserve">6.55422115325928</t>
   </si>
   <si>
     <t xml:space="preserve">6.38744688034058</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53754425048828</t>
+    <t xml:space="preserve">6.53754329681396</t>
   </si>
   <si>
     <t xml:space="preserve">6.37910842895508</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41663312911987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34992265701294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4374794960022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22901105880737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0163745880127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05389928817749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06223773956299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0705771446228</t>
+    <t xml:space="preserve">6.41663265228271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34992218017578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43747901916504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22901153564453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01637506484985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05389881134033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06223726272583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07057619094849</t>
   </si>
   <si>
     <t xml:space="preserve">6.37076950073242</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41246366500854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32907629013062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45832633972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28738260269165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21650362014771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74601173400879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72933340072632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69597864151001</t>
+    <t xml:space="preserve">6.41246271133423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32907581329346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45832586288452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28738212585449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21650314331055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74601125717163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72933387756348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69597911834717</t>
   </si>
   <si>
     <t xml:space="preserve">6.77102756500244</t>
@@ -530,103 +530,103 @@
     <t xml:space="preserve">6.7877049446106</t>
   </si>
   <si>
-    <t xml:space="preserve">7.08789825439453</t>
+    <t xml:space="preserve">7.08789777755737</t>
   </si>
   <si>
     <t xml:space="preserve">7.25467205047607</t>
   </si>
   <si>
-    <t xml:space="preserve">7.22965621948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08372831344604</t>
+    <t xml:space="preserve">7.22965574264526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0837287902832</t>
   </si>
   <si>
     <t xml:space="preserve">7.06288194656372</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12959146499634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07122039794922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10457563400269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03786468505859</t>
+    <t xml:space="preserve">7.1295919418335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0712194442749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10457611083984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03786611557007</t>
   </si>
   <si>
     <t xml:space="preserve">7.2588415145874</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65492963790894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6882848739624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65076112747192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13793087005615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.354736328125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49649477005005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52984857559204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54235696792603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48815584182739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32972097396851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22131729125977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15460729598999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99200296401978</t>
+    <t xml:space="preserve">7.65493059158325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68828582763672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65076065063477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13793039321899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35473680496216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49649429321289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52984952926636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54235744476318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48815536499023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32972049713135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22131776809692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15460777282715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99200248718262</t>
   </si>
   <si>
     <t xml:space="preserve">7.12125301361084</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10874462127686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0920672416687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05454349517822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88359975814819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00451040267944</t>
+    <t xml:space="preserve">7.1087441444397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09206771850586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05454301834106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88360023498535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00450992584229</t>
   </si>
   <si>
     <t xml:space="preserve">7.06705141067505</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93780136108398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96281814575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00867986679077</t>
+    <t xml:space="preserve">6.93780088424683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96281766891479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00868034362793</t>
   </si>
   <si>
     <t xml:space="preserve">7.27968788146973</t>
@@ -635,28 +635,28 @@
     <t xml:space="preserve">7.32138156890869</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59655857086182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56320333480835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69662380218506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74665546417236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71330118179321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95929288864136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06352615356445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08854293823242</t>
+    <t xml:space="preserve">7.59655904769897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56320428848267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69662284851074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74665451049805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71330213546753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95929193496704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06352710723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08854103088379</t>
   </si>
   <si>
     <t xml:space="preserve">8.13023662567139</t>
@@ -665,16 +665,16 @@
     <t xml:space="preserve">7.90926027297974</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31785678863525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25114631652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31368827819824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5471715927124</t>
+    <t xml:space="preserve">8.31785774230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25114822387695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31368732452393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54717063903809</t>
   </si>
   <si>
     <t xml:space="preserve">8.55551052093506</t>
@@ -686,22 +686,22 @@
     <t xml:space="preserve">8.45544528961182</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49713802337646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68892860412598</t>
+    <t xml:space="preserve">8.49713897705078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68892955780029</t>
   </si>
   <si>
     <t xml:space="preserve">8.69726753234863</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65557384490967</t>
+    <t xml:space="preserve">8.65557479858398</t>
   </si>
   <si>
     <t xml:space="preserve">8.58886528015137</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3887357711792</t>
+    <t xml:space="preserve">8.38873672485352</t>
   </si>
   <si>
     <t xml:space="preserve">8.09688091278076</t>
@@ -710,10 +710,10 @@
     <t xml:space="preserve">7.82170391082764</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01766300201416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23446941375732</t>
+    <t xml:space="preserve">8.01766395568848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23447036743164</t>
   </si>
   <si>
     <t xml:space="preserve">8.57218742370605</t>
@@ -722,19 +722,19 @@
     <t xml:space="preserve">8.66391277313232</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83902549743652</t>
+    <t xml:space="preserve">8.83902740478516</t>
   </si>
   <si>
     <t xml:space="preserve">8.92241287231445</t>
   </si>
   <si>
-    <t xml:space="preserve">9.43941211700439</t>
+    <t xml:space="preserve">9.43941116333008</t>
   </si>
   <si>
     <t xml:space="preserve">9.51446056365967</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1565408706665</t>
+    <t xml:space="preserve">10.1565399169922</t>
   </si>
   <si>
     <t xml:space="preserve">10.2315893173218</t>
@@ -743,10 +743,10 @@
     <t xml:space="preserve">10.5651369094849</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7652654647827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8319759368896</t>
+    <t xml:space="preserve">10.765266418457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8319749832153</t>
   </si>
   <si>
     <t xml:space="preserve">10.365008354187</t>
@@ -755,13 +755,13 @@
     <t xml:space="preserve">10.4233798980713</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6540594100952</t>
+    <t xml:space="preserve">10.6540613174438</t>
   </si>
   <si>
     <t xml:space="preserve">10.5344486236572</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94493007659912</t>
+    <t xml:space="preserve">9.9449291229248</t>
   </si>
   <si>
     <t xml:space="preserve">10.1328916549683</t>
@@ -773,46 +773,46 @@
     <t xml:space="preserve">10.1243486404419</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2439594268799</t>
+    <t xml:space="preserve">10.2439603805542</t>
   </si>
   <si>
     <t xml:space="preserve">10.2525043487549</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1499786376953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4575548171997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7822160720825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7394981384277</t>
+    <t xml:space="preserve">10.1499795913696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4575538635254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7822179794312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7394990921021</t>
   </si>
   <si>
     <t xml:space="preserve">10.6882352828979</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5515375137329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7993049621582</t>
+    <t xml:space="preserve">10.5515365600586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7993059158325</t>
   </si>
   <si>
     <t xml:space="preserve">10.7224102020264</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7053241729736</t>
+    <t xml:space="preserve">10.7053232192993</t>
   </si>
   <si>
     <t xml:space="preserve">10.7138671875</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4917297363281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4319219589233</t>
+    <t xml:space="preserve">10.4917287826538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4319229125977</t>
   </si>
   <si>
     <t xml:space="preserve">10.3464851379395</t>
@@ -821,19 +821,19 @@
     <t xml:space="preserve">10.3806600570679</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1158037185669</t>
+    <t xml:space="preserve">10.1158046722412</t>
   </si>
   <si>
     <t xml:space="preserve">9.97910499572754</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90221118927002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85094833374023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68007278442383</t>
+    <t xml:space="preserve">9.9022102355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85094738006592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68007373809814</t>
   </si>
   <si>
     <t xml:space="preserve">9.50065422058105</t>
@@ -845,7 +845,7 @@
     <t xml:space="preserve">9.22725391387939</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24434185028076</t>
+    <t xml:space="preserve">9.24434089660645</t>
   </si>
   <si>
     <t xml:space="preserve">9.26142883300781</t>
@@ -857,7 +857,7 @@
     <t xml:space="preserve">9.29560375213623</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39812850952148</t>
+    <t xml:space="preserve">9.3981294631958</t>
   </si>
   <si>
     <t xml:space="preserve">9.27851581573486</t>
@@ -866,25 +866,25 @@
     <t xml:space="preserve">9.44084739685059</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75696754455566</t>
+    <t xml:space="preserve">9.75696563720703</t>
   </si>
   <si>
     <t xml:space="preserve">10.1670665740967</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1072616577148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97056102752686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91929817199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2952241897583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3037662506104</t>
+    <t xml:space="preserve">10.1072607040405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97056007385254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91929721832275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.295223236084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3037672042847</t>
   </si>
   <si>
     <t xml:space="preserve">10.3550300598145</t>
@@ -893,40 +893,40 @@
     <t xml:space="preserve">10.3293991088867</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3635740280151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4404668807983</t>
+    <t xml:space="preserve">10.3635730743408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4404678344727</t>
   </si>
   <si>
     <t xml:space="preserve">10.2781352996826</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0901727676392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0389108657837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96201610565186</t>
+    <t xml:space="preserve">10.0901737213135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0389099121094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96201705932617</t>
   </si>
   <si>
     <t xml:space="preserve">9.92784118652344</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81677341461182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57754802703857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7740535736084</t>
+    <t xml:space="preserve">9.8167724609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57754707336426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77405452728271</t>
   </si>
   <si>
     <t xml:space="preserve">9.52628421783447</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42375946044922</t>
+    <t xml:space="preserve">9.42376041412354</t>
   </si>
   <si>
     <t xml:space="preserve">9.63735389709473</t>
@@ -935,7 +935,7 @@
     <t xml:space="preserve">9.73133563995361</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56900310516357</t>
+    <t xml:space="preserve">9.56900405883789</t>
   </si>
   <si>
     <t xml:space="preserve">9.45793533325195</t>
@@ -947,13 +947,13 @@
     <t xml:space="preserve">9.44939231872559</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51774120330811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58609199523926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33832263946533</t>
+    <t xml:space="preserve">9.51774215698242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58609104156494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33832359313965</t>
   </si>
   <si>
     <t xml:space="preserve">9.26997375488281</t>
@@ -962,16 +962,16 @@
     <t xml:space="preserve">9.65444183349609</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56046009063721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9107551574707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74842262268066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71424770355225</t>
+    <t xml:space="preserve">9.56046104431152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91075420379639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74842357635498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71424674987793</t>
   </si>
   <si>
     <t xml:space="preserve">9.70570373535156</t>
@@ -980,22 +980,22 @@
     <t xml:space="preserve">9.82531642913818</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89366626739502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84240531921387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86803531646729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76550960540771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73987770080566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6971607208252</t>
+    <t xml:space="preserve">9.89366722106934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84240436553955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8680362701416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76551055908203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73987865447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69715976715088</t>
   </si>
   <si>
     <t xml:space="preserve">9.85949230194092</t>
@@ -1004,7 +1004,7 @@
     <t xml:space="preserve">9.79968547821045</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54337215423584</t>
+    <t xml:space="preserve">9.54337406158447</t>
   </si>
   <si>
     <t xml:space="preserve">9.20162296295166</t>
@@ -1019,34 +1019,34 @@
     <t xml:space="preserve">8.65482234954834</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13365364074707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38569450378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15928554534912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18064498901367</t>
+    <t xml:space="preserve">8.13365459442139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38569355010986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1592845916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18064403533936</t>
   </si>
   <si>
     <t xml:space="preserve">8.68899726867676</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38996601104736</t>
+    <t xml:space="preserve">8.38996505737305</t>
   </si>
   <si>
     <t xml:space="preserve">8.40278148651123</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25326538085938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33016014099121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43268489837646</t>
+    <t xml:space="preserve">8.25326633453369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33015918731689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43268585205078</t>
   </si>
   <si>
     <t xml:space="preserve">8.37287902832031</t>
@@ -1055,25 +1055,25 @@
     <t xml:space="preserve">8.35151958465576</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15074157714844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09520816802979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90724468231201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8816123008728</t>
+    <t xml:space="preserve">8.15074062347412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09520721435547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9072437286377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88161277770996</t>
   </si>
   <si>
     <t xml:space="preserve">7.85598087310791</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96705007553101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91151523590088</t>
+    <t xml:space="preserve">7.96705055236816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91151571273804</t>
   </si>
   <si>
     <t xml:space="preserve">8.01404094696045</t>
@@ -1085,7 +1085,7 @@
     <t xml:space="preserve">8.0781192779541</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0695743560791</t>
+    <t xml:space="preserve">8.06957530975342</t>
   </si>
   <si>
     <t xml:space="preserve">8.31307220458984</t>
@@ -1100,7 +1100,7 @@
     <t xml:space="preserve">8.10802268981934</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13792514801025</t>
+    <t xml:space="preserve">8.13792419433594</t>
   </si>
   <si>
     <t xml:space="preserve">8.23190593719482</t>
@@ -1109,10 +1109,10 @@
     <t xml:space="preserve">8.28316879272461</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34724807739258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48394680023193</t>
+    <t xml:space="preserve">8.34724712371826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48394775390625</t>
   </si>
   <si>
     <t xml:space="preserve">8.62919139862061</t>
@@ -1130,10 +1130,10 @@
     <t xml:space="preserve">8.5437536239624</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56084156036377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71462917327881</t>
+    <t xml:space="preserve">8.56084060668945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71462821960449</t>
   </si>
   <si>
     <t xml:space="preserve">8.64627838134766</t>
@@ -1154,13 +1154,13 @@
     <t xml:space="preserve">8.26180934906006</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0738468170166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04821586608887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97132158279419</t>
+    <t xml:space="preserve">8.07384777069092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04821681976318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97132253646851</t>
   </si>
   <si>
     <t xml:space="preserve">8.18491554260254</t>
@@ -1169,10 +1169,10 @@
     <t xml:space="preserve">8.0311279296875</t>
   </si>
   <si>
-    <t xml:space="preserve">8.381422996521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97094249725342</t>
+    <t xml:space="preserve">8.38142204284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9709415435791</t>
   </si>
   <si>
     <t xml:space="preserve">8.81715297698975</t>
@@ -1181,7 +1181,7 @@
     <t xml:space="preserve">8.8855037689209</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83424186706543</t>
+    <t xml:space="preserve">8.83424091339111</t>
   </si>
   <si>
     <t xml:space="preserve">8.68045330047607</t>
@@ -1190,16 +1190,16 @@
     <t xml:space="preserve">8.66336631774902</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90259075164795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0051155090332</t>
+    <t xml:space="preserve">8.90259170532227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00511646270752</t>
   </si>
   <si>
     <t xml:space="preserve">9.43230438232422</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31269073486328</t>
+    <t xml:space="preserve">9.3126916885376</t>
   </si>
   <si>
     <t xml:space="preserve">9.19307994842529</t>
@@ -1208,49 +1208,49 @@
     <t xml:space="preserve">9.17599105834961</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10764122009277</t>
+    <t xml:space="preserve">9.10764217376709</t>
   </si>
   <si>
     <t xml:space="preserve">9.15890407562256</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32977867126465</t>
+    <t xml:space="preserve">9.32978057861328</t>
   </si>
   <si>
     <t xml:space="preserve">9.48356628417969</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2866792678833</t>
+    <t xml:space="preserve">10.286678314209</t>
   </si>
   <si>
     <t xml:space="preserve">10.6455173492432</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7480421066284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6967792510986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0385284423828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.516978263855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4486303329468</t>
+    <t xml:space="preserve">10.7480411529541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6967802047729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0385293960571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5169792175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4486293792725</t>
   </si>
   <si>
     <t xml:space="preserve">11.551155090332</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6249647140503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.957106590271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9202003479004</t>
+    <t xml:space="preserve">11.624963760376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9571056365967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9202013015747</t>
   </si>
   <si>
     <t xml:space="preserve">11.4957981109619</t>
@@ -1259,16 +1259,16 @@
     <t xml:space="preserve">11.3850841522217</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3666315078735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0344896316528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9606800079346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5731811523438</t>
+    <t xml:space="preserve">11.3666305541992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0344886779785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9606809616089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5731821060181</t>
   </si>
   <si>
     <t xml:space="preserve">10.7761573791504</t>
@@ -1277,7 +1277,7 @@
     <t xml:space="preserve">10.683895111084</t>
   </si>
   <si>
-    <t xml:space="preserve">10.720799446106</t>
+    <t xml:space="preserve">10.7208003997803</t>
   </si>
   <si>
     <t xml:space="preserve">10.5547294616699</t>
@@ -1286,70 +1286,70 @@
     <t xml:space="preserve">10.241039276123</t>
   </si>
   <si>
-    <t xml:space="preserve">10.074969291687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0565156936646</t>
+    <t xml:space="preserve">10.0749702453613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0565166473389</t>
   </si>
   <si>
     <t xml:space="preserve">10.1303253173828</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3517541885376</t>
+    <t xml:space="preserve">10.3517532348633</t>
   </si>
   <si>
     <t xml:space="preserve">10.148777961731</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2963953018188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3333015441895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2041358947754</t>
+    <t xml:space="preserve">10.2963962554932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3333005905151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2041349411011</t>
   </si>
   <si>
     <t xml:space="preserve">10.4809198379517</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3886575698853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5178232192993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4071102142334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2779445648193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1672296524048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85354137420654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87199401855469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77973079681396</t>
+    <t xml:space="preserve">10.3886585235596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5178241729736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4071111679077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2779455184937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1672315597534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85354042053223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87199306488037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7797327041626</t>
   </si>
   <si>
     <t xml:space="preserve">9.53985118865967</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74282836914062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79818439483643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72437572479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68746948242188</t>
+    <t xml:space="preserve">9.74282646179199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79818344116211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72437477111816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68747043609619</t>
   </si>
   <si>
     <t xml:space="preserve">9.81663608551025</t>
@@ -1364,31 +1364,31 @@
     <t xml:space="preserve">9.37378025054932</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31842422485352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42913818359375</t>
+    <t xml:space="preserve">9.3184232711792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42913722991943</t>
   </si>
   <si>
     <t xml:space="preserve">9.39223384857178</t>
   </si>
   <si>
-    <t xml:space="preserve">9.33687496185303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13390064239502</t>
+    <t xml:space="preserve">9.33687591552734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1338996887207</t>
   </si>
   <si>
     <t xml:space="preserve">9.15235328674316</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99550724029541</t>
+    <t xml:space="preserve">8.99550819396973</t>
   </si>
   <si>
     <t xml:space="preserve">8.94015026092529</t>
   </si>
   <si>
-    <t xml:space="preserve">9.09699440002441</t>
+    <t xml:space="preserve">9.09699535369873</t>
   </si>
   <si>
     <t xml:space="preserve">9.02318572998047</t>
@@ -1397,10 +1397,10 @@
     <t xml:space="preserve">9.04163837432861</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00473403930664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58033084869385</t>
+    <t xml:space="preserve">9.00473499298096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58033180236816</t>
   </si>
   <si>
     <t xml:space="preserve">8.34045028686523</t>
@@ -1412,19 +1412,19 @@
     <t xml:space="preserve">8.76485347747803</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70027160644531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71872234344482</t>
+    <t xml:space="preserve">8.700270652771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71872329711914</t>
   </si>
   <si>
     <t xml:space="preserve">8.69104480743408</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41425895690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50652027130127</t>
+    <t xml:space="preserve">8.4142599105835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50652122497559</t>
   </si>
   <si>
     <t xml:space="preserve">9.46604251861572</t>
@@ -1445,43 +1445,43 @@
     <t xml:space="preserve">9.18925762176514</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10622119903564</t>
+    <t xml:space="preserve">9.10622215270996</t>
   </si>
   <si>
     <t xml:space="preserve">9.0324125289917</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06009101867676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94937705993652</t>
+    <t xml:space="preserve">9.06009006500244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94937610626221</t>
   </si>
   <si>
     <t xml:space="preserve">8.9309253692627</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8478889465332</t>
+    <t xml:space="preserve">8.84788990020752</t>
   </si>
   <si>
     <t xml:space="preserve">8.89402008056641</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90324687957764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83866310119629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77408027648926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65413951873779</t>
+    <t xml:space="preserve">8.90324592590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83866214752197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77407932281494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65414047241211</t>
   </si>
   <si>
     <t xml:space="preserve">8.46961688995361</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36812782287598</t>
+    <t xml:space="preserve">8.36812877655029</t>
   </si>
   <si>
     <t xml:space="preserve">8.30354499816895</t>
@@ -1493,34 +1493,34 @@
     <t xml:space="preserve">7.759202003479</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74075031280518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61158275604248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64848756790161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54700040817261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44551229476929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45473909378052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13182258605957</t>
+    <t xml:space="preserve">7.74075078964233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6115837097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64848804473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54700088500977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44551277160645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45473861694336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13182353973389</t>
   </si>
   <si>
     <t xml:space="preserve">7.15950202941895</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43628692626953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21485948562622</t>
+    <t xml:space="preserve">7.43628644943237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2148585319519</t>
   </si>
   <si>
     <t xml:space="preserve">7.3532509803772</t>
@@ -1529,13 +1529,13 @@
     <t xml:space="preserve">7.37170314788818</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53777360916138</t>
+    <t xml:space="preserve">7.53777408599854</t>
   </si>
   <si>
     <t xml:space="preserve">7.4731912612915</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82378482818604</t>
+    <t xml:space="preserve">7.82378435134888</t>
   </si>
   <si>
     <t xml:space="preserve">7.86069011688232</t>
@@ -1547,28 +1547,28 @@
     <t xml:space="preserve">7.51009607315063</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63926219940186</t>
+    <t xml:space="preserve">7.6392617225647</t>
   </si>
   <si>
     <t xml:space="preserve">7.62081003189087</t>
   </si>
   <si>
-    <t xml:space="preserve">7.39938259124756</t>
+    <t xml:space="preserve">7.3993821144104</t>
   </si>
   <si>
     <t xml:space="preserve">7.56545257568359</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27944135665894</t>
+    <t xml:space="preserve">7.27944183349609</t>
   </si>
   <si>
     <t xml:space="preserve">7.19640636444092</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20563173294067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1133713722229</t>
+    <t xml:space="preserve">7.20563220977783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11337089538574</t>
   </si>
   <si>
     <t xml:space="preserve">7.10414457321167</t>
@@ -1592,22 +1592,22 @@
     <t xml:space="preserve">7.34402465820312</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33479881286621</t>
+    <t xml:space="preserve">7.33479833602905</t>
   </si>
   <si>
     <t xml:space="preserve">7.36247730255127</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29789400100708</t>
+    <t xml:space="preserve">7.29789352416992</t>
   </si>
   <si>
     <t xml:space="preserve">7.32557249069214</t>
   </si>
   <si>
-    <t xml:space="preserve">7.40860748291016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7315239906311</t>
+    <t xml:space="preserve">7.40860795974731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73152303695679</t>
   </si>
   <si>
     <t xml:space="preserve">7.77765417098999</t>
@@ -1622,25 +1622,25 @@
     <t xml:space="preserve">8.43271255493164</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45116424560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55265331268311</t>
+    <t xml:space="preserve">8.45116329193115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55265140533447</t>
   </si>
   <si>
     <t xml:space="preserve">8.4603910446167</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40503215789795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39580821990967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08777046203613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19848251342773</t>
+    <t xml:space="preserve">8.40503311157227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39580726623535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08776950836182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19848346710205</t>
   </si>
   <si>
     <t xml:space="preserve">8.80175876617432</t>
@@ -1655,7 +1655,7 @@
     <t xml:space="preserve">8.85711574554443</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72794914245605</t>
+    <t xml:space="preserve">8.72794818878174</t>
   </si>
   <si>
     <t xml:space="preserve">8.92169857025146</t>
@@ -1664,25 +1664,25 @@
     <t xml:space="preserve">9.0785436630249</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97705554962158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96782875061035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91247367858887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86634063720703</t>
+    <t xml:space="preserve">8.97705459594727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96782970428467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91247272491455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86634159088135</t>
   </si>
   <si>
     <t xml:space="preserve">8.87556743621826</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64491271972656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74639987945557</t>
+    <t xml:space="preserve">8.64491367340088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74640083312988</t>
   </si>
   <si>
     <t xml:space="preserve">8.31277275085449</t>
@@ -1691,25 +1691,25 @@
     <t xml:space="preserve">8.44193744659424</t>
   </si>
   <si>
-    <t xml:space="preserve">8.331223487854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1836051940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32199954986572</t>
+    <t xml:space="preserve">8.33122444152832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18360614776611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32199859619141</t>
   </si>
   <si>
     <t xml:space="preserve">8.29431915283203</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49729537963867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51574611663818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53419971466064</t>
+    <t xml:space="preserve">8.49729442596436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5157470703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53420066833496</t>
   </si>
   <si>
     <t xml:space="preserve">8.5618782043457</t>
@@ -1724,34 +1724,34 @@
     <t xml:space="preserve">8.57110404968262</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59878253936768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68181896209717</t>
+    <t xml:space="preserve">8.59878158569336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68181800842285</t>
   </si>
   <si>
     <t xml:space="preserve">8.67259216308594</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60800838470459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28066158294678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76398754119873</t>
+    <t xml:space="preserve">8.60800933837891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28066349029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76398658752441</t>
   </si>
   <si>
     <t xml:space="preserve">8.46178150177002</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24731159210205</t>
+    <t xml:space="preserve">8.24731063842773</t>
   </si>
   <si>
     <t xml:space="preserve">7.95485353469849</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12057876586914</t>
+    <t xml:space="preserve">8.12057971954346</t>
   </si>
   <si>
     <t xml:space="preserve">8.0425910949707</t>
@@ -1769,58 +1769,58 @@
     <t xml:space="preserve">8.11083030700684</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08158397674561</t>
+    <t xml:space="preserve">8.08158493041992</t>
   </si>
   <si>
     <t xml:space="preserve">8.15957355499268</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1790714263916</t>
+    <t xml:space="preserve">8.17907238006592</t>
   </si>
   <si>
     <t xml:space="preserve">8.20831680297852</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0328426361084</t>
+    <t xml:space="preserve">8.03284168243408</t>
   </si>
   <si>
     <t xml:space="preserve">8.02309322357178</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22781276702881</t>
+    <t xml:space="preserve">8.22781467437744</t>
   </si>
   <si>
     <t xml:space="preserve">8.3058032989502</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3155517578125</t>
+    <t xml:space="preserve">8.31555080413818</t>
   </si>
   <si>
     <t xml:space="preserve">8.19856834411621</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98409938812256</t>
+    <t xml:space="preserve">7.9840989112854</t>
   </si>
   <si>
     <t xml:space="preserve">8.13032817840576</t>
   </si>
   <si>
-    <t xml:space="preserve">8.14007759094238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96460151672363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99384832382202</t>
+    <t xml:space="preserve">8.14007663726807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96460199356079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99384784698486</t>
   </si>
   <si>
     <t xml:space="preserve">8.23756217956543</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1693229675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18881988525391</t>
+    <t xml:space="preserve">8.16932201385498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18881893157959</t>
   </si>
   <si>
     <t xml:space="preserve">8.10108280181885</t>
@@ -1838,7 +1838,7 @@
     <t xml:space="preserve">8.05233955383301</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06208896636963</t>
+    <t xml:space="preserve">8.06208801269531</t>
   </si>
   <si>
     <t xml:space="preserve">8.07183647155762</t>
@@ -1850,16 +1850,16 @@
     <t xml:space="preserve">7.93535661697388</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9743504524231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01334476470947</t>
+    <t xml:space="preserve">7.97435092926025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01334571838379</t>
   </si>
   <si>
     <t xml:space="preserve">8.50077438354492</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39353942871094</t>
+    <t xml:space="preserve">8.39354038238525</t>
   </si>
   <si>
     <t xml:space="preserve">8.34479808807373</t>
@@ -1877,22 +1877,22 @@
     <t xml:space="preserve">8.85172367095947</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21242141723633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20267295837402</t>
+    <t xml:space="preserve">9.21242237091064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20267391204834</t>
   </si>
   <si>
     <t xml:space="preserve">9.5828685760498</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45613765716553</t>
+    <t xml:space="preserve">9.45613574981689</t>
   </si>
   <si>
     <t xml:space="preserve">9.55362319946289</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52437782287598</t>
+    <t xml:space="preserve">9.52437686920166</t>
   </si>
   <si>
     <t xml:space="preserve">9.51462936401367</t>
@@ -1901,10 +1901,10 @@
     <t xml:space="preserve">9.62186336517334</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60236740112305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59261703491211</t>
+    <t xml:space="preserve">9.60236644744873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59261798858643</t>
   </si>
   <si>
     <t xml:space="preserve">10.0995435714722</t>
@@ -1913,13 +1913,13 @@
     <t xml:space="preserve">10.3920021057129</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1190404891968</t>
+    <t xml:space="preserve">10.1190423965454</t>
   </si>
   <si>
     <t xml:space="preserve">10.1385383605957</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0605497360229</t>
+    <t xml:space="preserve">10.0605487823486</t>
   </si>
   <si>
     <t xml:space="preserve">10.0215559005737</t>
@@ -1934,7 +1934,7 @@
     <t xml:space="preserve">9.68035507202148</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76809310913086</t>
+    <t xml:space="preserve">9.76809215545654</t>
   </si>
   <si>
     <t xml:space="preserve">9.78758907318115</t>
@@ -1943,7 +1943,7 @@
     <t xml:space="preserve">9.57311916351318</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65110778808594</t>
+    <t xml:space="preserve">9.65110874176025</t>
   </si>
   <si>
     <t xml:space="preserve">9.53412532806396</t>
@@ -1970,7 +1970,7 @@
     <t xml:space="preserve">9.8460807800293</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70960140228271</t>
+    <t xml:space="preserve">9.7096004486084</t>
   </si>
   <si>
     <t xml:space="preserve">9.72909736633301</t>
@@ -1985,16 +1985,16 @@
     <t xml:space="preserve">9.1539306640625</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26116561889648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23191928863525</t>
+    <t xml:space="preserve">9.26116466522217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23192024230957</t>
   </si>
   <si>
     <t xml:space="preserve">9.1441822052002</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17342662811279</t>
+    <t xml:space="preserve">9.17342758178711</t>
   </si>
   <si>
     <t xml:space="preserve">9.07594203948975</t>
@@ -2003,7 +2003,7 @@
     <t xml:space="preserve">8.98820495605469</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0077018737793</t>
+    <t xml:space="preserve">9.00770092010498</t>
   </si>
   <si>
     <t xml:space="preserve">8.91996383666992</t>
@@ -2024,13 +2024,13 @@
     <t xml:space="preserve">9.02719879150391</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22217082977295</t>
+    <t xml:space="preserve">9.22216987609863</t>
   </si>
   <si>
     <t xml:space="preserve">9.11493682861328</t>
   </si>
   <si>
-    <t xml:space="preserve">9.03694820404053</t>
+    <t xml:space="preserve">9.03694725036621</t>
   </si>
   <si>
     <t xml:space="preserve">8.86147308349609</t>
@@ -2042,34 +2042,34 @@
     <t xml:space="preserve">7.89636182785034</t>
   </si>
   <si>
-    <t xml:space="preserve">7.84761905670166</t>
+    <t xml:space="preserve">7.8476185798645</t>
   </si>
   <si>
     <t xml:space="preserve">7.66239547729492</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58440732955933</t>
+    <t xml:space="preserve">7.58440685272217</t>
   </si>
   <si>
     <t xml:space="preserve">7.67214393615723</t>
   </si>
   <si>
-    <t xml:space="preserve">7.39918375015259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57055234909058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62904453277588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49256420135498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17650413513184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51770448684692</t>
+    <t xml:space="preserve">7.39918327331543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57055282592773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62904500961304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49256372451782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17650365829468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51770401000977</t>
   </si>
   <si>
     <t xml:space="preserve">4.5720911026001</t>
@@ -2093,16 +2093,16 @@
     <t xml:space="preserve">5.5566987991333</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08312320709229</t>
+    <t xml:space="preserve">6.08312273025513</t>
   </si>
   <si>
     <t xml:space="preserve">6.04412841796875</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02463102340698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92714595794678</t>
+    <t xml:space="preserve">6.02463150024414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92714548110962</t>
   </si>
   <si>
     <t xml:space="preserve">5.83940839767456</t>
@@ -2114,13 +2114,13 @@
     <t xml:space="preserve">6.0343804359436</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20010662078857</t>
+    <t xml:space="preserve">6.20010614395142</t>
   </si>
   <si>
     <t xml:space="preserve">6.43407249450684</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51206159591675</t>
+    <t xml:space="preserve">6.51206111907959</t>
   </si>
   <si>
     <t xml:space="preserve">6.48281574249268</t>
@@ -2156,25 +2156,25 @@
     <t xml:space="preserve">7.69164133071899</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44792652130127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48692035675049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24320554733276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45767545700073</t>
+    <t xml:space="preserve">7.44792604446411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48692083358765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24320602416992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45767498016357</t>
   </si>
   <si>
     <t xml:space="preserve">7.33094310760498</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49666976928711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54541206359863</t>
+    <t xml:space="preserve">7.49666929244995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54541254043579</t>
   </si>
   <si>
     <t xml:space="preserve">7.51616668701172</t>
@@ -2183,7 +2183,7 @@
     <t xml:space="preserve">7.75013256072998</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90610980987549</t>
+    <t xml:space="preserve">7.90611028671265</t>
   </si>
   <si>
     <t xml:space="preserve">7.37968635559082</t>
@@ -2195,19 +2195,19 @@
     <t xml:space="preserve">7.65264701843262</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71113872528076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5551609992981</t>
+    <t xml:space="preserve">7.7111382484436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55516052246094</t>
   </si>
   <si>
     <t xml:space="preserve">7.36993789672852</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36018896102905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28219985961914</t>
+    <t xml:space="preserve">7.36018943786621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2822003364563</t>
   </si>
   <si>
     <t xml:space="preserve">7.57465839385986</t>
@@ -2219,13 +2219,13 @@
     <t xml:space="preserve">7.56490993499756</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43817806243896</t>
+    <t xml:space="preserve">7.43817758560181</t>
   </si>
   <si>
     <t xml:space="preserve">7.38943481445312</t>
   </si>
   <si>
-    <t xml:space="preserve">7.40893173217773</t>
+    <t xml:space="preserve">7.40893220901489</t>
   </si>
   <si>
     <t xml:space="preserve">7.50641775131226</t>
@@ -2237,13 +2237,13 @@
     <t xml:space="preserve">7.63314962387085</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46742296218872</t>
+    <t xml:space="preserve">7.46742391586304</t>
   </si>
   <si>
     <t xml:space="preserve">7.35044050216675</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31144666671753</t>
+    <t xml:space="preserve">7.31144618988037</t>
   </si>
   <si>
     <t xml:space="preserve">7.52591514587402</t>
@@ -2252,10 +2252,10 @@
     <t xml:space="preserve">7.74038410186768</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94510459899902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8866138458252</t>
+    <t xml:space="preserve">7.94510364532471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88661336898804</t>
   </si>
   <si>
     <t xml:space="preserve">7.79887580871582</t>
@@ -2267,7 +2267,7 @@
     <t xml:space="preserve">7.41868114471436</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32119512557983</t>
+    <t xml:space="preserve">7.32119464874268</t>
   </si>
   <si>
     <t xml:space="preserve">7.26270294189453</t>
@@ -2285,13 +2285,13 @@
     <t xml:space="preserve">7.75988149642944</t>
   </si>
   <si>
-    <t xml:space="preserve">7.77937841415405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53566360473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72088718414307</t>
+    <t xml:space="preserve">7.77937889099121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53566408157349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72088766098022</t>
   </si>
   <si>
     <t xml:space="preserve">7.47717237472534</t>
@@ -2312,10 +2312,10 @@
     <t xml:space="preserve">7.22370862960815</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30169725418091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29194927215576</t>
+    <t xml:space="preserve">7.30169773101807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2919487953186</t>
   </si>
   <si>
     <t xml:space="preserve">7.25295448303223</t>
@@ -2324,49 +2324,49 @@
     <t xml:space="preserve">7.23345756530762</t>
   </si>
   <si>
-    <t xml:space="preserve">7.18471479415894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20421123504639</t>
+    <t xml:space="preserve">7.18471431732178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20421171188354</t>
   </si>
   <si>
     <t xml:space="preserve">7.68189287185669</t>
   </si>
   <si>
-    <t xml:space="preserve">7.07748031616211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12622261047363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06773090362549</t>
+    <t xml:space="preserve">7.07747983932495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12622308731079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06773138046265</t>
   </si>
   <si>
     <t xml:space="preserve">7.01898813247681</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94099903106689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02873706817627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11647415161133</t>
+    <t xml:space="preserve">6.94099998474121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02873659133911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11647462844849</t>
   </si>
   <si>
     <t xml:space="preserve">7.10672569274902</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92150259017944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98974227905273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95074844360352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87275981903076</t>
+    <t xml:space="preserve">6.92150211334229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98974275588989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95074796676636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8727593421936</t>
   </si>
   <si>
     <t xml:space="preserve">6.85326242446899</t>
@@ -2384,7 +2384,7 @@
     <t xml:space="preserve">6.83376502990723</t>
   </si>
   <si>
-    <t xml:space="preserve">6.86301040649414</t>
+    <t xml:space="preserve">6.8630108833313</t>
   </si>
   <si>
     <t xml:space="preserve">6.84351348876953</t>
@@ -2396,7 +2396,7 @@
     <t xml:space="preserve">6.78502225875854</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67778730392456</t>
+    <t xml:space="preserve">6.67778778076172</t>
   </si>
   <si>
     <t xml:space="preserve">6.7265305519104</t>
@@ -2411,7 +2411,7 @@
     <t xml:space="preserve">7.19347906112671</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27188205718994</t>
+    <t xml:space="preserve">7.2718825340271</t>
   </si>
   <si>
     <t xml:space="preserve">7.34048461914062</t>
@@ -2420,7 +2420,7 @@
     <t xml:space="preserve">7.22288036346436</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2326807975769</t>
+    <t xml:space="preserve">7.23268032073975</t>
   </si>
   <si>
     <t xml:space="preserve">7.48749017715454</t>
@@ -2429,7 +2429,7 @@
     <t xml:space="preserve">7.55609321594238</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54629230499268</t>
+    <t xml:space="preserve">7.54629278182983</t>
   </si>
   <si>
     <t xml:space="preserve">7.64429664611816</t>
@@ -2441,22 +2441,22 @@
     <t xml:space="preserve">7.51689195632935</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76190090179443</t>
+    <t xml:space="preserve">7.76190137863159</t>
   </si>
   <si>
     <t xml:space="preserve">7.88930606842041</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12451457977295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09511375427246</t>
+    <t xml:space="preserve">8.12451553344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09511470794678</t>
   </si>
   <si>
     <t xml:space="preserve">8.14411640167236</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06571292877197</t>
+    <t xml:space="preserve">8.06571197509766</t>
   </si>
   <si>
     <t xml:space="preserve">8.15391540527344</t>
@@ -2465,7 +2465,7 @@
     <t xml:space="preserve">8.18331813812256</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25192070007324</t>
+    <t xml:space="preserve">8.25191974639893</t>
   </si>
   <si>
     <t xml:space="preserve">8.19311714172363</t>
@@ -2480,10 +2480,10 @@
     <t xml:space="preserve">7.84030437469482</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65409660339355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62469625473022</t>
+    <t xml:space="preserve">7.65409708023071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62469577789307</t>
   </si>
   <si>
     <t xml:space="preserve">7.78150177001953</t>
@@ -2510,7 +2510,7 @@
     <t xml:space="preserve">7.87950563430786</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7030987739563</t>
+    <t xml:space="preserve">7.70309925079346</t>
   </si>
   <si>
     <t xml:space="preserve">7.59529447555542</t>
@@ -2522,7 +2522,7 @@
     <t xml:space="preserve">7.69329833984375</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68349838256836</t>
+    <t xml:space="preserve">7.6834979057312</t>
   </si>
   <si>
     <t xml:space="preserve">7.61489534378052</t>
@@ -2531,13 +2531,13 @@
     <t xml:space="preserve">7.89910697937012</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85990524291992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85010433197021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07551383972168</t>
+    <t xml:space="preserve">7.85990571975708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85010480880737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07551288604736</t>
   </si>
   <si>
     <t xml:space="preserve">7.99711036682129</t>
@@ -2549,7 +2549,7 @@
     <t xml:space="preserve">8.33032321929932</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13431549072266</t>
+    <t xml:space="preserve">8.13431644439697</t>
   </si>
   <si>
     <t xml:space="preserve">8.50673007965088</t>
@@ -2561,22 +2561,22 @@
     <t xml:space="preserve">8.4283275604248</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40872573852539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59493350982666</t>
+    <t xml:space="preserve">8.40872669219971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59493446350098</t>
   </si>
   <si>
     <t xml:space="preserve">8.81054210662842</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73213863372803</t>
+    <t xml:space="preserve">8.73213768005371</t>
   </si>
   <si>
     <t xml:space="preserve">8.74193859100342</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87914562225342</t>
+    <t xml:space="preserve">8.8791446685791</t>
   </si>
   <si>
     <t xml:space="preserve">9.08495330810547</t>
@@ -2588,13 +2588,13 @@
     <t xml:space="preserve">9.17315578460693</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10455226898193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82034206390381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86934471130371</t>
+    <t xml:space="preserve">9.10455322265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82034301757812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86934375762939</t>
   </si>
   <si>
     <t xml:space="preserve">8.63413524627686</t>
@@ -2603,13 +2603,13 @@
     <t xml:space="preserve">8.61453437805176</t>
   </si>
   <si>
-    <t xml:space="preserve">8.467529296875</t>
+    <t xml:space="preserve">8.46752834320068</t>
   </si>
   <si>
     <t xml:space="preserve">8.57533264160156</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30092144012451</t>
+    <t xml:space="preserve">8.30092239379883</t>
   </si>
   <si>
     <t xml:space="preserve">8.3597240447998</t>
@@ -2618,10 +2618,10 @@
     <t xml:space="preserve">8.3793249130249</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49692916870117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52632999420166</t>
+    <t xml:space="preserve">8.49693012237549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52633094787598</t>
   </si>
   <si>
     <t xml:space="preserve">8.51653003692627</t>
@@ -2636,7 +2636,7 @@
     <t xml:space="preserve">8.29112148284912</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23231887817383</t>
+    <t xml:space="preserve">8.23231983184814</t>
   </si>
   <si>
     <t xml:space="preserve">8.20291805267334</t>
@@ -2645,19 +2645,19 @@
     <t xml:space="preserve">8.26172065734863</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3107213973999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28132152557373</t>
+    <t xml:space="preserve">8.31072235107422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28132057189941</t>
   </si>
   <si>
     <t xml:space="preserve">8.38912582397461</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70273685455322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64393520355225</t>
+    <t xml:space="preserve">8.70273780822754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64393424987793</t>
   </si>
   <si>
     <t xml:space="preserve">8.67333698272705</t>
@@ -2669,16 +2669,16 @@
     <t xml:space="preserve">8.56553173065186</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66353702545166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89874458312988</t>
+    <t xml:space="preserve">8.66353607177734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8987455368042</t>
   </si>
   <si>
     <t xml:space="preserve">8.77134037017822</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90854549407959</t>
+    <t xml:space="preserve">8.90854644775391</t>
   </si>
   <si>
     <t xml:space="preserve">9.07515239715576</t>
@@ -2687,19 +2687,19 @@
     <t xml:space="preserve">9.99638748168945</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81998157501221</t>
+    <t xml:space="preserve">9.81998062133789</t>
   </si>
   <si>
     <t xml:space="preserve">9.95718574523926</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3884029388428</t>
+    <t xml:space="preserve">10.3884038925171</t>
   </si>
   <si>
     <t xml:space="preserve">10.427604675293</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4472055435181</t>
+    <t xml:space="preserve">10.4472045898438</t>
   </si>
   <si>
     <t xml:space="preserve">9.83958148956299</t>
@@ -2744,10 +2744,10 @@
     <t xml:space="preserve">9.18295574188232</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3103609085083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99674892425537</t>
+    <t xml:space="preserve">9.31036186218262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99674987792969</t>
   </si>
   <si>
     <t xml:space="preserve">9.19275665283203</t>
@@ -2756,19 +2756,19 @@
     <t xml:space="preserve">9.26135921478271</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42796611785889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69257545471191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64357471466064</t>
+    <t xml:space="preserve">9.42796516418457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69257640838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64357376098633</t>
   </si>
   <si>
     <t xml:space="preserve">9.60437297821045</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89838409423828</t>
+    <t xml:space="preserve">9.8983850479126</t>
   </si>
   <si>
     <t xml:space="preserve">9.93758583068848</t>
@@ -2780,7 +2780,7 @@
     <t xml:space="preserve">9.7415771484375</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68277645111084</t>
+    <t xml:space="preserve">9.68277549743652</t>
   </si>
   <si>
     <t xml:space="preserve">9.66317462921143</t>
@@ -2795,19 +2795,19 @@
     <t xml:space="preserve">9.25155830383301</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24175930023193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28096103668213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30055999755859</t>
+    <t xml:space="preserve">9.24175834655762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28096008300781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30056095123291</t>
   </si>
   <si>
     <t xml:space="preserve">9.27116012573242</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06535243988037</t>
+    <t xml:space="preserve">9.06535148620605</t>
   </si>
   <si>
     <t xml:space="preserve">9.04575061798096</t>
@@ -2822,16 +2822,16 @@
     <t xml:space="preserve">8.44792747497559</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83014297485352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47732925415039</t>
+    <t xml:space="preserve">8.8301420211792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47732830047607</t>
   </si>
   <si>
     <t xml:space="preserve">8.34012317657471</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4381275177002</t>
+    <t xml:space="preserve">8.43812656402588</t>
   </si>
   <si>
     <t xml:space="preserve">8.78114032745361</t>
@@ -2861,7 +2861,7 @@
     <t xml:space="preserve">9.09475231170654</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49656772613525</t>
+    <t xml:space="preserve">9.49656867980957</t>
   </si>
   <si>
     <t xml:space="preserve">9.56517124176025</t>
@@ -2873,10 +2873,10 @@
     <t xml:space="preserve">9.73177719116211</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0551910400391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58477115631104</t>
+    <t xml:space="preserve">10.0551900863647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58477210998535</t>
   </si>
   <si>
     <t xml:space="preserve">9.54556941986084</t>
@@ -2891,7 +2891,7 @@
     <t xml:space="preserve">9.62397289276123</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51616859436035</t>
+    <t xml:space="preserve">9.51616954803467</t>
   </si>
   <si>
     <t xml:space="preserve">9.37896347045898</t>
@@ -2900,7 +2900,7 @@
     <t xml:space="preserve">9.3495626449585</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80037975311279</t>
+    <t xml:space="preserve">9.80038070678711</t>
   </si>
   <si>
     <t xml:space="preserve">10.1923952102661</t>
@@ -2909,7 +2909,7 @@
     <t xml:space="preserve">10.0747909545898</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2315969467163</t>
+    <t xml:space="preserve">10.231595993042</t>
   </si>
   <si>
     <t xml:space="preserve">10.1531934738159</t>
@@ -2918,7 +2918,7 @@
     <t xml:space="preserve">10.2511978149414</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0943908691406</t>
+    <t xml:space="preserve">10.0943918228149</t>
   </si>
   <si>
     <t xml:space="preserve">10.1139917373657</t>
@@ -2936,25 +2936,25 @@
     <t xml:space="preserve">9.2907600402832</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39856433868408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32016181945801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46716785430908</t>
+    <t xml:space="preserve">9.3985652923584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32016086578369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46716690063477</t>
   </si>
   <si>
     <t xml:space="preserve">9.55537033081055</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7023754119873</t>
+    <t xml:space="preserve">9.70237636566162</t>
   </si>
   <si>
     <t xml:space="preserve">9.91798400878906</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4080038070679</t>
+    <t xml:space="preserve">10.4080028533936</t>
   </si>
   <si>
     <t xml:space="preserve">10.8784227371216</t>
@@ -2963,7 +2963,7 @@
     <t xml:space="preserve">11.2704372406006</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3488397598267</t>
+    <t xml:space="preserve">11.348840713501</t>
   </si>
   <si>
     <t xml:space="preserve">11.6624526977539</t>
@@ -2981,7 +2981,7 @@
     <t xml:space="preserve">11.5056457519531</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5252466201782</t>
+    <t xml:space="preserve">11.5252475738525</t>
   </si>
   <si>
     <t xml:space="preserve">11.4860458374023</t>
@@ -2996,16 +2996,16 @@
     <t xml:space="preserve">11.7016534805298</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5644483566284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4468450546265</t>
+    <t xml:space="preserve">11.5644493103027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4468441009521</t>
   </si>
   <si>
     <t xml:space="preserve">11.7212543487549</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1524705886841</t>
+    <t xml:space="preserve">12.1524715423584</t>
   </si>
   <si>
     <t xml:space="preserve">12.407280921936</t>
@@ -3014,7 +3014,7 @@
     <t xml:space="preserve">12.662091255188</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5640869140625</t>
+    <t xml:space="preserve">12.5640878677368</t>
   </si>
   <si>
     <t xml:space="preserve">12.270076751709</t>
@@ -3023,13 +3023,13 @@
     <t xml:space="preserve">12.4464826583862</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7800569534302</t>
+    <t xml:space="preserve">11.7800579071045</t>
   </si>
   <si>
     <t xml:space="preserve">11.3096380233765</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9764251708984</t>
+    <t xml:space="preserve">10.9764261245728</t>
   </si>
   <si>
     <t xml:space="preserve">10.9176235198975</t>
@@ -3041,19 +3041,19 @@
     <t xml:space="preserve">10.7804183959961</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0940294265747</t>
+    <t xml:space="preserve">11.094030380249</t>
   </si>
   <si>
     <t xml:space="preserve">10.9568252563477</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8196201324463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.035228729248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2707986831665</t>
+    <t xml:space="preserve">10.819619178772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0352277755737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2707977294922</t>
   </si>
   <si>
     <t xml:space="preserve">10.6824140548706</t>
@@ -3068,16 +3068,16 @@
     <t xml:space="preserve">11.0156269073486</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9372234344482</t>
+    <t xml:space="preserve">10.9372243881226</t>
   </si>
   <si>
     <t xml:space="preserve">10.7020149230957</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9960269927979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2900381088257</t>
+    <t xml:space="preserve">10.9960260391235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2900390625</t>
   </si>
   <si>
     <t xml:space="preserve">11.6036500930786</t>
@@ -3095,10 +3095,10 @@
     <t xml:space="preserve">11.9368629455566</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9760646820068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2112741470337</t>
+    <t xml:space="preserve">11.9760656356812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2112731933594</t>
   </si>
   <si>
     <t xml:space="preserve">12.1916723251343</t>
@@ -3107,31 +3107,31 @@
     <t xml:space="preserve">12.6228895187378</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7404937744141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9169006347656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9757032394409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6816921234131</t>
+    <t xml:space="preserve">12.7404947280884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9169015884399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9757022857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6816911697388</t>
   </si>
   <si>
     <t xml:space="preserve">12.720892906189</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7992973327637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9561023712158</t>
+    <t xml:space="preserve">12.7992963790894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9561033248901</t>
   </si>
   <si>
     <t xml:space="preserve">12.6032886505127</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4856843948364</t>
+    <t xml:space="preserve">12.4856834411621</t>
   </si>
   <si>
     <t xml:space="preserve">12.5248851776123</t>
@@ -3140,7 +3140,7 @@
     <t xml:space="preserve">12.3484792709351</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3680791854858</t>
+    <t xml:space="preserve">12.3680801391602</t>
   </si>
   <si>
     <t xml:space="preserve">12.2308740615845</t>
@@ -3155,19 +3155,19 @@
     <t xml:space="preserve">12.6424903869629</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5836887359619</t>
+    <t xml:space="preserve">12.5836877822876</t>
   </si>
   <si>
     <t xml:space="preserve">12.1720724105835</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8777008056641</t>
+    <t xml:space="preserve">12.8776998519897</t>
   </si>
   <si>
     <t xml:space="preserve">12.3092775344849</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2697153091431</t>
+    <t xml:space="preserve">13.2697143554688</t>
   </si>
   <si>
     <t xml:space="preserve">13.0541067123413</t>
@@ -3176,7 +3176,7 @@
     <t xml:space="preserve">12.9365015029907</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1521100997925</t>
+    <t xml:space="preserve">13.1521110534668</t>
   </si>
   <si>
     <t xml:space="preserve">13.0345058441162</t>
@@ -3188,10 +3188,10 @@
     <t xml:space="preserve">13.1717100143433</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5441246032715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5637264251709</t>
+    <t xml:space="preserve">13.5441255569458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5637254714966</t>
   </si>
   <si>
     <t xml:space="preserve">14.1517486572266</t>
@@ -3206,13 +3206,13 @@
     <t xml:space="preserve">14.0341444015503</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0733461380005</t>
+    <t xml:space="preserve">14.0733451843262</t>
   </si>
   <si>
     <t xml:space="preserve">14.4065589904785</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7201709747314</t>
+    <t xml:space="preserve">14.7201719284058</t>
   </si>
   <si>
     <t xml:space="preserve">14.8573760986328</t>
@@ -3221,7 +3221,7 @@
     <t xml:space="preserve">15.2885932922363</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0533838272095</t>
+    <t xml:space="preserve">15.0533828735352</t>
   </si>
   <si>
     <t xml:space="preserve">15.0337839126587</t>
@@ -3245,16 +3245,16 @@
     <t xml:space="preserve">17.3466739654541</t>
   </si>
   <si>
-    <t xml:space="preserve">17.660285949707</t>
+    <t xml:space="preserve">17.6602840423584</t>
   </si>
   <si>
     <t xml:space="preserve">17.5426807403564</t>
   </si>
   <si>
-    <t xml:space="preserve">17.915096282959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7386894226074</t>
+    <t xml:space="preserve">17.9150943756104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7386875152588</t>
   </si>
   <si>
     <t xml:space="preserve">17.8954944610596</t>
@@ -3281,13 +3281,13 @@
     <t xml:space="preserve">18.7383270263672</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1695423126221</t>
+    <t xml:space="preserve">19.1695442199707</t>
   </si>
   <si>
     <t xml:space="preserve">18.1699066162109</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1307048797607</t>
+    <t xml:space="preserve">18.1307029724121</t>
   </si>
   <si>
     <t xml:space="preserve">18.6795234680176</t>
@@ -3305,7 +3305,7 @@
     <t xml:space="preserve">19.9927749633789</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8947696685791</t>
+    <t xml:space="preserve">19.8947715759277</t>
   </si>
   <si>
     <t xml:space="preserve">19.6497611999512</t>
@@ -3320,16 +3320,16 @@
     <t xml:space="preserve">18.8363304138184</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0323371887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3067512512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9343357086182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.640323638916</t>
+    <t xml:space="preserve">19.0323390960693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3067493438721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9343338012695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6403217315674</t>
   </si>
   <si>
     <t xml:space="preserve">19.0127372741699</t>
@@ -3341,7 +3341,7 @@
     <t xml:space="preserve">19.1107406616211</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9931354522705</t>
+    <t xml:space="preserve">18.9931373596191</t>
   </si>
   <si>
     <t xml:space="preserve">18.7187271118164</t>
@@ -3350,19 +3350,19 @@
     <t xml:space="preserve">18.7775287628174</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6011199951172</t>
+    <t xml:space="preserve">18.6011219024658</t>
   </si>
   <si>
     <t xml:space="preserve">18.444314956665</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3851509094238</t>
+    <t xml:space="preserve">19.3851528167725</t>
   </si>
   <si>
     <t xml:space="preserve">19.1891441345215</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2871494293213</t>
+    <t xml:space="preserve">19.2871475219727</t>
   </si>
   <si>
     <t xml:space="preserve">19.0519390106201</t>
@@ -3371,7 +3371,7 @@
     <t xml:space="preserve">19.1303424835205</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8559322357178</t>
+    <t xml:space="preserve">18.8559303283691</t>
   </si>
   <si>
     <t xml:space="preserve">19.0735759735107</t>

--- a/data/TXT.MI.xlsx
+++ b/data/TXT.MI.xlsx
@@ -38,37 +38,37 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45555543899536</t>
+    <t xml:space="preserve">6.45555639266968</t>
   </si>
   <si>
     <t xml:space="preserve">TXT.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43539476394653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44345855712891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2741060256958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31442880630493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13701152801514</t>
+    <t xml:space="preserve">6.43539428710938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44345903396606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27410650253296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31442832946777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13701105117798</t>
   </si>
   <si>
     <t xml:space="preserve">6.16926908493042</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12894725799561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96765947341919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89507913589478</t>
+    <t xml:space="preserve">6.12894773483276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96765899658203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89507961273193</t>
   </si>
   <si>
     <t xml:space="preserve">5.80637073516846</t>
@@ -77,19 +77,19 @@
     <t xml:space="preserve">5.98782062530518</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79024267196655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76201725006104</t>
+    <t xml:space="preserve">5.79024219512939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76201677322388</t>
   </si>
   <si>
     <t xml:space="preserve">5.76604890823364</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78217792510986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04023885726929</t>
+    <t xml:space="preserve">5.78217840194702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04023838043213</t>
   </si>
   <si>
     <t xml:space="preserve">5.92733716964722</t>
@@ -98,46 +98,46 @@
     <t xml:space="preserve">5.95959424972534</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98378849029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04830360412598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89104700088501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81846809387207</t>
+    <t xml:space="preserve">5.98378753662109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04830312728882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89104747772217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81846761703491</t>
   </si>
   <si>
     <t xml:space="preserve">6.21765565872192</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19346284866333</t>
+    <t xml:space="preserve">6.19346189498901</t>
   </si>
   <si>
     <t xml:space="preserve">6.24991321563721</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33862161636353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26604175567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24184894561768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25394535064697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4515233039856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50394201278687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45958805084229</t>
+    <t xml:space="preserve">6.33862209320068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26604223251343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24184799194336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25394582748413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45152378082275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50394153594971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45958852767944</t>
   </si>
   <si>
     <t xml:space="preserve">6.53216743469238</t>
@@ -155,43 +155,43 @@
     <t xml:space="preserve">6.12088298797607</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29829978942871</t>
+    <t xml:space="preserve">6.29829931259155</t>
   </si>
   <si>
     <t xml:space="preserve">6.23781681060791</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18539762496948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19749402999878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1531400680542</t>
+    <t xml:space="preserve">6.18539810180664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1974949836731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15314054489136</t>
   </si>
   <si>
     <t xml:space="preserve">6.15717267990112</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0321741104126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06039953231812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99185180664062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17733383178711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09668922424316</t>
+    <t xml:space="preserve">6.03217458724976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06040000915527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99185228347778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17733335494995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09668970108032</t>
   </si>
   <si>
     <t xml:space="preserve">6.2015266418457</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1410436630249</t>
+    <t xml:space="preserve">6.14104270935059</t>
   </si>
   <si>
     <t xml:space="preserve">6.22571992874146</t>
@@ -200,55 +200,55 @@
     <t xml:space="preserve">6.16523694992065</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2579779624939</t>
+    <t xml:space="preserve">6.25797843933105</t>
   </si>
   <si>
     <t xml:space="preserve">6.07652854919434</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14507627487183</t>
+    <t xml:space="preserve">6.14507579803467</t>
   </si>
   <si>
     <t xml:space="preserve">6.05636787414551</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99991655349731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97975540161133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16120481491089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11685037612915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11281871795654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23734998703003</t>
+    <t xml:space="preserve">5.99991703033447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97975587844849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16120529174805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11685085296631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11281824111938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23735046386719</t>
   </si>
   <si>
     <t xml:space="preserve">6.27070474624634</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11643886566162</t>
+    <t xml:space="preserve">6.11643934249878</t>
   </si>
   <si>
     <t xml:space="preserve">6.20399522781372</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2540283203125</t>
+    <t xml:space="preserve">6.25402736663818</t>
   </si>
   <si>
     <t xml:space="preserve">6.1372857093811</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21233415603638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23318147659302</t>
+    <t xml:space="preserve">6.21233367919922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2331805229187</t>
   </si>
   <si>
     <t xml:space="preserve">6.24568891525269</t>
@@ -257,10 +257,10 @@
     <t xml:space="preserve">6.16230154037476</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33324527740479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24152040481567</t>
+    <t xml:space="preserve">6.33324575424194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24151945114136</t>
   </si>
   <si>
     <t xml:space="preserve">6.17064046859741</t>
@@ -275,13 +275,13 @@
     <t xml:space="preserve">6.08725357055664</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93715667724609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94966554641724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85377025604248</t>
+    <t xml:space="preserve">5.93715715408325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94966506958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85376977920532</t>
   </si>
   <si>
     <t xml:space="preserve">6.03722143173218</t>
@@ -293,28 +293,28 @@
     <t xml:space="preserve">5.98718929290771</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00386667251587</t>
+    <t xml:space="preserve">6.00386619567871</t>
   </si>
   <si>
     <t xml:space="preserve">5.89546346664429</t>
   </si>
   <si>
-    <t xml:space="preserve">5.82875394821167</t>
+    <t xml:space="preserve">5.82875347137451</t>
   </si>
   <si>
     <t xml:space="preserve">5.90380239486694</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95383358001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90797185897827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16647148132324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05806827545166</t>
+    <t xml:space="preserve">5.95383453369141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90797138214111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16647052764893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0580677986145</t>
   </si>
   <si>
     <t xml:space="preserve">6.14562463760376</t>
@@ -326,34 +326,34 @@
     <t xml:space="preserve">6.19982624053955</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0747447013855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14145469665527</t>
+    <t xml:space="preserve">6.07474565505981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14145565032959</t>
   </si>
   <si>
     <t xml:space="preserve">6.22067308425903</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29572105407715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17481088638306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19565677642822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18731880187988</t>
+    <t xml:space="preserve">6.29572153091431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17480993270874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19565629959106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18731784820557</t>
   </si>
   <si>
     <t xml:space="preserve">6.12060880661011</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19148731231689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11226940155029</t>
+    <t xml:space="preserve">6.19148683547974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11226987838745</t>
   </si>
   <si>
     <t xml:space="preserve">6.09559202194214</t>
@@ -365,79 +365,79 @@
     <t xml:space="preserve">6.14979410171509</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02888202667236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96634292602539</t>
+    <t xml:space="preserve">6.02888298034668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96634244918823</t>
   </si>
   <si>
     <t xml:space="preserve">5.99552774429321</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07891511917114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99969720840454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04555988311768</t>
+    <t xml:space="preserve">6.07891464233398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99969673156738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04556035995483</t>
   </si>
   <si>
     <t xml:space="preserve">5.92881870269775</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97468137741089</t>
+    <t xml:space="preserve">5.97468090057373</t>
   </si>
   <si>
     <t xml:space="preserve">5.86627769470215</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85793924331665</t>
+    <t xml:space="preserve">5.85793972015381</t>
   </si>
   <si>
     <t xml:space="preserve">5.89129400253296</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89963293075562</t>
+    <t xml:space="preserve">5.8996319770813</t>
   </si>
   <si>
     <t xml:space="preserve">5.79956817626953</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94549608230591</t>
+    <t xml:space="preserve">5.94549560546875</t>
   </si>
   <si>
     <t xml:space="preserve">5.97885036468506</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9204797744751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9621729850769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10393095016479</t>
+    <t xml:space="preserve">5.92047929763794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96217346191406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10393142700195</t>
   </si>
   <si>
     <t xml:space="preserve">6.47083473205566</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49585008621216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57923698425293</t>
+    <t xml:space="preserve">6.49585056304932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57923650741577</t>
   </si>
   <si>
     <t xml:space="preserve">6.59591436386108</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50001907348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33741521835327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50418901443481</t>
+    <t xml:space="preserve">6.50002002716064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33741474151611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50418949127197</t>
   </si>
   <si>
     <t xml:space="preserve">6.42914056777954</t>
@@ -446,7 +446,7 @@
     <t xml:space="preserve">6.4458179473877</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27904367446899</t>
+    <t xml:space="preserve">6.27904415130615</t>
   </si>
   <si>
     <t xml:space="preserve">6.38327789306641</t>
@@ -458,19 +458,19 @@
     <t xml:space="preserve">6.45415639877319</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42080116271973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55422115325928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38744688034058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53754425048828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37910842895508</t>
+    <t xml:space="preserve">6.42080163955688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55422067642212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38744640350342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53754377365112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37910795211792</t>
   </si>
   <si>
     <t xml:space="preserve">6.41663312911987</t>
@@ -482,7 +482,7 @@
     <t xml:space="preserve">6.43747901916504</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22901105880737</t>
+    <t xml:space="preserve">6.22901153564453</t>
   </si>
   <si>
     <t xml:space="preserve">6.01637506484985</t>
@@ -491,7 +491,7 @@
     <t xml:space="preserve">6.05389928817749</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06223726272583</t>
+    <t xml:space="preserve">6.06223773956299</t>
   </si>
   <si>
     <t xml:space="preserve">6.07057666778564</t>
@@ -500,16 +500,16 @@
     <t xml:space="preserve">6.37076950073242</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41246271133423</t>
+    <t xml:space="preserve">6.41246366500854</t>
   </si>
   <si>
     <t xml:space="preserve">6.32907629013062</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45832586288452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28738260269165</t>
+    <t xml:space="preserve">6.45832538604736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28738212585449</t>
   </si>
   <si>
     <t xml:space="preserve">6.21650362014771</t>
@@ -521,7 +521,7 @@
     <t xml:space="preserve">6.72933340072632</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69597864151001</t>
+    <t xml:space="preserve">6.69597911834717</t>
   </si>
   <si>
     <t xml:space="preserve">6.77102661132812</t>
@@ -533,85 +533,85 @@
     <t xml:space="preserve">7.08789825439453</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25467157363892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22965669631958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08372926712036</t>
+    <t xml:space="preserve">7.25467205047607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22965621948242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0837287902832</t>
   </si>
   <si>
     <t xml:space="preserve">7.06288194656372</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12959241867065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07121992111206</t>
+    <t xml:space="preserve">7.1295919418335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07122039794922</t>
   </si>
   <si>
     <t xml:space="preserve">7.10457611083984</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03786563873291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2588415145874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65493011474609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68828439712524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65076160430908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13792991638184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35473680496216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49649524688721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52984857559204</t>
+    <t xml:space="preserve">7.03786516189575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25884103775024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65493059158325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6882848739624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65076112747192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13793087005615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.354736328125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49649429321289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5298490524292</t>
   </si>
   <si>
     <t xml:space="preserve">7.54235744476318</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48815584182739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32972002029419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22131824493408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15460777282715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99200391769409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12125253677368</t>
+    <t xml:space="preserve">7.48815631866455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32972145080566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22131729125977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15460729598999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99200296401978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12125301361084</t>
   </si>
   <si>
     <t xml:space="preserve">7.10874462127686</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09206819534302</t>
+    <t xml:space="preserve">7.0920672416687</t>
   </si>
   <si>
     <t xml:space="preserve">7.05454301834106</t>
   </si>
   <si>
-    <t xml:space="preserve">6.88359975814819</t>
+    <t xml:space="preserve">6.88360023498535</t>
   </si>
   <si>
     <t xml:space="preserve">7.0045108795166</t>
@@ -620,52 +620,52 @@
     <t xml:space="preserve">7.06705093383789</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93780136108398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96281766891479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00867986679077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27968740463257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32138156890869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59655809402466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56320381164551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69662284851074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74665451049805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7133002281189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9592924118042</t>
+    <t xml:space="preserve">6.93780088424683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96281719207764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00868034362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27968835830688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32138061523438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59655904769897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56320428848267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69662237167358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74665546417236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71330070495605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95929288864136</t>
   </si>
   <si>
     <t xml:space="preserve">8.06352615356445</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08854293823242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13023567199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90925979614258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31785869598389</t>
+    <t xml:space="preserve">8.08854198455811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13023662567139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90926027297974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31785774230957</t>
   </si>
   <si>
     <t xml:space="preserve">8.25114727020264</t>
@@ -680,7 +680,7 @@
     <t xml:space="preserve">8.55550956726074</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42209148406982</t>
+    <t xml:space="preserve">8.42209053039551</t>
   </si>
   <si>
     <t xml:space="preserve">8.45544624328613</t>
@@ -689,16 +689,16 @@
     <t xml:space="preserve">8.49713802337646</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68892765045166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69726943969727</t>
+    <t xml:space="preserve">8.68892860412598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69726848602295</t>
   </si>
   <si>
     <t xml:space="preserve">8.65557384490967</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58886528015137</t>
+    <t xml:space="preserve">8.58886432647705</t>
   </si>
   <si>
     <t xml:space="preserve">8.3887357711792</t>
@@ -719,40 +719,40 @@
     <t xml:space="preserve">8.57218742370605</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66391277313232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83902549743652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92241287231445</t>
+    <t xml:space="preserve">8.66391372680664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83902740478516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92241191864014</t>
   </si>
   <si>
     <t xml:space="preserve">9.43941211700439</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51446056365967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1565408706665</t>
+    <t xml:space="preserve">9.51445960998535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1565418243408</t>
   </si>
   <si>
     <t xml:space="preserve">10.2315893173218</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5651369094849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7652673721313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8319759368896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.365008354187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.423378944397</t>
+    <t xml:space="preserve">10.5651378631592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7652654647827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8319749832153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3650093078613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4233798980713</t>
   </si>
   <si>
     <t xml:space="preserve">10.6540613174438</t>
@@ -761,7 +761,7 @@
     <t xml:space="preserve">10.5344476699829</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94493007659912</t>
+    <t xml:space="preserve">9.94492816925049</t>
   </si>
   <si>
     <t xml:space="preserve">10.1328916549683</t>
@@ -773,16 +773,16 @@
     <t xml:space="preserve">10.1243476867676</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2439594268799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2525043487549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1499795913696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4575538635254</t>
+    <t xml:space="preserve">10.2439603805542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2525053024292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1499786376953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4575548171997</t>
   </si>
   <si>
     <t xml:space="preserve">10.7822170257568</t>
@@ -794,13 +794,13 @@
     <t xml:space="preserve">10.6882352828979</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5515356063843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7993040084839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.722412109375</t>
+    <t xml:space="preserve">10.5515365600586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7993049621582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7224102020264</t>
   </si>
   <si>
     <t xml:space="preserve">10.7053232192993</t>
@@ -809,16 +809,16 @@
     <t xml:space="preserve">10.7138671875</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4917287826538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.431923866272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3464860916138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3806591033936</t>
+    <t xml:space="preserve">10.4917278289795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4319229125977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3464851379395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3806600570679</t>
   </si>
   <si>
     <t xml:space="preserve">10.1158046722412</t>
@@ -827,16 +827,16 @@
     <t xml:space="preserve">9.97910499572754</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90221118927002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85094738006592</t>
+    <t xml:space="preserve">9.9022102355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8509464263916</t>
   </si>
   <si>
     <t xml:space="preserve">9.68007278442383</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50065422058105</t>
+    <t xml:space="preserve">9.50065326690674</t>
   </si>
   <si>
     <t xml:space="preserve">9.16744709014893</t>
@@ -848,7 +848,7 @@
     <t xml:space="preserve">9.24434089660645</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26142883300781</t>
+    <t xml:space="preserve">9.26142978668213</t>
   </si>
   <si>
     <t xml:space="preserve">9.30414772033691</t>
@@ -869,31 +869,31 @@
     <t xml:space="preserve">9.75696659088135</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1670656204224</t>
+    <t xml:space="preserve">10.1670665740967</t>
   </si>
   <si>
     <t xml:space="preserve">10.1072597503662</t>
   </si>
   <si>
-    <t xml:space="preserve">9.97056007385254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91929721832275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2952241897583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3037662506104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3550291061401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3293981552124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3635730743408</t>
+    <t xml:space="preserve">9.97056102752686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91929817199707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.295223236084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3037672042847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3550310134888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3293972015381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3635740280151</t>
   </si>
   <si>
     <t xml:space="preserve">10.4404668807983</t>
@@ -902,37 +902,37 @@
     <t xml:space="preserve">10.2781352996826</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0901737213135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.038911819458</t>
+    <t xml:space="preserve">10.0901727676392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0389108657837</t>
   </si>
   <si>
     <t xml:space="preserve">9.96201705932617</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92784214019775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8167724609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57754707336426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7740535736084</t>
+    <t xml:space="preserve">9.92784118652344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81677341461182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57754802703857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77405452728271</t>
   </si>
   <si>
     <t xml:space="preserve">9.52628421783447</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42375946044922</t>
+    <t xml:space="preserve">9.42376041412354</t>
   </si>
   <si>
     <t xml:space="preserve">9.63735389709473</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73133659362793</t>
+    <t xml:space="preserve">9.7313346862793</t>
   </si>
   <si>
     <t xml:space="preserve">9.56900405883789</t>
@@ -941,16 +941,16 @@
     <t xml:space="preserve">9.45793533325195</t>
   </si>
   <si>
-    <t xml:space="preserve">9.34686660766602</t>
+    <t xml:space="preserve">9.34686470031738</t>
   </si>
   <si>
     <t xml:space="preserve">9.44939136505127</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51774311065674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58609104156494</t>
+    <t xml:space="preserve">9.51774120330811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58609199523926</t>
   </si>
   <si>
     <t xml:space="preserve">9.33832263946533</t>
@@ -962,22 +962,22 @@
     <t xml:space="preserve">9.65444278717041</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56045913696289</t>
+    <t xml:space="preserve">9.56046009063721</t>
   </si>
   <si>
     <t xml:space="preserve">9.91075420379639</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74842357635498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71424674987793</t>
+    <t xml:space="preserve">9.74842166900635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71424770355225</t>
   </si>
   <si>
     <t xml:space="preserve">9.70570373535156</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8253173828125</t>
+    <t xml:space="preserve">9.82531642913818</t>
   </si>
   <si>
     <t xml:space="preserve">9.89366626739502</t>
@@ -986,25 +986,25 @@
     <t xml:space="preserve">9.84240436553955</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8680362701416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76551055908203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73987865447998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69715976715088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85949039459229</t>
+    <t xml:space="preserve">9.86803531646729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76551151275635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73987770080566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6971607208252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85949230194092</t>
   </si>
   <si>
     <t xml:space="preserve">9.79968547821045</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54337310791016</t>
+    <t xml:space="preserve">9.54337215423584</t>
   </si>
   <si>
     <t xml:space="preserve">9.20162296295166</t>
@@ -1016,37 +1016,37 @@
     <t xml:space="preserve">8.78297901153564</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65482234954834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13365459442139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38569450378418</t>
+    <t xml:space="preserve">8.65482330322266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13365364074707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38569355010986</t>
   </si>
   <si>
     <t xml:space="preserve">8.1592845916748</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18064308166504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68899822235107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38996601104736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40278244018555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25326633453369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33015918731689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43268394470215</t>
+    <t xml:space="preserve">8.18064403533936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68899631500244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38996696472168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40278148651123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25326538085938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33016014099121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43268489837646</t>
   </si>
   <si>
     <t xml:space="preserve">8.372878074646</t>
@@ -1055,40 +1055,40 @@
     <t xml:space="preserve">8.35151863098145</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15074157714844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09520721435547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9072437286377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88161277770996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85598134994507</t>
+    <t xml:space="preserve">8.15074062347412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09520816802979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90724325180054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88161325454712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85598087310791</t>
   </si>
   <si>
     <t xml:space="preserve">7.96704959869385</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91151571273804</t>
+    <t xml:space="preserve">7.91151666641235</t>
   </si>
   <si>
     <t xml:space="preserve">8.01404190063477</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03539943695068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07811832427979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06957530975342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31307125091553</t>
+    <t xml:space="preserve">8.035400390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07811737060547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0695743560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31307220458984</t>
   </si>
   <si>
     <t xml:space="preserve">8.21909141540527</t>
@@ -1100,7 +1100,7 @@
     <t xml:space="preserve">8.10802268981934</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13792514801025</t>
+    <t xml:space="preserve">8.13792610168457</t>
   </si>
   <si>
     <t xml:space="preserve">8.23190689086914</t>
@@ -1124,7 +1124,7 @@
     <t xml:space="preserve">8.8000659942627</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61210346221924</t>
+    <t xml:space="preserve">8.61210441589355</t>
   </si>
   <si>
     <t xml:space="preserve">8.54375267028809</t>
@@ -1136,58 +1136,58 @@
     <t xml:space="preserve">8.71462917327881</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64627838134766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52666568756104</t>
+    <t xml:space="preserve">8.64627742767334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52666473388672</t>
   </si>
   <si>
     <t xml:space="preserve">8.51812267303467</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46685886383057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44122982025146</t>
+    <t xml:space="preserve">8.46685981750488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44122886657715</t>
   </si>
   <si>
     <t xml:space="preserve">8.26180934906006</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07384586334229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04821491241455</t>
+    <t xml:space="preserve">8.07384777069092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04821586608887</t>
   </si>
   <si>
     <t xml:space="preserve">7.97132253646851</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18491554260254</t>
+    <t xml:space="preserve">8.18491649627686</t>
   </si>
   <si>
     <t xml:space="preserve">8.03112888336182</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38142395019531</t>
+    <t xml:space="preserve">8.381422996521</t>
   </si>
   <si>
     <t xml:space="preserve">8.9709415435791</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81715297698975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8855037689209</t>
+    <t xml:space="preserve">8.81715488433838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88550281524658</t>
   </si>
   <si>
     <t xml:space="preserve">8.83424186706543</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68045234680176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66336631774902</t>
+    <t xml:space="preserve">8.68045330047607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66336727142334</t>
   </si>
   <si>
     <t xml:space="preserve">8.90259075164795</t>
@@ -1196,16 +1196,16 @@
     <t xml:space="preserve">9.00511646270752</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4323034286499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31269073486328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19307994842529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17599010467529</t>
+    <t xml:space="preserve">9.43230438232422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3126916885376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19307899475098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17599201202393</t>
   </si>
   <si>
     <t xml:space="preserve">9.10764122009277</t>
@@ -1214,70 +1214,70 @@
     <t xml:space="preserve">9.15890407562256</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32977962493896</t>
+    <t xml:space="preserve">9.32977867126465</t>
   </si>
   <si>
     <t xml:space="preserve">9.483567237854</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2866792678833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6455173492432</t>
+    <t xml:space="preserve">10.286678314209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6455163955688</t>
   </si>
   <si>
     <t xml:space="preserve">10.7480421066284</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6967802047729</t>
+    <t xml:space="preserve">10.6967792510986</t>
   </si>
   <si>
     <t xml:space="preserve">11.0385293960571</t>
   </si>
   <si>
-    <t xml:space="preserve">11.516978263855</t>
+    <t xml:space="preserve">11.5169792175293</t>
   </si>
   <si>
     <t xml:space="preserve">11.4486303329468</t>
   </si>
   <si>
-    <t xml:space="preserve">11.551155090332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6249647140503</t>
+    <t xml:space="preserve">11.5511560440063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.624963760376</t>
   </si>
   <si>
     <t xml:space="preserve">11.9571056365967</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9202013015747</t>
+    <t xml:space="preserve">11.920202255249</t>
   </si>
   <si>
     <t xml:space="preserve">11.4957981109619</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3850831985474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3666305541992</t>
+    <t xml:space="preserve">11.3850841522217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3666315078735</t>
   </si>
   <si>
     <t xml:space="preserve">11.0344896316528</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9606809616089</t>
+    <t xml:space="preserve">10.9606800079346</t>
   </si>
   <si>
     <t xml:space="preserve">10.5731821060181</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7761573791504</t>
+    <t xml:space="preserve">10.7761564254761</t>
   </si>
   <si>
     <t xml:space="preserve">10.683895111084</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7208003997803</t>
+    <t xml:space="preserve">10.7208013534546</t>
   </si>
   <si>
     <t xml:space="preserve">10.5547285079956</t>
@@ -1289,16 +1289,16 @@
     <t xml:space="preserve">10.074969291687</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0565156936646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1303262710571</t>
+    <t xml:space="preserve">10.0565166473389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1303253173828</t>
   </si>
   <si>
     <t xml:space="preserve">10.3517532348633</t>
   </si>
   <si>
-    <t xml:space="preserve">10.148777961731</t>
+    <t xml:space="preserve">10.1487789154053</t>
   </si>
   <si>
     <t xml:space="preserve">10.2963962554932</t>
@@ -1322,13 +1322,13 @@
     <t xml:space="preserve">10.4071102142334</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2779455184937</t>
+    <t xml:space="preserve">10.277943611145</t>
   </si>
   <si>
     <t xml:space="preserve">10.1672306060791</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85354232788086</t>
+    <t xml:space="preserve">9.85354137420654</t>
   </si>
   <si>
     <t xml:space="preserve">9.87199306488037</t>
@@ -1337,13 +1337,13 @@
     <t xml:space="preserve">9.77973175048828</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53985214233398</t>
+    <t xml:space="preserve">9.53985023498535</t>
   </si>
   <si>
     <t xml:space="preserve">9.74282741546631</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79818439483643</t>
+    <t xml:space="preserve">9.79818344116211</t>
   </si>
   <si>
     <t xml:space="preserve">9.72437477111816</t>
@@ -1355,13 +1355,13 @@
     <t xml:space="preserve">9.81663608551025</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76127815246582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63211250305176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.373779296875</t>
+    <t xml:space="preserve">9.76128005981445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63211154937744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37378025054932</t>
   </si>
   <si>
     <t xml:space="preserve">9.31842422485352</t>
@@ -1370,7 +1370,7 @@
     <t xml:space="preserve">9.42913722991943</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39223384857178</t>
+    <t xml:space="preserve">9.39223289489746</t>
   </si>
   <si>
     <t xml:space="preserve">9.33687591552734</t>
@@ -1382,10 +1382,10 @@
     <t xml:space="preserve">9.15235233306885</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99550724029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94015026092529</t>
+    <t xml:space="preserve">8.99550819396973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94015121459961</t>
   </si>
   <si>
     <t xml:space="preserve">9.09699535369873</t>
@@ -1400,7 +1400,7 @@
     <t xml:space="preserve">9.00473403930664</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58033180236816</t>
+    <t xml:space="preserve">8.58033084869385</t>
   </si>
   <si>
     <t xml:space="preserve">8.34045028686523</t>
@@ -1409,19 +1409,19 @@
     <t xml:space="preserve">8.9862813949585</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76485347747803</t>
+    <t xml:space="preserve">8.76485443115234</t>
   </si>
   <si>
     <t xml:space="preserve">8.700270652771</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71872138977051</t>
+    <t xml:space="preserve">8.71872234344482</t>
   </si>
   <si>
     <t xml:space="preserve">8.69104385375977</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41425895690918</t>
+    <t xml:space="preserve">8.4142599105835</t>
   </si>
   <si>
     <t xml:space="preserve">8.50652122497559</t>
@@ -1433,7 +1433,7 @@
     <t xml:space="preserve">9.44758892059326</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2630672454834</t>
+    <t xml:space="preserve">9.26306629180908</t>
   </si>
   <si>
     <t xml:space="preserve">9.06931686401367</t>
@@ -1448,28 +1448,28 @@
     <t xml:space="preserve">9.10622119903564</t>
   </si>
   <si>
-    <t xml:space="preserve">9.03241348266602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06009101867676</t>
+    <t xml:space="preserve">9.0324125289917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06009006500244</t>
   </si>
   <si>
     <t xml:space="preserve">8.94937705993652</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93092441558838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8478889465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89402008056641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90324687957764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83866214752197</t>
+    <t xml:space="preserve">8.9309253692627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84788990020752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89401912689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90324592590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83866405487061</t>
   </si>
   <si>
     <t xml:space="preserve">8.77408027648926</t>
@@ -1478,28 +1478,25 @@
     <t xml:space="preserve">8.65414047241211</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66336536407471</t>
-  </si>
-  <si>
     <t xml:space="preserve">8.46961688995361</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36812877655029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30354499816895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79610681533813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.759202003479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74075031280518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61158323287964</t>
+    <t xml:space="preserve">8.36812782287598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30354595184326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79610633850098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75920152664185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74075078964233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6115837097168</t>
   </si>
   <si>
     <t xml:space="preserve">7.64848804473877</t>
@@ -1508,16 +1505,16 @@
     <t xml:space="preserve">7.54700040817261</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44551229476929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45473909378052</t>
+    <t xml:space="preserve">7.44551277160645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45473861694336</t>
   </si>
   <si>
     <t xml:space="preserve">7.13182306289673</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15950202941895</t>
+    <t xml:space="preserve">7.15950155258179</t>
   </si>
   <si>
     <t xml:space="preserve">7.43628692626953</t>
@@ -1529,37 +1526,37 @@
     <t xml:space="preserve">7.3532509803772</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37170314788818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53777408599854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4731912612915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82378435134888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86069059371948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74997568130493</t>
+    <t xml:space="preserve">7.37170267105103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53777456283569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47319221496582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82378530502319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86069011688232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74997663497925</t>
   </si>
   <si>
     <t xml:space="preserve">7.51009607315063</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63926124572754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62081003189087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3993821144104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56545209884644</t>
+    <t xml:space="preserve">7.6392617225647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62080955505371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39938259124756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56545257568359</t>
   </si>
   <si>
     <t xml:space="preserve">7.27944135665894</t>
@@ -1574,19 +1571,19 @@
     <t xml:space="preserve">7.11337089538574</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10414409637451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49164295196533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59313106536865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5839056968689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52854824066162</t>
+    <t xml:space="preserve">7.10414457321167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49164342880249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59313058853149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58390522003174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52854776382446</t>
   </si>
   <si>
     <t xml:space="preserve">7.39015579223633</t>
@@ -1601,28 +1598,28 @@
     <t xml:space="preserve">7.36247730255127</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29789400100708</t>
+    <t xml:space="preserve">7.29789352416992</t>
   </si>
   <si>
     <t xml:space="preserve">7.32557249069214</t>
   </si>
   <si>
-    <t xml:space="preserve">7.40860748291016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7315239906311</t>
+    <t xml:space="preserve">7.40860795974731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73152351379395</t>
   </si>
   <si>
     <t xml:space="preserve">7.77765417098999</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92527341842651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10056972503662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43271255493164</t>
+    <t xml:space="preserve">7.92527389526367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10057067871094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43271160125732</t>
   </si>
   <si>
     <t xml:space="preserve">8.45116424560547</t>
@@ -1631,10 +1628,10 @@
     <t xml:space="preserve">8.55265235900879</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4603910446167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40503215789795</t>
+    <t xml:space="preserve">8.46039009094238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40503311157227</t>
   </si>
   <si>
     <t xml:space="preserve">8.39580726623535</t>
@@ -1646,19 +1643,19 @@
     <t xml:space="preserve">9.19848346710205</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80175876617432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17080497741699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11544895172119</t>
+    <t xml:space="preserve">8.8017578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17080402374268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11544799804688</t>
   </si>
   <si>
     <t xml:space="preserve">8.85711574554443</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72795009613037</t>
+    <t xml:space="preserve">8.72794914245605</t>
   </si>
   <si>
     <t xml:space="preserve">8.92169857025146</t>
@@ -1670,28 +1667,28 @@
     <t xml:space="preserve">8.97705459594727</t>
   </si>
   <si>
-    <t xml:space="preserve">8.96782970428467</t>
+    <t xml:space="preserve">8.96782875061035</t>
   </si>
   <si>
     <t xml:space="preserve">8.91247272491455</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86633968353271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87556838989258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64491367340088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74640083312988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31277275085449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44193840026855</t>
+    <t xml:space="preserve">8.86634159088135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87556743621826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64491271972656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7464017868042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31277179718018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44193744659424</t>
   </si>
   <si>
     <t xml:space="preserve">8.331223487854</t>
@@ -1703,7 +1700,7 @@
     <t xml:space="preserve">8.32199859619141</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29432010650635</t>
+    <t xml:space="preserve">8.29431915283203</t>
   </si>
   <si>
     <t xml:space="preserve">8.49729537963867</t>
@@ -1712,19 +1709,19 @@
     <t xml:space="preserve">8.5157470703125</t>
   </si>
   <si>
-    <t xml:space="preserve">8.53419876098633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56187725067139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48806858062744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52497386932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5711030960083</t>
+    <t xml:space="preserve">8.53419971466064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5618782043457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48806953430176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52497291564941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57110500335693</t>
   </si>
   <si>
     <t xml:space="preserve">8.59878253936768</t>
@@ -1736,7 +1733,7 @@
     <t xml:space="preserve">8.67259216308594</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60800933837891</t>
+    <t xml:space="preserve">8.60800838470459</t>
   </si>
   <si>
     <t xml:space="preserve">9.28066253662109</t>
@@ -1748,25 +1745,25 @@
     <t xml:space="preserve">8.46178150177002</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24731159210205</t>
+    <t xml:space="preserve">8.24731063842773</t>
   </si>
   <si>
     <t xml:space="preserve">7.95485353469849</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12057876586914</t>
+    <t xml:space="preserve">8.12057971954346</t>
   </si>
   <si>
     <t xml:space="preserve">8.0425910949707</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3545446395874</t>
+    <t xml:space="preserve">8.35454654693604</t>
   </si>
   <si>
     <t xml:space="preserve">8.14982509613037</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09133338928223</t>
+    <t xml:space="preserve">8.09133434295654</t>
   </si>
   <si>
     <t xml:space="preserve">8.11083030700684</t>
@@ -1778,10 +1775,10 @@
     <t xml:space="preserve">8.15957355499268</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1790714263916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2083158493042</t>
+    <t xml:space="preserve">8.17907238006592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20831680297852</t>
   </si>
   <si>
     <t xml:space="preserve">8.03284168243408</t>
@@ -1796,31 +1793,31 @@
     <t xml:space="preserve">8.3058032989502</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3155517578125</t>
+    <t xml:space="preserve">8.31555080413818</t>
   </si>
   <si>
     <t xml:space="preserve">8.19856834411621</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98409938812256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13032913208008</t>
+    <t xml:space="preserve">7.9840989112854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13032817840576</t>
   </si>
   <si>
     <t xml:space="preserve">8.14007663726807</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96460247039795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99384737014771</t>
+    <t xml:space="preserve">7.96460199356079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99384784698486</t>
   </si>
   <si>
     <t xml:space="preserve">8.23756217956543</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1693229675293</t>
+    <t xml:space="preserve">8.16932201385498</t>
   </si>
   <si>
     <t xml:space="preserve">8.18881988525391</t>
@@ -1832,16 +1829,16 @@
     <t xml:space="preserve">8.00359630584717</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26680755615234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21806621551514</t>
+    <t xml:space="preserve">8.26680850982666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21806526184082</t>
   </si>
   <si>
     <t xml:space="preserve">8.05233955383301</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06208896636963</t>
+    <t xml:space="preserve">8.06208801269531</t>
   </si>
   <si>
     <t xml:space="preserve">8.07183647155762</t>
@@ -1853,7 +1850,7 @@
     <t xml:space="preserve">7.93535661697388</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9743504524231</t>
+    <t xml:space="preserve">7.97435092926025</t>
   </si>
   <si>
     <t xml:space="preserve">8.01334571838379</t>
@@ -1865,22 +1862,22 @@
     <t xml:space="preserve">8.39353942871094</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34479808807373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28630542755127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51052284240723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58851337432861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85172462463379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21242237091064</t>
+    <t xml:space="preserve">8.34479713439941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28630638122559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51052188873291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58851146697998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85172367095947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21242141723633</t>
   </si>
   <si>
     <t xml:space="preserve">9.20267295837402</t>
@@ -1892,16 +1889,16 @@
     <t xml:space="preserve">9.45613670349121</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55362224578857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52437686920166</t>
+    <t xml:space="preserve">9.55362319946289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52437782287598</t>
   </si>
   <si>
     <t xml:space="preserve">9.51462936401367</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62186241149902</t>
+    <t xml:space="preserve">9.62186336517334</t>
   </si>
   <si>
     <t xml:space="preserve">9.60236644744873</t>
@@ -1910,28 +1907,28 @@
     <t xml:space="preserve">9.59261798858643</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0995426177979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3920011520386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1190414428711</t>
+    <t xml:space="preserve">10.0995435714722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3920021057129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1190423965454</t>
   </si>
   <si>
     <t xml:space="preserve">10.1385383605957</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0605497360229</t>
+    <t xml:space="preserve">10.0605487823486</t>
   </si>
   <si>
     <t xml:space="preserve">10.0215559005737</t>
   </si>
   <si>
-    <t xml:space="preserve">9.67060565948486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74859523773193</t>
+    <t xml:space="preserve">9.67060661315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74859428405762</t>
   </si>
   <si>
     <t xml:space="preserve">9.68035507202148</t>
@@ -1946,16 +1943,16 @@
     <t xml:space="preserve">9.57311916351318</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65110778808594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53412628173828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94356632232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47563552856445</t>
+    <t xml:space="preserve">9.65110874176025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53412532806396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94356727600098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47563362121582</t>
   </si>
   <si>
     <t xml:space="preserve">9.41714286804199</t>
@@ -1967,10 +1964,10 @@
     <t xml:space="preserve">9.44638824462891</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39764595031738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8460807800293</t>
+    <t xml:space="preserve">9.39764499664307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84608173370361</t>
   </si>
   <si>
     <t xml:space="preserve">9.7096004486084</t>
@@ -1979,22 +1976,22 @@
     <t xml:space="preserve">9.72909736633301</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18317699432373</t>
+    <t xml:space="preserve">9.18317604064941</t>
   </si>
   <si>
     <t xml:space="preserve">9.1636791229248</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1539306640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26116466522217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23191928863525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1441822052002</t>
+    <t xml:space="preserve">9.15393161773682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26116561889648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23192024230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14418315887451</t>
   </si>
   <si>
     <t xml:space="preserve">9.17342758178711</t>
@@ -2006,7 +2003,7 @@
     <t xml:space="preserve">8.98820495605469</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0077018737793</t>
+    <t xml:space="preserve">9.00770092010498</t>
   </si>
   <si>
     <t xml:space="preserve">8.91996383666992</t>
@@ -2015,7 +2012,7 @@
     <t xml:space="preserve">8.78348350524902</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83222675323486</t>
+    <t xml:space="preserve">8.83222770690918</t>
   </si>
   <si>
     <t xml:space="preserve">8.99795246124268</t>
@@ -2027,22 +2024,22 @@
     <t xml:space="preserve">9.02719879150391</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22217082977295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1149377822876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03694820404053</t>
+    <t xml:space="preserve">9.22216987609863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11493587493896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03694725036621</t>
   </si>
   <si>
     <t xml:space="preserve">8.86147308349609</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38379192352295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89636182785034</t>
+    <t xml:space="preserve">8.38379287719727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89636278152466</t>
   </si>
   <si>
     <t xml:space="preserve">7.8476185798645</t>
@@ -2051,34 +2048,34 @@
     <t xml:space="preserve">7.66239547729492</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58440732955933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67214441299438</t>
+    <t xml:space="preserve">7.58440637588501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67214393615723</t>
   </si>
   <si>
     <t xml:space="preserve">7.39918327331543</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57055282592773</t>
+    <t xml:space="preserve">6.57055234909058</t>
   </si>
   <si>
     <t xml:space="preserve">6.62904500961304</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49256420135498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17650413513184</t>
+    <t xml:space="preserve">6.49256372451782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17650318145752</t>
   </si>
   <si>
     <t xml:space="preserve">5.51770448684692</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5720911026001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67932558059692</t>
+    <t xml:space="preserve">4.57209157943726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67932605743408</t>
   </si>
   <si>
     <t xml:space="preserve">4.51359939575195</t>
@@ -2087,7 +2084,7 @@
     <t xml:space="preserve">4.55259370803833</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87429761886597</t>
+    <t xml:space="preserve">4.87429714202881</t>
   </si>
   <si>
     <t xml:space="preserve">5.16675567626953</t>
@@ -2096,7 +2093,7 @@
     <t xml:space="preserve">5.5566987991333</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08312320709229</t>
+    <t xml:space="preserve">6.08312273025513</t>
   </si>
   <si>
     <t xml:space="preserve">6.04412841796875</t>
@@ -2105,7 +2102,7 @@
     <t xml:space="preserve">6.02463150024414</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92714548110962</t>
+    <t xml:space="preserve">5.92714595794678</t>
   </si>
   <si>
     <t xml:space="preserve">5.83940839767456</t>
@@ -2114,10 +2111,10 @@
     <t xml:space="preserve">6.00513410568237</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03437995910645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20010614395142</t>
+    <t xml:space="preserve">6.0343804359436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20010662078857</t>
   </si>
   <si>
     <t xml:space="preserve">6.43407249450684</t>
@@ -2129,55 +2126,55 @@
     <t xml:space="preserve">6.48281574249268</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26834630966187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47306728363037</t>
+    <t xml:space="preserve">6.26834583282471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47306680679321</t>
   </si>
   <si>
     <t xml:space="preserve">6.5803017616272</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5900502204895</t>
+    <t xml:space="preserve">6.59005069732666</t>
   </si>
   <si>
     <t xml:space="preserve">7.34069204330444</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73063611984253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60390377044678</t>
+    <t xml:space="preserve">7.73063564300537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60390424728394</t>
   </si>
   <si>
     <t xml:space="preserve">7.64289855957031</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76962947845459</t>
+    <t xml:space="preserve">7.76963043212891</t>
   </si>
   <si>
     <t xml:space="preserve">7.69164133071899</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44792652130127</t>
+    <t xml:space="preserve">7.44792604446411</t>
   </si>
   <si>
     <t xml:space="preserve">7.48692035675049</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24320554733276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45767498016357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33094310760498</t>
+    <t xml:space="preserve">7.24320602416992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45767545700073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33094358444214</t>
   </si>
   <si>
     <t xml:space="preserve">7.49666929244995</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54541206359863</t>
+    <t xml:space="preserve">7.54541254043579</t>
   </si>
   <si>
     <t xml:space="preserve">7.51616668701172</t>
@@ -2189,250 +2186,253 @@
     <t xml:space="preserve">7.90610980987549</t>
   </si>
   <si>
+    <t xml:space="preserve">7.37968683242798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61365270614624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65264701843262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7111382484436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5551609992981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36993789672852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36018896102905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28220081329346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57465839385986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59415531158447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56490993499756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43817758560181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38943481445312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40893173217773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50641822814941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7013897895813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63314962387085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46742391586304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35044050216675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31144618988037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52591514587402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74038410186768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94510459899902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88661336898804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79887580871582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78912687301636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41868114471436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32119464874268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26270294189453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21396017074585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17496585845947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27245187759399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75988149642944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77937841415405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53566360473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72088766098022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47717237472534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19446325302124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09697675704956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15546894073486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16521739959717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22370862960815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30169725418091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2919487953186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25295448303223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23345756530762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18471431732178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20421171188354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68189287185669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07748031616211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12622308731079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06773138046265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01898860931396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94099950790405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02873706817627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11647462844849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10672569274902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92150211334229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98974227905273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95074796676636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8727593421936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85326242446899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82401657104492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81426763534546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88250780105591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83376502990723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8630108833313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84351348876953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80451917648315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78502225875854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67778778076172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7265305519104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97999429702759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39928722381592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19347906112671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2718825340271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34048461914062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22288036346436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23268032073975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48749017715454</t>
+  </si>
+  <si>
     <t xml:space="preserve">7.37968635559082</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61365222930908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65264654159546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7111382484436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5551609992981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36993741989136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36018943786621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2822003364563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57465839385986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59415531158447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56491041183472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43817806243896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38943481445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40893220901489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50641775131226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70139026641846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63314962387085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46742343902588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35044002532959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31144666671753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52591514587402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74038410186768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94510364532471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88661336898804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79887580871582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78912734985352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41868114471436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32119512557983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26270294189453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21396017074585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17496585845947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27245187759399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75988149642944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77937889099121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53566408157349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72088766098022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47717237472534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19446277618408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09697723388672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15546894073486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16521739959717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22370862960815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30169773101807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2919487953186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25295495986938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23345708847046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18471431732178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20421123504639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68189287185669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07747983932495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12622261047363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06773090362549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01898813247681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94099950790405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02873706817627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11647462844849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10672569274902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92150259017944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98974275588989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95074796676636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8727593421936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85326242446899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82401609420776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8142671585083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88250780105591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83376550674438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8630108833313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84351348876953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80451917648315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78502225875854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67778730392456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7265305519104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97999334335327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39928722381592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19347906112671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27188205718994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34048461914062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22288036346436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2326807975769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48749017715454</t>
-  </si>
-  <si>
     <t xml:space="preserve">7.55609321594238</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54629230499268</t>
+    <t xml:space="preserve">7.54629278182983</t>
   </si>
   <si>
     <t xml:space="preserve">7.64429664611816</t>
@@ -2444,22 +2444,22 @@
     <t xml:space="preserve">7.51689195632935</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76190090179443</t>
+    <t xml:space="preserve">7.76190137863159</t>
   </si>
   <si>
     <t xml:space="preserve">7.88930606842041</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12451457977295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09511375427246</t>
+    <t xml:space="preserve">8.12451553344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09511470794678</t>
   </si>
   <si>
     <t xml:space="preserve">8.14411640167236</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06571292877197</t>
+    <t xml:space="preserve">8.06571197509766</t>
   </si>
   <si>
     <t xml:space="preserve">8.15391540527344</t>
@@ -2468,7 +2468,7 @@
     <t xml:space="preserve">8.18331813812256</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25192070007324</t>
+    <t xml:space="preserve">8.25191974639893</t>
   </si>
   <si>
     <t xml:space="preserve">8.19311714172363</t>
@@ -2483,10 +2483,10 @@
     <t xml:space="preserve">7.84030437469482</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65409660339355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62469625473022</t>
+    <t xml:space="preserve">7.65409708023071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62469577789307</t>
   </si>
   <si>
     <t xml:space="preserve">7.78150177001953</t>
@@ -2513,7 +2513,7 @@
     <t xml:space="preserve">7.87950563430786</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7030987739563</t>
+    <t xml:space="preserve">7.70309925079346</t>
   </si>
   <si>
     <t xml:space="preserve">7.59529447555542</t>
@@ -2525,7 +2525,7 @@
     <t xml:space="preserve">7.69329833984375</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68349838256836</t>
+    <t xml:space="preserve">7.6834979057312</t>
   </si>
   <si>
     <t xml:space="preserve">7.61489534378052</t>
@@ -2534,13 +2534,13 @@
     <t xml:space="preserve">7.89910697937012</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85990524291992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85010433197021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07551383972168</t>
+    <t xml:space="preserve">7.85990571975708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85010480880737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07551288604736</t>
   </si>
   <si>
     <t xml:space="preserve">7.99711036682129</t>
@@ -2552,7 +2552,7 @@
     <t xml:space="preserve">8.33032321929932</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13431549072266</t>
+    <t xml:space="preserve">8.13431644439697</t>
   </si>
   <si>
     <t xml:space="preserve">8.50673007965088</t>
@@ -2564,22 +2564,22 @@
     <t xml:space="preserve">8.4283275604248</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40872573852539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59493350982666</t>
+    <t xml:space="preserve">8.40872669219971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59493446350098</t>
   </si>
   <si>
     <t xml:space="preserve">8.81054210662842</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73213863372803</t>
+    <t xml:space="preserve">8.73213768005371</t>
   </si>
   <si>
     <t xml:space="preserve">8.74193859100342</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87914562225342</t>
+    <t xml:space="preserve">8.8791446685791</t>
   </si>
   <si>
     <t xml:space="preserve">9.08495330810547</t>
@@ -2591,13 +2591,13 @@
     <t xml:space="preserve">9.17315578460693</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10455226898193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82034206390381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86934471130371</t>
+    <t xml:space="preserve">9.10455322265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82034301757812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86934375762939</t>
   </si>
   <si>
     <t xml:space="preserve">8.63413524627686</t>
@@ -2606,13 +2606,13 @@
     <t xml:space="preserve">8.61453437805176</t>
   </si>
   <si>
-    <t xml:space="preserve">8.467529296875</t>
+    <t xml:space="preserve">8.46752834320068</t>
   </si>
   <si>
     <t xml:space="preserve">8.57533264160156</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30092144012451</t>
+    <t xml:space="preserve">8.30092239379883</t>
   </si>
   <si>
     <t xml:space="preserve">8.3597240447998</t>
@@ -2621,10 +2621,10 @@
     <t xml:space="preserve">8.3793249130249</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49692916870117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52632999420166</t>
+    <t xml:space="preserve">8.49693012237549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52633094787598</t>
   </si>
   <si>
     <t xml:space="preserve">8.51653003692627</t>
@@ -2639,7 +2639,7 @@
     <t xml:space="preserve">8.29112148284912</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23231887817383</t>
+    <t xml:space="preserve">8.23231983184814</t>
   </si>
   <si>
     <t xml:space="preserve">8.20291805267334</t>
@@ -2648,19 +2648,19 @@
     <t xml:space="preserve">8.26172065734863</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3107213973999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28132152557373</t>
+    <t xml:space="preserve">8.31072235107422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28132057189941</t>
   </si>
   <si>
     <t xml:space="preserve">8.38912582397461</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70273685455322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64393520355225</t>
+    <t xml:space="preserve">8.70273780822754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64393424987793</t>
   </si>
   <si>
     <t xml:space="preserve">8.67333698272705</t>
@@ -2672,16 +2672,16 @@
     <t xml:space="preserve">8.56553173065186</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66353702545166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89874458312988</t>
+    <t xml:space="preserve">8.66353607177734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8987455368042</t>
   </si>
   <si>
     <t xml:space="preserve">8.77134037017822</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90854549407959</t>
+    <t xml:space="preserve">8.90854644775391</t>
   </si>
   <si>
     <t xml:space="preserve">9.07515239715576</t>
@@ -2690,19 +2690,19 @@
     <t xml:space="preserve">9.99638748168945</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81998157501221</t>
+    <t xml:space="preserve">9.81998062133789</t>
   </si>
   <si>
     <t xml:space="preserve">9.95718574523926</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3884029388428</t>
+    <t xml:space="preserve">10.3884038925171</t>
   </si>
   <si>
     <t xml:space="preserve">10.427604675293</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4472055435181</t>
+    <t xml:space="preserve">10.4472045898438</t>
   </si>
   <si>
     <t xml:space="preserve">9.83958148956299</t>
@@ -2747,10 +2747,10 @@
     <t xml:space="preserve">9.18295574188232</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3103609085083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99674892425537</t>
+    <t xml:space="preserve">9.31036186218262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99674987792969</t>
   </si>
   <si>
     <t xml:space="preserve">9.19275665283203</t>
@@ -2759,19 +2759,19 @@
     <t xml:space="preserve">9.26135921478271</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42796611785889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69257545471191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64357471466064</t>
+    <t xml:space="preserve">9.42796516418457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69257640838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64357376098633</t>
   </si>
   <si>
     <t xml:space="preserve">9.60437297821045</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89838409423828</t>
+    <t xml:space="preserve">9.8983850479126</t>
   </si>
   <si>
     <t xml:space="preserve">9.93758583068848</t>
@@ -2783,7 +2783,7 @@
     <t xml:space="preserve">9.7415771484375</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68277645111084</t>
+    <t xml:space="preserve">9.68277549743652</t>
   </si>
   <si>
     <t xml:space="preserve">9.66317462921143</t>
@@ -2798,19 +2798,19 @@
     <t xml:space="preserve">9.25155830383301</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24175930023193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28096103668213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30055999755859</t>
+    <t xml:space="preserve">9.24175834655762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28096008300781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30056095123291</t>
   </si>
   <si>
     <t xml:space="preserve">9.27116012573242</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06535243988037</t>
+    <t xml:space="preserve">9.06535148620605</t>
   </si>
   <si>
     <t xml:space="preserve">9.04575061798096</t>
@@ -2825,16 +2825,16 @@
     <t xml:space="preserve">8.44792747497559</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83014297485352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47732925415039</t>
+    <t xml:space="preserve">8.8301420211792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47732830047607</t>
   </si>
   <si>
     <t xml:space="preserve">8.34012317657471</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4381275177002</t>
+    <t xml:space="preserve">8.43812656402588</t>
   </si>
   <si>
     <t xml:space="preserve">8.78114032745361</t>
@@ -2864,7 +2864,7 @@
     <t xml:space="preserve">9.09475231170654</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49656772613525</t>
+    <t xml:space="preserve">9.49656867980957</t>
   </si>
   <si>
     <t xml:space="preserve">9.56517124176025</t>
@@ -2876,10 +2876,10 @@
     <t xml:space="preserve">9.73177719116211</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0551910400391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58477115631104</t>
+    <t xml:space="preserve">10.0551900863647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58477210998535</t>
   </si>
   <si>
     <t xml:space="preserve">9.54556941986084</t>
@@ -2894,7 +2894,7 @@
     <t xml:space="preserve">9.62397289276123</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51616859436035</t>
+    <t xml:space="preserve">9.51616954803467</t>
   </si>
   <si>
     <t xml:space="preserve">9.37896347045898</t>
@@ -2903,7 +2903,7 @@
     <t xml:space="preserve">9.3495626449585</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80037975311279</t>
+    <t xml:space="preserve">9.80038070678711</t>
   </si>
   <si>
     <t xml:space="preserve">10.1923952102661</t>
@@ -2912,7 +2912,7 @@
     <t xml:space="preserve">10.0747909545898</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2315969467163</t>
+    <t xml:space="preserve">10.231595993042</t>
   </si>
   <si>
     <t xml:space="preserve">10.1531934738159</t>
@@ -2921,7 +2921,7 @@
     <t xml:space="preserve">10.2511978149414</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0943908691406</t>
+    <t xml:space="preserve">10.0943918228149</t>
   </si>
   <si>
     <t xml:space="preserve">10.1139917373657</t>
@@ -2939,25 +2939,25 @@
     <t xml:space="preserve">9.2907600402832</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39856433868408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32016181945801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46716785430908</t>
+    <t xml:space="preserve">9.3985652923584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32016086578369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46716690063477</t>
   </si>
   <si>
     <t xml:space="preserve">9.55537033081055</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7023754119873</t>
+    <t xml:space="preserve">9.70237636566162</t>
   </si>
   <si>
     <t xml:space="preserve">9.91798400878906</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4080038070679</t>
+    <t xml:space="preserve">10.4080028533936</t>
   </si>
   <si>
     <t xml:space="preserve">10.8784227371216</t>
@@ -2966,7 +2966,7 @@
     <t xml:space="preserve">11.2704372406006</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3488397598267</t>
+    <t xml:space="preserve">11.348840713501</t>
   </si>
   <si>
     <t xml:space="preserve">11.6624526977539</t>
@@ -2984,7 +2984,7 @@
     <t xml:space="preserve">11.5056457519531</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5252466201782</t>
+    <t xml:space="preserve">11.5252475738525</t>
   </si>
   <si>
     <t xml:space="preserve">11.4860458374023</t>
@@ -2999,16 +2999,16 @@
     <t xml:space="preserve">11.7016534805298</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5644483566284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4468450546265</t>
+    <t xml:space="preserve">11.5644493103027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4468441009521</t>
   </si>
   <si>
     <t xml:space="preserve">11.7212543487549</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1524705886841</t>
+    <t xml:space="preserve">12.1524715423584</t>
   </si>
   <si>
     <t xml:space="preserve">12.407280921936</t>
@@ -3017,7 +3017,7 @@
     <t xml:space="preserve">12.662091255188</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5640869140625</t>
+    <t xml:space="preserve">12.5640878677368</t>
   </si>
   <si>
     <t xml:space="preserve">12.270076751709</t>
@@ -3026,13 +3026,13 @@
     <t xml:space="preserve">12.4464826583862</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7800569534302</t>
+    <t xml:space="preserve">11.7800579071045</t>
   </si>
   <si>
     <t xml:space="preserve">11.3096380233765</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9764251708984</t>
+    <t xml:space="preserve">10.9764261245728</t>
   </si>
   <si>
     <t xml:space="preserve">10.9176235198975</t>
@@ -3044,19 +3044,19 @@
     <t xml:space="preserve">10.7804183959961</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0940294265747</t>
+    <t xml:space="preserve">11.094030380249</t>
   </si>
   <si>
     <t xml:space="preserve">10.9568252563477</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8196201324463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.035228729248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2707986831665</t>
+    <t xml:space="preserve">10.819619178772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0352277755737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2707977294922</t>
   </si>
   <si>
     <t xml:space="preserve">10.6824140548706</t>
@@ -3071,16 +3071,16 @@
     <t xml:space="preserve">11.0156269073486</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9372234344482</t>
+    <t xml:space="preserve">10.9372243881226</t>
   </si>
   <si>
     <t xml:space="preserve">10.7020149230957</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9960269927979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2900381088257</t>
+    <t xml:space="preserve">10.9960260391235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2900390625</t>
   </si>
   <si>
     <t xml:space="preserve">11.6036500930786</t>
@@ -3098,10 +3098,10 @@
     <t xml:space="preserve">11.9368629455566</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9760646820068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2112741470337</t>
+    <t xml:space="preserve">11.9760656356812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2112731933594</t>
   </si>
   <si>
     <t xml:space="preserve">12.1916723251343</t>
@@ -3110,31 +3110,31 @@
     <t xml:space="preserve">12.6228895187378</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7404937744141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9169006347656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9757032394409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6816921234131</t>
+    <t xml:space="preserve">12.7404947280884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9169015884399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9757022857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6816911697388</t>
   </si>
   <si>
     <t xml:space="preserve">12.720892906189</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7992973327637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9561023712158</t>
+    <t xml:space="preserve">12.7992963790894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9561033248901</t>
   </si>
   <si>
     <t xml:space="preserve">12.6032886505127</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4856843948364</t>
+    <t xml:space="preserve">12.4856834411621</t>
   </si>
   <si>
     <t xml:space="preserve">12.5248851776123</t>
@@ -3143,7 +3143,7 @@
     <t xml:space="preserve">12.3484792709351</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3680791854858</t>
+    <t xml:space="preserve">12.3680801391602</t>
   </si>
   <si>
     <t xml:space="preserve">12.2308740615845</t>
@@ -3158,19 +3158,19 @@
     <t xml:space="preserve">12.6424903869629</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5836887359619</t>
+    <t xml:space="preserve">12.5836877822876</t>
   </si>
   <si>
     <t xml:space="preserve">12.1720724105835</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8777008056641</t>
+    <t xml:space="preserve">12.8776998519897</t>
   </si>
   <si>
     <t xml:space="preserve">12.3092775344849</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2697153091431</t>
+    <t xml:space="preserve">13.2697143554688</t>
   </si>
   <si>
     <t xml:space="preserve">13.0541067123413</t>
@@ -3179,7 +3179,7 @@
     <t xml:space="preserve">12.9365015029907</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1521100997925</t>
+    <t xml:space="preserve">13.1521110534668</t>
   </si>
   <si>
     <t xml:space="preserve">13.0345058441162</t>
@@ -3191,10 +3191,10 @@
     <t xml:space="preserve">13.1717100143433</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5441246032715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5637264251709</t>
+    <t xml:space="preserve">13.5441255569458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5637254714966</t>
   </si>
   <si>
     <t xml:space="preserve">14.1517486572266</t>
@@ -3209,13 +3209,13 @@
     <t xml:space="preserve">14.0341444015503</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0733461380005</t>
+    <t xml:space="preserve">14.0733451843262</t>
   </si>
   <si>
     <t xml:space="preserve">14.4065589904785</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7201709747314</t>
+    <t xml:space="preserve">14.7201719284058</t>
   </si>
   <si>
     <t xml:space="preserve">14.8573760986328</t>
@@ -3224,7 +3224,7 @@
     <t xml:space="preserve">15.2885932922363</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0533838272095</t>
+    <t xml:space="preserve">15.0533828735352</t>
   </si>
   <si>
     <t xml:space="preserve">15.0337839126587</t>
@@ -3248,16 +3248,16 @@
     <t xml:space="preserve">17.3466739654541</t>
   </si>
   <si>
-    <t xml:space="preserve">17.660285949707</t>
+    <t xml:space="preserve">17.6602840423584</t>
   </si>
   <si>
     <t xml:space="preserve">17.5426807403564</t>
   </si>
   <si>
-    <t xml:space="preserve">17.915096282959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7386894226074</t>
+    <t xml:space="preserve">17.9150943756104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7386875152588</t>
   </si>
   <si>
     <t xml:space="preserve">17.8954944610596</t>
@@ -3284,13 +3284,13 @@
     <t xml:space="preserve">18.7383270263672</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1695423126221</t>
+    <t xml:space="preserve">19.1695442199707</t>
   </si>
   <si>
     <t xml:space="preserve">18.1699066162109</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1307048797607</t>
+    <t xml:space="preserve">18.1307029724121</t>
   </si>
   <si>
     <t xml:space="preserve">18.6795234680176</t>
@@ -3308,7 +3308,7 @@
     <t xml:space="preserve">19.9927749633789</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8947696685791</t>
+    <t xml:space="preserve">19.8947715759277</t>
   </si>
   <si>
     <t xml:space="preserve">19.6497611999512</t>
@@ -3323,16 +3323,16 @@
     <t xml:space="preserve">18.8363304138184</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0323371887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3067512512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9343357086182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.640323638916</t>
+    <t xml:space="preserve">19.0323390960693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3067493438721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9343338012695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6403217315674</t>
   </si>
   <si>
     <t xml:space="preserve">19.0127372741699</t>
@@ -3344,7 +3344,7 @@
     <t xml:space="preserve">19.1107406616211</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9931354522705</t>
+    <t xml:space="preserve">18.9931373596191</t>
   </si>
   <si>
     <t xml:space="preserve">18.7187271118164</t>
@@ -3353,19 +3353,19 @@
     <t xml:space="preserve">18.7775287628174</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6011199951172</t>
+    <t xml:space="preserve">18.6011219024658</t>
   </si>
   <si>
     <t xml:space="preserve">18.444314956665</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3851509094238</t>
+    <t xml:space="preserve">19.3851528167725</t>
   </si>
   <si>
     <t xml:space="preserve">19.1891441345215</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2871494293213</t>
+    <t xml:space="preserve">19.2871475219727</t>
   </si>
   <si>
     <t xml:space="preserve">19.0519390106201</t>
@@ -3374,7 +3374,7 @@
     <t xml:space="preserve">19.1303424835205</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8559322357178</t>
+    <t xml:space="preserve">18.8559303283691</t>
   </si>
   <si>
     <t xml:space="preserve">19.0735759735107</t>
@@ -22536,7 +22536,7 @@
         <v>9.39000034332275</v>
       </c>
       <c r="G705" t="s">
-        <v>488</v>
+        <v>391</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -22562,7 +22562,7 @@
         <v>9.18000030517578</v>
       </c>
       <c r="G706" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -22614,7 +22614,7 @@
         <v>9.06999969482422</v>
       </c>
       <c r="G708" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -22640,7 +22640,7 @@
         <v>9</v>
       </c>
       <c r="G709" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -22666,7 +22666,7 @@
         <v>8.44999980926514</v>
       </c>
       <c r="G710" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -22692,7 +22692,7 @@
         <v>8.40999984741211</v>
       </c>
       <c r="G711" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -22718,7 +22718,7 @@
         <v>8.39000034332275</v>
       </c>
       <c r="G712" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -22744,7 +22744,7 @@
         <v>8.25</v>
       </c>
       <c r="G713" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -22770,7 +22770,7 @@
         <v>8.28999996185303</v>
       </c>
       <c r="G714" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -22796,7 +22796,7 @@
         <v>8.18000030517578</v>
       </c>
       <c r="G715" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -22822,7 +22822,7 @@
         <v>8.06999969482422</v>
       </c>
       <c r="G716" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -22848,7 +22848,7 @@
         <v>8.07999992370605</v>
       </c>
       <c r="G717" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -22874,7 +22874,7 @@
         <v>7.73000001907349</v>
       </c>
       <c r="G718" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -22900,7 +22900,7 @@
         <v>7.76000022888184</v>
       </c>
       <c r="G719" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -22926,7 +22926,7 @@
         <v>8.0600004196167</v>
       </c>
       <c r="G720" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -22952,7 +22952,7 @@
         <v>7.82000017166138</v>
       </c>
       <c r="G721" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -22978,7 +22978,7 @@
         <v>7.96999979019165</v>
       </c>
       <c r="G722" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -23004,7 +23004,7 @@
         <v>7.98999977111816</v>
       </c>
       <c r="G723" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -23030,7 +23030,7 @@
         <v>8.17000007629395</v>
       </c>
       <c r="G724" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -23056,7 +23056,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G725" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -23082,7 +23082,7 @@
         <v>8.39000034332275</v>
       </c>
       <c r="G726" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -23108,7 +23108,7 @@
         <v>8.47999954223633</v>
       </c>
       <c r="G727" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -23134,7 +23134,7 @@
         <v>8.52000045776367</v>
       </c>
       <c r="G728" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -23160,7 +23160,7 @@
         <v>8.39999961853027</v>
       </c>
       <c r="G729" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -23186,7 +23186,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G730" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -23212,7 +23212,7 @@
         <v>8.27999973297119</v>
       </c>
       <c r="G731" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -23238,7 +23238,7 @@
         <v>8.26000022888184</v>
       </c>
       <c r="G732" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -23264,7 +23264,7 @@
         <v>8.02000045776367</v>
       </c>
       <c r="G733" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -23290,7 +23290,7 @@
         <v>8.19999980926514</v>
       </c>
       <c r="G734" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -23316,7 +23316,7 @@
         <v>7.8899998664856</v>
       </c>
       <c r="G735" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -23342,7 +23342,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G736" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -23368,7 +23368,7 @@
         <v>7.80999994277954</v>
       </c>
       <c r="G737" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -23394,7 +23394,7 @@
         <v>7.71000003814697</v>
       </c>
       <c r="G738" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -23420,7 +23420,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G739" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -23446,7 +23446,7 @@
         <v>7.71000003814697</v>
       </c>
       <c r="G740" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -23472,7 +23472,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G741" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -23498,7 +23498,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G742" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -23524,7 +23524,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G743" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -23550,7 +23550,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G744" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -23576,7 +23576,7 @@
         <v>8.22999954223633</v>
       </c>
       <c r="G745" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -23602,7 +23602,7 @@
         <v>8.02000045776367</v>
       </c>
       <c r="G746" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -23628,7 +23628,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G747" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -23654,7 +23654,7 @@
         <v>8.27999973297119</v>
       </c>
       <c r="G748" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -23680,7 +23680,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G749" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -23706,7 +23706,7 @@
         <v>8.15999984741211</v>
       </c>
       <c r="G750" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -23732,7 +23732,7 @@
         <v>8.01000022888184</v>
       </c>
       <c r="G751" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -23758,7 +23758,7 @@
         <v>7.96000003814697</v>
       </c>
       <c r="G752" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -23784,7 +23784,7 @@
         <v>7.98999977111816</v>
       </c>
       <c r="G753" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -23810,7 +23810,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G754" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -23836,7 +23836,7 @@
         <v>8.17000007629395</v>
       </c>
       <c r="G755" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -23862,7 +23862,7 @@
         <v>8.17000007629395</v>
       </c>
       <c r="G756" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -23888,7 +23888,7 @@
         <v>8.07999992370605</v>
       </c>
       <c r="G757" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -23914,7 +23914,7 @@
         <v>7.94999980926514</v>
       </c>
       <c r="G758" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -23940,7 +23940,7 @@
         <v>7.98000001907349</v>
       </c>
       <c r="G759" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -23966,7 +23966,7 @@
         <v>7.90999984741211</v>
       </c>
       <c r="G760" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -23992,7 +23992,7 @@
         <v>7.94000005722046</v>
       </c>
       <c r="G761" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -24018,7 +24018,7 @@
         <v>8.02999973297119</v>
       </c>
       <c r="G762" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -24044,7 +24044,7 @@
         <v>8.18000030517578</v>
       </c>
       <c r="G763" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -24070,7 +24070,7 @@
         <v>8.38000011444092</v>
       </c>
       <c r="G764" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -24096,7 +24096,7 @@
         <v>8.43000030517578</v>
       </c>
       <c r="G765" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -24122,7 +24122,7 @@
         <v>8.59000015258789</v>
       </c>
       <c r="G766" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -24148,7 +24148,7 @@
         <v>8.77999973297119</v>
       </c>
       <c r="G767" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -24200,7 +24200,7 @@
         <v>9.14000034332275</v>
       </c>
       <c r="G769" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -24226,7 +24226,7 @@
         <v>9.15999984741211</v>
       </c>
       <c r="G770" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -24252,7 +24252,7 @@
         <v>9.27000045776367</v>
       </c>
       <c r="G771" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -24278,7 +24278,7 @@
         <v>9.18000030517578</v>
       </c>
       <c r="G772" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -24304,7 +24304,7 @@
         <v>9.17000007629395</v>
       </c>
       <c r="G773" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -24330,7 +24330,7 @@
         <v>9.10999965667725</v>
       </c>
       <c r="G774" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -24356,7 +24356,7 @@
         <v>9.10000038146973</v>
       </c>
       <c r="G775" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -24382,7 +24382,7 @@
         <v>9.14000034332275</v>
       </c>
       <c r="G776" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -24408,7 +24408,7 @@
         <v>9.39000034332275</v>
       </c>
       <c r="G777" t="s">
-        <v>488</v>
+        <v>391</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -24538,7 +24538,7 @@
         <v>9.85000038146973</v>
       </c>
       <c r="G782" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -24564,7 +24564,7 @@
         <v>9.97000026702881</v>
       </c>
       <c r="G783" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -24616,7 +24616,7 @@
         <v>9.53999996185303</v>
       </c>
       <c r="G785" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -24668,7 +24668,7 @@
         <v>9.9399995803833</v>
       </c>
       <c r="G787" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -24694,7 +24694,7 @@
         <v>9.88000011444092</v>
       </c>
       <c r="G788" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -24746,7 +24746,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G790" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -24772,7 +24772,7 @@
         <v>9.39000034332275</v>
       </c>
       <c r="G791" t="s">
-        <v>488</v>
+        <v>391</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -24798,7 +24798,7 @@
         <v>9.46000003814697</v>
       </c>
       <c r="G792" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -24850,7 +24850,7 @@
         <v>9.67000007629395</v>
       </c>
       <c r="G794" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -24928,7 +24928,7 @@
         <v>9.84000015258789</v>
       </c>
       <c r="G797" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -24980,7 +24980,7 @@
         <v>9.72999954223633</v>
       </c>
       <c r="G799" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -25084,7 +25084,7 @@
         <v>9.72000026702881</v>
       </c>
       <c r="G803" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -25110,7 +25110,7 @@
         <v>9.65999984741211</v>
       </c>
       <c r="G804" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -25136,7 +25136,7 @@
         <v>9.60999965667725</v>
       </c>
       <c r="G805" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -25162,7 +25162,7 @@
         <v>9.60999965667725</v>
       </c>
       <c r="G806" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -25214,7 +25214,7 @@
         <v>9.61999988555908</v>
       </c>
       <c r="G808" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -25292,7 +25292,7 @@
         <v>9.36999988555908</v>
       </c>
       <c r="G811" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -25318,7 +25318,7 @@
         <v>9.47999954223633</v>
       </c>
       <c r="G812" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -25344,7 +25344,7 @@
         <v>9.36999988555908</v>
       </c>
       <c r="G813" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -25370,7 +25370,7 @@
         <v>9.01000022888184</v>
       </c>
       <c r="G814" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -25396,7 +25396,7 @@
         <v>9.14999961853027</v>
       </c>
       <c r="G815" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -25422,7 +25422,7 @@
         <v>9</v>
       </c>
       <c r="G816" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -25448,7 +25448,7 @@
         <v>9.02999973297119</v>
       </c>
       <c r="G817" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -25500,7 +25500,7 @@
         <v>9.17000007629395</v>
       </c>
       <c r="G819" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -25526,7 +25526,7 @@
         <v>9.06999969482422</v>
       </c>
       <c r="G820" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -25552,7 +25552,7 @@
         <v>9</v>
       </c>
       <c r="G821" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -25578,7 +25578,7 @@
         <v>8.86999988555908</v>
       </c>
       <c r="G822" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -25604,7 +25604,7 @@
         <v>9.02000045776367</v>
       </c>
       <c r="G823" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -25656,7 +25656,7 @@
         <v>8.98999977111816</v>
       </c>
       <c r="G825" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -25682,7 +25682,7 @@
         <v>9</v>
       </c>
       <c r="G826" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -25708,7 +25708,7 @@
         <v>9.14999961853027</v>
       </c>
       <c r="G827" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -25734,7 +25734,7 @@
         <v>9.06999969482422</v>
       </c>
       <c r="G828" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -25760,7 +25760,7 @@
         <v>9.21000003814697</v>
       </c>
       <c r="G829" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -25812,7 +25812,7 @@
         <v>9.22999954223633</v>
       </c>
       <c r="G831" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -25838,7 +25838,7 @@
         <v>9.25</v>
       </c>
       <c r="G832" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -25864,7 +25864,7 @@
         <v>9.27999973297119</v>
       </c>
       <c r="G833" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -25890,7 +25890,7 @@
         <v>9.19999980926514</v>
       </c>
       <c r="G834" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -25916,7 +25916,7 @@
         <v>9.25</v>
       </c>
       <c r="G835" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -25942,7 +25942,7 @@
         <v>9.23999977111816</v>
       </c>
       <c r="G836" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -25968,7 +25968,7 @@
         <v>9.28999996185303</v>
       </c>
       <c r="G837" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -25994,7 +25994,7 @@
         <v>9.31999969482422</v>
       </c>
       <c r="G838" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -26020,7 +26020,7 @@
         <v>9.40999984741211</v>
       </c>
       <c r="G839" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -26046,7 +26046,7 @@
         <v>9.40999984741211</v>
       </c>
       <c r="G840" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -26072,7 +26072,7 @@
         <v>9.39999961853027</v>
       </c>
       <c r="G841" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -26098,7 +26098,7 @@
         <v>9.39999961853027</v>
       </c>
       <c r="G842" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -26150,7 +26150,7 @@
         <v>9.28999996185303</v>
       </c>
       <c r="G844" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -26202,7 +26202,7 @@
         <v>9.39999961853027</v>
       </c>
       <c r="G846" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -26228,7 +26228,7 @@
         <v>9.32999992370605</v>
       </c>
       <c r="G847" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -26254,7 +26254,7 @@
         <v>9.52000045776367</v>
       </c>
       <c r="G848" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -26280,7 +26280,7 @@
         <v>8.98999977111816</v>
       </c>
       <c r="G849" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -26306,7 +26306,7 @@
         <v>8.68000030517578</v>
       </c>
       <c r="G850" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -26332,7 +26332,7 @@
         <v>8.46000003814697</v>
       </c>
       <c r="G851" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -26358,7 +26358,7 @@
         <v>8.15999984741211</v>
       </c>
       <c r="G852" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -26384,7 +26384,7 @@
         <v>8.32999992370605</v>
       </c>
       <c r="G853" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -26410,7 +26410,7 @@
         <v>8.25</v>
       </c>
       <c r="G854" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -26436,7 +26436,7 @@
         <v>8.56999969482422</v>
       </c>
       <c r="G855" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -26462,7 +26462,7 @@
         <v>8.35999965667725</v>
       </c>
       <c r="G856" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -26488,7 +26488,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G857" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -26514,7 +26514,7 @@
         <v>8.31999969482422</v>
       </c>
       <c r="G858" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -26540,7 +26540,7 @@
         <v>8.28999996185303</v>
       </c>
       <c r="G859" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -26566,7 +26566,7 @@
         <v>8.36999988555908</v>
       </c>
       <c r="G860" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -26592,7 +26592,7 @@
         <v>8.36999988555908</v>
       </c>
       <c r="G861" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -26618,7 +26618,7 @@
         <v>8.39000034332275</v>
       </c>
       <c r="G862" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -26644,7 +26644,7 @@
         <v>8.42000007629395</v>
       </c>
       <c r="G863" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -26670,7 +26670,7 @@
         <v>8.23999977111816</v>
       </c>
       <c r="G864" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -26696,7 +26696,7 @@
         <v>8.25</v>
       </c>
       <c r="G865" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -26722,7 +26722,7 @@
         <v>8.25</v>
       </c>
       <c r="G866" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -26748,7 +26748,7 @@
         <v>8.25</v>
       </c>
       <c r="G867" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -26774,7 +26774,7 @@
         <v>8.25</v>
       </c>
       <c r="G868" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -26800,7 +26800,7 @@
         <v>8.22999954223633</v>
       </c>
       <c r="G869" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -26826,7 +26826,7 @@
         <v>8.25</v>
       </c>
       <c r="G870" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -26852,7 +26852,7 @@
         <v>8.4399995803833</v>
       </c>
       <c r="G871" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -26878,7 +26878,7 @@
         <v>8.39000034332275</v>
       </c>
       <c r="G872" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -26904,7 +26904,7 @@
         <v>8.32999992370605</v>
       </c>
       <c r="G873" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -26930,7 +26930,7 @@
         <v>8.52000045776367</v>
       </c>
       <c r="G874" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -26956,7 +26956,7 @@
         <v>8.52999973297119</v>
       </c>
       <c r="G875" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -26982,7 +26982,7 @@
         <v>8.40999984741211</v>
       </c>
       <c r="G876" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -27008,7 +27008,7 @@
         <v>8.28999996185303</v>
       </c>
       <c r="G877" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -27034,7 +27034,7 @@
         <v>8.36999988555908</v>
       </c>
       <c r="G878" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -27060,7 +27060,7 @@
         <v>8.32999992370605</v>
       </c>
       <c r="G879" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -27086,7 +27086,7 @@
         <v>8.36999988555908</v>
       </c>
       <c r="G880" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -27112,7 +27112,7 @@
         <v>8.1899995803833</v>
       </c>
       <c r="G881" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -27138,7 +27138,7 @@
         <v>8.34000015258789</v>
       </c>
       <c r="G882" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -27164,7 +27164,7 @@
         <v>8.35000038146973</v>
       </c>
       <c r="G883" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -27190,7 +27190,7 @@
         <v>8.17000007629395</v>
       </c>
       <c r="G884" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -27216,7 +27216,7 @@
         <v>8.19999980926514</v>
       </c>
       <c r="G885" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -27242,7 +27242,7 @@
         <v>8.1899995803833</v>
       </c>
       <c r="G886" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -27268,7 +27268,7 @@
         <v>8.19999980926514</v>
       </c>
       <c r="G887" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -27294,7 +27294,7 @@
         <v>8.1899995803833</v>
       </c>
       <c r="G888" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -27320,7 +27320,7 @@
         <v>8.1899995803833</v>
       </c>
       <c r="G889" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -27346,7 +27346,7 @@
         <v>8.39000034332275</v>
       </c>
       <c r="G890" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -27372,7 +27372,7 @@
         <v>8.44999980926514</v>
       </c>
       <c r="G891" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -27398,7 +27398,7 @@
         <v>8.44999980926514</v>
       </c>
       <c r="G892" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -27424,7 +27424,7 @@
         <v>8.40999984741211</v>
       </c>
       <c r="G893" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -27450,7 +27450,7 @@
         <v>8.38000011444092</v>
       </c>
       <c r="G894" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -27476,7 +27476,7 @@
         <v>8.38000011444092</v>
       </c>
       <c r="G895" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -27502,7 +27502,7 @@
         <v>8.44999980926514</v>
       </c>
       <c r="G896" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -27528,7 +27528,7 @@
         <v>8.39999961853027</v>
       </c>
       <c r="G897" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -27554,7 +27554,7 @@
         <v>8.3100004196167</v>
       </c>
       <c r="G898" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -27580,7 +27580,7 @@
         <v>8.34000015258789</v>
       </c>
       <c r="G899" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -27606,7 +27606,7 @@
         <v>8.38000011444092</v>
       </c>
       <c r="G900" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -27632,7 +27632,7 @@
         <v>8.34000015258789</v>
       </c>
       <c r="G901" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -27658,7 +27658,7 @@
         <v>8.38000011444092</v>
       </c>
       <c r="G902" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -27684,7 +27684,7 @@
         <v>8.3100004196167</v>
       </c>
       <c r="G903" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -27710,7 +27710,7 @@
         <v>8.21000003814697</v>
       </c>
       <c r="G904" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -27736,7 +27736,7 @@
         <v>8.32999992370605</v>
       </c>
       <c r="G905" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -27762,7 +27762,7 @@
         <v>8.35000038146973</v>
       </c>
       <c r="G906" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -27788,7 +27788,7 @@
         <v>8.35000038146973</v>
       </c>
       <c r="G907" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -27814,7 +27814,7 @@
         <v>8.42000007629395</v>
       </c>
       <c r="G908" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -27840,7 +27840,7 @@
         <v>8.34000015258789</v>
       </c>
       <c r="G909" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -27866,7 +27866,7 @@
         <v>8.38000011444092</v>
       </c>
       <c r="G910" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -27892,7 +27892,7 @@
         <v>8.38000011444092</v>
       </c>
       <c r="G911" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -27918,7 +27918,7 @@
         <v>8.47999954223633</v>
       </c>
       <c r="G912" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -27944,7 +27944,7 @@
         <v>8.40999984741211</v>
       </c>
       <c r="G913" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -27970,7 +27970,7 @@
         <v>8.35999965667725</v>
       </c>
       <c r="G914" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -27996,7 +27996,7 @@
         <v>8.43000030517578</v>
       </c>
       <c r="G915" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -28022,7 +28022,7 @@
         <v>8.38000011444092</v>
       </c>
       <c r="G916" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -28048,7 +28048,7 @@
         <v>8.34000015258789</v>
       </c>
       <c r="G917" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -28074,7 +28074,7 @@
         <v>8.25</v>
       </c>
       <c r="G918" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -28100,7 +28100,7 @@
         <v>8.32999992370605</v>
       </c>
       <c r="G919" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -28126,7 +28126,7 @@
         <v>8.35000038146973</v>
       </c>
       <c r="G920" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -28152,7 +28152,7 @@
         <v>8.1899995803833</v>
       </c>
       <c r="G921" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -28178,7 +28178,7 @@
         <v>8.23999977111816</v>
       </c>
       <c r="G922" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -28204,7 +28204,7 @@
         <v>8.26000022888184</v>
       </c>
       <c r="G923" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -28230,7 +28230,7 @@
         <v>8.27000045776367</v>
       </c>
       <c r="G924" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -28256,7 +28256,7 @@
         <v>8.27999973297119</v>
       </c>
       <c r="G925" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -28282,7 +28282,7 @@
         <v>8.23999977111816</v>
       </c>
       <c r="G926" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -28308,7 +28308,7 @@
         <v>8.25</v>
       </c>
       <c r="G927" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -28334,7 +28334,7 @@
         <v>8.22999954223633</v>
       </c>
       <c r="G928" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -28360,7 +28360,7 @@
         <v>8.22999954223633</v>
       </c>
       <c r="G929" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -28386,7 +28386,7 @@
         <v>8.21000003814697</v>
       </c>
       <c r="G930" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -28412,7 +28412,7 @@
         <v>8.13000011444092</v>
       </c>
       <c r="G931" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -28438,7 +28438,7 @@
         <v>8.15999984741211</v>
       </c>
       <c r="G932" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -28464,7 +28464,7 @@
         <v>8.13000011444092</v>
       </c>
       <c r="G933" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -28490,7 +28490,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G934" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -28516,7 +28516,7 @@
         <v>8.18000030517578</v>
       </c>
       <c r="G935" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -28542,7 +28542,7 @@
         <v>8.21000003814697</v>
       </c>
       <c r="G936" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -28568,7 +28568,7 @@
         <v>8.1899995803833</v>
       </c>
       <c r="G937" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -28594,7 +28594,7 @@
         <v>8.25</v>
       </c>
       <c r="G938" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -28620,7 +28620,7 @@
         <v>8.25</v>
       </c>
       <c r="G939" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -28646,7 +28646,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G940" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -28672,7 +28672,7 @@
         <v>8.18000030517578</v>
       </c>
       <c r="G941" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -28698,7 +28698,7 @@
         <v>8.19999980926514</v>
       </c>
       <c r="G942" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -28724,7 +28724,7 @@
         <v>8.13000011444092</v>
       </c>
       <c r="G943" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -28750,7 +28750,7 @@
         <v>8.17000007629395</v>
       </c>
       <c r="G944" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -28776,7 +28776,7 @@
         <v>8.22999954223633</v>
       </c>
       <c r="G945" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -28802,7 +28802,7 @@
         <v>8.28999996185303</v>
       </c>
       <c r="G946" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -28828,7 +28828,7 @@
         <v>8.28999996185303</v>
       </c>
       <c r="G947" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -28854,7 +28854,7 @@
         <v>8.19999980926514</v>
       </c>
       <c r="G948" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -28880,7 +28880,7 @@
         <v>8.28999996185303</v>
       </c>
       <c r="G949" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -28906,7 +28906,7 @@
         <v>8.23999977111816</v>
       </c>
       <c r="G950" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -28932,7 +28932,7 @@
         <v>8.26000022888184</v>
       </c>
       <c r="G951" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -28958,7 +28958,7 @@
         <v>8.1899995803833</v>
       </c>
       <c r="G952" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -28984,7 +28984,7 @@
         <v>8.18000030517578</v>
       </c>
       <c r="G953" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -29010,7 +29010,7 @@
         <v>8.22999954223633</v>
       </c>
       <c r="G954" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -29036,7 +29036,7 @@
         <v>8.1899995803833</v>
       </c>
       <c r="G955" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -29062,7 +29062,7 @@
         <v>8.17000007629395</v>
       </c>
       <c r="G956" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -29088,7 +29088,7 @@
         <v>8.1899995803833</v>
       </c>
       <c r="G957" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -29114,7 +29114,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G958" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -29140,7 +29140,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G959" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -29166,7 +29166,7 @@
         <v>8.22999954223633</v>
       </c>
       <c r="G960" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -29192,7 +29192,7 @@
         <v>8.21000003814697</v>
       </c>
       <c r="G961" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -29218,7 +29218,7 @@
         <v>8.22999954223633</v>
       </c>
       <c r="G962" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -29244,7 +29244,7 @@
         <v>8.17000007629395</v>
       </c>
       <c r="G963" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -29270,7 +29270,7 @@
         <v>8.18000030517578</v>
       </c>
       <c r="G964" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -29296,7 +29296,7 @@
         <v>8.1899995803833</v>
       </c>
       <c r="G965" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -29322,7 +29322,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G966" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -29348,7 +29348,7 @@
         <v>8.15999984741211</v>
       </c>
       <c r="G967" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -29374,7 +29374,7 @@
         <v>8.18000030517578</v>
       </c>
       <c r="G968" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -29400,7 +29400,7 @@
         <v>8.1899995803833</v>
       </c>
       <c r="G969" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -29426,7 +29426,7 @@
         <v>8.31999969482422</v>
       </c>
       <c r="G970" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -29452,7 +29452,7 @@
         <v>8.72000026702881</v>
       </c>
       <c r="G971" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -29478,7 +29478,7 @@
         <v>8.60999965667725</v>
       </c>
       <c r="G972" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -29504,7 +29504,7 @@
         <v>8.5600004196167</v>
       </c>
       <c r="G973" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -29530,7 +29530,7 @@
         <v>8.5</v>
       </c>
       <c r="G974" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -29556,7 +29556,7 @@
         <v>8.44999980926514</v>
       </c>
       <c r="G975" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -29582,7 +29582,7 @@
         <v>8.46000003814697</v>
       </c>
       <c r="G976" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -29608,7 +29608,7 @@
         <v>8.5</v>
       </c>
       <c r="G977" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -29634,7 +29634,7 @@
         <v>8.68000030517578</v>
       </c>
       <c r="G978" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -29660,7 +29660,7 @@
         <v>8.72999954223633</v>
       </c>
       <c r="G979" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -29686,7 +29686,7 @@
         <v>8.8100004196167</v>
       </c>
       <c r="G980" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -29712,7 +29712,7 @@
         <v>9.07999992370605</v>
       </c>
       <c r="G981" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -29738,7 +29738,7 @@
         <v>9.44999980926514</v>
       </c>
       <c r="G982" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -29764,7 +29764,7 @@
         <v>9.4399995803833</v>
       </c>
       <c r="G983" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -29790,7 +29790,7 @@
         <v>9.82999992370605</v>
       </c>
       <c r="G984" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -29816,7 +29816,7 @@
         <v>9.69999980926514</v>
       </c>
       <c r="G985" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -29842,7 +29842,7 @@
         <v>9.80000019073486</v>
       </c>
       <c r="G986" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -29868,7 +29868,7 @@
         <v>9.77000045776367</v>
       </c>
       <c r="G987" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -29894,7 +29894,7 @@
         <v>9.76000022888184</v>
       </c>
       <c r="G988" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -29920,7 +29920,7 @@
         <v>9.86999988555908</v>
       </c>
       <c r="G989" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -29946,7 +29946,7 @@
         <v>9.85000038146973</v>
       </c>
       <c r="G990" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -29972,7 +29972,7 @@
         <v>9.84000015258789</v>
       </c>
       <c r="G991" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -29998,7 +29998,7 @@
         <v>10.3599996566772</v>
       </c>
       <c r="G992" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -30024,7 +30024,7 @@
         <v>10.6599998474121</v>
       </c>
       <c r="G993" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -30050,7 +30050,7 @@
         <v>10.3800001144409</v>
       </c>
       <c r="G994" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -30076,7 +30076,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G995" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -30102,7 +30102,7 @@
         <v>10.3199996948242</v>
       </c>
       <c r="G996" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -30128,7 +30128,7 @@
         <v>10.2799997329712</v>
       </c>
       <c r="G997" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -30154,7 +30154,7 @@
         <v>9.92000007629395</v>
       </c>
       <c r="G998" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -30180,7 +30180,7 @@
         <v>10</v>
       </c>
       <c r="G999" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -30206,7 +30206,7 @@
         <v>9.93000030517578</v>
       </c>
       <c r="G1000" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -30232,7 +30232,7 @@
         <v>10.0200004577637</v>
       </c>
       <c r="G1001" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -30258,7 +30258,7 @@
         <v>10.039999961853</v>
       </c>
       <c r="G1002" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -30284,7 +30284,7 @@
         <v>9.81999969482422</v>
       </c>
       <c r="G1003" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -30310,7 +30310,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G1004" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -30336,7 +30336,7 @@
         <v>9.77000045776367</v>
       </c>
       <c r="G1005" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -30362,7 +30362,7 @@
         <v>9.77999973297119</v>
       </c>
       <c r="G1006" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -30388,7 +30388,7 @@
         <v>9.82999992370605</v>
       </c>
       <c r="G1007" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -30414,7 +30414,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G1008" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -30440,7 +30440,7 @@
         <v>10</v>
       </c>
       <c r="G1009" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -30466,7 +30466,7 @@
         <v>9.82999992370605</v>
       </c>
       <c r="G1010" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -30492,7 +30492,7 @@
         <v>9.81999969482422</v>
       </c>
       <c r="G1011" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -30518,7 +30518,7 @@
         <v>9.82999992370605</v>
       </c>
       <c r="G1012" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -30544,7 +30544,7 @@
         <v>9.76000022888184</v>
       </c>
       <c r="G1013" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -30570,7 +30570,7 @@
         <v>9.72000026702881</v>
       </c>
       <c r="G1014" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -30596,7 +30596,7 @@
         <v>9.65999984741211</v>
       </c>
       <c r="G1015" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -30622,7 +30622,7 @@
         <v>9.75</v>
       </c>
       <c r="G1016" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -30648,7 +30648,7 @@
         <v>9.77000045776367</v>
       </c>
       <c r="G1017" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -30674,7 +30674,7 @@
         <v>9.6899995803833</v>
       </c>
       <c r="G1018" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -30700,7 +30700,7 @@
         <v>9.76000022888184</v>
       </c>
       <c r="G1019" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -30726,7 +30726,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G1020" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -30752,7 +30752,7 @@
         <v>9.81999969482422</v>
       </c>
       <c r="G1021" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -30778,7 +30778,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G1022" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -30804,7 +30804,7 @@
         <v>9.96000003814697</v>
       </c>
       <c r="G1023" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -30830,7 +30830,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G1024" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -30856,7 +30856,7 @@
         <v>9.42000007629395</v>
       </c>
       <c r="G1025" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -30882,7 +30882,7 @@
         <v>9.39999961853027</v>
       </c>
       <c r="G1026" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -30908,7 +30908,7 @@
         <v>9.39000034332275</v>
       </c>
       <c r="G1027" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -30934,7 +30934,7 @@
         <v>9.42000007629395</v>
       </c>
       <c r="G1028" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -30960,7 +30960,7 @@
         <v>9.5</v>
       </c>
       <c r="G1029" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -30986,7 +30986,7 @@
         <v>9.47000026702881</v>
       </c>
       <c r="G1030" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -31012,7 +31012,7 @@
         <v>9.38000011444092</v>
       </c>
       <c r="G1031" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -31038,7 +31038,7 @@
         <v>9.40999984741211</v>
       </c>
       <c r="G1032" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -31064,7 +31064,7 @@
         <v>9.3100004196167</v>
       </c>
       <c r="G1033" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -31090,7 +31090,7 @@
         <v>9.22000026702881</v>
       </c>
       <c r="G1034" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -31116,7 +31116,7 @@
         <v>9.23999977111816</v>
       </c>
       <c r="G1035" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -31142,7 +31142,7 @@
         <v>9.14999961853027</v>
       </c>
       <c r="G1036" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -31168,7 +31168,7 @@
         <v>9.01000022888184</v>
       </c>
       <c r="G1037" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -31194,7 +31194,7 @@
         <v>9.0600004196167</v>
       </c>
       <c r="G1038" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -31220,7 +31220,7 @@
         <v>9.23999977111816</v>
       </c>
       <c r="G1039" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -31246,7 +31246,7 @@
         <v>9.22999954223633</v>
       </c>
       <c r="G1040" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -31272,7 +31272,7 @@
         <v>9.28999996185303</v>
       </c>
       <c r="G1041" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -31298,7 +31298,7 @@
         <v>9.26000022888184</v>
       </c>
       <c r="G1042" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -31324,7 +31324,7 @@
         <v>9.44999980926514</v>
       </c>
       <c r="G1043" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -31350,7 +31350,7 @@
         <v>9.46000003814697</v>
       </c>
       <c r="G1044" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -31376,7 +31376,7 @@
         <v>9.4399995803833</v>
       </c>
       <c r="G1045" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H1045" t="s">
         <v>9</v>
@@ -31402,7 +31402,7 @@
         <v>9.44999980926514</v>
       </c>
       <c r="G1046" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -31428,7 +31428,7 @@
         <v>9.44999980926514</v>
       </c>
       <c r="G1047" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -31454,7 +31454,7 @@
         <v>9.35000038146973</v>
       </c>
       <c r="G1048" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -31480,7 +31480,7 @@
         <v>9.27000045776367</v>
       </c>
       <c r="G1049" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H1049" t="s">
         <v>9</v>
@@ -31506,7 +31506,7 @@
         <v>9.28999996185303</v>
       </c>
       <c r="G1050" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -31532,7 +31532,7 @@
         <v>9.14999961853027</v>
       </c>
       <c r="G1051" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -31558,7 +31558,7 @@
         <v>9.09000015258789</v>
       </c>
       <c r="G1052" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H1052" t="s">
         <v>9</v>
@@ -31584,7 +31584,7 @@
         <v>8.52000045776367</v>
       </c>
       <c r="G1053" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -31610,7 +31610,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G1054" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -31636,7 +31636,7 @@
         <v>8.60999965667725</v>
       </c>
       <c r="G1055" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -31662,7 +31662,7 @@
         <v>8.27999973297119</v>
       </c>
       <c r="G1056" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -31688,7 +31688,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G1057" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -31714,7 +31714,7 @@
         <v>8.05000019073486</v>
       </c>
       <c r="G1058" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H1058" t="s">
         <v>9</v>
@@ -31740,7 +31740,7 @@
         <v>7.8600001335144</v>
       </c>
       <c r="G1059" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -31766,7 +31766,7 @@
         <v>7.78000020980835</v>
       </c>
       <c r="G1060" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H1060" t="s">
         <v>9</v>
@@ -31792,7 +31792,7 @@
         <v>7.86999988555908</v>
       </c>
       <c r="G1061" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -31818,7 +31818,7 @@
         <v>7.59000015258789</v>
       </c>
       <c r="G1062" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -31844,7 +31844,7 @@
         <v>6.73999977111816</v>
       </c>
       <c r="G1063" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -31870,7 +31870,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G1064" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -31896,7 +31896,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G1065" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -31922,7 +31922,7 @@
         <v>5.30999994277954</v>
       </c>
       <c r="G1066" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -31948,7 +31948,7 @@
         <v>5.65999984741211</v>
       </c>
       <c r="G1067" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -31974,7 +31974,7 @@
         <v>4.69000005722046</v>
       </c>
       <c r="G1068" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -32000,7 +32000,7 @@
         <v>4.80000019073486</v>
       </c>
       <c r="G1069" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -32026,7 +32026,7 @@
         <v>4.63000011444092</v>
       </c>
       <c r="G1070" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -32052,7 +32052,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G1071" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -32078,7 +32078,7 @@
         <v>5</v>
       </c>
       <c r="G1072" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -32104,7 +32104,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G1073" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -32130,7 +32130,7 @@
         <v>5.69999980926514</v>
       </c>
       <c r="G1074" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H1074" t="s">
         <v>9</v>
@@ -32156,7 +32156,7 @@
         <v>6.23999977111816</v>
       </c>
       <c r="G1075" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -32182,7 +32182,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G1076" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -32208,7 +32208,7 @@
         <v>6.17999982833862</v>
       </c>
       <c r="G1077" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -32234,7 +32234,7 @@
         <v>6.23999977111816</v>
       </c>
       <c r="G1078" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -32260,7 +32260,7 @@
         <v>6.07999992370605</v>
       </c>
       <c r="G1079" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H1079" t="s">
         <v>9</v>
@@ -32286,7 +32286,7 @@
         <v>5.98999977111816</v>
       </c>
       <c r="G1080" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -32312,7 +32312,7 @@
         <v>6.15999984741211</v>
       </c>
       <c r="G1081" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -32338,7 +32338,7 @@
         <v>6.19000005722046</v>
       </c>
       <c r="G1082" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -32364,7 +32364,7 @@
         <v>6.3600001335144</v>
       </c>
       <c r="G1083" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -32390,7 +32390,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G1084" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -32416,7 +32416,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G1085" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -32442,7 +32442,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G1086" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -32468,7 +32468,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G1087" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -32494,7 +32494,7 @@
         <v>6.42999982833862</v>
       </c>
       <c r="G1088" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -32520,7 +32520,7 @@
         <v>6.6399998664856</v>
       </c>
       <c r="G1089" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H1089" t="s">
         <v>9</v>
@@ -32546,7 +32546,7 @@
         <v>6.75</v>
       </c>
       <c r="G1090" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -32572,7 +32572,7 @@
         <v>6.76000022888184</v>
       </c>
       <c r="G1091" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -32598,7 +32598,7 @@
         <v>6.76000022888184</v>
       </c>
       <c r="G1092" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -32624,7 +32624,7 @@
         <v>7.53000020980835</v>
       </c>
       <c r="G1093" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -32650,7 +32650,7 @@
         <v>8.26000022888184</v>
       </c>
       <c r="G1094" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -32676,7 +32676,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G1095" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -32702,7 +32702,7 @@
         <v>7.92999982833862</v>
       </c>
       <c r="G1096" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -32728,7 +32728,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G1097" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -32754,7 +32754,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G1098" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -32780,7 +32780,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G1099" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -32806,7 +32806,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G1100" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -32832,7 +32832,7 @@
         <v>7.96999979019165</v>
       </c>
       <c r="G1101" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -32858,7 +32858,7 @@
         <v>7.8899998664856</v>
       </c>
       <c r="G1102" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -32884,7 +32884,7 @@
         <v>7.6399998664856</v>
       </c>
       <c r="G1103" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -32910,7 +32910,7 @@
         <v>7.67999982833862</v>
       </c>
       <c r="G1104" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -32936,7 +32936,7 @@
         <v>7.42999982833862</v>
       </c>
       <c r="G1105" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H1105" t="s">
         <v>9</v>
@@ -32962,7 +32962,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G1106" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -32988,7 +32988,7 @@
         <v>7.51999998092651</v>
       </c>
       <c r="G1107" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -33014,7 +33014,7 @@
         <v>7.69000005722046</v>
       </c>
       <c r="G1108" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -33040,7 +33040,7 @@
         <v>7.51999998092651</v>
       </c>
       <c r="G1109" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -33066,7 +33066,7 @@
         <v>7.73999977111816</v>
       </c>
       <c r="G1110" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -33092,7 +33092,7 @@
         <v>7.71000003814697</v>
       </c>
       <c r="G1111" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -33118,7 +33118,7 @@
         <v>7.94999980926514</v>
       </c>
       <c r="G1112" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -33144,7 +33144,7 @@
         <v>7.8600001335144</v>
       </c>
       <c r="G1113" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -33170,7 +33170,7 @@
         <v>7.94999980926514</v>
       </c>
       <c r="G1114" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -33196,7 +33196,7 @@
         <v>8.15999984741211</v>
       </c>
       <c r="G1115" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -33222,7 +33222,7 @@
         <v>8.18000030517578</v>
       </c>
       <c r="G1116" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -33248,7 +33248,7 @@
         <v>8.17000007629395</v>
       </c>
       <c r="G1117" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -33274,7 +33274,7 @@
         <v>8.25</v>
       </c>
       <c r="G1118" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -33300,7 +33300,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G1119" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -33326,7 +33326,7 @@
         <v>8.1899995803833</v>
       </c>
       <c r="G1120" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -33352,7 +33352,7 @@
         <v>8.3100004196167</v>
       </c>
       <c r="G1121" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -33378,7 +33378,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G1122" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -33404,7 +33404,7 @@
         <v>8.27999973297119</v>
       </c>
       <c r="G1123" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -33430,7 +33430,7 @@
         <v>8.23999977111816</v>
       </c>
       <c r="G1124" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -33456,7 +33456,7 @@
         <v>8.43000030517578</v>
       </c>
       <c r="G1125" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -33482,7 +33482,7 @@
         <v>8.17000007629395</v>
       </c>
       <c r="G1126" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -33508,7 +33508,7 @@
         <v>8.10999965667725</v>
       </c>
       <c r="G1127" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -33534,7 +33534,7 @@
         <v>7.57000017166138</v>
       </c>
       <c r="G1128" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -33560,7 +33560,7 @@
         <v>7.69000005722046</v>
       </c>
       <c r="G1129" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -33586,7 +33586,7 @@
         <v>7.80999994277954</v>
       </c>
       <c r="G1130" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -33612,7 +33612,7 @@
         <v>7.84999990463257</v>
       </c>
       <c r="G1131" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -33638,7 +33638,7 @@
         <v>7.90999984741211</v>
       </c>
       <c r="G1132" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -33664,7 +33664,7 @@
         <v>7.80999994277954</v>
       </c>
       <c r="G1133" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -33690,7 +33690,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G1134" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -33716,7 +33716,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G1135" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -33742,7 +33742,7 @@
         <v>7.75</v>
       </c>
       <c r="G1136" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -33768,7 +33768,7 @@
         <v>7.55999994277954</v>
       </c>
       <c r="G1137" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -33794,7 +33794,7 @@
         <v>7.55000019073486</v>
       </c>
       <c r="G1138" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -33820,7 +33820,7 @@
         <v>7.69000005722046</v>
       </c>
       <c r="G1139" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -33846,7 +33846,7 @@
         <v>7.46999979019165</v>
       </c>
       <c r="G1140" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -33872,7 +33872,7 @@
         <v>7.55999994277954</v>
       </c>
       <c r="G1141" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -33898,7 +33898,7 @@
         <v>7.76999998092651</v>
       </c>
       <c r="G1142" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -33924,7 +33924,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G1143" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -33950,7 +33950,7 @@
         <v>7.76000022888184</v>
       </c>
       <c r="G1144" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -33976,7 +33976,7 @@
         <v>7.63000011444092</v>
       </c>
       <c r="G1145" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -34002,7 +34002,7 @@
         <v>7.51999998092651</v>
       </c>
       <c r="G1146" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -34028,7 +34028,7 @@
         <v>7.51999998092651</v>
       </c>
       <c r="G1147" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -34054,7 +34054,7 @@
         <v>7.57999992370605</v>
       </c>
       <c r="G1148" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -34080,7 +34080,7 @@
         <v>7.53000020980835</v>
       </c>
       <c r="G1149" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -34106,7 +34106,7 @@
         <v>7.69000005722046</v>
       </c>
       <c r="G1150" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -34132,7 +34132,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G1151" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -34158,7 +34158,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G1152" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -34184,7 +34184,7 @@
         <v>7.90000009536743</v>
       </c>
       <c r="G1153" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -34210,7 +34210,7 @@
         <v>7.92999982833862</v>
       </c>
       <c r="G1154" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -34236,7 +34236,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G1155" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -34262,7 +34262,7 @@
         <v>7.82999992370605</v>
       </c>
       <c r="G1156" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -34288,7 +34288,7 @@
         <v>7.84999990463257</v>
       </c>
       <c r="G1157" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -34314,7 +34314,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G1158" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -34340,7 +34340,7 @@
         <v>7.8899998664856</v>
       </c>
       <c r="G1159" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -34366,7 +34366,7 @@
         <v>7.65999984741211</v>
       </c>
       <c r="G1160" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -34392,7 +34392,7 @@
         <v>7.53999996185303</v>
       </c>
       <c r="G1161" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -34418,7 +34418,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G1162" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -34444,7 +34444,7 @@
         <v>7.53000020980835</v>
       </c>
       <c r="G1163" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -34470,7 +34470,7 @@
         <v>7.5</v>
       </c>
       <c r="G1164" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -34496,7 +34496,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G1165" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -34522,7 +34522,7 @@
         <v>7.71999979019165</v>
       </c>
       <c r="G1166" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -34548,7 +34548,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G1167" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -34574,7 +34574,7 @@
         <v>7.53999996185303</v>
       </c>
       <c r="G1168" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -34600,7 +34600,7 @@
         <v>7.94000005722046</v>
       </c>
       <c r="G1169" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -34626,7 +34626,7 @@
         <v>8.14999961853027</v>
       </c>
       <c r="G1170" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -34652,7 +34652,7 @@
         <v>8.26000022888184</v>
       </c>
       <c r="G1171" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -34678,7 +34678,7 @@
         <v>8.25</v>
       </c>
       <c r="G1172" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -34704,7 +34704,7 @@
         <v>8.13000011444092</v>
       </c>
       <c r="G1173" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -34730,7 +34730,7 @@
         <v>8.09000015258789</v>
       </c>
       <c r="G1174" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -34756,7 +34756,7 @@
         <v>8</v>
       </c>
       <c r="G1175" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -34782,7 +34782,7 @@
         <v>8</v>
       </c>
       <c r="G1176" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -34808,7 +34808,7 @@
         <v>7.94000005722046</v>
       </c>
       <c r="G1177" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -34834,7 +34834,7 @@
         <v>7.94999980926514</v>
       </c>
       <c r="G1178" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -34860,7 +34860,7 @@
         <v>7.98999977111816</v>
       </c>
       <c r="G1179" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -34886,7 +34886,7 @@
         <v>7.86999988555908</v>
       </c>
       <c r="G1180" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -34912,7 +34912,7 @@
         <v>7.90999984741211</v>
       </c>
       <c r="G1181" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -34938,7 +34938,7 @@
         <v>7.98999977111816</v>
       </c>
       <c r="G1182" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -34964,7 +34964,7 @@
         <v>7.90000009536743</v>
       </c>
       <c r="G1183" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -34990,7 +34990,7 @@
         <v>7.82999992370605</v>
       </c>
       <c r="G1184" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -35016,7 +35016,7 @@
         <v>7.69000005722046</v>
       </c>
       <c r="G1185" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -35042,7 +35042,7 @@
         <v>7.71999979019165</v>
       </c>
       <c r="G1186" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H1186" t="s">
         <v>9</v>
@@ -35068,7 +35068,7 @@
         <v>7.78000020980835</v>
       </c>
       <c r="G1187" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H1187" t="s">
         <v>9</v>
@@ -35094,7 +35094,7 @@
         <v>7.78000020980835</v>
       </c>
       <c r="G1188" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H1188" t="s">
         <v>9</v>
@@ -35120,7 +35120,7 @@
         <v>7.57999992370605</v>
       </c>
       <c r="G1189" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H1189" t="s">
         <v>9</v>
@@ -35146,7 +35146,7 @@
         <v>7.6399998664856</v>
       </c>
       <c r="G1190" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H1190" t="s">
         <v>9</v>
@@ -35172,7 +35172,7 @@
         <v>7.71000003814697</v>
       </c>
       <c r="G1191" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H1191" t="s">
         <v>9</v>
@@ -35198,7 +35198,7 @@
         <v>7.73999977111816</v>
       </c>
       <c r="G1192" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H1192" t="s">
         <v>9</v>
@@ -35224,7 +35224,7 @@
         <v>7.76999998092651</v>
       </c>
       <c r="G1193" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -35250,7 +35250,7 @@
         <v>7.65999984741211</v>
       </c>
       <c r="G1194" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H1194" t="s">
         <v>9</v>
@@ -35276,7 +35276,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G1195" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H1195" t="s">
         <v>9</v>
@@ -35302,7 +35302,7 @@
         <v>7.6100001335144</v>
       </c>
       <c r="G1196" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H1196" t="s">
         <v>9</v>
@@ -35328,7 +35328,7 @@
         <v>7.55999994277954</v>
       </c>
       <c r="G1197" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H1197" t="s">
         <v>9</v>
@@ -35354,7 +35354,7 @@
         <v>7.51000022888184</v>
       </c>
       <c r="G1198" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H1198" t="s">
         <v>9</v>
@@ -35380,7 +35380,7 @@
         <v>7.6100001335144</v>
       </c>
       <c r="G1199" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H1199" t="s">
         <v>9</v>
@@ -35406,7 +35406,7 @@
         <v>7.44999980926514</v>
       </c>
       <c r="G1200" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H1200" t="s">
         <v>9</v>
@@ -35432,7 +35432,7 @@
         <v>7.40000009536743</v>
       </c>
       <c r="G1201" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H1201" t="s">
         <v>9</v>
@@ -35458,7 +35458,7 @@
         <v>7.53999996185303</v>
       </c>
       <c r="G1202" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H1202" t="s">
         <v>9</v>
@@ -35484,7 +35484,7 @@
         <v>7.5</v>
       </c>
       <c r="G1203" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H1203" t="s">
         <v>9</v>
@@ -35510,7 +35510,7 @@
         <v>7.40000009536743</v>
       </c>
       <c r="G1204" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H1204" t="s">
         <v>9</v>
@@ -35536,7 +35536,7 @@
         <v>7.40000009536743</v>
       </c>
       <c r="G1205" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H1205" t="s">
         <v>9</v>
@@ -35562,7 +35562,7 @@
         <v>7.40000009536743</v>
       </c>
       <c r="G1206" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H1206" t="s">
         <v>9</v>
@@ -35588,7 +35588,7 @@
         <v>7.3600001335144</v>
       </c>
       <c r="G1207" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H1207" t="s">
         <v>9</v>
@@ -35614,7 +35614,7 @@
         <v>7.53000020980835</v>
       </c>
       <c r="G1208" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H1208" t="s">
         <v>9</v>
@@ -35640,7 +35640,7 @@
         <v>7.46000003814697</v>
       </c>
       <c r="G1209" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H1209" t="s">
         <v>9</v>
@@ -35666,7 +35666,7 @@
         <v>7.46000003814697</v>
       </c>
       <c r="G1210" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H1210" t="s">
         <v>9</v>
@@ -35692,7 +35692,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G1211" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H1211" t="s">
         <v>9</v>
@@ -35718,7 +35718,7 @@
         <v>7.59000015258789</v>
       </c>
       <c r="G1212" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H1212" t="s">
         <v>9</v>
@@ -35744,7 +35744,7 @@
         <v>7.96000003814697</v>
       </c>
       <c r="G1213" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H1213" t="s">
         <v>9</v>
@@ -35770,7 +35770,7 @@
         <v>7.84999990463257</v>
       </c>
       <c r="G1214" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H1214" t="s">
         <v>9</v>
@@ -35796,7 +35796,7 @@
         <v>7.94999980926514</v>
       </c>
       <c r="G1215" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H1215" t="s">
         <v>9</v>
@@ -35822,7 +35822,7 @@
         <v>7.98000001907349</v>
       </c>
       <c r="G1216" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H1216" t="s">
         <v>9</v>
@@ -35848,7 +35848,7 @@
         <v>7.90999984741211</v>
       </c>
       <c r="G1217" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H1217" t="s">
         <v>9</v>
@@ -35874,7 +35874,7 @@
         <v>7.73000001907349</v>
       </c>
       <c r="G1218" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H1218" t="s">
         <v>9</v>
@@ -35900,7 +35900,7 @@
         <v>7.8899998664856</v>
       </c>
       <c r="G1219" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H1219" t="s">
         <v>9</v>
@@ -35926,7 +35926,7 @@
         <v>7.96999979019165</v>
       </c>
       <c r="G1220" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H1220" t="s">
         <v>9</v>
@@ -35952,7 +35952,7 @@
         <v>7.96000003814697</v>
       </c>
       <c r="G1221" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H1221" t="s">
         <v>9</v>
@@ -35978,7 +35978,7 @@
         <v>7.90000009536743</v>
       </c>
       <c r="G1222" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H1222" t="s">
         <v>9</v>
@@ -36004,7 +36004,7 @@
         <v>7.92000007629395</v>
       </c>
       <c r="G1223" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H1223" t="s">
         <v>9</v>
@@ -36030,7 +36030,7 @@
         <v>7.84999990463257</v>
       </c>
       <c r="G1224" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H1224" t="s">
         <v>9</v>
@@ -36056,7 +36056,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G1225" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H1225" t="s">
         <v>9</v>
@@ -36082,7 +36082,7 @@
         <v>7.67000007629395</v>
       </c>
       <c r="G1226" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H1226" t="s">
         <v>9</v>
@@ -36108,7 +36108,7 @@
         <v>7.38000011444092</v>
       </c>
       <c r="G1227" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H1227" t="s">
         <v>9</v>
@@ -36134,7 +36134,7 @@
         <v>7.28000020980835</v>
       </c>
       <c r="G1228" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H1228" t="s">
         <v>9</v>
@@ -36160,7 +36160,7 @@
         <v>7.34000015258789</v>
       </c>
       <c r="G1229" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H1229" t="s">
         <v>9</v>
@@ -36186,7 +36186,7 @@
         <v>7.28000020980835</v>
       </c>
       <c r="G1230" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H1230" t="s">
         <v>9</v>
@@ -36212,7 +36212,7 @@
         <v>7.34000015258789</v>
       </c>
       <c r="G1231" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H1231" t="s">
         <v>9</v>
@@ -36238,7 +36238,7 @@
         <v>7.34999990463257</v>
       </c>
       <c r="G1232" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H1232" t="s">
         <v>9</v>
@@ -36264,7 +36264,7 @@
         <v>7.34999990463257</v>
       </c>
       <c r="G1233" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H1233" t="s">
         <v>9</v>
@@ -36290,7 +36290,7 @@
         <v>7.40000009536743</v>
       </c>
       <c r="G1234" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H1234" t="s">
         <v>9</v>
@@ -36316,7 +36316,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G1235" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -36342,7 +36342,7 @@
         <v>7.40000009536743</v>
       </c>
       <c r="G1236" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H1236" t="s">
         <v>9</v>
@@ -36368,7 +36368,7 @@
         <v>7.40999984741211</v>
       </c>
       <c r="G1237" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H1237" t="s">
         <v>9</v>
@@ -36394,7 +36394,7 @@
         <v>7.48999977111816</v>
       </c>
       <c r="G1238" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H1238" t="s">
         <v>9</v>
@@ -36420,7 +36420,7 @@
         <v>7.5</v>
       </c>
       <c r="G1239" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H1239" t="s">
         <v>9</v>
@@ -36446,7 +36446,7 @@
         <v>7.71999979019165</v>
       </c>
       <c r="G1240" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H1240" t="s">
         <v>9</v>
@@ -36472,7 +36472,7 @@
         <v>7.67999982833862</v>
       </c>
       <c r="G1241" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H1241" t="s">
         <v>9</v>
@@ -36498,7 +36498,7 @@
         <v>7.75</v>
       </c>
       <c r="G1242" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H1242" t="s">
         <v>9</v>
@@ -36524,7 +36524,7 @@
         <v>7.78000020980835</v>
       </c>
       <c r="G1243" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H1243" t="s">
         <v>9</v>
@@ -36550,7 +36550,7 @@
         <v>7.67999982833862</v>
       </c>
       <c r="G1244" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H1244" t="s">
         <v>9</v>
@@ -36576,7 +36576,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G1245" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H1245" t="s">
         <v>9</v>
@@ -36602,7 +36602,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G1246" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H1246" t="s">
         <v>9</v>
@@ -36628,7 +36628,7 @@
         <v>7.5</v>
       </c>
       <c r="G1247" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H1247" t="s">
         <v>9</v>
@@ -36654,7 +36654,7 @@
         <v>7.53999996185303</v>
       </c>
       <c r="G1248" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H1248" t="s">
         <v>9</v>
@@ -36680,7 +36680,7 @@
         <v>7.48000001907349</v>
       </c>
       <c r="G1249" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H1249" t="s">
         <v>9</v>
@@ -36706,7 +36706,7 @@
         <v>7.46000003814697</v>
       </c>
       <c r="G1250" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H1250" t="s">
         <v>9</v>
@@ -36732,7 +36732,7 @@
         <v>7.44999980926514</v>
       </c>
       <c r="G1251" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H1251" t="s">
         <v>9</v>
@@ -36758,7 +36758,7 @@
         <v>7.42999982833862</v>
       </c>
       <c r="G1252" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H1252" t="s">
         <v>9</v>
@@ -36784,7 +36784,7 @@
         <v>7.44000005722046</v>
       </c>
       <c r="G1253" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H1253" t="s">
         <v>9</v>
@@ -36810,7 +36810,7 @@
         <v>7.42000007629395</v>
       </c>
       <c r="G1254" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H1254" t="s">
         <v>9</v>
@@ -36836,7 +36836,7 @@
         <v>7.42999982833862</v>
       </c>
       <c r="G1255" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H1255" t="s">
         <v>9</v>
@@ -36862,7 +36862,7 @@
         <v>7.42000007629395</v>
       </c>
       <c r="G1256" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H1256" t="s">
         <v>9</v>
@@ -36888,7 +36888,7 @@
         <v>7.40000009536743</v>
       </c>
       <c r="G1257" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H1257" t="s">
         <v>9</v>
@@ -36914,7 +36914,7 @@
         <v>7.40000009536743</v>
       </c>
       <c r="G1258" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H1258" t="s">
         <v>9</v>
@@ -36940,7 +36940,7 @@
         <v>7.36999988555908</v>
       </c>
       <c r="G1259" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H1259" t="s">
         <v>9</v>
@@ -36966,7 +36966,7 @@
         <v>7.40000009536743</v>
       </c>
       <c r="G1260" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H1260" t="s">
         <v>9</v>
@@ -36992,7 +36992,7 @@
         <v>7.40000009536743</v>
       </c>
       <c r="G1261" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H1261" t="s">
         <v>9</v>
@@ -37018,7 +37018,7 @@
         <v>7.36999988555908</v>
       </c>
       <c r="G1262" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H1262" t="s">
         <v>9</v>
@@ -37044,7 +37044,7 @@
         <v>7.40000009536743</v>
       </c>
       <c r="G1263" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H1263" t="s">
         <v>9</v>
@@ -37070,7 +37070,7 @@
         <v>7.42999982833862</v>
       </c>
       <c r="G1264" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H1264" t="s">
         <v>9</v>
@@ -37096,7 +37096,7 @@
         <v>7.3899998664856</v>
       </c>
       <c r="G1265" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H1265" t="s">
         <v>9</v>
@@ -37122,7 +37122,7 @@
         <v>7.42000007629395</v>
       </c>
       <c r="G1266" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H1266" t="s">
         <v>9</v>
@@ -37148,7 +37148,7 @@
         <v>7.36999988555908</v>
       </c>
       <c r="G1267" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H1267" t="s">
         <v>9</v>
@@ -37174,7 +37174,7 @@
         <v>7.44999980926514</v>
       </c>
       <c r="G1268" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H1268" t="s">
         <v>9</v>
@@ -37200,7 +37200,7 @@
         <v>7.98000001907349</v>
       </c>
       <c r="G1269" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H1269" t="s">
         <v>9</v>
@@ -37226,7 +37226,7 @@
         <v>7.88000011444092</v>
       </c>
       <c r="G1270" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H1270" t="s">
         <v>9</v>
@@ -37252,7 +37252,7 @@
         <v>7.65999984741211</v>
       </c>
       <c r="G1271" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H1271" t="s">
         <v>9</v>
@@ -37278,7 +37278,7 @@
         <v>7.6100001335144</v>
       </c>
       <c r="G1272" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H1272" t="s">
         <v>9</v>
@@ -37304,7 +37304,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G1273" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H1273" t="s">
         <v>9</v>
@@ -37330,7 +37330,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G1274" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H1274" t="s">
         <v>9</v>
@@ -37356,7 +37356,7 @@
         <v>7.57999992370605</v>
       </c>
       <c r="G1275" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H1275" t="s">
         <v>9</v>
@@ -37382,7 +37382,7 @@
         <v>7.69000005722046</v>
       </c>
       <c r="G1276" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H1276" t="s">
         <v>9</v>
@@ -37408,7 +37408,7 @@
         <v>7.69000005722046</v>
       </c>
       <c r="G1277" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H1277" t="s">
         <v>9</v>
@@ -37434,7 +37434,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G1278" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H1278" t="s">
         <v>9</v>
@@ -37460,7 +37460,7 @@
         <v>7.55000019073486</v>
       </c>
       <c r="G1279" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H1279" t="s">
         <v>9</v>
@@ -37486,7 +37486,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G1280" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H1280" t="s">
         <v>9</v>
@@ -37512,7 +37512,7 @@
         <v>7.51999998092651</v>
       </c>
       <c r="G1281" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H1281" t="s">
         <v>9</v>
@@ -37538,7 +37538,7 @@
         <v>7.40999984741211</v>
       </c>
       <c r="G1282" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H1282" t="s">
         <v>9</v>
@@ -37564,7 +37564,7 @@
         <v>7.44999980926514</v>
       </c>
       <c r="G1283" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H1283" t="s">
         <v>9</v>
@@ -37590,7 +37590,7 @@
         <v>7.48000001907349</v>
       </c>
       <c r="G1284" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H1284" t="s">
         <v>9</v>
@@ -37616,7 +37616,7 @@
         <v>7.3899998664856</v>
       </c>
       <c r="G1285" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H1285" t="s">
         <v>9</v>
@@ -37642,7 +37642,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G1286" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -37668,7 +37668,7 @@
         <v>7.30999994277954</v>
       </c>
       <c r="G1287" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H1287" t="s">
         <v>9</v>
@@ -37694,7 +37694,7 @@
         <v>7.25</v>
       </c>
       <c r="G1288" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H1288" t="s">
         <v>9</v>
@@ -37720,7 +37720,7 @@
         <v>7.19999980926514</v>
       </c>
       <c r="G1289" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H1289" t="s">
         <v>9</v>
@@ -37746,7 +37746,7 @@
         <v>7.11999988555908</v>
       </c>
       <c r="G1290" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -37772,7 +37772,7 @@
         <v>7.11999988555908</v>
       </c>
       <c r="G1291" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H1291" t="s">
         <v>9</v>
@@ -37798,7 +37798,7 @@
         <v>7.11999988555908</v>
       </c>
       <c r="G1292" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H1292" t="s">
         <v>9</v>
@@ -37824,7 +37824,7 @@
         <v>7.21000003814697</v>
       </c>
       <c r="G1293" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H1293" t="s">
         <v>9</v>
@@ -37850,7 +37850,7 @@
         <v>7.30000019073486</v>
       </c>
       <c r="G1294" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -37876,7 +37876,7 @@
         <v>7.34000015258789</v>
       </c>
       <c r="G1295" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H1295" t="s">
         <v>9</v>
@@ -37902,7 +37902,7 @@
         <v>7.5</v>
       </c>
       <c r="G1296" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H1296" t="s">
         <v>9</v>
@@ -37928,7 +37928,7 @@
         <v>7.3600001335144</v>
       </c>
       <c r="G1297" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H1297" t="s">
         <v>9</v>
@@ -37954,7 +37954,7 @@
         <v>7.3899998664856</v>
       </c>
       <c r="G1298" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H1298" t="s">
         <v>9</v>
@@ -37980,7 +37980,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G1299" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -38006,7 +38006,7 @@
         <v>7.25</v>
       </c>
       <c r="G1300" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -38032,7 +38032,7 @@
         <v>7.30000019073486</v>
       </c>
       <c r="G1301" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -38058,7 +38058,7 @@
         <v>7.28999996185303</v>
       </c>
       <c r="G1302" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -38084,7 +38084,7 @@
         <v>7.19999980926514</v>
       </c>
       <c r="G1303" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -38110,7 +38110,7 @@
         <v>7.09999990463257</v>
       </c>
       <c r="G1304" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -38136,7 +38136,7 @@
         <v>7.17000007629395</v>
       </c>
       <c r="G1305" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -38162,7 +38162,7 @@
         <v>7.13000011444092</v>
       </c>
       <c r="G1306" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -38188,7 +38188,7 @@
         <v>7.05000019073486</v>
       </c>
       <c r="G1307" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -38214,7 +38214,7 @@
         <v>7.03000020980835</v>
       </c>
       <c r="G1308" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -38240,7 +38240,7 @@
         <v>7.13000011444092</v>
       </c>
       <c r="G1309" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H1309" t="s">
         <v>9</v>
@@ -38266,7 +38266,7 @@
         <v>7</v>
       </c>
       <c r="G1310" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -38292,7 +38292,7 @@
         <v>7.09999990463257</v>
       </c>
       <c r="G1311" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H1311" t="s">
         <v>9</v>
@@ -38318,7 +38318,7 @@
         <v>7.09999990463257</v>
       </c>
       <c r="G1312" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H1312" t="s">
         <v>9</v>
@@ -38344,7 +38344,7 @@
         <v>7.09999990463257</v>
       </c>
       <c r="G1313" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H1313" t="s">
         <v>9</v>
@@ -38370,7 +38370,7 @@
         <v>7</v>
       </c>
       <c r="G1314" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H1314" t="s">
         <v>9</v>
@@ -38396,7 +38396,7 @@
         <v>6.98999977111816</v>
       </c>
       <c r="G1315" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H1315" t="s">
         <v>9</v>
@@ -38422,7 +38422,7 @@
         <v>7</v>
       </c>
       <c r="G1316" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H1316" t="s">
         <v>9</v>
@@ -38448,7 +38448,7 @@
         <v>7.05999994277954</v>
       </c>
       <c r="G1317" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H1317" t="s">
         <v>9</v>
@@ -38474,7 +38474,7 @@
         <v>7.01000022888184</v>
       </c>
       <c r="G1318" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H1318" t="s">
         <v>9</v>
@@ -38500,7 +38500,7 @@
         <v>7.03999996185303</v>
       </c>
       <c r="G1319" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H1319" t="s">
         <v>9</v>
@@ -38526,7 +38526,7 @@
         <v>7</v>
       </c>
       <c r="G1320" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -38552,7 +38552,7 @@
         <v>7.01999998092651</v>
       </c>
       <c r="G1321" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -38578,7 +38578,7 @@
         <v>6.98000001907349</v>
       </c>
       <c r="G1322" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H1322" t="s">
         <v>9</v>
@@ -38604,7 +38604,7 @@
         <v>6.96000003814697</v>
       </c>
       <c r="G1323" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H1323" t="s">
         <v>9</v>
@@ -38630,7 +38630,7 @@
         <v>6.84999990463257</v>
       </c>
       <c r="G1324" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H1324" t="s">
         <v>9</v>
@@ -38656,7 +38656,7 @@
         <v>6.76000022888184</v>
       </c>
       <c r="G1325" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H1325" t="s">
         <v>9</v>
@@ -38682,7 +38682,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G1326" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H1326" t="s">
         <v>9</v>
@@ -38708,7 +38708,7 @@
         <v>7</v>
       </c>
       <c r="G1327" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H1327" t="s">
         <v>9</v>
@@ -38734,7 +38734,7 @@
         <v>7.3899998664856</v>
       </c>
       <c r="G1328" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H1328" t="s">
         <v>9</v>
@@ -38760,7 +38760,7 @@
         <v>7.57000017166138</v>
       </c>
       <c r="G1329" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H1329" t="s">
         <v>9</v>
@@ -38786,7 +38786,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G1330" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -38812,7 +38812,7 @@
         <v>7.82999992370605</v>
       </c>
       <c r="G1331" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H1331" t="s">
         <v>9</v>
@@ -38838,7 +38838,7 @@
         <v>7.57999992370605</v>
       </c>
       <c r="G1332" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H1332" t="s">
         <v>9</v>
@@ -38864,7 +38864,7 @@
         <v>7.42000007629395</v>
       </c>
       <c r="G1333" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H1333" t="s">
         <v>9</v>
@@ -38890,7 +38890,7 @@
         <v>7.59000015258789</v>
       </c>
       <c r="G1334" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H1334" t="s">
         <v>9</v>
@@ -38916,7 +38916,7 @@
         <v>7.53999996185303</v>
       </c>
       <c r="G1335" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H1335" t="s">
         <v>9</v>
@@ -38942,7 +38942,7 @@
         <v>7.57000017166138</v>
       </c>
       <c r="G1336" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H1336" t="s">
         <v>9</v>
@@ -38968,7 +38968,7 @@
         <v>7.44000005722046</v>
       </c>
       <c r="G1337" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H1337" t="s">
         <v>9</v>
@@ -38994,7 +38994,7 @@
         <v>7.44000005722046</v>
       </c>
       <c r="G1338" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H1338" t="s">
         <v>9</v>
@@ -39020,7 +39020,7 @@
         <v>7.28999996185303</v>
       </c>
       <c r="G1339" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H1339" t="s">
         <v>9</v>
@@ -39046,7 +39046,7 @@
         <v>7.30999994277954</v>
       </c>
       <c r="G1340" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H1340" t="s">
         <v>9</v>
@@ -39072,7 +39072,7 @@
         <v>7.34999990463257</v>
       </c>
       <c r="G1341" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H1341" t="s">
         <v>9</v>
@@ -39098,7 +39098,7 @@
         <v>7.44999980926514</v>
       </c>
       <c r="G1342" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H1342" t="s">
         <v>9</v>
@@ -39124,7 +39124,7 @@
         <v>7.34999990463257</v>
       </c>
       <c r="G1343" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H1343" t="s">
         <v>9</v>
@@ -39150,7 +39150,7 @@
         <v>7.38000011444092</v>
       </c>
       <c r="G1344" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H1344" t="s">
         <v>9</v>
@@ -39176,7 +39176,7 @@
         <v>7.15999984741211</v>
       </c>
       <c r="G1345" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H1345" t="s">
         <v>9</v>
@@ -39202,7 +39202,7 @@
         <v>7.15999984741211</v>
       </c>
       <c r="G1346" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H1346" t="s">
         <v>9</v>
@@ -39228,7 +39228,7 @@
         <v>7.30000019073486</v>
       </c>
       <c r="G1347" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H1347" t="s">
         <v>9</v>
@@ -39254,7 +39254,7 @@
         <v>7.38000011444092</v>
       </c>
       <c r="G1348" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H1348" t="s">
         <v>9</v>
@@ -39280,7 +39280,7 @@
         <v>7.3600001335144</v>
       </c>
       <c r="G1349" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H1349" t="s">
         <v>9</v>
@@ -39306,7 +39306,7 @@
         <v>7.5</v>
       </c>
       <c r="G1350" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H1350" t="s">
         <v>9</v>
@@ -39332,7 +39332,7 @@
         <v>7.51000022888184</v>
       </c>
       <c r="G1351" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H1351" t="s">
         <v>9</v>
@@ -39358,7 +39358,7 @@
         <v>7.53000020980835</v>
       </c>
       <c r="G1352" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H1352" t="s">
         <v>9</v>
@@ -39384,7 +39384,7 @@
         <v>7.5</v>
       </c>
       <c r="G1353" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H1353" t="s">
         <v>9</v>
@@ -39410,7 +39410,7 @@
         <v>7.5</v>
       </c>
       <c r="G1354" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H1354" t="s">
         <v>9</v>
@@ -39436,7 +39436,7 @@
         <v>7.51999998092651</v>
       </c>
       <c r="G1355" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H1355" t="s">
         <v>9</v>
@@ -39462,7 +39462,7 @@
         <v>7.53000020980835</v>
       </c>
       <c r="G1356" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H1356" t="s">
         <v>9</v>
@@ -39488,7 +39488,7 @@
         <v>7.5</v>
       </c>
       <c r="G1357" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H1357" t="s">
         <v>9</v>
@@ -39514,7 +39514,7 @@
         <v>7.57000017166138</v>
       </c>
       <c r="G1358" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H1358" t="s">
         <v>9</v>
@@ -39540,7 +39540,7 @@
         <v>7.55000019073486</v>
       </c>
       <c r="G1359" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H1359" t="s">
         <v>9</v>
@@ -39566,7 +39566,7 @@
         <v>7.34000015258789</v>
       </c>
       <c r="G1360" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H1360" t="s">
         <v>9</v>
@@ -39592,7 +39592,7 @@
         <v>7.42000007629395</v>
       </c>
       <c r="G1361" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H1361" t="s">
         <v>9</v>
@@ -39618,7 +39618,7 @@
         <v>7.48999977111816</v>
       </c>
       <c r="G1362" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H1362" t="s">
         <v>9</v>
@@ -39644,7 +39644,7 @@
         <v>7.36999988555908</v>
       </c>
       <c r="G1363" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H1363" t="s">
         <v>9</v>
@@ -39670,7 +39670,7 @@
         <v>7.38000011444092</v>
       </c>
       <c r="G1364" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H1364" t="s">
         <v>9</v>
@@ -39696,7 +39696,7 @@
         <v>7.6399998664856</v>
       </c>
       <c r="G1365" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H1365" t="s">
         <v>9</v>
@@ -39722,7 +39722,7 @@
         <v>7.53000020980835</v>
       </c>
       <c r="G1366" t="s">
-        <v>725</v>
+        <v>804</v>
       </c>
       <c r="H1366" t="s">
         <v>9</v>
@@ -60114,7 +60114,7 @@
     </row>
     <row r="2151">
       <c r="A2151" s="1" t="n">
-        <v>45456.6496412037</v>
+        <v>45456.2916666667</v>
       </c>
       <c r="B2151" t="n">
         <v>75583</v>
@@ -60135,6 +60135,32 @@
         <v>1286</v>
       </c>
       <c r="H2151" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2152">
+      <c r="A2152" s="1" t="n">
+        <v>45457.6494212963</v>
+      </c>
+      <c r="B2152" t="n">
+        <v>108461</v>
+      </c>
+      <c r="C2152" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="D2152" t="n">
+        <v>24.7999992370605</v>
+      </c>
+      <c r="E2152" t="n">
+        <v>25.2999992370605</v>
+      </c>
+      <c r="F2152" t="n">
+        <v>25.0499992370605</v>
+      </c>
+      <c r="G2152" t="s">
+        <v>1286</v>
+      </c>
+      <c r="H2152" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TXT.MI.xlsx
+++ b/data/TXT.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="1290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="1291">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,28 +38,28 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45555543899536</t>
+    <t xml:space="preserve">6.45555591583252</t>
   </si>
   <si>
     <t xml:space="preserve">TXT.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43539476394653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44345903396606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2741060256958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31442832946777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13701152801514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16926908493042</t>
+    <t xml:space="preserve">6.43539524078369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44345855712891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27410697937012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31442880630493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13701105117798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16927003860474</t>
   </si>
   <si>
     <t xml:space="preserve">6.12894725799561</t>
@@ -68,16 +68,16 @@
     <t xml:space="preserve">5.96765995025635</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89507865905762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8063702583313</t>
+    <t xml:space="preserve">5.89507961273193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80637073516846</t>
   </si>
   <si>
     <t xml:space="preserve">5.98782062530518</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79024267196655</t>
+    <t xml:space="preserve">5.79024171829224</t>
   </si>
   <si>
     <t xml:space="preserve">5.76201677322388</t>
@@ -89,34 +89,34 @@
     <t xml:space="preserve">5.78217792510986</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04023838043213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92733764648438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95959424972534</t>
+    <t xml:space="preserve">6.04023885726929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92733669281006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9595947265625</t>
   </si>
   <si>
     <t xml:space="preserve">5.98378801345825</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04830312728882</t>
+    <t xml:space="preserve">6.04830265045166</t>
   </si>
   <si>
     <t xml:space="preserve">5.89104700088501</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81846809387207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21765565872192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19346189498901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24991416931152</t>
+    <t xml:space="preserve">5.81846714019775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21765518188477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19346237182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24991321563721</t>
   </si>
   <si>
     <t xml:space="preserve">6.33862209320068</t>
@@ -125,67 +125,67 @@
     <t xml:space="preserve">6.26604175567627</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24184894561768</t>
+    <t xml:space="preserve">6.24184846878052</t>
   </si>
   <si>
     <t xml:space="preserve">6.25394535064697</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4515233039856</t>
+    <t xml:space="preserve">6.45152378082275</t>
   </si>
   <si>
     <t xml:space="preserve">6.50394153594971</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45958805084229</t>
+    <t xml:space="preserve">6.45958757400513</t>
   </si>
   <si>
     <t xml:space="preserve">6.53216743469238</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5482964515686</t>
+    <t xml:space="preserve">6.54829597473145</t>
   </si>
   <si>
     <t xml:space="preserve">6.54023122787476</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28217029571533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12088346481323</t>
+    <t xml:space="preserve">6.28217077255249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12088251113892</t>
   </si>
   <si>
     <t xml:space="preserve">6.29829978942871</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23781681060791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18539810180664</t>
+    <t xml:space="preserve">6.23781633377075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18539762496948</t>
   </si>
   <si>
     <t xml:space="preserve">6.19749450683594</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15314054489136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15717267990112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03217458724976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06039953231812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99185228347778</t>
+    <t xml:space="preserve">6.1531400680542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15717220306396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03217506408691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06040048599243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99185276031494</t>
   </si>
   <si>
     <t xml:space="preserve">6.17733383178711</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09668922424316</t>
+    <t xml:space="preserve">6.09668970108032</t>
   </si>
   <si>
     <t xml:space="preserve">6.20152711868286</t>
@@ -194,55 +194,55 @@
     <t xml:space="preserve">6.1410436630249</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2257194519043</t>
+    <t xml:space="preserve">6.22571992874146</t>
   </si>
   <si>
     <t xml:space="preserve">6.16523694992065</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2579779624939</t>
+    <t xml:space="preserve">6.25797748565674</t>
   </si>
   <si>
     <t xml:space="preserve">6.07652854919434</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14507579803467</t>
+    <t xml:space="preserve">6.14507532119751</t>
   </si>
   <si>
     <t xml:space="preserve">6.05636787414551</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99991655349731</t>
+    <t xml:space="preserve">5.99991703033447</t>
   </si>
   <si>
     <t xml:space="preserve">5.97975587844849</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16120481491089</t>
+    <t xml:space="preserve">6.16120433807373</t>
   </si>
   <si>
     <t xml:space="preserve">6.11685037612915</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11281871795654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23735046386719</t>
+    <t xml:space="preserve">6.11281824111938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23735094070435</t>
   </si>
   <si>
     <t xml:space="preserve">6.2707052230835</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11643886566162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20399522781372</t>
+    <t xml:space="preserve">6.11643934249878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20399570465088</t>
   </si>
   <si>
     <t xml:space="preserve">6.25402784347534</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1372857093811</t>
+    <t xml:space="preserve">6.13728618621826</t>
   </si>
   <si>
     <t xml:space="preserve">6.21233415603638</t>
@@ -251,25 +251,25 @@
     <t xml:space="preserve">6.23318147659302</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24568891525269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1623010635376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33324480056763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24152040481567</t>
+    <t xml:space="preserve">6.24568939208984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16230201721191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33324527740479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24151992797852</t>
   </si>
   <si>
     <t xml:space="preserve">6.17064094543457</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1831488609314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15396356582642</t>
+    <t xml:space="preserve">6.18314933776855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15396308898926</t>
   </si>
   <si>
     <t xml:space="preserve">6.0872540473938</t>
@@ -278,37 +278,37 @@
     <t xml:space="preserve">5.93715715408325</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94966554641724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85377025604248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03722143173218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08308458328247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98718929290771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00386619567871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89546346664429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82875347137451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90380239486694</t>
+    <t xml:space="preserve">5.94966506958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85376977920532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03722095489502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08308410644531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98718881607056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00386571884155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89546298980713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82875394821167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90380191802979</t>
   </si>
   <si>
     <t xml:space="preserve">5.95383405685425</t>
   </si>
   <si>
-    <t xml:space="preserve">5.90797185897827</t>
+    <t xml:space="preserve">5.90797138214111</t>
   </si>
   <si>
     <t xml:space="preserve">6.16647148132324</t>
@@ -320,10 +320,10 @@
     <t xml:space="preserve">6.14562463760376</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3123984336853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19982576370239</t>
+    <t xml:space="preserve">6.31239938735962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19982624053955</t>
   </si>
   <si>
     <t xml:space="preserve">6.07474517822266</t>
@@ -338,31 +338,31 @@
     <t xml:space="preserve">6.29572105407715</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17481088638306</t>
+    <t xml:space="preserve">6.1748104095459</t>
   </si>
   <si>
     <t xml:space="preserve">6.19565677642822</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18731832504272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12060928344727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19148731231689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11226940155029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09559154510498</t>
+    <t xml:space="preserve">6.18731784820557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12060880661011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19148826599121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11226987838745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0955924987793</t>
   </si>
   <si>
     <t xml:space="preserve">6.01220512390137</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14979410171509</t>
+    <t xml:space="preserve">6.14979362487793</t>
   </si>
   <si>
     <t xml:space="preserve">6.02888250350952</t>
@@ -371,19 +371,19 @@
     <t xml:space="preserve">5.96634292602539</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99552822113037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07891511917114</t>
+    <t xml:space="preserve">5.99552774429321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07891464233398</t>
   </si>
   <si>
     <t xml:space="preserve">5.99969720840454</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04555988311768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92881870269775</t>
+    <t xml:space="preserve">6.04556035995483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9288182258606</t>
   </si>
   <si>
     <t xml:space="preserve">5.97468090057373</t>
@@ -392,16 +392,16 @@
     <t xml:space="preserve">5.86627769470215</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85793924331665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89129400253296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89963293075562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79956817626953</t>
+    <t xml:space="preserve">5.85794019699097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8912935256958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89963245391846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79956865310669</t>
   </si>
   <si>
     <t xml:space="preserve">5.94549560546875</t>
@@ -416,25 +416,25 @@
     <t xml:space="preserve">5.9621729850769</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10393095016479</t>
+    <t xml:space="preserve">6.10393190383911</t>
   </si>
   <si>
     <t xml:space="preserve">6.47083425521851</t>
   </si>
   <si>
-    <t xml:space="preserve">6.495849609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57923698425293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59591436386108</t>
+    <t xml:space="preserve">6.49585008621216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57923746109009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59591484069824</t>
   </si>
   <si>
     <t xml:space="preserve">6.50001907348633</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33741474151611</t>
+    <t xml:space="preserve">6.3374137878418</t>
   </si>
   <si>
     <t xml:space="preserve">6.50418949127197</t>
@@ -443,16 +443,16 @@
     <t xml:space="preserve">6.42914056777954</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44581747055054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27904367446899</t>
+    <t xml:space="preserve">6.44581842422485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27904415130615</t>
   </si>
   <si>
     <t xml:space="preserve">6.38327789306641</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42497110366821</t>
+    <t xml:space="preserve">6.4249701499939</t>
   </si>
   <si>
     <t xml:space="preserve">6.45415639877319</t>
@@ -464,13 +464,13 @@
     <t xml:space="preserve">6.55422115325928</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38744688034058</t>
+    <t xml:space="preserve">6.38744735717773</t>
   </si>
   <si>
     <t xml:space="preserve">6.53754377365112</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37910795211792</t>
+    <t xml:space="preserve">6.37910842895508</t>
   </si>
   <si>
     <t xml:space="preserve">6.41663312911987</t>
@@ -479,13 +479,13 @@
     <t xml:space="preserve">6.34992265701294</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43747901916504</t>
+    <t xml:space="preserve">6.4374794960022</t>
   </si>
   <si>
     <t xml:space="preserve">6.22901105880737</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01637506484985</t>
+    <t xml:space="preserve">6.0163745880127</t>
   </si>
   <si>
     <t xml:space="preserve">6.05389928817749</t>
@@ -500,13 +500,13 @@
     <t xml:space="preserve">6.37076950073242</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41246318817139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32907676696777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45832633972168</t>
+    <t xml:space="preserve">6.41246271133423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32907629013062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45832586288452</t>
   </si>
   <si>
     <t xml:space="preserve">6.28738260269165</t>
@@ -515,10 +515,10 @@
     <t xml:space="preserve">6.21650362014771</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74601125717163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72933387756348</t>
+    <t xml:space="preserve">6.74601078033447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72933340072632</t>
   </si>
   <si>
     <t xml:space="preserve">6.69597864151001</t>
@@ -527,31 +527,31 @@
     <t xml:space="preserve">6.77102708816528</t>
   </si>
   <si>
-    <t xml:space="preserve">6.78770542144775</t>
+    <t xml:space="preserve">6.7877049446106</t>
   </si>
   <si>
     <t xml:space="preserve">7.08789825439453</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25467205047607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22965717315674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08372926712036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06288194656372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12959241867065</t>
+    <t xml:space="preserve">7.25467157363892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22965621948242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0837287902832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06288146972656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12959146499634</t>
   </si>
   <si>
     <t xml:space="preserve">7.07121992111206</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10457611083984</t>
+    <t xml:space="preserve">7.10457563400269</t>
   </si>
   <si>
     <t xml:space="preserve">7.03786563873291</t>
@@ -560,13 +560,13 @@
     <t xml:space="preserve">7.2588415145874</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65493011474609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68828535079956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65076160430908</t>
+    <t xml:space="preserve">7.65493106842041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6882848739624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65076112747192</t>
   </si>
   <si>
     <t xml:space="preserve">7.13793039321899</t>
@@ -575,28 +575,28 @@
     <t xml:space="preserve">7.35473680496216</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49649429321289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52984857559204</t>
+    <t xml:space="preserve">7.49649477005005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5298490524292</t>
   </si>
   <si>
     <t xml:space="preserve">7.54235744476318</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48815584182739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32971954345703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22131729125977</t>
+    <t xml:space="preserve">7.48815631866455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32972002029419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22131776809692</t>
   </si>
   <si>
     <t xml:space="preserve">7.15460777282715</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99200344085693</t>
+    <t xml:space="preserve">6.99200296401978</t>
   </si>
   <si>
     <t xml:space="preserve">7.12125253677368</t>
@@ -605,19 +605,19 @@
     <t xml:space="preserve">7.10874462127686</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09206819534302</t>
+    <t xml:space="preserve">7.09206771850586</t>
   </si>
   <si>
     <t xml:space="preserve">7.05454301834106</t>
   </si>
   <si>
-    <t xml:space="preserve">6.88360023498535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0045108795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06705093383789</t>
+    <t xml:space="preserve">6.88359975814819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00451135635376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06705141067505</t>
   </si>
   <si>
     <t xml:space="preserve">6.93780136108398</t>
@@ -632,25 +632,25 @@
     <t xml:space="preserve">7.27968788146973</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32138156890869</t>
+    <t xml:space="preserve">7.32138109207153</t>
   </si>
   <si>
     <t xml:space="preserve">7.59655809402466</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56320381164551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69662189483643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74665451049805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7133002281189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9592924118042</t>
+    <t xml:space="preserve">7.56320428848267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6966233253479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74665498733521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71330070495605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95929193496704</t>
   </si>
   <si>
     <t xml:space="preserve">8.06352615356445</t>
@@ -659,49 +659,49 @@
     <t xml:space="preserve">8.08854293823242</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13023567199707</t>
+    <t xml:space="preserve">8.13023662567139</t>
   </si>
   <si>
     <t xml:space="preserve">7.90926074981689</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31785678863525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25114727020264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31368923187256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54716968536377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55550956726074</t>
+    <t xml:space="preserve">8.31785774230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25114822387695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31368827819824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54717063903809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55550861358643</t>
   </si>
   <si>
     <t xml:space="preserve">8.42209053039551</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45544528961182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49713802337646</t>
+    <t xml:space="preserve">8.45544624328613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49713897705078</t>
   </si>
   <si>
     <t xml:space="preserve">8.68892860412598</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69726943969727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65557479858398</t>
+    <t xml:space="preserve">8.69726848602295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65557384490967</t>
   </si>
   <si>
     <t xml:space="preserve">8.58886432647705</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3887357711792</t>
+    <t xml:space="preserve">8.38873672485352</t>
   </si>
   <si>
     <t xml:space="preserve">8.09688091278076</t>
@@ -716,7 +716,7 @@
     <t xml:space="preserve">8.23446941375732</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57218742370605</t>
+    <t xml:space="preserve">8.57218647003174</t>
   </si>
   <si>
     <t xml:space="preserve">8.66391277313232</t>
@@ -737,7 +737,7 @@
     <t xml:space="preserve">10.1565408706665</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2315893173218</t>
+    <t xml:space="preserve">10.2315902709961</t>
   </si>
   <si>
     <t xml:space="preserve">10.5651378631592</t>
@@ -746,7 +746,7 @@
     <t xml:space="preserve">10.765266418457</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8319759368896</t>
+    <t xml:space="preserve">10.8319749832153</t>
   </si>
   <si>
     <t xml:space="preserve">10.365008354187</t>
@@ -755,55 +755,55 @@
     <t xml:space="preserve">10.4233798980713</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6540613174438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5344467163086</t>
+    <t xml:space="preserve">10.6540603637695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5344476699829</t>
   </si>
   <si>
     <t xml:space="preserve">9.94493007659912</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1328916549683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.192699432373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1243476867676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2439594268799</t>
+    <t xml:space="preserve">10.1328907012939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1926984786987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1243486404419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2439603805542</t>
   </si>
   <si>
     <t xml:space="preserve">10.2525043487549</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1499786376953</t>
+    <t xml:space="preserve">10.1499805450439</t>
   </si>
   <si>
     <t xml:space="preserve">10.4575538635254</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7822170257568</t>
+    <t xml:space="preserve">10.7822160720825</t>
   </si>
   <si>
     <t xml:space="preserve">10.7394981384277</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6882352828979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5515356063843</t>
+    <t xml:space="preserve">10.6882362365723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5515365600586</t>
   </si>
   <si>
     <t xml:space="preserve">10.423378944397</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7993049621582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7224111557007</t>
+    <t xml:space="preserve">10.7993040084839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7224102020264</t>
   </si>
   <si>
     <t xml:space="preserve">10.7053232192993</t>
@@ -815,16 +815,16 @@
     <t xml:space="preserve">10.4917287826538</t>
   </si>
   <si>
-    <t xml:space="preserve">10.431923866272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3464851379395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3806600570679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1158046722412</t>
+    <t xml:space="preserve">10.4319229125977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3464860916138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3806610107422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1158037185669</t>
   </si>
   <si>
     <t xml:space="preserve">9.97910404205322</t>
@@ -833,7 +833,7 @@
     <t xml:space="preserve">9.90221118927002</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85094738006592</t>
+    <t xml:space="preserve">9.8509464263916</t>
   </si>
   <si>
     <t xml:space="preserve">9.68007278442383</t>
@@ -848,7 +848,7 @@
     <t xml:space="preserve">9.22725391387939</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24434185028076</t>
+    <t xml:space="preserve">9.24434089660645</t>
   </si>
   <si>
     <t xml:space="preserve">9.26142883300781</t>
@@ -857,28 +857,28 @@
     <t xml:space="preserve">9.30414772033691</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29560375213623</t>
+    <t xml:space="preserve">9.29560470581055</t>
   </si>
   <si>
     <t xml:space="preserve">9.39812850952148</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27851581573486</t>
+    <t xml:space="preserve">9.27851676940918</t>
   </si>
   <si>
     <t xml:space="preserve">9.44084739685059</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75696659088135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1670665740967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1072597503662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97056007385254</t>
+    <t xml:space="preserve">9.75696754455566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.167067527771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1072607040405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97056102752686</t>
   </si>
   <si>
     <t xml:space="preserve">9.91929721832275</t>
@@ -887,16 +887,16 @@
     <t xml:space="preserve">10.2952241897583</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3037672042847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3550300598145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3293991088867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3635730743408</t>
+    <t xml:space="preserve">10.303768157959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3550291061401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3293981552124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3635740280151</t>
   </si>
   <si>
     <t xml:space="preserve">10.4404668807983</t>
@@ -905,19 +905,19 @@
     <t xml:space="preserve">10.2781352996826</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0901727676392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.038911819458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96201705932617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92784214019775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8167724609375</t>
+    <t xml:space="preserve">10.0901737213135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0389108657837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96201610565186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92784118652344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81677341461182</t>
   </si>
   <si>
     <t xml:space="preserve">9.57754707336426</t>
@@ -935,34 +935,34 @@
     <t xml:space="preserve">9.63735294342041</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73133659362793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56900310516357</t>
+    <t xml:space="preserve">9.7313346862793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56900405883789</t>
   </si>
   <si>
     <t xml:space="preserve">9.45793533325195</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3468656539917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44939136505127</t>
+    <t xml:space="preserve">9.34686660766602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44939231872559</t>
   </si>
   <si>
     <t xml:space="preserve">9.51774215698242</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58609199523926</t>
+    <t xml:space="preserve">9.58609104156494</t>
   </si>
   <si>
     <t xml:space="preserve">9.33832359313965</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26997375488281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65444278717041</t>
+    <t xml:space="preserve">9.2699728012085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65444087982178</t>
   </si>
   <si>
     <t xml:space="preserve">9.56046009063721</t>
@@ -971,67 +971,67 @@
     <t xml:space="preserve">9.91075420379639</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74842357635498</t>
+    <t xml:space="preserve">9.74842262268066</t>
   </si>
   <si>
     <t xml:space="preserve">9.71424674987793</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70570373535156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8253173828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89366626739502</t>
+    <t xml:space="preserve">9.70570278167725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82531642913818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89366722106934</t>
   </si>
   <si>
     <t xml:space="preserve">9.84240436553955</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8680362701416</t>
+    <t xml:space="preserve">9.86803436279297</t>
   </si>
   <si>
     <t xml:space="preserve">9.76551055908203</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73987865447998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6971607208252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85949039459229</t>
+    <t xml:space="preserve">9.7398796081543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69715976715088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8594913482666</t>
   </si>
   <si>
     <t xml:space="preserve">9.79968547821045</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54337215423584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20162296295166</t>
+    <t xml:space="preserve">9.54337406158447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20162391662598</t>
   </si>
   <si>
     <t xml:space="preserve">9.06492233276367</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78297901153564</t>
+    <t xml:space="preserve">8.78297805786133</t>
   </si>
   <si>
     <t xml:space="preserve">8.65482330322266</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13365364074707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38569450378418</t>
+    <t xml:space="preserve">8.13365459442139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38569355010986</t>
   </si>
   <si>
     <t xml:space="preserve">8.1592845916748</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18064308166504</t>
+    <t xml:space="preserve">8.18064403533936</t>
   </si>
   <si>
     <t xml:space="preserve">8.68899726867676</t>
@@ -1049,13 +1049,13 @@
     <t xml:space="preserve">8.33015918731689</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43268394470215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.372878074646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35151863098145</t>
+    <t xml:space="preserve">8.43268489837646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37287902832031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35151958465576</t>
   </si>
   <si>
     <t xml:space="preserve">8.15074157714844</t>
@@ -1067,19 +1067,19 @@
     <t xml:space="preserve">7.9072437286377</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88161325454712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85598230361938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96704959869385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91151571273804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01404190063477</t>
+    <t xml:space="preserve">7.8816123008728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85598182678223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96705007553101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91151475906372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01404094696045</t>
   </si>
   <si>
     <t xml:space="preserve">8.03539943695068</t>
@@ -1088,7 +1088,7 @@
     <t xml:space="preserve">8.0781192779541</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06957530975342</t>
+    <t xml:space="preserve">8.0695743560791</t>
   </si>
   <si>
     <t xml:space="preserve">8.31307125091553</t>
@@ -1100,22 +1100,22 @@
     <t xml:space="preserve">8.20627498626709</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10802268981934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13792419433594</t>
+    <t xml:space="preserve">8.10802173614502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13792514801025</t>
   </si>
   <si>
     <t xml:space="preserve">8.23190689086914</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28316974639893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34724617004395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48394680023193</t>
+    <t xml:space="preserve">8.28316879272461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34724807739258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48394775390625</t>
   </si>
   <si>
     <t xml:space="preserve">8.62919139862061</t>
@@ -1124,34 +1124,34 @@
     <t xml:space="preserve">8.57792854309082</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8000659942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61210441589355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54375267028809</t>
+    <t xml:space="preserve">8.80006694793701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61210346221924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54375457763672</t>
   </si>
   <si>
     <t xml:space="preserve">8.56084251403809</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71462821960449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64627838134766</t>
+    <t xml:space="preserve">8.71462917327881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64627933502197</t>
   </si>
   <si>
     <t xml:space="preserve">8.52666568756104</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51812267303467</t>
+    <t xml:space="preserve">8.51812362670898</t>
   </si>
   <si>
     <t xml:space="preserve">8.46685981750488</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44122982025146</t>
+    <t xml:space="preserve">8.44122886657715</t>
   </si>
   <si>
     <t xml:space="preserve">8.26180934906006</t>
@@ -1160,16 +1160,16 @@
     <t xml:space="preserve">8.0738468170166</t>
   </si>
   <si>
-    <t xml:space="preserve">8.04821586608887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97132253646851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18491554260254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03112888336182</t>
+    <t xml:space="preserve">8.04821491241455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97132158279419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18491458892822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03112697601318</t>
   </si>
   <si>
     <t xml:space="preserve">8.381422996521</t>
@@ -1181,316 +1181,316 @@
     <t xml:space="preserve">8.81715297698975</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88550281524658</t>
+    <t xml:space="preserve">8.8855037689209</t>
   </si>
   <si>
     <t xml:space="preserve">8.83424091339111</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68045330047607</t>
+    <t xml:space="preserve">8.68045425415039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66336631774902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90258979797363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00511646270752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43230438232422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31269073486328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19307899475098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17599105834961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10764122009277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15890407562256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32977867126465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.483567237854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2866792678833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6455163955688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7480430603027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6967792510986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0385303497314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.516978263855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4486293792725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5511560440063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6249647140503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9571056365967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9202013015747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4957981109619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3850831985474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3666305541992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0344896316528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9606809616089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5731821060181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7761573791504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.683895111084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7208003997803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5547285079956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2410402297974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.074969291687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0565156936646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1303262710571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3517532348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.148777961731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2963962554932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3333015441895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2041349411011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4809198379517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3886585235596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5178241729736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4071102142334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2779455184937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1672306060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85354232788086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87199306488037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77973175048828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53985214233398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74282741546631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79818439483643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72437477111816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68747043609619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81663608551025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76127815246582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63211250305176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.373779296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31842422485352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42913722991943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39223384857178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33687591552734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1338996887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15235233306885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99550724029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94015026092529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09699535369873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02318668365479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04163837432861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00473403930664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58033180236816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34045028686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9862813949585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76485347747803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.700270652771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71872138977051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69104385375977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41425895690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50652122497559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46604156494141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44758892059326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2630672454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06931686401367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20770931243896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18925762176514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10622119903564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03241348266602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06009101867676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94937705993652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93092441558838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8478889465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89402008056641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90324687957764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83866214752197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77408027648926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65414047241211</t>
   </si>
   <si>
     <t xml:space="preserve">8.66336536407471</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90259170532227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0051155090332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4323034286499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31269073486328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19307994842529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17599010467529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10764122009277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15890407562256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32977962493896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.483567237854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2866792678833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6455173492432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7480421066284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6967802047729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0385303497314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.516978263855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4486303329468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.551155090332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6249647140503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9571056365967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.920202255249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4957981109619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3850831985474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3666315078735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0344896316528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9606800079346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5731821060181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7761564254761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.683895111084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7208003997803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5547285079956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2410402297974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.074969291687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0565156936646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1303262710571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3517541885376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.148777961731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2963972091675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3333005905151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2041349411011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4809198379517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3886585235596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5178241729736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4071092605591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2779445648193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1672315597534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85354137420654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87199306488037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77973175048828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53985118865967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74282741546631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79818439483643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72437381744385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68747043609619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81663608551025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76127910614014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63211250305176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37378025054932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3184232711792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42913818359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39223384857178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33687591552734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1338996887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15235233306885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99550724029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94015026092529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09699535369873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02318668365479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04163837432861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00473403930664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58033084869385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34044933319092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9862813949585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76485347747803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70026969909668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71872234344482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69104480743408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41425895690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5065221786499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46604156494141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44758892059326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26306629180908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06931686401367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20770931243896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18925762176514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10622119903564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03241348266602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06009101867676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94937705993652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9309253692627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8478889465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89402008056641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90324687957764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83866310119629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77408123016357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65414047241211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66336631774902</t>
-  </si>
-  <si>
     <t xml:space="preserve">8.46961688995361</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36812782287598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30354595184326</t>
+    <t xml:space="preserve">8.36812877655029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30354499816895</t>
   </si>
   <si>
     <t xml:space="preserve">7.79610681533813</t>
@@ -1502,7 +1502,7 @@
     <t xml:space="preserve">7.74075031280518</t>
   </si>
   <si>
-    <t xml:space="preserve">7.6115837097168</t>
+    <t xml:space="preserve">7.61158323287964</t>
   </si>
   <si>
     <t xml:space="preserve">7.64848804473877</t>
@@ -1511,16 +1511,16 @@
     <t xml:space="preserve">7.54700040817261</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44551277160645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45473861694336</t>
+    <t xml:space="preserve">7.44551229476929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45473909378052</t>
   </si>
   <si>
     <t xml:space="preserve">7.13182306289673</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15950155258179</t>
+    <t xml:space="preserve">7.15950202941895</t>
   </si>
   <si>
     <t xml:space="preserve">7.43628692626953</t>
@@ -1550,13 +1550,13 @@
     <t xml:space="preserve">7.74997568130493</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51009654998779</t>
+    <t xml:space="preserve">7.51009607315063</t>
   </si>
   <si>
     <t xml:space="preserve">7.63926124572754</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62080955505371</t>
+    <t xml:space="preserve">7.62081003189087</t>
   </si>
   <si>
     <t xml:space="preserve">7.3993821144104</t>
@@ -1568,28 +1568,28 @@
     <t xml:space="preserve">7.27944135665894</t>
   </si>
   <si>
-    <t xml:space="preserve">7.19640684127808</t>
+    <t xml:space="preserve">7.19640636444092</t>
   </si>
   <si>
     <t xml:space="preserve">7.20563220977783</t>
   </si>
   <si>
-    <t xml:space="preserve">7.11337041854858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10414457321167</t>
+    <t xml:space="preserve">7.11337089538574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10414409637451</t>
   </si>
   <si>
     <t xml:space="preserve">7.49164295196533</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59313058853149</t>
+    <t xml:space="preserve">7.59313106536865</t>
   </si>
   <si>
     <t xml:space="preserve">7.5839056968689</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52854776382446</t>
+    <t xml:space="preserve">7.52854824066162</t>
   </si>
   <si>
     <t xml:space="preserve">7.39015579223633</t>
@@ -1601,7 +1601,7 @@
     <t xml:space="preserve">7.33479833602905</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36247777938843</t>
+    <t xml:space="preserve">7.36247730255127</t>
   </si>
   <si>
     <t xml:space="preserve">7.29789400100708</t>
@@ -1619,7 +1619,7 @@
     <t xml:space="preserve">7.77765417098999</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92527294158936</t>
+    <t xml:space="preserve">7.92527341842651</t>
   </si>
   <si>
     <t xml:space="preserve">8.10056972503662</t>
@@ -1631,13 +1631,13 @@
     <t xml:space="preserve">8.45116424560547</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55265140533447</t>
+    <t xml:space="preserve">8.55265235900879</t>
   </si>
   <si>
     <t xml:space="preserve">8.4603910446167</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40503311157227</t>
+    <t xml:space="preserve">8.40503215789795</t>
   </si>
   <si>
     <t xml:space="preserve">8.39580726623535</t>
@@ -1658,10 +1658,10 @@
     <t xml:space="preserve">9.11544895172119</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85711479187012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72794914245605</t>
+    <t xml:space="preserve">8.85711574554443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72795009613037</t>
   </si>
   <si>
     <t xml:space="preserve">8.92169857025146</t>
@@ -1676,10 +1676,10 @@
     <t xml:space="preserve">8.96782970428467</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91247177124023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86634063720703</t>
+    <t xml:space="preserve">8.91247272491455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86633968353271</t>
   </si>
   <si>
     <t xml:space="preserve">8.87556838989258</t>
@@ -1688,7 +1688,7 @@
     <t xml:space="preserve">8.64491367340088</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7464017868042</t>
+    <t xml:space="preserve">8.74640083312988</t>
   </si>
   <si>
     <t xml:space="preserve">8.31277275085449</t>
@@ -1697,7 +1697,7 @@
     <t xml:space="preserve">8.44193840026855</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33122444152832</t>
+    <t xml:space="preserve">8.331223487854</t>
   </si>
   <si>
     <t xml:space="preserve">8.1836051940918</t>
@@ -1712,19 +1712,19 @@
     <t xml:space="preserve">8.49729537963867</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51574611663818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53419971466064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5618782043457</t>
+    <t xml:space="preserve">8.5157470703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53419876098633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56187725067139</t>
   </si>
   <si>
     <t xml:space="preserve">8.48806858062744</t>
   </si>
   <si>
-    <t xml:space="preserve">8.52497291564941</t>
+    <t xml:space="preserve">8.52497386932373</t>
   </si>
   <si>
     <t xml:space="preserve">8.5711030960083</t>
@@ -1742,7 +1742,7 @@
     <t xml:space="preserve">8.60800933837891</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28066349029541</t>
+    <t xml:space="preserve">9.28066253662109</t>
   </si>
   <si>
     <t xml:space="preserve">8.76398658752441</t>
@@ -1751,25 +1751,25 @@
     <t xml:space="preserve">8.46178150177002</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24731063842773</t>
+    <t xml:space="preserve">8.24731159210205</t>
   </si>
   <si>
     <t xml:space="preserve">7.95485353469849</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12057971954346</t>
+    <t xml:space="preserve">8.12057876586914</t>
   </si>
   <si>
     <t xml:space="preserve">8.0425910949707</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35454559326172</t>
+    <t xml:space="preserve">8.3545446395874</t>
   </si>
   <si>
     <t xml:space="preserve">8.14982509613037</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09133434295654</t>
+    <t xml:space="preserve">8.09133338928223</t>
   </si>
   <si>
     <t xml:space="preserve">8.11083030700684</t>
@@ -1781,10 +1781,10 @@
     <t xml:space="preserve">8.15957355499268</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17907238006592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20831680297852</t>
+    <t xml:space="preserve">8.1790714263916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2083158493042</t>
   </si>
   <si>
     <t xml:space="preserve">8.03284168243408</t>
@@ -1793,40 +1793,40 @@
     <t xml:space="preserve">8.02309322357178</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22781467437744</t>
+    <t xml:space="preserve">8.22781372070312</t>
   </si>
   <si>
     <t xml:space="preserve">8.3058032989502</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31555080413818</t>
+    <t xml:space="preserve">8.3155517578125</t>
   </si>
   <si>
     <t xml:space="preserve">8.19856834411621</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9840989112854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13032817840576</t>
+    <t xml:space="preserve">7.98409938812256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13032913208008</t>
   </si>
   <si>
     <t xml:space="preserve">8.14007663726807</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96460199356079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99384784698486</t>
+    <t xml:space="preserve">7.96460247039795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99384737014771</t>
   </si>
   <si>
     <t xml:space="preserve">8.23756217956543</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16932201385498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18881893157959</t>
+    <t xml:space="preserve">8.1693229675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18881988525391</t>
   </si>
   <si>
     <t xml:space="preserve">8.10108280181885</t>
@@ -1838,13 +1838,13 @@
     <t xml:space="preserve">8.26680755615234</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21806526184082</t>
+    <t xml:space="preserve">8.21806621551514</t>
   </si>
   <si>
     <t xml:space="preserve">8.05233955383301</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06208801269531</t>
+    <t xml:space="preserve">8.06208896636963</t>
   </si>
   <si>
     <t xml:space="preserve">8.07183647155762</t>
@@ -1856,7 +1856,7 @@
     <t xml:space="preserve">7.93535661697388</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97435092926025</t>
+    <t xml:space="preserve">7.9743504524231</t>
   </si>
   <si>
     <t xml:space="preserve">8.01334571838379</t>
@@ -1865,7 +1865,7 @@
     <t xml:space="preserve">8.50077438354492</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39354038238525</t>
+    <t xml:space="preserve">8.39353942871094</t>
   </si>
   <si>
     <t xml:space="preserve">8.34479808807373</t>
@@ -1877,25 +1877,25 @@
     <t xml:space="preserve">8.51052284240723</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5885124206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85172367095947</t>
+    <t xml:space="preserve">8.58851337432861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85172462463379</t>
   </si>
   <si>
     <t xml:space="preserve">9.21242237091064</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20267391204834</t>
+    <t xml:space="preserve">9.20267295837402</t>
   </si>
   <si>
     <t xml:space="preserve">9.5828685760498</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45613574981689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55362319946289</t>
+    <t xml:space="preserve">9.45613670349121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55362224578857</t>
   </si>
   <si>
     <t xml:space="preserve">9.52437686920166</t>
@@ -1904,7 +1904,7 @@
     <t xml:space="preserve">9.51462936401367</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62186336517334</t>
+    <t xml:space="preserve">9.62186241149902</t>
   </si>
   <si>
     <t xml:space="preserve">9.60236644744873</t>
@@ -1913,28 +1913,28 @@
     <t xml:space="preserve">9.59261798858643</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0995435714722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3920021057129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1190423965454</t>
+    <t xml:space="preserve">10.0995426177979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3920011520386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1190414428711</t>
   </si>
   <si>
     <t xml:space="preserve">10.1385383605957</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0605487823486</t>
+    <t xml:space="preserve">10.0605497360229</t>
   </si>
   <si>
     <t xml:space="preserve">10.0215559005737</t>
   </si>
   <si>
-    <t xml:space="preserve">9.67060661315918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74859428405762</t>
+    <t xml:space="preserve">9.67060565948486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74859523773193</t>
   </si>
   <si>
     <t xml:space="preserve">9.68035507202148</t>
@@ -1949,16 +1949,16 @@
     <t xml:space="preserve">9.57311916351318</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65110874176025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53412532806396</t>
+    <t xml:space="preserve">9.65110778808594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53412628173828</t>
   </si>
   <si>
     <t xml:space="preserve">9.94356632232666</t>
   </si>
   <si>
-    <t xml:space="preserve">9.47563457489014</t>
+    <t xml:space="preserve">9.47563552856445</t>
   </si>
   <si>
     <t xml:space="preserve">9.41714286804199</t>
@@ -1994,7 +1994,7 @@
     <t xml:space="preserve">9.26116466522217</t>
   </si>
   <si>
-    <t xml:space="preserve">9.23192024230957</t>
+    <t xml:space="preserve">9.23191928863525</t>
   </si>
   <si>
     <t xml:space="preserve">9.1441822052002</t>
@@ -2009,34 +2009,34 @@
     <t xml:space="preserve">8.98820495605469</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00770092010498</t>
+    <t xml:space="preserve">9.0077018737793</t>
   </si>
   <si>
     <t xml:space="preserve">8.91996383666992</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78348445892334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83222770690918</t>
+    <t xml:space="preserve">8.78348350524902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83222675323486</t>
   </si>
   <si>
     <t xml:space="preserve">8.99795246124268</t>
   </si>
   <si>
-    <t xml:space="preserve">9.05644416809082</t>
+    <t xml:space="preserve">9.05644512176514</t>
   </si>
   <si>
     <t xml:space="preserve">9.02719879150391</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22216987609863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11493682861328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03694725036621</t>
+    <t xml:space="preserve">9.22217082977295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1149377822876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03694820404053</t>
   </si>
   <si>
     <t xml:space="preserve">8.86147308349609</t>
@@ -2054,10 +2054,10 @@
     <t xml:space="preserve">7.66239547729492</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58440685272217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67214393615723</t>
+    <t xml:space="preserve">7.58440732955933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67214441299438</t>
   </si>
   <si>
     <t xml:space="preserve">7.39918327331543</t>
@@ -2069,13 +2069,13 @@
     <t xml:space="preserve">6.62904500961304</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49256372451782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17650365829468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51770401000977</t>
+    <t xml:space="preserve">6.49256420135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17650413513184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51770448684692</t>
   </si>
   <si>
     <t xml:space="preserve">4.5720911026001</t>
@@ -2090,7 +2090,7 @@
     <t xml:space="preserve">4.55259370803833</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87429714202881</t>
+    <t xml:space="preserve">4.87429761886597</t>
   </si>
   <si>
     <t xml:space="preserve">5.16675567626953</t>
@@ -2099,7 +2099,7 @@
     <t xml:space="preserve">5.5566987991333</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08312273025513</t>
+    <t xml:space="preserve">6.08312320709229</t>
   </si>
   <si>
     <t xml:space="preserve">6.04412841796875</t>
@@ -2117,7 +2117,7 @@
     <t xml:space="preserve">6.00513410568237</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0343804359436</t>
+    <t xml:space="preserve">6.03437995910645</t>
   </si>
   <si>
     <t xml:space="preserve">6.20010614395142</t>
@@ -2135,7 +2135,7 @@
     <t xml:space="preserve">6.26834630966187</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47306680679321</t>
+    <t xml:space="preserve">6.47306728363037</t>
   </si>
   <si>
     <t xml:space="preserve">6.5803017616272</t>
@@ -2150,25 +2150,25 @@
     <t xml:space="preserve">7.73063611984253</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60390424728394</t>
+    <t xml:space="preserve">7.60390377044678</t>
   </si>
   <si>
     <t xml:space="preserve">7.64289855957031</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76962995529175</t>
+    <t xml:space="preserve">7.76962947845459</t>
   </si>
   <si>
     <t xml:space="preserve">7.69164133071899</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44792604446411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48692083358765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24320602416992</t>
+    <t xml:space="preserve">7.44792652130127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48692035675049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24320554733276</t>
   </si>
   <si>
     <t xml:space="preserve">7.45767498016357</t>
@@ -2180,7 +2180,7 @@
     <t xml:space="preserve">7.49666929244995</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54541254043579</t>
+    <t xml:space="preserve">7.54541206359863</t>
   </si>
   <si>
     <t xml:space="preserve">7.51616668701172</t>
@@ -2189,7 +2189,7 @@
     <t xml:space="preserve">7.75013256072998</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90611028671265</t>
+    <t xml:space="preserve">7.90610980987549</t>
   </si>
   <si>
     <t xml:space="preserve">7.37968635559082</t>
@@ -2198,16 +2198,16 @@
     <t xml:space="preserve">7.61365222930908</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65264701843262</t>
+    <t xml:space="preserve">7.65264654159546</t>
   </si>
   <si>
     <t xml:space="preserve">7.7111382484436</t>
   </si>
   <si>
-    <t xml:space="preserve">7.55516052246094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36993789672852</t>
+    <t xml:space="preserve">7.5551609992981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36993741989136</t>
   </si>
   <si>
     <t xml:space="preserve">7.36018943786621</t>
@@ -2222,10 +2222,10 @@
     <t xml:space="preserve">7.59415531158447</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56490993499756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43817758560181</t>
+    <t xml:space="preserve">7.56491041183472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43817806243896</t>
   </si>
   <si>
     <t xml:space="preserve">7.38943481445312</t>
@@ -2237,19 +2237,19 @@
     <t xml:space="preserve">7.50641775131226</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7013897895813</t>
+    <t xml:space="preserve">7.70139026641846</t>
   </si>
   <si>
     <t xml:space="preserve">7.63314962387085</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46742391586304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35044050216675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31144618988037</t>
+    <t xml:space="preserve">7.46742343902588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35044002532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31144666671753</t>
   </si>
   <si>
     <t xml:space="preserve">7.52591514587402</t>
@@ -2273,7 +2273,7 @@
     <t xml:space="preserve">7.41868114471436</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32119464874268</t>
+    <t xml:space="preserve">7.32119512557983</t>
   </si>
   <si>
     <t xml:space="preserve">7.26270294189453</t>
@@ -2324,16 +2324,16 @@
     <t xml:space="preserve">7.2919487953186</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25295448303223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23345756530762</t>
+    <t xml:space="preserve">7.25295495986938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23345708847046</t>
   </si>
   <si>
     <t xml:space="preserve">7.18471431732178</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20421171188354</t>
+    <t xml:space="preserve">7.20421123504639</t>
   </si>
   <si>
     <t xml:space="preserve">7.68189287185669</t>
@@ -2342,19 +2342,19 @@
     <t xml:space="preserve">7.07747983932495</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12622308731079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06773138046265</t>
+    <t xml:space="preserve">7.12622261047363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06773090362549</t>
   </si>
   <si>
     <t xml:space="preserve">7.01898813247681</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94099998474121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02873659133911</t>
+    <t xml:space="preserve">6.94099950790405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02873706817627</t>
   </si>
   <si>
     <t xml:space="preserve">7.11647462844849</t>
@@ -2363,7 +2363,7 @@
     <t xml:space="preserve">7.10672569274902</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92150211334229</t>
+    <t xml:space="preserve">6.92150259017944</t>
   </si>
   <si>
     <t xml:space="preserve">6.98974275588989</t>
@@ -2378,16 +2378,16 @@
     <t xml:space="preserve">6.85326242446899</t>
   </si>
   <si>
-    <t xml:space="preserve">6.82401657104492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81426763534546</t>
+    <t xml:space="preserve">6.82401609420776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8142671585083</t>
   </si>
   <si>
     <t xml:space="preserve">6.88250780105591</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83376502990723</t>
+    <t xml:space="preserve">6.83376550674438</t>
   </si>
   <si>
     <t xml:space="preserve">6.8630108833313</t>
@@ -2402,13 +2402,13 @@
     <t xml:space="preserve">6.78502225875854</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67778778076172</t>
+    <t xml:space="preserve">6.67778730392456</t>
   </si>
   <si>
     <t xml:space="preserve">6.7265305519104</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97999382019043</t>
+    <t xml:space="preserve">6.97999334335327</t>
   </si>
   <si>
     <t xml:space="preserve">7.39928722381592</t>
@@ -2417,7 +2417,7 @@
     <t xml:space="preserve">7.19347906112671</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2718825340271</t>
+    <t xml:space="preserve">7.27188205718994</t>
   </si>
   <si>
     <t xml:space="preserve">7.34048461914062</t>
@@ -2426,7 +2426,7 @@
     <t xml:space="preserve">7.22288036346436</t>
   </si>
   <si>
-    <t xml:space="preserve">7.23268032073975</t>
+    <t xml:space="preserve">7.2326807975769</t>
   </si>
   <si>
     <t xml:space="preserve">7.48749017715454</t>
@@ -2435,7 +2435,7 @@
     <t xml:space="preserve">7.55609321594238</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54629278182983</t>
+    <t xml:space="preserve">7.54629230499268</t>
   </si>
   <si>
     <t xml:space="preserve">7.64429664611816</t>
@@ -2447,22 +2447,22 @@
     <t xml:space="preserve">7.51689195632935</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76190137863159</t>
+    <t xml:space="preserve">7.76190090179443</t>
   </si>
   <si>
     <t xml:space="preserve">7.88930606842041</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12451553344727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09511470794678</t>
+    <t xml:space="preserve">8.12451457977295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09511375427246</t>
   </si>
   <si>
     <t xml:space="preserve">8.14411640167236</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06571197509766</t>
+    <t xml:space="preserve">8.06571292877197</t>
   </si>
   <si>
     <t xml:space="preserve">8.15391540527344</t>
@@ -2471,7 +2471,7 @@
     <t xml:space="preserve">8.18331813812256</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25191974639893</t>
+    <t xml:space="preserve">8.25192070007324</t>
   </si>
   <si>
     <t xml:space="preserve">8.19311714172363</t>
@@ -2486,10 +2486,10 @@
     <t xml:space="preserve">7.84030437469482</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65409708023071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62469577789307</t>
+    <t xml:space="preserve">7.65409660339355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62469625473022</t>
   </si>
   <si>
     <t xml:space="preserve">7.78150177001953</t>
@@ -2516,7 +2516,7 @@
     <t xml:space="preserve">7.87950563430786</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70309925079346</t>
+    <t xml:space="preserve">7.7030987739563</t>
   </si>
   <si>
     <t xml:space="preserve">7.59529447555542</t>
@@ -2528,7 +2528,7 @@
     <t xml:space="preserve">7.69329833984375</t>
   </si>
   <si>
-    <t xml:space="preserve">7.6834979057312</t>
+    <t xml:space="preserve">7.68349838256836</t>
   </si>
   <si>
     <t xml:space="preserve">7.61489534378052</t>
@@ -2537,13 +2537,13 @@
     <t xml:space="preserve">7.89910697937012</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85990571975708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85010480880737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07551288604736</t>
+    <t xml:space="preserve">7.85990524291992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85010433197021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07551383972168</t>
   </si>
   <si>
     <t xml:space="preserve">7.99711036682129</t>
@@ -2555,7 +2555,7 @@
     <t xml:space="preserve">8.33032321929932</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13431644439697</t>
+    <t xml:space="preserve">8.13431549072266</t>
   </si>
   <si>
     <t xml:space="preserve">8.50673007965088</t>
@@ -2567,22 +2567,22 @@
     <t xml:space="preserve">8.4283275604248</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40872669219971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59493446350098</t>
+    <t xml:space="preserve">8.40872573852539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59493350982666</t>
   </si>
   <si>
     <t xml:space="preserve">8.81054210662842</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73213768005371</t>
+    <t xml:space="preserve">8.73213863372803</t>
   </si>
   <si>
     <t xml:space="preserve">8.74193859100342</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8791446685791</t>
+    <t xml:space="preserve">8.87914562225342</t>
   </si>
   <si>
     <t xml:space="preserve">9.08495330810547</t>
@@ -2594,13 +2594,13 @@
     <t xml:space="preserve">9.17315578460693</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10455322265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82034301757812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86934375762939</t>
+    <t xml:space="preserve">9.10455226898193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82034206390381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86934471130371</t>
   </si>
   <si>
     <t xml:space="preserve">8.63413524627686</t>
@@ -2609,13 +2609,13 @@
     <t xml:space="preserve">8.61453437805176</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46752834320068</t>
+    <t xml:space="preserve">8.467529296875</t>
   </si>
   <si>
     <t xml:space="preserve">8.57533264160156</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30092239379883</t>
+    <t xml:space="preserve">8.30092144012451</t>
   </si>
   <si>
     <t xml:space="preserve">8.3597240447998</t>
@@ -2624,10 +2624,10 @@
     <t xml:space="preserve">8.3793249130249</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49693012237549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52633094787598</t>
+    <t xml:space="preserve">8.49692916870117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52632999420166</t>
   </si>
   <si>
     <t xml:space="preserve">8.51653003692627</t>
@@ -2642,7 +2642,7 @@
     <t xml:space="preserve">8.29112148284912</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23231983184814</t>
+    <t xml:space="preserve">8.23231887817383</t>
   </si>
   <si>
     <t xml:space="preserve">8.20291805267334</t>
@@ -2651,19 +2651,19 @@
     <t xml:space="preserve">8.26172065734863</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31072235107422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28132057189941</t>
+    <t xml:space="preserve">8.3107213973999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28132152557373</t>
   </si>
   <si>
     <t xml:space="preserve">8.38912582397461</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70273780822754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64393424987793</t>
+    <t xml:space="preserve">8.70273685455322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64393520355225</t>
   </si>
   <si>
     <t xml:space="preserve">8.67333698272705</t>
@@ -2675,16 +2675,16 @@
     <t xml:space="preserve">8.56553173065186</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66353607177734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8987455368042</t>
+    <t xml:space="preserve">8.66353702545166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89874458312988</t>
   </si>
   <si>
     <t xml:space="preserve">8.77134037017822</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90854644775391</t>
+    <t xml:space="preserve">8.90854549407959</t>
   </si>
   <si>
     <t xml:space="preserve">9.07515239715576</t>
@@ -2693,19 +2693,19 @@
     <t xml:space="preserve">9.99638748168945</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81998062133789</t>
+    <t xml:space="preserve">9.81998157501221</t>
   </si>
   <si>
     <t xml:space="preserve">9.95718574523926</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3884038925171</t>
+    <t xml:space="preserve">10.3884029388428</t>
   </si>
   <si>
     <t xml:space="preserve">10.427604675293</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4472045898438</t>
+    <t xml:space="preserve">10.4472055435181</t>
   </si>
   <si>
     <t xml:space="preserve">9.83958148956299</t>
@@ -2750,10 +2750,10 @@
     <t xml:space="preserve">9.18295574188232</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31036186218262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99674987792969</t>
+    <t xml:space="preserve">9.3103609085083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99674892425537</t>
   </si>
   <si>
     <t xml:space="preserve">9.19275665283203</t>
@@ -2762,19 +2762,19 @@
     <t xml:space="preserve">9.26135921478271</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42796516418457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69257640838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64357376098633</t>
+    <t xml:space="preserve">9.42796611785889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69257545471191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64357471466064</t>
   </si>
   <si>
     <t xml:space="preserve">9.60437297821045</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8983850479126</t>
+    <t xml:space="preserve">9.89838409423828</t>
   </si>
   <si>
     <t xml:space="preserve">9.93758583068848</t>
@@ -2786,7 +2786,7 @@
     <t xml:space="preserve">9.7415771484375</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68277549743652</t>
+    <t xml:space="preserve">9.68277645111084</t>
   </si>
   <si>
     <t xml:space="preserve">9.66317462921143</t>
@@ -2801,19 +2801,19 @@
     <t xml:space="preserve">9.25155830383301</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24175834655762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28096008300781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30056095123291</t>
+    <t xml:space="preserve">9.24175930023193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28096103668213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30055999755859</t>
   </si>
   <si>
     <t xml:space="preserve">9.27116012573242</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06535148620605</t>
+    <t xml:space="preserve">9.06535243988037</t>
   </si>
   <si>
     <t xml:space="preserve">9.04575061798096</t>
@@ -2828,16 +2828,16 @@
     <t xml:space="preserve">8.44792747497559</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8301420211792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47732830047607</t>
+    <t xml:space="preserve">8.83014297485352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47732925415039</t>
   </si>
   <si>
     <t xml:space="preserve">8.34012317657471</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43812656402588</t>
+    <t xml:space="preserve">8.4381275177002</t>
   </si>
   <si>
     <t xml:space="preserve">8.78114032745361</t>
@@ -2867,7 +2867,7 @@
     <t xml:space="preserve">9.09475231170654</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49656867980957</t>
+    <t xml:space="preserve">9.49656772613525</t>
   </si>
   <si>
     <t xml:space="preserve">9.56517124176025</t>
@@ -2879,10 +2879,10 @@
     <t xml:space="preserve">9.73177719116211</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0551900863647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58477210998535</t>
+    <t xml:space="preserve">10.0551910400391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58477115631104</t>
   </si>
   <si>
     <t xml:space="preserve">9.54556941986084</t>
@@ -2897,7 +2897,7 @@
     <t xml:space="preserve">9.62397289276123</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51616954803467</t>
+    <t xml:space="preserve">9.51616859436035</t>
   </si>
   <si>
     <t xml:space="preserve">9.37896347045898</t>
@@ -2906,7 +2906,7 @@
     <t xml:space="preserve">9.3495626449585</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80038070678711</t>
+    <t xml:space="preserve">9.80037975311279</t>
   </si>
   <si>
     <t xml:space="preserve">10.1923952102661</t>
@@ -2915,7 +2915,7 @@
     <t xml:space="preserve">10.0747909545898</t>
   </si>
   <si>
-    <t xml:space="preserve">10.231595993042</t>
+    <t xml:space="preserve">10.2315969467163</t>
   </si>
   <si>
     <t xml:space="preserve">10.1531934738159</t>
@@ -2924,7 +2924,7 @@
     <t xml:space="preserve">10.2511978149414</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0943918228149</t>
+    <t xml:space="preserve">10.0943908691406</t>
   </si>
   <si>
     <t xml:space="preserve">10.1139917373657</t>
@@ -2942,25 +2942,25 @@
     <t xml:space="preserve">9.2907600402832</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3985652923584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32016086578369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46716690063477</t>
+    <t xml:space="preserve">9.39856433868408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32016181945801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46716785430908</t>
   </si>
   <si>
     <t xml:space="preserve">9.55537033081055</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70237636566162</t>
+    <t xml:space="preserve">9.7023754119873</t>
   </si>
   <si>
     <t xml:space="preserve">9.91798400878906</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4080028533936</t>
+    <t xml:space="preserve">10.4080038070679</t>
   </si>
   <si>
     <t xml:space="preserve">10.8784227371216</t>
@@ -2969,7 +2969,7 @@
     <t xml:space="preserve">11.2704372406006</t>
   </si>
   <si>
-    <t xml:space="preserve">11.348840713501</t>
+    <t xml:space="preserve">11.3488397598267</t>
   </si>
   <si>
     <t xml:space="preserve">11.6624526977539</t>
@@ -2987,7 +2987,7 @@
     <t xml:space="preserve">11.5056457519531</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5252475738525</t>
+    <t xml:space="preserve">11.5252466201782</t>
   </si>
   <si>
     <t xml:space="preserve">11.4860458374023</t>
@@ -3002,16 +3002,16 @@
     <t xml:space="preserve">11.7016534805298</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5644493103027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4468441009521</t>
+    <t xml:space="preserve">11.5644483566284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4468450546265</t>
   </si>
   <si>
     <t xml:space="preserve">11.7212543487549</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1524715423584</t>
+    <t xml:space="preserve">12.1524705886841</t>
   </si>
   <si>
     <t xml:space="preserve">12.407280921936</t>
@@ -3020,7 +3020,7 @@
     <t xml:space="preserve">12.662091255188</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5640878677368</t>
+    <t xml:space="preserve">12.5640869140625</t>
   </si>
   <si>
     <t xml:space="preserve">12.270076751709</t>
@@ -3029,13 +3029,13 @@
     <t xml:space="preserve">12.4464826583862</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7800579071045</t>
+    <t xml:space="preserve">11.7800569534302</t>
   </si>
   <si>
     <t xml:space="preserve">11.3096380233765</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9764261245728</t>
+    <t xml:space="preserve">10.9764251708984</t>
   </si>
   <si>
     <t xml:space="preserve">10.9176235198975</t>
@@ -3047,19 +3047,19 @@
     <t xml:space="preserve">10.7804183959961</t>
   </si>
   <si>
-    <t xml:space="preserve">11.094030380249</t>
+    <t xml:space="preserve">11.0940294265747</t>
   </si>
   <si>
     <t xml:space="preserve">10.9568252563477</t>
   </si>
   <si>
-    <t xml:space="preserve">10.819619178772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0352277755737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2707977294922</t>
+    <t xml:space="preserve">10.8196201324463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.035228729248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2707986831665</t>
   </si>
   <si>
     <t xml:space="preserve">10.6824140548706</t>
@@ -3074,16 +3074,16 @@
     <t xml:space="preserve">11.0156269073486</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9372243881226</t>
+    <t xml:space="preserve">10.9372234344482</t>
   </si>
   <si>
     <t xml:space="preserve">10.7020149230957</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9960260391235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2900390625</t>
+    <t xml:space="preserve">10.9960269927979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2900381088257</t>
   </si>
   <si>
     <t xml:space="preserve">11.6036500930786</t>
@@ -3101,10 +3101,10 @@
     <t xml:space="preserve">11.9368629455566</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9760656356812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2112731933594</t>
+    <t xml:space="preserve">11.9760646820068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2112741470337</t>
   </si>
   <si>
     <t xml:space="preserve">12.1916723251343</t>
@@ -3113,31 +3113,31 @@
     <t xml:space="preserve">12.6228895187378</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7404947280884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9169015884399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9757022857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6816911697388</t>
+    <t xml:space="preserve">12.7404937744141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9169006347656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9757032394409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6816921234131</t>
   </si>
   <si>
     <t xml:space="preserve">12.720892906189</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7992963790894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9561033248901</t>
+    <t xml:space="preserve">12.7992973327637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9561023712158</t>
   </si>
   <si>
     <t xml:space="preserve">12.6032886505127</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4856834411621</t>
+    <t xml:space="preserve">12.4856843948364</t>
   </si>
   <si>
     <t xml:space="preserve">12.5248851776123</t>
@@ -3146,7 +3146,7 @@
     <t xml:space="preserve">12.3484792709351</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3680801391602</t>
+    <t xml:space="preserve">12.3680791854858</t>
   </si>
   <si>
     <t xml:space="preserve">12.2308740615845</t>
@@ -3161,19 +3161,19 @@
     <t xml:space="preserve">12.6424903869629</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5836877822876</t>
+    <t xml:space="preserve">12.5836887359619</t>
   </si>
   <si>
     <t xml:space="preserve">12.1720724105835</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8776998519897</t>
+    <t xml:space="preserve">12.8777008056641</t>
   </si>
   <si>
     <t xml:space="preserve">12.3092775344849</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2697143554688</t>
+    <t xml:space="preserve">13.2697153091431</t>
   </si>
   <si>
     <t xml:space="preserve">13.0541067123413</t>
@@ -3182,7 +3182,7 @@
     <t xml:space="preserve">12.9365015029907</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1521110534668</t>
+    <t xml:space="preserve">13.1521100997925</t>
   </si>
   <si>
     <t xml:space="preserve">13.0345058441162</t>
@@ -3194,10 +3194,10 @@
     <t xml:space="preserve">13.1717100143433</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5441255569458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5637254714966</t>
+    <t xml:space="preserve">13.5441246032715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5637264251709</t>
   </si>
   <si>
     <t xml:space="preserve">14.1517486572266</t>
@@ -3212,13 +3212,13 @@
     <t xml:space="preserve">14.0341444015503</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0733451843262</t>
+    <t xml:space="preserve">14.0733461380005</t>
   </si>
   <si>
     <t xml:space="preserve">14.4065589904785</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7201719284058</t>
+    <t xml:space="preserve">14.7201709747314</t>
   </si>
   <si>
     <t xml:space="preserve">14.8573760986328</t>
@@ -3227,7 +3227,7 @@
     <t xml:space="preserve">15.2885932922363</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0533828735352</t>
+    <t xml:space="preserve">15.0533838272095</t>
   </si>
   <si>
     <t xml:space="preserve">15.0337839126587</t>
@@ -3251,16 +3251,16 @@
     <t xml:space="preserve">17.3466739654541</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6602840423584</t>
+    <t xml:space="preserve">17.660285949707</t>
   </si>
   <si>
     <t xml:space="preserve">17.5426807403564</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9150943756104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7386875152588</t>
+    <t xml:space="preserve">17.915096282959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7386894226074</t>
   </si>
   <si>
     <t xml:space="preserve">17.8954944610596</t>
@@ -3287,13 +3287,13 @@
     <t xml:space="preserve">18.7383270263672</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1695442199707</t>
+    <t xml:space="preserve">19.1695423126221</t>
   </si>
   <si>
     <t xml:space="preserve">18.1699066162109</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1307029724121</t>
+    <t xml:space="preserve">18.1307048797607</t>
   </si>
   <si>
     <t xml:space="preserve">18.6795234680176</t>
@@ -3311,7 +3311,7 @@
     <t xml:space="preserve">19.9927749633789</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8947715759277</t>
+    <t xml:space="preserve">19.8947696685791</t>
   </si>
   <si>
     <t xml:space="preserve">19.6497611999512</t>
@@ -3326,16 +3326,16 @@
     <t xml:space="preserve">18.8363304138184</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0323390960693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3067493438721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9343338012695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6403217315674</t>
+    <t xml:space="preserve">19.0323371887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3067512512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9343357086182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.640323638916</t>
   </si>
   <si>
     <t xml:space="preserve">19.0127372741699</t>
@@ -3347,7 +3347,7 @@
     <t xml:space="preserve">19.1107406616211</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9931373596191</t>
+    <t xml:space="preserve">18.9931354522705</t>
   </si>
   <si>
     <t xml:space="preserve">18.7187271118164</t>
@@ -3356,19 +3356,19 @@
     <t xml:space="preserve">18.7775287628174</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6011219024658</t>
+    <t xml:space="preserve">18.6011199951172</t>
   </si>
   <si>
     <t xml:space="preserve">18.444314956665</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3851528167725</t>
+    <t xml:space="preserve">19.3851509094238</t>
   </si>
   <si>
     <t xml:space="preserve">19.1891441345215</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2871475219727</t>
+    <t xml:space="preserve">19.2871494293213</t>
   </si>
   <si>
     <t xml:space="preserve">19.0519390106201</t>
@@ -3377,7 +3377,7 @@
     <t xml:space="preserve">19.1303424835205</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8559303283691</t>
+    <t xml:space="preserve">18.8559322357178</t>
   </si>
   <si>
     <t xml:space="preserve">19.0735759735107</t>
@@ -3882,6 +3882,9 @@
   </si>
   <si>
     <t xml:space="preserve">24.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3500003814697</t>
   </si>
 </sst>
 </file>
@@ -60201,7 +60204,7 @@
     </row>
     <row r="2154">
       <c r="A2154" s="1" t="n">
-        <v>45461.6514930556</v>
+        <v>45461.2916666667</v>
       </c>
       <c r="B2154" t="n">
         <v>16749</v>
@@ -60222,6 +60225,32 @@
         <v>1289</v>
       </c>
       <c r="H2154" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2155">
+      <c r="A2155" s="1" t="n">
+        <v>45462.6494097222</v>
+      </c>
+      <c r="B2155" t="n">
+        <v>21746</v>
+      </c>
+      <c r="C2155" t="n">
+        <v>24.7999992370605</v>
+      </c>
+      <c r="D2155" t="n">
+        <v>24.1499996185303</v>
+      </c>
+      <c r="E2155" t="n">
+        <v>24.6000003814697</v>
+      </c>
+      <c r="F2155" t="n">
+        <v>24.3500003814697</v>
+      </c>
+      <c r="G2155" t="s">
+        <v>1290</v>
+      </c>
+      <c r="H2155" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TXT.MI.xlsx
+++ b/data/TXT.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="1291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="1293">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,40 +44,40 @@
     <t xml:space="preserve">TXT.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43539476394653</t>
+    <t xml:space="preserve">6.43539428710938</t>
   </si>
   <si>
     <t xml:space="preserve">6.44345855712891</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27410697937012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31442928314209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13701152801514</t>
+    <t xml:space="preserve">6.27410650253296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31442832946777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13701200485229</t>
   </si>
   <si>
     <t xml:space="preserve">6.16926908493042</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12894678115845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96765947341919</t>
+    <t xml:space="preserve">6.12894773483276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96765899658203</t>
   </si>
   <si>
     <t xml:space="preserve">5.89507913589478</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80637121200562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98781967163086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79024171829224</t>
+    <t xml:space="preserve">5.80637073516846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98782062530518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79024219512939</t>
   </si>
   <si>
     <t xml:space="preserve">5.76201677322388</t>
@@ -86,7 +86,7 @@
     <t xml:space="preserve">5.7660493850708</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78217744827271</t>
+    <t xml:space="preserve">5.78217792510986</t>
   </si>
   <si>
     <t xml:space="preserve">6.04023885726929</t>
@@ -101,7 +101,7 @@
     <t xml:space="preserve">5.98378801345825</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04830265045166</t>
+    <t xml:space="preserve">6.04830312728882</t>
   </si>
   <si>
     <t xml:space="preserve">5.89104747772217</t>
@@ -113,7 +113,7 @@
     <t xml:space="preserve">6.21765565872192</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19346284866333</t>
+    <t xml:space="preserve">6.19346237182617</t>
   </si>
   <si>
     <t xml:space="preserve">6.24991321563721</t>
@@ -128,7 +128,7 @@
     <t xml:space="preserve">6.24184846878052</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25394582748413</t>
+    <t xml:space="preserve">6.25394535064697</t>
   </si>
   <si>
     <t xml:space="preserve">6.4515233039856</t>
@@ -146,7 +146,7 @@
     <t xml:space="preserve">6.54829597473145</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54023122787476</t>
+    <t xml:space="preserve">6.54023170471191</t>
   </si>
   <si>
     <t xml:space="preserve">6.28217077255249</t>
@@ -155,22 +155,22 @@
     <t xml:space="preserve">6.12088298797607</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29829931259155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23781633377075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18539810180664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1974949836731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1531400680542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15717315673828</t>
+    <t xml:space="preserve">6.29829978942871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23781681060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18539762496948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19749450683594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15314054489136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15717267990112</t>
   </si>
   <si>
     <t xml:space="preserve">6.03217458724976</t>
@@ -179,10 +179,10 @@
     <t xml:space="preserve">6.06039953231812</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99185180664062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17733383178711</t>
+    <t xml:space="preserve">5.99185132980347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17733287811279</t>
   </si>
   <si>
     <t xml:space="preserve">6.09668922424316</t>
@@ -191,16 +191,16 @@
     <t xml:space="preserve">6.20152711868286</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14104318618774</t>
+    <t xml:space="preserve">6.14104413986206</t>
   </si>
   <si>
     <t xml:space="preserve">6.22572040557861</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16523742675781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2579779624939</t>
+    <t xml:space="preserve">6.16523694992065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25797843933105</t>
   </si>
   <si>
     <t xml:space="preserve">6.07652807235718</t>
@@ -209,37 +209,37 @@
     <t xml:space="preserve">6.14507532119751</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05636835098267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99991655349731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97975492477417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16120433807373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11685132980347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11281824111938</t>
+    <t xml:space="preserve">6.05636787414551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99991703033447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97975540161133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16120481491089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11685085296631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11281776428223</t>
   </si>
   <si>
     <t xml:space="preserve">6.23735046386719</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2707052230835</t>
+    <t xml:space="preserve">6.27070474624634</t>
   </si>
   <si>
     <t xml:space="preserve">6.11643934249878</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20399522781372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25402688980103</t>
+    <t xml:space="preserve">6.20399570465088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25402784347534</t>
   </si>
   <si>
     <t xml:space="preserve">6.13728618621826</t>
@@ -257,34 +257,34 @@
     <t xml:space="preserve">6.16230154037476</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33324575424194</t>
+    <t xml:space="preserve">6.33324527740479</t>
   </si>
   <si>
     <t xml:space="preserve">6.24151992797852</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17064094543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18314790725708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15396404266357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08725357055664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93715667724609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94966554641724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85376930236816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03722143173218</t>
+    <t xml:space="preserve">6.17064046859741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18314838409424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15396356582642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0872540473938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93715715408325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94966506958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85376977920532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03722095489502</t>
   </si>
   <si>
     <t xml:space="preserve">6.12894725799561</t>
@@ -293,10 +293,10 @@
     <t xml:space="preserve">6.08308410644531</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98718881607056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00386667251587</t>
+    <t xml:space="preserve">5.98718929290771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00386619567871</t>
   </si>
   <si>
     <t xml:space="preserve">5.89546394348145</t>
@@ -314,7 +314,7 @@
     <t xml:space="preserve">5.90797138214111</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16647100448608</t>
+    <t xml:space="preserve">6.1664719581604</t>
   </si>
   <si>
     <t xml:space="preserve">6.0580677986145</t>
@@ -323,7 +323,7 @@
     <t xml:space="preserve">6.14562463760376</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31239891052246</t>
+    <t xml:space="preserve">6.31239938735962</t>
   </si>
   <si>
     <t xml:space="preserve">6.19982671737671</t>
@@ -335,25 +335,25 @@
     <t xml:space="preserve">6.14145469665527</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22067308425903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29572153091431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17480945587158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19565629959106</t>
+    <t xml:space="preserve">6.22067260742188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29572105407715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17480993270874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19565582275391</t>
   </si>
   <si>
     <t xml:space="preserve">6.18731832504272</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12060832977295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19148731231689</t>
+    <t xml:space="preserve">6.12060880661011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19148778915405</t>
   </si>
   <si>
     <t xml:space="preserve">6.11226987838745</t>
@@ -365,13 +365,13 @@
     <t xml:space="preserve">6.01220560073853</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14979410171509</t>
+    <t xml:space="preserve">6.14979362487793</t>
   </si>
   <si>
     <t xml:space="preserve">6.02888250350952</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96634292602539</t>
+    <t xml:space="preserve">5.96634244918823</t>
   </si>
   <si>
     <t xml:space="preserve">5.99552774429321</t>
@@ -380,10 +380,10 @@
     <t xml:space="preserve">6.07891464233398</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99969720840454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04556035995483</t>
+    <t xml:space="preserve">5.99969816207886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04555988311768</t>
   </si>
   <si>
     <t xml:space="preserve">5.92881870269775</t>
@@ -392,16 +392,16 @@
     <t xml:space="preserve">5.97468137741089</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86627817153931</t>
+    <t xml:space="preserve">5.86627769470215</t>
   </si>
   <si>
     <t xml:space="preserve">5.85793924331665</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89129400253296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89963245391846</t>
+    <t xml:space="preserve">5.89129447937012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89963293075562</t>
   </si>
   <si>
     <t xml:space="preserve">5.79956817626953</t>
@@ -410,7 +410,7 @@
     <t xml:space="preserve">5.94549608230591</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9788498878479</t>
+    <t xml:space="preserve">5.97885036468506</t>
   </si>
   <si>
     <t xml:space="preserve">5.92047929763794</t>
@@ -419,46 +419,46 @@
     <t xml:space="preserve">5.96217346191406</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10393095016479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47083425521851</t>
+    <t xml:space="preserve">6.10393142700195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47083473205566</t>
   </si>
   <si>
     <t xml:space="preserve">6.49585008621216</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57923698425293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59591436386108</t>
+    <t xml:space="preserve">6.57923650741577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59591484069824</t>
   </si>
   <si>
     <t xml:space="preserve">6.50001955032349</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33741474151611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50418901443481</t>
+    <t xml:space="preserve">6.33741521835327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50418853759766</t>
   </si>
   <si>
     <t xml:space="preserve">6.42914056777954</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44581747055054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27904462814331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38327836990356</t>
+    <t xml:space="preserve">6.44581842422485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27904415130615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38327789306641</t>
   </si>
   <si>
     <t xml:space="preserve">6.42497158050537</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45415592193604</t>
+    <t xml:space="preserve">6.45415639877319</t>
   </si>
   <si>
     <t xml:space="preserve">6.42080163955688</t>
@@ -467,19 +467,19 @@
     <t xml:space="preserve">6.55422067642212</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38744688034058</t>
+    <t xml:space="preserve">6.38744640350342</t>
   </si>
   <si>
     <t xml:space="preserve">6.53754377365112</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37910842895508</t>
+    <t xml:space="preserve">6.37910795211792</t>
   </si>
   <si>
     <t xml:space="preserve">6.41663265228271</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34992218017578</t>
+    <t xml:space="preserve">6.3499231338501</t>
   </si>
   <si>
     <t xml:space="preserve">6.4374794960022</t>
@@ -491,16 +491,16 @@
     <t xml:space="preserve">6.0163745880127</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05389976501465</t>
+    <t xml:space="preserve">6.05389881134033</t>
   </si>
   <si>
     <t xml:space="preserve">6.06223726272583</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07057619094849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37076902389526</t>
+    <t xml:space="preserve">6.07057666778564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37076950073242</t>
   </si>
   <si>
     <t xml:space="preserve">6.41246318817139</t>
@@ -509,13 +509,13 @@
     <t xml:space="preserve">6.32907629013062</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45832586288452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28738212585449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21650409698486</t>
+    <t xml:space="preserve">6.45832633972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28738260269165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21650362014771</t>
   </si>
   <si>
     <t xml:space="preserve">6.74601125717163</t>
@@ -524,52 +524,52 @@
     <t xml:space="preserve">6.72933340072632</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69597959518433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77102661132812</t>
+    <t xml:space="preserve">6.69597864151001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77102708816528</t>
   </si>
   <si>
     <t xml:space="preserve">6.78770542144775</t>
   </si>
   <si>
-    <t xml:space="preserve">7.08789873123169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25467205047607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22965669631958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0837287902832</t>
+    <t xml:space="preserve">7.08789777755737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25467157363892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22965526580811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08372831344604</t>
   </si>
   <si>
     <t xml:space="preserve">7.06288242340088</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1295919418335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07122039794922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10457563400269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03786516189575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2588415145874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65492963790894</t>
+    <t xml:space="preserve">7.12959146499634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07121992111206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10457611083984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03786563873291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25884199142456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65493059158325</t>
   </si>
   <si>
     <t xml:space="preserve">7.6882848739624</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65076065063477</t>
+    <t xml:space="preserve">7.65076017379761</t>
   </si>
   <si>
     <t xml:space="preserve">7.13793087005615</t>
@@ -578,7 +578,7 @@
     <t xml:space="preserve">7.35473680496216</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49649381637573</t>
+    <t xml:space="preserve">7.49649477005005</t>
   </si>
   <si>
     <t xml:space="preserve">7.5298490524292</t>
@@ -587,7 +587,7 @@
     <t xml:space="preserve">7.54235792160034</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48815584182739</t>
+    <t xml:space="preserve">7.48815536499023</t>
   </si>
   <si>
     <t xml:space="preserve">7.32972097396851</t>
@@ -596,7 +596,7 @@
     <t xml:space="preserve">7.22131681442261</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15460681915283</t>
+    <t xml:space="preserve">7.15460729598999</t>
   </si>
   <si>
     <t xml:space="preserve">6.99200344085693</t>
@@ -605,10 +605,10 @@
     <t xml:space="preserve">7.12125253677368</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1087441444397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0920672416687</t>
+    <t xml:space="preserve">7.10874366760254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09206771850586</t>
   </si>
   <si>
     <t xml:space="preserve">7.05454349517822</t>
@@ -620,13 +620,13 @@
     <t xml:space="preserve">7.00451040267944</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06705188751221</t>
+    <t xml:space="preserve">7.06705236434937</t>
   </si>
   <si>
     <t xml:space="preserve">6.93780088424683</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96281814575195</t>
+    <t xml:space="preserve">6.96281719207764</t>
   </si>
   <si>
     <t xml:space="preserve">7.00867986679077</t>
@@ -638,16 +638,16 @@
     <t xml:space="preserve">7.32138109207153</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59655952453613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56320476531982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69662284851074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74665594100952</t>
+    <t xml:space="preserve">7.59655904769897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56320333480835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69662380218506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74665546417236</t>
   </si>
   <si>
     <t xml:space="preserve">7.7133002281189</t>
@@ -656,28 +656,28 @@
     <t xml:space="preserve">7.9592924118042</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06352615356445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08854198455811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13023662567139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90925979614258</t>
+    <t xml:space="preserve">8.06352710723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08854293823242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13023471832275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90925931930542</t>
   </si>
   <si>
     <t xml:space="preserve">8.31785678863525</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25114822387695</t>
+    <t xml:space="preserve">8.25114727020264</t>
   </si>
   <si>
     <t xml:space="preserve">8.31368827819824</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54717254638672</t>
+    <t xml:space="preserve">8.5471715927124</t>
   </si>
   <si>
     <t xml:space="preserve">8.55550956726074</t>
@@ -686,7 +686,7 @@
     <t xml:space="preserve">8.42209053039551</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45544528961182</t>
+    <t xml:space="preserve">8.45544624328613</t>
   </si>
   <si>
     <t xml:space="preserve">8.49713802337646</t>
@@ -698,7 +698,7 @@
     <t xml:space="preserve">8.69726848602295</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65557384490967</t>
+    <t xml:space="preserve">8.65557479858398</t>
   </si>
   <si>
     <t xml:space="preserve">8.58886432647705</t>
@@ -710,16 +710,16 @@
     <t xml:space="preserve">8.09688186645508</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82170343399048</t>
+    <t xml:space="preserve">7.82170438766479</t>
   </si>
   <si>
     <t xml:space="preserve">8.01766395568848</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23447036743164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57218742370605</t>
+    <t xml:space="preserve">8.23446941375732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57218647003174</t>
   </si>
   <si>
     <t xml:space="preserve">8.66391372680664</t>
@@ -737,19 +737,19 @@
     <t xml:space="preserve">9.51446056365967</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1565418243408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2315893173218</t>
+    <t xml:space="preserve">10.1565408706665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2315883636475</t>
   </si>
   <si>
     <t xml:space="preserve">10.5651378631592</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7652654647827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.831976890564</t>
+    <t xml:space="preserve">10.765266418457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8319749832153</t>
   </si>
   <si>
     <t xml:space="preserve">10.3650093078613</t>
@@ -764,7 +764,7 @@
     <t xml:space="preserve">10.5344476699829</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9449291229248</t>
+    <t xml:space="preserve">9.94492816925049</t>
   </si>
   <si>
     <t xml:space="preserve">10.1328916549683</t>
@@ -785,13 +785,13 @@
     <t xml:space="preserve">10.1499786376953</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4575538635254</t>
+    <t xml:space="preserve">10.4575548171997</t>
   </si>
   <si>
     <t xml:space="preserve">10.7822170257568</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7394971847534</t>
+    <t xml:space="preserve">10.7394981384277</t>
   </si>
   <si>
     <t xml:space="preserve">10.6882352828979</t>
@@ -800,31 +800,31 @@
     <t xml:space="preserve">10.5515365600586</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7993059158325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7224111557007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.705322265625</t>
+    <t xml:space="preserve">10.7993049621582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7224102020264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7053232192993</t>
   </si>
   <si>
     <t xml:space="preserve">10.7138671875</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4917287826538</t>
+    <t xml:space="preserve">10.4917278289795</t>
   </si>
   <si>
     <t xml:space="preserve">10.4319229125977</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3464841842651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3806610107422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1158037185669</t>
+    <t xml:space="preserve">10.3464851379395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3806600570679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1158046722412</t>
   </si>
   <si>
     <t xml:space="preserve">9.97910499572754</t>
@@ -839,7 +839,7 @@
     <t xml:space="preserve">9.68007278442383</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50065422058105</t>
+    <t xml:space="preserve">9.50065326690674</t>
   </si>
   <si>
     <t xml:space="preserve">9.16744709014893</t>
@@ -851,7 +851,7 @@
     <t xml:space="preserve">9.24434089660645</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26142883300781</t>
+    <t xml:space="preserve">9.26142978668213</t>
   </si>
   <si>
     <t xml:space="preserve">9.30414772033691</t>
@@ -860,7 +860,7 @@
     <t xml:space="preserve">9.29560375213623</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3981294631958</t>
+    <t xml:space="preserve">9.39812850952148</t>
   </si>
   <si>
     <t xml:space="preserve">9.27851581573486</t>
@@ -869,19 +869,19 @@
     <t xml:space="preserve">9.44084739685059</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75696563720703</t>
+    <t xml:space="preserve">9.75696659088135</t>
   </si>
   <si>
     <t xml:space="preserve">10.1670665740967</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1072607040405</t>
+    <t xml:space="preserve">10.1072597503662</t>
   </si>
   <si>
     <t xml:space="preserve">9.97056102752686</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91929721832275</t>
+    <t xml:space="preserve">9.91929817199707</t>
   </si>
   <si>
     <t xml:space="preserve">10.295223236084</t>
@@ -890,7 +890,7 @@
     <t xml:space="preserve">10.3037672042847</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3550300598145</t>
+    <t xml:space="preserve">10.3550310134888</t>
   </si>
   <si>
     <t xml:space="preserve">10.3293972015381</t>
@@ -899,7 +899,7 @@
     <t xml:space="preserve">10.3635740280151</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4404678344727</t>
+    <t xml:space="preserve">10.4404668807983</t>
   </si>
   <si>
     <t xml:space="preserve">10.2781352996826</t>
@@ -941,28 +941,28 @@
     <t xml:space="preserve">9.56900405883789</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45793437957764</t>
+    <t xml:space="preserve">9.45793533325195</t>
   </si>
   <si>
     <t xml:space="preserve">9.34686470031738</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44939231872559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51774215698242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58609294891357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33832359313965</t>
+    <t xml:space="preserve">9.44939136505127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51774120330811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58609199523926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33832263946533</t>
   </si>
   <si>
     <t xml:space="preserve">9.2699728012085</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65444183349609</t>
+    <t xml:space="preserve">9.65444278717041</t>
   </si>
   <si>
     <t xml:space="preserve">9.56046009063721</t>
@@ -971,13 +971,13 @@
     <t xml:space="preserve">9.91075420379639</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74842262268066</t>
+    <t xml:space="preserve">9.74842166900635</t>
   </si>
   <si>
     <t xml:space="preserve">9.71424770355225</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70570278167725</t>
+    <t xml:space="preserve">9.70570373535156</t>
   </si>
   <si>
     <t xml:space="preserve">9.82531642913818</t>
@@ -989,22 +989,22 @@
     <t xml:space="preserve">9.84240436553955</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86803436279297</t>
+    <t xml:space="preserve">9.86803531646729</t>
   </si>
   <si>
     <t xml:space="preserve">9.76551151275635</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73987865447998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69716167449951</t>
+    <t xml:space="preserve">9.73987770080566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6971607208252</t>
   </si>
   <si>
     <t xml:space="preserve">9.85949230194092</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79968643188477</t>
+    <t xml:space="preserve">9.79968547821045</t>
   </si>
   <si>
     <t xml:space="preserve">9.54337215423584</t>
@@ -1013,19 +1013,19 @@
     <t xml:space="preserve">9.20162296295166</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06492137908936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78297996520996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65482234954834</t>
+    <t xml:space="preserve">9.06492233276367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78297901153564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65482330322266</t>
   </si>
   <si>
     <t xml:space="preserve">8.13365364074707</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38569259643555</t>
+    <t xml:space="preserve">8.38569355010986</t>
   </si>
   <si>
     <t xml:space="preserve">8.1592845916748</t>
@@ -1043,7 +1043,7 @@
     <t xml:space="preserve">8.40278148651123</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25326633453369</t>
+    <t xml:space="preserve">8.25326538085938</t>
   </si>
   <si>
     <t xml:space="preserve">8.33016014099121</t>
@@ -1055,40 +1055,40 @@
     <t xml:space="preserve">8.372878074646</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35151958465576</t>
+    <t xml:space="preserve">8.35151863098145</t>
   </si>
   <si>
     <t xml:space="preserve">8.15074062347412</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09520721435547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9072437286377</t>
+    <t xml:space="preserve">8.09520816802979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90724325180054</t>
   </si>
   <si>
     <t xml:space="preserve">7.88161325454712</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85598182678223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96705055236816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91151571273804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01404094696045</t>
+    <t xml:space="preserve">7.85598087310791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96704959869385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91151666641235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01404190063477</t>
   </si>
   <si>
     <t xml:space="preserve">8.035400390625</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0781192779541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06957530975342</t>
+    <t xml:space="preserve">8.07811737060547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0695743560791</t>
   </si>
   <si>
     <t xml:space="preserve">8.31307220458984</t>
@@ -1097,13 +1097,13 @@
     <t xml:space="preserve">8.21909141540527</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20627403259277</t>
+    <t xml:space="preserve">8.20627498626709</t>
   </si>
   <si>
     <t xml:space="preserve">8.10802268981934</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13792419433594</t>
+    <t xml:space="preserve">8.13792610168457</t>
   </si>
   <si>
     <t xml:space="preserve">8.23190689086914</t>
@@ -1112,7 +1112,7 @@
     <t xml:space="preserve">8.28316974639893</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34724617004395</t>
+    <t xml:space="preserve">8.34724712371826</t>
   </si>
   <si>
     <t xml:space="preserve">8.48394680023193</t>
@@ -1124,7 +1124,7 @@
     <t xml:space="preserve">8.57792949676514</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80006694793701</t>
+    <t xml:space="preserve">8.8000659942627</t>
   </si>
   <si>
     <t xml:space="preserve">8.61210441589355</t>
@@ -1139,7 +1139,7 @@
     <t xml:space="preserve">8.71462917327881</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64627933502197</t>
+    <t xml:space="preserve">8.64627742767334</t>
   </si>
   <si>
     <t xml:space="preserve">8.52666473388672</t>
@@ -1151,13 +1151,13 @@
     <t xml:space="preserve">8.46685981750488</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44122791290283</t>
+    <t xml:space="preserve">8.44122886657715</t>
   </si>
   <si>
     <t xml:space="preserve">8.26180934906006</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0738468170166</t>
+    <t xml:space="preserve">8.07384777069092</t>
   </si>
   <si>
     <t xml:space="preserve">8.04821586608887</t>
@@ -1166,10 +1166,10 @@
     <t xml:space="preserve">7.97132253646851</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18491554260254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0311279296875</t>
+    <t xml:space="preserve">8.18491649627686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03112888336182</t>
   </si>
   <si>
     <t xml:space="preserve">8.381422996521</t>
@@ -1178,7 +1178,7 @@
     <t xml:space="preserve">8.9709415435791</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81715297698975</t>
+    <t xml:space="preserve">8.81715488433838</t>
   </si>
   <si>
     <t xml:space="preserve">8.88550281524658</t>
@@ -1190,7 +1190,7 @@
     <t xml:space="preserve">8.68045330047607</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66336631774902</t>
+    <t xml:space="preserve">8.66336727142334</t>
   </si>
   <si>
     <t xml:space="preserve">8.90259075164795</t>
@@ -1202,10 +1202,10 @@
     <t xml:space="preserve">9.43230438232422</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31269073486328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19307994842529</t>
+    <t xml:space="preserve">9.3126916885376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19307899475098</t>
   </si>
   <si>
     <t xml:space="preserve">9.17599201202393</t>
@@ -1220,16 +1220,16 @@
     <t xml:space="preserve">9.32977867126465</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48356628417969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2866792678833</t>
+    <t xml:space="preserve">9.483567237854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.286678314209</t>
   </si>
   <si>
     <t xml:space="preserve">10.6455163955688</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7480430603027</t>
+    <t xml:space="preserve">10.7480421066284</t>
   </si>
   <si>
     <t xml:space="preserve">10.6967792510986</t>
@@ -1241,7 +1241,7 @@
     <t xml:space="preserve">11.5169792175293</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4486293792725</t>
+    <t xml:space="preserve">11.4486303329468</t>
   </si>
   <si>
     <t xml:space="preserve">11.5511560440063</t>
@@ -1253,13 +1253,13 @@
     <t xml:space="preserve">11.9571056365967</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9202013015747</t>
+    <t xml:space="preserve">11.920202255249</t>
   </si>
   <si>
     <t xml:space="preserve">11.4957981109619</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3850831985474</t>
+    <t xml:space="preserve">11.3850841522217</t>
   </si>
   <si>
     <t xml:space="preserve">11.3666315078735</t>
@@ -1280,10 +1280,10 @@
     <t xml:space="preserve">10.683895111084</t>
   </si>
   <si>
-    <t xml:space="preserve">10.720799446106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5547294616699</t>
+    <t xml:space="preserve">10.7208013534546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5547285079956</t>
   </si>
   <si>
     <t xml:space="preserve">10.2410402297974</t>
@@ -1298,16 +1298,16 @@
     <t xml:space="preserve">10.1303253173828</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3517541885376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1487770080566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2963972091675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3333005905151</t>
+    <t xml:space="preserve">10.3517532348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1487789154053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2963962554932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3333015441895</t>
   </si>
   <si>
     <t xml:space="preserve">10.2041349411011</t>
@@ -1322,13 +1322,13 @@
     <t xml:space="preserve">10.5178241729736</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4071092605591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2779445648193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1672315597534</t>
+    <t xml:space="preserve">10.4071102142334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.277943611145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1672306060791</t>
   </si>
   <si>
     <t xml:space="preserve">9.85354137420654</t>
@@ -1346,10 +1346,10 @@
     <t xml:space="preserve">9.74282741546631</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79818439483643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72437381744385</t>
+    <t xml:space="preserve">9.79818344116211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72437477111816</t>
   </si>
   <si>
     <t xml:space="preserve">9.68747043609619</t>
@@ -1361,19 +1361,19 @@
     <t xml:space="preserve">9.76128005981445</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63211250305176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37378120422363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3184232711792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42913818359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39223384857178</t>
+    <t xml:space="preserve">9.63211154937744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37378025054932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31842422485352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42913722991943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39223289489746</t>
   </si>
   <si>
     <t xml:space="preserve">9.33687591552734</t>
@@ -1385,16 +1385,16 @@
     <t xml:space="preserve">9.15235233306885</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99550724029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94015026092529</t>
+    <t xml:space="preserve">8.99550819396973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94015121459961</t>
   </si>
   <si>
     <t xml:space="preserve">9.09699535369873</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02318572998047</t>
+    <t xml:space="preserve">9.02318668365479</t>
   </si>
   <si>
     <t xml:space="preserve">9.04163837432861</t>
@@ -1406,37 +1406,37 @@
     <t xml:space="preserve">8.58033084869385</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34044933319092</t>
+    <t xml:space="preserve">8.34045028686523</t>
   </si>
   <si>
     <t xml:space="preserve">8.9862813949585</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76485347747803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70026969909668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71872329711914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69104480743408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41425895690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5065221786499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46604251861572</t>
+    <t xml:space="preserve">8.76485443115234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.700270652771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71872234344482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69104385375977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4142599105835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50652122497559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46604156494141</t>
   </si>
   <si>
     <t xml:space="preserve">9.44758892059326</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26306533813477</t>
+    <t xml:space="preserve">9.26306629180908</t>
   </si>
   <si>
     <t xml:space="preserve">9.06931686401367</t>
@@ -1454,10 +1454,10 @@
     <t xml:space="preserve">9.0324125289917</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06009101867676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94937610626221</t>
+    <t xml:space="preserve">9.06009006500244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94937705993652</t>
   </si>
   <si>
     <t xml:space="preserve">8.9309253692627</t>
@@ -1466,19 +1466,19 @@
     <t xml:space="preserve">8.84788990020752</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89402008056641</t>
+    <t xml:space="preserve">8.89401912689209</t>
   </si>
   <si>
     <t xml:space="preserve">8.90324592590332</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83866310119629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77408123016357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65413951873779</t>
+    <t xml:space="preserve">8.83866405487061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77408027648926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65414047241211</t>
   </si>
   <si>
     <t xml:space="preserve">8.46961688995361</t>
@@ -1490,19 +1490,19 @@
     <t xml:space="preserve">8.30354595184326</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79610681533813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.759202003479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74075031280518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61158323287964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64848852157593</t>
+    <t xml:space="preserve">7.79610633850098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75920152664185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74075078964233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6115837097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64848804473877</t>
   </si>
   <si>
     <t xml:space="preserve">7.54700040817261</t>
@@ -1520,7 +1520,7 @@
     <t xml:space="preserve">7.15950155258179</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43628644943237</t>
+    <t xml:space="preserve">7.43628692626953</t>
   </si>
   <si>
     <t xml:space="preserve">7.21485900878906</t>
@@ -1529,25 +1529,25 @@
     <t xml:space="preserve">7.3532509803772</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37170314788818</t>
+    <t xml:space="preserve">7.37170267105103</t>
   </si>
   <si>
     <t xml:space="preserve">7.53777456283569</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47319078445435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82378482818604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86069059371948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74997520446777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51009654998779</t>
+    <t xml:space="preserve">7.47319221496582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82378530502319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86069011688232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74997663497925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51009607315063</t>
   </si>
   <si>
     <t xml:space="preserve">7.6392617225647</t>
@@ -1556,16 +1556,16 @@
     <t xml:space="preserve">7.62080955505371</t>
   </si>
   <si>
-    <t xml:space="preserve">7.3993821144104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56545209884644</t>
+    <t xml:space="preserve">7.39938259124756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56545257568359</t>
   </si>
   <si>
     <t xml:space="preserve">7.27944135665894</t>
   </si>
   <si>
-    <t xml:space="preserve">7.19640684127808</t>
+    <t xml:space="preserve">7.19640636444092</t>
   </si>
   <si>
     <t xml:space="preserve">7.20563220977783</t>
@@ -1577,13 +1577,13 @@
     <t xml:space="preserve">7.10414457321167</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49164390563965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59313011169434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5839056968689</t>
+    <t xml:space="preserve">7.49164342880249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59313058853149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58390522003174</t>
   </si>
   <si>
     <t xml:space="preserve">7.52854776382446</t>
@@ -1595,10 +1595,10 @@
     <t xml:space="preserve">7.34402465820312</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33479881286621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36247777938843</t>
+    <t xml:space="preserve">7.33479833602905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36247730255127</t>
   </si>
   <si>
     <t xml:space="preserve">7.29789352416992</t>
@@ -1613,13 +1613,13 @@
     <t xml:space="preserve">7.73152351379395</t>
   </si>
   <si>
-    <t xml:space="preserve">7.77765464782715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92527294158936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10056972503662</t>
+    <t xml:space="preserve">7.77765417098999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92527389526367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10057067871094</t>
   </si>
   <si>
     <t xml:space="preserve">8.43271160125732</t>
@@ -1631,7 +1631,7 @@
     <t xml:space="preserve">8.55265235900879</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4603910446167</t>
+    <t xml:space="preserve">8.46039009094238</t>
   </si>
   <si>
     <t xml:space="preserve">8.40503311157227</t>
@@ -1643,46 +1643,46 @@
     <t xml:space="preserve">9.08777046203613</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19848251342773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80175876617432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17080497741699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11544895172119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85711479187012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72794818878174</t>
+    <t xml:space="preserve">9.19848346710205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8017578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17080402374268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11544799804688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85711574554443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72794914245605</t>
   </si>
   <si>
     <t xml:space="preserve">8.92169857025146</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0785436630249</t>
+    <t xml:space="preserve">9.07854270935059</t>
   </si>
   <si>
     <t xml:space="preserve">8.97705459594727</t>
   </si>
   <si>
-    <t xml:space="preserve">8.96782970428467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91247177124023</t>
+    <t xml:space="preserve">8.96782875061035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91247272491455</t>
   </si>
   <si>
     <t xml:space="preserve">8.86634159088135</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87556838989258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64491367340088</t>
+    <t xml:space="preserve">8.87556743621826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64491271972656</t>
   </si>
   <si>
     <t xml:space="preserve">8.7464017868042</t>
@@ -1691,10 +1691,10 @@
     <t xml:space="preserve">8.31277179718018</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44193840026855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33122444152832</t>
+    <t xml:space="preserve">8.44193744659424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.331223487854</t>
   </si>
   <si>
     <t xml:space="preserve">8.1836051940918</t>
@@ -1709,10 +1709,10 @@
     <t xml:space="preserve">8.49729537963867</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51574611663818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53420066833496</t>
+    <t xml:space="preserve">8.5157470703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53419971466064</t>
   </si>
   <si>
     <t xml:space="preserve">8.5618782043457</t>
@@ -1724,7 +1724,7 @@
     <t xml:space="preserve">8.52497291564941</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57110404968262</t>
+    <t xml:space="preserve">8.57110500335693</t>
   </si>
   <si>
     <t xml:space="preserve">8.59878253936768</t>
@@ -1739,7 +1739,7 @@
     <t xml:space="preserve">8.60800838470459</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28066349029541</t>
+    <t xml:space="preserve">9.28066253662109</t>
   </si>
   <si>
     <t xml:space="preserve">8.76398658752441</t>
@@ -1760,7 +1760,7 @@
     <t xml:space="preserve">8.0425910949707</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35454559326172</t>
+    <t xml:space="preserve">8.35454654693604</t>
   </si>
   <si>
     <t xml:space="preserve">8.14982509613037</t>
@@ -1790,7 +1790,7 @@
     <t xml:space="preserve">8.02309322357178</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22781467437744</t>
+    <t xml:space="preserve">8.22781372070312</t>
   </si>
   <si>
     <t xml:space="preserve">8.3058032989502</t>
@@ -1823,7 +1823,7 @@
     <t xml:space="preserve">8.16932201385498</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18881893157959</t>
+    <t xml:space="preserve">8.18881988525391</t>
   </si>
   <si>
     <t xml:space="preserve">8.10108280181885</t>
@@ -1832,7 +1832,7 @@
     <t xml:space="preserve">8.00359630584717</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26680755615234</t>
+    <t xml:space="preserve">8.26680850982666</t>
   </si>
   <si>
     <t xml:space="preserve">8.21806526184082</t>
@@ -1862,40 +1862,40 @@
     <t xml:space="preserve">8.50077438354492</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39354038238525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34479808807373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28630542755127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51052284240723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5885124206543</t>
+    <t xml:space="preserve">8.39353942871094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34479713439941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28630638122559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51052188873291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58851146697998</t>
   </si>
   <si>
     <t xml:space="preserve">8.85172367095947</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21242237091064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20267391204834</t>
+    <t xml:space="preserve">9.21242141723633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20267295837402</t>
   </si>
   <si>
     <t xml:space="preserve">9.5828685760498</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45613574981689</t>
+    <t xml:space="preserve">9.45613670349121</t>
   </si>
   <si>
     <t xml:space="preserve">9.55362319946289</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52437686920166</t>
+    <t xml:space="preserve">9.52437782287598</t>
   </si>
   <si>
     <t xml:space="preserve">9.51462936401367</t>
@@ -1952,10 +1952,10 @@
     <t xml:space="preserve">9.53412532806396</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94356632232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47563457489014</t>
+    <t xml:space="preserve">9.94356727600098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47563362121582</t>
   </si>
   <si>
     <t xml:space="preserve">9.41714286804199</t>
@@ -1967,10 +1967,10 @@
     <t xml:space="preserve">9.44638824462891</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39764595031738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8460807800293</t>
+    <t xml:space="preserve">9.39764499664307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84608173370361</t>
   </si>
   <si>
     <t xml:space="preserve">9.7096004486084</t>
@@ -1979,22 +1979,22 @@
     <t xml:space="preserve">9.72909736633301</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18317699432373</t>
+    <t xml:space="preserve">9.18317604064941</t>
   </si>
   <si>
     <t xml:space="preserve">9.1636791229248</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1539306640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26116466522217</t>
+    <t xml:space="preserve">9.15393161773682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26116561889648</t>
   </si>
   <si>
     <t xml:space="preserve">9.23192024230957</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1441822052002</t>
+    <t xml:space="preserve">9.14418315887451</t>
   </si>
   <si>
     <t xml:space="preserve">9.17342758178711</t>
@@ -2012,7 +2012,7 @@
     <t xml:space="preserve">8.91996383666992</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78348445892334</t>
+    <t xml:space="preserve">8.78348350524902</t>
   </si>
   <si>
     <t xml:space="preserve">8.83222770690918</t>
@@ -2021,7 +2021,7 @@
     <t xml:space="preserve">8.99795246124268</t>
   </si>
   <si>
-    <t xml:space="preserve">9.05644416809082</t>
+    <t xml:space="preserve">9.05644512176514</t>
   </si>
   <si>
     <t xml:space="preserve">9.02719879150391</t>
@@ -2030,7 +2030,7 @@
     <t xml:space="preserve">9.22216987609863</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11493682861328</t>
+    <t xml:space="preserve">9.11493587493896</t>
   </si>
   <si>
     <t xml:space="preserve">9.03694725036621</t>
@@ -2039,10 +2039,10 @@
     <t xml:space="preserve">8.86147308349609</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38379192352295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89636182785034</t>
+    <t xml:space="preserve">8.38379287719727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89636278152466</t>
   </si>
   <si>
     <t xml:space="preserve">7.8476185798645</t>
@@ -2051,7 +2051,7 @@
     <t xml:space="preserve">7.66239547729492</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58440685272217</t>
+    <t xml:space="preserve">7.58440637588501</t>
   </si>
   <si>
     <t xml:space="preserve">7.67214393615723</t>
@@ -2060,7 +2060,7 @@
     <t xml:space="preserve">7.39918327331543</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57055282592773</t>
+    <t xml:space="preserve">6.57055234909058</t>
   </si>
   <si>
     <t xml:space="preserve">6.62904500961304</t>
@@ -2069,16 +2069,16 @@
     <t xml:space="preserve">6.49256372451782</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17650365829468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51770401000977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5720911026001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67932558059692</t>
+    <t xml:space="preserve">5.17650318145752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51770448684692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57209157943726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67932605743408</t>
   </si>
   <si>
     <t xml:space="preserve">4.51359939575195</t>
@@ -2105,7 +2105,7 @@
     <t xml:space="preserve">6.02463150024414</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92714548110962</t>
+    <t xml:space="preserve">5.92714595794678</t>
   </si>
   <si>
     <t xml:space="preserve">5.83940839767456</t>
@@ -2117,7 +2117,7 @@
     <t xml:space="preserve">6.0343804359436</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20010614395142</t>
+    <t xml:space="preserve">6.20010662078857</t>
   </si>
   <si>
     <t xml:space="preserve">6.43407249450684</t>
@@ -2129,7 +2129,7 @@
     <t xml:space="preserve">6.48281574249268</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26834630966187</t>
+    <t xml:space="preserve">6.26834583282471</t>
   </si>
   <si>
     <t xml:space="preserve">6.47306680679321</t>
@@ -2138,13 +2138,13 @@
     <t xml:space="preserve">6.5803017616272</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5900502204895</t>
+    <t xml:space="preserve">6.59005069732666</t>
   </si>
   <si>
     <t xml:space="preserve">7.34069204330444</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73063611984253</t>
+    <t xml:space="preserve">7.73063564300537</t>
   </si>
   <si>
     <t xml:space="preserve">7.60390424728394</t>
@@ -2153,7 +2153,7 @@
     <t xml:space="preserve">7.64289855957031</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76962995529175</t>
+    <t xml:space="preserve">7.76963043212891</t>
   </si>
   <si>
     <t xml:space="preserve">7.69164133071899</t>
@@ -2162,16 +2162,16 @@
     <t xml:space="preserve">7.44792604446411</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48692083358765</t>
+    <t xml:space="preserve">7.48692035675049</t>
   </si>
   <si>
     <t xml:space="preserve">7.24320602416992</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45767498016357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33094310760498</t>
+    <t xml:space="preserve">7.45767545700073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33094358444214</t>
   </si>
   <si>
     <t xml:space="preserve">7.49666929244995</t>
@@ -2186,249 +2186,252 @@
     <t xml:space="preserve">7.75013256072998</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90611028671265</t>
+    <t xml:space="preserve">7.90610980987549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37968683242798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61365270614624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65264701843262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7111382484436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5551609992981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36993789672852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36018896102905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28220081329346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57465839385986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59415531158447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56490993499756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43817758560181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38943481445312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40893173217773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50641822814941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7013897895813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63314962387085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46742391586304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35044050216675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31144618988037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52591514587402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74038410186768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94510459899902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88661336898804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79887580871582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78912687301636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41868114471436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32119464874268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26270294189453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21396017074585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17496585845947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27245187759399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75988149642944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77937841415405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53566360473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72088766098022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47717237472534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19446325302124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09697675704956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15546894073486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16521739959717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22370862960815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30169725418091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2919487953186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25295448303223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23345756530762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18471431732178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20421171188354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68189287185669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07748031616211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12622308731079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06773138046265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01898860931396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94099950790405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02873706817627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11647462844849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10672569274902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92150211334229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98974227905273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95074796676636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8727593421936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85326242446899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82401657104492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81426763534546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88250780105591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83376502990723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8630108833313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84351348876953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80451917648315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78502225875854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67778778076172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7265305519104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97999429702759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39928722381592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19347906112671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2718825340271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34048461914062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22288036346436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23268032073975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48749017715454</t>
   </si>
   <si>
     <t xml:space="preserve">7.37968635559082</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61365222930908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65264701843262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7111382484436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55516052246094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36993789672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36018943786621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2822003364563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57465839385986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59415531158447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56490993499756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43817758560181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38943481445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40893220901489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50641775131226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7013897895813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63314962387085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46742391586304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35044050216675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31144618988037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52591514587402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74038410186768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94510364532471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88661336898804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79887580871582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78912734985352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41868114471436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32119464874268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26270294189453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21396017074585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17496585845947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27245187759399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75988149642944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77937889099121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53566408157349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72088766098022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47717237472534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19446277618408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09697723388672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15546894073486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16521739959717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22370862960815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30169773101807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2919487953186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25295448303223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23345756530762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18471431732178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20421171188354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68189287185669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07747983932495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12622308731079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06773138046265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01898813247681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94099998474121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02873659133911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11647462844849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10672569274902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92150211334229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98974275588989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95074796676636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8727593421936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85326242446899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82401657104492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81426763534546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88250780105591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83376502990723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8630108833313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84351348876953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80451917648315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78502225875854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67778778076172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7265305519104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97999382019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39928722381592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19347906112671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2718825340271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34048461914062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22288036346436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23268032073975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48749017715454</t>
-  </si>
-  <si>
     <t xml:space="preserve">7.55609321594238</t>
   </si>
   <si>
@@ -3885,6 +3888,9 @@
   </si>
   <si>
     <t xml:space="preserve">24.8500003814697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4500007629395</t>
   </si>
 </sst>
 </file>
@@ -39734,7 +39740,7 @@
         <v>7.53000020980835</v>
       </c>
       <c r="G1366" t="s">
-        <v>725</v>
+        <v>805</v>
       </c>
       <c r="H1366" t="s">
         <v>9</v>
@@ -39760,7 +39766,7 @@
         <v>7.71000003814697</v>
       </c>
       <c r="G1367" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="H1367" t="s">
         <v>9</v>
@@ -39786,7 +39792,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G1368" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H1368" t="s">
         <v>9</v>
@@ -39812,7 +39818,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G1369" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="H1369" t="s">
         <v>9</v>
@@ -39838,7 +39844,7 @@
         <v>7.73000001907349</v>
       </c>
       <c r="G1370" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="H1370" t="s">
         <v>9</v>
@@ -39864,7 +39870,7 @@
         <v>7.67000007629395</v>
       </c>
       <c r="G1371" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H1371" t="s">
         <v>9</v>
@@ -39890,7 +39896,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G1372" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="H1372" t="s">
         <v>9</v>
@@ -39916,7 +39922,7 @@
         <v>7.92000007629395</v>
       </c>
       <c r="G1373" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H1373" t="s">
         <v>9</v>
@@ -39942,7 +39948,7 @@
         <v>8.05000019073486</v>
       </c>
       <c r="G1374" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H1374" t="s">
         <v>9</v>
@@ -39968,7 +39974,7 @@
         <v>8.28999996185303</v>
       </c>
       <c r="G1375" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H1375" t="s">
         <v>9</v>
@@ -39994,7 +40000,7 @@
         <v>8.26000022888184</v>
       </c>
       <c r="G1376" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H1376" t="s">
         <v>9</v>
@@ -40020,7 +40026,7 @@
         <v>8.3100004196167</v>
       </c>
       <c r="G1377" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="H1377" t="s">
         <v>9</v>
@@ -40046,7 +40052,7 @@
         <v>8.22999954223633</v>
       </c>
       <c r="G1378" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="H1378" t="s">
         <v>9</v>
@@ -40072,7 +40078,7 @@
         <v>8.31999969482422</v>
       </c>
       <c r="G1379" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="H1379" t="s">
         <v>9</v>
@@ -40098,7 +40104,7 @@
         <v>8.35000038146973</v>
       </c>
       <c r="G1380" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="H1380" t="s">
         <v>9</v>
@@ -40124,7 +40130,7 @@
         <v>8.42000007629395</v>
       </c>
       <c r="G1381" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H1381" t="s">
         <v>9</v>
@@ -40150,7 +40156,7 @@
         <v>8.35999965667725</v>
       </c>
       <c r="G1382" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="H1382" t="s">
         <v>9</v>
@@ -40176,7 +40182,7 @@
         <v>8.35000038146973</v>
       </c>
       <c r="G1383" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="H1383" t="s">
         <v>9</v>
@@ -40202,7 +40208,7 @@
         <v>8.22999954223633</v>
       </c>
       <c r="G1384" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="H1384" t="s">
         <v>9</v>
@@ -40228,7 +40234,7 @@
         <v>8.1899995803833</v>
       </c>
       <c r="G1385" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="H1385" t="s">
         <v>9</v>
@@ -40254,7 +40260,7 @@
         <v>8.10999965667725</v>
       </c>
       <c r="G1386" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="H1386" t="s">
         <v>9</v>
@@ -40280,7 +40286,7 @@
         <v>8</v>
       </c>
       <c r="G1387" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="H1387" t="s">
         <v>9</v>
@@ -40306,7 +40312,7 @@
         <v>7.80999994277954</v>
       </c>
       <c r="G1388" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="H1388" t="s">
         <v>9</v>
@@ -40332,7 +40338,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G1389" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="H1389" t="s">
         <v>9</v>
@@ -40358,7 +40364,7 @@
         <v>7.78000020980835</v>
       </c>
       <c r="G1390" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="H1390" t="s">
         <v>9</v>
@@ -40384,7 +40390,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G1391" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="H1391" t="s">
         <v>9</v>
@@ -40410,7 +40416,7 @@
         <v>7.94000005722046</v>
       </c>
       <c r="G1392" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H1392" t="s">
         <v>9</v>
@@ -40436,7 +40442,7 @@
         <v>7.80999994277954</v>
       </c>
       <c r="G1393" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="H1393" t="s">
         <v>9</v>
@@ -40462,7 +40468,7 @@
         <v>7.76000022888184</v>
       </c>
       <c r="G1394" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H1394" t="s">
         <v>9</v>
@@ -40488,7 +40494,7 @@
         <v>7.82999992370605</v>
       </c>
       <c r="G1395" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="H1395" t="s">
         <v>9</v>
@@ -40514,7 +40520,7 @@
         <v>7.78000020980835</v>
       </c>
       <c r="G1396" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="H1396" t="s">
         <v>9</v>
@@ -40540,7 +40546,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G1397" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="H1397" t="s">
         <v>9</v>
@@ -40566,7 +40572,7 @@
         <v>7.78000020980835</v>
       </c>
       <c r="G1398" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="H1398" t="s">
         <v>9</v>
@@ -40592,7 +40598,7 @@
         <v>7.86999988555908</v>
       </c>
       <c r="G1399" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="H1399" t="s">
         <v>9</v>
@@ -40618,7 +40624,7 @@
         <v>7.94999980926514</v>
       </c>
       <c r="G1400" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="H1400" t="s">
         <v>9</v>
@@ -40644,7 +40650,7 @@
         <v>7.90999984741211</v>
       </c>
       <c r="G1401" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="H1401" t="s">
         <v>9</v>
@@ -40670,7 +40676,7 @@
         <v>7.78000020980835</v>
       </c>
       <c r="G1402" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="H1402" t="s">
         <v>9</v>
@@ -40696,7 +40702,7 @@
         <v>7.88000011444092</v>
       </c>
       <c r="G1403" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="H1403" t="s">
         <v>9</v>
@@ -40722,7 +40728,7 @@
         <v>7.88000011444092</v>
       </c>
       <c r="G1404" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="H1404" t="s">
         <v>9</v>
@@ -40748,7 +40754,7 @@
         <v>7.90999984741211</v>
       </c>
       <c r="G1405" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="H1405" t="s">
         <v>9</v>
@@ -40774,7 +40780,7 @@
         <v>7.92000007629395</v>
       </c>
       <c r="G1406" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H1406" t="s">
         <v>9</v>
@@ -40800,7 +40806,7 @@
         <v>8.03999996185303</v>
       </c>
       <c r="G1407" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H1407" t="s">
         <v>9</v>
@@ -40826,7 +40832,7 @@
         <v>7.8600001335144</v>
       </c>
       <c r="G1408" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="H1408" t="s">
         <v>9</v>
@@ -40852,7 +40858,7 @@
         <v>7.75</v>
       </c>
       <c r="G1409" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="H1409" t="s">
         <v>9</v>
@@ -40878,7 +40884,7 @@
         <v>7.82000017166138</v>
       </c>
       <c r="G1410" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -40904,7 +40910,7 @@
         <v>7.84999990463257</v>
       </c>
       <c r="G1411" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="H1411" t="s">
         <v>9</v>
@@ -40930,7 +40936,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G1412" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="H1412" t="s">
         <v>9</v>
@@ -40956,7 +40962,7 @@
         <v>7.8600001335144</v>
       </c>
       <c r="G1413" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="H1413" t="s">
         <v>9</v>
@@ -40982,7 +40988,7 @@
         <v>7.8600001335144</v>
       </c>
       <c r="G1414" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="H1414" t="s">
         <v>9</v>
@@ -41008,7 +41014,7 @@
         <v>7.75</v>
       </c>
       <c r="G1415" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="H1415" t="s">
         <v>9</v>
@@ -41034,7 +41040,7 @@
         <v>7.76999998092651</v>
       </c>
       <c r="G1416" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="H1416" t="s">
         <v>9</v>
@@ -41060,7 +41066,7 @@
         <v>7.78000020980835</v>
       </c>
       <c r="G1417" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="H1417" t="s">
         <v>9</v>
@@ -41086,7 +41092,7 @@
         <v>8</v>
       </c>
       <c r="G1418" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="H1418" t="s">
         <v>9</v>
@@ -41112,7 +41118,7 @@
         <v>8.0600004196167</v>
       </c>
       <c r="G1419" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="H1419" t="s">
         <v>9</v>
@@ -41138,7 +41144,7 @@
         <v>8.02000045776367</v>
       </c>
       <c r="G1420" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="H1420" t="s">
         <v>9</v>
@@ -41164,7 +41170,7 @@
         <v>8.01000022888184</v>
       </c>
       <c r="G1421" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="H1421" t="s">
         <v>9</v>
@@ -41190,7 +41196,7 @@
         <v>8.23999977111816</v>
       </c>
       <c r="G1422" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H1422" t="s">
         <v>9</v>
@@ -41216,7 +41222,7 @@
         <v>8.0600004196167</v>
       </c>
       <c r="G1423" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="H1423" t="s">
         <v>9</v>
@@ -41242,7 +41248,7 @@
         <v>8.15999984741211</v>
       </c>
       <c r="G1424" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="H1424" t="s">
         <v>9</v>
@@ -41268,7 +41274,7 @@
         <v>8.35000038146973</v>
       </c>
       <c r="G1425" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="H1425" t="s">
         <v>9</v>
@@ -41294,7 +41300,7 @@
         <v>8.52000045776367</v>
       </c>
       <c r="G1426" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="H1426" t="s">
         <v>9</v>
@@ -41320,7 +41326,7 @@
         <v>8.5</v>
       </c>
       <c r="G1427" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="H1427" t="s">
         <v>9</v>
@@ -41346,7 +41352,7 @@
         <v>8.42000007629395</v>
       </c>
       <c r="G1428" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H1428" t="s">
         <v>9</v>
@@ -41372,7 +41378,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G1429" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -41398,7 +41404,7 @@
         <v>8.42000007629395</v>
       </c>
       <c r="G1430" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -41424,7 +41430,7 @@
         <v>8.68000030517578</v>
       </c>
       <c r="G1431" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="H1431" t="s">
         <v>9</v>
@@ -41450,7 +41456,7 @@
         <v>8.56999969482422</v>
       </c>
       <c r="G1432" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="H1432" t="s">
         <v>9</v>
@@ -41476,7 +41482,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G1433" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="H1433" t="s">
         <v>9</v>
@@ -41502,7 +41508,7 @@
         <v>8.56999969482422</v>
       </c>
       <c r="G1434" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="H1434" t="s">
         <v>9</v>
@@ -41528,7 +41534,7 @@
         <v>8.57999992370605</v>
       </c>
       <c r="G1435" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="H1435" t="s">
         <v>9</v>
@@ -41554,7 +41560,7 @@
         <v>8.68000030517578</v>
       </c>
       <c r="G1436" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="H1436" t="s">
         <v>9</v>
@@ -41580,7 +41586,7 @@
         <v>8.77000045776367</v>
       </c>
       <c r="G1437" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="H1437" t="s">
         <v>9</v>
@@ -41606,7 +41612,7 @@
         <v>8.98999977111816</v>
       </c>
       <c r="G1438" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="H1438" t="s">
         <v>9</v>
@@ -41632,7 +41638,7 @@
         <v>8.90999984741211</v>
       </c>
       <c r="G1439" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="H1439" t="s">
         <v>9</v>
@@ -41658,7 +41664,7 @@
         <v>8.92000007629395</v>
       </c>
       <c r="G1440" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="H1440" t="s">
         <v>9</v>
@@ -41684,7 +41690,7 @@
         <v>9.0600004196167</v>
       </c>
       <c r="G1441" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="H1441" t="s">
         <v>9</v>
@@ -41710,7 +41716,7 @@
         <v>9.27000045776367</v>
       </c>
       <c r="G1442" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="H1442" t="s">
         <v>9</v>
@@ -41736,7 +41742,7 @@
         <v>9.22000026702881</v>
       </c>
       <c r="G1443" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="H1443" t="s">
         <v>9</v>
@@ -41762,7 +41768,7 @@
         <v>9.35999965667725</v>
       </c>
       <c r="G1444" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="H1444" t="s">
         <v>9</v>
@@ -41788,7 +41794,7 @@
         <v>9.28999996185303</v>
       </c>
       <c r="G1445" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="H1445" t="s">
         <v>9</v>
@@ -41814,7 +41820,7 @@
         <v>9</v>
       </c>
       <c r="G1446" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="H1446" t="s">
         <v>9</v>
@@ -41840,7 +41846,7 @@
         <v>8.98999977111816</v>
       </c>
       <c r="G1447" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="H1447" t="s">
         <v>9</v>
@@ -41866,7 +41872,7 @@
         <v>9.05000019073486</v>
       </c>
       <c r="G1448" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="H1448" t="s">
         <v>9</v>
@@ -41892,7 +41898,7 @@
         <v>8.8100004196167</v>
       </c>
       <c r="G1449" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="H1449" t="s">
         <v>9</v>
@@ -41918,7 +41924,7 @@
         <v>8.78999996185303</v>
       </c>
       <c r="G1450" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="H1450" t="s">
         <v>9</v>
@@ -41944,7 +41950,7 @@
         <v>8.64000034332275</v>
       </c>
       <c r="G1451" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="H1451" t="s">
         <v>9</v>
@@ -41970,7 +41976,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G1452" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="H1452" t="s">
         <v>9</v>
@@ -41996,7 +42002,7 @@
         <v>8.75</v>
       </c>
       <c r="G1453" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="H1453" t="s">
         <v>9</v>
@@ -42022,7 +42028,7 @@
         <v>8.47000026702881</v>
       </c>
       <c r="G1454" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="H1454" t="s">
         <v>9</v>
@@ -42048,7 +42054,7 @@
         <v>8.52999973297119</v>
       </c>
       <c r="G1455" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="H1455" t="s">
         <v>9</v>
@@ -42074,7 +42080,7 @@
         <v>8.55000019073486</v>
       </c>
       <c r="G1456" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="H1456" t="s">
         <v>9</v>
@@ -42100,7 +42106,7 @@
         <v>8.67000007629395</v>
       </c>
       <c r="G1457" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="H1457" t="s">
         <v>9</v>
@@ -42126,7 +42132,7 @@
         <v>8.69999980926514</v>
       </c>
       <c r="G1458" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="H1458" t="s">
         <v>9</v>
@@ -42152,7 +42158,7 @@
         <v>8.78999996185303</v>
       </c>
       <c r="G1459" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="H1459" t="s">
         <v>9</v>
@@ -42178,7 +42184,7 @@
         <v>8.64000034332275</v>
       </c>
       <c r="G1460" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="H1460" t="s">
         <v>9</v>
@@ -42204,7 +42210,7 @@
         <v>8.6899995803833</v>
       </c>
       <c r="G1461" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="H1461" t="s">
         <v>9</v>
@@ -42230,7 +42236,7 @@
         <v>8.72000026702881</v>
       </c>
       <c r="G1462" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="H1462" t="s">
         <v>9</v>
@@ -42256,7 +42262,7 @@
         <v>8.64000034332275</v>
       </c>
       <c r="G1463" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="H1463" t="s">
         <v>9</v>
@@ -42282,7 +42288,7 @@
         <v>8.38000011444092</v>
       </c>
       <c r="G1464" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="H1464" t="s">
         <v>9</v>
@@ -42308,7 +42314,7 @@
         <v>8.46000003814697</v>
       </c>
       <c r="G1465" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="H1465" t="s">
         <v>9</v>
@@ -42334,7 +42340,7 @@
         <v>8.39999961853027</v>
       </c>
       <c r="G1466" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="H1466" t="s">
         <v>9</v>
@@ -42360,7 +42366,7 @@
         <v>8.5</v>
       </c>
       <c r="G1467" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="H1467" t="s">
         <v>9</v>
@@ -42386,7 +42392,7 @@
         <v>8.36999988555908</v>
       </c>
       <c r="G1468" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="H1468" t="s">
         <v>9</v>
@@ -42412,7 +42418,7 @@
         <v>8.43000030517578</v>
       </c>
       <c r="G1469" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H1469" t="s">
         <v>9</v>
@@ -42438,7 +42444,7 @@
         <v>8.47999954223633</v>
       </c>
       <c r="G1470" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H1470" t="s">
         <v>9</v>
@@ -42464,7 +42470,7 @@
         <v>8.55000019073486</v>
       </c>
       <c r="G1471" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="H1471" t="s">
         <v>9</v>
@@ -42490,7 +42496,7 @@
         <v>8.55000019073486</v>
       </c>
       <c r="G1472" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="H1472" t="s">
         <v>9</v>
@@ -42516,7 +42522,7 @@
         <v>8.44999980926514</v>
       </c>
       <c r="G1473" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1473" t="s">
         <v>9</v>
@@ -42542,7 +42548,7 @@
         <v>8.5600004196167</v>
       </c>
       <c r="G1474" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="H1474" t="s">
         <v>9</v>
@@ -42568,7 +42574,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G1475" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="H1475" t="s">
         <v>9</v>
@@ -42594,7 +42600,7 @@
         <v>8.88000011444092</v>
       </c>
       <c r="G1476" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="H1476" t="s">
         <v>9</v>
@@ -42620,7 +42626,7 @@
         <v>8.81999969482422</v>
       </c>
       <c r="G1477" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="H1477" t="s">
         <v>9</v>
@@ -42646,7 +42652,7 @@
         <v>8.85000038146973</v>
       </c>
       <c r="G1478" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="H1478" t="s">
         <v>9</v>
@@ -42672,7 +42678,7 @@
         <v>8.65999984741211</v>
       </c>
       <c r="G1479" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H1479" t="s">
         <v>9</v>
@@ -42698,7 +42704,7 @@
         <v>8.73999977111816</v>
       </c>
       <c r="G1480" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="H1480" t="s">
         <v>9</v>
@@ -42724,7 +42730,7 @@
         <v>8.78999996185303</v>
       </c>
       <c r="G1481" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="H1481" t="s">
         <v>9</v>
@@ -42750,7 +42756,7 @@
         <v>8.78999996185303</v>
       </c>
       <c r="G1482" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="H1482" t="s">
         <v>9</v>
@@ -42776,7 +42782,7 @@
         <v>8.84000015258789</v>
       </c>
       <c r="G1483" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="H1483" t="s">
         <v>9</v>
@@ -42802,7 +42808,7 @@
         <v>9.07999992370605</v>
       </c>
       <c r="G1484" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H1484" t="s">
         <v>9</v>
@@ -42828,7 +42834,7 @@
         <v>8.94999980926514</v>
       </c>
       <c r="G1485" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="H1485" t="s">
         <v>9</v>
@@ -42854,7 +42860,7 @@
         <v>9.09000015258789</v>
       </c>
       <c r="G1486" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="H1486" t="s">
         <v>9</v>
@@ -42880,7 +42886,7 @@
         <v>9.26000022888184</v>
       </c>
       <c r="G1487" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="H1487" t="s">
         <v>9</v>
@@ -42906,7 +42912,7 @@
         <v>9.35999965667725</v>
       </c>
       <c r="G1488" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="H1488" t="s">
         <v>9</v>
@@ -42932,7 +42938,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G1489" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="H1489" t="s">
         <v>9</v>
@@ -42958,7 +42964,7 @@
         <v>10.0200004577637</v>
       </c>
       <c r="G1490" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="H1490" t="s">
         <v>9</v>
@@ -42984,7 +42990,7 @@
         <v>10.1599998474121</v>
       </c>
       <c r="G1491" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="H1491" t="s">
         <v>9</v>
@@ -43010,7 +43016,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G1492" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="H1492" t="s">
         <v>9</v>
@@ -43036,7 +43042,7 @@
         <v>10.6400003433228</v>
       </c>
       <c r="G1493" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="H1493" t="s">
         <v>9</v>
@@ -43062,7 +43068,7 @@
         <v>10.6599998474121</v>
       </c>
       <c r="G1494" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="H1494" t="s">
         <v>9</v>
@@ -43088,7 +43094,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G1495" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="H1495" t="s">
         <v>9</v>
@@ -43114,7 +43120,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G1496" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="H1496" t="s">
         <v>9</v>
@@ -43140,7 +43146,7 @@
         <v>10.039999961853</v>
       </c>
       <c r="G1497" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H1497" t="s">
         <v>9</v>
@@ -43166,7 +43172,7 @@
         <v>9.77000045776367</v>
       </c>
       <c r="G1498" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="H1498" t="s">
         <v>9</v>
@@ -43192,7 +43198,7 @@
         <v>9.67000007629395</v>
       </c>
       <c r="G1499" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="H1499" t="s">
         <v>9</v>
@@ -43218,7 +43224,7 @@
         <v>9.39000034332275</v>
       </c>
       <c r="G1500" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="H1500" t="s">
         <v>9</v>
@@ -43244,7 +43250,7 @@
         <v>9.32999992370605</v>
       </c>
       <c r="G1501" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="H1501" t="s">
         <v>9</v>
@@ -43270,7 +43276,7 @@
         <v>9.35000038146973</v>
       </c>
       <c r="G1502" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="H1502" t="s">
         <v>9</v>
@@ -43296,7 +43302,7 @@
         <v>9.10000038146973</v>
       </c>
       <c r="G1503" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="H1503" t="s">
         <v>9</v>
@@ -43322,7 +43328,7 @@
         <v>9.14999961853027</v>
       </c>
       <c r="G1504" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="H1504" t="s">
         <v>9</v>
@@ -43348,7 +43354,7 @@
         <v>9.39999961853027</v>
       </c>
       <c r="G1505" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="H1505" t="s">
         <v>9</v>
@@ -43374,7 +43380,7 @@
         <v>9.57999992370605</v>
       </c>
       <c r="G1506" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="H1506" t="s">
         <v>9</v>
@@ -43400,7 +43406,7 @@
         <v>9.39999961853027</v>
       </c>
       <c r="G1507" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="H1507" t="s">
         <v>9</v>
@@ -43426,7 +43432,7 @@
         <v>9.3100004196167</v>
       </c>
       <c r="G1508" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="H1508" t="s">
         <v>9</v>
@@ -43452,7 +43458,7 @@
         <v>9.34000015258789</v>
       </c>
       <c r="G1509" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="H1509" t="s">
         <v>9</v>
@@ -43478,7 +43484,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G1510" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="H1510" t="s">
         <v>9</v>
@@ -43504,7 +43510,7 @@
         <v>9.35000038146973</v>
       </c>
       <c r="G1511" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="H1511" t="s">
         <v>9</v>
@@ -43530,7 +43536,7 @@
         <v>9.36999988555908</v>
       </c>
       <c r="G1512" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="H1512" t="s">
         <v>9</v>
@@ -43556,7 +43562,7 @@
         <v>9.39999961853027</v>
       </c>
       <c r="G1513" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="H1513" t="s">
         <v>9</v>
@@ -43582,7 +43588,7 @@
         <v>9.5</v>
       </c>
       <c r="G1514" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="H1514" t="s">
         <v>9</v>
@@ -43608,7 +43614,7 @@
         <v>9.27000045776367</v>
       </c>
       <c r="G1515" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="H1515" t="s">
         <v>9</v>
@@ -43634,7 +43640,7 @@
         <v>9.18000030517578</v>
       </c>
       <c r="G1516" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -43660,7 +43666,7 @@
         <v>9.35000038146973</v>
       </c>
       <c r="G1517" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="H1517" t="s">
         <v>9</v>
@@ -43686,7 +43692,7 @@
         <v>9.35999965667725</v>
       </c>
       <c r="G1518" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -43712,7 +43718,7 @@
         <v>9.38000011444092</v>
       </c>
       <c r="G1519" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -43738,7 +43744,7 @@
         <v>9.44999980926514</v>
       </c>
       <c r="G1520" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="H1520" t="s">
         <v>9</v>
@@ -43764,7 +43770,7 @@
         <v>9.61999988555908</v>
       </c>
       <c r="G1521" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -43790,7 +43796,7 @@
         <v>9.89000034332275</v>
       </c>
       <c r="G1522" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -43816,7 +43822,7 @@
         <v>9.84000015258789</v>
       </c>
       <c r="G1523" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="H1523" t="s">
         <v>9</v>
@@ -43842,7 +43848,7 @@
         <v>9.80000019073486</v>
       </c>
       <c r="G1524" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="H1524" t="s">
         <v>9</v>
@@ -43868,7 +43874,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G1525" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="H1525" t="s">
         <v>9</v>
@@ -43894,7 +43900,7 @@
         <v>10.1400003433228</v>
       </c>
       <c r="G1526" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -43920,7 +43926,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G1527" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -43946,7 +43952,7 @@
         <v>9.9399995803833</v>
       </c>
       <c r="G1528" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -43972,7 +43978,7 @@
         <v>9.88000011444092</v>
       </c>
       <c r="G1529" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -43998,7 +44004,7 @@
         <v>9.85999965667725</v>
       </c>
       <c r="G1530" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -44024,7 +44030,7 @@
         <v>9.72000026702881</v>
       </c>
       <c r="G1531" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -44050,7 +44056,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G1532" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -44076,7 +44082,7 @@
         <v>9.4399995803833</v>
       </c>
       <c r="G1533" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -44102,7 +44108,7 @@
         <v>9.43000030517578</v>
       </c>
       <c r="G1534" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="H1534" t="s">
         <v>9</v>
@@ -44128,7 +44134,7 @@
         <v>9.47000026702881</v>
       </c>
       <c r="G1535" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="H1535" t="s">
         <v>9</v>
@@ -44154,7 +44160,7 @@
         <v>9.48999977111816</v>
       </c>
       <c r="G1536" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="H1536" t="s">
         <v>9</v>
@@ -44180,7 +44186,7 @@
         <v>9.46000003814697</v>
       </c>
       <c r="G1537" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -44206,7 +44212,7 @@
         <v>9.27000045776367</v>
       </c>
       <c r="G1538" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="H1538" t="s">
         <v>9</v>
@@ -44232,7 +44238,7 @@
         <v>9.25</v>
       </c>
       <c r="G1539" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -44258,7 +44264,7 @@
         <v>9.35000038146973</v>
       </c>
       <c r="G1540" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="H1540" t="s">
         <v>9</v>
@@ -44284,7 +44290,7 @@
         <v>9.22999954223633</v>
       </c>
       <c r="G1541" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -44310,7 +44316,7 @@
         <v>8.8100004196167</v>
       </c>
       <c r="G1542" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="H1542" t="s">
         <v>9</v>
@@ -44336,7 +44342,7 @@
         <v>8.98999977111816</v>
       </c>
       <c r="G1543" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -44362,7 +44368,7 @@
         <v>8.80000019073486</v>
       </c>
       <c r="G1544" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -44388,7 +44394,7 @@
         <v>8.72999954223633</v>
       </c>
       <c r="G1545" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -44414,7 +44420,7 @@
         <v>8.61999988555908</v>
       </c>
       <c r="G1546" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="H1546" t="s">
         <v>9</v>
@@ -44440,7 +44446,7 @@
         <v>8.85000038146973</v>
       </c>
       <c r="G1547" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -44466,7 +44472,7 @@
         <v>8.85000038146973</v>
       </c>
       <c r="G1548" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -44492,7 +44498,7 @@
         <v>9.01000022888184</v>
       </c>
       <c r="G1549" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -44518,7 +44524,7 @@
         <v>8.8100004196167</v>
       </c>
       <c r="G1550" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -44544,7 +44550,7 @@
         <v>8.64999961853027</v>
       </c>
       <c r="G1551" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -44570,7 +44576,7 @@
         <v>8.5</v>
       </c>
       <c r="G1552" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -44596,7 +44602,7 @@
         <v>8.46000003814697</v>
       </c>
       <c r="G1553" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -44622,7 +44628,7 @@
         <v>8.51000022888184</v>
       </c>
       <c r="G1554" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -44648,7 +44654,7 @@
         <v>8.60999965667725</v>
       </c>
       <c r="G1555" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -44674,7 +44680,7 @@
         <v>8.64999961853027</v>
       </c>
       <c r="G1556" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -44700,7 +44706,7 @@
         <v>8.5</v>
       </c>
       <c r="G1557" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -44726,7 +44732,7 @@
         <v>8.84000015258789</v>
       </c>
       <c r="G1558" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -44752,7 +44758,7 @@
         <v>8.96000003814697</v>
       </c>
       <c r="G1559" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="H1559" t="s">
         <v>9</v>
@@ -44778,7 +44784,7 @@
         <v>8.63000011444092</v>
       </c>
       <c r="G1560" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -44804,7 +44810,7 @@
         <v>8.55000019073486</v>
       </c>
       <c r="G1561" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -44830,7 +44836,7 @@
         <v>8.61999988555908</v>
       </c>
       <c r="G1562" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="H1562" t="s">
         <v>9</v>
@@ -44856,7 +44862,7 @@
         <v>8.69999980926514</v>
       </c>
       <c r="G1563" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -44882,7 +44888,7 @@
         <v>8.68000030517578</v>
       </c>
       <c r="G1564" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="H1564" t="s">
         <v>9</v>
@@ -44908,7 +44914,7 @@
         <v>8.26000022888184</v>
       </c>
       <c r="G1565" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -44934,7 +44940,7 @@
         <v>8.71000003814697</v>
       </c>
       <c r="G1566" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -44960,7 +44966,7 @@
         <v>9.03999996185303</v>
       </c>
       <c r="G1567" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -44986,7 +44992,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G1568" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -45012,7 +45018,7 @@
         <v>9.19999980926514</v>
       </c>
       <c r="G1569" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -45038,7 +45044,7 @@
         <v>8.80000019073486</v>
       </c>
       <c r="G1570" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -45064,7 +45070,7 @@
         <v>8.27000045776367</v>
       </c>
       <c r="G1571" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -45090,7 +45096,7 @@
         <v>8.36999988555908</v>
       </c>
       <c r="G1572" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -45116,7 +45122,7 @@
         <v>8.39000034332275</v>
       </c>
       <c r="G1573" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -45142,7 +45148,7 @@
         <v>8.98999977111816</v>
       </c>
       <c r="G1574" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -45168,7 +45174,7 @@
         <v>9.11999988555908</v>
       </c>
       <c r="G1575" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -45194,7 +45200,7 @@
         <v>9.18000030517578</v>
       </c>
       <c r="G1576" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -45220,7 +45226,7 @@
         <v>9.27999973297119</v>
       </c>
       <c r="G1577" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -45246,7 +45252,7 @@
         <v>9.26000022888184</v>
       </c>
       <c r="G1578" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -45272,7 +45278,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G1579" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="H1579" t="s">
         <v>9</v>
@@ -45298,7 +45304,7 @@
         <v>9.6899995803833</v>
       </c>
       <c r="G1580" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H1580" t="s">
         <v>9</v>
@@ -45324,7 +45330,7 @@
         <v>9.76000022888184</v>
       </c>
       <c r="G1581" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="H1581" t="s">
         <v>9</v>
@@ -45350,7 +45356,7 @@
         <v>10.0799999237061</v>
       </c>
       <c r="G1582" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="H1582" t="s">
         <v>9</v>
@@ -45376,7 +45382,7 @@
         <v>9.93000030517578</v>
       </c>
       <c r="G1583" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="H1583" t="s">
         <v>9</v>
@@ -45402,7 +45408,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G1584" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="H1584" t="s">
         <v>9</v>
@@ -45428,7 +45434,7 @@
         <v>10.039999961853</v>
       </c>
       <c r="G1585" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H1585" t="s">
         <v>9</v>
@@ -45454,7 +45460,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G1586" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="H1586" t="s">
         <v>9</v>
@@ -45480,7 +45486,7 @@
         <v>10.2600002288818</v>
       </c>
       <c r="G1587" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="H1587" t="s">
         <v>9</v>
@@ -45506,7 +45512,7 @@
         <v>10.2600002288818</v>
       </c>
       <c r="G1588" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="H1588" t="s">
         <v>9</v>
@@ -45532,7 +45538,7 @@
         <v>10.039999961853</v>
       </c>
       <c r="G1589" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H1589" t="s">
         <v>9</v>
@@ -45558,7 +45564,7 @@
         <v>9.77999973297119</v>
       </c>
       <c r="G1590" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="H1590" t="s">
         <v>9</v>
@@ -45584,7 +45590,7 @@
         <v>9.73999977111816</v>
       </c>
       <c r="G1591" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -45610,7 +45616,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G1592" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="H1592" t="s">
         <v>9</v>
@@ -45636,7 +45642,7 @@
         <v>9.76000022888184</v>
       </c>
       <c r="G1593" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -45662,7 +45668,7 @@
         <v>9.80000019073486</v>
       </c>
       <c r="G1594" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -45688,7 +45694,7 @@
         <v>9.6899995803833</v>
       </c>
       <c r="G1595" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H1595" t="s">
         <v>9</v>
@@ -45714,7 +45720,7 @@
         <v>9.57999992370605</v>
       </c>
       <c r="G1596" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -45740,7 +45746,7 @@
         <v>9.52000045776367</v>
       </c>
       <c r="G1597" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -45766,7 +45772,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G1598" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -45792,7 +45798,7 @@
         <v>9.57999992370605</v>
       </c>
       <c r="G1599" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -45818,7 +45824,7 @@
         <v>9.85999965667725</v>
       </c>
       <c r="G1600" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -45844,7 +45850,7 @@
         <v>9.63000011444092</v>
       </c>
       <c r="G1601" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -45870,7 +45876,7 @@
         <v>9.81999969482422</v>
       </c>
       <c r="G1602" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="H1602" t="s">
         <v>9</v>
@@ -45896,7 +45902,7 @@
         <v>9.77000045776367</v>
       </c>
       <c r="G1603" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="H1603" t="s">
         <v>9</v>
@@ -45922,7 +45928,7 @@
         <v>9.71000003814697</v>
       </c>
       <c r="G1604" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -45948,7 +45954,7 @@
         <v>9.71000003814697</v>
       </c>
       <c r="G1605" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -45974,7 +45980,7 @@
         <v>9.72000026702881</v>
       </c>
       <c r="G1606" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -46000,7 +46006,7 @@
         <v>9.56999969482422</v>
       </c>
       <c r="G1607" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -46026,7 +46032,7 @@
         <v>9.53999996185303</v>
       </c>
       <c r="G1608" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -46052,7 +46058,7 @@
         <v>9.77999973297119</v>
       </c>
       <c r="G1609" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -46078,7 +46084,7 @@
         <v>9.57999992370605</v>
       </c>
       <c r="G1610" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="H1610" t="s">
         <v>9</v>
@@ -46104,7 +46110,7 @@
         <v>9.73999977111816</v>
       </c>
       <c r="G1611" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="H1611" t="s">
         <v>9</v>
@@ -46130,7 +46136,7 @@
         <v>9.76000022888184</v>
       </c>
       <c r="G1612" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -46156,7 +46162,7 @@
         <v>9.39999961853027</v>
       </c>
       <c r="G1613" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -46182,7 +46188,7 @@
         <v>9.39999961853027</v>
       </c>
       <c r="G1614" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -46208,7 +46214,7 @@
         <v>9.07999992370605</v>
       </c>
       <c r="G1615" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -46234,7 +46240,7 @@
         <v>9.10000038146973</v>
       </c>
       <c r="G1616" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -46260,7 +46266,7 @@
         <v>9.22000026702881</v>
       </c>
       <c r="G1617" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -46286,7 +46292,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G1618" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -46312,7 +46318,7 @@
         <v>10.1599998474121</v>
       </c>
       <c r="G1619" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -46338,7 +46344,7 @@
         <v>10.1400003433228</v>
       </c>
       <c r="G1620" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -46364,7 +46370,7 @@
         <v>10</v>
       </c>
       <c r="G1621" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -46390,7 +46396,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G1622" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -46416,7 +46422,7 @@
         <v>10.2799997329712</v>
       </c>
       <c r="G1623" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -46442,7 +46448,7 @@
         <v>10.4399995803833</v>
       </c>
       <c r="G1624" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -46468,7 +46474,7 @@
         <v>10.3599996566772</v>
       </c>
       <c r="G1625" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -46494,7 +46500,7 @@
         <v>10.460000038147</v>
       </c>
       <c r="G1626" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -46520,7 +46526,7 @@
         <v>10.3000001907349</v>
       </c>
       <c r="G1627" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -46546,7 +46552,7 @@
         <v>10.3199996948242</v>
       </c>
       <c r="G1628" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -46572,7 +46578,7 @@
         <v>10.3400001525879</v>
       </c>
       <c r="G1629" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -46598,7 +46604,7 @@
         <v>10.2799997329712</v>
       </c>
       <c r="G1630" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -46624,7 +46630,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G1631" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -46650,7 +46656,7 @@
         <v>10.4399995803833</v>
       </c>
       <c r="G1632" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -46676,7 +46682,7 @@
         <v>10.4200000762939</v>
       </c>
       <c r="G1633" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -46702,7 +46708,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G1634" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -46728,7 +46734,7 @@
         <v>10.2600002288818</v>
       </c>
       <c r="G1635" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -46754,7 +46760,7 @@
         <v>10.2799997329712</v>
       </c>
       <c r="G1636" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -46780,7 +46786,7 @@
         <v>10.3000001907349</v>
       </c>
       <c r="G1637" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -46806,7 +46812,7 @@
         <v>10.1800003051758</v>
       </c>
       <c r="G1638" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -46832,7 +46838,7 @@
         <v>10.0799999237061</v>
       </c>
       <c r="G1639" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -46858,7 +46864,7 @@
         <v>9.47999954223633</v>
       </c>
       <c r="G1640" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -46884,7 +46890,7 @@
         <v>9.59000015258789</v>
       </c>
       <c r="G1641" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -46910,7 +46916,7 @@
         <v>9.63000011444092</v>
       </c>
       <c r="G1642" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -46936,7 +46942,7 @@
         <v>9.51000022888184</v>
       </c>
       <c r="G1643" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -46962,7 +46968,7 @@
         <v>9.35000038146973</v>
       </c>
       <c r="G1644" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -46988,7 +46994,7 @@
         <v>9.73999977111816</v>
       </c>
       <c r="G1645" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -47014,7 +47020,7 @@
         <v>9.61999988555908</v>
       </c>
       <c r="G1646" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -47040,7 +47046,7 @@
         <v>9.65999984741211</v>
       </c>
       <c r="G1647" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -47066,7 +47072,7 @@
         <v>9.75</v>
       </c>
       <c r="G1648" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -47092,7 +47098,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G1649" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -47118,7 +47124,7 @@
         <v>10.039999961853</v>
       </c>
       <c r="G1650" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -47144,7 +47150,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G1651" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -47170,7 +47176,7 @@
         <v>10.1199998855591</v>
       </c>
       <c r="G1652" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -47196,7 +47202,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G1653" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -47222,7 +47228,7 @@
         <v>10.460000038147</v>
       </c>
       <c r="G1654" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -47248,7 +47254,7 @@
         <v>10.6199998855591</v>
       </c>
       <c r="G1655" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -47274,7 +47280,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G1656" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -47300,7 +47306,7 @@
         <v>11.5</v>
       </c>
       <c r="G1657" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -47326,7 +47332,7 @@
         <v>11.5799999237061</v>
       </c>
       <c r="G1658" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -47352,7 +47358,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G1659" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -47378,7 +47384,7 @@
         <v>11.9200000762939</v>
       </c>
       <c r="G1660" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -47404,7 +47410,7 @@
         <v>11.9200000762939</v>
       </c>
       <c r="G1661" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -47430,7 +47436,7 @@
         <v>12</v>
       </c>
       <c r="G1662" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -47456,7 +47462,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1663" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -47482,7 +47488,7 @@
         <v>11.7399997711182</v>
       </c>
       <c r="G1664" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -47508,7 +47514,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1665" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -47534,7 +47540,7 @@
         <v>11.7600002288818</v>
       </c>
       <c r="G1666" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -47560,7 +47566,7 @@
         <v>11.7200002670288</v>
       </c>
       <c r="G1667" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -47586,7 +47592,7 @@
         <v>11.4399995803833</v>
       </c>
       <c r="G1668" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -47612,7 +47618,7 @@
         <v>11.5</v>
       </c>
       <c r="G1669" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -47638,7 +47644,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G1670" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -47664,7 +47670,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G1671" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -47690,7 +47696,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G1672" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -47716,7 +47722,7 @@
         <v>11.9399995803833</v>
       </c>
       <c r="G1673" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -47742,7 +47748,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G1674" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -47768,7 +47774,7 @@
         <v>11.6800003051758</v>
       </c>
       <c r="G1675" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -47794,7 +47800,7 @@
         <v>11.960000038147</v>
       </c>
       <c r="G1676" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -47820,7 +47826,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G1677" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -47846,7 +47852,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G1678" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -47872,7 +47878,7 @@
         <v>12.6599998474121</v>
       </c>
       <c r="G1679" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -47898,7 +47904,7 @@
         <v>12.9200000762939</v>
       </c>
       <c r="G1680" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -47924,7 +47930,7 @@
         <v>12.8199996948242</v>
       </c>
       <c r="G1681" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -47950,7 +47956,7 @@
         <v>12.8199996948242</v>
       </c>
       <c r="G1682" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -47976,7 +47982,7 @@
         <v>12.8199996948242</v>
       </c>
       <c r="G1683" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -48002,7 +48008,7 @@
         <v>12.5200004577637</v>
       </c>
       <c r="G1684" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -48028,7 +48034,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G1685" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -48054,7 +48060,7 @@
         <v>12.0200004577637</v>
       </c>
       <c r="G1686" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -48080,7 +48086,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G1687" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -48106,7 +48112,7 @@
         <v>12</v>
       </c>
       <c r="G1688" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -48132,7 +48138,7 @@
         <v>11.6800003051758</v>
       </c>
       <c r="G1689" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -48158,7 +48164,7 @@
         <v>11.960000038147</v>
       </c>
       <c r="G1690" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -48184,7 +48190,7 @@
         <v>11.539999961853</v>
       </c>
       <c r="G1691" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -48210,7 +48216,7 @@
         <v>11.5</v>
       </c>
       <c r="G1692" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -48236,7 +48242,7 @@
         <v>11.5799999237061</v>
       </c>
       <c r="G1693" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -48262,7 +48268,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G1694" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -48288,7 +48294,7 @@
         <v>11.1400003433228</v>
       </c>
       <c r="G1695" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -48314,7 +48320,7 @@
         <v>11.2799997329712</v>
       </c>
       <c r="G1696" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -48340,7 +48346,7 @@
         <v>11</v>
       </c>
       <c r="G1697" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -48366,7 +48372,7 @@
         <v>11.3199996948242</v>
       </c>
       <c r="G1698" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -48392,7 +48398,7 @@
         <v>11</v>
       </c>
       <c r="G1699" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -48418,7 +48424,7 @@
         <v>11</v>
       </c>
       <c r="G1700" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -48444,7 +48450,7 @@
         <v>11.1800003051758</v>
       </c>
       <c r="G1701" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -48470,7 +48476,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G1702" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -48496,7 +48502,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G1703" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -48522,7 +48528,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G1704" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -48548,7 +48554,7 @@
         <v>11.039999961853</v>
       </c>
       <c r="G1705" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -48574,7 +48580,7 @@
         <v>11.2600002288818</v>
       </c>
       <c r="G1706" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -48600,7 +48606,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G1707" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -48626,7 +48632,7 @@
         <v>11.039999961853</v>
       </c>
       <c r="G1708" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -48652,7 +48658,7 @@
         <v>11.039999961853</v>
       </c>
       <c r="G1709" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -48678,7 +48684,7 @@
         <v>10.6199998855591</v>
       </c>
       <c r="G1710" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -48704,7 +48710,7 @@
         <v>10.6599998474121</v>
       </c>
       <c r="G1711" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -48730,7 +48736,7 @@
         <v>10.6199998855591</v>
       </c>
       <c r="G1712" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -48756,7 +48762,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G1713" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -48782,7 +48788,7 @@
         <v>10.4799995422363</v>
       </c>
       <c r="G1714" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -48808,7 +48814,7 @@
         <v>10.6599998474121</v>
       </c>
       <c r="G1715" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -48834,7 +48840,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G1716" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -48860,7 +48866,7 @@
         <v>10.7600002288818</v>
       </c>
       <c r="G1717" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -48886,7 +48892,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G1718" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -48912,7 +48918,7 @@
         <v>11.1800003051758</v>
       </c>
       <c r="G1719" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -48938,7 +48944,7 @@
         <v>11.2799997329712</v>
       </c>
       <c r="G1720" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -48964,7 +48970,7 @@
         <v>11.4200000762939</v>
       </c>
       <c r="G1721" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -48990,7 +48996,7 @@
         <v>11.2399997711182</v>
       </c>
       <c r="G1722" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -49016,7 +49022,7 @@
         <v>11.4200000762939</v>
       </c>
       <c r="G1723" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -49042,7 +49048,7 @@
         <v>11.1599998474121</v>
       </c>
       <c r="G1724" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -49068,7 +49074,7 @@
         <v>10.9200000762939</v>
       </c>
       <c r="G1725" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -49094,7 +49100,7 @@
         <v>11.5</v>
       </c>
       <c r="G1726" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -49120,7 +49126,7 @@
         <v>11.2200002670288</v>
       </c>
       <c r="G1727" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -49146,7 +49152,7 @@
         <v>11.2799997329712</v>
       </c>
       <c r="G1728" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -49172,7 +49178,7 @@
         <v>11.5</v>
       </c>
       <c r="G1729" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -49198,7 +49204,7 @@
         <v>11.7200002670288</v>
       </c>
       <c r="G1730" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -49224,7 +49230,7 @@
         <v>11.5200004577637</v>
       </c>
       <c r="G1731" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -49250,7 +49256,7 @@
         <v>11.7399997711182</v>
       </c>
       <c r="G1732" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -49276,7 +49282,7 @@
         <v>11.8400001525879</v>
       </c>
       <c r="G1733" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -49302,7 +49308,7 @@
         <v>12</v>
       </c>
       <c r="G1734" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -49328,7 +49334,7 @@
         <v>11.9200000762939</v>
       </c>
       <c r="G1735" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -49354,7 +49360,7 @@
         <v>12.0600004196167</v>
       </c>
       <c r="G1736" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -49380,7 +49386,7 @@
         <v>12.0200004577637</v>
       </c>
       <c r="G1737" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -49406,7 +49412,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G1738" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -49432,7 +49438,7 @@
         <v>12.2600002288818</v>
       </c>
       <c r="G1739" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -49458,7 +49464,7 @@
         <v>12.1800003051758</v>
       </c>
       <c r="G1740" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -49484,7 +49490,7 @@
         <v>12.2200002670288</v>
       </c>
       <c r="G1741" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -49510,7 +49516,7 @@
         <v>12.460000038147</v>
       </c>
       <c r="G1742" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -49536,7 +49542,7 @@
         <v>12.4399995803833</v>
       </c>
       <c r="G1743" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -49562,7 +49568,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G1744" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -49588,7 +49594,7 @@
         <v>12.8800001144409</v>
       </c>
       <c r="G1745" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -49614,7 +49620,7 @@
         <v>12.4399995803833</v>
       </c>
       <c r="G1746" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -49640,7 +49646,7 @@
         <v>13</v>
       </c>
       <c r="G1747" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -49666,7 +49672,7 @@
         <v>13</v>
       </c>
       <c r="G1748" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -49692,7 +49698,7 @@
         <v>13.1800003051758</v>
       </c>
       <c r="G1749" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -49718,7 +49724,7 @@
         <v>13.2399997711182</v>
       </c>
       <c r="G1750" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -49744,7 +49750,7 @@
         <v>12.9399995803833</v>
       </c>
       <c r="G1751" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -49770,7 +49776,7 @@
         <v>12.8800001144409</v>
       </c>
       <c r="G1752" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -49796,7 +49802,7 @@
         <v>12.9799995422363</v>
       </c>
       <c r="G1753" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -49822,7 +49828,7 @@
         <v>13.0600004196167</v>
       </c>
       <c r="G1754" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -49848,7 +49854,7 @@
         <v>13.2200002670288</v>
       </c>
       <c r="G1755" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -49874,7 +49880,7 @@
         <v>13.0600004196167</v>
       </c>
       <c r="G1756" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -49900,7 +49906,7 @@
         <v>13</v>
       </c>
       <c r="G1757" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -49926,7 +49932,7 @@
         <v>12.8800001144409</v>
       </c>
       <c r="G1758" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -49952,7 +49958,7 @@
         <v>12.8599996566772</v>
       </c>
       <c r="G1759" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -49978,7 +49984,7 @@
         <v>12.7399997711182</v>
       </c>
       <c r="G1760" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -50004,7 +50010,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G1761" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -50030,7 +50036,7 @@
         <v>12.7799997329712</v>
       </c>
       <c r="G1762" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -50056,7 +50062,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G1763" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -50082,7 +50088,7 @@
         <v>12.6199998855591</v>
       </c>
       <c r="G1764" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -50108,7 +50114,7 @@
         <v>12.6199998855591</v>
       </c>
       <c r="G1765" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -50134,7 +50140,7 @@
         <v>12.4799995422363</v>
       </c>
       <c r="G1766" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -50160,7 +50166,7 @@
         <v>12.3800001144409</v>
       </c>
       <c r="G1767" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -50186,7 +50192,7 @@
         <v>12.6599998474121</v>
       </c>
       <c r="G1768" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -50212,7 +50218,7 @@
         <v>12.6800003051758</v>
       </c>
       <c r="G1769" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -50238,7 +50244,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G1770" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -50264,7 +50270,7 @@
         <v>12.8400001525879</v>
       </c>
       <c r="G1771" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -50290,7 +50296,7 @@
         <v>12.4200000762939</v>
       </c>
       <c r="G1772" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -50316,7 +50322,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G1773" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -50342,7 +50348,7 @@
         <v>12.8400001525879</v>
       </c>
       <c r="G1774" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -50368,7 +50374,7 @@
         <v>12.8599996566772</v>
       </c>
       <c r="G1775" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -50394,7 +50400,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G1776" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -50420,7 +50426,7 @@
         <v>12.5600004196167</v>
       </c>
       <c r="G1777" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -50446,7 +50452,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G1778" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -50472,7 +50478,7 @@
         <v>12.5200004577637</v>
       </c>
       <c r="G1779" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -50498,7 +50504,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G1780" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -50524,7 +50530,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G1781" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -50550,7 +50556,7 @@
         <v>12.8400001525879</v>
       </c>
       <c r="G1782" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -50576,7 +50582,7 @@
         <v>12.8599996566772</v>
       </c>
       <c r="G1783" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -50602,7 +50608,7 @@
         <v>12.8800001144409</v>
       </c>
       <c r="G1784" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -50628,7 +50634,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G1785" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -50654,7 +50660,7 @@
         <v>12.9399995803833</v>
       </c>
       <c r="G1786" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -50680,7 +50686,7 @@
         <v>12.9799995422363</v>
       </c>
       <c r="G1787" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -50706,7 +50712,7 @@
         <v>12.9399995803833</v>
       </c>
       <c r="G1788" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -50732,7 +50738,7 @@
         <v>12.8599996566772</v>
       </c>
       <c r="G1789" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -50758,7 +50764,7 @@
         <v>13.2200002670288</v>
       </c>
       <c r="G1790" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -50784,7 +50790,7 @@
         <v>13.539999961853</v>
       </c>
       <c r="G1791" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -50810,7 +50816,7 @@
         <v>13.3199996948242</v>
       </c>
       <c r="G1792" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -50836,7 +50842,7 @@
         <v>13.2200002670288</v>
       </c>
       <c r="G1793" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -50862,7 +50868,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G1794" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -50888,7 +50894,7 @@
         <v>13.4200000762939</v>
       </c>
       <c r="G1795" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -50914,7 +50920,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1796" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -50940,7 +50946,7 @@
         <v>13.5</v>
       </c>
       <c r="G1797" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -50966,7 +50972,7 @@
         <v>13.4399995803833</v>
       </c>
       <c r="G1798" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -50992,7 +50998,7 @@
         <v>13.8199996948242</v>
       </c>
       <c r="G1799" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -51018,7 +51024,7 @@
         <v>13.8400001525879</v>
       </c>
       <c r="G1800" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -51044,7 +51050,7 @@
         <v>14.4399995803833</v>
       </c>
       <c r="G1801" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -51070,7 +51076,7 @@
         <v>14.2200002670288</v>
       </c>
       <c r="G1802" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -51096,7 +51102,7 @@
         <v>14.039999961853</v>
       </c>
       <c r="G1803" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -51122,7 +51128,7 @@
         <v>14.3199996948242</v>
       </c>
       <c r="G1804" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -51148,7 +51154,7 @@
         <v>14.3599996566772</v>
       </c>
       <c r="G1805" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -51174,7 +51180,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1806" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -51200,7 +51206,7 @@
         <v>15.0200004577637</v>
       </c>
       <c r="G1807" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -51226,7 +51232,7 @@
         <v>15.1599998474121</v>
       </c>
       <c r="G1808" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -51252,7 +51258,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G1809" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -51278,7 +51284,7 @@
         <v>15.3599996566772</v>
       </c>
       <c r="G1810" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -51304,7 +51310,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G1811" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -51330,7 +51336,7 @@
         <v>15.3400001525879</v>
       </c>
       <c r="G1812" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -51356,7 +51362,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G1813" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -51382,7 +51388,7 @@
         <v>17.3600006103516</v>
       </c>
       <c r="G1814" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -51408,7 +51414,7 @@
         <v>17.4599990844727</v>
       </c>
       <c r="G1815" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -51434,7 +51440,7 @@
         <v>17.5</v>
       </c>
       <c r="G1816" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -51460,7 +51466,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G1817" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -51486,7 +51492,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1818" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -51512,7 +51518,7 @@
         <v>18.0200004577637</v>
       </c>
       <c r="G1819" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -51538,7 +51544,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1820" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -51564,7 +51570,7 @@
         <v>18.2800006866455</v>
       </c>
       <c r="G1821" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -51590,7 +51596,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1822" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -51616,7 +51622,7 @@
         <v>18.2600002288818</v>
       </c>
       <c r="G1823" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -51642,7 +51648,7 @@
         <v>18.2399997711182</v>
       </c>
       <c r="G1824" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -51668,7 +51674,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1825" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -51694,7 +51700,7 @@
         <v>18.7800006866455</v>
       </c>
       <c r="G1826" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -51720,7 +51726,7 @@
         <v>18.7399997711182</v>
       </c>
       <c r="G1827" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -51746,7 +51752,7 @@
         <v>19.3400001525879</v>
       </c>
       <c r="G1828" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -51772,7 +51778,7 @@
         <v>19.2800006866455</v>
       </c>
       <c r="G1829" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -51798,7 +51804,7 @@
         <v>19.1200008392334</v>
       </c>
       <c r="G1830" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -51824,7 +51830,7 @@
         <v>19.5599994659424</v>
       </c>
       <c r="G1831" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -51850,7 +51856,7 @@
         <v>18.5400009155273</v>
       </c>
       <c r="G1832" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -51876,7 +51882,7 @@
         <v>18.5</v>
       </c>
       <c r="G1833" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -51902,7 +51908,7 @@
         <v>19.3400001525879</v>
       </c>
       <c r="G1834" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -51928,7 +51934,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1835" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -51954,7 +51960,7 @@
         <v>19.3400001525879</v>
       </c>
       <c r="G1836" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -51980,7 +51986,7 @@
         <v>19.0599994659424</v>
       </c>
       <c r="G1837" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -52006,7 +52012,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G1838" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -52032,7 +52038,7 @@
         <v>19.3400001525879</v>
       </c>
       <c r="G1839" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -52058,7 +52064,7 @@
         <v>19.3400001525879</v>
       </c>
       <c r="G1840" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -52084,7 +52090,7 @@
         <v>20.5499992370605</v>
       </c>
       <c r="G1841" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -52110,7 +52116,7 @@
         <v>20.25</v>
       </c>
       <c r="G1842" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -52136,7 +52142,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G1843" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -52162,7 +52168,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G1844" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -52188,7 +52194,7 @@
         <v>20.25</v>
       </c>
       <c r="G1845" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -52214,7 +52220,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G1846" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -52240,7 +52246,7 @@
         <v>19.9599990844727</v>
       </c>
       <c r="G1847" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -52266,7 +52272,7 @@
         <v>19.6000003814697</v>
       </c>
       <c r="G1848" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -52292,7 +52298,7 @@
         <v>19.2199993133545</v>
       </c>
       <c r="G1849" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -52318,7 +52324,7 @@
         <v>19.4200000762939</v>
       </c>
       <c r="G1850" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -52344,7 +52350,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G1851" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -52370,7 +52376,7 @@
         <v>19.3199996948242</v>
       </c>
       <c r="G1852" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -52396,7 +52402,7 @@
         <v>19.0200004577637</v>
       </c>
       <c r="G1853" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -52422,7 +52428,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G1854" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -52448,7 +52454,7 @@
         <v>19.7199993133545</v>
       </c>
       <c r="G1855" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -52474,7 +52480,7 @@
         <v>19.5</v>
       </c>
       <c r="G1856" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -52500,7 +52506,7 @@
         <v>19.5599994659424</v>
       </c>
       <c r="G1857" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -52526,7 +52532,7 @@
         <v>19.3799991607666</v>
       </c>
       <c r="G1858" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -52552,7 +52558,7 @@
         <v>19.1000003814697</v>
       </c>
       <c r="G1859" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -52578,7 +52584,7 @@
         <v>19.1599998474121</v>
       </c>
       <c r="G1860" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -52604,7 +52610,7 @@
         <v>19.1200008392334</v>
       </c>
       <c r="G1861" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -52630,7 +52636,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G1862" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -52656,7 +52662,7 @@
         <v>18.5</v>
       </c>
       <c r="G1863" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -52682,7 +52688,7 @@
         <v>19.0200004577637</v>
       </c>
       <c r="G1864" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -52708,7 +52714,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1865" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -52734,7 +52740,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1866" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -52760,7 +52766,7 @@
         <v>19.1200008392334</v>
       </c>
       <c r="G1867" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -52786,7 +52792,7 @@
         <v>18.8199996948242</v>
       </c>
       <c r="G1868" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -52812,7 +52818,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G1869" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -52838,7 +52844,7 @@
         <v>19.7800006866455</v>
       </c>
       <c r="G1870" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -52864,7 +52870,7 @@
         <v>19.5799999237061</v>
       </c>
       <c r="G1871" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -52890,7 +52896,7 @@
         <v>19.3799991607666</v>
       </c>
       <c r="G1872" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -52916,7 +52922,7 @@
         <v>19.6800003051758</v>
       </c>
       <c r="G1873" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -52942,7 +52948,7 @@
         <v>19.3400001525879</v>
       </c>
       <c r="G1874" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -52968,7 +52974,7 @@
         <v>19.3799991607666</v>
       </c>
       <c r="G1875" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -52994,7 +53000,7 @@
         <v>19.4400005340576</v>
       </c>
       <c r="G1876" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -53020,7 +53026,7 @@
         <v>19.5200004577637</v>
       </c>
       <c r="G1877" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -53046,7 +53052,7 @@
         <v>19.5</v>
       </c>
       <c r="G1878" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -53072,7 +53078,7 @@
         <v>19.2399997711182</v>
       </c>
       <c r="G1879" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -53098,7 +53104,7 @@
         <v>19.2800006866455</v>
       </c>
       <c r="G1880" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -53124,7 +53130,7 @@
         <v>19.4599990844727</v>
       </c>
       <c r="G1881" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -53150,7 +53156,7 @@
         <v>19.3600006103516</v>
       </c>
       <c r="G1882" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -53176,7 +53182,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G1883" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -53202,7 +53208,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G1884" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -53228,7 +53234,7 @@
         <v>20.8500003814697</v>
       </c>
       <c r="G1885" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -53254,7 +53260,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G1886" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -53280,7 +53286,7 @@
         <v>21.25</v>
       </c>
       <c r="G1887" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -53306,7 +53312,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G1888" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -53332,7 +53338,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G1889" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -53358,7 +53364,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1890" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -53384,7 +53390,7 @@
         <v>21.8500003814697</v>
       </c>
       <c r="G1891" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -53410,7 +53416,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1892" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -53436,7 +53442,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G1893" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -53462,7 +53468,7 @@
         <v>22.25</v>
       </c>
       <c r="G1894" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -53488,7 +53494,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G1895" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -53514,7 +53520,7 @@
         <v>22.5</v>
       </c>
       <c r="G1896" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -53540,7 +53546,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G1897" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -53566,7 +53572,7 @@
         <v>22.5</v>
       </c>
       <c r="G1898" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -53592,7 +53598,7 @@
         <v>22.75</v>
       </c>
       <c r="G1899" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -53618,7 +53624,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G1900" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -53644,7 +53650,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G1901" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -53670,7 +53676,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G1902" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -53696,7 +53702,7 @@
         <v>22.75</v>
       </c>
       <c r="G1903" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -53722,7 +53728,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G1904" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -53748,7 +53754,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G1905" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -53774,7 +53780,7 @@
         <v>21.8500003814697</v>
       </c>
       <c r="G1906" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -53800,7 +53806,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G1907" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -53826,7 +53832,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1908" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -53852,7 +53858,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G1909" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -53878,7 +53884,7 @@
         <v>22.25</v>
       </c>
       <c r="G1910" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -53904,7 +53910,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G1911" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -53930,7 +53936,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1912" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -53956,7 +53962,7 @@
         <v>21.5499992370605</v>
       </c>
       <c r="G1913" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -53982,7 +53988,7 @@
         <v>22</v>
       </c>
       <c r="G1914" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -54008,7 +54014,7 @@
         <v>21.75</v>
       </c>
       <c r="G1915" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -54034,7 +54040,7 @@
         <v>21.75</v>
       </c>
       <c r="G1916" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -54060,7 +54066,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1917" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -54086,7 +54092,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G1918" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -54112,7 +54118,7 @@
         <v>20.75</v>
       </c>
       <c r="G1919" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -54138,7 +54144,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G1920" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -54164,7 +54170,7 @@
         <v>21.25</v>
       </c>
       <c r="G1921" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -54190,7 +54196,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1922" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -54216,7 +54222,7 @@
         <v>20.75</v>
       </c>
       <c r="G1923" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -54242,7 +54248,7 @@
         <v>20.5</v>
       </c>
       <c r="G1924" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -54268,7 +54274,7 @@
         <v>20.6499996185303</v>
       </c>
       <c r="G1925" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -54294,7 +54300,7 @@
         <v>20.3500003814697</v>
       </c>
       <c r="G1926" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -54320,7 +54326,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G1927" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -54346,7 +54352,7 @@
         <v>21</v>
       </c>
       <c r="G1928" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -54372,7 +54378,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G1929" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -54398,7 +54404,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G1930" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -54424,7 +54430,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G1931" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -54450,7 +54456,7 @@
         <v>20.8500003814697</v>
       </c>
       <c r="G1932" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -54476,7 +54482,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1933" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -54502,7 +54508,7 @@
         <v>21</v>
       </c>
       <c r="G1934" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -54528,7 +54534,7 @@
         <v>19.5599994659424</v>
       </c>
       <c r="G1935" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -54554,7 +54560,7 @@
         <v>18.1399993896484</v>
       </c>
       <c r="G1936" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -54580,7 +54586,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1937" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -54606,7 +54612,7 @@
         <v>18.6599998474121</v>
       </c>
       <c r="G1938" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -54632,7 +54638,7 @@
         <v>18.7399997711182</v>
       </c>
       <c r="G1939" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -54658,7 +54664,7 @@
         <v>18.8199996948242</v>
       </c>
       <c r="G1940" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -54684,7 +54690,7 @@
         <v>18.8799991607666</v>
       </c>
       <c r="G1941" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -54710,7 +54716,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1942" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -54736,7 +54742,7 @@
         <v>18.3199996948242</v>
       </c>
       <c r="G1943" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -54762,7 +54768,7 @@
         <v>18.2800006866455</v>
       </c>
       <c r="G1944" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -54788,7 +54794,7 @@
         <v>18.3400001525879</v>
       </c>
       <c r="G1945" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -54814,7 +54820,7 @@
         <v>18.1200008392334</v>
       </c>
       <c r="G1946" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -54840,7 +54846,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1947" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -54866,7 +54872,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1948" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -54892,7 +54898,7 @@
         <v>17.8199996948242</v>
       </c>
       <c r="G1949" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -54918,7 +54924,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1950" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -54944,7 +54950,7 @@
         <v>18.2600002288818</v>
       </c>
       <c r="G1951" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -54970,7 +54976,7 @@
         <v>18</v>
       </c>
       <c r="G1952" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -54996,7 +55002,7 @@
         <v>17.9400005340576</v>
       </c>
       <c r="G1953" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -55022,7 +55028,7 @@
         <v>18.2800006866455</v>
       </c>
       <c r="G1954" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -55048,7 +55054,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G1955" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -55074,7 +55080,7 @@
         <v>17.3600006103516</v>
       </c>
       <c r="G1956" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -55100,7 +55106,7 @@
         <v>17.3600006103516</v>
       </c>
       <c r="G1957" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -55126,7 +55132,7 @@
         <v>17.0400009155273</v>
       </c>
       <c r="G1958" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -55152,7 +55158,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G1959" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -55178,7 +55184,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G1960" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -55204,7 +55210,7 @@
         <v>16.9799995422363</v>
       </c>
       <c r="G1961" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -55230,7 +55236,7 @@
         <v>16.8600006103516</v>
       </c>
       <c r="G1962" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -55256,7 +55262,7 @@
         <v>17.1200008392334</v>
       </c>
       <c r="G1963" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -55282,7 +55288,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1964" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -55308,7 +55314,7 @@
         <v>16.6200008392334</v>
       </c>
       <c r="G1965" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -55334,7 +55340,7 @@
         <v>16.5400009155273</v>
       </c>
       <c r="G1966" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -55360,7 +55366,7 @@
         <v>16.3400001525879</v>
       </c>
       <c r="G1967" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -55386,7 +55392,7 @@
         <v>16.5599994659424</v>
       </c>
       <c r="G1968" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -55412,7 +55418,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G1969" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -55438,7 +55444,7 @@
         <v>16.1399993896484</v>
       </c>
       <c r="G1970" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -55464,7 +55470,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G1971" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -55490,7 +55496,7 @@
         <v>16.3799991607666</v>
       </c>
       <c r="G1972" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -55516,7 +55522,7 @@
         <v>16.8400001525879</v>
       </c>
       <c r="G1973" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -55542,7 +55548,7 @@
         <v>16.6399993896484</v>
       </c>
       <c r="G1974" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -55568,7 +55574,7 @@
         <v>16.5799999237061</v>
       </c>
       <c r="G1975" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -55594,7 +55600,7 @@
         <v>16.4400005340576</v>
       </c>
       <c r="G1976" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -55620,7 +55626,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1977" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -55646,7 +55652,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G1978" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -55672,7 +55678,7 @@
         <v>15.8599996566772</v>
       </c>
       <c r="G1979" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -55698,7 +55704,7 @@
         <v>16.5599994659424</v>
       </c>
       <c r="G1980" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -55724,7 +55730,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1981" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -55750,7 +55756,7 @@
         <v>16.7199993133545</v>
       </c>
       <c r="G1982" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -55776,7 +55782,7 @@
         <v>16.6800003051758</v>
       </c>
       <c r="G1983" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -55802,7 +55808,7 @@
         <v>14.7399997711182</v>
       </c>
       <c r="G1984" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -55828,7 +55834,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1985" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -55854,7 +55860,7 @@
         <v>15</v>
       </c>
       <c r="G1986" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -55880,7 +55886,7 @@
         <v>15.2600002288818</v>
       </c>
       <c r="G1987" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -55906,7 +55912,7 @@
         <v>14.9200000762939</v>
       </c>
       <c r="G1988" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -55932,7 +55938,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1989" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -55958,7 +55964,7 @@
         <v>14.8199996948242</v>
       </c>
       <c r="G1990" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -55984,7 +55990,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1991" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -56010,7 +56016,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1992" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -56036,7 +56042,7 @@
         <v>14.7600002288818</v>
       </c>
       <c r="G1993" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -56062,7 +56068,7 @@
         <v>14.960000038147</v>
       </c>
       <c r="G1994" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -56088,7 +56094,7 @@
         <v>15.2200002670288</v>
       </c>
       <c r="G1995" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -56114,7 +56120,7 @@
         <v>15.1199998855591</v>
       </c>
       <c r="G1996" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -56140,7 +56146,7 @@
         <v>15.4399995803833</v>
       </c>
       <c r="G1997" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -56166,7 +56172,7 @@
         <v>16.0799999237061</v>
       </c>
       <c r="G1998" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -56192,7 +56198,7 @@
         <v>16.1599998474121</v>
       </c>
       <c r="G1999" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -56218,7 +56224,7 @@
         <v>15.960000038147</v>
       </c>
       <c r="G2000" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -56244,7 +56250,7 @@
         <v>16.1599998474121</v>
       </c>
       <c r="G2001" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -56270,7 +56276,7 @@
         <v>16.4599990844727</v>
       </c>
       <c r="G2002" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -56296,7 +56302,7 @@
         <v>16.3600006103516</v>
       </c>
       <c r="G2003" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -56322,7 +56328,7 @@
         <v>15.8199996948242</v>
       </c>
       <c r="G2004" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -56348,7 +56354,7 @@
         <v>15.539999961853</v>
       </c>
       <c r="G2005" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -56374,7 +56380,7 @@
         <v>15.3400001525879</v>
       </c>
       <c r="G2006" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -56400,7 +56406,7 @@
         <v>15.0600004196167</v>
       </c>
       <c r="G2007" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -56426,7 +56432,7 @@
         <v>15.3400001525879</v>
       </c>
       <c r="G2008" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -56452,7 +56458,7 @@
         <v>15.7399997711182</v>
       </c>
       <c r="G2009" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -56478,7 +56484,7 @@
         <v>15.8199996948242</v>
       </c>
       <c r="G2010" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -56504,7 +56510,7 @@
         <v>16</v>
       </c>
       <c r="G2011" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -56530,7 +56536,7 @@
         <v>16.4200000762939</v>
       </c>
       <c r="G2012" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -56556,7 +56562,7 @@
         <v>17.1599998474121</v>
       </c>
       <c r="G2013" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -56582,7 +56588,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G2014" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -56608,7 +56614,7 @@
         <v>17.1599998474121</v>
       </c>
       <c r="G2015" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -56634,7 +56640,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G2016" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -56660,7 +56666,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G2017" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -56686,7 +56692,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G2018" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -56712,7 +56718,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G2019" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -56738,7 +56744,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G2020" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -56764,7 +56770,7 @@
         <v>16.9200000762939</v>
       </c>
       <c r="G2021" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -56790,7 +56796,7 @@
         <v>16.8799991607666</v>
       </c>
       <c r="G2022" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -56816,7 +56822,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G2023" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -56842,7 +56848,7 @@
         <v>17.3600006103516</v>
       </c>
       <c r="G2024" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -56868,7 +56874,7 @@
         <v>17.5</v>
       </c>
       <c r="G2025" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -56894,7 +56900,7 @@
         <v>17.4599990844727</v>
       </c>
       <c r="G2026" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -56920,7 +56926,7 @@
         <v>17.9599990844727</v>
       </c>
       <c r="G2027" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -56946,7 +56952,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G2028" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -56972,7 +56978,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G2029" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -56998,7 +57004,7 @@
         <v>18.5400009155273</v>
       </c>
       <c r="G2030" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -57024,7 +57030,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G2031" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -57050,7 +57056,7 @@
         <v>19.7399997711182</v>
       </c>
       <c r="G2032" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -57076,7 +57082,7 @@
         <v>20</v>
       </c>
       <c r="G2033" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -57102,7 +57108,7 @@
         <v>19.7600002288818</v>
       </c>
       <c r="G2034" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -57128,7 +57134,7 @@
         <v>19.7800006866455</v>
       </c>
       <c r="G2035" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -57154,7 +57160,7 @@
         <v>19.8199996948242</v>
       </c>
       <c r="G2036" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -57180,7 +57186,7 @@
         <v>19.8199996948242</v>
       </c>
       <c r="G2037" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -57206,7 +57212,7 @@
         <v>19.0200004577637</v>
       </c>
       <c r="G2038" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -57232,7 +57238,7 @@
         <v>18.9400005340576</v>
       </c>
       <c r="G2039" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -57258,7 +57264,7 @@
         <v>18.9400005340576</v>
       </c>
       <c r="G2040" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -57284,7 +57290,7 @@
         <v>19.6200008392334</v>
       </c>
       <c r="G2041" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -57310,7 +57316,7 @@
         <v>19.8600006103516</v>
       </c>
       <c r="G2042" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -57336,7 +57342,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G2043" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -57362,7 +57368,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G2044" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -57388,7 +57394,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G2045" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -57414,7 +57420,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G2046" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -57440,7 +57446,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G2047" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -57466,7 +57472,7 @@
         <v>20.5</v>
       </c>
       <c r="G2048" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -57492,7 +57498,7 @@
         <v>20.75</v>
       </c>
       <c r="G2049" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -57518,7 +57524,7 @@
         <v>20.8500003814697</v>
       </c>
       <c r="G2050" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -57544,7 +57550,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G2051" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -57570,7 +57576,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G2052" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -57596,7 +57602,7 @@
         <v>21.5</v>
       </c>
       <c r="G2053" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -57622,7 +57628,7 @@
         <v>21.5</v>
       </c>
       <c r="G2054" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -57648,7 +57654,7 @@
         <v>21.8500003814697</v>
       </c>
       <c r="G2055" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -57674,7 +57680,7 @@
         <v>21.5</v>
       </c>
       <c r="G2056" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -57700,7 +57706,7 @@
         <v>21.5</v>
       </c>
       <c r="G2057" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -57726,7 +57732,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G2058" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -57752,7 +57758,7 @@
         <v>21</v>
       </c>
       <c r="G2059" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -57778,7 +57784,7 @@
         <v>21.25</v>
       </c>
       <c r="G2060" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -57804,7 +57810,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G2061" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -57830,7 +57836,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G2062" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -57856,7 +57862,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G2063" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -57882,7 +57888,7 @@
         <v>20.75</v>
       </c>
       <c r="G2064" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -57908,7 +57914,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G2065" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -57934,7 +57940,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G2066" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -57960,7 +57966,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G2067" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -57986,7 +57992,7 @@
         <v>20.4500007629395</v>
       </c>
       <c r="G2068" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -58012,7 +58018,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G2069" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -58038,7 +58044,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G2070" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -58064,7 +58070,7 @@
         <v>20.5</v>
       </c>
       <c r="G2071" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -58090,7 +58096,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G2072" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -58116,7 +58122,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G2073" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -58142,7 +58148,7 @@
         <v>21</v>
       </c>
       <c r="G2074" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -58168,7 +58174,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G2075" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -58194,7 +58200,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G2076" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -58220,7 +58226,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G2077" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -58246,7 +58252,7 @@
         <v>22</v>
       </c>
       <c r="G2078" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -58272,7 +58278,7 @@
         <v>21.25</v>
       </c>
       <c r="G2079" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -58298,7 +58304,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G2080" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -58324,7 +58330,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G2081" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -58350,7 +58356,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G2082" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -58376,7 +58382,7 @@
         <v>20.8500003814697</v>
       </c>
       <c r="G2083" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -58402,7 +58408,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G2084" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -58428,7 +58434,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G2085" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -58454,7 +58460,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G2086" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -58480,7 +58486,7 @@
         <v>20.8500003814697</v>
       </c>
       <c r="G2087" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -58506,7 +58512,7 @@
         <v>21</v>
       </c>
       <c r="G2088" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -58532,7 +58538,7 @@
         <v>21</v>
       </c>
       <c r="G2089" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -58558,7 +58564,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G2090" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -58584,7 +58590,7 @@
         <v>22</v>
       </c>
       <c r="G2091" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -58610,7 +58616,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G2092" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -58636,7 +58642,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G2093" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -58662,7 +58668,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G2094" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -58688,7 +58694,7 @@
         <v>23.25</v>
       </c>
       <c r="G2095" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -58714,7 +58720,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G2096" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -58740,7 +58746,7 @@
         <v>22.5</v>
       </c>
       <c r="G2097" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -58766,7 +58772,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G2098" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -58792,7 +58798,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G2099" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -58818,7 +58824,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G2100" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -58844,7 +58850,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G2101" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -58870,7 +58876,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G2102" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -58896,7 +58902,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G2103" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -58922,7 +58928,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G2104" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -58948,7 +58954,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G2105" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -58974,7 +58980,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G2106" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -59000,7 +59006,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G2107" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -59026,7 +59032,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G2108" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -59052,7 +59058,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G2109" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -59078,7 +59084,7 @@
         <v>22</v>
       </c>
       <c r="G2110" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -59104,7 +59110,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G2111" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -59130,7 +59136,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G2112" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -59156,7 +59162,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G2113" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -59182,7 +59188,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G2114" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -59208,7 +59214,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G2115" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -59234,7 +59240,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G2116" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -59260,7 +59266,7 @@
         <v>21.25</v>
       </c>
       <c r="G2117" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -59286,7 +59292,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G2118" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -59312,7 +59318,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G2119" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -59338,7 +59344,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G2120" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -59364,7 +59370,7 @@
         <v>21.5499992370605</v>
       </c>
       <c r="G2121" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -59390,7 +59396,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G2122" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -59416,7 +59422,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G2123" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -59442,7 +59448,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G2124" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -59468,7 +59474,7 @@
         <v>21.5</v>
       </c>
       <c r="G2125" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -59494,7 +59500,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G2126" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -59520,7 +59526,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G2127" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -59546,7 +59552,7 @@
         <v>22.25</v>
       </c>
       <c r="G2128" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -59572,7 +59578,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G2129" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -59598,7 +59604,7 @@
         <v>22.75</v>
       </c>
       <c r="G2130" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -59624,7 +59630,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G2131" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -59650,7 +59656,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G2132" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -59676,7 +59682,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G2133" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -59702,7 +59708,7 @@
         <v>24.25</v>
       </c>
       <c r="G2134" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -59728,7 +59734,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G2135" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -59754,7 +59760,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G2136" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -59780,7 +59786,7 @@
         <v>23.9500007629395</v>
       </c>
       <c r="G2137" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -59806,7 +59812,7 @@
         <v>23.8500003814697</v>
       </c>
       <c r="G2138" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -59832,7 +59838,7 @@
         <v>23.8500003814697</v>
       </c>
       <c r="G2139" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -59858,7 +59864,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G2140" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -59884,7 +59890,7 @@
         <v>23.75</v>
       </c>
       <c r="G2141" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -59910,7 +59916,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G2142" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -59936,7 +59942,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G2143" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -59962,7 +59968,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G2144" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -59988,7 +59994,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G2145" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -60014,7 +60020,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G2146" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -60040,7 +60046,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G2147" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -60066,7 +60072,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G2148" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -60092,7 +60098,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G2149" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -60118,7 +60124,7 @@
         <v>23.5</v>
       </c>
       <c r="G2150" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -60144,7 +60150,7 @@
         <v>25.0499992370605</v>
       </c>
       <c r="G2151" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -60170,7 +60176,7 @@
         <v>25.0499992370605</v>
       </c>
       <c r="G2152" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -60196,7 +60202,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G2153" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -60222,7 +60228,7 @@
         <v>24.5</v>
       </c>
       <c r="G2154" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -60248,7 +60254,7 @@
         <v>24.3500003814697</v>
       </c>
       <c r="G2155" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -60256,7 +60262,7 @@
     </row>
     <row r="2156">
       <c r="A2156" s="1" t="n">
-        <v>45463.6495138889</v>
+        <v>45463.2916666667</v>
       </c>
       <c r="B2156" t="n">
         <v>11597</v>
@@ -60274,9 +60280,35 @@
         <v>24.8500003814697</v>
       </c>
       <c r="G2156" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="H2156" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2157">
+      <c r="A2157" s="1" t="n">
+        <v>45464.6494444444</v>
+      </c>
+      <c r="B2157" t="n">
+        <v>18117</v>
+      </c>
+      <c r="C2157" t="n">
+        <v>24.9500007629395</v>
+      </c>
+      <c r="D2157" t="n">
+        <v>24.2999992370605</v>
+      </c>
+      <c r="E2157" t="n">
+        <v>24.7000007629395</v>
+      </c>
+      <c r="F2157" t="n">
+        <v>24.4500007629395</v>
+      </c>
+      <c r="G2157" t="s">
+        <v>1292</v>
+      </c>
+      <c r="H2157" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TXT.MI.xlsx
+++ b/data/TXT.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="1293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="1294">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,34 +44,34 @@
     <t xml:space="preserve">TXT.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43539428710938</t>
+    <t xml:space="preserve">6.43539476394653</t>
   </si>
   <si>
     <t xml:space="preserve">6.44345855712891</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27410650253296</t>
+    <t xml:space="preserve">6.27410697937012</t>
   </si>
   <si>
     <t xml:space="preserve">6.31442832946777</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13701200485229</t>
+    <t xml:space="preserve">6.13701152801514</t>
   </si>
   <si>
     <t xml:space="preserve">6.16926908493042</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12894773483276</t>
+    <t xml:space="preserve">6.12894725799561</t>
   </si>
   <si>
     <t xml:space="preserve">5.96765899658203</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89507913589478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80637073516846</t>
+    <t xml:space="preserve">5.89507961273193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80637121200562</t>
   </si>
   <si>
     <t xml:space="preserve">5.98782062530518</t>
@@ -83,13 +83,13 @@
     <t xml:space="preserve">5.76201677322388</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7660493850708</t>
+    <t xml:space="preserve">5.76604843139648</t>
   </si>
   <si>
     <t xml:space="preserve">5.78217792510986</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04023885726929</t>
+    <t xml:space="preserve">6.04023838043213</t>
   </si>
   <si>
     <t xml:space="preserve">5.92733716964722</t>
@@ -98,13 +98,13 @@
     <t xml:space="preserve">5.95959424972534</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98378801345825</t>
+    <t xml:space="preserve">5.98378753662109</t>
   </si>
   <si>
     <t xml:space="preserve">6.04830312728882</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89104747772217</t>
+    <t xml:space="preserve">5.89104700088501</t>
   </si>
   <si>
     <t xml:space="preserve">5.81846761703491</t>
@@ -113,28 +113,28 @@
     <t xml:space="preserve">6.21765565872192</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19346237182617</t>
+    <t xml:space="preserve">6.19346284866333</t>
   </si>
   <si>
     <t xml:space="preserve">6.24991321563721</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33862113952637</t>
+    <t xml:space="preserve">6.33862209320068</t>
   </si>
   <si>
     <t xml:space="preserve">6.26604175567627</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24184846878052</t>
+    <t xml:space="preserve">6.24184894561768</t>
   </si>
   <si>
     <t xml:space="preserve">6.25394535064697</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4515233039856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50394153594971</t>
+    <t xml:space="preserve">6.45152282714844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50394201278687</t>
   </si>
   <si>
     <t xml:space="preserve">6.45958805084229</t>
@@ -143,76 +143,76 @@
     <t xml:space="preserve">6.53216791152954</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54829597473145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54023170471191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28217077255249</t>
+    <t xml:space="preserve">6.5482964515686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54023122787476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28217124938965</t>
   </si>
   <si>
     <t xml:space="preserve">6.12088298797607</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29829978942871</t>
+    <t xml:space="preserve">6.29829931259155</t>
   </si>
   <si>
     <t xml:space="preserve">6.23781681060791</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18539762496948</t>
+    <t xml:space="preserve">6.18539810180664</t>
   </si>
   <si>
     <t xml:space="preserve">6.19749450683594</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15314054489136</t>
+    <t xml:space="preserve">6.15314102172852</t>
   </si>
   <si>
     <t xml:space="preserve">6.15717267990112</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03217458724976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06039953231812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99185132980347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17733287811279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09668922424316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20152711868286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14104413986206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22572040557861</t>
+    <t xml:space="preserve">6.0321741104126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06039905548096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99185276031494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17733335494995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09669017791748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2015266418457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1410436630249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22571992874146</t>
   </si>
   <si>
     <t xml:space="preserve">6.16523694992065</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25797843933105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07652807235718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14507532119751</t>
+    <t xml:space="preserve">6.2579779624939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07652854919434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14507627487183</t>
   </si>
   <si>
     <t xml:space="preserve">6.05636787414551</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99991703033447</t>
+    <t xml:space="preserve">5.99991655349731</t>
   </si>
   <si>
     <t xml:space="preserve">5.97975540161133</t>
@@ -224,25 +224,25 @@
     <t xml:space="preserve">6.11685085296631</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11281776428223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23735046386719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27070474624634</t>
+    <t xml:space="preserve">6.11281824111938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23734998703003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2707052230835</t>
   </si>
   <si>
     <t xml:space="preserve">6.11643934249878</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20399570465088</t>
+    <t xml:space="preserve">6.20399522781372</t>
   </si>
   <si>
     <t xml:space="preserve">6.25402784347534</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13728618621826</t>
+    <t xml:space="preserve">6.1372857093811</t>
   </si>
   <si>
     <t xml:space="preserve">6.21233415603638</t>
@@ -254,7 +254,7 @@
     <t xml:space="preserve">6.24568891525269</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16230154037476</t>
+    <t xml:space="preserve">6.16230201721191</t>
   </si>
   <si>
     <t xml:space="preserve">6.33324527740479</t>
@@ -278,25 +278,22 @@
     <t xml:space="preserve">5.93715715408325</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94966506958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85376977920532</t>
+    <t xml:space="preserve">5.94966554641724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85377025604248</t>
   </si>
   <si>
     <t xml:space="preserve">6.03722095489502</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12894725799561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08308410644531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98718929290771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00386619567871</t>
+    <t xml:space="preserve">6.08308458328247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98718881607056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00386714935303</t>
   </si>
   <si>
     <t xml:space="preserve">5.89546394348145</t>
@@ -308,43 +305,43 @@
     <t xml:space="preserve">5.90380239486694</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95383453369141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90797138214111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1664719581604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0580677986145</t>
+    <t xml:space="preserve">5.95383405685425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90797185897827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16647148132324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05806827545166</t>
   </si>
   <si>
     <t xml:space="preserve">6.14562463760376</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31239938735962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19982671737671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07474565505981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14145469665527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22067260742188</t>
+    <t xml:space="preserve">6.31239891052246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19982624053955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07474517822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14145517349243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22067308425903</t>
   </si>
   <si>
     <t xml:space="preserve">6.29572105407715</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17480993270874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19565582275391</t>
+    <t xml:space="preserve">6.1748104095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19565677642822</t>
   </si>
   <si>
     <t xml:space="preserve">6.18731832504272</t>
@@ -353,37 +350,37 @@
     <t xml:space="preserve">6.12060880661011</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19148778915405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11226987838745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09559202194214</t>
+    <t xml:space="preserve">6.19148731231689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11226940155029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0955924987793</t>
   </si>
   <si>
     <t xml:space="preserve">6.01220560073853</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14979362487793</t>
+    <t xml:space="preserve">6.14979314804077</t>
   </si>
   <si>
     <t xml:space="preserve">6.02888250350952</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96634244918823</t>
+    <t xml:space="preserve">5.96634292602539</t>
   </si>
   <si>
     <t xml:space="preserve">5.99552774429321</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07891464233398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99969816207886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04555988311768</t>
+    <t xml:space="preserve">6.07891511917114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99969720840454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04556035995483</t>
   </si>
   <si>
     <t xml:space="preserve">5.92881870269775</t>
@@ -401,13 +398,13 @@
     <t xml:space="preserve">5.89129447937012</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89963293075562</t>
+    <t xml:space="preserve">5.89963245391846</t>
   </si>
   <si>
     <t xml:space="preserve">5.79956817626953</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94549608230591</t>
+    <t xml:space="preserve">5.94549560546875</t>
   </si>
   <si>
     <t xml:space="preserve">5.97885036468506</t>
@@ -419,7 +416,7 @@
     <t xml:space="preserve">5.96217346191406</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10393142700195</t>
+    <t xml:space="preserve">6.10393095016479</t>
   </si>
   <si>
     <t xml:space="preserve">6.47083473205566</t>
@@ -428,85 +425,85 @@
     <t xml:space="preserve">6.49585008621216</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57923650741577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59591484069824</t>
+    <t xml:space="preserve">6.57923698425293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59591436386108</t>
   </si>
   <si>
     <t xml:space="preserve">6.50001955032349</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33741521835327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50418853759766</t>
+    <t xml:space="preserve">6.33741426467896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50418901443481</t>
   </si>
   <si>
     <t xml:space="preserve">6.42914056777954</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44581842422485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27904415130615</t>
+    <t xml:space="preserve">6.4458179473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27904367446899</t>
   </si>
   <si>
     <t xml:space="preserve">6.38327789306641</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42497158050537</t>
+    <t xml:space="preserve">6.42497110366821</t>
   </si>
   <si>
     <t xml:space="preserve">6.45415639877319</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42080163955688</t>
+    <t xml:space="preserve">6.42080211639404</t>
   </si>
   <si>
     <t xml:space="preserve">6.55422067642212</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38744640350342</t>
+    <t xml:space="preserve">6.38744688034058</t>
   </si>
   <si>
     <t xml:space="preserve">6.53754377365112</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37910795211792</t>
+    <t xml:space="preserve">6.37910842895508</t>
   </si>
   <si>
     <t xml:space="preserve">6.41663265228271</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3499231338501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4374794960022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22901105880737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0163745880127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05389881134033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06223726272583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07057666778564</t>
+    <t xml:space="preserve">6.34992265701294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43747901916504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22901201248169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01637506484985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05389928817749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06223773956299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07057619094849</t>
   </si>
   <si>
     <t xml:space="preserve">6.37076950073242</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41246318817139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32907629013062</t>
+    <t xml:space="preserve">6.41246271133423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32907581329346</t>
   </si>
   <si>
     <t xml:space="preserve">6.45832633972168</t>
@@ -515,142 +512,142 @@
     <t xml:space="preserve">6.28738260269165</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21650362014771</t>
+    <t xml:space="preserve">6.21650314331055</t>
   </si>
   <si>
     <t xml:space="preserve">6.74601125717163</t>
   </si>
   <si>
-    <t xml:space="preserve">6.72933340072632</t>
+    <t xml:space="preserve">6.72933387756348</t>
   </si>
   <si>
     <t xml:space="preserve">6.69597864151001</t>
   </si>
   <si>
-    <t xml:space="preserve">6.77102708816528</t>
+    <t xml:space="preserve">6.77102756500244</t>
   </si>
   <si>
     <t xml:space="preserve">6.78770542144775</t>
   </si>
   <si>
-    <t xml:space="preserve">7.08789777755737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25467157363892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22965526580811</t>
+    <t xml:space="preserve">7.08789825439453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25467252731323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22965669631958</t>
   </si>
   <si>
     <t xml:space="preserve">7.08372831344604</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06288242340088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12959146499634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07121992111206</t>
+    <t xml:space="preserve">7.06288146972656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1295919418335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07122087478638</t>
   </si>
   <si>
     <t xml:space="preserve">7.10457611083984</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03786563873291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25884199142456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65493059158325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6882848739624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65076017379761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13793087005615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35473680496216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49649477005005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5298490524292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54235792160034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48815536499023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32972097396851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22131681442261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15460729598999</t>
+    <t xml:space="preserve">7.03786516189575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25884103775024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65493011474609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68828535079956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65076065063477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13792991638184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.354736328125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49649429321289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52984952926636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54235744476318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48815488815308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32972145080566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22131776809692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15460872650146</t>
   </si>
   <si>
     <t xml:space="preserve">6.99200344085693</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12125253677368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10874366760254</t>
+    <t xml:space="preserve">7.12125205993652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1087441444397</t>
   </si>
   <si>
     <t xml:space="preserve">7.09206771850586</t>
   </si>
   <si>
-    <t xml:space="preserve">7.05454349517822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88359975814819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00451040267944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06705236434937</t>
+    <t xml:space="preserve">7.05454301834106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88360023498535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00451135635376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06705188751221</t>
   </si>
   <si>
     <t xml:space="preserve">6.93780088424683</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96281719207764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00867986679077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27968788146973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32138109207153</t>
+    <t xml:space="preserve">6.96281766891479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00867938995361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27968740463257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32138156890869</t>
   </si>
   <si>
     <t xml:space="preserve">7.59655904769897</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56320333480835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69662380218506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74665546417236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7133002281189</t>
+    <t xml:space="preserve">7.56320381164551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69662284851074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74665594100952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71330070495605</t>
   </si>
   <si>
     <t xml:space="preserve">7.9592924118042</t>
@@ -662,46 +659,46 @@
     <t xml:space="preserve">8.08854293823242</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13023471832275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90925931930542</t>
+    <t xml:space="preserve">8.13023567199707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90925979614258</t>
   </si>
   <si>
     <t xml:space="preserve">8.31785678863525</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25114727020264</t>
+    <t xml:space="preserve">8.25114822387695</t>
   </si>
   <si>
     <t xml:space="preserve">8.31368827819824</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5471715927124</t>
+    <t xml:space="preserve">8.54717063903809</t>
   </si>
   <si>
     <t xml:space="preserve">8.55550956726074</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42209053039551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45544624328613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49713802337646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68892955780029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69726848602295</t>
+    <t xml:space="preserve">8.42209148406982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45544528961182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49713897705078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68892860412598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69726657867432</t>
   </si>
   <si>
     <t xml:space="preserve">8.65557479858398</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58886432647705</t>
+    <t xml:space="preserve">8.58886623382568</t>
   </si>
   <si>
     <t xml:space="preserve">8.38873672485352</t>
@@ -710,16 +707,16 @@
     <t xml:space="preserve">8.09688186645508</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82170438766479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01766395568848</t>
+    <t xml:space="preserve">7.82170486450195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01766300201416</t>
   </si>
   <si>
     <t xml:space="preserve">8.23446941375732</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57218647003174</t>
+    <t xml:space="preserve">8.57218742370605</t>
   </si>
   <si>
     <t xml:space="preserve">8.66391372680664</t>
@@ -740,16 +737,16 @@
     <t xml:space="preserve">10.1565408706665</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2315883636475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5651378631592</t>
+    <t xml:space="preserve">10.2315893173218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5651369094849</t>
   </si>
   <si>
     <t xml:space="preserve">10.765266418457</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8319749832153</t>
+    <t xml:space="preserve">10.8319759368896</t>
   </si>
   <si>
     <t xml:space="preserve">10.3650093078613</t>
@@ -761,10 +758,10 @@
     <t xml:space="preserve">10.6540613174438</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5344476699829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94492816925049</t>
+    <t xml:space="preserve">10.5344467163086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9449291229248</t>
   </si>
   <si>
     <t xml:space="preserve">10.1328916549683</t>
@@ -785,10 +782,10 @@
     <t xml:space="preserve">10.1499786376953</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4575548171997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7822170257568</t>
+    <t xml:space="preserve">10.4575529098511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7822179794312</t>
   </si>
   <si>
     <t xml:space="preserve">10.7394981384277</t>
@@ -800,28 +797,28 @@
     <t xml:space="preserve">10.5515365600586</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7993049621582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7224102020264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7053232192993</t>
+    <t xml:space="preserve">10.7993040084839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7224111557007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.705322265625</t>
   </si>
   <si>
     <t xml:space="preserve">10.7138671875</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4917278289795</t>
+    <t xml:space="preserve">10.4917287826538</t>
   </si>
   <si>
     <t xml:space="preserve">10.4319229125977</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3464851379395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3806600570679</t>
+    <t xml:space="preserve">10.3464860916138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3806591033936</t>
   </si>
   <si>
     <t xml:space="preserve">10.1158046722412</t>
@@ -833,13 +830,13 @@
     <t xml:space="preserve">9.9022102355957</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8509464263916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68007278442383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50065326690674</t>
+    <t xml:space="preserve">9.85094738006592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68007183074951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50065422058105</t>
   </si>
   <si>
     <t xml:space="preserve">9.16744709014893</t>
@@ -851,7 +848,7 @@
     <t xml:space="preserve">9.24434089660645</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26142978668213</t>
+    <t xml:space="preserve">9.26142883300781</t>
   </si>
   <si>
     <t xml:space="preserve">9.30414772033691</t>
@@ -860,7 +857,7 @@
     <t xml:space="preserve">9.29560375213623</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39812850952148</t>
+    <t xml:space="preserve">9.3981294631958</t>
   </si>
   <si>
     <t xml:space="preserve">9.27851581573486</t>
@@ -878,25 +875,25 @@
     <t xml:space="preserve">10.1072597503662</t>
   </si>
   <si>
-    <t xml:space="preserve">9.97056102752686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91929817199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.295223236084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3037672042847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3550310134888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3293972015381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3635740280151</t>
+    <t xml:space="preserve">9.97056007385254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91929721832275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2952222824097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3037662506104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3550291061401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3293991088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3635730743408</t>
   </si>
   <si>
     <t xml:space="preserve">10.4404668807983</t>
@@ -905,19 +902,19 @@
     <t xml:space="preserve">10.2781352996826</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0901727676392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0389108657837</t>
+    <t xml:space="preserve">10.0901737213135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0389099121094</t>
   </si>
   <si>
     <t xml:space="preserve">9.96201705932617</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92784118652344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81677341461182</t>
+    <t xml:space="preserve">9.92784309387207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8167724609375</t>
   </si>
   <si>
     <t xml:space="preserve">9.57754802703857</t>
@@ -932,10 +929,10 @@
     <t xml:space="preserve">9.42376041412354</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63735389709473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7313346862793</t>
+    <t xml:space="preserve">9.63735485076904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73133659362793</t>
   </si>
   <si>
     <t xml:space="preserve">9.56900405883789</t>
@@ -944,16 +941,16 @@
     <t xml:space="preserve">9.45793533325195</t>
   </si>
   <si>
-    <t xml:space="preserve">9.34686470031738</t>
+    <t xml:space="preserve">9.3468656539917</t>
   </si>
   <si>
     <t xml:space="preserve">9.44939136505127</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51774120330811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58609199523926</t>
+    <t xml:space="preserve">9.51774215698242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58609104156494</t>
   </si>
   <si>
     <t xml:space="preserve">9.33832263946533</t>
@@ -965,13 +962,13 @@
     <t xml:space="preserve">9.65444278717041</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56046009063721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91075420379639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74842166900635</t>
+    <t xml:space="preserve">9.56046104431152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9107551574707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74842357635498</t>
   </si>
   <si>
     <t xml:space="preserve">9.71424770355225</t>
@@ -980,7 +977,7 @@
     <t xml:space="preserve">9.70570373535156</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82531642913818</t>
+    <t xml:space="preserve">9.8253173828125</t>
   </si>
   <si>
     <t xml:space="preserve">9.89366626739502</t>
@@ -989,25 +986,25 @@
     <t xml:space="preserve">9.84240436553955</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86803531646729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76551151275635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73987770080566</t>
+    <t xml:space="preserve">9.8680362701416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76550960540771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73987865447998</t>
   </si>
   <si>
     <t xml:space="preserve">9.6971607208252</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85949230194092</t>
+    <t xml:space="preserve">9.8594913482666</t>
   </si>
   <si>
     <t xml:space="preserve">9.79968547821045</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54337215423584</t>
+    <t xml:space="preserve">9.54337310791016</t>
   </si>
   <si>
     <t xml:space="preserve">9.20162296295166</t>
@@ -1019,7 +1016,7 @@
     <t xml:space="preserve">8.78297901153564</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65482330322266</t>
+    <t xml:space="preserve">8.65482234954834</t>
   </si>
   <si>
     <t xml:space="preserve">8.13365364074707</t>
@@ -1031,19 +1028,19 @@
     <t xml:space="preserve">8.1592845916748</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18064403533936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68899631500244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38996696472168</t>
+    <t xml:space="preserve">8.18064308166504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68899822235107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38996505737305</t>
   </si>
   <si>
     <t xml:space="preserve">8.40278148651123</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25326538085938</t>
+    <t xml:space="preserve">8.25326633453369</t>
   </si>
   <si>
     <t xml:space="preserve">8.33016014099121</t>
@@ -1061,22 +1058,22 @@
     <t xml:space="preserve">8.15074062347412</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09520816802979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90724325180054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88161325454712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85598087310791</t>
+    <t xml:space="preserve">8.09520721435547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9072437286377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88161277770996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85598134994507</t>
   </si>
   <si>
     <t xml:space="preserve">7.96704959869385</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91151666641235</t>
+    <t xml:space="preserve">7.91151571273804</t>
   </si>
   <si>
     <t xml:space="preserve">8.01404190063477</t>
@@ -1085,49 +1082,49 @@
     <t xml:space="preserve">8.035400390625</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07811737060547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0695743560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31307220458984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21909141540527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20627498626709</t>
+    <t xml:space="preserve">8.0781192779541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06957530975342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31307125091553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21908950805664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20627593994141</t>
   </si>
   <si>
     <t xml:space="preserve">8.10802268981934</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13792610168457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23190689086914</t>
+    <t xml:space="preserve">8.13792419433594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23190593719482</t>
   </si>
   <si>
     <t xml:space="preserve">8.28316974639893</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34724712371826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48394680023193</t>
+    <t xml:space="preserve">8.34724807739258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48394775390625</t>
   </si>
   <si>
     <t xml:space="preserve">8.62919139862061</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57792949676514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8000659942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61210441589355</t>
+    <t xml:space="preserve">8.57792854309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80006694793701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61210346221924</t>
   </si>
   <si>
     <t xml:space="preserve">8.54375267028809</t>
@@ -1139,10 +1136,10 @@
     <t xml:space="preserve">8.71462917327881</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64627742767334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52666473388672</t>
+    <t xml:space="preserve">8.64627838134766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52666568756104</t>
   </si>
   <si>
     <t xml:space="preserve">8.51812267303467</t>
@@ -1157,16 +1154,16 @@
     <t xml:space="preserve">8.26180934906006</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07384777069092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04821586608887</t>
+    <t xml:space="preserve">8.0738468170166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04821491241455</t>
   </si>
   <si>
     <t xml:space="preserve">7.97132253646851</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18491649627686</t>
+    <t xml:space="preserve">8.18491554260254</t>
   </si>
   <si>
     <t xml:space="preserve">8.03112888336182</t>
@@ -1178,322 +1175,325 @@
     <t xml:space="preserve">8.9709415435791</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81715488433838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88550281524658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83424186706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68045330047607</t>
+    <t xml:space="preserve">8.81715202331543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8855037689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83424091339111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68045234680176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66336631774902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90259075164795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00511646270752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4323034286499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3126916885376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19307994842529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17599105834961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10764122009277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15890407562256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32977962493896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.483567237854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2866792678833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6455173492432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7480411529541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6967811584473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0385303497314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.516978263855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4486293792725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5511560440063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.624963760376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9571046829224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.920202255249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4957981109619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3850841522217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3666305541992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0344886779785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9606800079346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5731821060181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7761573791504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.683895111084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7208013534546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5547294616699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2410402297974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.074969291687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0565166473389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1303253173828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3517532348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1487789154053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2963953018188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3333015441895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2041349411011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4809198379517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3886585235596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5178241729736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4071111679077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2779445648193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1672306060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85354137420654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87199306488037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7797327041626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53985118865967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74282741546631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79818248748779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72437477111816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68747043609619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81663608551025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76127910614014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63211250305176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.373779296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31842422485352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42913722991943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39223289489746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33687591552734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1338996887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15235328674316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99550819396973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94015026092529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09699535369873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02318572998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04163837432861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00473499298096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58033180236816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34045028686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9862813949585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76485443115234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.700270652771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71872234344482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69104385375977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4142599105835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50652122497559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46604156494141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44758892059326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26306629180908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06931686401367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20770931243896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18925762176514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10622215270996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0324125289917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06009006500244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94937705993652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9309253692627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84788990020752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89401912689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90324687957764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83866310119629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77407932281494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65414047241211</t>
   </si>
   <si>
     <t xml:space="preserve">8.66336727142334</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90259075164795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00511646270752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43230438232422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3126916885376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19307899475098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17599201202393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10764122009277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15890407562256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32977867126465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.483567237854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.286678314209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6455163955688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7480421066284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6967792510986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0385293960571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5169792175293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4486303329468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5511560440063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.624963760376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9571056365967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.920202255249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4957981109619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3850841522217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3666315078735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0344896316528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9606800079346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5731821060181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7761564254761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.683895111084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7208013534546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5547285079956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2410402297974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.074969291687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0565166473389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1303253173828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3517532348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1487789154053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2963962554932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3333015441895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2041349411011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4809198379517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3886585235596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5178241729736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4071102142334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.277943611145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1672306060791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85354137420654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87199306488037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77973175048828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53985023498535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74282741546631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79818344116211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72437477111816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68747043609619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81663608551025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76128005981445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63211154937744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37378025054932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31842422485352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42913722991943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39223289489746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33687591552734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1338996887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15235233306885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99550819396973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94015121459961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09699535369873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02318668365479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04163837432861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00473403930664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58033084869385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34045028686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9862813949585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76485443115234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.700270652771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71872234344482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69104385375977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4142599105835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50652122497559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46604156494141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44758892059326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26306629180908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06931686401367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20770931243896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18925762176514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10622119903564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0324125289917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06009006500244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94937705993652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9309253692627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84788990020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89401912689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90324592590332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83866405487061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77408027648926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65414047241211</t>
-  </si>
-  <si>
     <t xml:space="preserve">8.46961688995361</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36812782287598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30354595184326</t>
+    <t xml:space="preserve">8.36812877655029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30354499816895</t>
   </si>
   <si>
     <t xml:space="preserve">7.79610633850098</t>
   </si>
   <si>
-    <t xml:space="preserve">7.75920152664185</t>
+    <t xml:space="preserve">7.759202003479</t>
   </si>
   <si>
     <t xml:space="preserve">7.74075078964233</t>
@@ -1505,34 +1505,34 @@
     <t xml:space="preserve">7.64848804473877</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54700040817261</t>
+    <t xml:space="preserve">7.54700088500977</t>
   </si>
   <si>
     <t xml:space="preserve">7.44551277160645</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45473861694336</t>
+    <t xml:space="preserve">7.45473909378052</t>
   </si>
   <si>
     <t xml:space="preserve">7.13182306289673</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15950155258179</t>
+    <t xml:space="preserve">7.15950202941895</t>
   </si>
   <si>
     <t xml:space="preserve">7.43628692626953</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21485900878906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3532509803772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37170267105103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53777456283569</t>
+    <t xml:space="preserve">7.2148585319519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35325145721436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37170314788818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53777408599854</t>
   </si>
   <si>
     <t xml:space="preserve">7.47319221496582</t>
@@ -1544,7 +1544,7 @@
     <t xml:space="preserve">7.86069011688232</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74997663497925</t>
+    <t xml:space="preserve">7.74997615814209</t>
   </si>
   <si>
     <t xml:space="preserve">7.51009607315063</t>
@@ -1553,7 +1553,7 @@
     <t xml:space="preserve">7.6392617225647</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62080955505371</t>
+    <t xml:space="preserve">7.62081003189087</t>
   </si>
   <si>
     <t xml:space="preserve">7.39938259124756</t>
@@ -1562,13 +1562,13 @@
     <t xml:space="preserve">7.56545257568359</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27944135665894</t>
+    <t xml:space="preserve">7.27944183349609</t>
   </si>
   <si>
     <t xml:space="preserve">7.19640636444092</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20563220977783</t>
+    <t xml:space="preserve">7.20563268661499</t>
   </si>
   <si>
     <t xml:space="preserve">7.11337089538574</t>
@@ -1580,16 +1580,16 @@
     <t xml:space="preserve">7.49164342880249</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59313058853149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58390522003174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52854776382446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39015579223633</t>
+    <t xml:space="preserve">7.59313106536865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5839056968689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52854824066162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39015626907349</t>
   </si>
   <si>
     <t xml:space="preserve">7.34402465820312</t>
@@ -1598,7 +1598,7 @@
     <t xml:space="preserve">7.33479833602905</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36247730255127</t>
+    <t xml:space="preserve">7.36247682571411</t>
   </si>
   <si>
     <t xml:space="preserve">7.29789352416992</t>
@@ -1607,31 +1607,31 @@
     <t xml:space="preserve">7.32557249069214</t>
   </si>
   <si>
-    <t xml:space="preserve">7.40860795974731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73152351379395</t>
+    <t xml:space="preserve">7.40860748291016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73152303695679</t>
   </si>
   <si>
     <t xml:space="preserve">7.77765417098999</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92527389526367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10057067871094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43271160125732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45116424560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55265235900879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46039009094238</t>
+    <t xml:space="preserve">7.92527341842651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10056972503662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43271255493164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45116329193115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55265140533447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4603910446167</t>
   </si>
   <si>
     <t xml:space="preserve">8.40503311157227</t>
@@ -1640,7 +1640,7 @@
     <t xml:space="preserve">8.39580726623535</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08777046203613</t>
+    <t xml:space="preserve">9.08776950836182</t>
   </si>
   <si>
     <t xml:space="preserve">9.19848346710205</t>
@@ -1655,16 +1655,16 @@
     <t xml:space="preserve">9.11544799804688</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85711574554443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72794914245605</t>
+    <t xml:space="preserve">8.85711669921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72794818878174</t>
   </si>
   <si>
     <t xml:space="preserve">8.92169857025146</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07854270935059</t>
+    <t xml:space="preserve">9.0785436630249</t>
   </si>
   <si>
     <t xml:space="preserve">8.97705459594727</t>
@@ -1679,13 +1679,13 @@
     <t xml:space="preserve">8.86634159088135</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87556743621826</t>
+    <t xml:space="preserve">8.87556648254395</t>
   </si>
   <si>
     <t xml:space="preserve">8.64491271972656</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7464017868042</t>
+    <t xml:space="preserve">8.74640083312988</t>
   </si>
   <si>
     <t xml:space="preserve">8.31277179718018</t>
@@ -1694,10 +1694,10 @@
     <t xml:space="preserve">8.44193744659424</t>
   </si>
   <si>
-    <t xml:space="preserve">8.331223487854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1836051940918</t>
+    <t xml:space="preserve">8.33122444152832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18360614776611</t>
   </si>
   <si>
     <t xml:space="preserve">8.32199859619141</t>
@@ -1706,7 +1706,7 @@
     <t xml:space="preserve">8.29431915283203</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49729537963867</t>
+    <t xml:space="preserve">8.49729442596436</t>
   </si>
   <si>
     <t xml:space="preserve">8.5157470703125</t>
@@ -1727,7 +1727,7 @@
     <t xml:space="preserve">8.57110500335693</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59878253936768</t>
+    <t xml:space="preserve">8.59878158569336</t>
   </si>
   <si>
     <t xml:space="preserve">8.68181800842285</t>
@@ -1736,7 +1736,7 @@
     <t xml:space="preserve">8.67259216308594</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60800838470459</t>
+    <t xml:space="preserve">8.60800933837891</t>
   </si>
   <si>
     <t xml:space="preserve">9.28066253662109</t>
@@ -3891,6 +3891,9 @@
   </si>
   <si>
     <t xml:space="preserve">24.4500007629395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5499992370605</t>
   </si>
 </sst>
 </file>
@@ -7318,7 +7321,7 @@
         <v>7.34999990463257</v>
       </c>
       <c r="G119" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="H119" t="s">
         <v>9</v>
@@ -7344,7 +7347,7 @@
         <v>7.29500007629395</v>
       </c>
       <c r="G120" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H120" t="s">
         <v>9</v>
@@ -7370,7 +7373,7 @@
         <v>7.17999982833862</v>
       </c>
       <c r="G121" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H121" t="s">
         <v>9</v>
@@ -7396,7 +7399,7 @@
         <v>7.19999980926514</v>
       </c>
       <c r="G122" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H122" t="s">
         <v>9</v>
@@ -7448,7 +7451,7 @@
         <v>7.07000017166138</v>
       </c>
       <c r="G124" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H124" t="s">
         <v>9</v>
@@ -7474,7 +7477,7 @@
         <v>6.98999977111816</v>
       </c>
       <c r="G125" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H125" t="s">
         <v>9</v>
@@ -7500,7 +7503,7 @@
         <v>7.07999992370605</v>
       </c>
       <c r="G126" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H126" t="s">
         <v>9</v>
@@ -7526,7 +7529,7 @@
         <v>7.1399998664856</v>
       </c>
       <c r="G127" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H127" t="s">
         <v>9</v>
@@ -7552,7 +7555,7 @@
         <v>7.08500003814697</v>
       </c>
       <c r="G128" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H128" t="s">
         <v>9</v>
@@ -7578,7 +7581,7 @@
         <v>7.39499998092651</v>
       </c>
       <c r="G129" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H129" t="s">
         <v>9</v>
@@ -7682,7 +7685,7 @@
         <v>7.2649998664856</v>
       </c>
       <c r="G133" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H133" t="s">
         <v>9</v>
@@ -7708,7 +7711,7 @@
         <v>7.36999988555908</v>
       </c>
       <c r="G134" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H134" t="s">
         <v>9</v>
@@ -7760,7 +7763,7 @@
         <v>7.57000017166138</v>
       </c>
       <c r="G136" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H136" t="s">
         <v>9</v>
@@ -7812,7 +7815,7 @@
         <v>7.43499994277954</v>
       </c>
       <c r="G138" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H138" t="s">
         <v>9</v>
@@ -7838,7 +7841,7 @@
         <v>7.28499984741211</v>
       </c>
       <c r="G139" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H139" t="s">
         <v>9</v>
@@ -7864,7 +7867,7 @@
         <v>7.36499977111816</v>
       </c>
       <c r="G140" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H140" t="s">
         <v>9</v>
@@ -7916,7 +7919,7 @@
         <v>7.46000003814697</v>
       </c>
       <c r="G142" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H142" t="s">
         <v>9</v>
@@ -7968,7 +7971,7 @@
         <v>7.55000019073486</v>
       </c>
       <c r="G144" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H144" t="s">
         <v>9</v>
@@ -7994,7 +7997,7 @@
         <v>7.39499998092651</v>
       </c>
       <c r="G145" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H145" t="s">
         <v>9</v>
@@ -8020,7 +8023,7 @@
         <v>7.55000019073486</v>
       </c>
       <c r="G146" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H146" t="s">
         <v>9</v>
@@ -8072,7 +8075,7 @@
         <v>7.40500020980835</v>
       </c>
       <c r="G148" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H148" t="s">
         <v>9</v>
@@ -8098,7 +8101,7 @@
         <v>7.42999982833862</v>
       </c>
       <c r="G149" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H149" t="s">
         <v>9</v>
@@ -8124,7 +8127,7 @@
         <v>7.42999982833862</v>
       </c>
       <c r="G150" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H150" t="s">
         <v>9</v>
@@ -8176,7 +8179,7 @@
         <v>7.42000007629395</v>
       </c>
       <c r="G152" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H152" t="s">
         <v>9</v>
@@ -8228,7 +8231,7 @@
         <v>7.34000015258789</v>
       </c>
       <c r="G154" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H154" t="s">
         <v>9</v>
@@ -8306,7 +8309,7 @@
         <v>7.42500019073486</v>
       </c>
       <c r="G157" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H157" t="s">
         <v>9</v>
@@ -8332,7 +8335,7 @@
         <v>7.32999992370605</v>
       </c>
       <c r="G158" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H158" t="s">
         <v>9</v>
@@ -8358,7 +8361,7 @@
         <v>7.30999994277954</v>
       </c>
       <c r="G159" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H159" t="s">
         <v>9</v>
@@ -8384,7 +8387,7 @@
         <v>7.32999992370605</v>
       </c>
       <c r="G160" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H160" t="s">
         <v>9</v>
@@ -8410,7 +8413,7 @@
         <v>7.34999990463257</v>
       </c>
       <c r="G161" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="H161" t="s">
         <v>9</v>
@@ -8462,7 +8465,7 @@
         <v>7.21000003814697</v>
       </c>
       <c r="G163" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H163" t="s">
         <v>9</v>
@@ -8488,7 +8491,7 @@
         <v>7.07999992370605</v>
       </c>
       <c r="G164" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H164" t="s">
         <v>9</v>
@@ -8514,7 +8517,7 @@
         <v>7.30999994277954</v>
       </c>
       <c r="G165" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H165" t="s">
         <v>9</v>
@@ -8540,7 +8543,7 @@
         <v>7.375</v>
       </c>
       <c r="G166" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H166" t="s">
         <v>9</v>
@@ -8592,7 +8595,7 @@
         <v>7.34000015258789</v>
       </c>
       <c r="G168" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H168" t="s">
         <v>9</v>
@@ -8644,7 +8647,7 @@
         <v>7.23000001907349</v>
       </c>
       <c r="G170" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H170" t="s">
         <v>9</v>
@@ -8670,7 +8673,7 @@
         <v>7.15500020980835</v>
       </c>
       <c r="G171" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H171" t="s">
         <v>9</v>
@@ -8696,7 +8699,7 @@
         <v>7.19000005722046</v>
       </c>
       <c r="G172" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H172" t="s">
         <v>9</v>
@@ -8722,7 +8725,7 @@
         <v>7.28999996185303</v>
       </c>
       <c r="G173" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H173" t="s">
         <v>9</v>
@@ -8748,7 +8751,7 @@
         <v>7.19000005722046</v>
       </c>
       <c r="G174" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H174" t="s">
         <v>9</v>
@@ -8774,7 +8777,7 @@
         <v>7.19500017166138</v>
       </c>
       <c r="G175" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H175" t="s">
         <v>9</v>
@@ -8800,7 +8803,7 @@
         <v>7.25</v>
       </c>
       <c r="G176" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H176" t="s">
         <v>9</v>
@@ -8826,7 +8829,7 @@
         <v>7.19500017166138</v>
       </c>
       <c r="G177" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H177" t="s">
         <v>9</v>
@@ -8852,7 +8855,7 @@
         <v>7.2649998664856</v>
       </c>
       <c r="G178" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H178" t="s">
         <v>9</v>
@@ -8878,7 +8881,7 @@
         <v>7.1100001335144</v>
       </c>
       <c r="G179" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H179" t="s">
         <v>9</v>
@@ -8904,7 +8907,7 @@
         <v>7.16499996185303</v>
       </c>
       <c r="G180" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H180" t="s">
         <v>9</v>
@@ -8956,7 +8959,7 @@
         <v>7.03499984741211</v>
       </c>
       <c r="G182" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H182" t="s">
         <v>9</v>
@@ -8982,7 +8985,7 @@
         <v>7.02500009536743</v>
       </c>
       <c r="G183" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H183" t="s">
         <v>9</v>
@@ -9008,7 +9011,7 @@
         <v>7.16499996185303</v>
       </c>
       <c r="G184" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
@@ -9034,7 +9037,7 @@
         <v>7.06500005722046</v>
       </c>
       <c r="G185" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H185" t="s">
         <v>9</v>
@@ -9060,7 +9063,7 @@
         <v>7.19000005722046</v>
       </c>
       <c r="G186" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H186" t="s">
         <v>9</v>
@@ -9086,7 +9089,7 @@
         <v>7.07499980926514</v>
       </c>
       <c r="G187" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H187" t="s">
         <v>9</v>
@@ -9112,7 +9115,7 @@
         <v>6.95499992370605</v>
       </c>
       <c r="G188" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H188" t="s">
         <v>9</v>
@@ -9138,7 +9141,7 @@
         <v>6.98999977111816</v>
       </c>
       <c r="G189" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H189" t="s">
         <v>9</v>
@@ -9164,7 +9167,7 @@
         <v>7.13000011444092</v>
       </c>
       <c r="G190" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H190" t="s">
         <v>9</v>
@@ -9190,7 +9193,7 @@
         <v>7.17000007629395</v>
       </c>
       <c r="G191" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H191" t="s">
         <v>9</v>
@@ -9216,7 +9219,7 @@
         <v>7.17999982833862</v>
       </c>
       <c r="G192" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H192" t="s">
         <v>9</v>
@@ -9242,7 +9245,7 @@
         <v>7.17000007629395</v>
       </c>
       <c r="G193" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -9268,7 +9271,7 @@
         <v>7.09999990463257</v>
       </c>
       <c r="G194" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H194" t="s">
         <v>9</v>
@@ -9294,7 +9297,7 @@
         <v>7.19999980926514</v>
       </c>
       <c r="G195" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H195" t="s">
         <v>9</v>
@@ -9320,7 +9323,7 @@
         <v>7.19500017166138</v>
       </c>
       <c r="G196" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H196" t="s">
         <v>9</v>
@@ -9346,7 +9349,7 @@
         <v>7.17999982833862</v>
       </c>
       <c r="G197" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H197" t="s">
         <v>9</v>
@@ -9372,7 +9375,7 @@
         <v>7.15000009536743</v>
       </c>
       <c r="G198" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H198" t="s">
         <v>9</v>
@@ -9424,7 +9427,7 @@
         <v>7.15500020980835</v>
       </c>
       <c r="G200" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H200" t="s">
         <v>9</v>
@@ -9450,7 +9453,7 @@
         <v>7.32000017166138</v>
       </c>
       <c r="G201" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -9528,7 +9531,7 @@
         <v>7.76000022888184</v>
       </c>
       <c r="G204" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H204" t="s">
         <v>9</v>
@@ -9554,7 +9557,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G205" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H205" t="s">
         <v>9</v>
@@ -9580,7 +9583,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G206" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H206" t="s">
         <v>9</v>
@@ -9606,7 +9609,7 @@
         <v>7.8899998664856</v>
       </c>
       <c r="G207" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H207" t="s">
         <v>9</v>
@@ -9632,7 +9635,7 @@
         <v>7.90999984741211</v>
       </c>
       <c r="G208" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -9658,7 +9661,7 @@
         <v>7.79500007629395</v>
       </c>
       <c r="G209" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -9684,7 +9687,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G210" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H210" t="s">
         <v>9</v>
@@ -9710,7 +9713,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G211" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H211" t="s">
         <v>9</v>
@@ -9736,7 +9739,7 @@
         <v>7.71000003814697</v>
       </c>
       <c r="G212" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -9762,7 +9765,7 @@
         <v>7.71000003814697</v>
       </c>
       <c r="G213" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H213" t="s">
         <v>9</v>
@@ -9788,7 +9791,7 @@
         <v>7.73000001907349</v>
       </c>
       <c r="G214" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H214" t="s">
         <v>9</v>
@@ -9814,7 +9817,7 @@
         <v>7.71000003814697</v>
       </c>
       <c r="G215" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -9840,7 +9843,7 @@
         <v>7.53000020980835</v>
       </c>
       <c r="G216" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -9866,7 +9869,7 @@
         <v>7.65500020980835</v>
       </c>
       <c r="G217" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -9892,7 +9895,7 @@
         <v>7.70499992370605</v>
       </c>
       <c r="G218" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -9918,7 +9921,7 @@
         <v>7.73999977111816</v>
       </c>
       <c r="G219" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -9944,7 +9947,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G220" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H220" t="s">
         <v>9</v>
@@ -9970,7 +9973,7 @@
         <v>7.8600001335144</v>
       </c>
       <c r="G221" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H221" t="s">
         <v>9</v>
@@ -9996,7 +9999,7 @@
         <v>7.65999984741211</v>
       </c>
       <c r="G222" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -10022,7 +10025,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G223" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H223" t="s">
         <v>9</v>
@@ -10048,7 +10051,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G224" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -10074,7 +10077,7 @@
         <v>7.69500017166138</v>
       </c>
       <c r="G225" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H225" t="s">
         <v>9</v>
@@ -10100,7 +10103,7 @@
         <v>7.61499977111816</v>
       </c>
       <c r="G226" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -10126,7 +10129,7 @@
         <v>7.71999979019165</v>
       </c>
       <c r="G227" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -10152,7 +10155,7 @@
         <v>7.61499977111816</v>
       </c>
       <c r="G228" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -10178,7 +10181,7 @@
         <v>7.46999979019165</v>
       </c>
       <c r="G229" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H229" t="s">
         <v>9</v>
@@ -10204,7 +10207,7 @@
         <v>7.32000017166138</v>
       </c>
       <c r="G230" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H230" t="s">
         <v>9</v>
@@ -10230,7 +10233,7 @@
         <v>7.21000003814697</v>
       </c>
       <c r="G231" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -10256,7 +10259,7 @@
         <v>7.21500015258789</v>
       </c>
       <c r="G232" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -10282,7 +10285,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G233" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -10308,7 +10311,7 @@
         <v>7.19000005722046</v>
       </c>
       <c r="G234" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -10334,7 +10337,7 @@
         <v>7.19000005722046</v>
       </c>
       <c r="G235" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -10360,7 +10363,7 @@
         <v>7.26999998092651</v>
       </c>
       <c r="G236" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -10386,7 +10389,7 @@
         <v>7.28000020980835</v>
       </c>
       <c r="G237" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -10412,7 +10415,7 @@
         <v>7.21500015258789</v>
       </c>
       <c r="G238" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -10464,7 +10467,7 @@
         <v>7.46999979019165</v>
       </c>
       <c r="G240" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
@@ -10542,7 +10545,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G243" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -10568,7 +10571,7 @@
         <v>7.6399998664856</v>
       </c>
       <c r="G244" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -10594,7 +10597,7 @@
         <v>7.69000005722046</v>
       </c>
       <c r="G245" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H245" t="s">
         <v>9</v>
@@ -10620,7 +10623,7 @@
         <v>7.59000015258789</v>
       </c>
       <c r="G246" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -10646,7 +10649,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G247" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H247" t="s">
         <v>9</v>
@@ -10672,7 +10675,7 @@
         <v>7.74499988555908</v>
       </c>
       <c r="G248" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -10750,7 +10753,7 @@
         <v>7.61499977111816</v>
       </c>
       <c r="G251" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H251" t="s">
         <v>9</v>
@@ -10776,7 +10779,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G252" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H252" t="s">
         <v>9</v>
@@ -10828,7 +10831,7 @@
         <v>7.53999996185303</v>
       </c>
       <c r="G254" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -10854,7 +10857,7 @@
         <v>7.45499992370605</v>
       </c>
       <c r="G255" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -10932,7 +10935,7 @@
         <v>8.09000015258789</v>
       </c>
       <c r="G258" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -10958,7 +10961,7 @@
         <v>8.06999969482422</v>
       </c>
       <c r="G259" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -10984,7 +10987,7 @@
         <v>8.02999973297119</v>
       </c>
       <c r="G260" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H260" t="s">
         <v>9</v>
@@ -11010,7 +11013,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G261" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -11036,7 +11039,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G262" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -11062,7 +11065,7 @@
         <v>8.5</v>
       </c>
       <c r="G263" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -11088,7 +11091,7 @@
         <v>8.69999980926514</v>
       </c>
       <c r="G264" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -11114,7 +11117,7 @@
         <v>8.67000007629395</v>
       </c>
       <c r="G265" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -11140,7 +11143,7 @@
         <v>8.49499988555908</v>
       </c>
       <c r="G266" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H266" t="s">
         <v>9</v>
@@ -11166,7 +11169,7 @@
         <v>8.47000026702881</v>
       </c>
       <c r="G267" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -11192,7 +11195,7 @@
         <v>8.55000019073486</v>
       </c>
       <c r="G268" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -11218,7 +11221,7 @@
         <v>8.47999954223633</v>
       </c>
       <c r="G269" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -11244,7 +11247,7 @@
         <v>8.52000045776367</v>
       </c>
       <c r="G270" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -11270,7 +11273,7 @@
         <v>8.52000045776367</v>
       </c>
       <c r="G271" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -11296,7 +11299,7 @@
         <v>8.5</v>
       </c>
       <c r="G272" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H272" t="s">
         <v>9</v>
@@ -11322,7 +11325,7 @@
         <v>8.4399995803833</v>
       </c>
       <c r="G273" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -11348,7 +11351,7 @@
         <v>8.70499992370605</v>
       </c>
       <c r="G274" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -11374,7 +11377,7 @@
         <v>9.18000030517578</v>
       </c>
       <c r="G275" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H275" t="s">
         <v>9</v>
@@ -11400,7 +11403,7 @@
         <v>9.22000026702881</v>
       </c>
       <c r="G276" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -11426,7 +11429,7 @@
         <v>9.17500019073486</v>
       </c>
       <c r="G277" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -11452,7 +11455,7 @@
         <v>8.5600004196167</v>
       </c>
       <c r="G278" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -11478,7 +11481,7 @@
         <v>8.81999969482422</v>
       </c>
       <c r="G279" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -11504,7 +11507,7 @@
         <v>8.98999977111816</v>
       </c>
       <c r="G280" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -11530,7 +11533,7 @@
         <v>9.02999973297119</v>
       </c>
       <c r="G281" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -11556,7 +11559,7 @@
         <v>9.04500007629395</v>
       </c>
       <c r="G282" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
@@ -11582,7 +11585,7 @@
         <v>8.97999954223633</v>
       </c>
       <c r="G283" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -11608,7 +11611,7 @@
         <v>8.78999996185303</v>
       </c>
       <c r="G284" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H284" t="s">
         <v>9</v>
@@ -11634,7 +11637,7 @@
         <v>8.65999984741211</v>
       </c>
       <c r="G285" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -11660,7 +11663,7 @@
         <v>8.57999992370605</v>
       </c>
       <c r="G286" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -11686,7 +11689,7 @@
         <v>8.38500022888184</v>
       </c>
       <c r="G287" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -11712,7 +11715,7 @@
         <v>8.53999996185303</v>
       </c>
       <c r="G288" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -11738,7 +11741,7 @@
         <v>8.52499961853027</v>
       </c>
       <c r="G289" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -11764,7 +11767,7 @@
         <v>8.50500011444092</v>
       </c>
       <c r="G290" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -11790,7 +11793,7 @@
         <v>8.5</v>
       </c>
       <c r="G291" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -11816,7 +11819,7 @@
         <v>8.46000003814697</v>
       </c>
       <c r="G292" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -11842,7 +11845,7 @@
         <v>8.25500011444092</v>
       </c>
       <c r="G293" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -11868,7 +11871,7 @@
         <v>8.39999961853027</v>
       </c>
       <c r="G294" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -11894,7 +11897,7 @@
         <v>8.47999954223633</v>
       </c>
       <c r="G295" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H295" t="s">
         <v>9</v>
@@ -11920,7 +11923,7 @@
         <v>8.47500038146973</v>
       </c>
       <c r="G296" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -11946,7 +11949,7 @@
         <v>8.31999969482422</v>
       </c>
       <c r="G297" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -11972,7 +11975,7 @@
         <v>8.35000038146973</v>
       </c>
       <c r="G298" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -11998,7 +12001,7 @@
         <v>8.40499973297119</v>
       </c>
       <c r="G299" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -12024,7 +12027,7 @@
         <v>8.5600004196167</v>
       </c>
       <c r="G300" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -12050,7 +12053,7 @@
         <v>8.70499992370605</v>
       </c>
       <c r="G301" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -12076,7 +12079,7 @@
         <v>8.72999954223633</v>
       </c>
       <c r="G302" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -12102,7 +12105,7 @@
         <v>8.77999973297119</v>
       </c>
       <c r="G303" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -12128,7 +12131,7 @@
         <v>9.10999965667725</v>
       </c>
       <c r="G304" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -12154,7 +12157,7 @@
         <v>9.06999969482422</v>
       </c>
       <c r="G305" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -12180,7 +12183,7 @@
         <v>9.22999954223633</v>
       </c>
       <c r="G306" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -12206,7 +12209,7 @@
         <v>9.28999996185303</v>
       </c>
       <c r="G307" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -12232,7 +12235,7 @@
         <v>9.25</v>
       </c>
       <c r="G308" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -12258,7 +12261,7 @@
         <v>9.22000026702881</v>
       </c>
       <c r="G309" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -12284,7 +12287,7 @@
         <v>9.54500007629395</v>
       </c>
       <c r="G310" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -12310,7 +12313,7 @@
         <v>9.67000007629395</v>
       </c>
       <c r="G311" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -12336,7 +12339,7 @@
         <v>9.69999980926514</v>
       </c>
       <c r="G312" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -12362,7 +12365,7 @@
         <v>9.75</v>
       </c>
       <c r="G313" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -12388,7 +12391,7 @@
         <v>9.48499965667725</v>
       </c>
       <c r="G314" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -12414,7 +12417,7 @@
         <v>9.69999980926514</v>
       </c>
       <c r="G315" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -12440,7 +12443,7 @@
         <v>9.97500038146973</v>
       </c>
       <c r="G316" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -12466,7 +12469,7 @@
         <v>9.89500045776367</v>
       </c>
       <c r="G317" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -12492,7 +12495,7 @@
         <v>9.97000026702881</v>
       </c>
       <c r="G318" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -12518,7 +12521,7 @@
         <v>10.25</v>
       </c>
       <c r="G319" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -12544,7 +12547,7 @@
         <v>10.2600002288818</v>
       </c>
       <c r="G320" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -12570,7 +12573,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G321" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -12596,7 +12599,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G322" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -12622,7 +12625,7 @@
         <v>10.1400003433228</v>
       </c>
       <c r="G323" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -12648,7 +12651,7 @@
         <v>10.1899995803833</v>
       </c>
       <c r="G324" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -12674,7 +12677,7 @@
         <v>10.4200000762939</v>
       </c>
       <c r="G325" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -12700,7 +12703,7 @@
         <v>10.4300003051758</v>
       </c>
       <c r="G326" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -12726,7 +12729,7 @@
         <v>10.3800001144409</v>
       </c>
       <c r="G327" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -12752,7 +12755,7 @@
         <v>10.3000001907349</v>
       </c>
       <c r="G328" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -12778,7 +12781,7 @@
         <v>10.0600004196167</v>
       </c>
       <c r="G329" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -12804,7 +12807,7 @@
         <v>9.97500038146973</v>
       </c>
       <c r="G330" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -12830,7 +12833,7 @@
         <v>9.71000003814697</v>
       </c>
       <c r="G331" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -12856,7 +12859,7 @@
         <v>9.38000011444092</v>
       </c>
       <c r="G332" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -12882,7 +12885,7 @@
         <v>9.61499977111816</v>
       </c>
       <c r="G333" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -12908,7 +12911,7 @@
         <v>9.75</v>
       </c>
       <c r="G334" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -12934,7 +12937,7 @@
         <v>9.875</v>
       </c>
       <c r="G335" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -12960,7 +12963,7 @@
         <v>10.1899995803833</v>
       </c>
       <c r="G336" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -12986,7 +12989,7 @@
         <v>10.2799997329712</v>
       </c>
       <c r="G337" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -13012,7 +13015,7 @@
         <v>10.3900003433228</v>
       </c>
       <c r="G338" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -13038,7 +13041,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G339" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -13064,7 +13067,7 @@
         <v>10.6999998092651</v>
       </c>
       <c r="G340" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -13090,7 +13093,7 @@
         <v>11.3199996948242</v>
       </c>
       <c r="G341" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -13116,7 +13119,7 @@
         <v>11.4099998474121</v>
       </c>
       <c r="G342" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -13142,7 +13145,7 @@
         <v>12.1800003051758</v>
       </c>
       <c r="G343" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -13168,7 +13171,7 @@
         <v>12.2700004577637</v>
       </c>
       <c r="G344" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -13194,7 +13197,7 @@
         <v>12.6700000762939</v>
       </c>
       <c r="G345" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -13220,7 +13223,7 @@
         <v>12.9099998474121</v>
       </c>
       <c r="G346" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -13246,7 +13249,7 @@
         <v>12.9899997711182</v>
       </c>
       <c r="G347" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -13272,7 +13275,7 @@
         <v>12.4300003051758</v>
       </c>
       <c r="G348" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -13298,7 +13301,7 @@
         <v>12.5</v>
       </c>
       <c r="G349" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -13324,7 +13327,7 @@
         <v>12.4700002670288</v>
       </c>
       <c r="G350" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -13350,7 +13353,7 @@
         <v>12.3299999237061</v>
       </c>
       <c r="G351" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -13376,7 +13379,7 @@
         <v>11.6400003433228</v>
       </c>
       <c r="G352" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -13402,7 +13405,7 @@
         <v>11.8599996566772</v>
       </c>
       <c r="G353" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -13428,7 +13431,7 @@
         <v>11.9300003051758</v>
       </c>
       <c r="G354" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -13454,7 +13457,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G355" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -13480,7 +13483,7 @@
         <v>11.9899997711182</v>
       </c>
       <c r="G356" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -13506,7 +13509,7 @@
         <v>12</v>
       </c>
       <c r="G357" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -13532,7 +13535,7 @@
         <v>11.9899997711182</v>
       </c>
       <c r="G358" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -13558,7 +13561,7 @@
         <v>11.9899997711182</v>
       </c>
       <c r="G359" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -13584,7 +13587,7 @@
         <v>11.8800001144409</v>
       </c>
       <c r="G360" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -13610,7 +13613,7 @@
         <v>12.2399997711182</v>
       </c>
       <c r="G361" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -13636,7 +13639,7 @@
         <v>12.6199998855591</v>
       </c>
       <c r="G362" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -13662,7 +13665,7 @@
         <v>12.5699996948242</v>
       </c>
       <c r="G363" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -13688,7 +13691,7 @@
         <v>12.5100002288818</v>
       </c>
       <c r="G364" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -13714,7 +13717,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G365" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -13740,7 +13743,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G366" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -13766,7 +13769,7 @@
         <v>12.6400003433228</v>
       </c>
       <c r="G367" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -13792,7 +13795,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G368" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -13818,7 +13821,7 @@
         <v>12.5299997329712</v>
       </c>
       <c r="G369" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -13844,7 +13847,7 @@
         <v>12.539999961853</v>
       </c>
       <c r="G370" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -13870,7 +13873,7 @@
         <v>12.2799997329712</v>
       </c>
       <c r="G371" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -13896,7 +13899,7 @@
         <v>12.210000038147</v>
       </c>
       <c r="G372" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -13922,7 +13925,7 @@
         <v>11.9300003051758</v>
       </c>
       <c r="G373" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -13948,7 +13951,7 @@
         <v>12.1099996566772</v>
       </c>
       <c r="G374" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -13974,7 +13977,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G375" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -14000,7 +14003,7 @@
         <v>11.9300003051758</v>
       </c>
       <c r="G376" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -14026,7 +14029,7 @@
         <v>11.8400001525879</v>
       </c>
       <c r="G377" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -14052,7 +14055,7 @@
         <v>11.6800003051758</v>
       </c>
       <c r="G378" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -14078,7 +14081,7 @@
         <v>11.5900001525879</v>
       </c>
       <c r="G379" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -14104,7 +14107,7 @@
         <v>11.5299997329712</v>
       </c>
       <c r="G380" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -14130,7 +14133,7 @@
         <v>11.3299999237061</v>
       </c>
       <c r="G381" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -14156,7 +14159,7 @@
         <v>11.1199998855591</v>
       </c>
       <c r="G382" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -14182,7 +14185,7 @@
         <v>10.7299995422363</v>
       </c>
       <c r="G383" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -14208,7 +14211,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G384" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -14234,7 +14237,7 @@
         <v>10.8199996948242</v>
       </c>
       <c r="G385" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -14260,7 +14263,7 @@
         <v>10.8400001525879</v>
       </c>
       <c r="G386" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -14286,7 +14289,7 @@
         <v>10.8900003433228</v>
       </c>
       <c r="G387" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -14312,7 +14315,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G388" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -14338,7 +14341,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G389" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -14364,7 +14367,7 @@
         <v>10.8800001144409</v>
       </c>
       <c r="G390" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -14390,7 +14393,7 @@
         <v>11</v>
       </c>
       <c r="G391" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -14416,7 +14419,7 @@
         <v>10.8599996566772</v>
       </c>
       <c r="G392" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -14442,7 +14445,7 @@
         <v>11.0500001907349</v>
       </c>
       <c r="G393" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -14468,7 +14471,7 @@
         <v>11.4200000762939</v>
       </c>
       <c r="G394" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -14494,7 +14497,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G395" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -14520,7 +14523,7 @@
         <v>11.8299999237061</v>
       </c>
       <c r="G396" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -14546,7 +14549,7 @@
         <v>11.8400001525879</v>
       </c>
       <c r="G397" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -14572,7 +14575,7 @@
         <v>11.6700000762939</v>
       </c>
       <c r="G398" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -14598,7 +14601,7 @@
         <v>11.6099996566772</v>
       </c>
       <c r="G399" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -14624,7 +14627,7 @@
         <v>12.0500001907349</v>
       </c>
       <c r="G400" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -14650,7 +14653,7 @@
         <v>12.0600004196167</v>
       </c>
       <c r="G401" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -14676,7 +14679,7 @@
         <v>11.9899997711182</v>
       </c>
       <c r="G402" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -14702,7 +14705,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G403" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -14728,7 +14731,7 @@
         <v>12.0900001525879</v>
       </c>
       <c r="G404" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -14754,7 +14757,7 @@
         <v>12.0500001907349</v>
       </c>
       <c r="G405" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -14780,7 +14783,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G406" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -14806,7 +14809,7 @@
         <v>12.1300001144409</v>
       </c>
       <c r="G407" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -14832,7 +14835,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G408" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -14858,7 +14861,7 @@
         <v>11.8800001144409</v>
       </c>
       <c r="G409" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -14884,7 +14887,7 @@
         <v>12.2200002670288</v>
       </c>
       <c r="G410" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -14910,7 +14913,7 @@
         <v>12.210000038147</v>
       </c>
       <c r="G411" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -14936,7 +14939,7 @@
         <v>12.0299997329712</v>
       </c>
       <c r="G412" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -14962,7 +14965,7 @@
         <v>11.8100004196167</v>
       </c>
       <c r="G413" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -14988,7 +14991,7 @@
         <v>11.6700000762939</v>
       </c>
       <c r="G414" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -15014,7 +15017,7 @@
         <v>11.75</v>
       </c>
       <c r="G415" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -15040,7 +15043,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G416" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -15066,7 +15069,7 @@
         <v>12.0500001907349</v>
       </c>
       <c r="G417" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -15092,7 +15095,7 @@
         <v>11.8800001144409</v>
       </c>
       <c r="G418" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -15118,7 +15121,7 @@
         <v>11.6599998474121</v>
       </c>
       <c r="G419" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -15144,7 +15147,7 @@
         <v>11.6199998855591</v>
       </c>
       <c r="G420" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -15170,7 +15173,7 @@
         <v>11.4899997711182</v>
       </c>
       <c r="G421" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -15196,7 +15199,7 @@
         <v>11.210000038147</v>
       </c>
       <c r="G422" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -15222,7 +15225,7 @@
         <v>11.4399995803833</v>
       </c>
       <c r="G423" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -15248,7 +15251,7 @@
         <v>11.1499996185303</v>
       </c>
       <c r="G424" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -15274,7 +15277,7 @@
         <v>11.0299997329712</v>
       </c>
       <c r="G425" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -15300,7 +15303,7 @@
         <v>11.2799997329712</v>
       </c>
       <c r="G426" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -15326,7 +15329,7 @@
         <v>11.5299997329712</v>
       </c>
       <c r="G427" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -15352,7 +15355,7 @@
         <v>11.3900003433228</v>
       </c>
       <c r="G428" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -15378,7 +15381,7 @@
         <v>11.210000038147</v>
       </c>
       <c r="G429" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -15404,7 +15407,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G430" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -15430,7 +15433,7 @@
         <v>11.0699996948242</v>
       </c>
       <c r="G431" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -15456,7 +15459,7 @@
         <v>11.1199998855591</v>
       </c>
       <c r="G432" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -15482,7 +15485,7 @@
         <v>10.9399995803833</v>
       </c>
       <c r="G433" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -15508,7 +15511,7 @@
         <v>11.0600004196167</v>
       </c>
       <c r="G434" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -15534,7 +15537,7 @@
         <v>11.1400003433228</v>
       </c>
       <c r="G435" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -15560,7 +15563,7 @@
         <v>11.2200002670288</v>
       </c>
       <c r="G436" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -15586,7 +15589,7 @@
         <v>11.1400003433228</v>
       </c>
       <c r="G437" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -15612,7 +15615,7 @@
         <v>11.0500001907349</v>
       </c>
       <c r="G438" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -15638,7 +15641,7 @@
         <v>11.0600004196167</v>
       </c>
       <c r="G439" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -15664,7 +15667,7 @@
         <v>10.9300003051758</v>
       </c>
       <c r="G440" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -15690,7 +15693,7 @@
         <v>10.8900003433228</v>
       </c>
       <c r="G441" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -15716,7 +15719,7 @@
         <v>10.8800001144409</v>
       </c>
       <c r="G442" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -15742,7 +15745,7 @@
         <v>10.8500003814697</v>
       </c>
       <c r="G443" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -15768,7 +15771,7 @@
         <v>10.8900003433228</v>
       </c>
       <c r="G444" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -15794,7 +15797,7 @@
         <v>11.3000001907349</v>
       </c>
       <c r="G445" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -15820,7 +15823,7 @@
         <v>11.6700000762939</v>
       </c>
       <c r="G446" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -15846,7 +15849,7 @@
         <v>11.4399995803833</v>
       </c>
       <c r="G447" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -15872,7 +15875,7 @@
         <v>11.1899995803833</v>
       </c>
       <c r="G448" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -15898,7 +15901,7 @@
         <v>11.8800001144409</v>
       </c>
       <c r="G449" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -15924,7 +15927,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G450" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -15950,7 +15953,7 @@
         <v>11.4099998474121</v>
       </c>
       <c r="G451" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -15976,7 +15979,7 @@
         <v>11.4200000762939</v>
       </c>
       <c r="G452" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -16002,7 +16005,7 @@
         <v>11.2200002670288</v>
       </c>
       <c r="G453" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -16028,7 +16031,7 @@
         <v>11.3900003433228</v>
       </c>
       <c r="G454" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -16054,7 +16057,7 @@
         <v>11.2799997329712</v>
       </c>
       <c r="G455" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -16080,7 +16083,7 @@
         <v>11.3699998855591</v>
       </c>
       <c r="G456" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -16106,7 +16109,7 @@
         <v>11.3599996566772</v>
       </c>
       <c r="G457" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -16132,7 +16135,7 @@
         <v>11.5</v>
       </c>
       <c r="G458" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -16158,7 +16161,7 @@
         <v>11.5799999237061</v>
       </c>
       <c r="G459" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -16184,7 +16187,7 @@
         <v>11.5200004577637</v>
       </c>
       <c r="G460" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -16210,7 +16213,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G461" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -16236,7 +16239,7 @@
         <v>11.4300003051758</v>
       </c>
       <c r="G462" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -16262,7 +16265,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G463" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -16288,7 +16291,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G464" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -16314,7 +16317,7 @@
         <v>11.5</v>
       </c>
       <c r="G465" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -16340,7 +16343,7 @@
         <v>11.4899997711182</v>
       </c>
       <c r="G466" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -16366,7 +16369,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G467" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -16392,7 +16395,7 @@
         <v>11.539999961853</v>
       </c>
       <c r="G468" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -16418,7 +16421,7 @@
         <v>11.4700002670288</v>
       </c>
       <c r="G469" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -16444,7 +16447,7 @@
         <v>11.5200004577637</v>
       </c>
       <c r="G470" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -16470,7 +16473,7 @@
         <v>11.4700002670288</v>
       </c>
       <c r="G471" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -16496,7 +16499,7 @@
         <v>11.5299997329712</v>
       </c>
       <c r="G472" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -16522,7 +16525,7 @@
         <v>11.539999961853</v>
       </c>
       <c r="G473" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -16548,7 +16551,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G474" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -16574,7 +16577,7 @@
         <v>11.4200000762939</v>
       </c>
       <c r="G475" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -16600,7 +16603,7 @@
         <v>11.1700000762939</v>
       </c>
       <c r="G476" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -16626,7 +16629,7 @@
         <v>10.7700004577637</v>
       </c>
       <c r="G477" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -16652,7 +16655,7 @@
         <v>10.6099996566772</v>
       </c>
       <c r="G478" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -16678,7 +16681,7 @@
         <v>10.2799997329712</v>
       </c>
       <c r="G479" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -16704,7 +16707,7 @@
         <v>10.1300001144409</v>
       </c>
       <c r="G480" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -16730,7 +16733,7 @@
         <v>9.52000045776367</v>
       </c>
       <c r="G481" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -16756,7 +16759,7 @@
         <v>9.8149995803833</v>
       </c>
       <c r="G482" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -16782,7 +16785,7 @@
         <v>9.55000019073486</v>
       </c>
       <c r="G483" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -16808,7 +16811,7 @@
         <v>9.57499980926514</v>
       </c>
       <c r="G484" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -16834,7 +16837,7 @@
         <v>10.1700000762939</v>
       </c>
       <c r="G485" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -16860,7 +16863,7 @@
         <v>9.81999969482422</v>
       </c>
       <c r="G486" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -16886,7 +16889,7 @@
         <v>9.83500003814697</v>
       </c>
       <c r="G487" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -16912,7 +16915,7 @@
         <v>9.65999984741211</v>
       </c>
       <c r="G488" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -16938,7 +16941,7 @@
         <v>9.75</v>
       </c>
       <c r="G489" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -16964,7 +16967,7 @@
         <v>9.86999988555908</v>
       </c>
       <c r="G490" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -16990,7 +16993,7 @@
         <v>9.80000019073486</v>
       </c>
       <c r="G491" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -17016,7 +17019,7 @@
         <v>9.77499961853027</v>
       </c>
       <c r="G492" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -17042,7 +17045,7 @@
         <v>9.53999996185303</v>
       </c>
       <c r="G493" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -17068,7 +17071,7 @@
         <v>9.47500038146973</v>
       </c>
       <c r="G494" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -17094,7 +17097,7 @@
         <v>9.25500011444092</v>
       </c>
       <c r="G495" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -17120,7 +17123,7 @@
         <v>9.22500038146973</v>
       </c>
       <c r="G496" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -17146,7 +17149,7 @@
         <v>9.19499969482422</v>
       </c>
       <c r="G497" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -17172,7 +17175,7 @@
         <v>9.32499980926514</v>
       </c>
       <c r="G498" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -17198,7 +17201,7 @@
         <v>9.26000022888184</v>
       </c>
       <c r="G499" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -17224,7 +17227,7 @@
         <v>9.38000011444092</v>
       </c>
       <c r="G500" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -17250,7 +17253,7 @@
         <v>9.40499973297119</v>
       </c>
       <c r="G501" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -17276,7 +17279,7 @@
         <v>9.45499992370605</v>
       </c>
       <c r="G502" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -17302,7 +17305,7 @@
         <v>9.44499969482422</v>
       </c>
       <c r="G503" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -17328,7 +17331,7 @@
         <v>9.72999954223633</v>
       </c>
       <c r="G504" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -17354,7 +17357,7 @@
         <v>9.72999954223633</v>
       </c>
       <c r="G505" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -17380,7 +17383,7 @@
         <v>9.61999988555908</v>
       </c>
       <c r="G506" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -17406,7 +17409,7 @@
         <v>9.60499954223633</v>
       </c>
       <c r="G507" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -17432,7 +17435,7 @@
         <v>9.48999977111816</v>
       </c>
       <c r="G508" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -17458,7 +17461,7 @@
         <v>9.52499961853027</v>
       </c>
       <c r="G509" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -17484,7 +17487,7 @@
         <v>9.65999984741211</v>
       </c>
       <c r="G510" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -17510,7 +17513,7 @@
         <v>9.63500022888184</v>
       </c>
       <c r="G511" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -17536,7 +17539,7 @@
         <v>9.69499969482422</v>
       </c>
       <c r="G512" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -17562,7 +17565,7 @@
         <v>9.77000045776367</v>
       </c>
       <c r="G513" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -17588,7 +17591,7 @@
         <v>9.93000030517578</v>
       </c>
       <c r="G514" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -17614,7 +17617,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G515" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -17640,7 +17643,7 @@
         <v>10.039999961853</v>
       </c>
       <c r="G516" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -17666,7 +17669,7 @@
         <v>10.3000001907349</v>
       </c>
       <c r="G517" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -17692,7 +17695,7 @@
         <v>10.0799999237061</v>
       </c>
       <c r="G518" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -17718,7 +17721,7 @@
         <v>10</v>
       </c>
       <c r="G519" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -17744,7 +17747,7 @@
         <v>10.0799999237061</v>
       </c>
       <c r="G520" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -17770,7 +17773,7 @@
         <v>10.0200004577637</v>
       </c>
       <c r="G521" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -17796,7 +17799,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G522" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -17822,7 +17825,7 @@
         <v>10.1199998855591</v>
       </c>
       <c r="G523" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -17848,7 +17851,7 @@
         <v>10.1199998855591</v>
       </c>
       <c r="G524" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -17874,7 +17877,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G525" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -17900,7 +17903,7 @@
         <v>10</v>
       </c>
       <c r="G526" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -17926,7 +17929,7 @@
         <v>9.97000026702881</v>
       </c>
       <c r="G527" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -17952,7 +17955,7 @@
         <v>9.90999984741211</v>
       </c>
       <c r="G528" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -17978,7 +17981,7 @@
         <v>9.88000011444092</v>
       </c>
       <c r="G529" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -18004,7 +18007,7 @@
         <v>10.1199998855591</v>
       </c>
       <c r="G530" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -18030,7 +18033,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G531" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -18056,7 +18059,7 @@
         <v>9.80000019073486</v>
       </c>
       <c r="G532" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -18082,7 +18085,7 @@
         <v>9.80000019073486</v>
       </c>
       <c r="G533" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -18108,7 +18111,7 @@
         <v>9.67000007629395</v>
       </c>
       <c r="G534" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -18134,7 +18137,7 @@
         <v>9.44999980926514</v>
       </c>
       <c r="G535" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -18160,7 +18163,7 @@
         <v>9.42000007629395</v>
       </c>
       <c r="G536" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -18186,7 +18189,7 @@
         <v>9.32999992370605</v>
       </c>
       <c r="G537" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -18212,7 +18215,7 @@
         <v>9.57999992370605</v>
       </c>
       <c r="G538" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -18238,7 +18241,7 @@
         <v>9.52000045776367</v>
       </c>
       <c r="G539" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -18264,7 +18267,7 @@
         <v>9.39999961853027</v>
       </c>
       <c r="G540" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -18290,7 +18293,7 @@
         <v>9.8100004196167</v>
       </c>
       <c r="G541" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -18316,7 +18319,7 @@
         <v>10.0799999237061</v>
       </c>
       <c r="G542" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -18342,7 +18345,7 @@
         <v>10.0200004577637</v>
       </c>
       <c r="G543" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -18368,7 +18371,7 @@
         <v>10.1199998855591</v>
       </c>
       <c r="G544" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -18394,7 +18397,7 @@
         <v>10.1199998855591</v>
       </c>
       <c r="G545" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -18420,7 +18423,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G546" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -18446,7 +18449,7 @@
         <v>10.2799997329712</v>
       </c>
       <c r="G547" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -18472,7 +18475,7 @@
         <v>10.5</v>
       </c>
       <c r="G548" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -18498,7 +18501,7 @@
         <v>10.3199996948242</v>
       </c>
       <c r="G549" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -18524,7 +18527,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G550" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -18550,7 +18553,7 @@
         <v>10.3400001525879</v>
       </c>
       <c r="G551" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -18576,7 +18579,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G552" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -18602,7 +18605,7 @@
         <v>10.1599998474121</v>
       </c>
       <c r="G553" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -18628,7 +18631,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G554" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -18654,7 +18657,7 @@
         <v>10.1400003433228</v>
       </c>
       <c r="G555" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -18680,7 +18683,7 @@
         <v>10.4200000762939</v>
       </c>
       <c r="G556" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -18706,7 +18709,7 @@
         <v>10.539999961853</v>
       </c>
       <c r="G557" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -18732,7 +18735,7 @@
         <v>11.039999961853</v>
       </c>
       <c r="G558" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -18758,7 +18761,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G559" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -18784,7 +18787,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G560" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -18810,7 +18813,7 @@
         <v>10.9399995803833</v>
       </c>
       <c r="G561" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -18836,7 +18839,7 @@
         <v>11</v>
       </c>
       <c r="G562" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -18862,7 +18865,7 @@
         <v>10.8400001525879</v>
       </c>
       <c r="G563" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -18888,7 +18891,7 @@
         <v>10.8599996566772</v>
       </c>
       <c r="G564" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -18914,7 +18917,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G565" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -18940,7 +18943,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G566" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -18966,7 +18969,7 @@
         <v>10.8599996566772</v>
       </c>
       <c r="G567" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -18992,7 +18995,7 @@
         <v>10.8800001144409</v>
       </c>
       <c r="G568" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -19018,7 +19021,7 @@
         <v>10.7600002288818</v>
       </c>
       <c r="G569" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -19044,7 +19047,7 @@
         <v>10.8400001525879</v>
       </c>
       <c r="G570" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -19070,7 +19073,7 @@
         <v>10.8400001525879</v>
       </c>
       <c r="G571" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -19096,7 +19099,7 @@
         <v>10.8800001144409</v>
       </c>
       <c r="G572" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -19122,7 +19125,7 @@
         <v>10.7399997711182</v>
       </c>
       <c r="G573" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -19148,7 +19151,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G574" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -19174,7 +19177,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G575" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -19200,7 +19203,7 @@
         <v>10.6599998474121</v>
       </c>
       <c r="G576" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -19226,7 +19229,7 @@
         <v>10.7200002670288</v>
       </c>
       <c r="G577" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -19252,7 +19255,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G578" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -19278,7 +19281,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G579" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -19304,7 +19307,7 @@
         <v>10.9399995803833</v>
       </c>
       <c r="G580" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -19330,7 +19333,7 @@
         <v>10.8800001144409</v>
       </c>
       <c r="G581" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -19356,7 +19359,7 @@
         <v>10.8599996566772</v>
       </c>
       <c r="G582" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -19382,7 +19385,7 @@
         <v>10.9200000762939</v>
       </c>
       <c r="G583" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -19408,7 +19411,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G584" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -19434,7 +19437,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G585" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -19460,7 +19463,7 @@
         <v>11.2799997329712</v>
       </c>
       <c r="G586" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -19486,7 +19489,7 @@
         <v>11.4200000762939</v>
       </c>
       <c r="G587" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -19512,7 +19515,7 @@
         <v>12.039999961853</v>
       </c>
       <c r="G588" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -19538,7 +19541,7 @@
         <v>12.460000038147</v>
       </c>
       <c r="G589" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -19564,7 +19567,7 @@
         <v>12.5799999237061</v>
       </c>
       <c r="G590" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -19590,7 +19593,7 @@
         <v>12.5200004577637</v>
       </c>
       <c r="G591" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -19616,7 +19619,7 @@
         <v>12.5200004577637</v>
       </c>
       <c r="G592" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -19642,7 +19645,7 @@
         <v>12.5799999237061</v>
       </c>
       <c r="G593" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -19668,7 +19671,7 @@
         <v>12.9200000762939</v>
       </c>
       <c r="G594" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -19694,7 +19697,7 @@
         <v>13.4799995422363</v>
       </c>
       <c r="G595" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -19720,7 +19723,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G596" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -19746,7 +19749,7 @@
         <v>13.5200004577637</v>
       </c>
       <c r="G597" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -19772,7 +19775,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G598" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -19798,7 +19801,7 @@
         <v>12.960000038147</v>
       </c>
       <c r="G599" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -19824,7 +19827,7 @@
         <v>12.960000038147</v>
       </c>
       <c r="G600" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -19850,7 +19853,7 @@
         <v>12.9200000762939</v>
       </c>
       <c r="G601" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -19876,7 +19879,7 @@
         <v>12.460000038147</v>
       </c>
       <c r="G602" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -19902,7 +19905,7 @@
         <v>12.3400001525879</v>
       </c>
       <c r="G603" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -19928,7 +19931,7 @@
         <v>12.3199996948242</v>
       </c>
       <c r="G604" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -19954,7 +19957,7 @@
         <v>11.960000038147</v>
       </c>
       <c r="G605" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -19980,7 +19983,7 @@
         <v>11.8800001144409</v>
       </c>
       <c r="G606" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -20006,7 +20009,7 @@
         <v>11.460000038147</v>
       </c>
       <c r="G607" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -20032,7 +20035,7 @@
         <v>11.6800003051758</v>
       </c>
       <c r="G608" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -20058,7 +20061,7 @@
         <v>11.5799999237061</v>
       </c>
       <c r="G609" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -20084,7 +20087,7 @@
         <v>11.5799999237061</v>
       </c>
       <c r="G610" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -20110,7 +20113,7 @@
         <v>11.6199998855591</v>
       </c>
       <c r="G611" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -20136,7 +20139,7 @@
         <v>11.4399995803833</v>
       </c>
       <c r="G612" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -20162,7 +20165,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G613" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -20188,7 +20191,7 @@
         <v>10.9200000762939</v>
       </c>
       <c r="G614" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -20214,7 +20217,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G615" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -20240,7 +20243,7 @@
         <v>10.9799995422363</v>
       </c>
       <c r="G616" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -20266,7 +20269,7 @@
         <v>11.2200002670288</v>
       </c>
       <c r="G617" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -20292,7 +20295,7 @@
         <v>11</v>
       </c>
       <c r="G618" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -20318,7 +20321,7 @@
         <v>11.1599998474121</v>
       </c>
       <c r="G619" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -20344,7 +20347,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G620" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -20370,7 +20373,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G621" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -20396,7 +20399,7 @@
         <v>11.0600004196167</v>
       </c>
       <c r="G622" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -20422,7 +20425,7 @@
         <v>11.3599996566772</v>
       </c>
       <c r="G623" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -20448,7 +20451,7 @@
         <v>11.2600002288818</v>
       </c>
       <c r="G624" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -20474,7 +20477,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G625" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -20500,7 +20503,7 @@
         <v>11.2799997329712</v>
       </c>
       <c r="G626" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -20526,7 +20529,7 @@
         <v>11.1400003433228</v>
       </c>
       <c r="G627" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -20552,7 +20555,7 @@
         <v>10.9799995422363</v>
       </c>
       <c r="G628" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -20578,7 +20581,7 @@
         <v>11.1599998474121</v>
       </c>
       <c r="G629" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -20604,7 +20607,7 @@
         <v>11.1400003433228</v>
       </c>
       <c r="G630" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -20630,7 +20633,7 @@
         <v>11.0200004577637</v>
       </c>
       <c r="G631" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -20656,7 +20659,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G632" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -20682,7 +20685,7 @@
         <v>10.6800003051758</v>
       </c>
       <c r="G633" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -20708,7 +20711,7 @@
         <v>10.6999998092651</v>
       </c>
       <c r="G634" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -20734,7 +20737,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G635" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -20760,7 +20763,7 @@
         <v>10.3400001525879</v>
       </c>
       <c r="G636" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -20786,7 +20789,7 @@
         <v>10.5600004196167</v>
       </c>
       <c r="G637" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -20812,7 +20815,7 @@
         <v>10.6199998855591</v>
       </c>
       <c r="G638" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -20838,7 +20841,7 @@
         <v>10.539999961853</v>
       </c>
       <c r="G639" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -20864,7 +20867,7 @@
         <v>10.5</v>
       </c>
       <c r="G640" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -20890,7 +20893,7 @@
         <v>10.6199998855591</v>
       </c>
       <c r="G641" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -20916,7 +20919,7 @@
         <v>10.6400003433228</v>
       </c>
       <c r="G642" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -20942,7 +20945,7 @@
         <v>10.5799999237061</v>
       </c>
       <c r="G643" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -20968,7 +20971,7 @@
         <v>10.4399995803833</v>
       </c>
       <c r="G644" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -20994,7 +20997,7 @@
         <v>10.1599998474121</v>
       </c>
       <c r="G645" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -21020,7 +21023,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G646" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -21046,7 +21049,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G647" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -21072,7 +21075,7 @@
         <v>10.2200002670288</v>
       </c>
       <c r="G648" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -21098,7 +21101,7 @@
         <v>10.1599998474121</v>
       </c>
       <c r="G649" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -21124,7 +21127,7 @@
         <v>10.1800003051758</v>
       </c>
       <c r="G650" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -21150,7 +21153,7 @@
         <v>10.1199998855591</v>
       </c>
       <c r="G651" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -21176,7 +21179,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G652" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -21202,7 +21205,7 @@
         <v>9.92000007629395</v>
       </c>
       <c r="G653" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -21228,7 +21231,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G654" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -21254,7 +21257,7 @@
         <v>9.75</v>
       </c>
       <c r="G655" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -21280,7 +21283,7 @@
         <v>9.6899995803833</v>
       </c>
       <c r="G656" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -21306,7 +21309,7 @@
         <v>9.85999965667725</v>
       </c>
       <c r="G657" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -21332,7 +21335,7 @@
         <v>9.77999973297119</v>
       </c>
       <c r="G658" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -21358,7 +21361,7 @@
         <v>9.80000019073486</v>
       </c>
       <c r="G659" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -21384,7 +21387,7 @@
         <v>9.80000019073486</v>
       </c>
       <c r="G660" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -21410,7 +21413,7 @@
         <v>9.6899995803833</v>
       </c>
       <c r="G661" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -21436,7 +21439,7 @@
         <v>9.76000022888184</v>
       </c>
       <c r="G662" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -21462,7 +21465,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G663" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -21488,7 +21491,7 @@
         <v>9.03999996185303</v>
       </c>
       <c r="G664" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -21514,7 +21517,7 @@
         <v>9.73999977111816</v>
       </c>
       <c r="G665" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -21540,7 +21543,7 @@
         <v>9.6899995803833</v>
       </c>
       <c r="G666" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -21566,7 +21569,7 @@
         <v>9.5</v>
       </c>
       <c r="G667" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -21592,7 +21595,7 @@
         <v>9.43000030517578</v>
       </c>
       <c r="G668" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -21618,7 +21621,7 @@
         <v>9.44999980926514</v>
       </c>
       <c r="G669" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -21644,7 +21647,7 @@
         <v>9.42000007629395</v>
       </c>
       <c r="G670" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -21670,7 +21673,7 @@
         <v>9.11999988555908</v>
       </c>
       <c r="G671" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -21696,7 +21699,7 @@
         <v>9.22000026702881</v>
       </c>
       <c r="G672" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -21722,7 +21725,7 @@
         <v>9.42000007629395</v>
       </c>
       <c r="G673" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -21748,7 +21751,7 @@
         <v>9.85999965667725</v>
       </c>
       <c r="G674" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -21774,7 +21777,7 @@
         <v>10.2600002288818</v>
       </c>
       <c r="G675" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -21800,7 +21803,7 @@
         <v>10.2399997711182</v>
       </c>
       <c r="G676" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -21826,7 +21829,7 @@
         <v>10.2399997711182</v>
       </c>
       <c r="G677" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -21852,7 +21855,7 @@
         <v>10.1599998474121</v>
       </c>
       <c r="G678" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -21878,7 +21881,7 @@
         <v>10.1800003051758</v>
       </c>
       <c r="G679" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -21904,7 +21907,7 @@
         <v>10.039999961853</v>
       </c>
       <c r="G680" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -21930,7 +21933,7 @@
         <v>9.82999992370605</v>
       </c>
       <c r="G681" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -21956,7 +21959,7 @@
         <v>10.2600002288818</v>
       </c>
       <c r="G682" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -21982,7 +21985,7 @@
         <v>10.2200002670288</v>
       </c>
       <c r="G683" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -22008,7 +22011,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G684" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -22034,7 +22037,7 @@
         <v>9.96000003814697</v>
       </c>
       <c r="G685" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -22060,7 +22063,7 @@
         <v>9.86999988555908</v>
       </c>
       <c r="G686" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -22086,7 +22089,7 @@
         <v>9.78999996185303</v>
       </c>
       <c r="G687" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -22112,7 +22115,7 @@
         <v>9.78999996185303</v>
       </c>
       <c r="G688" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -22138,7 +22141,7 @@
         <v>9.78999996185303</v>
       </c>
       <c r="G689" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -22164,7 +22167,7 @@
         <v>9.81999969482422</v>
       </c>
       <c r="G690" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -22190,7 +22193,7 @@
         <v>9.69999980926514</v>
       </c>
       <c r="G691" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -22216,7 +22219,7 @@
         <v>9.78999996185303</v>
       </c>
       <c r="G692" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -22242,7 +22245,7 @@
         <v>9.68000030517578</v>
       </c>
       <c r="G693" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -22268,7 +22271,7 @@
         <v>9.6899995803833</v>
       </c>
       <c r="G694" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -22294,7 +22297,7 @@
         <v>9.69999980926514</v>
       </c>
       <c r="G695" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -22320,7 +22323,7 @@
         <v>9.69999980926514</v>
       </c>
       <c r="G696" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -22346,7 +22349,7 @@
         <v>9.59000015258789</v>
       </c>
       <c r="G697" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -22372,7 +22375,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G698" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -22398,7 +22401,7 @@
         <v>9.64999961853027</v>
       </c>
       <c r="G699" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -22424,7 +22427,7 @@
         <v>9.57999992370605</v>
       </c>
       <c r="G700" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -22450,7 +22453,7 @@
         <v>9.51000022888184</v>
       </c>
       <c r="G701" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -22476,7 +22479,7 @@
         <v>9.44999980926514</v>
       </c>
       <c r="G702" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -22502,7 +22505,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G703" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -22528,7 +22531,7 @@
         <v>9.38000011444092</v>
       </c>
       <c r="G704" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -22554,7 +22557,7 @@
         <v>9.39000034332275</v>
       </c>
       <c r="G705" t="s">
-        <v>392</v>
+        <v>488</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -22606,7 +22609,7 @@
         <v>9.11999988555908</v>
       </c>
       <c r="G707" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -24192,7 +24195,7 @@
         <v>9.11999988555908</v>
       </c>
       <c r="G768" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -24426,7 +24429,7 @@
         <v>9.39000034332275</v>
       </c>
       <c r="G777" t="s">
-        <v>392</v>
+        <v>488</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -24452,7 +24455,7 @@
         <v>9.38000011444092</v>
       </c>
       <c r="G778" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -24478,7 +24481,7 @@
         <v>9.5</v>
       </c>
       <c r="G779" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -24504,7 +24507,7 @@
         <v>9.75</v>
       </c>
       <c r="G780" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -24530,7 +24533,7 @@
         <v>9.80000019073486</v>
       </c>
       <c r="G781" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -24608,7 +24611,7 @@
         <v>9.80000019073486</v>
       </c>
       <c r="G784" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -24660,7 +24663,7 @@
         <v>9.64999961853027</v>
       </c>
       <c r="G786" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -24738,7 +24741,7 @@
         <v>9.80000019073486</v>
       </c>
       <c r="G789" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -24790,7 +24793,7 @@
         <v>9.39000034332275</v>
       </c>
       <c r="G791" t="s">
-        <v>392</v>
+        <v>488</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -24842,7 +24845,7 @@
         <v>9.80000019073486</v>
       </c>
       <c r="G793" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -24894,7 +24897,7 @@
         <v>9.75</v>
       </c>
       <c r="G795" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -24920,7 +24923,7 @@
         <v>9.81999969482422</v>
       </c>
       <c r="G796" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -24972,7 +24975,7 @@
         <v>9.75</v>
       </c>
       <c r="G798" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -25024,7 +25027,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G800" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -25050,7 +25053,7 @@
         <v>9.73999977111816</v>
       </c>
       <c r="G801" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -25076,7 +25079,7 @@
         <v>9.77999973297119</v>
       </c>
       <c r="G802" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -25206,7 +25209,7 @@
         <v>9.64999961853027</v>
       </c>
       <c r="G807" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -25258,7 +25261,7 @@
         <v>9.77999973297119</v>
       </c>
       <c r="G809" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -25284,7 +25287,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G810" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -25492,7 +25495,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G818" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -25648,7 +25651,7 @@
         <v>9.03999996185303</v>
       </c>
       <c r="G824" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -25804,7 +25807,7 @@
         <v>9.11999988555908</v>
       </c>
       <c r="G830" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -26142,7 +26145,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G843" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -26194,7 +26197,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G845" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -60288,7 +60291,7 @@
     </row>
     <row r="2157">
       <c r="A2157" s="1" t="n">
-        <v>45464.6494444444</v>
+        <v>45464.2916666667</v>
       </c>
       <c r="B2157" t="n">
         <v>18117</v>
@@ -60309,6 +60312,32 @@
         <v>1292</v>
       </c>
       <c r="H2157" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2158">
+      <c r="A2158" s="1" t="n">
+        <v>45467.6494097222</v>
+      </c>
+      <c r="B2158" t="n">
+        <v>13353</v>
+      </c>
+      <c r="C2158" t="n">
+        <v>24.9500007629395</v>
+      </c>
+      <c r="D2158" t="n">
+        <v>24.3999996185303</v>
+      </c>
+      <c r="E2158" t="n">
+        <v>24.7000007629395</v>
+      </c>
+      <c r="F2158" t="n">
+        <v>24.5499992370605</v>
+      </c>
+      <c r="G2158" t="s">
+        <v>1293</v>
+      </c>
+      <c r="H2158" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TXT.MI.xlsx
+++ b/data/TXT.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="1295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="1296">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,16 +38,16 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45555591583252</t>
+    <t xml:space="preserve">6.45555543899536</t>
   </si>
   <si>
     <t xml:space="preserve">TXT.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43539428710938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44345808029175</t>
+    <t xml:space="preserve">6.43539476394653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44345855712891</t>
   </si>
   <si>
     <t xml:space="preserve">6.27410650253296</t>
@@ -59,244 +59,244 @@
     <t xml:space="preserve">6.13701152801514</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16926956176758</t>
+    <t xml:space="preserve">6.16926908493042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12894725799561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96765947341919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89507913589478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80637073516846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98782014846802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79024219512939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76201677322388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76604890823364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78217792510986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04023885726929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92733716964722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95959424972534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98378849029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04830408096313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89104652404785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81846761703491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21765470504761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19346237182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24991321563721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33862161636353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26604175567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24184846878052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25394582748413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45152282714844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50394105911255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45958805084229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53216743469238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54829597473145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54023170471191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28217077255249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12088298797607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29829931259155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23781681060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18539810180664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19749450683594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1531400680542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15717267990112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0321741104126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06039905548096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99185180664062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17733287811279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09668970108032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2015266418457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1410436630249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22571992874146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16523694992065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25797748565674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07652854919434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14507627487183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05636787414551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99991703033447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97975492477417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16120481491089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11685085296631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11281824111938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23734998703003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2707052230835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11643934249878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20399570465088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2540283203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1372857093811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21233415603638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23318147659302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24568891525269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1623010635376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33324480056763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24151992797852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17064094543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18314838409424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15396356582642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08725357055664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93715715408325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94966506958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85377025604248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03722190856934</t>
   </si>
   <si>
     <t xml:space="preserve">6.12894773483276</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96765995025635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89507961273193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80637073516846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98782062530518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79024219512939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76201725006104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76604890823364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78217792510986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04023885726929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92733764648438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95959424972534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98378753662109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04830360412598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89104652404785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81846714019775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21765565872192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19346237182617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24991321563721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33862161636353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26604223251343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24184942245483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25394535064697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4515233039856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50394201278687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45958805084229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53216743469238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5482964515686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54023122787476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28217124938965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12088298797607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29829978942871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23781633377075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18539762496948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19749402999878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15314102172852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15717220306396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0321741104126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06039953231812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99185228347778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17733335494995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09668922424316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20152711868286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1410436630249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22571992874146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16523694992065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2579779624939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07652807235718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14507627487183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05636787414551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99991703033447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97975540161133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16120481491089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11685037612915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11281824111938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23734998703003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2707052230835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11643886566162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20399570465088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25402784347534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1372857093811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21233415603638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23318099975586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24568891525269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16230154037476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33324480056763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24152040481567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17064094543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18314838409424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15396404266357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08725452423096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93715715408325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94966554641724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85377025604248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03722143173218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12894725799561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08308458328247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98718881607056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00386619567871</t>
+    <t xml:space="preserve">6.08308410644531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98718929290771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00386667251587</t>
   </si>
   <si>
     <t xml:space="preserve">5.89546346664429</t>
@@ -305,49 +305,49 @@
     <t xml:space="preserve">5.82875394821167</t>
   </si>
   <si>
-    <t xml:space="preserve">5.90380239486694</t>
+    <t xml:space="preserve">5.90380191802979</t>
   </si>
   <si>
     <t xml:space="preserve">5.95383405685425</t>
   </si>
   <si>
-    <t xml:space="preserve">5.90797138214111</t>
+    <t xml:space="preserve">5.90797185897827</t>
   </si>
   <si>
     <t xml:space="preserve">6.16647148132324</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05806875228882</t>
+    <t xml:space="preserve">6.05806827545166</t>
   </si>
   <si>
     <t xml:space="preserve">6.14562463760376</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3123984336853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19982576370239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07474517822266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14145517349243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22067308425903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29572153091431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1748104095459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19565677642822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18731784820557</t>
+    <t xml:space="preserve">6.31239891052246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19982671737671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07474565505981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14145469665527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22067260742188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29572105407715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17481088638306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19565629959106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18731832504272</t>
   </si>
   <si>
     <t xml:space="preserve">6.12060880661011</t>
@@ -365,52 +365,52 @@
     <t xml:space="preserve">6.01220560073853</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14979410171509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02888250350952</t>
+    <t xml:space="preserve">6.14979362487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02888202667236</t>
   </si>
   <si>
     <t xml:space="preserve">5.96634292602539</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99552822113037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07891511917114</t>
+    <t xml:space="preserve">5.99552774429321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07891464233398</t>
   </si>
   <si>
     <t xml:space="preserve">5.99969720840454</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04555988311768</t>
+    <t xml:space="preserve">6.04556083679199</t>
   </si>
   <si>
     <t xml:space="preserve">5.92881870269775</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97468090057373</t>
+    <t xml:space="preserve">5.97468042373657</t>
   </si>
   <si>
     <t xml:space="preserve">5.86627769470215</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85793876647949</t>
+    <t xml:space="preserve">5.85793924331665</t>
   </si>
   <si>
     <t xml:space="preserve">5.89129400253296</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89963293075562</t>
+    <t xml:space="preserve">5.89963245391846</t>
   </si>
   <si>
     <t xml:space="preserve">5.79956817626953</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94549608230591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9788498878479</t>
+    <t xml:space="preserve">5.94549512863159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97885084152222</t>
   </si>
   <si>
     <t xml:space="preserve">5.92047929763794</t>
@@ -422,31 +422,31 @@
     <t xml:space="preserve">6.10393095016479</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47083425521851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.495849609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57923650741577</t>
+    <t xml:space="preserve">6.47083473205566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49585008621216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57923746109009</t>
   </si>
   <si>
     <t xml:space="preserve">6.59591484069824</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50001955032349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33741521835327</t>
+    <t xml:space="preserve">6.50001907348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33741426467896</t>
   </si>
   <si>
     <t xml:space="preserve">6.50418901443481</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4291410446167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4458179473877</t>
+    <t xml:space="preserve">6.42914009094238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44581842422485</t>
   </si>
   <si>
     <t xml:space="preserve">6.27904367446899</t>
@@ -458,10 +458,10 @@
     <t xml:space="preserve">6.42497110366821</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45415639877319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42080116271973</t>
+    <t xml:space="preserve">6.45415592193604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42080163955688</t>
   </si>
   <si>
     <t xml:space="preserve">6.55422067642212</t>
@@ -470,7 +470,7 @@
     <t xml:space="preserve">6.38744688034058</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53754377365112</t>
+    <t xml:space="preserve">6.53754425048828</t>
   </si>
   <si>
     <t xml:space="preserve">6.37910795211792</t>
@@ -482,13 +482,13 @@
     <t xml:space="preserve">6.34992265701294</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43747901916504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22901105880737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01637506484985</t>
+    <t xml:space="preserve">6.4374794960022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22901153564453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0163745880127</t>
   </si>
   <si>
     <t xml:space="preserve">6.05389881134033</t>
@@ -497,10 +497,10 @@
     <t xml:space="preserve">6.06223726272583</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07057619094849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37076902389526</t>
+    <t xml:space="preserve">6.07057666778564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37076950073242</t>
   </si>
   <si>
     <t xml:space="preserve">6.41246318817139</t>
@@ -509,13 +509,13 @@
     <t xml:space="preserve">6.32907629013062</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45832633972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28738307952881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21650362014771</t>
+    <t xml:space="preserve">6.45832586288452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28738260269165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21650314331055</t>
   </si>
   <si>
     <t xml:space="preserve">6.74601078033447</t>
@@ -524,10 +524,10 @@
     <t xml:space="preserve">6.72933387756348</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69597864151001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77102756500244</t>
+    <t xml:space="preserve">6.69597816467285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77102661132812</t>
   </si>
   <si>
     <t xml:space="preserve">6.78770542144775</t>
@@ -536,34 +536,34 @@
     <t xml:space="preserve">7.08789825439453</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25467157363892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22965526580811</t>
+    <t xml:space="preserve">7.25467252731323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22965621948242</t>
   </si>
   <si>
     <t xml:space="preserve">7.08372831344604</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06288290023804</t>
+    <t xml:space="preserve">7.06288146972656</t>
   </si>
   <si>
     <t xml:space="preserve">7.1295919418335</t>
   </si>
   <si>
-    <t xml:space="preserve">7.07122039794922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10457563400269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03786659240723</t>
+    <t xml:space="preserve">7.07121992111206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10457611083984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03786516189575</t>
   </si>
   <si>
     <t xml:space="preserve">7.25884199142456</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65493011474609</t>
+    <t xml:space="preserve">7.65492916107178</t>
   </si>
   <si>
     <t xml:space="preserve">7.68828535079956</t>
@@ -572,7 +572,7 @@
     <t xml:space="preserve">7.65076160430908</t>
   </si>
   <si>
-    <t xml:space="preserve">7.13793087005615</t>
+    <t xml:space="preserve">7.13793039321899</t>
   </si>
   <si>
     <t xml:space="preserve">7.35473680496216</t>
@@ -581,40 +581,40 @@
     <t xml:space="preserve">7.49649429321289</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52984857559204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5423583984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48815488815308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32972097396851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22131729125977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15460729598999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99200391769409</t>
+    <t xml:space="preserve">7.52984952926636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54235744476318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48815679550171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32972002029419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22131776809692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15460777282715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99200296401978</t>
   </si>
   <si>
     <t xml:space="preserve">7.12125301361084</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1087441444397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09206771850586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05454301834106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88359975814819</t>
+    <t xml:space="preserve">7.10874462127686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09206819534302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05454349517822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88360023498535</t>
   </si>
   <si>
     <t xml:space="preserve">7.00451040267944</t>
@@ -623,16 +623,16 @@
     <t xml:space="preserve">7.06705141067505</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93780088424683</t>
+    <t xml:space="preserve">6.93780136108398</t>
   </si>
   <si>
     <t xml:space="preserve">6.96281766891479</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00867986679077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27968788146973</t>
+    <t xml:space="preserve">7.00868034362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27968740463257</t>
   </si>
   <si>
     <t xml:space="preserve">7.32138204574585</t>
@@ -641,19 +641,19 @@
     <t xml:space="preserve">7.59655904769897</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56320381164551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69662284851074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74665498733521</t>
+    <t xml:space="preserve">7.56320285797119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69662380218506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74665594100952</t>
   </si>
   <si>
     <t xml:space="preserve">7.7133002281189</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95929336547852</t>
+    <t xml:space="preserve">7.9592924118042</t>
   </si>
   <si>
     <t xml:space="preserve">8.06352615356445</t>
@@ -668,7 +668,7 @@
     <t xml:space="preserve">7.90926074981689</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31785583496094</t>
+    <t xml:space="preserve">8.31785678863525</t>
   </si>
   <si>
     <t xml:space="preserve">8.25114727020264</t>
@@ -677,25 +677,25 @@
     <t xml:space="preserve">8.31368827819824</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54716968536377</t>
+    <t xml:space="preserve">8.54717063903809</t>
   </si>
   <si>
     <t xml:space="preserve">8.55550956726074</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42209053039551</t>
+    <t xml:space="preserve">8.42209148406982</t>
   </si>
   <si>
     <t xml:space="preserve">8.45544528961182</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49713802337646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68892765045166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69726848602295</t>
+    <t xml:space="preserve">8.49713897705078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68892860412598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69726943969727</t>
   </si>
   <si>
     <t xml:space="preserve">8.65557479858398</t>
@@ -704,16 +704,16 @@
     <t xml:space="preserve">8.58886528015137</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38873672485352</t>
+    <t xml:space="preserve">8.3887357711792</t>
   </si>
   <si>
     <t xml:space="preserve">8.09688091278076</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82170391082764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01766300201416</t>
+    <t xml:space="preserve">7.82170343399048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01766395568848</t>
   </si>
   <si>
     <t xml:space="preserve">8.23447036743164</t>
@@ -722,10 +722,10 @@
     <t xml:space="preserve">8.57218742370605</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66391372680664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83902549743652</t>
+    <t xml:space="preserve">8.66391277313232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83902645111084</t>
   </si>
   <si>
     <t xml:space="preserve">8.92241287231445</t>
@@ -734,13 +734,13 @@
     <t xml:space="preserve">9.43941211700439</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51446056365967</t>
+    <t xml:space="preserve">9.51445960998535</t>
   </si>
   <si>
     <t xml:space="preserve">10.1565408706665</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2315883636475</t>
+    <t xml:space="preserve">10.2315893173218</t>
   </si>
   <si>
     <t xml:space="preserve">10.5651378631592</t>
@@ -752,7 +752,7 @@
     <t xml:space="preserve">10.8319749832153</t>
   </si>
   <si>
-    <t xml:space="preserve">10.365008354187</t>
+    <t xml:space="preserve">10.3650093078613</t>
   </si>
   <si>
     <t xml:space="preserve">10.423378944397</t>
@@ -767,13 +767,13 @@
     <t xml:space="preserve">9.94493007659912</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1328916549683</t>
+    <t xml:space="preserve">10.1328907012939</t>
   </si>
   <si>
     <t xml:space="preserve">10.192699432373</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1243476867676</t>
+    <t xml:space="preserve">10.1243486404419</t>
   </si>
   <si>
     <t xml:space="preserve">10.2439594268799</t>
@@ -782,10 +782,10 @@
     <t xml:space="preserve">10.2525043487549</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1499786376953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4575538635254</t>
+    <t xml:space="preserve">10.1499795913696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4575548171997</t>
   </si>
   <si>
     <t xml:space="preserve">10.7822170257568</t>
@@ -803,10 +803,10 @@
     <t xml:space="preserve">10.7993049621582</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7224111557007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7053232192993</t>
+    <t xml:space="preserve">10.722412109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.705322265625</t>
   </si>
   <si>
     <t xml:space="preserve">10.7138671875</t>
@@ -818,7 +818,7 @@
     <t xml:space="preserve">10.431923866272</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3464851379395</t>
+    <t xml:space="preserve">10.3464860916138</t>
   </si>
   <si>
     <t xml:space="preserve">10.3806600570679</t>
@@ -827,7 +827,7 @@
     <t xml:space="preserve">10.1158046722412</t>
   </si>
   <si>
-    <t xml:space="preserve">9.97910404205322</t>
+    <t xml:space="preserve">9.97910499572754</t>
   </si>
   <si>
     <t xml:space="preserve">9.90221118927002</t>
@@ -845,10 +845,10 @@
     <t xml:space="preserve">9.16744709014893</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22725391387939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24434185028076</t>
+    <t xml:space="preserve">9.22725486755371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24434089660645</t>
   </si>
   <si>
     <t xml:space="preserve">9.26142883300781</t>
@@ -866,7 +866,7 @@
     <t xml:space="preserve">9.27851581573486</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44084739685059</t>
+    <t xml:space="preserve">9.4408483505249</t>
   </si>
   <si>
     <t xml:space="preserve">9.75696659088135</t>
@@ -875,7 +875,7 @@
     <t xml:space="preserve">10.1670665740967</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1072597503662</t>
+    <t xml:space="preserve">10.1072607040405</t>
   </si>
   <si>
     <t xml:space="preserve">9.97056007385254</t>
@@ -890,7 +890,7 @@
     <t xml:space="preserve">10.3037672042847</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3550300598145</t>
+    <t xml:space="preserve">10.3550291061401</t>
   </si>
   <si>
     <t xml:space="preserve">10.3293991088867</t>
@@ -908,34 +908,34 @@
     <t xml:space="preserve">10.0901727676392</t>
   </si>
   <si>
-    <t xml:space="preserve">10.038911819458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96201705932617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92784214019775</t>
+    <t xml:space="preserve">10.0389108657837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96201610565186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92784118652344</t>
   </si>
   <si>
     <t xml:space="preserve">9.8167724609375</t>
   </si>
   <si>
-    <t xml:space="preserve">9.57754707336426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7740535736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52628517150879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42375946044922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63735294342041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73133659362793</t>
+    <t xml:space="preserve">9.57754802703857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77405452728271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52628421783447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42376041412354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63735389709473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73133563995361</t>
   </si>
   <si>
     <t xml:space="preserve">9.56900310516357</t>
@@ -953,7 +953,7 @@
     <t xml:space="preserve">9.51774215698242</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58609199523926</t>
+    <t xml:space="preserve">9.58609008789062</t>
   </si>
   <si>
     <t xml:space="preserve">9.33832359313965</t>
@@ -962,19 +962,19 @@
     <t xml:space="preserve">9.26997375488281</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65444278717041</t>
+    <t xml:space="preserve">9.65444183349609</t>
   </si>
   <si>
     <t xml:space="preserve">9.56046009063721</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91075420379639</t>
+    <t xml:space="preserve">9.9107551574707</t>
   </si>
   <si>
     <t xml:space="preserve">9.74842357635498</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71424674987793</t>
+    <t xml:space="preserve">9.71424865722656</t>
   </si>
   <si>
     <t xml:space="preserve">9.70570373535156</t>
@@ -989,7 +989,7 @@
     <t xml:space="preserve">9.84240436553955</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8680362701416</t>
+    <t xml:space="preserve">9.86803531646729</t>
   </si>
   <si>
     <t xml:space="preserve">9.76551055908203</t>
@@ -998,7 +998,7 @@
     <t xml:space="preserve">9.73987865447998</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6971607208252</t>
+    <t xml:space="preserve">9.69715976715088</t>
   </si>
   <si>
     <t xml:space="preserve">9.85949039459229</t>
@@ -1007,10 +1007,10 @@
     <t xml:space="preserve">9.79968547821045</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54337215423584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20162296295166</t>
+    <t xml:space="preserve">9.54337310791016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20162391662598</t>
   </si>
   <si>
     <t xml:space="preserve">9.06492233276367</t>
@@ -1022,7 +1022,7 @@
     <t xml:space="preserve">8.65482330322266</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13365364074707</t>
+    <t xml:space="preserve">8.13365459442139</t>
   </si>
   <si>
     <t xml:space="preserve">8.38569450378418</t>
@@ -1034,16 +1034,16 @@
     <t xml:space="preserve">8.18064308166504</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68899726867676</t>
+    <t xml:space="preserve">8.68899822235107</t>
   </si>
   <si>
     <t xml:space="preserve">8.38996601104736</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40278244018555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25326538085938</t>
+    <t xml:space="preserve">8.40278148651123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25326633453369</t>
   </si>
   <si>
     <t xml:space="preserve">8.33015918731689</t>
@@ -1052,7 +1052,7 @@
     <t xml:space="preserve">8.43268394470215</t>
   </si>
   <si>
-    <t xml:space="preserve">8.372878074646</t>
+    <t xml:space="preserve">8.37287902832031</t>
   </si>
   <si>
     <t xml:space="preserve">8.35151863098145</t>
@@ -1064,34 +1064,34 @@
     <t xml:space="preserve">8.09520721435547</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9072437286377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88161325454712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85598230361938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96704959869385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91151571273804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01404190063477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03539943695068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0781192779541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06957530975342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31307125091553</t>
+    <t xml:space="preserve">7.90724468231201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88161277770996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85598134994507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96705055236816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91151666641235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01404094696045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.035400390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07812023162842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0695743560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31307220458984</t>
   </si>
   <si>
     <t xml:space="preserve">8.21909141540527</t>
@@ -1103,7 +1103,7 @@
     <t xml:space="preserve">8.10802268981934</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13792419433594</t>
+    <t xml:space="preserve">8.13792514801025</t>
   </si>
   <si>
     <t xml:space="preserve">8.23190689086914</t>
@@ -1112,28 +1112,28 @@
     <t xml:space="preserve">8.28316974639893</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34724617004395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48394680023193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62919139862061</t>
+    <t xml:space="preserve">8.34724712371826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48394775390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62919044494629</t>
   </si>
   <si>
     <t xml:space="preserve">8.57792854309082</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8000659942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61210441589355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54375267028809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56084251403809</t>
+    <t xml:space="preserve">8.80006504058838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61210346221924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5437536239624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56084060668945</t>
   </si>
   <si>
     <t xml:space="preserve">8.71462821960449</t>
@@ -1148,16 +1148,16 @@
     <t xml:space="preserve">8.51812267303467</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46685981750488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44122982025146</t>
+    <t xml:space="preserve">8.46685886383057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44122886657715</t>
   </si>
   <si>
     <t xml:space="preserve">8.26180934906006</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0738468170166</t>
+    <t xml:space="preserve">8.07384777069092</t>
   </si>
   <si>
     <t xml:space="preserve">8.04821586608887</t>
@@ -1172,16 +1172,16 @@
     <t xml:space="preserve">8.03112888336182</t>
   </si>
   <si>
-    <t xml:space="preserve">8.381422996521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9709415435791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81715297698975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88550281524658</t>
+    <t xml:space="preserve">8.38142395019531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97094058990479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81715393066406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8855037689209</t>
   </si>
   <si>
     <t xml:space="preserve">8.83424091339111</t>
@@ -1190,28 +1190,28 @@
     <t xml:space="preserve">8.68045330047607</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66336536407471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90259170532227</t>
+    <t xml:space="preserve">8.66336631774902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90259075164795</t>
   </si>
   <si>
     <t xml:space="preserve">9.0051155090332</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4323034286499</t>
+    <t xml:space="preserve">9.43230438232422</t>
   </si>
   <si>
     <t xml:space="preserve">9.31269073486328</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19307994842529</t>
+    <t xml:space="preserve">9.19307899475098</t>
   </si>
   <si>
     <t xml:space="preserve">9.17599010467529</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10764122009277</t>
+    <t xml:space="preserve">9.10764026641846</t>
   </si>
   <si>
     <t xml:space="preserve">9.15890407562256</t>
@@ -1226,25 +1226,25 @@
     <t xml:space="preserve">10.2866792678833</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6455173492432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7480421066284</t>
+    <t xml:space="preserve">10.6455163955688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7480411529541</t>
   </si>
   <si>
     <t xml:space="preserve">10.6967802047729</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0385303497314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.516978263855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4486303329468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.551155090332</t>
+    <t xml:space="preserve">11.0385293960571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5169792175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4486293792725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5511560440063</t>
   </si>
   <si>
     <t xml:space="preserve">11.6249647140503</t>
@@ -1253,10 +1253,10 @@
     <t xml:space="preserve">11.9571056365967</t>
   </si>
   <si>
-    <t xml:space="preserve">11.920202255249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4957981109619</t>
+    <t xml:space="preserve">11.9202013015747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4957971572876</t>
   </si>
   <si>
     <t xml:space="preserve">11.3850831985474</t>
@@ -1265,25 +1265,25 @@
     <t xml:space="preserve">11.3666315078735</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0344896316528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9606800079346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5731821060181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7761564254761</t>
+    <t xml:space="preserve">11.0344905853271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9606809616089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5731811523438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7761573791504</t>
   </si>
   <si>
     <t xml:space="preserve">10.683895111084</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7208003997803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5547285079956</t>
+    <t xml:space="preserve">10.720799446106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5547294616699</t>
   </si>
   <si>
     <t xml:space="preserve">10.2410402297974</t>
@@ -1295,16 +1295,16 @@
     <t xml:space="preserve">10.0565156936646</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1303262710571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3517541885376</t>
+    <t xml:space="preserve">10.1303253173828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.351752281189</t>
   </si>
   <si>
     <t xml:space="preserve">10.148777961731</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2963972091675</t>
+    <t xml:space="preserve">10.2963962554932</t>
   </si>
   <si>
     <t xml:space="preserve">10.3333005905151</t>
@@ -1322,64 +1322,64 @@
     <t xml:space="preserve">10.5178241729736</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4071092605591</t>
+    <t xml:space="preserve">10.4071102142334</t>
   </si>
   <si>
     <t xml:space="preserve">10.2779445648193</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1672315597534</t>
+    <t xml:space="preserve">10.1672296524048</t>
   </si>
   <si>
     <t xml:space="preserve">9.85354137420654</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87199306488037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77973175048828</t>
+    <t xml:space="preserve">9.87199211120605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7797327041626</t>
   </si>
   <si>
     <t xml:space="preserve">9.53985118865967</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74282741546631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79818439483643</t>
+    <t xml:space="preserve">9.74282646179199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79818344116211</t>
   </si>
   <si>
     <t xml:space="preserve">9.72437381744385</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68747043609619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81663608551025</t>
+    <t xml:space="preserve">9.68746948242188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81663703918457</t>
   </si>
   <si>
     <t xml:space="preserve">9.76127910614014</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63211250305176</t>
+    <t xml:space="preserve">9.63211345672607</t>
   </si>
   <si>
     <t xml:space="preserve">9.37378025054932</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3184232711792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42913818359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39223384857178</t>
+    <t xml:space="preserve">9.31842231750488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42913722991943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39223289489746</t>
   </si>
   <si>
     <t xml:space="preserve">9.33687591552734</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1338996887207</t>
+    <t xml:space="preserve">9.13389873504639</t>
   </si>
   <si>
     <t xml:space="preserve">9.15235233306885</t>
@@ -1391,40 +1391,40 @@
     <t xml:space="preserve">8.94015026092529</t>
   </si>
   <si>
-    <t xml:space="preserve">9.09699535369873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02318668365479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04163837432861</t>
+    <t xml:space="preserve">9.09699630737305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0231876373291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04163932800293</t>
   </si>
   <si>
     <t xml:space="preserve">9.00473403930664</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58033084869385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34044933319092</t>
+    <t xml:space="preserve">8.58033180236816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34045028686523</t>
   </si>
   <si>
     <t xml:space="preserve">8.9862813949585</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76485347747803</t>
+    <t xml:space="preserve">8.76485443115234</t>
   </si>
   <si>
     <t xml:space="preserve">8.70026969909668</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71872234344482</t>
+    <t xml:space="preserve">8.71872329711914</t>
   </si>
   <si>
     <t xml:space="preserve">8.69104480743408</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41425895690918</t>
+    <t xml:space="preserve">8.4142599105835</t>
   </si>
   <si>
     <t xml:space="preserve">8.5065221786499</t>
@@ -1433,7 +1433,7 @@
     <t xml:space="preserve">9.46604156494141</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44758892059326</t>
+    <t xml:space="preserve">9.44758987426758</t>
   </si>
   <si>
     <t xml:space="preserve">9.26306629180908</t>
@@ -1451,7 +1451,7 @@
     <t xml:space="preserve">9.10622119903564</t>
   </si>
   <si>
-    <t xml:space="preserve">9.03241348266602</t>
+    <t xml:space="preserve">9.0324125289917</t>
   </si>
   <si>
     <t xml:space="preserve">9.06009101867676</t>
@@ -1475,19 +1475,16 @@
     <t xml:space="preserve">8.83866310119629</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77408123016357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65414047241211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66336631774902</t>
+    <t xml:space="preserve">8.77407932281494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65413951873779</t>
   </si>
   <si>
     <t xml:space="preserve">8.46961688995361</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36812782287598</t>
+    <t xml:space="preserve">8.36812877655029</t>
   </si>
   <si>
     <t xml:space="preserve">8.30354595184326</t>
@@ -1505,19 +1502,19 @@
     <t xml:space="preserve">7.6115837097168</t>
   </si>
   <si>
-    <t xml:space="preserve">7.64848804473877</t>
+    <t xml:space="preserve">7.64848852157593</t>
   </si>
   <si>
     <t xml:space="preserve">7.54700040817261</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44551277160645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45473861694336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13182306289673</t>
+    <t xml:space="preserve">7.44551229476929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4547381401062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13182353973389</t>
   </si>
   <si>
     <t xml:space="preserve">7.15950155258179</t>
@@ -1547,10 +1544,10 @@
     <t xml:space="preserve">7.86069059371948</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74997568130493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51009654998779</t>
+    <t xml:space="preserve">7.74997520446777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51009607315063</t>
   </si>
   <si>
     <t xml:space="preserve">7.63926124572754</t>
@@ -1565,28 +1562,28 @@
     <t xml:space="preserve">7.56545209884644</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27944135665894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19640684127808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20563220977783</t>
+    <t xml:space="preserve">7.27944183349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19640636444092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20563268661499</t>
   </si>
   <si>
     <t xml:space="preserve">7.11337041854858</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10414457321167</t>
+    <t xml:space="preserve">7.10414409637451</t>
   </si>
   <si>
     <t xml:space="preserve">7.49164295196533</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59313058853149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5839056968689</t>
+    <t xml:space="preserve">7.59313106536865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58390522003174</t>
   </si>
   <si>
     <t xml:space="preserve">7.52854776382446</t>
@@ -1595,19 +1592,19 @@
     <t xml:space="preserve">7.39015579223633</t>
   </si>
   <si>
-    <t xml:space="preserve">7.34402465820312</t>
+    <t xml:space="preserve">7.34402513504028</t>
   </si>
   <si>
     <t xml:space="preserve">7.33479833602905</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36247777938843</t>
+    <t xml:space="preserve">7.36247682571411</t>
   </si>
   <si>
     <t xml:space="preserve">7.29789400100708</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32557249069214</t>
+    <t xml:space="preserve">7.32557201385498</t>
   </si>
   <si>
     <t xml:space="preserve">7.40860748291016</t>
@@ -1616,7 +1613,7 @@
     <t xml:space="preserve">7.7315239906311</t>
   </si>
   <si>
-    <t xml:space="preserve">7.77765417098999</t>
+    <t xml:space="preserve">7.77765464782715</t>
   </si>
   <si>
     <t xml:space="preserve">7.92527294158936</t>
@@ -1625,19 +1622,19 @@
     <t xml:space="preserve">8.10056972503662</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43271255493164</t>
+    <t xml:space="preserve">8.43271350860596</t>
   </si>
   <si>
     <t xml:space="preserve">8.45116424560547</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55265140533447</t>
+    <t xml:space="preserve">8.55265235900879</t>
   </si>
   <si>
     <t xml:space="preserve">8.4603910446167</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40503311157227</t>
+    <t xml:space="preserve">8.40503215789795</t>
   </si>
   <si>
     <t xml:space="preserve">8.39580726623535</t>
@@ -1655,13 +1652,13 @@
     <t xml:space="preserve">9.17080497741699</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11544895172119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85711479187012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72794914245605</t>
+    <t xml:space="preserve">9.11544799804688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85711574554443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72795009613037</t>
   </si>
   <si>
     <t xml:space="preserve">8.92169857025146</t>
@@ -1670,13 +1667,13 @@
     <t xml:space="preserve">9.07854270935059</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97705459594727</t>
+    <t xml:space="preserve">8.97705554962158</t>
   </si>
   <si>
     <t xml:space="preserve">8.96782970428467</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91247177124023</t>
+    <t xml:space="preserve">8.91247272491455</t>
   </si>
   <si>
     <t xml:space="preserve">8.86634063720703</t>
@@ -1688,16 +1685,16 @@
     <t xml:space="preserve">8.64491367340088</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7464017868042</t>
+    <t xml:space="preserve">8.74640083312988</t>
   </si>
   <si>
     <t xml:space="preserve">8.31277275085449</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44193840026855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33122444152832</t>
+    <t xml:space="preserve">8.44193744659424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.331223487854</t>
   </si>
   <si>
     <t xml:space="preserve">8.1836051940918</t>
@@ -1715,10 +1712,10 @@
     <t xml:space="preserve">8.51574611663818</t>
   </si>
   <si>
-    <t xml:space="preserve">8.53419971466064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5618782043457</t>
+    <t xml:space="preserve">8.53419876098633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56187725067139</t>
   </si>
   <si>
     <t xml:space="preserve">8.48806858062744</t>
@@ -1727,10 +1724,10 @@
     <t xml:space="preserve">8.52497291564941</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5711030960083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59878253936768</t>
+    <t xml:space="preserve">8.57110404968262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59878349304199</t>
   </si>
   <si>
     <t xml:space="preserve">8.68181800842285</t>
@@ -1742,13 +1739,13 @@
     <t xml:space="preserve">8.60800933837891</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28066349029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76398658752441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46178150177002</t>
+    <t xml:space="preserve">9.28066253662109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76398754119873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4617805480957</t>
   </si>
   <si>
     <t xml:space="preserve">8.24731063842773</t>
@@ -1757,7 +1754,7 @@
     <t xml:space="preserve">7.95485353469849</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12057971954346</t>
+    <t xml:space="preserve">8.12057876586914</t>
   </si>
   <si>
     <t xml:space="preserve">8.0425910949707</t>
@@ -1766,10 +1763,10 @@
     <t xml:space="preserve">8.35454559326172</t>
   </si>
   <si>
-    <t xml:space="preserve">8.14982509613037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09133434295654</t>
+    <t xml:space="preserve">8.14982414245605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09133338928223</t>
   </si>
   <si>
     <t xml:space="preserve">8.11083030700684</t>
@@ -1784,16 +1781,16 @@
     <t xml:space="preserve">8.17907238006592</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20831680297852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03284168243408</t>
+    <t xml:space="preserve">8.20831775665283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0328426361084</t>
   </si>
   <si>
     <t xml:space="preserve">8.02309322357178</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22781467437744</t>
+    <t xml:space="preserve">8.22781372070312</t>
   </si>
   <si>
     <t xml:space="preserve">8.3058032989502</t>
@@ -1811,19 +1808,19 @@
     <t xml:space="preserve">8.13032817840576</t>
   </si>
   <si>
-    <t xml:space="preserve">8.14007663726807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96460199356079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99384784698486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23756217956543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16932201385498</t>
+    <t xml:space="preserve">8.14007759094238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96460151672363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99384832382202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23756313323975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1693229675293</t>
   </si>
   <si>
     <t xml:space="preserve">8.18881893157959</t>
@@ -1850,10 +1847,10 @@
     <t xml:space="preserve">8.07183647155762</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92560768127441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93535661697388</t>
+    <t xml:space="preserve">7.92560815811157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93535614013672</t>
   </si>
   <si>
     <t xml:space="preserve">7.97435092926025</t>
@@ -1862,19 +1859,19 @@
     <t xml:space="preserve">8.01334571838379</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50077438354492</t>
+    <t xml:space="preserve">8.50077533721924</t>
   </si>
   <si>
     <t xml:space="preserve">8.39354038238525</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34479808807373</t>
+    <t xml:space="preserve">8.34479713439941</t>
   </si>
   <si>
     <t xml:space="preserve">8.28630542755127</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51052284240723</t>
+    <t xml:space="preserve">8.51052188873291</t>
   </si>
   <si>
     <t xml:space="preserve">8.5885124206543</t>
@@ -1886,28 +1883,28 @@
     <t xml:space="preserve">9.21242237091064</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20267391204834</t>
+    <t xml:space="preserve">9.20267295837402</t>
   </si>
   <si>
     <t xml:space="preserve">9.5828685760498</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45613574981689</t>
+    <t xml:space="preserve">9.45613670349121</t>
   </si>
   <si>
     <t xml:space="preserve">9.55362319946289</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52437686920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51462936401367</t>
+    <t xml:space="preserve">9.52437782287598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51462841033936</t>
   </si>
   <si>
     <t xml:space="preserve">9.62186336517334</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60236644744873</t>
+    <t xml:space="preserve">9.60236740112305</t>
   </si>
   <si>
     <t xml:space="preserve">9.59261798858643</t>
@@ -1919,13 +1916,13 @@
     <t xml:space="preserve">10.3920021057129</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1190423965454</t>
+    <t xml:space="preserve">10.1190414428711</t>
   </si>
   <si>
     <t xml:space="preserve">10.1385383605957</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0605487823486</t>
+    <t xml:space="preserve">10.0605497360229</t>
   </si>
   <si>
     <t xml:space="preserve">10.0215559005737</t>
@@ -1937,19 +1934,19 @@
     <t xml:space="preserve">9.74859428405762</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68035507202148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76809215545654</t>
+    <t xml:space="preserve">9.68035411834717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76809310913086</t>
   </si>
   <si>
     <t xml:space="preserve">9.78758907318115</t>
   </si>
   <si>
-    <t xml:space="preserve">9.57311916351318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65110874176025</t>
+    <t xml:space="preserve">9.5731201171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65110778808594</t>
   </si>
   <si>
     <t xml:space="preserve">9.53412532806396</t>
@@ -1967,7 +1964,7 @@
     <t xml:space="preserve">9.50487995147705</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44638824462891</t>
+    <t xml:space="preserve">9.44638729095459</t>
   </si>
   <si>
     <t xml:space="preserve">9.39764595031738</t>
@@ -1988,7 +1985,7 @@
     <t xml:space="preserve">9.1636791229248</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1539306640625</t>
+    <t xml:space="preserve">9.15393161773682</t>
   </si>
   <si>
     <t xml:space="preserve">9.26116466522217</t>
@@ -2009,7 +2006,7 @@
     <t xml:space="preserve">8.98820495605469</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00770092010498</t>
+    <t xml:space="preserve">9.0077018737793</t>
   </si>
   <si>
     <t xml:space="preserve">8.91996383666992</t>
@@ -2030,13 +2027,13 @@
     <t xml:space="preserve">9.02719879150391</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22216987609863</t>
+    <t xml:space="preserve">9.22217082977295</t>
   </si>
   <si>
     <t xml:space="preserve">9.11493682861328</t>
   </si>
   <si>
-    <t xml:space="preserve">9.03694725036621</t>
+    <t xml:space="preserve">9.03694820404053</t>
   </si>
   <si>
     <t xml:space="preserve">8.86147308349609</t>
@@ -2045,34 +2042,34 @@
     <t xml:space="preserve">8.38379192352295</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89636182785034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8476185798645</t>
+    <t xml:space="preserve">7.8963623046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84761905670166</t>
   </si>
   <si>
     <t xml:space="preserve">7.66239547729492</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58440685272217</t>
+    <t xml:space="preserve">7.58440732955933</t>
   </si>
   <si>
     <t xml:space="preserve">7.67214393615723</t>
   </si>
   <si>
-    <t xml:space="preserve">7.39918327331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57055282592773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62904500961304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49256372451782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17650365829468</t>
+    <t xml:space="preserve">7.39918375015259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57055234909058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62904453277588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49256420135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17650413513184</t>
   </si>
   <si>
     <t xml:space="preserve">5.51770401000977</t>
@@ -2093,19 +2090,19 @@
     <t xml:space="preserve">4.87429714202881</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16675567626953</t>
+    <t xml:space="preserve">5.16675519943237</t>
   </si>
   <si>
     <t xml:space="preserve">5.5566987991333</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08312273025513</t>
+    <t xml:space="preserve">6.08312320709229</t>
   </si>
   <si>
     <t xml:space="preserve">6.04412841796875</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02463150024414</t>
+    <t xml:space="preserve">6.02463102340698</t>
   </si>
   <si>
     <t xml:space="preserve">5.92714548110962</t>
@@ -2120,7 +2117,7 @@
     <t xml:space="preserve">6.0343804359436</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20010614395142</t>
+    <t xml:space="preserve">6.20010662078857</t>
   </si>
   <si>
     <t xml:space="preserve">6.43407249450684</t>
@@ -2147,7 +2144,7 @@
     <t xml:space="preserve">7.34069204330444</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73063611984253</t>
+    <t xml:space="preserve">7.73063564300537</t>
   </si>
   <si>
     <t xml:space="preserve">7.60390424728394</t>
@@ -2168,274 +2165,277 @@
     <t xml:space="preserve">7.48692083358765</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24320602416992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45767498016357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33094310760498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49666929244995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54541254043579</t>
+    <t xml:space="preserve">7.24320554733276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45767545700073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33094358444214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49666976928711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54541206359863</t>
   </si>
   <si>
     <t xml:space="preserve">7.51616668701172</t>
   </si>
   <si>
-    <t xml:space="preserve">7.75013256072998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90611028671265</t>
+    <t xml:space="preserve">7.75013303756714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90610980987549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37968683242798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61365222930908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65264701843262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7111382484436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5551609992981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36993789672852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36018943786621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2822003364563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57465791702271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59415531158447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56490993499756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43817806243896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38943481445312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40893173217773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50641775131226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7013897895813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63314962387085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46742343902588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35044050216675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31144618988037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52591514587402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74038410186768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94510459899902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8866138458252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79887628555298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78912734985352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4186806678772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32119464874268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26270294189453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21396017074585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17496585845947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27245187759399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75988149642944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77937889099121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53566360473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72088670730591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4771728515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19446325302124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09697771072388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15546846389771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16521739959717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22370862960815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30169725418091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29194927215576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25295448303223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23345756530762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18471479415894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20421123504639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68189287185669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07748031616211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12622261047363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06773138046265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01898813247681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94099950790405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02873659133911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11647415161133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10672521591187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92150211334229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98974275588989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95074844360352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87275981903076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85326242446899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82401657104492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8142671585083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88250780105591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83376502990723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86301040649414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84351348876953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80451965332031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78502225875854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67778778076172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7265305519104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97999382019043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39928722381592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19347906112671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27188205718994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34048461914062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22288036346436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2326807975769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48749017715454</t>
   </si>
   <si>
     <t xml:space="preserve">7.37968635559082</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61365222930908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65264701843262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7111382484436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55516052246094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36993789672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36018943786621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2822003364563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57465839385986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59415531158447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56490993499756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43817758560181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38943481445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40893220901489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50641775131226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7013897895813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63314962387085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46742391586304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35044050216675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31144618988037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52591514587402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74038410186768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94510364532471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88661336898804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79887580871582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78912734985352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41868114471436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32119464874268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26270294189453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21396017074585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17496585845947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27245187759399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75988149642944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77937889099121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53566408157349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72088766098022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47717237472534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19446277618408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09697723388672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15546894073486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16521739959717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22370862960815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30169773101807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2919487953186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25295448303223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23345756530762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18471431732178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20421171188354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68189287185669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07747983932495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12622308731079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06773138046265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01898813247681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94099998474121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02873659133911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11647462844849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10672569274902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92150211334229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98974275588989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95074796676636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8727593421936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85326242446899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82401657104492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81426763534546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88250780105591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83376502990723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8630108833313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84351348876953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80451917648315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78502225875854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67778778076172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7265305519104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97999382019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39928722381592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19347906112671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2718825340271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34048461914062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22288036346436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23268032073975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48749017715454</t>
-  </si>
-  <si>
     <t xml:space="preserve">7.55609321594238</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54629278182983</t>
+    <t xml:space="preserve">7.54629230499268</t>
   </si>
   <si>
     <t xml:space="preserve">7.64429664611816</t>
@@ -2447,22 +2447,22 @@
     <t xml:space="preserve">7.51689195632935</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76190137863159</t>
+    <t xml:space="preserve">7.76190090179443</t>
   </si>
   <si>
     <t xml:space="preserve">7.88930606842041</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12451553344727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09511470794678</t>
+    <t xml:space="preserve">8.12451457977295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09511375427246</t>
   </si>
   <si>
     <t xml:space="preserve">8.14411640167236</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06571197509766</t>
+    <t xml:space="preserve">8.06571292877197</t>
   </si>
   <si>
     <t xml:space="preserve">8.15391540527344</t>
@@ -2471,7 +2471,7 @@
     <t xml:space="preserve">8.18331813812256</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25191974639893</t>
+    <t xml:space="preserve">8.25192070007324</t>
   </si>
   <si>
     <t xml:space="preserve">8.19311714172363</t>
@@ -2486,10 +2486,10 @@
     <t xml:space="preserve">7.84030437469482</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65409708023071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62469577789307</t>
+    <t xml:space="preserve">7.65409660339355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62469625473022</t>
   </si>
   <si>
     <t xml:space="preserve">7.78150177001953</t>
@@ -2516,7 +2516,7 @@
     <t xml:space="preserve">7.87950563430786</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70309925079346</t>
+    <t xml:space="preserve">7.7030987739563</t>
   </si>
   <si>
     <t xml:space="preserve">7.59529447555542</t>
@@ -2528,7 +2528,7 @@
     <t xml:space="preserve">7.69329833984375</t>
   </si>
   <si>
-    <t xml:space="preserve">7.6834979057312</t>
+    <t xml:space="preserve">7.68349838256836</t>
   </si>
   <si>
     <t xml:space="preserve">7.61489534378052</t>
@@ -2537,13 +2537,13 @@
     <t xml:space="preserve">7.89910697937012</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85990571975708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85010480880737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07551288604736</t>
+    <t xml:space="preserve">7.85990524291992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85010433197021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07551383972168</t>
   </si>
   <si>
     <t xml:space="preserve">7.99711036682129</t>
@@ -2555,7 +2555,7 @@
     <t xml:space="preserve">8.33032321929932</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13431644439697</t>
+    <t xml:space="preserve">8.13431549072266</t>
   </si>
   <si>
     <t xml:space="preserve">8.50673007965088</t>
@@ -2567,22 +2567,22 @@
     <t xml:space="preserve">8.4283275604248</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40872669219971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59493446350098</t>
+    <t xml:space="preserve">8.40872573852539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59493350982666</t>
   </si>
   <si>
     <t xml:space="preserve">8.81054210662842</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73213768005371</t>
+    <t xml:space="preserve">8.73213863372803</t>
   </si>
   <si>
     <t xml:space="preserve">8.74193859100342</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8791446685791</t>
+    <t xml:space="preserve">8.87914562225342</t>
   </si>
   <si>
     <t xml:space="preserve">9.08495330810547</t>
@@ -2594,13 +2594,13 @@
     <t xml:space="preserve">9.17315578460693</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10455322265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82034301757812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86934375762939</t>
+    <t xml:space="preserve">9.10455226898193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82034206390381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86934471130371</t>
   </si>
   <si>
     <t xml:space="preserve">8.63413524627686</t>
@@ -2609,13 +2609,13 @@
     <t xml:space="preserve">8.61453437805176</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46752834320068</t>
+    <t xml:space="preserve">8.467529296875</t>
   </si>
   <si>
     <t xml:space="preserve">8.57533264160156</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30092239379883</t>
+    <t xml:space="preserve">8.30092144012451</t>
   </si>
   <si>
     <t xml:space="preserve">8.3597240447998</t>
@@ -2624,10 +2624,10 @@
     <t xml:space="preserve">8.3793249130249</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49693012237549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52633094787598</t>
+    <t xml:space="preserve">8.49692916870117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52632999420166</t>
   </si>
   <si>
     <t xml:space="preserve">8.51653003692627</t>
@@ -2642,7 +2642,7 @@
     <t xml:space="preserve">8.29112148284912</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23231983184814</t>
+    <t xml:space="preserve">8.23231887817383</t>
   </si>
   <si>
     <t xml:space="preserve">8.20291805267334</t>
@@ -2651,19 +2651,19 @@
     <t xml:space="preserve">8.26172065734863</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31072235107422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28132057189941</t>
+    <t xml:space="preserve">8.3107213973999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28132152557373</t>
   </si>
   <si>
     <t xml:space="preserve">8.38912582397461</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70273780822754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64393424987793</t>
+    <t xml:space="preserve">8.70273685455322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64393520355225</t>
   </si>
   <si>
     <t xml:space="preserve">8.67333698272705</t>
@@ -2675,16 +2675,16 @@
     <t xml:space="preserve">8.56553173065186</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66353607177734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8987455368042</t>
+    <t xml:space="preserve">8.66353702545166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89874458312988</t>
   </si>
   <si>
     <t xml:space="preserve">8.77134037017822</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90854644775391</t>
+    <t xml:space="preserve">8.90854549407959</t>
   </si>
   <si>
     <t xml:space="preserve">9.07515239715576</t>
@@ -2693,19 +2693,19 @@
     <t xml:space="preserve">9.99638748168945</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81998062133789</t>
+    <t xml:space="preserve">9.81998157501221</t>
   </si>
   <si>
     <t xml:space="preserve">9.95718574523926</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3884038925171</t>
+    <t xml:space="preserve">10.3884029388428</t>
   </si>
   <si>
     <t xml:space="preserve">10.427604675293</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4472045898438</t>
+    <t xml:space="preserve">10.4472055435181</t>
   </si>
   <si>
     <t xml:space="preserve">9.83958148956299</t>
@@ -2750,10 +2750,10 @@
     <t xml:space="preserve">9.18295574188232</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31036186218262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99674987792969</t>
+    <t xml:space="preserve">9.3103609085083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99674892425537</t>
   </si>
   <si>
     <t xml:space="preserve">9.19275665283203</t>
@@ -2762,19 +2762,19 @@
     <t xml:space="preserve">9.26135921478271</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42796516418457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69257640838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64357376098633</t>
+    <t xml:space="preserve">9.42796611785889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69257545471191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64357471466064</t>
   </si>
   <si>
     <t xml:space="preserve">9.60437297821045</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8983850479126</t>
+    <t xml:space="preserve">9.89838409423828</t>
   </si>
   <si>
     <t xml:space="preserve">9.93758583068848</t>
@@ -2786,7 +2786,7 @@
     <t xml:space="preserve">9.7415771484375</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68277549743652</t>
+    <t xml:space="preserve">9.68277645111084</t>
   </si>
   <si>
     <t xml:space="preserve">9.66317462921143</t>
@@ -2801,19 +2801,19 @@
     <t xml:space="preserve">9.25155830383301</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24175834655762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28096008300781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30056095123291</t>
+    <t xml:space="preserve">9.24175930023193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28096103668213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30055999755859</t>
   </si>
   <si>
     <t xml:space="preserve">9.27116012573242</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06535148620605</t>
+    <t xml:space="preserve">9.06535243988037</t>
   </si>
   <si>
     <t xml:space="preserve">9.04575061798096</t>
@@ -2828,16 +2828,16 @@
     <t xml:space="preserve">8.44792747497559</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8301420211792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47732830047607</t>
+    <t xml:space="preserve">8.83014297485352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47732925415039</t>
   </si>
   <si>
     <t xml:space="preserve">8.34012317657471</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43812656402588</t>
+    <t xml:space="preserve">8.4381275177002</t>
   </si>
   <si>
     <t xml:space="preserve">8.78114032745361</t>
@@ -2867,7 +2867,7 @@
     <t xml:space="preserve">9.09475231170654</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49656867980957</t>
+    <t xml:space="preserve">9.49656772613525</t>
   </si>
   <si>
     <t xml:space="preserve">9.56517124176025</t>
@@ -2879,10 +2879,10 @@
     <t xml:space="preserve">9.73177719116211</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0551900863647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58477210998535</t>
+    <t xml:space="preserve">10.0551910400391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58477115631104</t>
   </si>
   <si>
     <t xml:space="preserve">9.54556941986084</t>
@@ -2897,7 +2897,7 @@
     <t xml:space="preserve">9.62397289276123</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51616954803467</t>
+    <t xml:space="preserve">9.51616859436035</t>
   </si>
   <si>
     <t xml:space="preserve">9.37896347045898</t>
@@ -2906,7 +2906,7 @@
     <t xml:space="preserve">9.3495626449585</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80038070678711</t>
+    <t xml:space="preserve">9.80037975311279</t>
   </si>
   <si>
     <t xml:space="preserve">10.1923952102661</t>
@@ -2915,7 +2915,7 @@
     <t xml:space="preserve">10.0747909545898</t>
   </si>
   <si>
-    <t xml:space="preserve">10.231595993042</t>
+    <t xml:space="preserve">10.2315969467163</t>
   </si>
   <si>
     <t xml:space="preserve">10.1531934738159</t>
@@ -2924,7 +2924,7 @@
     <t xml:space="preserve">10.2511978149414</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0943918228149</t>
+    <t xml:space="preserve">10.0943908691406</t>
   </si>
   <si>
     <t xml:space="preserve">10.1139917373657</t>
@@ -2942,25 +2942,25 @@
     <t xml:space="preserve">9.2907600402832</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3985652923584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32016086578369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46716690063477</t>
+    <t xml:space="preserve">9.39856433868408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32016181945801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46716785430908</t>
   </si>
   <si>
     <t xml:space="preserve">9.55537033081055</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70237636566162</t>
+    <t xml:space="preserve">9.7023754119873</t>
   </si>
   <si>
     <t xml:space="preserve">9.91798400878906</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4080028533936</t>
+    <t xml:space="preserve">10.4080038070679</t>
   </si>
   <si>
     <t xml:space="preserve">10.8784227371216</t>
@@ -2969,7 +2969,7 @@
     <t xml:space="preserve">11.2704372406006</t>
   </si>
   <si>
-    <t xml:space="preserve">11.348840713501</t>
+    <t xml:space="preserve">11.3488397598267</t>
   </si>
   <si>
     <t xml:space="preserve">11.6624526977539</t>
@@ -2987,7 +2987,7 @@
     <t xml:space="preserve">11.5056457519531</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5252475738525</t>
+    <t xml:space="preserve">11.5252466201782</t>
   </si>
   <si>
     <t xml:space="preserve">11.4860458374023</t>
@@ -3002,16 +3002,16 @@
     <t xml:space="preserve">11.7016534805298</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5644493103027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4468441009521</t>
+    <t xml:space="preserve">11.5644483566284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4468450546265</t>
   </si>
   <si>
     <t xml:space="preserve">11.7212543487549</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1524715423584</t>
+    <t xml:space="preserve">12.1524705886841</t>
   </si>
   <si>
     <t xml:space="preserve">12.407280921936</t>
@@ -3020,7 +3020,7 @@
     <t xml:space="preserve">12.662091255188</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5640878677368</t>
+    <t xml:space="preserve">12.5640869140625</t>
   </si>
   <si>
     <t xml:space="preserve">12.270076751709</t>
@@ -3029,13 +3029,13 @@
     <t xml:space="preserve">12.4464826583862</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7800579071045</t>
+    <t xml:space="preserve">11.7800569534302</t>
   </si>
   <si>
     <t xml:space="preserve">11.3096380233765</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9764261245728</t>
+    <t xml:space="preserve">10.9764251708984</t>
   </si>
   <si>
     <t xml:space="preserve">10.9176235198975</t>
@@ -3047,19 +3047,19 @@
     <t xml:space="preserve">10.7804183959961</t>
   </si>
   <si>
-    <t xml:space="preserve">11.094030380249</t>
+    <t xml:space="preserve">11.0940294265747</t>
   </si>
   <si>
     <t xml:space="preserve">10.9568252563477</t>
   </si>
   <si>
-    <t xml:space="preserve">10.819619178772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0352277755737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2707977294922</t>
+    <t xml:space="preserve">10.8196201324463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.035228729248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2707986831665</t>
   </si>
   <si>
     <t xml:space="preserve">10.6824140548706</t>
@@ -3074,16 +3074,16 @@
     <t xml:space="preserve">11.0156269073486</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9372243881226</t>
+    <t xml:space="preserve">10.9372234344482</t>
   </si>
   <si>
     <t xml:space="preserve">10.7020149230957</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9960260391235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2900390625</t>
+    <t xml:space="preserve">10.9960269927979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2900381088257</t>
   </si>
   <si>
     <t xml:space="preserve">11.6036500930786</t>
@@ -3101,10 +3101,10 @@
     <t xml:space="preserve">11.9368629455566</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9760656356812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2112731933594</t>
+    <t xml:space="preserve">11.9760646820068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2112741470337</t>
   </si>
   <si>
     <t xml:space="preserve">12.1916723251343</t>
@@ -3113,31 +3113,31 @@
     <t xml:space="preserve">12.6228895187378</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7404947280884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9169015884399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9757022857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6816911697388</t>
+    <t xml:space="preserve">12.7404937744141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9169006347656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9757032394409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6816921234131</t>
   </si>
   <si>
     <t xml:space="preserve">12.720892906189</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7992963790894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9561033248901</t>
+    <t xml:space="preserve">12.7992973327637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9561023712158</t>
   </si>
   <si>
     <t xml:space="preserve">12.6032886505127</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4856834411621</t>
+    <t xml:space="preserve">12.4856843948364</t>
   </si>
   <si>
     <t xml:space="preserve">12.5248851776123</t>
@@ -3146,7 +3146,7 @@
     <t xml:space="preserve">12.3484792709351</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3680801391602</t>
+    <t xml:space="preserve">12.3680791854858</t>
   </si>
   <si>
     <t xml:space="preserve">12.2308740615845</t>
@@ -3161,19 +3161,19 @@
     <t xml:space="preserve">12.6424903869629</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5836877822876</t>
+    <t xml:space="preserve">12.5836887359619</t>
   </si>
   <si>
     <t xml:space="preserve">12.1720724105835</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8776998519897</t>
+    <t xml:space="preserve">12.8777008056641</t>
   </si>
   <si>
     <t xml:space="preserve">12.3092775344849</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2697143554688</t>
+    <t xml:space="preserve">13.2697153091431</t>
   </si>
   <si>
     <t xml:space="preserve">13.0541067123413</t>
@@ -3182,7 +3182,7 @@
     <t xml:space="preserve">12.9365015029907</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1521110534668</t>
+    <t xml:space="preserve">13.1521100997925</t>
   </si>
   <si>
     <t xml:space="preserve">13.0345058441162</t>
@@ -3194,10 +3194,10 @@
     <t xml:space="preserve">13.1717100143433</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5441255569458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5637254714966</t>
+    <t xml:space="preserve">13.5441246032715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5637264251709</t>
   </si>
   <si>
     <t xml:space="preserve">14.1517486572266</t>
@@ -3212,13 +3212,13 @@
     <t xml:space="preserve">14.0341444015503</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0733451843262</t>
+    <t xml:space="preserve">14.0733461380005</t>
   </si>
   <si>
     <t xml:space="preserve">14.4065589904785</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7201719284058</t>
+    <t xml:space="preserve">14.7201709747314</t>
   </si>
   <si>
     <t xml:space="preserve">14.8573760986328</t>
@@ -3227,7 +3227,7 @@
     <t xml:space="preserve">15.2885932922363</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0533828735352</t>
+    <t xml:space="preserve">15.0533838272095</t>
   </si>
   <si>
     <t xml:space="preserve">15.0337839126587</t>
@@ -3251,16 +3251,16 @@
     <t xml:space="preserve">17.3466739654541</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6602840423584</t>
+    <t xml:space="preserve">17.660285949707</t>
   </si>
   <si>
     <t xml:space="preserve">17.5426807403564</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9150943756104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7386875152588</t>
+    <t xml:space="preserve">17.915096282959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7386894226074</t>
   </si>
   <si>
     <t xml:space="preserve">17.8954944610596</t>
@@ -3287,13 +3287,13 @@
     <t xml:space="preserve">18.7383270263672</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1695442199707</t>
+    <t xml:space="preserve">19.1695423126221</t>
   </si>
   <si>
     <t xml:space="preserve">18.1699066162109</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1307029724121</t>
+    <t xml:space="preserve">18.1307048797607</t>
   </si>
   <si>
     <t xml:space="preserve">18.6795234680176</t>
@@ -3311,7 +3311,7 @@
     <t xml:space="preserve">19.9927749633789</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8947715759277</t>
+    <t xml:space="preserve">19.8947696685791</t>
   </si>
   <si>
     <t xml:space="preserve">19.6497611999512</t>
@@ -3326,16 +3326,16 @@
     <t xml:space="preserve">18.8363304138184</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0323390960693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3067493438721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9343338012695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6403217315674</t>
+    <t xml:space="preserve">19.0323371887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3067512512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9343357086182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.640323638916</t>
   </si>
   <si>
     <t xml:space="preserve">19.0127372741699</t>
@@ -3347,7 +3347,7 @@
     <t xml:space="preserve">19.1107406616211</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9931373596191</t>
+    <t xml:space="preserve">18.9931354522705</t>
   </si>
   <si>
     <t xml:space="preserve">18.7187271118164</t>
@@ -3356,19 +3356,19 @@
     <t xml:space="preserve">18.7775287628174</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6011219024658</t>
+    <t xml:space="preserve">18.6011199951172</t>
   </si>
   <si>
     <t xml:space="preserve">18.444314956665</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3851528167725</t>
+    <t xml:space="preserve">19.3851509094238</t>
   </si>
   <si>
     <t xml:space="preserve">19.1891441345215</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2871475219727</t>
+    <t xml:space="preserve">19.2871494293213</t>
   </si>
   <si>
     <t xml:space="preserve">19.0519390106201</t>
@@ -3377,7 +3377,7 @@
     <t xml:space="preserve">19.1303424835205</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8559303283691</t>
+    <t xml:space="preserve">18.8559322357178</t>
   </si>
   <si>
     <t xml:space="preserve">19.0735759735107</t>
@@ -3897,6 +3897,9 @@
   </si>
   <si>
     <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1000003814697</t>
   </si>
 </sst>
 </file>
@@ -22560,7 +22563,7 @@
         <v>9.39000034332275</v>
       </c>
       <c r="G705" t="s">
-        <v>489</v>
+        <v>392</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -22586,7 +22589,7 @@
         <v>9.18000030517578</v>
       </c>
       <c r="G706" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -22638,7 +22641,7 @@
         <v>9.06999969482422</v>
       </c>
       <c r="G708" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -22664,7 +22667,7 @@
         <v>9</v>
       </c>
       <c r="G709" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -22690,7 +22693,7 @@
         <v>8.44999980926514</v>
       </c>
       <c r="G710" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -22716,7 +22719,7 @@
         <v>8.40999984741211</v>
       </c>
       <c r="G711" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -22742,7 +22745,7 @@
         <v>8.39000034332275</v>
       </c>
       <c r="G712" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -22768,7 +22771,7 @@
         <v>8.25</v>
       </c>
       <c r="G713" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -22794,7 +22797,7 @@
         <v>8.28999996185303</v>
       </c>
       <c r="G714" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -22820,7 +22823,7 @@
         <v>8.18000030517578</v>
       </c>
       <c r="G715" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -22846,7 +22849,7 @@
         <v>8.06999969482422</v>
       </c>
       <c r="G716" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -22872,7 +22875,7 @@
         <v>8.07999992370605</v>
       </c>
       <c r="G717" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -22898,7 +22901,7 @@
         <v>7.73000001907349</v>
       </c>
       <c r="G718" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -22924,7 +22927,7 @@
         <v>7.76000022888184</v>
       </c>
       <c r="G719" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -22950,7 +22953,7 @@
         <v>8.0600004196167</v>
       </c>
       <c r="G720" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -22976,7 +22979,7 @@
         <v>7.82000017166138</v>
       </c>
       <c r="G721" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -23002,7 +23005,7 @@
         <v>7.96999979019165</v>
       </c>
       <c r="G722" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -23028,7 +23031,7 @@
         <v>7.98999977111816</v>
       </c>
       <c r="G723" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -23054,7 +23057,7 @@
         <v>8.17000007629395</v>
       </c>
       <c r="G724" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -23080,7 +23083,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G725" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -23106,7 +23109,7 @@
         <v>8.39000034332275</v>
       </c>
       <c r="G726" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -23132,7 +23135,7 @@
         <v>8.47999954223633</v>
       </c>
       <c r="G727" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -23158,7 +23161,7 @@
         <v>8.52000045776367</v>
       </c>
       <c r="G728" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -23184,7 +23187,7 @@
         <v>8.39999961853027</v>
       </c>
       <c r="G729" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -23210,7 +23213,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G730" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -23236,7 +23239,7 @@
         <v>8.27999973297119</v>
       </c>
       <c r="G731" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -23262,7 +23265,7 @@
         <v>8.26000022888184</v>
       </c>
       <c r="G732" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -23288,7 +23291,7 @@
         <v>8.02000045776367</v>
       </c>
       <c r="G733" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -23314,7 +23317,7 @@
         <v>8.19999980926514</v>
       </c>
       <c r="G734" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -23340,7 +23343,7 @@
         <v>7.8899998664856</v>
       </c>
       <c r="G735" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -23366,7 +23369,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G736" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -23392,7 +23395,7 @@
         <v>7.80999994277954</v>
       </c>
       <c r="G737" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -23418,7 +23421,7 @@
         <v>7.71000003814697</v>
       </c>
       <c r="G738" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -23444,7 +23447,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G739" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -23470,7 +23473,7 @@
         <v>7.71000003814697</v>
       </c>
       <c r="G740" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -23496,7 +23499,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G741" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -23522,7 +23525,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G742" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -23548,7 +23551,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G743" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -23574,7 +23577,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G744" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -23600,7 +23603,7 @@
         <v>8.22999954223633</v>
       </c>
       <c r="G745" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -23626,7 +23629,7 @@
         <v>8.02000045776367</v>
       </c>
       <c r="G746" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -23652,7 +23655,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G747" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -23678,7 +23681,7 @@
         <v>8.27999973297119</v>
       </c>
       <c r="G748" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -23704,7 +23707,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G749" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -23730,7 +23733,7 @@
         <v>8.15999984741211</v>
       </c>
       <c r="G750" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -23756,7 +23759,7 @@
         <v>8.01000022888184</v>
       </c>
       <c r="G751" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -23782,7 +23785,7 @@
         <v>7.96000003814697</v>
       </c>
       <c r="G752" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -23808,7 +23811,7 @@
         <v>7.98999977111816</v>
       </c>
       <c r="G753" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -23834,7 +23837,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G754" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -23860,7 +23863,7 @@
         <v>8.17000007629395</v>
       </c>
       <c r="G755" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -23886,7 +23889,7 @@
         <v>8.17000007629395</v>
       </c>
       <c r="G756" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -23912,7 +23915,7 @@
         <v>8.07999992370605</v>
       </c>
       <c r="G757" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -23938,7 +23941,7 @@
         <v>7.94999980926514</v>
       </c>
       <c r="G758" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -23964,7 +23967,7 @@
         <v>7.98000001907349</v>
       </c>
       <c r="G759" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -23990,7 +23993,7 @@
         <v>7.90999984741211</v>
       </c>
       <c r="G760" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -24016,7 +24019,7 @@
         <v>7.94000005722046</v>
       </c>
       <c r="G761" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -24042,7 +24045,7 @@
         <v>8.02999973297119</v>
       </c>
       <c r="G762" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -24068,7 +24071,7 @@
         <v>8.18000030517578</v>
       </c>
       <c r="G763" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -24094,7 +24097,7 @@
         <v>8.38000011444092</v>
       </c>
       <c r="G764" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -24120,7 +24123,7 @@
         <v>8.43000030517578</v>
       </c>
       <c r="G765" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -24146,7 +24149,7 @@
         <v>8.59000015258789</v>
       </c>
       <c r="G766" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -24172,7 +24175,7 @@
         <v>8.77999973297119</v>
       </c>
       <c r="G767" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -24224,7 +24227,7 @@
         <v>9.14000034332275</v>
       </c>
       <c r="G769" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -24250,7 +24253,7 @@
         <v>9.15999984741211</v>
       </c>
       <c r="G770" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -24276,7 +24279,7 @@
         <v>9.27000045776367</v>
       </c>
       <c r="G771" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -24302,7 +24305,7 @@
         <v>9.18000030517578</v>
       </c>
       <c r="G772" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -24328,7 +24331,7 @@
         <v>9.17000007629395</v>
       </c>
       <c r="G773" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -24354,7 +24357,7 @@
         <v>9.10999965667725</v>
       </c>
       <c r="G774" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -24380,7 +24383,7 @@
         <v>9.10000038146973</v>
       </c>
       <c r="G775" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -24406,7 +24409,7 @@
         <v>9.14000034332275</v>
       </c>
       <c r="G776" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -24432,7 +24435,7 @@
         <v>9.39000034332275</v>
       </c>
       <c r="G777" t="s">
-        <v>489</v>
+        <v>392</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -24562,7 +24565,7 @@
         <v>9.85000038146973</v>
       </c>
       <c r="G782" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -24588,7 +24591,7 @@
         <v>9.97000026702881</v>
       </c>
       <c r="G783" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -24640,7 +24643,7 @@
         <v>9.53999996185303</v>
       </c>
       <c r="G785" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -24692,7 +24695,7 @@
         <v>9.9399995803833</v>
       </c>
       <c r="G787" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -24718,7 +24721,7 @@
         <v>9.88000011444092</v>
       </c>
       <c r="G788" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -24770,7 +24773,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G790" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -24796,7 +24799,7 @@
         <v>9.39000034332275</v>
       </c>
       <c r="G791" t="s">
-        <v>489</v>
+        <v>392</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -24822,7 +24825,7 @@
         <v>9.46000003814697</v>
       </c>
       <c r="G792" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -24874,7 +24877,7 @@
         <v>9.67000007629395</v>
       </c>
       <c r="G794" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -24952,7 +24955,7 @@
         <v>9.84000015258789</v>
       </c>
       <c r="G797" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -25004,7 +25007,7 @@
         <v>9.72999954223633</v>
       </c>
       <c r="G799" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -25108,7 +25111,7 @@
         <v>9.72000026702881</v>
       </c>
       <c r="G803" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -25134,7 +25137,7 @@
         <v>9.65999984741211</v>
       </c>
       <c r="G804" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -25160,7 +25163,7 @@
         <v>9.60999965667725</v>
       </c>
       <c r="G805" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -25186,7 +25189,7 @@
         <v>9.60999965667725</v>
       </c>
       <c r="G806" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -25238,7 +25241,7 @@
         <v>9.61999988555908</v>
       </c>
       <c r="G808" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -25316,7 +25319,7 @@
         <v>9.36999988555908</v>
       </c>
       <c r="G811" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -25342,7 +25345,7 @@
         <v>9.47999954223633</v>
       </c>
       <c r="G812" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -25368,7 +25371,7 @@
         <v>9.36999988555908</v>
       </c>
       <c r="G813" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -25394,7 +25397,7 @@
         <v>9.01000022888184</v>
       </c>
       <c r="G814" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -25420,7 +25423,7 @@
         <v>9.14999961853027</v>
       </c>
       <c r="G815" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -25446,7 +25449,7 @@
         <v>9</v>
       </c>
       <c r="G816" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -25472,7 +25475,7 @@
         <v>9.02999973297119</v>
       </c>
       <c r="G817" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -25524,7 +25527,7 @@
         <v>9.17000007629395</v>
       </c>
       <c r="G819" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -25550,7 +25553,7 @@
         <v>9.06999969482422</v>
       </c>
       <c r="G820" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -25576,7 +25579,7 @@
         <v>9</v>
       </c>
       <c r="G821" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -25602,7 +25605,7 @@
         <v>8.86999988555908</v>
       </c>
       <c r="G822" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -25628,7 +25631,7 @@
         <v>9.02000045776367</v>
       </c>
       <c r="G823" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -25680,7 +25683,7 @@
         <v>8.98999977111816</v>
       </c>
       <c r="G825" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -25706,7 +25709,7 @@
         <v>9</v>
       </c>
       <c r="G826" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -25732,7 +25735,7 @@
         <v>9.14999961853027</v>
       </c>
       <c r="G827" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -25758,7 +25761,7 @@
         <v>9.06999969482422</v>
       </c>
       <c r="G828" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -25784,7 +25787,7 @@
         <v>9.21000003814697</v>
       </c>
       <c r="G829" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -25836,7 +25839,7 @@
         <v>9.22999954223633</v>
       </c>
       <c r="G831" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -25862,7 +25865,7 @@
         <v>9.25</v>
       </c>
       <c r="G832" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -25888,7 +25891,7 @@
         <v>9.27999973297119</v>
       </c>
       <c r="G833" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -25914,7 +25917,7 @@
         <v>9.19999980926514</v>
       </c>
       <c r="G834" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -25940,7 +25943,7 @@
         <v>9.25</v>
       </c>
       <c r="G835" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -25966,7 +25969,7 @@
         <v>9.23999977111816</v>
       </c>
       <c r="G836" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -25992,7 +25995,7 @@
         <v>9.28999996185303</v>
       </c>
       <c r="G837" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -26018,7 +26021,7 @@
         <v>9.31999969482422</v>
       </c>
       <c r="G838" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -26044,7 +26047,7 @@
         <v>9.40999984741211</v>
       </c>
       <c r="G839" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -26070,7 +26073,7 @@
         <v>9.40999984741211</v>
       </c>
       <c r="G840" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -26096,7 +26099,7 @@
         <v>9.39999961853027</v>
       </c>
       <c r="G841" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -26122,7 +26125,7 @@
         <v>9.39999961853027</v>
       </c>
       <c r="G842" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -26174,7 +26177,7 @@
         <v>9.28999996185303</v>
       </c>
       <c r="G844" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -26226,7 +26229,7 @@
         <v>9.39999961853027</v>
       </c>
       <c r="G846" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -26252,7 +26255,7 @@
         <v>9.32999992370605</v>
       </c>
       <c r="G847" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -26278,7 +26281,7 @@
         <v>9.52000045776367</v>
       </c>
       <c r="G848" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -26304,7 +26307,7 @@
         <v>8.98999977111816</v>
       </c>
       <c r="G849" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -26330,7 +26333,7 @@
         <v>8.68000030517578</v>
       </c>
       <c r="G850" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -26356,7 +26359,7 @@
         <v>8.46000003814697</v>
       </c>
       <c r="G851" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -26382,7 +26385,7 @@
         <v>8.15999984741211</v>
       </c>
       <c r="G852" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -26408,7 +26411,7 @@
         <v>8.32999992370605</v>
       </c>
       <c r="G853" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -26434,7 +26437,7 @@
         <v>8.25</v>
       </c>
       <c r="G854" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -26460,7 +26463,7 @@
         <v>8.56999969482422</v>
       </c>
       <c r="G855" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -26486,7 +26489,7 @@
         <v>8.35999965667725</v>
       </c>
       <c r="G856" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -26512,7 +26515,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G857" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -26538,7 +26541,7 @@
         <v>8.31999969482422</v>
       </c>
       <c r="G858" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -26564,7 +26567,7 @@
         <v>8.28999996185303</v>
       </c>
       <c r="G859" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -26590,7 +26593,7 @@
         <v>8.36999988555908</v>
       </c>
       <c r="G860" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -26616,7 +26619,7 @@
         <v>8.36999988555908</v>
       </c>
       <c r="G861" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -26642,7 +26645,7 @@
         <v>8.39000034332275</v>
       </c>
       <c r="G862" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -26668,7 +26671,7 @@
         <v>8.42000007629395</v>
       </c>
       <c r="G863" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -26694,7 +26697,7 @@
         <v>8.23999977111816</v>
       </c>
       <c r="G864" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -26720,7 +26723,7 @@
         <v>8.25</v>
       </c>
       <c r="G865" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -26746,7 +26749,7 @@
         <v>8.25</v>
       </c>
       <c r="G866" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -26772,7 +26775,7 @@
         <v>8.25</v>
       </c>
       <c r="G867" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -26798,7 +26801,7 @@
         <v>8.25</v>
       </c>
       <c r="G868" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -26824,7 +26827,7 @@
         <v>8.22999954223633</v>
       </c>
       <c r="G869" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -26850,7 +26853,7 @@
         <v>8.25</v>
       </c>
       <c r="G870" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -26876,7 +26879,7 @@
         <v>8.4399995803833</v>
       </c>
       <c r="G871" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -26902,7 +26905,7 @@
         <v>8.39000034332275</v>
       </c>
       <c r="G872" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -26928,7 +26931,7 @@
         <v>8.32999992370605</v>
       </c>
       <c r="G873" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -26954,7 +26957,7 @@
         <v>8.52000045776367</v>
       </c>
       <c r="G874" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -26980,7 +26983,7 @@
         <v>8.52999973297119</v>
       </c>
       <c r="G875" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -27006,7 +27009,7 @@
         <v>8.40999984741211</v>
       </c>
       <c r="G876" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -27032,7 +27035,7 @@
         <v>8.28999996185303</v>
       </c>
       <c r="G877" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -27058,7 +27061,7 @@
         <v>8.36999988555908</v>
       </c>
       <c r="G878" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -27084,7 +27087,7 @@
         <v>8.32999992370605</v>
       </c>
       <c r="G879" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -27110,7 +27113,7 @@
         <v>8.36999988555908</v>
       </c>
       <c r="G880" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -27136,7 +27139,7 @@
         <v>8.1899995803833</v>
       </c>
       <c r="G881" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -27162,7 +27165,7 @@
         <v>8.34000015258789</v>
       </c>
       <c r="G882" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -27188,7 +27191,7 @@
         <v>8.35000038146973</v>
       </c>
       <c r="G883" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -27214,7 +27217,7 @@
         <v>8.17000007629395</v>
       </c>
       <c r="G884" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -27240,7 +27243,7 @@
         <v>8.19999980926514</v>
       </c>
       <c r="G885" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -27266,7 +27269,7 @@
         <v>8.1899995803833</v>
       </c>
       <c r="G886" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -27292,7 +27295,7 @@
         <v>8.19999980926514</v>
       </c>
       <c r="G887" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -27318,7 +27321,7 @@
         <v>8.1899995803833</v>
       </c>
       <c r="G888" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -27344,7 +27347,7 @@
         <v>8.1899995803833</v>
       </c>
       <c r="G889" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -27370,7 +27373,7 @@
         <v>8.39000034332275</v>
       </c>
       <c r="G890" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -27396,7 +27399,7 @@
         <v>8.44999980926514</v>
       </c>
       <c r="G891" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -27422,7 +27425,7 @@
         <v>8.44999980926514</v>
       </c>
       <c r="G892" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -27448,7 +27451,7 @@
         <v>8.40999984741211</v>
       </c>
       <c r="G893" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -27474,7 +27477,7 @@
         <v>8.38000011444092</v>
       </c>
       <c r="G894" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -27500,7 +27503,7 @@
         <v>8.38000011444092</v>
       </c>
       <c r="G895" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -27526,7 +27529,7 @@
         <v>8.44999980926514</v>
       </c>
       <c r="G896" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -27552,7 +27555,7 @@
         <v>8.39999961853027</v>
       </c>
       <c r="G897" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -27578,7 +27581,7 @@
         <v>8.3100004196167</v>
       </c>
       <c r="G898" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -27604,7 +27607,7 @@
         <v>8.34000015258789</v>
       </c>
       <c r="G899" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -27630,7 +27633,7 @@
         <v>8.38000011444092</v>
       </c>
       <c r="G900" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -27656,7 +27659,7 @@
         <v>8.34000015258789</v>
       </c>
       <c r="G901" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -27682,7 +27685,7 @@
         <v>8.38000011444092</v>
       </c>
       <c r="G902" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -27708,7 +27711,7 @@
         <v>8.3100004196167</v>
       </c>
       <c r="G903" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -27734,7 +27737,7 @@
         <v>8.21000003814697</v>
       </c>
       <c r="G904" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -27760,7 +27763,7 @@
         <v>8.32999992370605</v>
       </c>
       <c r="G905" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -27786,7 +27789,7 @@
         <v>8.35000038146973</v>
       </c>
       <c r="G906" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -27812,7 +27815,7 @@
         <v>8.35000038146973</v>
       </c>
       <c r="G907" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -27838,7 +27841,7 @@
         <v>8.42000007629395</v>
       </c>
       <c r="G908" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -27864,7 +27867,7 @@
         <v>8.34000015258789</v>
       </c>
       <c r="G909" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -27890,7 +27893,7 @@
         <v>8.38000011444092</v>
       </c>
       <c r="G910" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -27916,7 +27919,7 @@
         <v>8.38000011444092</v>
       </c>
       <c r="G911" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -27942,7 +27945,7 @@
         <v>8.47999954223633</v>
       </c>
       <c r="G912" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -27968,7 +27971,7 @@
         <v>8.40999984741211</v>
       </c>
       <c r="G913" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -27994,7 +27997,7 @@
         <v>8.35999965667725</v>
       </c>
       <c r="G914" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -28020,7 +28023,7 @@
         <v>8.43000030517578</v>
       </c>
       <c r="G915" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -28046,7 +28049,7 @@
         <v>8.38000011444092</v>
       </c>
       <c r="G916" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -28072,7 +28075,7 @@
         <v>8.34000015258789</v>
       </c>
       <c r="G917" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -28098,7 +28101,7 @@
         <v>8.25</v>
       </c>
       <c r="G918" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -28124,7 +28127,7 @@
         <v>8.32999992370605</v>
       </c>
       <c r="G919" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -28150,7 +28153,7 @@
         <v>8.35000038146973</v>
       </c>
       <c r="G920" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -28176,7 +28179,7 @@
         <v>8.1899995803833</v>
       </c>
       <c r="G921" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -28202,7 +28205,7 @@
         <v>8.23999977111816</v>
       </c>
       <c r="G922" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -28228,7 +28231,7 @@
         <v>8.26000022888184</v>
       </c>
       <c r="G923" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -28254,7 +28257,7 @@
         <v>8.27000045776367</v>
       </c>
       <c r="G924" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -28280,7 +28283,7 @@
         <v>8.27999973297119</v>
       </c>
       <c r="G925" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -28306,7 +28309,7 @@
         <v>8.23999977111816</v>
       </c>
       <c r="G926" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -28332,7 +28335,7 @@
         <v>8.25</v>
       </c>
       <c r="G927" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -28358,7 +28361,7 @@
         <v>8.22999954223633</v>
       </c>
       <c r="G928" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -28384,7 +28387,7 @@
         <v>8.22999954223633</v>
       </c>
       <c r="G929" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -28410,7 +28413,7 @@
         <v>8.21000003814697</v>
       </c>
       <c r="G930" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -28436,7 +28439,7 @@
         <v>8.13000011444092</v>
       </c>
       <c r="G931" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -28462,7 +28465,7 @@
         <v>8.15999984741211</v>
       </c>
       <c r="G932" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -28488,7 +28491,7 @@
         <v>8.13000011444092</v>
       </c>
       <c r="G933" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -28514,7 +28517,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G934" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -28540,7 +28543,7 @@
         <v>8.18000030517578</v>
       </c>
       <c r="G935" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -28566,7 +28569,7 @@
         <v>8.21000003814697</v>
       </c>
       <c r="G936" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -28592,7 +28595,7 @@
         <v>8.1899995803833</v>
       </c>
       <c r="G937" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -28618,7 +28621,7 @@
         <v>8.25</v>
       </c>
       <c r="G938" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -28644,7 +28647,7 @@
         <v>8.25</v>
       </c>
       <c r="G939" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -28670,7 +28673,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G940" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -28696,7 +28699,7 @@
         <v>8.18000030517578</v>
       </c>
       <c r="G941" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -28722,7 +28725,7 @@
         <v>8.19999980926514</v>
       </c>
       <c r="G942" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -28748,7 +28751,7 @@
         <v>8.13000011444092</v>
       </c>
       <c r="G943" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -28774,7 +28777,7 @@
         <v>8.17000007629395</v>
       </c>
       <c r="G944" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -28800,7 +28803,7 @@
         <v>8.22999954223633</v>
       </c>
       <c r="G945" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -28826,7 +28829,7 @@
         <v>8.28999996185303</v>
       </c>
       <c r="G946" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -28852,7 +28855,7 @@
         <v>8.28999996185303</v>
       </c>
       <c r="G947" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -28878,7 +28881,7 @@
         <v>8.19999980926514</v>
       </c>
       <c r="G948" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -28904,7 +28907,7 @@
         <v>8.28999996185303</v>
       </c>
       <c r="G949" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -28930,7 +28933,7 @@
         <v>8.23999977111816</v>
       </c>
       <c r="G950" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -28956,7 +28959,7 @@
         <v>8.26000022888184</v>
       </c>
       <c r="G951" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -28982,7 +28985,7 @@
         <v>8.1899995803833</v>
       </c>
       <c r="G952" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -29008,7 +29011,7 @@
         <v>8.18000030517578</v>
       </c>
       <c r="G953" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -29034,7 +29037,7 @@
         <v>8.22999954223633</v>
       </c>
       <c r="G954" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -29060,7 +29063,7 @@
         <v>8.1899995803833</v>
       </c>
       <c r="G955" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -29086,7 +29089,7 @@
         <v>8.17000007629395</v>
       </c>
       <c r="G956" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -29112,7 +29115,7 @@
         <v>8.1899995803833</v>
       </c>
       <c r="G957" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -29138,7 +29141,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G958" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -29164,7 +29167,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G959" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -29190,7 +29193,7 @@
         <v>8.22999954223633</v>
       </c>
       <c r="G960" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -29216,7 +29219,7 @@
         <v>8.21000003814697</v>
       </c>
       <c r="G961" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -29242,7 +29245,7 @@
         <v>8.22999954223633</v>
       </c>
       <c r="G962" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -29268,7 +29271,7 @@
         <v>8.17000007629395</v>
       </c>
       <c r="G963" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -29294,7 +29297,7 @@
         <v>8.18000030517578</v>
       </c>
       <c r="G964" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -29320,7 +29323,7 @@
         <v>8.1899995803833</v>
       </c>
       <c r="G965" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -29346,7 +29349,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G966" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -29372,7 +29375,7 @@
         <v>8.15999984741211</v>
       </c>
       <c r="G967" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -29398,7 +29401,7 @@
         <v>8.18000030517578</v>
       </c>
       <c r="G968" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -29424,7 +29427,7 @@
         <v>8.1899995803833</v>
       </c>
       <c r="G969" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -29450,7 +29453,7 @@
         <v>8.31999969482422</v>
       </c>
       <c r="G970" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -29476,7 +29479,7 @@
         <v>8.72000026702881</v>
       </c>
       <c r="G971" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -29502,7 +29505,7 @@
         <v>8.60999965667725</v>
       </c>
       <c r="G972" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -29528,7 +29531,7 @@
         <v>8.5600004196167</v>
       </c>
       <c r="G973" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -29554,7 +29557,7 @@
         <v>8.5</v>
       </c>
       <c r="G974" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -29580,7 +29583,7 @@
         <v>8.44999980926514</v>
       </c>
       <c r="G975" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -29606,7 +29609,7 @@
         <v>8.46000003814697</v>
       </c>
       <c r="G976" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -29632,7 +29635,7 @@
         <v>8.5</v>
       </c>
       <c r="G977" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -29658,7 +29661,7 @@
         <v>8.68000030517578</v>
       </c>
       <c r="G978" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -29684,7 +29687,7 @@
         <v>8.72999954223633</v>
       </c>
       <c r="G979" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -29710,7 +29713,7 @@
         <v>8.8100004196167</v>
       </c>
       <c r="G980" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -29736,7 +29739,7 @@
         <v>9.07999992370605</v>
       </c>
       <c r="G981" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -29762,7 +29765,7 @@
         <v>9.44999980926514</v>
       </c>
       <c r="G982" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -29788,7 +29791,7 @@
         <v>9.4399995803833</v>
       </c>
       <c r="G983" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -29814,7 +29817,7 @@
         <v>9.82999992370605</v>
       </c>
       <c r="G984" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -29840,7 +29843,7 @@
         <v>9.69999980926514</v>
       </c>
       <c r="G985" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -29866,7 +29869,7 @@
         <v>9.80000019073486</v>
       </c>
       <c r="G986" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -29892,7 +29895,7 @@
         <v>9.77000045776367</v>
       </c>
       <c r="G987" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -29918,7 +29921,7 @@
         <v>9.76000022888184</v>
       </c>
       <c r="G988" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -29944,7 +29947,7 @@
         <v>9.86999988555908</v>
       </c>
       <c r="G989" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -29970,7 +29973,7 @@
         <v>9.85000038146973</v>
       </c>
       <c r="G990" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -29996,7 +29999,7 @@
         <v>9.84000015258789</v>
       </c>
       <c r="G991" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -30022,7 +30025,7 @@
         <v>10.3599996566772</v>
       </c>
       <c r="G992" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -30048,7 +30051,7 @@
         <v>10.6599998474121</v>
       </c>
       <c r="G993" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -30074,7 +30077,7 @@
         <v>10.3800001144409</v>
       </c>
       <c r="G994" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -30100,7 +30103,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G995" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -30126,7 +30129,7 @@
         <v>10.3199996948242</v>
       </c>
       <c r="G996" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -30152,7 +30155,7 @@
         <v>10.2799997329712</v>
       </c>
       <c r="G997" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -30178,7 +30181,7 @@
         <v>9.92000007629395</v>
       </c>
       <c r="G998" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -30204,7 +30207,7 @@
         <v>10</v>
       </c>
       <c r="G999" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -30230,7 +30233,7 @@
         <v>9.93000030517578</v>
       </c>
       <c r="G1000" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -30256,7 +30259,7 @@
         <v>10.0200004577637</v>
       </c>
       <c r="G1001" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -30282,7 +30285,7 @@
         <v>10.039999961853</v>
       </c>
       <c r="G1002" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -30308,7 +30311,7 @@
         <v>9.81999969482422</v>
       </c>
       <c r="G1003" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -30334,7 +30337,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G1004" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -30360,7 +30363,7 @@
         <v>9.77000045776367</v>
       </c>
       <c r="G1005" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -30386,7 +30389,7 @@
         <v>9.77999973297119</v>
       </c>
       <c r="G1006" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -30412,7 +30415,7 @@
         <v>9.82999992370605</v>
       </c>
       <c r="G1007" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -30438,7 +30441,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G1008" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -30464,7 +30467,7 @@
         <v>10</v>
       </c>
       <c r="G1009" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -30490,7 +30493,7 @@
         <v>9.82999992370605</v>
       </c>
       <c r="G1010" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -30516,7 +30519,7 @@
         <v>9.81999969482422</v>
       </c>
       <c r="G1011" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -30542,7 +30545,7 @@
         <v>9.82999992370605</v>
       </c>
       <c r="G1012" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -30568,7 +30571,7 @@
         <v>9.76000022888184</v>
       </c>
       <c r="G1013" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -30594,7 +30597,7 @@
         <v>9.72000026702881</v>
       </c>
       <c r="G1014" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -30620,7 +30623,7 @@
         <v>9.65999984741211</v>
       </c>
       <c r="G1015" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -30646,7 +30649,7 @@
         <v>9.75</v>
       </c>
       <c r="G1016" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -30672,7 +30675,7 @@
         <v>9.77000045776367</v>
       </c>
       <c r="G1017" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -30698,7 +30701,7 @@
         <v>9.6899995803833</v>
       </c>
       <c r="G1018" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -30724,7 +30727,7 @@
         <v>9.76000022888184</v>
       </c>
       <c r="G1019" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -30750,7 +30753,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G1020" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -30776,7 +30779,7 @@
         <v>9.81999969482422</v>
       </c>
       <c r="G1021" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -30802,7 +30805,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G1022" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -30828,7 +30831,7 @@
         <v>9.96000003814697</v>
       </c>
       <c r="G1023" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -30854,7 +30857,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G1024" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -30880,7 +30883,7 @@
         <v>9.42000007629395</v>
       </c>
       <c r="G1025" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -30906,7 +30909,7 @@
         <v>9.39999961853027</v>
       </c>
       <c r="G1026" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -30932,7 +30935,7 @@
         <v>9.39000034332275</v>
       </c>
       <c r="G1027" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -30958,7 +30961,7 @@
         <v>9.42000007629395</v>
       </c>
       <c r="G1028" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -30984,7 +30987,7 @@
         <v>9.5</v>
       </c>
       <c r="G1029" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -31010,7 +31013,7 @@
         <v>9.47000026702881</v>
       </c>
       <c r="G1030" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -31036,7 +31039,7 @@
         <v>9.38000011444092</v>
       </c>
       <c r="G1031" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -31062,7 +31065,7 @@
         <v>9.40999984741211</v>
       </c>
       <c r="G1032" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -31088,7 +31091,7 @@
         <v>9.3100004196167</v>
       </c>
       <c r="G1033" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -31114,7 +31117,7 @@
         <v>9.22000026702881</v>
       </c>
       <c r="G1034" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -31140,7 +31143,7 @@
         <v>9.23999977111816</v>
       </c>
       <c r="G1035" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -31166,7 +31169,7 @@
         <v>9.14999961853027</v>
       </c>
       <c r="G1036" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -31192,7 +31195,7 @@
         <v>9.01000022888184</v>
       </c>
       <c r="G1037" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -31218,7 +31221,7 @@
         <v>9.0600004196167</v>
       </c>
       <c r="G1038" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -31244,7 +31247,7 @@
         <v>9.23999977111816</v>
       </c>
       <c r="G1039" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -31270,7 +31273,7 @@
         <v>9.22999954223633</v>
       </c>
       <c r="G1040" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -31296,7 +31299,7 @@
         <v>9.28999996185303</v>
       </c>
       <c r="G1041" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -31322,7 +31325,7 @@
         <v>9.26000022888184</v>
       </c>
       <c r="G1042" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -31348,7 +31351,7 @@
         <v>9.44999980926514</v>
       </c>
       <c r="G1043" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -31374,7 +31377,7 @@
         <v>9.46000003814697</v>
       </c>
       <c r="G1044" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -31400,7 +31403,7 @@
         <v>9.4399995803833</v>
       </c>
       <c r="G1045" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H1045" t="s">
         <v>9</v>
@@ -31426,7 +31429,7 @@
         <v>9.44999980926514</v>
       </c>
       <c r="G1046" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -31452,7 +31455,7 @@
         <v>9.44999980926514</v>
       </c>
       <c r="G1047" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -31478,7 +31481,7 @@
         <v>9.35000038146973</v>
       </c>
       <c r="G1048" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -31504,7 +31507,7 @@
         <v>9.27000045776367</v>
       </c>
       <c r="G1049" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H1049" t="s">
         <v>9</v>
@@ -31530,7 +31533,7 @@
         <v>9.28999996185303</v>
       </c>
       <c r="G1050" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -31556,7 +31559,7 @@
         <v>9.14999961853027</v>
       </c>
       <c r="G1051" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -31582,7 +31585,7 @@
         <v>9.09000015258789</v>
       </c>
       <c r="G1052" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H1052" t="s">
         <v>9</v>
@@ -31608,7 +31611,7 @@
         <v>8.52000045776367</v>
       </c>
       <c r="G1053" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -31634,7 +31637,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G1054" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -31660,7 +31663,7 @@
         <v>8.60999965667725</v>
       </c>
       <c r="G1055" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -31686,7 +31689,7 @@
         <v>8.27999973297119</v>
       </c>
       <c r="G1056" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -31712,7 +31715,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G1057" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -31738,7 +31741,7 @@
         <v>8.05000019073486</v>
       </c>
       <c r="G1058" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H1058" t="s">
         <v>9</v>
@@ -31764,7 +31767,7 @@
         <v>7.8600001335144</v>
       </c>
       <c r="G1059" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -31790,7 +31793,7 @@
         <v>7.78000020980835</v>
       </c>
       <c r="G1060" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H1060" t="s">
         <v>9</v>
@@ -31816,7 +31819,7 @@
         <v>7.86999988555908</v>
       </c>
       <c r="G1061" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -31842,7 +31845,7 @@
         <v>7.59000015258789</v>
       </c>
       <c r="G1062" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -31868,7 +31871,7 @@
         <v>6.73999977111816</v>
       </c>
       <c r="G1063" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -31894,7 +31897,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G1064" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -31920,7 +31923,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G1065" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -31946,7 +31949,7 @@
         <v>5.30999994277954</v>
       </c>
       <c r="G1066" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -31972,7 +31975,7 @@
         <v>5.65999984741211</v>
       </c>
       <c r="G1067" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -31998,7 +32001,7 @@
         <v>4.69000005722046</v>
       </c>
       <c r="G1068" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -32024,7 +32027,7 @@
         <v>4.80000019073486</v>
       </c>
       <c r="G1069" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -32050,7 +32053,7 @@
         <v>4.63000011444092</v>
       </c>
       <c r="G1070" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -32076,7 +32079,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G1071" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -32102,7 +32105,7 @@
         <v>5</v>
       </c>
       <c r="G1072" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -32128,7 +32131,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G1073" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -32154,7 +32157,7 @@
         <v>5.69999980926514</v>
       </c>
       <c r="G1074" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H1074" t="s">
         <v>9</v>
@@ -32180,7 +32183,7 @@
         <v>6.23999977111816</v>
       </c>
       <c r="G1075" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -32206,7 +32209,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G1076" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -32232,7 +32235,7 @@
         <v>6.17999982833862</v>
       </c>
       <c r="G1077" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -32258,7 +32261,7 @@
         <v>6.23999977111816</v>
       </c>
       <c r="G1078" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -32284,7 +32287,7 @@
         <v>6.07999992370605</v>
       </c>
       <c r="G1079" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H1079" t="s">
         <v>9</v>
@@ -32310,7 +32313,7 @@
         <v>5.98999977111816</v>
       </c>
       <c r="G1080" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -32336,7 +32339,7 @@
         <v>6.15999984741211</v>
       </c>
       <c r="G1081" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -32362,7 +32365,7 @@
         <v>6.19000005722046</v>
       </c>
       <c r="G1082" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -32388,7 +32391,7 @@
         <v>6.3600001335144</v>
       </c>
       <c r="G1083" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -32414,7 +32417,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G1084" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -32440,7 +32443,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G1085" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -32466,7 +32469,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G1086" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -32492,7 +32495,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G1087" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -32518,7 +32521,7 @@
         <v>6.42999982833862</v>
       </c>
       <c r="G1088" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -32544,7 +32547,7 @@
         <v>6.6399998664856</v>
       </c>
       <c r="G1089" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H1089" t="s">
         <v>9</v>
@@ -32570,7 +32573,7 @@
         <v>6.75</v>
       </c>
       <c r="G1090" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -32596,7 +32599,7 @@
         <v>6.76000022888184</v>
       </c>
       <c r="G1091" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -32622,7 +32625,7 @@
         <v>6.76000022888184</v>
       </c>
       <c r="G1092" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -32648,7 +32651,7 @@
         <v>7.53000020980835</v>
       </c>
       <c r="G1093" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -32674,7 +32677,7 @@
         <v>8.26000022888184</v>
       </c>
       <c r="G1094" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -32700,7 +32703,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G1095" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -32726,7 +32729,7 @@
         <v>7.92999982833862</v>
       </c>
       <c r="G1096" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -32752,7 +32755,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G1097" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -32778,7 +32781,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G1098" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -32804,7 +32807,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G1099" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -32830,7 +32833,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G1100" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -32856,7 +32859,7 @@
         <v>7.96999979019165</v>
       </c>
       <c r="G1101" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -32882,7 +32885,7 @@
         <v>7.8899998664856</v>
       </c>
       <c r="G1102" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -32908,7 +32911,7 @@
         <v>7.6399998664856</v>
       </c>
       <c r="G1103" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -32934,7 +32937,7 @@
         <v>7.67999982833862</v>
       </c>
       <c r="G1104" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -32960,7 +32963,7 @@
         <v>7.42999982833862</v>
       </c>
       <c r="G1105" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H1105" t="s">
         <v>9</v>
@@ -32986,7 +32989,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G1106" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -33012,7 +33015,7 @@
         <v>7.51999998092651</v>
       </c>
       <c r="G1107" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -33038,7 +33041,7 @@
         <v>7.69000005722046</v>
       </c>
       <c r="G1108" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -33064,7 +33067,7 @@
         <v>7.51999998092651</v>
       </c>
       <c r="G1109" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -33090,7 +33093,7 @@
         <v>7.73999977111816</v>
       </c>
       <c r="G1110" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -33116,7 +33119,7 @@
         <v>7.71000003814697</v>
       </c>
       <c r="G1111" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -33142,7 +33145,7 @@
         <v>7.94999980926514</v>
       </c>
       <c r="G1112" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -33168,7 +33171,7 @@
         <v>7.8600001335144</v>
       </c>
       <c r="G1113" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -33194,7 +33197,7 @@
         <v>7.94999980926514</v>
       </c>
       <c r="G1114" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -33220,7 +33223,7 @@
         <v>8.15999984741211</v>
       </c>
       <c r="G1115" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -33246,7 +33249,7 @@
         <v>8.18000030517578</v>
       </c>
       <c r="G1116" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -33272,7 +33275,7 @@
         <v>8.17000007629395</v>
       </c>
       <c r="G1117" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -33298,7 +33301,7 @@
         <v>8.25</v>
       </c>
       <c r="G1118" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -33324,7 +33327,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G1119" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -33350,7 +33353,7 @@
         <v>8.1899995803833</v>
       </c>
       <c r="G1120" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -33376,7 +33379,7 @@
         <v>8.3100004196167</v>
       </c>
       <c r="G1121" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -33402,7 +33405,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G1122" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -33428,7 +33431,7 @@
         <v>8.27999973297119</v>
       </c>
       <c r="G1123" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -33454,7 +33457,7 @@
         <v>8.23999977111816</v>
       </c>
       <c r="G1124" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -33480,7 +33483,7 @@
         <v>8.43000030517578</v>
       </c>
       <c r="G1125" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -33506,7 +33509,7 @@
         <v>8.17000007629395</v>
       </c>
       <c r="G1126" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -33532,7 +33535,7 @@
         <v>8.10999965667725</v>
       </c>
       <c r="G1127" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -33558,7 +33561,7 @@
         <v>7.57000017166138</v>
       </c>
       <c r="G1128" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -33584,7 +33587,7 @@
         <v>7.69000005722046</v>
       </c>
       <c r="G1129" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -33610,7 +33613,7 @@
         <v>7.80999994277954</v>
       </c>
       <c r="G1130" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -33636,7 +33639,7 @@
         <v>7.84999990463257</v>
       </c>
       <c r="G1131" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -33662,7 +33665,7 @@
         <v>7.90999984741211</v>
       </c>
       <c r="G1132" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -33688,7 +33691,7 @@
         <v>7.80999994277954</v>
       </c>
       <c r="G1133" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -33714,7 +33717,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G1134" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -33740,7 +33743,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G1135" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -33766,7 +33769,7 @@
         <v>7.75</v>
       </c>
       <c r="G1136" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -33792,7 +33795,7 @@
         <v>7.55999994277954</v>
       </c>
       <c r="G1137" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -33818,7 +33821,7 @@
         <v>7.55000019073486</v>
       </c>
       <c r="G1138" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -33844,7 +33847,7 @@
         <v>7.69000005722046</v>
       </c>
       <c r="G1139" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -33870,7 +33873,7 @@
         <v>7.46999979019165</v>
       </c>
       <c r="G1140" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -33896,7 +33899,7 @@
         <v>7.55999994277954</v>
       </c>
       <c r="G1141" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -33922,7 +33925,7 @@
         <v>7.76999998092651</v>
       </c>
       <c r="G1142" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -33948,7 +33951,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G1143" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -33974,7 +33977,7 @@
         <v>7.76000022888184</v>
       </c>
       <c r="G1144" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -34000,7 +34003,7 @@
         <v>7.63000011444092</v>
       </c>
       <c r="G1145" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -34026,7 +34029,7 @@
         <v>7.51999998092651</v>
       </c>
       <c r="G1146" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -34052,7 +34055,7 @@
         <v>7.51999998092651</v>
       </c>
       <c r="G1147" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -34078,7 +34081,7 @@
         <v>7.57999992370605</v>
       </c>
       <c r="G1148" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -34104,7 +34107,7 @@
         <v>7.53000020980835</v>
       </c>
       <c r="G1149" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -34130,7 +34133,7 @@
         <v>7.69000005722046</v>
       </c>
       <c r="G1150" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -34156,7 +34159,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G1151" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -34182,7 +34185,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G1152" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -34208,7 +34211,7 @@
         <v>7.90000009536743</v>
       </c>
       <c r="G1153" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -34234,7 +34237,7 @@
         <v>7.92999982833862</v>
       </c>
       <c r="G1154" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -34260,7 +34263,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G1155" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -34286,7 +34289,7 @@
         <v>7.82999992370605</v>
       </c>
       <c r="G1156" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -34312,7 +34315,7 @@
         <v>7.84999990463257</v>
       </c>
       <c r="G1157" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -34338,7 +34341,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G1158" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -34364,7 +34367,7 @@
         <v>7.8899998664856</v>
       </c>
       <c r="G1159" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -34390,7 +34393,7 @@
         <v>7.65999984741211</v>
       </c>
       <c r="G1160" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -34416,7 +34419,7 @@
         <v>7.53999996185303</v>
       </c>
       <c r="G1161" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -34442,7 +34445,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G1162" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -34468,7 +34471,7 @@
         <v>7.53000020980835</v>
       </c>
       <c r="G1163" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -34494,7 +34497,7 @@
         <v>7.5</v>
       </c>
       <c r="G1164" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -34520,7 +34523,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G1165" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -34546,7 +34549,7 @@
         <v>7.71999979019165</v>
       </c>
       <c r="G1166" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -34572,7 +34575,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G1167" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -34598,7 +34601,7 @@
         <v>7.53999996185303</v>
       </c>
       <c r="G1168" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -34624,7 +34627,7 @@
         <v>7.94000005722046</v>
       </c>
       <c r="G1169" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -34650,7 +34653,7 @@
         <v>8.14999961853027</v>
       </c>
       <c r="G1170" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -34676,7 +34679,7 @@
         <v>8.26000022888184</v>
       </c>
       <c r="G1171" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -34702,7 +34705,7 @@
         <v>8.25</v>
       </c>
       <c r="G1172" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -34728,7 +34731,7 @@
         <v>8.13000011444092</v>
       </c>
       <c r="G1173" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -34754,7 +34757,7 @@
         <v>8.09000015258789</v>
       </c>
       <c r="G1174" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -34780,7 +34783,7 @@
         <v>8</v>
       </c>
       <c r="G1175" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -34806,7 +34809,7 @@
         <v>8</v>
       </c>
       <c r="G1176" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -34832,7 +34835,7 @@
         <v>7.94000005722046</v>
       </c>
       <c r="G1177" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -34858,7 +34861,7 @@
         <v>7.94999980926514</v>
       </c>
       <c r="G1178" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -34884,7 +34887,7 @@
         <v>7.98999977111816</v>
       </c>
       <c r="G1179" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -34910,7 +34913,7 @@
         <v>7.86999988555908</v>
       </c>
       <c r="G1180" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -34936,7 +34939,7 @@
         <v>7.90999984741211</v>
       </c>
       <c r="G1181" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -34962,7 +34965,7 @@
         <v>7.98999977111816</v>
       </c>
       <c r="G1182" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -34988,7 +34991,7 @@
         <v>7.90000009536743</v>
       </c>
       <c r="G1183" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -35014,7 +35017,7 @@
         <v>7.82999992370605</v>
       </c>
       <c r="G1184" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -35040,7 +35043,7 @@
         <v>7.69000005722046</v>
       </c>
       <c r="G1185" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -35066,7 +35069,7 @@
         <v>7.71999979019165</v>
       </c>
       <c r="G1186" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H1186" t="s">
         <v>9</v>
@@ -35092,7 +35095,7 @@
         <v>7.78000020980835</v>
       </c>
       <c r="G1187" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H1187" t="s">
         <v>9</v>
@@ -35118,7 +35121,7 @@
         <v>7.78000020980835</v>
       </c>
       <c r="G1188" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H1188" t="s">
         <v>9</v>
@@ -35144,7 +35147,7 @@
         <v>7.57999992370605</v>
       </c>
       <c r="G1189" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H1189" t="s">
         <v>9</v>
@@ -35170,7 +35173,7 @@
         <v>7.6399998664856</v>
       </c>
       <c r="G1190" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H1190" t="s">
         <v>9</v>
@@ -35196,7 +35199,7 @@
         <v>7.71000003814697</v>
       </c>
       <c r="G1191" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H1191" t="s">
         <v>9</v>
@@ -35222,7 +35225,7 @@
         <v>7.73999977111816</v>
       </c>
       <c r="G1192" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H1192" t="s">
         <v>9</v>
@@ -35248,7 +35251,7 @@
         <v>7.76999998092651</v>
       </c>
       <c r="G1193" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -35274,7 +35277,7 @@
         <v>7.65999984741211</v>
       </c>
       <c r="G1194" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H1194" t="s">
         <v>9</v>
@@ -35300,7 +35303,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G1195" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H1195" t="s">
         <v>9</v>
@@ -35326,7 +35329,7 @@
         <v>7.6100001335144</v>
       </c>
       <c r="G1196" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H1196" t="s">
         <v>9</v>
@@ -35352,7 +35355,7 @@
         <v>7.55999994277954</v>
       </c>
       <c r="G1197" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H1197" t="s">
         <v>9</v>
@@ -35378,7 +35381,7 @@
         <v>7.51000022888184</v>
       </c>
       <c r="G1198" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H1198" t="s">
         <v>9</v>
@@ -35404,7 +35407,7 @@
         <v>7.6100001335144</v>
       </c>
       <c r="G1199" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H1199" t="s">
         <v>9</v>
@@ -35430,7 +35433,7 @@
         <v>7.44999980926514</v>
       </c>
       <c r="G1200" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H1200" t="s">
         <v>9</v>
@@ -35456,7 +35459,7 @@
         <v>7.40000009536743</v>
       </c>
       <c r="G1201" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H1201" t="s">
         <v>9</v>
@@ -35482,7 +35485,7 @@
         <v>7.53999996185303</v>
       </c>
       <c r="G1202" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H1202" t="s">
         <v>9</v>
@@ -35508,7 +35511,7 @@
         <v>7.5</v>
       </c>
       <c r="G1203" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H1203" t="s">
         <v>9</v>
@@ -35534,7 +35537,7 @@
         <v>7.40000009536743</v>
       </c>
       <c r="G1204" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H1204" t="s">
         <v>9</v>
@@ -35560,7 +35563,7 @@
         <v>7.40000009536743</v>
       </c>
       <c r="G1205" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H1205" t="s">
         <v>9</v>
@@ -35586,7 +35589,7 @@
         <v>7.40000009536743</v>
       </c>
       <c r="G1206" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H1206" t="s">
         <v>9</v>
@@ -35612,7 +35615,7 @@
         <v>7.3600001335144</v>
       </c>
       <c r="G1207" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H1207" t="s">
         <v>9</v>
@@ -35638,7 +35641,7 @@
         <v>7.53000020980835</v>
       </c>
       <c r="G1208" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H1208" t="s">
         <v>9</v>
@@ -35664,7 +35667,7 @@
         <v>7.46000003814697</v>
       </c>
       <c r="G1209" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H1209" t="s">
         <v>9</v>
@@ -35690,7 +35693,7 @@
         <v>7.46000003814697</v>
       </c>
       <c r="G1210" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H1210" t="s">
         <v>9</v>
@@ -35716,7 +35719,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G1211" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H1211" t="s">
         <v>9</v>
@@ -35742,7 +35745,7 @@
         <v>7.59000015258789</v>
       </c>
       <c r="G1212" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H1212" t="s">
         <v>9</v>
@@ -35768,7 +35771,7 @@
         <v>7.96000003814697</v>
       </c>
       <c r="G1213" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H1213" t="s">
         <v>9</v>
@@ -35794,7 +35797,7 @@
         <v>7.84999990463257</v>
       </c>
       <c r="G1214" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H1214" t="s">
         <v>9</v>
@@ -35820,7 +35823,7 @@
         <v>7.94999980926514</v>
       </c>
       <c r="G1215" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H1215" t="s">
         <v>9</v>
@@ -35846,7 +35849,7 @@
         <v>7.98000001907349</v>
       </c>
       <c r="G1216" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H1216" t="s">
         <v>9</v>
@@ -35872,7 +35875,7 @@
         <v>7.90999984741211</v>
       </c>
       <c r="G1217" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H1217" t="s">
         <v>9</v>
@@ -35898,7 +35901,7 @@
         <v>7.73000001907349</v>
       </c>
       <c r="G1218" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H1218" t="s">
         <v>9</v>
@@ -35924,7 +35927,7 @@
         <v>7.8899998664856</v>
       </c>
       <c r="G1219" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H1219" t="s">
         <v>9</v>
@@ -35950,7 +35953,7 @@
         <v>7.96999979019165</v>
       </c>
       <c r="G1220" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H1220" t="s">
         <v>9</v>
@@ -35976,7 +35979,7 @@
         <v>7.96000003814697</v>
       </c>
       <c r="G1221" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H1221" t="s">
         <v>9</v>
@@ -36002,7 +36005,7 @@
         <v>7.90000009536743</v>
       </c>
       <c r="G1222" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H1222" t="s">
         <v>9</v>
@@ -36028,7 +36031,7 @@
         <v>7.92000007629395</v>
       </c>
       <c r="G1223" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H1223" t="s">
         <v>9</v>
@@ -36054,7 +36057,7 @@
         <v>7.84999990463257</v>
       </c>
       <c r="G1224" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H1224" t="s">
         <v>9</v>
@@ -36080,7 +36083,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G1225" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H1225" t="s">
         <v>9</v>
@@ -36106,7 +36109,7 @@
         <v>7.67000007629395</v>
       </c>
       <c r="G1226" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H1226" t="s">
         <v>9</v>
@@ -36132,7 +36135,7 @@
         <v>7.38000011444092</v>
       </c>
       <c r="G1227" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H1227" t="s">
         <v>9</v>
@@ -36158,7 +36161,7 @@
         <v>7.28000020980835</v>
       </c>
       <c r="G1228" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H1228" t="s">
         <v>9</v>
@@ -36184,7 +36187,7 @@
         <v>7.34000015258789</v>
       </c>
       <c r="G1229" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H1229" t="s">
         <v>9</v>
@@ -36210,7 +36213,7 @@
         <v>7.28000020980835</v>
       </c>
       <c r="G1230" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H1230" t="s">
         <v>9</v>
@@ -36236,7 +36239,7 @@
         <v>7.34000015258789</v>
       </c>
       <c r="G1231" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H1231" t="s">
         <v>9</v>
@@ -36262,7 +36265,7 @@
         <v>7.34999990463257</v>
       </c>
       <c r="G1232" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H1232" t="s">
         <v>9</v>
@@ -36288,7 +36291,7 @@
         <v>7.34999990463257</v>
       </c>
       <c r="G1233" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H1233" t="s">
         <v>9</v>
@@ -36314,7 +36317,7 @@
         <v>7.40000009536743</v>
       </c>
       <c r="G1234" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H1234" t="s">
         <v>9</v>
@@ -36340,7 +36343,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G1235" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -36366,7 +36369,7 @@
         <v>7.40000009536743</v>
       </c>
       <c r="G1236" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H1236" t="s">
         <v>9</v>
@@ -36392,7 +36395,7 @@
         <v>7.40999984741211</v>
       </c>
       <c r="G1237" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H1237" t="s">
         <v>9</v>
@@ -36418,7 +36421,7 @@
         <v>7.48999977111816</v>
       </c>
       <c r="G1238" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H1238" t="s">
         <v>9</v>
@@ -36444,7 +36447,7 @@
         <v>7.5</v>
       </c>
       <c r="G1239" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H1239" t="s">
         <v>9</v>
@@ -36470,7 +36473,7 @@
         <v>7.71999979019165</v>
       </c>
       <c r="G1240" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H1240" t="s">
         <v>9</v>
@@ -36496,7 +36499,7 @@
         <v>7.67999982833862</v>
       </c>
       <c r="G1241" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H1241" t="s">
         <v>9</v>
@@ -36522,7 +36525,7 @@
         <v>7.75</v>
       </c>
       <c r="G1242" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H1242" t="s">
         <v>9</v>
@@ -36548,7 +36551,7 @@
         <v>7.78000020980835</v>
       </c>
       <c r="G1243" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H1243" t="s">
         <v>9</v>
@@ -36574,7 +36577,7 @@
         <v>7.67999982833862</v>
       </c>
       <c r="G1244" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H1244" t="s">
         <v>9</v>
@@ -36600,7 +36603,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G1245" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H1245" t="s">
         <v>9</v>
@@ -36626,7 +36629,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G1246" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H1246" t="s">
         <v>9</v>
@@ -36652,7 +36655,7 @@
         <v>7.5</v>
       </c>
       <c r="G1247" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H1247" t="s">
         <v>9</v>
@@ -36678,7 +36681,7 @@
         <v>7.53999996185303</v>
       </c>
       <c r="G1248" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H1248" t="s">
         <v>9</v>
@@ -36704,7 +36707,7 @@
         <v>7.48000001907349</v>
       </c>
       <c r="G1249" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H1249" t="s">
         <v>9</v>
@@ -36730,7 +36733,7 @@
         <v>7.46000003814697</v>
       </c>
       <c r="G1250" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H1250" t="s">
         <v>9</v>
@@ -36756,7 +36759,7 @@
         <v>7.44999980926514</v>
       </c>
       <c r="G1251" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H1251" t="s">
         <v>9</v>
@@ -36782,7 +36785,7 @@
         <v>7.42999982833862</v>
       </c>
       <c r="G1252" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H1252" t="s">
         <v>9</v>
@@ -36808,7 +36811,7 @@
         <v>7.44000005722046</v>
       </c>
       <c r="G1253" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H1253" t="s">
         <v>9</v>
@@ -36834,7 +36837,7 @@
         <v>7.42000007629395</v>
       </c>
       <c r="G1254" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H1254" t="s">
         <v>9</v>
@@ -36860,7 +36863,7 @@
         <v>7.42999982833862</v>
       </c>
       <c r="G1255" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H1255" t="s">
         <v>9</v>
@@ -36886,7 +36889,7 @@
         <v>7.42000007629395</v>
       </c>
       <c r="G1256" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H1256" t="s">
         <v>9</v>
@@ -36912,7 +36915,7 @@
         <v>7.40000009536743</v>
       </c>
       <c r="G1257" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H1257" t="s">
         <v>9</v>
@@ -36938,7 +36941,7 @@
         <v>7.40000009536743</v>
       </c>
       <c r="G1258" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H1258" t="s">
         <v>9</v>
@@ -36964,7 +36967,7 @@
         <v>7.36999988555908</v>
       </c>
       <c r="G1259" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H1259" t="s">
         <v>9</v>
@@ -36990,7 +36993,7 @@
         <v>7.40000009536743</v>
       </c>
       <c r="G1260" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H1260" t="s">
         <v>9</v>
@@ -37016,7 +37019,7 @@
         <v>7.40000009536743</v>
       </c>
       <c r="G1261" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H1261" t="s">
         <v>9</v>
@@ -37042,7 +37045,7 @@
         <v>7.36999988555908</v>
       </c>
       <c r="G1262" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H1262" t="s">
         <v>9</v>
@@ -37068,7 +37071,7 @@
         <v>7.40000009536743</v>
       </c>
       <c r="G1263" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H1263" t="s">
         <v>9</v>
@@ -37094,7 +37097,7 @@
         <v>7.42999982833862</v>
       </c>
       <c r="G1264" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H1264" t="s">
         <v>9</v>
@@ -37120,7 +37123,7 @@
         <v>7.3899998664856</v>
       </c>
       <c r="G1265" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H1265" t="s">
         <v>9</v>
@@ -37146,7 +37149,7 @@
         <v>7.42000007629395</v>
       </c>
       <c r="G1266" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H1266" t="s">
         <v>9</v>
@@ -37172,7 +37175,7 @@
         <v>7.36999988555908</v>
       </c>
       <c r="G1267" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H1267" t="s">
         <v>9</v>
@@ -37198,7 +37201,7 @@
         <v>7.44999980926514</v>
       </c>
       <c r="G1268" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H1268" t="s">
         <v>9</v>
@@ -37224,7 +37227,7 @@
         <v>7.98000001907349</v>
       </c>
       <c r="G1269" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H1269" t="s">
         <v>9</v>
@@ -37250,7 +37253,7 @@
         <v>7.88000011444092</v>
       </c>
       <c r="G1270" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H1270" t="s">
         <v>9</v>
@@ -37276,7 +37279,7 @@
         <v>7.65999984741211</v>
       </c>
       <c r="G1271" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H1271" t="s">
         <v>9</v>
@@ -37302,7 +37305,7 @@
         <v>7.6100001335144</v>
       </c>
       <c r="G1272" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H1272" t="s">
         <v>9</v>
@@ -37328,7 +37331,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G1273" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H1273" t="s">
         <v>9</v>
@@ -37354,7 +37357,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G1274" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H1274" t="s">
         <v>9</v>
@@ -37380,7 +37383,7 @@
         <v>7.57999992370605</v>
       </c>
       <c r="G1275" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H1275" t="s">
         <v>9</v>
@@ -37406,7 +37409,7 @@
         <v>7.69000005722046</v>
       </c>
       <c r="G1276" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H1276" t="s">
         <v>9</v>
@@ -37432,7 +37435,7 @@
         <v>7.69000005722046</v>
       </c>
       <c r="G1277" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H1277" t="s">
         <v>9</v>
@@ -37458,7 +37461,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G1278" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H1278" t="s">
         <v>9</v>
@@ -37484,7 +37487,7 @@
         <v>7.55000019073486</v>
       </c>
       <c r="G1279" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H1279" t="s">
         <v>9</v>
@@ -37510,7 +37513,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G1280" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H1280" t="s">
         <v>9</v>
@@ -37536,7 +37539,7 @@
         <v>7.51999998092651</v>
       </c>
       <c r="G1281" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H1281" t="s">
         <v>9</v>
@@ -37562,7 +37565,7 @@
         <v>7.40999984741211</v>
       </c>
       <c r="G1282" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H1282" t="s">
         <v>9</v>
@@ -37588,7 +37591,7 @@
         <v>7.44999980926514</v>
       </c>
       <c r="G1283" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H1283" t="s">
         <v>9</v>
@@ -37614,7 +37617,7 @@
         <v>7.48000001907349</v>
       </c>
       <c r="G1284" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H1284" t="s">
         <v>9</v>
@@ -37640,7 +37643,7 @@
         <v>7.3899998664856</v>
       </c>
       <c r="G1285" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H1285" t="s">
         <v>9</v>
@@ -37666,7 +37669,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G1286" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -37692,7 +37695,7 @@
         <v>7.30999994277954</v>
       </c>
       <c r="G1287" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H1287" t="s">
         <v>9</v>
@@ -37718,7 +37721,7 @@
         <v>7.25</v>
       </c>
       <c r="G1288" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H1288" t="s">
         <v>9</v>
@@ -37744,7 +37747,7 @@
         <v>7.19999980926514</v>
       </c>
       <c r="G1289" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H1289" t="s">
         <v>9</v>
@@ -37770,7 +37773,7 @@
         <v>7.11999988555908</v>
       </c>
       <c r="G1290" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -37796,7 +37799,7 @@
         <v>7.11999988555908</v>
       </c>
       <c r="G1291" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H1291" t="s">
         <v>9</v>
@@ -37822,7 +37825,7 @@
         <v>7.11999988555908</v>
       </c>
       <c r="G1292" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H1292" t="s">
         <v>9</v>
@@ -37848,7 +37851,7 @@
         <v>7.21000003814697</v>
       </c>
       <c r="G1293" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H1293" t="s">
         <v>9</v>
@@ -37874,7 +37877,7 @@
         <v>7.30000019073486</v>
       </c>
       <c r="G1294" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -37900,7 +37903,7 @@
         <v>7.34000015258789</v>
       </c>
       <c r="G1295" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H1295" t="s">
         <v>9</v>
@@ -37926,7 +37929,7 @@
         <v>7.5</v>
       </c>
       <c r="G1296" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H1296" t="s">
         <v>9</v>
@@ -37952,7 +37955,7 @@
         <v>7.3600001335144</v>
       </c>
       <c r="G1297" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H1297" t="s">
         <v>9</v>
@@ -37978,7 +37981,7 @@
         <v>7.3899998664856</v>
       </c>
       <c r="G1298" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H1298" t="s">
         <v>9</v>
@@ -38004,7 +38007,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G1299" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -38030,7 +38033,7 @@
         <v>7.25</v>
       </c>
       <c r="G1300" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -38056,7 +38059,7 @@
         <v>7.30000019073486</v>
       </c>
       <c r="G1301" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -38082,7 +38085,7 @@
         <v>7.28999996185303</v>
       </c>
       <c r="G1302" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -38108,7 +38111,7 @@
         <v>7.19999980926514</v>
       </c>
       <c r="G1303" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -38134,7 +38137,7 @@
         <v>7.09999990463257</v>
       </c>
       <c r="G1304" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -38160,7 +38163,7 @@
         <v>7.17000007629395</v>
       </c>
       <c r="G1305" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -38186,7 +38189,7 @@
         <v>7.13000011444092</v>
       </c>
       <c r="G1306" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -38212,7 +38215,7 @@
         <v>7.05000019073486</v>
       </c>
       <c r="G1307" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -38238,7 +38241,7 @@
         <v>7.03000020980835</v>
       </c>
       <c r="G1308" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -38264,7 +38267,7 @@
         <v>7.13000011444092</v>
       </c>
       <c r="G1309" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H1309" t="s">
         <v>9</v>
@@ -38290,7 +38293,7 @@
         <v>7</v>
       </c>
       <c r="G1310" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -38316,7 +38319,7 @@
         <v>7.09999990463257</v>
       </c>
       <c r="G1311" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H1311" t="s">
         <v>9</v>
@@ -38342,7 +38345,7 @@
         <v>7.09999990463257</v>
       </c>
       <c r="G1312" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H1312" t="s">
         <v>9</v>
@@ -38368,7 +38371,7 @@
         <v>7.09999990463257</v>
       </c>
       <c r="G1313" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H1313" t="s">
         <v>9</v>
@@ -38394,7 +38397,7 @@
         <v>7</v>
       </c>
       <c r="G1314" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H1314" t="s">
         <v>9</v>
@@ -38420,7 +38423,7 @@
         <v>6.98999977111816</v>
       </c>
       <c r="G1315" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H1315" t="s">
         <v>9</v>
@@ -38446,7 +38449,7 @@
         <v>7</v>
       </c>
       <c r="G1316" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H1316" t="s">
         <v>9</v>
@@ -38472,7 +38475,7 @@
         <v>7.05999994277954</v>
       </c>
       <c r="G1317" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H1317" t="s">
         <v>9</v>
@@ -38498,7 +38501,7 @@
         <v>7.01000022888184</v>
       </c>
       <c r="G1318" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H1318" t="s">
         <v>9</v>
@@ -38524,7 +38527,7 @@
         <v>7.03999996185303</v>
       </c>
       <c r="G1319" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H1319" t="s">
         <v>9</v>
@@ -38550,7 +38553,7 @@
         <v>7</v>
       </c>
       <c r="G1320" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -38576,7 +38579,7 @@
         <v>7.01999998092651</v>
       </c>
       <c r="G1321" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -38602,7 +38605,7 @@
         <v>6.98000001907349</v>
       </c>
       <c r="G1322" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H1322" t="s">
         <v>9</v>
@@ -38628,7 +38631,7 @@
         <v>6.96000003814697</v>
       </c>
       <c r="G1323" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H1323" t="s">
         <v>9</v>
@@ -38654,7 +38657,7 @@
         <v>6.84999990463257</v>
       </c>
       <c r="G1324" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H1324" t="s">
         <v>9</v>
@@ -38680,7 +38683,7 @@
         <v>6.76000022888184</v>
       </c>
       <c r="G1325" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H1325" t="s">
         <v>9</v>
@@ -38706,7 +38709,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G1326" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H1326" t="s">
         <v>9</v>
@@ -38732,7 +38735,7 @@
         <v>7</v>
       </c>
       <c r="G1327" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H1327" t="s">
         <v>9</v>
@@ -38758,7 +38761,7 @@
         <v>7.3899998664856</v>
       </c>
       <c r="G1328" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H1328" t="s">
         <v>9</v>
@@ -38784,7 +38787,7 @@
         <v>7.57000017166138</v>
       </c>
       <c r="G1329" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H1329" t="s">
         <v>9</v>
@@ -38810,7 +38813,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G1330" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -38836,7 +38839,7 @@
         <v>7.82999992370605</v>
       </c>
       <c r="G1331" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H1331" t="s">
         <v>9</v>
@@ -38862,7 +38865,7 @@
         <v>7.57999992370605</v>
       </c>
       <c r="G1332" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H1332" t="s">
         <v>9</v>
@@ -38888,7 +38891,7 @@
         <v>7.42000007629395</v>
       </c>
       <c r="G1333" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H1333" t="s">
         <v>9</v>
@@ -38914,7 +38917,7 @@
         <v>7.59000015258789</v>
       </c>
       <c r="G1334" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H1334" t="s">
         <v>9</v>
@@ -38940,7 +38943,7 @@
         <v>7.53999996185303</v>
       </c>
       <c r="G1335" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H1335" t="s">
         <v>9</v>
@@ -38966,7 +38969,7 @@
         <v>7.57000017166138</v>
       </c>
       <c r="G1336" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H1336" t="s">
         <v>9</v>
@@ -38992,7 +38995,7 @@
         <v>7.44000005722046</v>
       </c>
       <c r="G1337" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H1337" t="s">
         <v>9</v>
@@ -39018,7 +39021,7 @@
         <v>7.44000005722046</v>
       </c>
       <c r="G1338" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H1338" t="s">
         <v>9</v>
@@ -39044,7 +39047,7 @@
         <v>7.28999996185303</v>
       </c>
       <c r="G1339" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H1339" t="s">
         <v>9</v>
@@ -39070,7 +39073,7 @@
         <v>7.30999994277954</v>
       </c>
       <c r="G1340" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H1340" t="s">
         <v>9</v>
@@ -39096,7 +39099,7 @@
         <v>7.34999990463257</v>
       </c>
       <c r="G1341" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H1341" t="s">
         <v>9</v>
@@ -39122,7 +39125,7 @@
         <v>7.44999980926514</v>
       </c>
       <c r="G1342" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H1342" t="s">
         <v>9</v>
@@ -39148,7 +39151,7 @@
         <v>7.34999990463257</v>
       </c>
       <c r="G1343" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H1343" t="s">
         <v>9</v>
@@ -39174,7 +39177,7 @@
         <v>7.38000011444092</v>
       </c>
       <c r="G1344" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H1344" t="s">
         <v>9</v>
@@ -39200,7 +39203,7 @@
         <v>7.15999984741211</v>
       </c>
       <c r="G1345" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H1345" t="s">
         <v>9</v>
@@ -39226,7 +39229,7 @@
         <v>7.15999984741211</v>
       </c>
       <c r="G1346" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H1346" t="s">
         <v>9</v>
@@ -39252,7 +39255,7 @@
         <v>7.30000019073486</v>
       </c>
       <c r="G1347" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H1347" t="s">
         <v>9</v>
@@ -39278,7 +39281,7 @@
         <v>7.38000011444092</v>
       </c>
       <c r="G1348" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H1348" t="s">
         <v>9</v>
@@ -39304,7 +39307,7 @@
         <v>7.3600001335144</v>
       </c>
       <c r="G1349" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H1349" t="s">
         <v>9</v>
@@ -39330,7 +39333,7 @@
         <v>7.5</v>
       </c>
       <c r="G1350" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H1350" t="s">
         <v>9</v>
@@ -39356,7 +39359,7 @@
         <v>7.51000022888184</v>
       </c>
       <c r="G1351" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H1351" t="s">
         <v>9</v>
@@ -39382,7 +39385,7 @@
         <v>7.53000020980835</v>
       </c>
       <c r="G1352" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H1352" t="s">
         <v>9</v>
@@ -39408,7 +39411,7 @@
         <v>7.5</v>
       </c>
       <c r="G1353" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H1353" t="s">
         <v>9</v>
@@ -39434,7 +39437,7 @@
         <v>7.5</v>
       </c>
       <c r="G1354" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H1354" t="s">
         <v>9</v>
@@ -39460,7 +39463,7 @@
         <v>7.51999998092651</v>
       </c>
       <c r="G1355" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H1355" t="s">
         <v>9</v>
@@ -39486,7 +39489,7 @@
         <v>7.53000020980835</v>
       </c>
       <c r="G1356" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H1356" t="s">
         <v>9</v>
@@ -39512,7 +39515,7 @@
         <v>7.5</v>
       </c>
       <c r="G1357" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H1357" t="s">
         <v>9</v>
@@ -39538,7 +39541,7 @@
         <v>7.57000017166138</v>
       </c>
       <c r="G1358" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H1358" t="s">
         <v>9</v>
@@ -39564,7 +39567,7 @@
         <v>7.55000019073486</v>
       </c>
       <c r="G1359" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H1359" t="s">
         <v>9</v>
@@ -39590,7 +39593,7 @@
         <v>7.34000015258789</v>
       </c>
       <c r="G1360" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H1360" t="s">
         <v>9</v>
@@ -39616,7 +39619,7 @@
         <v>7.42000007629395</v>
       </c>
       <c r="G1361" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H1361" t="s">
         <v>9</v>
@@ -39642,7 +39645,7 @@
         <v>7.48999977111816</v>
       </c>
       <c r="G1362" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H1362" t="s">
         <v>9</v>
@@ -39668,7 +39671,7 @@
         <v>7.36999988555908</v>
       </c>
       <c r="G1363" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H1363" t="s">
         <v>9</v>
@@ -39694,7 +39697,7 @@
         <v>7.38000011444092</v>
       </c>
       <c r="G1364" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H1364" t="s">
         <v>9</v>
@@ -39720,7 +39723,7 @@
         <v>7.6399998664856</v>
       </c>
       <c r="G1365" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H1365" t="s">
         <v>9</v>
@@ -39746,7 +39749,7 @@
         <v>7.53000020980835</v>
       </c>
       <c r="G1366" t="s">
-        <v>726</v>
+        <v>805</v>
       </c>
       <c r="H1366" t="s">
         <v>9</v>
@@ -60372,7 +60375,7 @@
     </row>
     <row r="2160">
       <c r="A2160" s="1" t="n">
-        <v>45469.6493287037</v>
+        <v>45469.2916666667</v>
       </c>
       <c r="B2160" t="n">
         <v>18793</v>
@@ -60393,6 +60396,32 @@
         <v>1294</v>
       </c>
       <c r="H2160" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2161">
+      <c r="A2161" s="1" t="n">
+        <v>45470.6496412037</v>
+      </c>
+      <c r="B2161" t="n">
+        <v>11275</v>
+      </c>
+      <c r="C2161" t="n">
+        <v>24.4500007629395</v>
+      </c>
+      <c r="D2161" t="n">
+        <v>24</v>
+      </c>
+      <c r="E2161" t="n">
+        <v>24.0499992370605</v>
+      </c>
+      <c r="F2161" t="n">
+        <v>24.1000003814697</v>
+      </c>
+      <c r="G2161" t="s">
+        <v>1295</v>
+      </c>
+      <c r="H2161" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TXT.MI.xlsx
+++ b/data/TXT.MI.xlsx
@@ -38,13 +38,13 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45555543899536</t>
+    <t xml:space="preserve">6.45555591583252</t>
   </si>
   <si>
     <t xml:space="preserve">TXT.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43539476394653</t>
+    <t xml:space="preserve">6.43539428710938</t>
   </si>
   <si>
     <t xml:space="preserve">6.44345855712891</t>
@@ -65,7 +65,7 @@
     <t xml:space="preserve">6.12894725799561</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96765947341919</t>
+    <t xml:space="preserve">5.96765899658203</t>
   </si>
   <si>
     <t xml:space="preserve">5.89507913589478</t>
@@ -74,7 +74,7 @@
     <t xml:space="preserve">5.80637073516846</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98782014846802</t>
+    <t xml:space="preserve">5.98782062530518</t>
   </si>
   <si>
     <t xml:space="preserve">5.79024219512939</t>
@@ -83,46 +83,46 @@
     <t xml:space="preserve">5.76201677322388</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76604890823364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78217792510986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04023885726929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92733716964722</t>
+    <t xml:space="preserve">5.76604843139648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78217840194702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04023838043213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92733669281006</t>
   </si>
   <si>
     <t xml:space="preserve">5.95959424972534</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98378849029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04830408096313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89104652404785</t>
+    <t xml:space="preserve">5.98378801345825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04830312728882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89104747772217</t>
   </si>
   <si>
     <t xml:space="preserve">5.81846761703491</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21765470504761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19346237182617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24991321563721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33862161636353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26604175567627</t>
+    <t xml:space="preserve">6.21765565872192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19346189498901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24991273880005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33862209320068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26604223251343</t>
   </si>
   <si>
     <t xml:space="preserve">6.24184846878052</t>
@@ -131,13 +131,13 @@
     <t xml:space="preserve">6.25394582748413</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45152282714844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50394105911255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45958805084229</t>
+    <t xml:space="preserve">6.45152378082275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50394201278687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45958852767944</t>
   </si>
   <si>
     <t xml:space="preserve">6.53216743469238</t>
@@ -167,100 +167,100 @@
     <t xml:space="preserve">6.19749450683594</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1531400680542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15717267990112</t>
+    <t xml:space="preserve">6.15314102172852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15717315673828</t>
   </si>
   <si>
     <t xml:space="preserve">6.0321741104126</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06039905548096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99185180664062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17733287811279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09668970108032</t>
+    <t xml:space="preserve">6.06040000915527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99185228347778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17733383178711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09668922424316</t>
   </si>
   <si>
     <t xml:space="preserve">6.2015266418457</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1410436630249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22571992874146</t>
+    <t xml:space="preserve">6.14104270935059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22572040557861</t>
   </si>
   <si>
     <t xml:space="preserve">6.16523694992065</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25797748565674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07652854919434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14507627487183</t>
+    <t xml:space="preserve">6.2579779624939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07652807235718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14507579803467</t>
   </si>
   <si>
     <t xml:space="preserve">6.05636787414551</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99991703033447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97975492477417</t>
+    <t xml:space="preserve">5.99991607666016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97975540161133</t>
   </si>
   <si>
     <t xml:space="preserve">6.16120481491089</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11685085296631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11281824111938</t>
+    <t xml:space="preserve">6.11685132980347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11281871795654</t>
   </si>
   <si>
     <t xml:space="preserve">6.23734998703003</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2707052230835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11643934249878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20399570465088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2540283203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1372857093811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21233415603638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23318147659302</t>
+    <t xml:space="preserve">6.27070474624634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11643886566162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20399522781372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25402784347534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13728523254395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21233367919922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2331805229187</t>
   </si>
   <si>
     <t xml:space="preserve">6.24568891525269</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1623010635376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33324480056763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24151992797852</t>
+    <t xml:space="preserve">6.16230154037476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33324575424194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24151945114136</t>
   </si>
   <si>
     <t xml:space="preserve">6.17064094543457</t>
@@ -269,7 +269,7 @@
     <t xml:space="preserve">6.18314838409424</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15396356582642</t>
+    <t xml:space="preserve">6.15396308898926</t>
   </si>
   <si>
     <t xml:space="preserve">6.08725357055664</t>
@@ -284,40 +284,37 @@
     <t xml:space="preserve">5.85377025604248</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03722190856934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12894773483276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08308410644531</t>
+    <t xml:space="preserve">6.03722143173218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08308458328247</t>
   </si>
   <si>
     <t xml:space="preserve">5.98718929290771</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00386667251587</t>
+    <t xml:space="preserve">6.00386619567871</t>
   </si>
   <si>
     <t xml:space="preserve">5.89546346664429</t>
   </si>
   <si>
-    <t xml:space="preserve">5.82875394821167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90380191802979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95383405685425</t>
+    <t xml:space="preserve">5.82875347137451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90380239486694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95383453369141</t>
   </si>
   <si>
     <t xml:space="preserve">5.90797185897827</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16647148132324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05806827545166</t>
+    <t xml:space="preserve">6.16647100448608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0580677986145</t>
   </si>
   <si>
     <t xml:space="preserve">6.14562463760376</t>
@@ -326,25 +323,25 @@
     <t xml:space="preserve">6.31239891052246</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19982671737671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07474565505981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14145469665527</t>
+    <t xml:space="preserve">6.19982624053955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07474517822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14145517349243</t>
   </si>
   <si>
     <t xml:space="preserve">6.22067260742188</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29572105407715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17481088638306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19565629959106</t>
+    <t xml:space="preserve">6.29572153091431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17480993270874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19565677642822</t>
   </si>
   <si>
     <t xml:space="preserve">6.18731832504272</t>
@@ -353,25 +350,25 @@
     <t xml:space="preserve">6.12060880661011</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19148731231689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11226940155029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09559202194214</t>
+    <t xml:space="preserve">6.19148683547974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11226987838745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0955924987793</t>
   </si>
   <si>
     <t xml:space="preserve">6.01220560073853</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14979362487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02888202667236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96634292602539</t>
+    <t xml:space="preserve">6.14979410171509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02888250350952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96634340286255</t>
   </si>
   <si>
     <t xml:space="preserve">5.99552774429321</t>
@@ -383,34 +380,34 @@
     <t xml:space="preserve">5.99969720840454</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04556083679199</t>
+    <t xml:space="preserve">6.04555988311768</t>
   </si>
   <si>
     <t xml:space="preserve">5.92881870269775</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97468042373657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86627769470215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85793924331665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89129400253296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89963245391846</t>
+    <t xml:space="preserve">5.97468137741089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86627817153931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85793972015381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89129447937012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89963293075562</t>
   </si>
   <si>
     <t xml:space="preserve">5.79956817626953</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94549512863159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97885084152222</t>
+    <t xml:space="preserve">5.94549608230591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9788498878479</t>
   </si>
   <si>
     <t xml:space="preserve">5.92047929763794</t>
@@ -419,46 +416,46 @@
     <t xml:space="preserve">5.96217346191406</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10393095016479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47083473205566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49585008621216</t>
+    <t xml:space="preserve">6.10393142700195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47083425521851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49585056304932</t>
   </si>
   <si>
     <t xml:space="preserve">6.57923746109009</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59591484069824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50001907348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33741426467896</t>
+    <t xml:space="preserve">6.59591436386108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50001955032349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33741521835327</t>
   </si>
   <si>
     <t xml:space="preserve">6.50418901443481</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42914009094238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44581842422485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27904367446899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38327789306641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42497110366821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45415592193604</t>
+    <t xml:space="preserve">6.42914056777954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4458179473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27904415130615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38327836990356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42497062683105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45415639877319</t>
   </si>
   <si>
     <t xml:space="preserve">6.42080163955688</t>
@@ -470,31 +467,31 @@
     <t xml:space="preserve">6.38744688034058</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53754425048828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37910795211792</t>
+    <t xml:space="preserve">6.53754329681396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37910842895508</t>
   </si>
   <si>
     <t xml:space="preserve">6.41663265228271</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34992265701294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4374794960022</t>
+    <t xml:space="preserve">6.34992218017578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43747901916504</t>
   </si>
   <si>
     <t xml:space="preserve">6.22901153564453</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0163745880127</t>
+    <t xml:space="preserve">6.01637506484985</t>
   </si>
   <si>
     <t xml:space="preserve">6.05389881134033</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06223726272583</t>
+    <t xml:space="preserve">6.06223773956299</t>
   </si>
   <si>
     <t xml:space="preserve">6.07057666778564</t>
@@ -503,40 +500,40 @@
     <t xml:space="preserve">6.37076950073242</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41246318817139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32907629013062</t>
+    <t xml:space="preserve">6.4124641418457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32907676696777</t>
   </si>
   <si>
     <t xml:space="preserve">6.45832586288452</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28738260269165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21650314331055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74601078033447</t>
+    <t xml:space="preserve">6.28738212585449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21650362014771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74601125717163</t>
   </si>
   <si>
     <t xml:space="preserve">6.72933387756348</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69597816467285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77102661132812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78770542144775</t>
+    <t xml:space="preserve">6.69597864151001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77102708816528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7877049446106</t>
   </si>
   <si>
     <t xml:space="preserve">7.08789825439453</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25467252731323</t>
+    <t xml:space="preserve">7.25467205047607</t>
   </si>
   <si>
     <t xml:space="preserve">7.22965621948242</t>
@@ -545,55 +542,55 @@
     <t xml:space="preserve">7.08372831344604</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06288146972656</t>
+    <t xml:space="preserve">7.06288194656372</t>
   </si>
   <si>
     <t xml:space="preserve">7.1295919418335</t>
   </si>
   <si>
-    <t xml:space="preserve">7.07121992111206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10457611083984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03786516189575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25884199142456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65492916107178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68828535079956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65076160430908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13793039321899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35473680496216</t>
+    <t xml:space="preserve">7.07122039794922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10457563400269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03786563873291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2588415145874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65493011474609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68828439712524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65076112747192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13793087005615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.354736328125</t>
   </si>
   <si>
     <t xml:space="preserve">7.49649429321289</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52984952926636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54235744476318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48815679550171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32972002029419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22131776809692</t>
+    <t xml:space="preserve">7.5298490524292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54235792160034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48815584182739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32972097396851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22131729125977</t>
   </si>
   <si>
     <t xml:space="preserve">7.15460777282715</t>
@@ -608,67 +605,67 @@
     <t xml:space="preserve">7.10874462127686</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09206819534302</t>
+    <t xml:space="preserve">7.09206771850586</t>
   </si>
   <si>
     <t xml:space="preserve">7.05454349517822</t>
   </si>
   <si>
-    <t xml:space="preserve">6.88360023498535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00451040267944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06705141067505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93780136108398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96281766891479</t>
+    <t xml:space="preserve">6.88359975814819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0045108795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06705093383789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93780088424683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96281814575195</t>
   </si>
   <si>
     <t xml:space="preserve">7.00868034362793</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27968740463257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32138204574585</t>
+    <t xml:space="preserve">7.27968835830688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32138109207153</t>
   </si>
   <si>
     <t xml:space="preserve">7.59655904769897</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56320285797119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69662380218506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74665594100952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7133002281189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9592924118042</t>
+    <t xml:space="preserve">7.56320381164551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69662237167358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74665546417236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71330070495605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95929336547852</t>
   </si>
   <si>
     <t xml:space="preserve">8.06352615356445</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08854293823242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13023567199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90926074981689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31785678863525</t>
+    <t xml:space="preserve">8.08854198455811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13023662567139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90925979614258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31785774230957</t>
   </si>
   <si>
     <t xml:space="preserve">8.25114727020264</t>
@@ -683,25 +680,25 @@
     <t xml:space="preserve">8.55550956726074</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42209148406982</t>
+    <t xml:space="preserve">8.42209053039551</t>
   </si>
   <si>
     <t xml:space="preserve">8.45544528961182</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49713897705078</t>
+    <t xml:space="preserve">8.49713802337646</t>
   </si>
   <si>
     <t xml:space="preserve">8.68892860412598</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69726943969727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65557479858398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58886528015137</t>
+    <t xml:space="preserve">8.69726848602295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65557289123535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58886432647705</t>
   </si>
   <si>
     <t xml:space="preserve">8.3887357711792</t>
@@ -710,7 +707,7 @@
     <t xml:space="preserve">8.09688091278076</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82170343399048</t>
+    <t xml:space="preserve">7.82170391082764</t>
   </si>
   <si>
     <t xml:space="preserve">8.01766395568848</t>
@@ -722,13 +719,13 @@
     <t xml:space="preserve">8.57218742370605</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66391277313232</t>
+    <t xml:space="preserve">8.66391372680664</t>
   </si>
   <si>
     <t xml:space="preserve">8.83902645111084</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92241287231445</t>
+    <t xml:space="preserve">8.92241191864014</t>
   </si>
   <si>
     <t xml:space="preserve">9.43941211700439</t>
@@ -737,52 +734,52 @@
     <t xml:space="preserve">9.51445960998535</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1565408706665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2315893173218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5651378631592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.765266418457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8319749832153</t>
+    <t xml:space="preserve">10.1565418243408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2315902709961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5651369094849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7652654647827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8319759368896</t>
   </si>
   <si>
     <t xml:space="preserve">10.3650093078613</t>
   </si>
   <si>
-    <t xml:space="preserve">10.423378944397</t>
+    <t xml:space="preserve">10.4233808517456</t>
   </si>
   <si>
     <t xml:space="preserve">10.6540613174438</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5344467163086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94493007659912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1328907012939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.192699432373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1243486404419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2439594268799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2525043487549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1499795913696</t>
+    <t xml:space="preserve">10.5344486236572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9449291229248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1328926086426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1926984786987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1243476867676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2439613342285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2525053024292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1499786376953</t>
   </si>
   <si>
     <t xml:space="preserve">10.4575548171997</t>
@@ -800,22 +797,25 @@
     <t xml:space="preserve">10.5515356063843</t>
   </si>
   <si>
+    <t xml:space="preserve">10.4233798980713</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.7993049621582</t>
   </si>
   <si>
-    <t xml:space="preserve">10.722412109375</t>
+    <t xml:space="preserve">10.7224102020264</t>
   </si>
   <si>
     <t xml:space="preserve">10.705322265625</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7138671875</t>
+    <t xml:space="preserve">10.7138662338257</t>
   </si>
   <si>
     <t xml:space="preserve">10.4917287826538</t>
   </si>
   <si>
-    <t xml:space="preserve">10.431923866272</t>
+    <t xml:space="preserve">10.4319229125977</t>
   </si>
   <si>
     <t xml:space="preserve">10.3464860916138</t>
@@ -827,13 +827,13 @@
     <t xml:space="preserve">10.1158046722412</t>
   </si>
   <si>
-    <t xml:space="preserve">9.97910499572754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90221118927002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85094738006592</t>
+    <t xml:space="preserve">9.97910404205322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9022102355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8509464263916</t>
   </si>
   <si>
     <t xml:space="preserve">9.68007278442383</t>
@@ -845,13 +845,13 @@
     <t xml:space="preserve">9.16744709014893</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22725486755371</t>
+    <t xml:space="preserve">9.22725391387939</t>
   </si>
   <si>
     <t xml:space="preserve">9.24434089660645</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26142883300781</t>
+    <t xml:space="preserve">9.26142978668213</t>
   </si>
   <si>
     <t xml:space="preserve">9.30414772033691</t>
@@ -863,19 +863,19 @@
     <t xml:space="preserve">9.39812850952148</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27851581573486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4408483505249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75696659088135</t>
+    <t xml:space="preserve">9.27851676940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44084739685059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75696754455566</t>
   </si>
   <si>
     <t xml:space="preserve">10.1670665740967</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1072607040405</t>
+    <t xml:space="preserve">10.1072597503662</t>
   </si>
   <si>
     <t xml:space="preserve">9.97056007385254</t>
@@ -887,31 +887,31 @@
     <t xml:space="preserve">10.2952241897583</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3037672042847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3550291061401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3293991088867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3635730743408</t>
+    <t xml:space="preserve">10.303768157959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3550300598145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3293981552124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3635740280151</t>
   </si>
   <si>
     <t xml:space="preserve">10.4404668807983</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2781352996826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0901727676392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0389108657837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96201610565186</t>
+    <t xml:space="preserve">10.2781362533569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0901737213135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0389099121094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96201515197754</t>
   </si>
   <si>
     <t xml:space="preserve">9.92784118652344</t>
@@ -923,7 +923,7 @@
     <t xml:space="preserve">9.57754802703857</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77405452728271</t>
+    <t xml:space="preserve">9.7740535736084</t>
   </si>
   <si>
     <t xml:space="preserve">9.52628421783447</t>
@@ -932,16 +932,16 @@
     <t xml:space="preserve">9.42376041412354</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63735389709473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73133563995361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56900310516357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45793533325195</t>
+    <t xml:space="preserve">9.63735485076904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7313346862793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56900405883789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45793437957764</t>
   </si>
   <si>
     <t xml:space="preserve">9.3468656539917</t>
@@ -953,34 +953,34 @@
     <t xml:space="preserve">9.51774215698242</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58609008789062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33832359313965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26997375488281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65444183349609</t>
+    <t xml:space="preserve">9.58609199523926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33832263946533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2699728012085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65444278717041</t>
   </si>
   <si>
     <t xml:space="preserve">9.56046009063721</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9107551574707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74842357635498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71424865722656</t>
+    <t xml:space="preserve">9.91075420379639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74842262268066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71424770355225</t>
   </si>
   <si>
     <t xml:space="preserve">9.70570373535156</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8253173828125</t>
+    <t xml:space="preserve">9.82531642913818</t>
   </si>
   <si>
     <t xml:space="preserve">9.89366626739502</t>
@@ -998,10 +998,10 @@
     <t xml:space="preserve">9.73987865447998</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69715976715088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85949039459229</t>
+    <t xml:space="preserve">9.69716167449951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8594913482666</t>
   </si>
   <si>
     <t xml:space="preserve">9.79968547821045</t>
@@ -1013,10 +1013,10 @@
     <t xml:space="preserve">9.20162391662598</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06492233276367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78297901153564</t>
+    <t xml:space="preserve">9.06492137908936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78297805786133</t>
   </si>
   <si>
     <t xml:space="preserve">8.65482330322266</t>
@@ -1025,19 +1025,19 @@
     <t xml:space="preserve">8.13365459442139</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38569450378418</t>
+    <t xml:space="preserve">8.38569355010986</t>
   </si>
   <si>
     <t xml:space="preserve">8.1592845916748</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18064308166504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68899822235107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38996601104736</t>
+    <t xml:space="preserve">8.18064403533936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68899631500244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38996696472168</t>
   </si>
   <si>
     <t xml:space="preserve">8.40278148651123</t>
@@ -1046,10 +1046,10 @@
     <t xml:space="preserve">8.25326633453369</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33015918731689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43268394470215</t>
+    <t xml:space="preserve">8.33016109466553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43268489837646</t>
   </si>
   <si>
     <t xml:space="preserve">8.37287902832031</t>
@@ -1058,25 +1058,25 @@
     <t xml:space="preserve">8.35151863098145</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15074157714844</t>
+    <t xml:space="preserve">8.15074062347412</t>
   </si>
   <si>
     <t xml:space="preserve">8.09520721435547</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90724468231201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88161277770996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85598134994507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96705055236816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91151666641235</t>
+    <t xml:space="preserve">7.90724325180054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88161325454712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85598087310791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96704912185669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9115161895752</t>
   </si>
   <si>
     <t xml:space="preserve">8.01404094696045</t>
@@ -1085,7 +1085,7 @@
     <t xml:space="preserve">8.035400390625</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07812023162842</t>
+    <t xml:space="preserve">8.07811832427979</t>
   </si>
   <si>
     <t xml:space="preserve">8.0695743560791</t>
@@ -1094,13 +1094,13 @@
     <t xml:space="preserve">8.31307220458984</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21909141540527</t>
+    <t xml:space="preserve">8.21909236907959</t>
   </si>
   <si>
     <t xml:space="preserve">8.20627498626709</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10802268981934</t>
+    <t xml:space="preserve">8.10802173614502</t>
   </si>
   <si>
     <t xml:space="preserve">8.13792514801025</t>
@@ -1109,13 +1109,13 @@
     <t xml:space="preserve">8.23190689086914</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28316974639893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34724712371826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48394775390625</t>
+    <t xml:space="preserve">8.28316879272461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34724807739258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48394680023193</t>
   </si>
   <si>
     <t xml:space="preserve">8.62919044494629</t>
@@ -1124,61 +1124,61 @@
     <t xml:space="preserve">8.57792854309082</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80006504058838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61210346221924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5437536239624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56084060668945</t>
+    <t xml:space="preserve">8.8000659942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61210441589355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54375267028809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56084156036377</t>
   </si>
   <si>
     <t xml:space="preserve">8.71462821960449</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64627838134766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52666568756104</t>
+    <t xml:space="preserve">8.64627742767334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52666473388672</t>
   </si>
   <si>
     <t xml:space="preserve">8.51812267303467</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46685886383057</t>
+    <t xml:space="preserve">8.46685981750488</t>
   </si>
   <si>
     <t xml:space="preserve">8.44122886657715</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26180934906006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07384777069092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04821586608887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97132253646851</t>
+    <t xml:space="preserve">8.26181030273438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0738468170166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04821491241455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97132205963135</t>
   </si>
   <si>
     <t xml:space="preserve">8.18491554260254</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03112888336182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38142395019531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97094058990479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81715393066406</t>
+    <t xml:space="preserve">8.0311279296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.381422996521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9709415435791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81715297698975</t>
   </si>
   <si>
     <t xml:space="preserve">8.8855037689209</t>
@@ -1202,25 +1202,25 @@
     <t xml:space="preserve">9.43230438232422</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31269073486328</t>
+    <t xml:space="preserve">9.3126916885376</t>
   </si>
   <si>
     <t xml:space="preserve">9.19307899475098</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17599010467529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10764026641846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15890407562256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32977962493896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.483567237854</t>
+    <t xml:space="preserve">9.17599201202393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10764122009277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15890502929688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32977867126465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48356628417969</t>
   </si>
   <si>
     <t xml:space="preserve">10.2866792678833</t>
@@ -1235,10 +1235,10 @@
     <t xml:space="preserve">10.6967802047729</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0385293960571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5169792175293</t>
+    <t xml:space="preserve">11.0385303497314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5169801712036</t>
   </si>
   <si>
     <t xml:space="preserve">11.4486293792725</t>
@@ -1259,13 +1259,13 @@
     <t xml:space="preserve">11.4957971572876</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3850831985474</t>
+    <t xml:space="preserve">11.3850841522217</t>
   </si>
   <si>
     <t xml:space="preserve">11.3666315078735</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0344905853271</t>
+    <t xml:space="preserve">11.0344896316528</t>
   </si>
   <si>
     <t xml:space="preserve">10.9606809616089</t>
@@ -1280,7 +1280,7 @@
     <t xml:space="preserve">10.683895111084</t>
   </si>
   <si>
-    <t xml:space="preserve">10.720799446106</t>
+    <t xml:space="preserve">10.7208003997803</t>
   </si>
   <si>
     <t xml:space="preserve">10.5547294616699</t>
@@ -1289,13 +1289,13 @@
     <t xml:space="preserve">10.2410402297974</t>
   </si>
   <si>
-    <t xml:space="preserve">10.074969291687</t>
+    <t xml:space="preserve">10.0749683380127</t>
   </si>
   <si>
     <t xml:space="preserve">10.0565156936646</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1303253173828</t>
+    <t xml:space="preserve">10.1303262710571</t>
   </si>
   <si>
     <t xml:space="preserve">10.351752281189</t>
@@ -1304,22 +1304,22 @@
     <t xml:space="preserve">10.148777961731</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2963962554932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3333005905151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2041349411011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4809198379517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3886585235596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5178241729736</t>
+    <t xml:space="preserve">10.2963972091675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3333015441895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2041358947754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4809188842773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3886575698853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5178232192993</t>
   </si>
   <si>
     <t xml:space="preserve">10.4071102142334</t>
@@ -1328,13 +1328,13 @@
     <t xml:space="preserve">10.2779445648193</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1672296524048</t>
+    <t xml:space="preserve">10.1672306060791</t>
   </si>
   <si>
     <t xml:space="preserve">9.85354137420654</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87199211120605</t>
+    <t xml:space="preserve">9.87199401855469</t>
   </si>
   <si>
     <t xml:space="preserve">9.7797327041626</t>
@@ -1343,7 +1343,7 @@
     <t xml:space="preserve">9.53985118865967</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74282646179199</t>
+    <t xml:space="preserve">9.74282741546631</t>
   </si>
   <si>
     <t xml:space="preserve">9.79818344116211</t>
@@ -1352,22 +1352,22 @@
     <t xml:space="preserve">9.72437381744385</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68746948242188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81663703918457</t>
+    <t xml:space="preserve">9.68747043609619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81663608551025</t>
   </si>
   <si>
     <t xml:space="preserve">9.76127910614014</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63211345672607</t>
+    <t xml:space="preserve">9.63211250305176</t>
   </si>
   <si>
     <t xml:space="preserve">9.37378025054932</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31842231750488</t>
+    <t xml:space="preserve">9.31842422485352</t>
   </si>
   <si>
     <t xml:space="preserve">9.42913722991943</t>
@@ -1376,10 +1376,10 @@
     <t xml:space="preserve">9.39223289489746</t>
   </si>
   <si>
-    <t xml:space="preserve">9.33687591552734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13389873504639</t>
+    <t xml:space="preserve">9.33687496185303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1338996887207</t>
   </si>
   <si>
     <t xml:space="preserve">9.15235233306885</t>
@@ -1388,19 +1388,19 @@
     <t xml:space="preserve">8.99550724029541</t>
   </si>
   <si>
-    <t xml:space="preserve">8.94015026092529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09699630737305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0231876373291</t>
+    <t xml:space="preserve">8.94015121459961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09699535369873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02318668365479</t>
   </si>
   <si>
     <t xml:space="preserve">9.04163932800293</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00473403930664</t>
+    <t xml:space="preserve">9.00473499298096</t>
   </si>
   <si>
     <t xml:space="preserve">8.58033180236816</t>
@@ -1409,7 +1409,7 @@
     <t xml:space="preserve">8.34045028686523</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9862813949585</t>
+    <t xml:space="preserve">8.98628044128418</t>
   </si>
   <si>
     <t xml:space="preserve">8.76485443115234</t>
@@ -1421,16 +1421,16 @@
     <t xml:space="preserve">8.71872329711914</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69104480743408</t>
+    <t xml:space="preserve">8.69104385375977</t>
   </si>
   <si>
     <t xml:space="preserve">8.4142599105835</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5065221786499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46604156494141</t>
+    <t xml:space="preserve">8.50652122497559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46604251861572</t>
   </si>
   <si>
     <t xml:space="preserve">9.44758987426758</t>
@@ -1439,7 +1439,7 @@
     <t xml:space="preserve">9.26306629180908</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06931686401367</t>
+    <t xml:space="preserve">9.06931781768799</t>
   </si>
   <si>
     <t xml:space="preserve">9.20770931243896</t>
@@ -1448,13 +1448,13 @@
     <t xml:space="preserve">9.18925762176514</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10622119903564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0324125289917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06009101867676</t>
+    <t xml:space="preserve">9.10622215270996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03241157531738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06009006500244</t>
   </si>
   <si>
     <t xml:space="preserve">8.94937705993652</t>
@@ -1463,16 +1463,16 @@
     <t xml:space="preserve">8.9309253692627</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8478889465332</t>
+    <t xml:space="preserve">8.84788990020752</t>
   </si>
   <si>
     <t xml:space="preserve">8.89402008056641</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90324687957764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83866310119629</t>
+    <t xml:space="preserve">8.90324592590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83866405487061</t>
   </si>
   <si>
     <t xml:space="preserve">8.77407932281494</t>
@@ -1490,13 +1490,13 @@
     <t xml:space="preserve">8.30354595184326</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79610681533813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.759202003479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74075031280518</t>
+    <t xml:space="preserve">7.79610633850098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75920152664185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74075078964233</t>
   </si>
   <si>
     <t xml:space="preserve">7.6115837097168</t>
@@ -1505,16 +1505,16 @@
     <t xml:space="preserve">7.64848852157593</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54700040817261</t>
+    <t xml:space="preserve">7.54700088500977</t>
   </si>
   <si>
     <t xml:space="preserve">7.44551229476929</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4547381401062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13182353973389</t>
+    <t xml:space="preserve">7.45473861694336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13182306289673</t>
   </si>
   <si>
     <t xml:space="preserve">7.15950155258179</t>
@@ -1529,40 +1529,40 @@
     <t xml:space="preserve">7.3532509803772</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37170314788818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53777408599854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4731912612915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82378435134888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86069059371948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74997520446777</t>
+    <t xml:space="preserve">7.37170267105103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53777456283569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47319173812866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82378530502319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86069011688232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74997615814209</t>
   </si>
   <si>
     <t xml:space="preserve">7.51009607315063</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63926124572754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62080955505371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3993821144104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56545209884644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27944183349609</t>
+    <t xml:space="preserve">7.6392617225647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62081003189087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39938259124756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56545305252075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27944135665894</t>
   </si>
   <si>
     <t xml:space="preserve">7.19640636444092</t>
@@ -1571,22 +1571,22 @@
     <t xml:space="preserve">7.20563268661499</t>
   </si>
   <si>
-    <t xml:space="preserve">7.11337041854858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10414409637451</t>
+    <t xml:space="preserve">7.11337089538574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10414457321167</t>
   </si>
   <si>
     <t xml:space="preserve">7.49164295196533</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59313106536865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58390522003174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52854776382446</t>
+    <t xml:space="preserve">7.59313058853149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58390426635742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52854824066162</t>
   </si>
   <si>
     <t xml:space="preserve">7.39015579223633</t>
@@ -1595,7 +1595,7 @@
     <t xml:space="preserve">7.34402513504028</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33479833602905</t>
+    <t xml:space="preserve">7.33479881286621</t>
   </si>
   <si>
     <t xml:space="preserve">7.36247682571411</t>
@@ -1616,19 +1616,19 @@
     <t xml:space="preserve">7.77765464782715</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92527294158936</t>
+    <t xml:space="preserve">7.92527341842651</t>
   </si>
   <si>
     <t xml:space="preserve">8.10056972503662</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43271350860596</t>
+    <t xml:space="preserve">8.43271160125732</t>
   </si>
   <si>
     <t xml:space="preserve">8.45116424560547</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55265235900879</t>
+    <t xml:space="preserve">8.55265331268311</t>
   </si>
   <si>
     <t xml:space="preserve">8.4603910446167</t>
@@ -1640,13 +1640,13 @@
     <t xml:space="preserve">8.39580726623535</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08777046203613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19848346710205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80175876617432</t>
+    <t xml:space="preserve">9.08776950836182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19848251342773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8017578125</t>
   </si>
   <si>
     <t xml:space="preserve">9.17080497741699</t>
@@ -1658,7 +1658,7 @@
     <t xml:space="preserve">8.85711574554443</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72795009613037</t>
+    <t xml:space="preserve">8.72794914245605</t>
   </si>
   <si>
     <t xml:space="preserve">8.92169857025146</t>
@@ -1670,16 +1670,16 @@
     <t xml:space="preserve">8.97705554962158</t>
   </si>
   <si>
-    <t xml:space="preserve">8.96782970428467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91247272491455</t>
+    <t xml:space="preserve">8.96782875061035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91247177124023</t>
   </si>
   <si>
     <t xml:space="preserve">8.86634063720703</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87556838989258</t>
+    <t xml:space="preserve">8.87556743621826</t>
   </si>
   <si>
     <t xml:space="preserve">8.64491367340088</t>
@@ -1688,7 +1688,7 @@
     <t xml:space="preserve">8.74640083312988</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31277275085449</t>
+    <t xml:space="preserve">8.31277179718018</t>
   </si>
   <si>
     <t xml:space="preserve">8.44193744659424</t>
@@ -1700,16 +1700,16 @@
     <t xml:space="preserve">8.1836051940918</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32199859619141</t>
+    <t xml:space="preserve">8.32199764251709</t>
   </si>
   <si>
     <t xml:space="preserve">8.29432010650635</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49729537963867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51574611663818</t>
+    <t xml:space="preserve">8.49729442596436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5157470703125</t>
   </si>
   <si>
     <t xml:space="preserve">8.53419876098633</t>
@@ -1727,16 +1727,16 @@
     <t xml:space="preserve">8.57110404968262</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59878349304199</t>
+    <t xml:space="preserve">8.59878253936768</t>
   </si>
   <si>
     <t xml:space="preserve">8.68181800842285</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67259216308594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60800933837891</t>
+    <t xml:space="preserve">8.67259311676025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60800838470459</t>
   </si>
   <si>
     <t xml:space="preserve">9.28066253662109</t>
@@ -1766,13 +1766,13 @@
     <t xml:space="preserve">8.14982414245605</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09133338928223</t>
+    <t xml:space="preserve">8.09133434295654</t>
   </si>
   <si>
     <t xml:space="preserve">8.11083030700684</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08158493041992</t>
+    <t xml:space="preserve">8.08158588409424</t>
   </si>
   <si>
     <t xml:space="preserve">8.15957355499268</t>
@@ -1781,13 +1781,13 @@
     <t xml:space="preserve">8.17907238006592</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20831775665283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0328426361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02309322357178</t>
+    <t xml:space="preserve">8.20831680297852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03284168243408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02309226989746</t>
   </si>
   <si>
     <t xml:space="preserve">8.22781372070312</t>
@@ -1799,7 +1799,7 @@
     <t xml:space="preserve">8.31555080413818</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19856834411621</t>
+    <t xml:space="preserve">8.19856739044189</t>
   </si>
   <si>
     <t xml:space="preserve">7.9840989112854</t>
@@ -1811,19 +1811,19 @@
     <t xml:space="preserve">8.14007759094238</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96460151672363</t>
+    <t xml:space="preserve">7.96460247039795</t>
   </si>
   <si>
     <t xml:space="preserve">7.99384832382202</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23756313323975</t>
+    <t xml:space="preserve">8.23756217956543</t>
   </si>
   <si>
     <t xml:space="preserve">8.1693229675293</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18881893157959</t>
+    <t xml:space="preserve">8.18881988525391</t>
   </si>
   <si>
     <t xml:space="preserve">8.10108280181885</t>
@@ -1832,7 +1832,7 @@
     <t xml:space="preserve">8.00359630584717</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26680755615234</t>
+    <t xml:space="preserve">8.26680850982666</t>
   </si>
   <si>
     <t xml:space="preserve">8.21806526184082</t>
@@ -1847,7 +1847,7 @@
     <t xml:space="preserve">8.07183647155762</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92560815811157</t>
+    <t xml:space="preserve">7.92560768127441</t>
   </si>
   <si>
     <t xml:space="preserve">7.93535614013672</t>
@@ -1856,13 +1856,13 @@
     <t xml:space="preserve">7.97435092926025</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01334571838379</t>
+    <t xml:space="preserve">8.01334476470947</t>
   </si>
   <si>
     <t xml:space="preserve">8.50077533721924</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39354038238525</t>
+    <t xml:space="preserve">8.39353942871094</t>
   </si>
   <si>
     <t xml:space="preserve">8.34479713439941</t>
@@ -1877,7 +1877,7 @@
     <t xml:space="preserve">8.5885124206543</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85172367095947</t>
+    <t xml:space="preserve">8.85172462463379</t>
   </si>
   <si>
     <t xml:space="preserve">9.21242237091064</t>
@@ -1904,19 +1904,19 @@
     <t xml:space="preserve">9.62186336517334</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60236740112305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59261798858643</t>
+    <t xml:space="preserve">9.60236644744873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59261703491211</t>
   </si>
   <si>
     <t xml:space="preserve">10.0995435714722</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3920021057129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1190414428711</t>
+    <t xml:space="preserve">10.3920011520386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1190423965454</t>
   </si>
   <si>
     <t xml:space="preserve">10.1385383605957</t>
@@ -1931,13 +1931,13 @@
     <t xml:space="preserve">9.67060661315918</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74859428405762</t>
+    <t xml:space="preserve">9.74859523773193</t>
   </si>
   <si>
     <t xml:space="preserve">9.68035411834717</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76809310913086</t>
+    <t xml:space="preserve">9.76809215545654</t>
   </si>
   <si>
     <t xml:space="preserve">9.78758907318115</t>
@@ -1946,10 +1946,10 @@
     <t xml:space="preserve">9.5731201171875</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65110778808594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53412532806396</t>
+    <t xml:space="preserve">9.65110874176025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53412628173828</t>
   </si>
   <si>
     <t xml:space="preserve">9.94356632232666</t>
@@ -1958,19 +1958,19 @@
     <t xml:space="preserve">9.47563457489014</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41714286804199</t>
+    <t xml:space="preserve">9.41714191436768</t>
   </si>
   <si>
     <t xml:space="preserve">9.50487995147705</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44638729095459</t>
+    <t xml:space="preserve">9.44638824462891</t>
   </si>
   <si>
     <t xml:space="preserve">9.39764595031738</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8460807800293</t>
+    <t xml:space="preserve">9.84608173370361</t>
   </si>
   <si>
     <t xml:space="preserve">9.7096004486084</t>
@@ -1979,7 +1979,7 @@
     <t xml:space="preserve">9.72909736633301</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18317699432373</t>
+    <t xml:space="preserve">9.18317604064941</t>
   </si>
   <si>
     <t xml:space="preserve">9.1636791229248</t>
@@ -1988,10 +1988,10 @@
     <t xml:space="preserve">9.15393161773682</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26116466522217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23192024230957</t>
+    <t xml:space="preserve">9.26116561889648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23191928863525</t>
   </si>
   <si>
     <t xml:space="preserve">9.1441822052002</t>
@@ -2006,22 +2006,22 @@
     <t xml:space="preserve">8.98820495605469</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0077018737793</t>
+    <t xml:space="preserve">9.00770092010498</t>
   </si>
   <si>
     <t xml:space="preserve">8.91996383666992</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78348445892334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83222770690918</t>
+    <t xml:space="preserve">8.78348350524902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83222675323486</t>
   </si>
   <si>
     <t xml:space="preserve">8.99795246124268</t>
   </si>
   <si>
-    <t xml:space="preserve">9.05644416809082</t>
+    <t xml:space="preserve">9.05644512176514</t>
   </si>
   <si>
     <t xml:space="preserve">9.02719879150391</t>
@@ -2036,43 +2036,43 @@
     <t xml:space="preserve">9.03694820404053</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86147308349609</t>
+    <t xml:space="preserve">8.86147403717041</t>
   </si>
   <si>
     <t xml:space="preserve">8.38379192352295</t>
   </si>
   <si>
-    <t xml:space="preserve">7.8963623046875</t>
+    <t xml:space="preserve">7.89636278152466</t>
   </si>
   <si>
     <t xml:space="preserve">7.84761905670166</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66239547729492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58440732955933</t>
+    <t xml:space="preserve">7.66239595413208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58440685272217</t>
   </si>
   <si>
     <t xml:space="preserve">7.67214393615723</t>
   </si>
   <si>
-    <t xml:space="preserve">7.39918375015259</t>
+    <t xml:space="preserve">7.39918327331543</t>
   </si>
   <si>
     <t xml:space="preserve">6.57055234909058</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62904453277588</t>
+    <t xml:space="preserve">6.62904500961304</t>
   </si>
   <si>
     <t xml:space="preserve">6.49256420135498</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17650413513184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51770401000977</t>
+    <t xml:space="preserve">5.17650365829468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51770448684692</t>
   </si>
   <si>
     <t xml:space="preserve">4.5720911026001</t>
@@ -2087,10 +2087,10 @@
     <t xml:space="preserve">4.55259370803833</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87429714202881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16675519943237</t>
+    <t xml:space="preserve">4.87429761886597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16675567626953</t>
   </si>
   <si>
     <t xml:space="preserve">5.5566987991333</t>
@@ -2099,10 +2099,10 @@
     <t xml:space="preserve">6.08312320709229</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04412841796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02463102340698</t>
+    <t xml:space="preserve">6.04412889480591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02463150024414</t>
   </si>
   <si>
     <t xml:space="preserve">5.92714548110962</t>
@@ -2150,19 +2150,19 @@
     <t xml:space="preserve">7.60390424728394</t>
   </si>
   <si>
-    <t xml:space="preserve">7.64289855957031</t>
+    <t xml:space="preserve">7.64289808273315</t>
   </si>
   <si>
     <t xml:space="preserve">7.76962995529175</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69164133071899</t>
+    <t xml:space="preserve">7.69164085388184</t>
   </si>
   <si>
     <t xml:space="preserve">7.44792604446411</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48692083358765</t>
+    <t xml:space="preserve">7.48692035675049</t>
   </si>
   <si>
     <t xml:space="preserve">7.24320554733276</t>
@@ -2174,7 +2174,7 @@
     <t xml:space="preserve">7.33094358444214</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49666976928711</t>
+    <t xml:space="preserve">7.49666929244995</t>
   </si>
   <si>
     <t xml:space="preserve">7.54541206359863</t>
@@ -2192,7 +2192,7 @@
     <t xml:space="preserve">7.37968683242798</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61365222930908</t>
+    <t xml:space="preserve">7.61365270614624</t>
   </si>
   <si>
     <t xml:space="preserve">7.65264701843262</t>
@@ -2210,7 +2210,7 @@
     <t xml:space="preserve">7.36018943786621</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2822003364563</t>
+    <t xml:space="preserve">7.28220081329346</t>
   </si>
   <si>
     <t xml:space="preserve">7.57465791702271</t>
@@ -2228,13 +2228,13 @@
     <t xml:space="preserve">7.38943481445312</t>
   </si>
   <si>
-    <t xml:space="preserve">7.40893173217773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50641775131226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7013897895813</t>
+    <t xml:space="preserve">7.40893220901489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50641822814941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70139026641846</t>
   </si>
   <si>
     <t xml:space="preserve">7.63314962387085</t>
@@ -2243,7 +2243,7 @@
     <t xml:space="preserve">7.46742343902588</t>
   </si>
   <si>
-    <t xml:space="preserve">7.35044050216675</t>
+    <t xml:space="preserve">7.35044002532959</t>
   </si>
   <si>
     <t xml:space="preserve">7.31144618988037</t>
@@ -2264,19 +2264,19 @@
     <t xml:space="preserve">7.79887628555298</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78912734985352</t>
+    <t xml:space="preserve">7.78912687301636</t>
   </si>
   <si>
     <t xml:space="preserve">7.4186806678772</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32119464874268</t>
+    <t xml:space="preserve">7.32119512557983</t>
   </si>
   <si>
     <t xml:space="preserve">7.26270294189453</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21396017074585</t>
+    <t xml:space="preserve">7.21396064758301</t>
   </si>
   <si>
     <t xml:space="preserve">7.17496585845947</t>
@@ -2288,22 +2288,22 @@
     <t xml:space="preserve">7.75988149642944</t>
   </si>
   <si>
-    <t xml:space="preserve">7.77937889099121</t>
+    <t xml:space="preserve">7.77937841415405</t>
   </si>
   <si>
     <t xml:space="preserve">7.53566360473633</t>
   </si>
   <si>
-    <t xml:space="preserve">7.72088670730591</t>
+    <t xml:space="preserve">7.72088718414307</t>
   </si>
   <si>
     <t xml:space="preserve">7.4771728515625</t>
   </si>
   <si>
-    <t xml:space="preserve">7.19446325302124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09697771072388</t>
+    <t xml:space="preserve">7.19446277618408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09697723388672</t>
   </si>
   <si>
     <t xml:space="preserve">7.15546846389771</t>
@@ -2318,13 +2318,13 @@
     <t xml:space="preserve">7.30169725418091</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29194927215576</t>
+    <t xml:space="preserve">7.2919487953186</t>
   </si>
   <si>
     <t xml:space="preserve">7.25295448303223</t>
   </si>
   <si>
-    <t xml:space="preserve">7.23345756530762</t>
+    <t xml:space="preserve">7.23345804214478</t>
   </si>
   <si>
     <t xml:space="preserve">7.18471479415894</t>
@@ -2351,22 +2351,22 @@
     <t xml:space="preserve">6.94099950790405</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02873659133911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11647415161133</t>
+    <t xml:space="preserve">7.02873706817627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11647462844849</t>
   </si>
   <si>
     <t xml:space="preserve">7.10672521591187</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92150211334229</t>
+    <t xml:space="preserve">6.92150259017944</t>
   </si>
   <si>
     <t xml:space="preserve">6.98974275588989</t>
   </si>
   <si>
-    <t xml:space="preserve">6.95074844360352</t>
+    <t xml:space="preserve">6.95074796676636</t>
   </si>
   <si>
     <t xml:space="preserve">6.87275981903076</t>
@@ -2384,7 +2384,7 @@
     <t xml:space="preserve">6.88250780105591</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83376502990723</t>
+    <t xml:space="preserve">6.83376550674438</t>
   </si>
   <si>
     <t xml:space="preserve">6.86301040649414</t>
@@ -2393,13 +2393,13 @@
     <t xml:space="preserve">6.84351348876953</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80451965332031</t>
+    <t xml:space="preserve">6.80451917648315</t>
   </si>
   <si>
     <t xml:space="preserve">6.78502225875854</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67778778076172</t>
+    <t xml:space="preserve">6.67778730392456</t>
   </si>
   <si>
     <t xml:space="preserve">6.7265305519104</t>
@@ -2414,7 +2414,7 @@
     <t xml:space="preserve">7.19347906112671</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27188205718994</t>
+    <t xml:space="preserve">7.2718825340271</t>
   </si>
   <si>
     <t xml:space="preserve">7.34048461914062</t>
@@ -2423,7 +2423,7 @@
     <t xml:space="preserve">7.22288036346436</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2326807975769</t>
+    <t xml:space="preserve">7.23268032073975</t>
   </si>
   <si>
     <t xml:space="preserve">7.48749017715454</t>
@@ -2435,7 +2435,7 @@
     <t xml:space="preserve">7.55609321594238</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54629230499268</t>
+    <t xml:space="preserve">7.54629278182983</t>
   </si>
   <si>
     <t xml:space="preserve">7.64429664611816</t>
@@ -2447,22 +2447,22 @@
     <t xml:space="preserve">7.51689195632935</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76190090179443</t>
+    <t xml:space="preserve">7.76190137863159</t>
   </si>
   <si>
     <t xml:space="preserve">7.88930606842041</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12451457977295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09511375427246</t>
+    <t xml:space="preserve">8.12451553344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09511470794678</t>
   </si>
   <si>
     <t xml:space="preserve">8.14411640167236</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06571292877197</t>
+    <t xml:space="preserve">8.06571197509766</t>
   </si>
   <si>
     <t xml:space="preserve">8.15391540527344</t>
@@ -2471,7 +2471,7 @@
     <t xml:space="preserve">8.18331813812256</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25192070007324</t>
+    <t xml:space="preserve">8.25191974639893</t>
   </si>
   <si>
     <t xml:space="preserve">8.19311714172363</t>
@@ -2486,10 +2486,10 @@
     <t xml:space="preserve">7.84030437469482</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65409660339355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62469625473022</t>
+    <t xml:space="preserve">7.65409708023071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62469577789307</t>
   </si>
   <si>
     <t xml:space="preserve">7.78150177001953</t>
@@ -2516,7 +2516,7 @@
     <t xml:space="preserve">7.87950563430786</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7030987739563</t>
+    <t xml:space="preserve">7.70309925079346</t>
   </si>
   <si>
     <t xml:space="preserve">7.59529447555542</t>
@@ -2528,7 +2528,7 @@
     <t xml:space="preserve">7.69329833984375</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68349838256836</t>
+    <t xml:space="preserve">7.6834979057312</t>
   </si>
   <si>
     <t xml:space="preserve">7.61489534378052</t>
@@ -2537,13 +2537,13 @@
     <t xml:space="preserve">7.89910697937012</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85990524291992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85010433197021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07551383972168</t>
+    <t xml:space="preserve">7.85990571975708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85010480880737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07551288604736</t>
   </si>
   <si>
     <t xml:space="preserve">7.99711036682129</t>
@@ -2555,7 +2555,7 @@
     <t xml:space="preserve">8.33032321929932</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13431549072266</t>
+    <t xml:space="preserve">8.13431644439697</t>
   </si>
   <si>
     <t xml:space="preserve">8.50673007965088</t>
@@ -2567,22 +2567,22 @@
     <t xml:space="preserve">8.4283275604248</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40872573852539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59493350982666</t>
+    <t xml:space="preserve">8.40872669219971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59493446350098</t>
   </si>
   <si>
     <t xml:space="preserve">8.81054210662842</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73213863372803</t>
+    <t xml:space="preserve">8.73213768005371</t>
   </si>
   <si>
     <t xml:space="preserve">8.74193859100342</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87914562225342</t>
+    <t xml:space="preserve">8.8791446685791</t>
   </si>
   <si>
     <t xml:space="preserve">9.08495330810547</t>
@@ -2594,13 +2594,13 @@
     <t xml:space="preserve">9.17315578460693</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10455226898193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82034206390381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86934471130371</t>
+    <t xml:space="preserve">9.10455322265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82034301757812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86934375762939</t>
   </si>
   <si>
     <t xml:space="preserve">8.63413524627686</t>
@@ -2609,13 +2609,13 @@
     <t xml:space="preserve">8.61453437805176</t>
   </si>
   <si>
-    <t xml:space="preserve">8.467529296875</t>
+    <t xml:space="preserve">8.46752834320068</t>
   </si>
   <si>
     <t xml:space="preserve">8.57533264160156</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30092144012451</t>
+    <t xml:space="preserve">8.30092239379883</t>
   </si>
   <si>
     <t xml:space="preserve">8.3597240447998</t>
@@ -2624,10 +2624,10 @@
     <t xml:space="preserve">8.3793249130249</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49692916870117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52632999420166</t>
+    <t xml:space="preserve">8.49693012237549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52633094787598</t>
   </si>
   <si>
     <t xml:space="preserve">8.51653003692627</t>
@@ -2642,7 +2642,7 @@
     <t xml:space="preserve">8.29112148284912</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23231887817383</t>
+    <t xml:space="preserve">8.23231983184814</t>
   </si>
   <si>
     <t xml:space="preserve">8.20291805267334</t>
@@ -2651,19 +2651,19 @@
     <t xml:space="preserve">8.26172065734863</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3107213973999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28132152557373</t>
+    <t xml:space="preserve">8.31072235107422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28132057189941</t>
   </si>
   <si>
     <t xml:space="preserve">8.38912582397461</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70273685455322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64393520355225</t>
+    <t xml:space="preserve">8.70273780822754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64393424987793</t>
   </si>
   <si>
     <t xml:space="preserve">8.67333698272705</t>
@@ -2675,16 +2675,16 @@
     <t xml:space="preserve">8.56553173065186</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66353702545166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89874458312988</t>
+    <t xml:space="preserve">8.66353607177734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8987455368042</t>
   </si>
   <si>
     <t xml:space="preserve">8.77134037017822</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90854549407959</t>
+    <t xml:space="preserve">8.90854644775391</t>
   </si>
   <si>
     <t xml:space="preserve">9.07515239715576</t>
@@ -2693,19 +2693,19 @@
     <t xml:space="preserve">9.99638748168945</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81998157501221</t>
+    <t xml:space="preserve">9.81998062133789</t>
   </si>
   <si>
     <t xml:space="preserve">9.95718574523926</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3884029388428</t>
+    <t xml:space="preserve">10.3884038925171</t>
   </si>
   <si>
     <t xml:space="preserve">10.427604675293</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4472055435181</t>
+    <t xml:space="preserve">10.4472045898438</t>
   </si>
   <si>
     <t xml:space="preserve">9.83958148956299</t>
@@ -2750,10 +2750,10 @@
     <t xml:space="preserve">9.18295574188232</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3103609085083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99674892425537</t>
+    <t xml:space="preserve">9.31036186218262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99674987792969</t>
   </si>
   <si>
     <t xml:space="preserve">9.19275665283203</t>
@@ -2762,19 +2762,19 @@
     <t xml:space="preserve">9.26135921478271</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42796611785889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69257545471191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64357471466064</t>
+    <t xml:space="preserve">9.42796516418457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69257640838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64357376098633</t>
   </si>
   <si>
     <t xml:space="preserve">9.60437297821045</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89838409423828</t>
+    <t xml:space="preserve">9.8983850479126</t>
   </si>
   <si>
     <t xml:space="preserve">9.93758583068848</t>
@@ -2786,7 +2786,7 @@
     <t xml:space="preserve">9.7415771484375</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68277645111084</t>
+    <t xml:space="preserve">9.68277549743652</t>
   </si>
   <si>
     <t xml:space="preserve">9.66317462921143</t>
@@ -2801,19 +2801,19 @@
     <t xml:space="preserve">9.25155830383301</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24175930023193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28096103668213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30055999755859</t>
+    <t xml:space="preserve">9.24175834655762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28096008300781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30056095123291</t>
   </si>
   <si>
     <t xml:space="preserve">9.27116012573242</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06535243988037</t>
+    <t xml:space="preserve">9.06535148620605</t>
   </si>
   <si>
     <t xml:space="preserve">9.04575061798096</t>
@@ -2828,16 +2828,16 @@
     <t xml:space="preserve">8.44792747497559</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83014297485352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47732925415039</t>
+    <t xml:space="preserve">8.8301420211792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47732830047607</t>
   </si>
   <si>
     <t xml:space="preserve">8.34012317657471</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4381275177002</t>
+    <t xml:space="preserve">8.43812656402588</t>
   </si>
   <si>
     <t xml:space="preserve">8.78114032745361</t>
@@ -2867,7 +2867,7 @@
     <t xml:space="preserve">9.09475231170654</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49656772613525</t>
+    <t xml:space="preserve">9.49656867980957</t>
   </si>
   <si>
     <t xml:space="preserve">9.56517124176025</t>
@@ -2879,10 +2879,10 @@
     <t xml:space="preserve">9.73177719116211</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0551910400391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58477115631104</t>
+    <t xml:space="preserve">10.0551900863647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58477210998535</t>
   </si>
   <si>
     <t xml:space="preserve">9.54556941986084</t>
@@ -2897,7 +2897,7 @@
     <t xml:space="preserve">9.62397289276123</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51616859436035</t>
+    <t xml:space="preserve">9.51616954803467</t>
   </si>
   <si>
     <t xml:space="preserve">9.37896347045898</t>
@@ -2906,7 +2906,7 @@
     <t xml:space="preserve">9.3495626449585</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80037975311279</t>
+    <t xml:space="preserve">9.80038070678711</t>
   </si>
   <si>
     <t xml:space="preserve">10.1923952102661</t>
@@ -2915,7 +2915,7 @@
     <t xml:space="preserve">10.0747909545898</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2315969467163</t>
+    <t xml:space="preserve">10.231595993042</t>
   </si>
   <si>
     <t xml:space="preserve">10.1531934738159</t>
@@ -2924,7 +2924,7 @@
     <t xml:space="preserve">10.2511978149414</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0943908691406</t>
+    <t xml:space="preserve">10.0943918228149</t>
   </si>
   <si>
     <t xml:space="preserve">10.1139917373657</t>
@@ -2942,25 +2942,25 @@
     <t xml:space="preserve">9.2907600402832</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39856433868408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32016181945801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46716785430908</t>
+    <t xml:space="preserve">9.3985652923584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32016086578369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46716690063477</t>
   </si>
   <si>
     <t xml:space="preserve">9.55537033081055</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7023754119873</t>
+    <t xml:space="preserve">9.70237636566162</t>
   </si>
   <si>
     <t xml:space="preserve">9.91798400878906</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4080038070679</t>
+    <t xml:space="preserve">10.4080028533936</t>
   </si>
   <si>
     <t xml:space="preserve">10.8784227371216</t>
@@ -2969,7 +2969,7 @@
     <t xml:space="preserve">11.2704372406006</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3488397598267</t>
+    <t xml:space="preserve">11.348840713501</t>
   </si>
   <si>
     <t xml:space="preserve">11.6624526977539</t>
@@ -2987,7 +2987,7 @@
     <t xml:space="preserve">11.5056457519531</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5252466201782</t>
+    <t xml:space="preserve">11.5252475738525</t>
   </si>
   <si>
     <t xml:space="preserve">11.4860458374023</t>
@@ -3002,16 +3002,16 @@
     <t xml:space="preserve">11.7016534805298</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5644483566284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4468450546265</t>
+    <t xml:space="preserve">11.5644493103027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4468441009521</t>
   </si>
   <si>
     <t xml:space="preserve">11.7212543487549</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1524705886841</t>
+    <t xml:space="preserve">12.1524715423584</t>
   </si>
   <si>
     <t xml:space="preserve">12.407280921936</t>
@@ -3020,7 +3020,7 @@
     <t xml:space="preserve">12.662091255188</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5640869140625</t>
+    <t xml:space="preserve">12.5640878677368</t>
   </si>
   <si>
     <t xml:space="preserve">12.270076751709</t>
@@ -3029,13 +3029,13 @@
     <t xml:space="preserve">12.4464826583862</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7800569534302</t>
+    <t xml:space="preserve">11.7800579071045</t>
   </si>
   <si>
     <t xml:space="preserve">11.3096380233765</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9764251708984</t>
+    <t xml:space="preserve">10.9764261245728</t>
   </si>
   <si>
     <t xml:space="preserve">10.9176235198975</t>
@@ -3047,19 +3047,19 @@
     <t xml:space="preserve">10.7804183959961</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0940294265747</t>
+    <t xml:space="preserve">11.094030380249</t>
   </si>
   <si>
     <t xml:space="preserve">10.9568252563477</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8196201324463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.035228729248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2707986831665</t>
+    <t xml:space="preserve">10.819619178772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0352277755737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2707977294922</t>
   </si>
   <si>
     <t xml:space="preserve">10.6824140548706</t>
@@ -3074,16 +3074,16 @@
     <t xml:space="preserve">11.0156269073486</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9372234344482</t>
+    <t xml:space="preserve">10.9372243881226</t>
   </si>
   <si>
     <t xml:space="preserve">10.7020149230957</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9960269927979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2900381088257</t>
+    <t xml:space="preserve">10.9960260391235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2900390625</t>
   </si>
   <si>
     <t xml:space="preserve">11.6036500930786</t>
@@ -3101,10 +3101,10 @@
     <t xml:space="preserve">11.9368629455566</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9760646820068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2112741470337</t>
+    <t xml:space="preserve">11.9760656356812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2112731933594</t>
   </si>
   <si>
     <t xml:space="preserve">12.1916723251343</t>
@@ -3113,31 +3113,31 @@
     <t xml:space="preserve">12.6228895187378</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7404937744141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9169006347656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9757032394409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6816921234131</t>
+    <t xml:space="preserve">12.7404947280884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9169015884399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9757022857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6816911697388</t>
   </si>
   <si>
     <t xml:space="preserve">12.720892906189</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7992973327637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9561023712158</t>
+    <t xml:space="preserve">12.7992963790894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9561033248901</t>
   </si>
   <si>
     <t xml:space="preserve">12.6032886505127</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4856843948364</t>
+    <t xml:space="preserve">12.4856834411621</t>
   </si>
   <si>
     <t xml:space="preserve">12.5248851776123</t>
@@ -3146,7 +3146,7 @@
     <t xml:space="preserve">12.3484792709351</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3680791854858</t>
+    <t xml:space="preserve">12.3680801391602</t>
   </si>
   <si>
     <t xml:space="preserve">12.2308740615845</t>
@@ -3161,19 +3161,19 @@
     <t xml:space="preserve">12.6424903869629</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5836887359619</t>
+    <t xml:space="preserve">12.5836877822876</t>
   </si>
   <si>
     <t xml:space="preserve">12.1720724105835</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8777008056641</t>
+    <t xml:space="preserve">12.8776998519897</t>
   </si>
   <si>
     <t xml:space="preserve">12.3092775344849</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2697153091431</t>
+    <t xml:space="preserve">13.2697143554688</t>
   </si>
   <si>
     <t xml:space="preserve">13.0541067123413</t>
@@ -3182,7 +3182,7 @@
     <t xml:space="preserve">12.9365015029907</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1521100997925</t>
+    <t xml:space="preserve">13.1521110534668</t>
   </si>
   <si>
     <t xml:space="preserve">13.0345058441162</t>
@@ -3194,10 +3194,10 @@
     <t xml:space="preserve">13.1717100143433</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5441246032715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5637264251709</t>
+    <t xml:space="preserve">13.5441255569458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5637254714966</t>
   </si>
   <si>
     <t xml:space="preserve">14.1517486572266</t>
@@ -3212,13 +3212,13 @@
     <t xml:space="preserve">14.0341444015503</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0733461380005</t>
+    <t xml:space="preserve">14.0733451843262</t>
   </si>
   <si>
     <t xml:space="preserve">14.4065589904785</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7201709747314</t>
+    <t xml:space="preserve">14.7201719284058</t>
   </si>
   <si>
     <t xml:space="preserve">14.8573760986328</t>
@@ -3227,7 +3227,7 @@
     <t xml:space="preserve">15.2885932922363</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0533838272095</t>
+    <t xml:space="preserve">15.0533828735352</t>
   </si>
   <si>
     <t xml:space="preserve">15.0337839126587</t>
@@ -3251,16 +3251,16 @@
     <t xml:space="preserve">17.3466739654541</t>
   </si>
   <si>
-    <t xml:space="preserve">17.660285949707</t>
+    <t xml:space="preserve">17.6602840423584</t>
   </si>
   <si>
     <t xml:space="preserve">17.5426807403564</t>
   </si>
   <si>
-    <t xml:space="preserve">17.915096282959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7386894226074</t>
+    <t xml:space="preserve">17.9150943756104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7386875152588</t>
   </si>
   <si>
     <t xml:space="preserve">17.8954944610596</t>
@@ -3287,13 +3287,13 @@
     <t xml:space="preserve">18.7383270263672</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1695423126221</t>
+    <t xml:space="preserve">19.1695442199707</t>
   </si>
   <si>
     <t xml:space="preserve">18.1699066162109</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1307048797607</t>
+    <t xml:space="preserve">18.1307029724121</t>
   </si>
   <si>
     <t xml:space="preserve">18.6795234680176</t>
@@ -3311,7 +3311,7 @@
     <t xml:space="preserve">19.9927749633789</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8947696685791</t>
+    <t xml:space="preserve">19.8947715759277</t>
   </si>
   <si>
     <t xml:space="preserve">19.6497611999512</t>
@@ -3326,16 +3326,16 @@
     <t xml:space="preserve">18.8363304138184</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0323371887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3067512512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9343357086182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.640323638916</t>
+    <t xml:space="preserve">19.0323390960693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3067493438721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9343338012695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6403217315674</t>
   </si>
   <si>
     <t xml:space="preserve">19.0127372741699</t>
@@ -3347,7 +3347,7 @@
     <t xml:space="preserve">19.1107406616211</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9931354522705</t>
+    <t xml:space="preserve">18.9931373596191</t>
   </si>
   <si>
     <t xml:space="preserve">18.7187271118164</t>
@@ -3356,19 +3356,19 @@
     <t xml:space="preserve">18.7775287628174</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6011199951172</t>
+    <t xml:space="preserve">18.6011219024658</t>
   </si>
   <si>
     <t xml:space="preserve">18.444314956665</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3851509094238</t>
+    <t xml:space="preserve">19.3851528167725</t>
   </si>
   <si>
     <t xml:space="preserve">19.1891441345215</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2871494293213</t>
+    <t xml:space="preserve">19.2871475219727</t>
   </si>
   <si>
     <t xml:space="preserve">19.0519390106201</t>
@@ -3377,7 +3377,7 @@
     <t xml:space="preserve">19.1303424835205</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8559322357178</t>
+    <t xml:space="preserve">18.8559303283691</t>
   </si>
   <si>
     <t xml:space="preserve">19.0735759735107</t>
@@ -7327,7 +7327,7 @@
         <v>7.34999990463257</v>
       </c>
       <c r="G119" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="H119" t="s">
         <v>9</v>
@@ -7353,7 +7353,7 @@
         <v>7.29500007629395</v>
       </c>
       <c r="G120" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H120" t="s">
         <v>9</v>
@@ -7379,7 +7379,7 @@
         <v>7.17999982833862</v>
       </c>
       <c r="G121" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H121" t="s">
         <v>9</v>
@@ -7405,7 +7405,7 @@
         <v>7.19999980926514</v>
       </c>
       <c r="G122" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H122" t="s">
         <v>9</v>
@@ -7457,7 +7457,7 @@
         <v>7.07000017166138</v>
       </c>
       <c r="G124" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H124" t="s">
         <v>9</v>
@@ -7483,7 +7483,7 @@
         <v>6.98999977111816</v>
       </c>
       <c r="G125" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H125" t="s">
         <v>9</v>
@@ -7509,7 +7509,7 @@
         <v>7.07999992370605</v>
       </c>
       <c r="G126" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H126" t="s">
         <v>9</v>
@@ -7535,7 +7535,7 @@
         <v>7.1399998664856</v>
       </c>
       <c r="G127" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H127" t="s">
         <v>9</v>
@@ -7561,7 +7561,7 @@
         <v>7.08500003814697</v>
       </c>
       <c r="G128" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H128" t="s">
         <v>9</v>
@@ -7587,7 +7587,7 @@
         <v>7.39499998092651</v>
       </c>
       <c r="G129" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H129" t="s">
         <v>9</v>
@@ -7691,7 +7691,7 @@
         <v>7.2649998664856</v>
       </c>
       <c r="G133" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H133" t="s">
         <v>9</v>
@@ -7717,7 +7717,7 @@
         <v>7.36999988555908</v>
       </c>
       <c r="G134" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H134" t="s">
         <v>9</v>
@@ -7769,7 +7769,7 @@
         <v>7.57000017166138</v>
       </c>
       <c r="G136" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H136" t="s">
         <v>9</v>
@@ -7821,7 +7821,7 @@
         <v>7.43499994277954</v>
       </c>
       <c r="G138" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H138" t="s">
         <v>9</v>
@@ -7847,7 +7847,7 @@
         <v>7.28499984741211</v>
       </c>
       <c r="G139" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H139" t="s">
         <v>9</v>
@@ -7873,7 +7873,7 @@
         <v>7.36499977111816</v>
       </c>
       <c r="G140" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H140" t="s">
         <v>9</v>
@@ -7925,7 +7925,7 @@
         <v>7.46000003814697</v>
       </c>
       <c r="G142" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H142" t="s">
         <v>9</v>
@@ -7977,7 +7977,7 @@
         <v>7.55000019073486</v>
       </c>
       <c r="G144" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H144" t="s">
         <v>9</v>
@@ -8003,7 +8003,7 @@
         <v>7.39499998092651</v>
       </c>
       <c r="G145" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H145" t="s">
         <v>9</v>
@@ -8029,7 +8029,7 @@
         <v>7.55000019073486</v>
       </c>
       <c r="G146" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H146" t="s">
         <v>9</v>
@@ -8081,7 +8081,7 @@
         <v>7.40500020980835</v>
       </c>
       <c r="G148" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H148" t="s">
         <v>9</v>
@@ -8107,7 +8107,7 @@
         <v>7.42999982833862</v>
       </c>
       <c r="G149" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H149" t="s">
         <v>9</v>
@@ -8133,7 +8133,7 @@
         <v>7.42999982833862</v>
       </c>
       <c r="G150" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H150" t="s">
         <v>9</v>
@@ -8185,7 +8185,7 @@
         <v>7.42000007629395</v>
       </c>
       <c r="G152" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H152" t="s">
         <v>9</v>
@@ -8237,7 +8237,7 @@
         <v>7.34000015258789</v>
       </c>
       <c r="G154" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H154" t="s">
         <v>9</v>
@@ -8315,7 +8315,7 @@
         <v>7.42500019073486</v>
       </c>
       <c r="G157" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H157" t="s">
         <v>9</v>
@@ -8341,7 +8341,7 @@
         <v>7.32999992370605</v>
       </c>
       <c r="G158" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H158" t="s">
         <v>9</v>
@@ -8367,7 +8367,7 @@
         <v>7.30999994277954</v>
       </c>
       <c r="G159" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H159" t="s">
         <v>9</v>
@@ -8393,7 +8393,7 @@
         <v>7.32999992370605</v>
       </c>
       <c r="G160" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H160" t="s">
         <v>9</v>
@@ -8419,7 +8419,7 @@
         <v>7.34999990463257</v>
       </c>
       <c r="G161" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="H161" t="s">
         <v>9</v>
@@ -8471,7 +8471,7 @@
         <v>7.21000003814697</v>
       </c>
       <c r="G163" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H163" t="s">
         <v>9</v>
@@ -8497,7 +8497,7 @@
         <v>7.07999992370605</v>
       </c>
       <c r="G164" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H164" t="s">
         <v>9</v>
@@ -8523,7 +8523,7 @@
         <v>7.30999994277954</v>
       </c>
       <c r="G165" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H165" t="s">
         <v>9</v>
@@ -8549,7 +8549,7 @@
         <v>7.375</v>
       </c>
       <c r="G166" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H166" t="s">
         <v>9</v>
@@ -8601,7 +8601,7 @@
         <v>7.34000015258789</v>
       </c>
       <c r="G168" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H168" t="s">
         <v>9</v>
@@ -8653,7 +8653,7 @@
         <v>7.23000001907349</v>
       </c>
       <c r="G170" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H170" t="s">
         <v>9</v>
@@ -8679,7 +8679,7 @@
         <v>7.15500020980835</v>
       </c>
       <c r="G171" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H171" t="s">
         <v>9</v>
@@ -8705,7 +8705,7 @@
         <v>7.19000005722046</v>
       </c>
       <c r="G172" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H172" t="s">
         <v>9</v>
@@ -8731,7 +8731,7 @@
         <v>7.28999996185303</v>
       </c>
       <c r="G173" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H173" t="s">
         <v>9</v>
@@ -8757,7 +8757,7 @@
         <v>7.19000005722046</v>
       </c>
       <c r="G174" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H174" t="s">
         <v>9</v>
@@ -8783,7 +8783,7 @@
         <v>7.19500017166138</v>
       </c>
       <c r="G175" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H175" t="s">
         <v>9</v>
@@ -8809,7 +8809,7 @@
         <v>7.25</v>
       </c>
       <c r="G176" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H176" t="s">
         <v>9</v>
@@ -8835,7 +8835,7 @@
         <v>7.19500017166138</v>
       </c>
       <c r="G177" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H177" t="s">
         <v>9</v>
@@ -8861,7 +8861,7 @@
         <v>7.2649998664856</v>
       </c>
       <c r="G178" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H178" t="s">
         <v>9</v>
@@ -8887,7 +8887,7 @@
         <v>7.1100001335144</v>
       </c>
       <c r="G179" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H179" t="s">
         <v>9</v>
@@ -8913,7 +8913,7 @@
         <v>7.16499996185303</v>
       </c>
       <c r="G180" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H180" t="s">
         <v>9</v>
@@ -8965,7 +8965,7 @@
         <v>7.03499984741211</v>
       </c>
       <c r="G182" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H182" t="s">
         <v>9</v>
@@ -8991,7 +8991,7 @@
         <v>7.02500009536743</v>
       </c>
       <c r="G183" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H183" t="s">
         <v>9</v>
@@ -9017,7 +9017,7 @@
         <v>7.16499996185303</v>
       </c>
       <c r="G184" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
@@ -9043,7 +9043,7 @@
         <v>7.06500005722046</v>
       </c>
       <c r="G185" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H185" t="s">
         <v>9</v>
@@ -9069,7 +9069,7 @@
         <v>7.19000005722046</v>
       </c>
       <c r="G186" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H186" t="s">
         <v>9</v>
@@ -9095,7 +9095,7 @@
         <v>7.07499980926514</v>
       </c>
       <c r="G187" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H187" t="s">
         <v>9</v>
@@ -9121,7 +9121,7 @@
         <v>6.95499992370605</v>
       </c>
       <c r="G188" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H188" t="s">
         <v>9</v>
@@ -9147,7 +9147,7 @@
         <v>6.98999977111816</v>
       </c>
       <c r="G189" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H189" t="s">
         <v>9</v>
@@ -9173,7 +9173,7 @@
         <v>7.13000011444092</v>
       </c>
       <c r="G190" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H190" t="s">
         <v>9</v>
@@ -9199,7 +9199,7 @@
         <v>7.17000007629395</v>
       </c>
       <c r="G191" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H191" t="s">
         <v>9</v>
@@ -9225,7 +9225,7 @@
         <v>7.17999982833862</v>
       </c>
       <c r="G192" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H192" t="s">
         <v>9</v>
@@ -9251,7 +9251,7 @@
         <v>7.17000007629395</v>
       </c>
       <c r="G193" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -9277,7 +9277,7 @@
         <v>7.09999990463257</v>
       </c>
       <c r="G194" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H194" t="s">
         <v>9</v>
@@ -9303,7 +9303,7 @@
         <v>7.19999980926514</v>
       </c>
       <c r="G195" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H195" t="s">
         <v>9</v>
@@ -9329,7 +9329,7 @@
         <v>7.19500017166138</v>
       </c>
       <c r="G196" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H196" t="s">
         <v>9</v>
@@ -9355,7 +9355,7 @@
         <v>7.17999982833862</v>
       </c>
       <c r="G197" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H197" t="s">
         <v>9</v>
@@ -9381,7 +9381,7 @@
         <v>7.15000009536743</v>
       </c>
       <c r="G198" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H198" t="s">
         <v>9</v>
@@ -9433,7 +9433,7 @@
         <v>7.15500020980835</v>
       </c>
       <c r="G200" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H200" t="s">
         <v>9</v>
@@ -9459,7 +9459,7 @@
         <v>7.32000017166138</v>
       </c>
       <c r="G201" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -9537,7 +9537,7 @@
         <v>7.76000022888184</v>
       </c>
       <c r="G204" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H204" t="s">
         <v>9</v>
@@ -9563,7 +9563,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G205" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H205" t="s">
         <v>9</v>
@@ -9589,7 +9589,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G206" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H206" t="s">
         <v>9</v>
@@ -9615,7 +9615,7 @@
         <v>7.8899998664856</v>
       </c>
       <c r="G207" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H207" t="s">
         <v>9</v>
@@ -9641,7 +9641,7 @@
         <v>7.90999984741211</v>
       </c>
       <c r="G208" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -9667,7 +9667,7 @@
         <v>7.79500007629395</v>
       </c>
       <c r="G209" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -9693,7 +9693,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G210" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H210" t="s">
         <v>9</v>
@@ -9719,7 +9719,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G211" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H211" t="s">
         <v>9</v>
@@ -9745,7 +9745,7 @@
         <v>7.71000003814697</v>
       </c>
       <c r="G212" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -9771,7 +9771,7 @@
         <v>7.71000003814697</v>
       </c>
       <c r="G213" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H213" t="s">
         <v>9</v>
@@ -9797,7 +9797,7 @@
         <v>7.73000001907349</v>
       </c>
       <c r="G214" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H214" t="s">
         <v>9</v>
@@ -9823,7 +9823,7 @@
         <v>7.71000003814697</v>
       </c>
       <c r="G215" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -9849,7 +9849,7 @@
         <v>7.53000020980835</v>
       </c>
       <c r="G216" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -9875,7 +9875,7 @@
         <v>7.65500020980835</v>
       </c>
       <c r="G217" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -9901,7 +9901,7 @@
         <v>7.70499992370605</v>
       </c>
       <c r="G218" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -9927,7 +9927,7 @@
         <v>7.73999977111816</v>
       </c>
       <c r="G219" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -9953,7 +9953,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G220" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H220" t="s">
         <v>9</v>
@@ -9979,7 +9979,7 @@
         <v>7.8600001335144</v>
       </c>
       <c r="G221" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H221" t="s">
         <v>9</v>
@@ -10005,7 +10005,7 @@
         <v>7.65999984741211</v>
       </c>
       <c r="G222" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -10031,7 +10031,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G223" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H223" t="s">
         <v>9</v>
@@ -10057,7 +10057,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G224" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -10083,7 +10083,7 @@
         <v>7.69500017166138</v>
       </c>
       <c r="G225" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H225" t="s">
         <v>9</v>
@@ -10109,7 +10109,7 @@
         <v>7.61499977111816</v>
       </c>
       <c r="G226" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -10135,7 +10135,7 @@
         <v>7.71999979019165</v>
       </c>
       <c r="G227" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -10161,7 +10161,7 @@
         <v>7.61499977111816</v>
       </c>
       <c r="G228" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -10187,7 +10187,7 @@
         <v>7.46999979019165</v>
       </c>
       <c r="G229" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H229" t="s">
         <v>9</v>
@@ -10213,7 +10213,7 @@
         <v>7.32000017166138</v>
       </c>
       <c r="G230" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H230" t="s">
         <v>9</v>
@@ -10239,7 +10239,7 @@
         <v>7.21000003814697</v>
       </c>
       <c r="G231" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -10265,7 +10265,7 @@
         <v>7.21500015258789</v>
       </c>
       <c r="G232" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -10291,7 +10291,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G233" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -10317,7 +10317,7 @@
         <v>7.19000005722046</v>
       </c>
       <c r="G234" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -10343,7 +10343,7 @@
         <v>7.19000005722046</v>
       </c>
       <c r="G235" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -10369,7 +10369,7 @@
         <v>7.26999998092651</v>
       </c>
       <c r="G236" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -10395,7 +10395,7 @@
         <v>7.28000020980835</v>
       </c>
       <c r="G237" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -10421,7 +10421,7 @@
         <v>7.21500015258789</v>
       </c>
       <c r="G238" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -10473,7 +10473,7 @@
         <v>7.46999979019165</v>
       </c>
       <c r="G240" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
@@ -10551,7 +10551,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G243" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -10577,7 +10577,7 @@
         <v>7.6399998664856</v>
       </c>
       <c r="G244" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -10603,7 +10603,7 @@
         <v>7.69000005722046</v>
       </c>
       <c r="G245" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H245" t="s">
         <v>9</v>
@@ -10629,7 +10629,7 @@
         <v>7.59000015258789</v>
       </c>
       <c r="G246" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -10655,7 +10655,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G247" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H247" t="s">
         <v>9</v>
@@ -10681,7 +10681,7 @@
         <v>7.74499988555908</v>
       </c>
       <c r="G248" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -10759,7 +10759,7 @@
         <v>7.61499977111816</v>
       </c>
       <c r="G251" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H251" t="s">
         <v>9</v>
@@ -10785,7 +10785,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G252" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H252" t="s">
         <v>9</v>
@@ -10837,7 +10837,7 @@
         <v>7.53999996185303</v>
       </c>
       <c r="G254" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -10863,7 +10863,7 @@
         <v>7.45499992370605</v>
       </c>
       <c r="G255" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -10941,7 +10941,7 @@
         <v>8.09000015258789</v>
       </c>
       <c r="G258" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -10967,7 +10967,7 @@
         <v>8.06999969482422</v>
       </c>
       <c r="G259" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -10993,7 +10993,7 @@
         <v>8.02999973297119</v>
       </c>
       <c r="G260" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H260" t="s">
         <v>9</v>
@@ -11019,7 +11019,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G261" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -11045,7 +11045,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G262" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -11071,7 +11071,7 @@
         <v>8.5</v>
       </c>
       <c r="G263" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -11097,7 +11097,7 @@
         <v>8.69999980926514</v>
       </c>
       <c r="G264" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -11123,7 +11123,7 @@
         <v>8.67000007629395</v>
       </c>
       <c r="G265" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -11149,7 +11149,7 @@
         <v>8.49499988555908</v>
       </c>
       <c r="G266" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H266" t="s">
         <v>9</v>
@@ -11175,7 +11175,7 @@
         <v>8.47000026702881</v>
       </c>
       <c r="G267" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -11201,7 +11201,7 @@
         <v>8.55000019073486</v>
       </c>
       <c r="G268" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -11227,7 +11227,7 @@
         <v>8.47999954223633</v>
       </c>
       <c r="G269" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -11253,7 +11253,7 @@
         <v>8.52000045776367</v>
       </c>
       <c r="G270" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -11279,7 +11279,7 @@
         <v>8.52000045776367</v>
       </c>
       <c r="G271" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -11305,7 +11305,7 @@
         <v>8.5</v>
       </c>
       <c r="G272" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H272" t="s">
         <v>9</v>
@@ -11331,7 +11331,7 @@
         <v>8.4399995803833</v>
       </c>
       <c r="G273" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -11357,7 +11357,7 @@
         <v>8.70499992370605</v>
       </c>
       <c r="G274" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -11383,7 +11383,7 @@
         <v>9.18000030517578</v>
       </c>
       <c r="G275" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H275" t="s">
         <v>9</v>
@@ -11409,7 +11409,7 @@
         <v>9.22000026702881</v>
       </c>
       <c r="G276" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -11435,7 +11435,7 @@
         <v>9.17500019073486</v>
       </c>
       <c r="G277" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -11461,7 +11461,7 @@
         <v>8.5600004196167</v>
       </c>
       <c r="G278" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -11487,7 +11487,7 @@
         <v>8.81999969482422</v>
       </c>
       <c r="G279" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -11513,7 +11513,7 @@
         <v>8.98999977111816</v>
       </c>
       <c r="G280" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -11539,7 +11539,7 @@
         <v>9.02999973297119</v>
       </c>
       <c r="G281" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -11565,7 +11565,7 @@
         <v>9.04500007629395</v>
       </c>
       <c r="G282" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
@@ -11591,7 +11591,7 @@
         <v>8.97999954223633</v>
       </c>
       <c r="G283" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -11617,7 +11617,7 @@
         <v>8.78999996185303</v>
       </c>
       <c r="G284" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H284" t="s">
         <v>9</v>
@@ -11643,7 +11643,7 @@
         <v>8.65999984741211</v>
       </c>
       <c r="G285" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -11669,7 +11669,7 @@
         <v>8.57999992370605</v>
       </c>
       <c r="G286" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -11695,7 +11695,7 @@
         <v>8.38500022888184</v>
       </c>
       <c r="G287" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -11721,7 +11721,7 @@
         <v>8.53999996185303</v>
       </c>
       <c r="G288" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -11747,7 +11747,7 @@
         <v>8.52499961853027</v>
       </c>
       <c r="G289" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -11773,7 +11773,7 @@
         <v>8.50500011444092</v>
       </c>
       <c r="G290" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -11799,7 +11799,7 @@
         <v>8.5</v>
       </c>
       <c r="G291" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -11825,7 +11825,7 @@
         <v>8.46000003814697</v>
       </c>
       <c r="G292" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -11851,7 +11851,7 @@
         <v>8.25500011444092</v>
       </c>
       <c r="G293" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -11877,7 +11877,7 @@
         <v>8.39999961853027</v>
       </c>
       <c r="G294" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -11903,7 +11903,7 @@
         <v>8.47999954223633</v>
       </c>
       <c r="G295" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H295" t="s">
         <v>9</v>
@@ -11929,7 +11929,7 @@
         <v>8.47500038146973</v>
       </c>
       <c r="G296" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -11955,7 +11955,7 @@
         <v>8.31999969482422</v>
       </c>
       <c r="G297" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -11981,7 +11981,7 @@
         <v>8.35000038146973</v>
       </c>
       <c r="G298" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -12007,7 +12007,7 @@
         <v>8.40499973297119</v>
       </c>
       <c r="G299" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -12033,7 +12033,7 @@
         <v>8.5600004196167</v>
       </c>
       <c r="G300" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -12059,7 +12059,7 @@
         <v>8.70499992370605</v>
       </c>
       <c r="G301" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -12085,7 +12085,7 @@
         <v>8.72999954223633</v>
       </c>
       <c r="G302" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -12111,7 +12111,7 @@
         <v>8.77999973297119</v>
       </c>
       <c r="G303" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -12137,7 +12137,7 @@
         <v>9.10999965667725</v>
       </c>
       <c r="G304" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -12163,7 +12163,7 @@
         <v>9.06999969482422</v>
       </c>
       <c r="G305" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -12189,7 +12189,7 @@
         <v>9.22999954223633</v>
       </c>
       <c r="G306" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -12215,7 +12215,7 @@
         <v>9.28999996185303</v>
       </c>
       <c r="G307" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -12241,7 +12241,7 @@
         <v>9.25</v>
       </c>
       <c r="G308" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -12267,7 +12267,7 @@
         <v>9.22000026702881</v>
       </c>
       <c r="G309" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -12293,7 +12293,7 @@
         <v>9.54500007629395</v>
       </c>
       <c r="G310" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -12319,7 +12319,7 @@
         <v>9.67000007629395</v>
       </c>
       <c r="G311" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -12345,7 +12345,7 @@
         <v>9.69999980926514</v>
       </c>
       <c r="G312" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -12371,7 +12371,7 @@
         <v>9.75</v>
       </c>
       <c r="G313" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -12397,7 +12397,7 @@
         <v>9.48499965667725</v>
       </c>
       <c r="G314" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -12423,7 +12423,7 @@
         <v>9.69999980926514</v>
       </c>
       <c r="G315" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -12449,7 +12449,7 @@
         <v>9.97500038146973</v>
       </c>
       <c r="G316" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -12475,7 +12475,7 @@
         <v>9.89500045776367</v>
       </c>
       <c r="G317" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -12501,7 +12501,7 @@
         <v>9.97000026702881</v>
       </c>
       <c r="G318" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -12527,7 +12527,7 @@
         <v>10.25</v>
       </c>
       <c r="G319" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -12553,7 +12553,7 @@
         <v>10.2600002288818</v>
       </c>
       <c r="G320" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -12579,7 +12579,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G321" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -12605,7 +12605,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G322" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -12631,7 +12631,7 @@
         <v>10.1400003433228</v>
       </c>
       <c r="G323" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -12657,7 +12657,7 @@
         <v>10.1899995803833</v>
       </c>
       <c r="G324" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -12683,7 +12683,7 @@
         <v>10.4200000762939</v>
       </c>
       <c r="G325" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -12709,7 +12709,7 @@
         <v>10.4300003051758</v>
       </c>
       <c r="G326" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -12735,7 +12735,7 @@
         <v>10.3800001144409</v>
       </c>
       <c r="G327" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -12761,7 +12761,7 @@
         <v>10.3000001907349</v>
       </c>
       <c r="G328" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -12787,7 +12787,7 @@
         <v>10.0600004196167</v>
       </c>
       <c r="G329" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -12813,7 +12813,7 @@
         <v>9.97500038146973</v>
       </c>
       <c r="G330" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -12839,7 +12839,7 @@
         <v>9.71000003814697</v>
       </c>
       <c r="G331" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -12865,7 +12865,7 @@
         <v>9.38000011444092</v>
       </c>
       <c r="G332" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -12891,7 +12891,7 @@
         <v>9.61499977111816</v>
       </c>
       <c r="G333" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -12917,7 +12917,7 @@
         <v>9.75</v>
       </c>
       <c r="G334" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -12943,7 +12943,7 @@
         <v>9.875</v>
       </c>
       <c r="G335" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -12969,7 +12969,7 @@
         <v>10.1899995803833</v>
       </c>
       <c r="G336" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -12995,7 +12995,7 @@
         <v>10.2799997329712</v>
       </c>
       <c r="G337" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -13021,7 +13021,7 @@
         <v>10.3900003433228</v>
       </c>
       <c r="G338" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -13047,7 +13047,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G339" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -13073,7 +13073,7 @@
         <v>10.6999998092651</v>
       </c>
       <c r="G340" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -13099,7 +13099,7 @@
         <v>11.3199996948242</v>
       </c>
       <c r="G341" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -13125,7 +13125,7 @@
         <v>11.4099998474121</v>
       </c>
       <c r="G342" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -13151,7 +13151,7 @@
         <v>12.1800003051758</v>
       </c>
       <c r="G343" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -13177,7 +13177,7 @@
         <v>12.2700004577637</v>
       </c>
       <c r="G344" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -13203,7 +13203,7 @@
         <v>12.6700000762939</v>
       </c>
       <c r="G345" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -13229,7 +13229,7 @@
         <v>12.9099998474121</v>
       </c>
       <c r="G346" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -13255,7 +13255,7 @@
         <v>12.9899997711182</v>
       </c>
       <c r="G347" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -13281,7 +13281,7 @@
         <v>12.4300003051758</v>
       </c>
       <c r="G348" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -13307,7 +13307,7 @@
         <v>12.5</v>
       </c>
       <c r="G349" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -13333,7 +13333,7 @@
         <v>12.4700002670288</v>
       </c>
       <c r="G350" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -13359,7 +13359,7 @@
         <v>12.3299999237061</v>
       </c>
       <c r="G351" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -13385,7 +13385,7 @@
         <v>11.6400003433228</v>
       </c>
       <c r="G352" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -13411,7 +13411,7 @@
         <v>11.8599996566772</v>
       </c>
       <c r="G353" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -13437,7 +13437,7 @@
         <v>11.9300003051758</v>
       </c>
       <c r="G354" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -13463,7 +13463,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G355" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -13489,7 +13489,7 @@
         <v>11.9899997711182</v>
       </c>
       <c r="G356" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -13515,7 +13515,7 @@
         <v>12</v>
       </c>
       <c r="G357" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -13541,7 +13541,7 @@
         <v>11.9899997711182</v>
       </c>
       <c r="G358" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -13567,7 +13567,7 @@
         <v>11.9899997711182</v>
       </c>
       <c r="G359" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -13593,7 +13593,7 @@
         <v>11.8800001144409</v>
       </c>
       <c r="G360" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -13619,7 +13619,7 @@
         <v>12.2399997711182</v>
       </c>
       <c r="G361" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -13645,7 +13645,7 @@
         <v>12.6199998855591</v>
       </c>
       <c r="G362" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -13671,7 +13671,7 @@
         <v>12.5699996948242</v>
       </c>
       <c r="G363" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -13697,7 +13697,7 @@
         <v>12.5100002288818</v>
       </c>
       <c r="G364" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -13723,7 +13723,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G365" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -13749,7 +13749,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G366" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -13931,7 +13931,7 @@
         <v>11.9300003051758</v>
       </c>
       <c r="G373" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -14009,7 +14009,7 @@
         <v>11.9300003051758</v>
       </c>
       <c r="G376" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -14685,7 +14685,7 @@
         <v>11.9899997711182</v>
       </c>
       <c r="G402" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -14841,7 +14841,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G408" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -14867,7 +14867,7 @@
         <v>11.8800001144409</v>
       </c>
       <c r="G409" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -15101,7 +15101,7 @@
         <v>11.8800001144409</v>
       </c>
       <c r="G418" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -15907,7 +15907,7 @@
         <v>11.8800001144409</v>
       </c>
       <c r="G449" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -60401,7 +60401,7 @@
     </row>
     <row r="2161">
       <c r="A2161" s="1" t="n">
-        <v>45470.6496412037</v>
+        <v>45470.2916666667</v>
       </c>
       <c r="B2161" t="n">
         <v>11275</v>
@@ -60422,6 +60422,32 @@
         <v>1295</v>
       </c>
       <c r="H2161" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2162">
+      <c r="A2162" s="1" t="n">
+        <v>45471.6493865741</v>
+      </c>
+      <c r="B2162" t="n">
+        <v>8352</v>
+      </c>
+      <c r="C2162" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="D2162" t="n">
+        <v>24.1499996185303</v>
+      </c>
+      <c r="E2162" t="n">
+        <v>24.1499996185303</v>
+      </c>
+      <c r="F2162" t="n">
+        <v>24.25</v>
+      </c>
+      <c r="G2162" t="s">
+        <v>1275</v>
+      </c>
+      <c r="H2162" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TXT.MI.xlsx
+++ b/data/TXT.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="1295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="1296">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,19 +44,19 @@
     <t xml:space="preserve">TXT.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43539476394653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44345903396606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27410650253296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31442832946777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13701152801514</t>
+    <t xml:space="preserve">6.43539428710938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44345855712891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27410697937012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31442880630493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13701200485229</t>
   </si>
   <si>
     <t xml:space="preserve">6.16926956176758</t>
@@ -68,19 +68,19 @@
     <t xml:space="preserve">5.96765899658203</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89507913589478</t>
+    <t xml:space="preserve">5.89507961273193</t>
   </si>
   <si>
     <t xml:space="preserve">5.80637121200562</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98782062530518</t>
+    <t xml:space="preserve">5.98781967163086</t>
   </si>
   <si>
     <t xml:space="preserve">5.79024219512939</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76201725006104</t>
+    <t xml:space="preserve">5.76201581954956</t>
   </si>
   <si>
     <t xml:space="preserve">5.76604890823364</t>
@@ -92,7 +92,7 @@
     <t xml:space="preserve">6.04023885726929</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92733669281006</t>
+    <t xml:space="preserve">5.92733716964722</t>
   </si>
   <si>
     <t xml:space="preserve">5.95959424972534</t>
@@ -101,7 +101,7 @@
     <t xml:space="preserve">5.98378801345825</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04830312728882</t>
+    <t xml:space="preserve">6.04830265045166</t>
   </si>
   <si>
     <t xml:space="preserve">5.89104700088501</t>
@@ -110,10 +110,10 @@
     <t xml:space="preserve">5.81846761703491</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21765565872192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19346189498901</t>
+    <t xml:space="preserve">6.21765518188477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19346237182617</t>
   </si>
   <si>
     <t xml:space="preserve">6.24991321563721</t>
@@ -122,34 +122,34 @@
     <t xml:space="preserve">6.33862161636353</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26604223251343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24184799194336</t>
+    <t xml:space="preserve">6.26604175567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24184846878052</t>
   </si>
   <si>
     <t xml:space="preserve">6.25394582748413</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4515233039856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50394153594971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45958757400513</t>
+    <t xml:space="preserve">6.45152378082275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50394201278687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45958805084229</t>
   </si>
   <si>
     <t xml:space="preserve">6.53216695785522</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54829597473145</t>
+    <t xml:space="preserve">6.5482964515686</t>
   </si>
   <si>
     <t xml:space="preserve">6.54023170471191</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28217077255249</t>
+    <t xml:space="preserve">6.28217124938965</t>
   </si>
   <si>
     <t xml:space="preserve">6.12088298797607</t>
@@ -158,7 +158,7 @@
     <t xml:space="preserve">6.29829978942871</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23781681060791</t>
+    <t xml:space="preserve">6.23781728744507</t>
   </si>
   <si>
     <t xml:space="preserve">6.18539810180664</t>
@@ -170,55 +170,55 @@
     <t xml:space="preserve">6.1531400680542</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15717267990112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0321741104126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06039953231812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99185180664062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17733335494995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09668970108032</t>
+    <t xml:space="preserve">6.15717315673828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03217458724976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06040000915527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99185132980347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17733383178711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09668922424316</t>
   </si>
   <si>
     <t xml:space="preserve">6.20152711868286</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1410436630249</t>
+    <t xml:space="preserve">6.14104413986206</t>
   </si>
   <si>
     <t xml:space="preserve">6.22571992874146</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16523694992065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2579779624939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07652807235718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14507532119751</t>
+    <t xml:space="preserve">6.1652364730835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25797843933105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07652759552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14507627487183</t>
   </si>
   <si>
     <t xml:space="preserve">6.05636787414551</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99991655349731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97975587844849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16120481491089</t>
+    <t xml:space="preserve">5.99991750717163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97975492477417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16120433807373</t>
   </si>
   <si>
     <t xml:space="preserve">6.11685085296631</t>
@@ -230,43 +230,43 @@
     <t xml:space="preserve">6.23734998703003</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27070474624634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11643934249878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20399522781372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25402784347534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13728523254395</t>
+    <t xml:space="preserve">6.2707052230835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11643886566162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20399570465088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25402736663818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1372857093811</t>
   </si>
   <si>
     <t xml:space="preserve">6.21233415603638</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23318147659302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24568891525269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16230154037476</t>
+    <t xml:space="preserve">6.23318099975586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24568843841553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16230201721191</t>
   </si>
   <si>
     <t xml:space="preserve">6.33324527740479</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24151945114136</t>
+    <t xml:space="preserve">6.24151992797852</t>
   </si>
   <si>
     <t xml:space="preserve">6.17064046859741</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1831488609314</t>
+    <t xml:space="preserve">6.18314838409424</t>
   </si>
   <si>
     <t xml:space="preserve">6.15396356582642</t>
@@ -281,31 +281,31 @@
     <t xml:space="preserve">5.94966506958008</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85377025604248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03722190856934</t>
+    <t xml:space="preserve">5.85376977920532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03722143173218</t>
   </si>
   <si>
     <t xml:space="preserve">6.08308458328247</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98718929290771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00386667251587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89546298980713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82875394821167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90380239486694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95383358001709</t>
+    <t xml:space="preserve">5.98718881607056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00386619567871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89546346664429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82875347137451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90380191802979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95383453369141</t>
   </si>
   <si>
     <t xml:space="preserve">5.90797138214111</t>
@@ -314,55 +314,55 @@
     <t xml:space="preserve">6.16647148132324</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0580677986145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14562463760376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31239891052246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19982624053955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07474517822266</t>
+    <t xml:space="preserve">6.05806827545166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1456241607666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3123984336853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19982576370239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07474613189697</t>
   </si>
   <si>
     <t xml:space="preserve">6.14145469665527</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22067308425903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29572105407715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1748104095459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19565629959106</t>
+    <t xml:space="preserve">6.22067356109619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29572200775146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17481088638306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19565677642822</t>
   </si>
   <si>
     <t xml:space="preserve">6.18731832504272</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12060832977295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19148778915405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11227035522461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09559202194214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01220512390137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14979362487793</t>
+    <t xml:space="preserve">6.12060880661011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19148731231689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11226987838745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0955924987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01220560073853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14979410171509</t>
   </si>
   <si>
     <t xml:space="preserve">6.02888250350952</t>
@@ -374,19 +374,19 @@
     <t xml:space="preserve">5.99552822113037</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07891511917114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9996976852417</t>
+    <t xml:space="preserve">6.07891464233398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99969720840454</t>
   </si>
   <si>
     <t xml:space="preserve">6.04556035995483</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92881870269775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97468090057373</t>
+    <t xml:space="preserve">5.9288182258606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97468137741089</t>
   </si>
   <si>
     <t xml:space="preserve">5.86627769470215</t>
@@ -398,82 +398,82 @@
     <t xml:space="preserve">5.89129400253296</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89963293075562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79956817626953</t>
+    <t xml:space="preserve">5.89963245391846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79956865310669</t>
   </si>
   <si>
     <t xml:space="preserve">5.94549560546875</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97885084152222</t>
+    <t xml:space="preserve">5.97885036468506</t>
   </si>
   <si>
     <t xml:space="preserve">5.9204797744751</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9621729850769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10393190383911</t>
+    <t xml:space="preserve">5.96217346191406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10393142700195</t>
   </si>
   <si>
     <t xml:space="preserve">6.47083425521851</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49585008621216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57923746109009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59591484069824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50001907348633</t>
+    <t xml:space="preserve">6.49585056304932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57923698425293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59591436386108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50002002716064</t>
   </si>
   <si>
     <t xml:space="preserve">6.33741426467896</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50418853759766</t>
+    <t xml:space="preserve">6.50418901443481</t>
   </si>
   <si>
     <t xml:space="preserve">6.42914056777954</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44581842422485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27904415130615</t>
+    <t xml:space="preserve">6.4458179473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27904462814331</t>
   </si>
   <si>
     <t xml:space="preserve">6.38327789306641</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42497062683105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45415592193604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42080116271973</t>
+    <t xml:space="preserve">6.42497110366821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45415639877319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42080163955688</t>
   </si>
   <si>
     <t xml:space="preserve">6.55422115325928</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38744688034058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53754329681396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37910842895508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41663265228271</t>
+    <t xml:space="preserve">6.38744735717773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53754377365112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37910890579224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41663312911987</t>
   </si>
   <si>
     <t xml:space="preserve">6.34992265701294</t>
@@ -494,10 +494,10 @@
     <t xml:space="preserve">6.06223726272583</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07057666778564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37076950073242</t>
+    <t xml:space="preserve">6.07057619094849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37076902389526</t>
   </si>
   <si>
     <t xml:space="preserve">6.41246318817139</t>
@@ -509,7 +509,7 @@
     <t xml:space="preserve">6.45832586288452</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28738212585449</t>
+    <t xml:space="preserve">6.28738260269165</t>
   </si>
   <si>
     <t xml:space="preserve">6.21650362014771</t>
@@ -521,7 +521,7 @@
     <t xml:space="preserve">6.72933387756348</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69597911834717</t>
+    <t xml:space="preserve">6.69597864151001</t>
   </si>
   <si>
     <t xml:space="preserve">6.77102708816528</t>
@@ -530,13 +530,13 @@
     <t xml:space="preserve">6.7877049446106</t>
   </si>
   <si>
-    <t xml:space="preserve">7.08789777755737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25467205047607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22965574264526</t>
+    <t xml:space="preserve">7.08789825439453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25467157363892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22965669631958</t>
   </si>
   <si>
     <t xml:space="preserve">7.08372926712036</t>
@@ -545,37 +545,37 @@
     <t xml:space="preserve">7.06288194656372</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12959146499634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0712194442749</t>
+    <t xml:space="preserve">7.1295919418335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07122039794922</t>
   </si>
   <si>
     <t xml:space="preserve">7.10457611083984</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03786516189575</t>
+    <t xml:space="preserve">7.03786563873291</t>
   </si>
   <si>
     <t xml:space="preserve">7.25884103775024</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65493059158325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68828535079956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65076112747192</t>
+    <t xml:space="preserve">7.65492963790894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6882848739624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65076017379761</t>
   </si>
   <si>
     <t xml:space="preserve">7.13793087005615</t>
   </si>
   <si>
-    <t xml:space="preserve">7.35473728179932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49649477005005</t>
+    <t xml:space="preserve">7.35473585128784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49649429321289</t>
   </si>
   <si>
     <t xml:space="preserve">7.5298490524292</t>
@@ -587,25 +587,25 @@
     <t xml:space="preserve">7.48815631866455</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32972049713135</t>
+    <t xml:space="preserve">7.32972097396851</t>
   </si>
   <si>
     <t xml:space="preserve">7.22131776809692</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15460777282715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99200344085693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12125253677368</t>
+    <t xml:space="preserve">7.15460729598999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99200296401978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12125301361084</t>
   </si>
   <si>
     <t xml:space="preserve">7.10874462127686</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09206819534302</t>
+    <t xml:space="preserve">7.0920672416687</t>
   </si>
   <si>
     <t xml:space="preserve">7.05454301834106</t>
@@ -617,64 +617,64 @@
     <t xml:space="preserve">7.0045108795166</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06705141067505</t>
+    <t xml:space="preserve">7.06705188751221</t>
   </si>
   <si>
     <t xml:space="preserve">6.93780136108398</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96281766891479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00867986679077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27968835830688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32138156890869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59655809402466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56320333480835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69662237167358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74665546417236</t>
+    <t xml:space="preserve">6.96281814575195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00868034362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27968788146973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32138204574585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59655857086182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56320476531982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6966233253479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74665594100952</t>
   </si>
   <si>
     <t xml:space="preserve">7.71330070495605</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95929193496704</t>
+    <t xml:space="preserve">7.95929384231567</t>
   </si>
   <si>
     <t xml:space="preserve">8.06352615356445</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08854293823242</t>
+    <t xml:space="preserve">8.08854198455811</t>
   </si>
   <si>
     <t xml:space="preserve">8.13023567199707</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90926027297974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31785774230957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25114727020264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31368732452393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5471715927124</t>
+    <t xml:space="preserve">7.90925931930542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31785678863525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25114822387695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31368637084961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54717063903809</t>
   </si>
   <si>
     <t xml:space="preserve">8.55550861358643</t>
@@ -689,7 +689,7 @@
     <t xml:space="preserve">8.49713802337646</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68892860412598</t>
+    <t xml:space="preserve">8.68892955780029</t>
   </si>
   <si>
     <t xml:space="preserve">8.69726943969727</t>
@@ -701,37 +701,37 @@
     <t xml:space="preserve">8.58886432647705</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3887357711792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09687995910645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82170438766479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01766395568848</t>
+    <t xml:space="preserve">8.38873672485352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09688186645508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82170391082764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01766300201416</t>
   </si>
   <si>
     <t xml:space="preserve">8.23446941375732</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57218742370605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66391277313232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83902740478516</t>
+    <t xml:space="preserve">8.57218647003174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66391372680664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83902549743652</t>
   </si>
   <si>
     <t xml:space="preserve">8.92241287231445</t>
   </si>
   <si>
-    <t xml:space="preserve">9.43941211700439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51446151733398</t>
+    <t xml:space="preserve">9.43941116333008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51445960998535</t>
   </si>
   <si>
     <t xml:space="preserve">10.1565408706665</t>
@@ -743,7 +743,7 @@
     <t xml:space="preserve">10.5651369094849</t>
   </si>
   <si>
-    <t xml:space="preserve">10.765266418457</t>
+    <t xml:space="preserve">10.7652654647827</t>
   </si>
   <si>
     <t xml:space="preserve">10.8319759368896</t>
@@ -752,37 +752,37 @@
     <t xml:space="preserve">10.365008354187</t>
   </si>
   <si>
-    <t xml:space="preserve">10.423378944397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6540603637695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5344476699829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94493007659912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1328907012939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1926984786987</t>
+    <t xml:space="preserve">10.4233798980713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6540613174438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5344495773315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9449291229248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1328916549683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1926975250244</t>
   </si>
   <si>
     <t xml:space="preserve">10.1243486404419</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2439594268799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2525043487549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1499795913696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4575548171997</t>
+    <t xml:space="preserve">10.2439603805542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2525053024292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1499786376953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4575538635254</t>
   </si>
   <si>
     <t xml:space="preserve">10.7822170257568</t>
@@ -797,25 +797,25 @@
     <t xml:space="preserve">10.5515365600586</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7993040084839</t>
+    <t xml:space="preserve">10.7993049621582</t>
   </si>
   <si>
     <t xml:space="preserve">10.7224111557007</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7053232192993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7138671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4917297363281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.431923866272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3464860916138</t>
+    <t xml:space="preserve">10.705322265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7138681411743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4917287826538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4319229125977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3464851379395</t>
   </si>
   <si>
     <t xml:space="preserve">10.3806600570679</t>
@@ -830,7 +830,7 @@
     <t xml:space="preserve">9.90221118927002</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85094738006592</t>
+    <t xml:space="preserve">9.8509464263916</t>
   </si>
   <si>
     <t xml:space="preserve">9.68007278442383</t>
@@ -842,34 +842,34 @@
     <t xml:space="preserve">9.16744709014893</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22725391387939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24434089660645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26142978668213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30414772033691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29560375213623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39812850952148</t>
+    <t xml:space="preserve">9.22725296020508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24433994293213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26142883300781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30414867401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29560470581055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3981294631958</t>
   </si>
   <si>
     <t xml:space="preserve">9.27851581573486</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4408483505249</t>
+    <t xml:space="preserve">9.44084739685059</t>
   </si>
   <si>
     <t xml:space="preserve">9.75696659088135</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1670665740967</t>
+    <t xml:space="preserve">10.1670656204224</t>
   </si>
   <si>
     <t xml:space="preserve">10.1072607040405</t>
@@ -878,7 +878,7 @@
     <t xml:space="preserve">9.97056007385254</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91929817199707</t>
+    <t xml:space="preserve">9.91929721832275</t>
   </si>
   <si>
     <t xml:space="preserve">10.2952241897583</t>
@@ -890,7 +890,7 @@
     <t xml:space="preserve">10.3550291061401</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3293991088867</t>
+    <t xml:space="preserve">10.3293981552124</t>
   </si>
   <si>
     <t xml:space="preserve">10.3635730743408</t>
@@ -902,22 +902,22 @@
     <t xml:space="preserve">10.2781352996826</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0901737213135</t>
+    <t xml:space="preserve">10.0901727676392</t>
   </si>
   <si>
     <t xml:space="preserve">10.0389108657837</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96201515197754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92784118652344</t>
+    <t xml:space="preserve">9.96201610565186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92784214019775</t>
   </si>
   <si>
     <t xml:space="preserve">9.81677341461182</t>
   </si>
   <si>
-    <t xml:space="preserve">9.57754802703857</t>
+    <t xml:space="preserve">9.57754898071289</t>
   </si>
   <si>
     <t xml:space="preserve">9.77405452728271</t>
@@ -929,16 +929,16 @@
     <t xml:space="preserve">9.42375946044922</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63735389709473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7313346862793</t>
+    <t xml:space="preserve">9.63735294342041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73133563995361</t>
   </si>
   <si>
     <t xml:space="preserve">9.56900310516357</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45793533325195</t>
+    <t xml:space="preserve">9.45793437957764</t>
   </si>
   <si>
     <t xml:space="preserve">9.3468656539917</t>
@@ -947,16 +947,16 @@
     <t xml:space="preserve">9.44939136505127</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51774120330811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58609104156494</t>
+    <t xml:space="preserve">9.51774215698242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58609199523926</t>
   </si>
   <si>
     <t xml:space="preserve">9.33832263946533</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26997375488281</t>
+    <t xml:space="preserve">9.26997184753418</t>
   </si>
   <si>
     <t xml:space="preserve">9.65444183349609</t>
@@ -965,19 +965,19 @@
     <t xml:space="preserve">9.56046009063721</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9107551574707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74842262268066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71424770355225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70570373535156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82531642913818</t>
+    <t xml:space="preserve">9.91075420379639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74842166900635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71424865722656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70570278167725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8253173828125</t>
   </si>
   <si>
     <t xml:space="preserve">9.89366722106934</t>
@@ -989,34 +989,34 @@
     <t xml:space="preserve">9.86803531646729</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76551055908203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73987865447998</t>
+    <t xml:space="preserve">9.76550960540771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73987770080566</t>
   </si>
   <si>
     <t xml:space="preserve">9.6971607208252</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8594913482666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79968547821045</t>
+    <t xml:space="preserve">9.85949230194092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79968643188477</t>
   </si>
   <si>
     <t xml:space="preserve">9.54337310791016</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20162391662598</t>
+    <t xml:space="preserve">9.20162296295166</t>
   </si>
   <si>
     <t xml:space="preserve">9.06492233276367</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78297901153564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65482234954834</t>
+    <t xml:space="preserve">8.78297805786133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65482330322266</t>
   </si>
   <si>
     <t xml:space="preserve">8.13365459442139</t>
@@ -1025,7 +1025,7 @@
     <t xml:space="preserve">8.38569450378418</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1592845916748</t>
+    <t xml:space="preserve">8.15928554534912</t>
   </si>
   <si>
     <t xml:space="preserve">8.18064498901367</t>
@@ -1040,31 +1040,31 @@
     <t xml:space="preserve">8.40278148651123</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25326633453369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33015918731689</t>
+    <t xml:space="preserve">8.25326538085938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33016014099121</t>
   </si>
   <si>
     <t xml:space="preserve">8.43268489837646</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37287902832031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35151958465576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15074157714844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09520721435547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90724468231201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88161277770996</t>
+    <t xml:space="preserve">8.37287998199463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35151863098145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15074253082275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09520626068115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9072437286377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88161182403564</t>
   </si>
   <si>
     <t xml:space="preserve">7.85598087310791</t>
@@ -1073,7 +1073,7 @@
     <t xml:space="preserve">7.96705007553101</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9115161895752</t>
+    <t xml:space="preserve">7.91151666641235</t>
   </si>
   <si>
     <t xml:space="preserve">8.01404094696045</t>
@@ -1082,22 +1082,22 @@
     <t xml:space="preserve">8.035400390625</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07812023162842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0695743560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31307220458984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21909141540527</t>
+    <t xml:space="preserve">8.0781192779541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06957530975342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31307125091553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21909046173096</t>
   </si>
   <si>
     <t xml:space="preserve">8.20627498626709</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10802268981934</t>
+    <t xml:space="preserve">8.10802173614502</t>
   </si>
   <si>
     <t xml:space="preserve">8.13792610168457</t>
@@ -1109,13 +1109,13 @@
     <t xml:space="preserve">8.28316879272461</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34724807739258</t>
+    <t xml:space="preserve">8.34724712371826</t>
   </si>
   <si>
     <t xml:space="preserve">8.48394775390625</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62919044494629</t>
+    <t xml:space="preserve">8.62919139862061</t>
   </si>
   <si>
     <t xml:space="preserve">8.57792854309082</t>
@@ -1124,7 +1124,7 @@
     <t xml:space="preserve">8.80006694793701</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61210346221924</t>
+    <t xml:space="preserve">8.61210441589355</t>
   </si>
   <si>
     <t xml:space="preserve">8.5437536239624</t>
@@ -1133,22 +1133,22 @@
     <t xml:space="preserve">8.56084156036377</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71462917327881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64627933502197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52666568756104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51812362670898</t>
+    <t xml:space="preserve">8.71462821960449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64627838134766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52666473388672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51812267303467</t>
   </si>
   <si>
     <t xml:space="preserve">8.46685886383057</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44122791290283</t>
+    <t xml:space="preserve">8.44122886657715</t>
   </si>
   <si>
     <t xml:space="preserve">8.26181030273438</t>
@@ -1157,13 +1157,13 @@
     <t xml:space="preserve">8.0738468170166</t>
   </si>
   <si>
-    <t xml:space="preserve">8.04821586608887</t>
+    <t xml:space="preserve">8.04821681976318</t>
   </si>
   <si>
     <t xml:space="preserve">7.97132253646851</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18491554260254</t>
+    <t xml:space="preserve">8.18491649627686</t>
   </si>
   <si>
     <t xml:space="preserve">8.0311279296875</t>
@@ -1172,40 +1172,40 @@
     <t xml:space="preserve">8.381422996521</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9709415435791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81715393066406</t>
+    <t xml:space="preserve">8.97094249725342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81715202331543</t>
   </si>
   <si>
     <t xml:space="preserve">8.8855037689209</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83424091339111</t>
+    <t xml:space="preserve">8.83424186706543</t>
   </si>
   <si>
     <t xml:space="preserve">8.68045330047607</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66336536407471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90258979797363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0051155090332</t>
+    <t xml:space="preserve">8.66336631774902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90259170532227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00511646270752</t>
   </si>
   <si>
     <t xml:space="preserve">9.43230438232422</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31268978118896</t>
+    <t xml:space="preserve">9.3126916885376</t>
   </si>
   <si>
     <t xml:space="preserve">9.19307994842529</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17599010467529</t>
+    <t xml:space="preserve">9.17599105834961</t>
   </si>
   <si>
     <t xml:space="preserve">9.10764122009277</t>
@@ -1214,34 +1214,34 @@
     <t xml:space="preserve">9.15890407562256</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32977962493896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.483567237854</t>
+    <t xml:space="preserve">9.32977867126465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48356628417969</t>
   </si>
   <si>
     <t xml:space="preserve">10.2866792678833</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6455163955688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7480421066284</t>
+    <t xml:space="preserve">10.6455173492432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7480430603027</t>
   </si>
   <si>
     <t xml:space="preserve">10.6967792510986</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0385293960571</t>
+    <t xml:space="preserve">11.0385303497314</t>
   </si>
   <si>
     <t xml:space="preserve">11.5169792175293</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4486303329468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5511560440063</t>
+    <t xml:space="preserve">11.4486293792725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.551155090332</t>
   </si>
   <si>
     <t xml:space="preserve">11.6249647140503</t>
@@ -1250,13 +1250,13 @@
     <t xml:space="preserve">11.957106590271</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9202013015747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4957971572876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3850831985474</t>
+    <t xml:space="preserve">11.9202003479004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4957981109619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3850841522217</t>
   </si>
   <si>
     <t xml:space="preserve">11.3666315078735</t>
@@ -1265,7 +1265,7 @@
     <t xml:space="preserve">11.0344896316528</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9606809616089</t>
+    <t xml:space="preserve">10.9606800079346</t>
   </si>
   <si>
     <t xml:space="preserve">10.5731811523438</t>
@@ -1280,13 +1280,13 @@
     <t xml:space="preserve">10.720799446106</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5547294616699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.241039276123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.074969291687</t>
+    <t xml:space="preserve">10.5547285079956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2410402297974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0749683380127</t>
   </si>
   <si>
     <t xml:space="preserve">10.0565156936646</t>
@@ -1295,7 +1295,7 @@
     <t xml:space="preserve">10.1303253173828</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3517532348633</t>
+    <t xml:space="preserve">10.3517541885376</t>
   </si>
   <si>
     <t xml:space="preserve">10.148777961731</t>
@@ -1307,22 +1307,22 @@
     <t xml:space="preserve">10.3333015441895</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2041349411011</t>
+    <t xml:space="preserve">10.2041358947754</t>
   </si>
   <si>
     <t xml:space="preserve">10.4809198379517</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3886575698853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5178241729736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4071111679077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2779445648193</t>
+    <t xml:space="preserve">10.3886585235596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5178232192993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4071102142334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2779455184937</t>
   </si>
   <si>
     <t xml:space="preserve">10.1672296524048</t>
@@ -1340,7 +1340,7 @@
     <t xml:space="preserve">9.53985118865967</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74282741546631</t>
+    <t xml:space="preserve">9.74282836914062</t>
   </si>
   <si>
     <t xml:space="preserve">9.79818439483643</t>
@@ -1349,28 +1349,28 @@
     <t xml:space="preserve">9.72437477111816</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68746948242188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81663703918457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76127815246582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63211250305176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37378025054932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3184232711792</t>
+    <t xml:space="preserve">9.68747043609619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81663608551025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76127910614014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63211345672607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.373779296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31842422485352</t>
   </si>
   <si>
     <t xml:space="preserve">9.42913722991943</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39223289489746</t>
+    <t xml:space="preserve">9.39223384857178</t>
   </si>
   <si>
     <t xml:space="preserve">9.33687591552734</t>
@@ -1379,7 +1379,7 @@
     <t xml:space="preserve">9.1338996887207</t>
   </si>
   <si>
-    <t xml:space="preserve">9.15235233306885</t>
+    <t xml:space="preserve">9.15235328674316</t>
   </si>
   <si>
     <t xml:space="preserve">8.99550724029541</t>
@@ -1391,7 +1391,7 @@
     <t xml:space="preserve">9.09699535369873</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02318668365479</t>
+    <t xml:space="preserve">9.02318572998047</t>
   </si>
   <si>
     <t xml:space="preserve">9.04163837432861</t>
@@ -1400,19 +1400,19 @@
     <t xml:space="preserve">9.00473403930664</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58033180236816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34045028686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98628234863281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76485443115234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.700270652771</t>
+    <t xml:space="preserve">8.58033084869385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34044933319092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9862813949585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76485347747803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70027160644531</t>
   </si>
   <si>
     <t xml:space="preserve">8.71872234344482</t>
@@ -1427,7 +1427,7 @@
     <t xml:space="preserve">8.50652122497559</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46604156494141</t>
+    <t xml:space="preserve">9.46604251861572</t>
   </si>
   <si>
     <t xml:space="preserve">9.44758892059326</t>
@@ -1442,22 +1442,22 @@
     <t xml:space="preserve">9.20770931243896</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18925762176514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10622119903564</t>
+    <t xml:space="preserve">9.18925857543945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10622215270996</t>
   </si>
   <si>
     <t xml:space="preserve">9.0324125289917</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06009197235107</t>
+    <t xml:space="preserve">9.06009101867676</t>
   </si>
   <si>
     <t xml:space="preserve">8.94937705993652</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9309253692627</t>
+    <t xml:space="preserve">8.93092441558838</t>
   </si>
   <si>
     <t xml:space="preserve">8.8478889465332</t>
@@ -1466,7 +1466,7 @@
     <t xml:space="preserve">8.89402008056641</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90324687957764</t>
+    <t xml:space="preserve">8.90324592590332</t>
   </si>
   <si>
     <t xml:space="preserve">8.83866310119629</t>
@@ -1478,7 +1478,7 @@
     <t xml:space="preserve">8.65414047241211</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46961784362793</t>
+    <t xml:space="preserve">8.46961688995361</t>
   </si>
   <si>
     <t xml:space="preserve">8.36812782287598</t>
@@ -1487,10 +1487,10 @@
     <t xml:space="preserve">8.30354499816895</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79610681533813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.759202003479</t>
+    <t xml:space="preserve">7.79610633850098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75920248031616</t>
   </si>
   <si>
     <t xml:space="preserve">7.74075031280518</t>
@@ -1499,22 +1499,22 @@
     <t xml:space="preserve">7.61158323287964</t>
   </si>
   <si>
-    <t xml:space="preserve">7.64848804473877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54700040817261</t>
+    <t xml:space="preserve">7.64848709106445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54699993133545</t>
   </si>
   <si>
     <t xml:space="preserve">7.44551229476929</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45473861694336</t>
+    <t xml:space="preserve">7.45473909378052</t>
   </si>
   <si>
     <t xml:space="preserve">7.13182306289673</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15950155258179</t>
+    <t xml:space="preserve">7.15950202941895</t>
   </si>
   <si>
     <t xml:space="preserve">7.43628692626953</t>
@@ -1529,25 +1529,25 @@
     <t xml:space="preserve">7.37170314788818</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53777408599854</t>
+    <t xml:space="preserve">7.53777360916138</t>
   </si>
   <si>
     <t xml:space="preserve">7.4731912612915</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82378435134888</t>
+    <t xml:space="preserve">7.82378482818604</t>
   </si>
   <si>
     <t xml:space="preserve">7.86069059371948</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74997520446777</t>
+    <t xml:space="preserve">7.74997568130493</t>
   </si>
   <si>
     <t xml:space="preserve">7.51009607315063</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63926124572754</t>
+    <t xml:space="preserve">7.6392617225647</t>
   </si>
   <si>
     <t xml:space="preserve">7.62081003189087</t>
@@ -1556,13 +1556,13 @@
     <t xml:space="preserve">7.3993821144104</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56545209884644</t>
+    <t xml:space="preserve">7.56545305252075</t>
   </si>
   <si>
     <t xml:space="preserve">7.27944135665894</t>
   </si>
   <si>
-    <t xml:space="preserve">7.19640636444092</t>
+    <t xml:space="preserve">7.19640684127808</t>
   </si>
   <si>
     <t xml:space="preserve">7.20563220977783</t>
@@ -1574,16 +1574,16 @@
     <t xml:space="preserve">7.10414409637451</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49164295196533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59313106536865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5839056968689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52854776382446</t>
+    <t xml:space="preserve">7.49164390563965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59313058853149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58390522003174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52854824066162</t>
   </si>
   <si>
     <t xml:space="preserve">7.39015579223633</t>
@@ -1595,7 +1595,7 @@
     <t xml:space="preserve">7.33479833602905</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36247730255127</t>
+    <t xml:space="preserve">7.36247682571411</t>
   </si>
   <si>
     <t xml:space="preserve">7.29789400100708</t>
@@ -1610,22 +1610,22 @@
     <t xml:space="preserve">7.7315239906311</t>
   </si>
   <si>
-    <t xml:space="preserve">7.77765464782715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9252724647522</t>
+    <t xml:space="preserve">7.77765417098999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92527341842651</t>
   </si>
   <si>
     <t xml:space="preserve">8.10056972503662</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43271255493164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45116424560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55265235900879</t>
+    <t xml:space="preserve">8.43271160125732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45116519927979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55265331268311</t>
   </si>
   <si>
     <t xml:space="preserve">8.4603910446167</t>
@@ -1637,7 +1637,7 @@
     <t xml:space="preserve">8.39580821990967</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08777046203613</t>
+    <t xml:space="preserve">9.08777141571045</t>
   </si>
   <si>
     <t xml:space="preserve">9.19848346710205</t>
@@ -1649,34 +1649,34 @@
     <t xml:space="preserve">9.17080402374268</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11544799804688</t>
+    <t xml:space="preserve">9.11544895172119</t>
   </si>
   <si>
     <t xml:space="preserve">8.85711574554443</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72795009613037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92169857025146</t>
+    <t xml:space="preserve">8.72794914245605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92169761657715</t>
   </si>
   <si>
     <t xml:space="preserve">9.0785436630249</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97705554962158</t>
+    <t xml:space="preserve">8.97705459594727</t>
   </si>
   <si>
     <t xml:space="preserve">8.96782875061035</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91247367858887</t>
+    <t xml:space="preserve">8.91247272491455</t>
   </si>
   <si>
     <t xml:space="preserve">8.86634063720703</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87556838989258</t>
+    <t xml:space="preserve">8.87556743621826</t>
   </si>
   <si>
     <t xml:space="preserve">8.64491367340088</t>
@@ -1685,55 +1685,55 @@
     <t xml:space="preserve">8.74640083312988</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31277275085449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44193744659424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.331223487854</t>
+    <t xml:space="preserve">8.31277179718018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44193840026855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33122253417969</t>
   </si>
   <si>
     <t xml:space="preserve">8.1836051940918</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32199954986572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29431915283203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49729537963867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51574611663818</t>
+    <t xml:space="preserve">8.32199859619141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29432010650635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49729633331299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5157470703125</t>
   </si>
   <si>
     <t xml:space="preserve">8.53419971466064</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56187725067139</t>
+    <t xml:space="preserve">8.5618782043457</t>
   </si>
   <si>
     <t xml:space="preserve">8.48806858062744</t>
   </si>
   <si>
-    <t xml:space="preserve">8.52497291564941</t>
+    <t xml:space="preserve">8.52497386932373</t>
   </si>
   <si>
     <t xml:space="preserve">8.57110404968262</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59878253936768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68181896209717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67259120941162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60800933837891</t>
+    <t xml:space="preserve">8.59878349304199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68181800842285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67259216308594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60800838470459</t>
   </si>
   <si>
     <t xml:space="preserve">9.28066158294678</t>
@@ -3897,6 +3897,9 @@
   </si>
   <si>
     <t xml:space="preserve">24.7000007629395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2000007629395</t>
   </si>
 </sst>
 </file>
@@ -60476,7 +60479,7 @@
     </row>
     <row r="2164">
       <c r="A2164" s="1" t="n">
-        <v>45475.6495833333</v>
+        <v>45475.2916666667</v>
       </c>
       <c r="B2164" t="n">
         <v>23961</v>
@@ -60497,6 +60500,32 @@
         <v>1294</v>
       </c>
       <c r="H2164" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2165">
+      <c r="A2165" s="1" t="n">
+        <v>45476.6494212963</v>
+      </c>
+      <c r="B2165" t="n">
+        <v>13413</v>
+      </c>
+      <c r="C2165" t="n">
+        <v>25.3500003814697</v>
+      </c>
+      <c r="D2165" t="n">
+        <v>24.7000007629395</v>
+      </c>
+      <c r="E2165" t="n">
+        <v>24.8999996185303</v>
+      </c>
+      <c r="F2165" t="n">
+        <v>25.2000007629395</v>
+      </c>
+      <c r="G2165" t="s">
+        <v>1295</v>
+      </c>
+      <c r="H2165" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TXT.MI.xlsx
+++ b/data/TXT.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="1299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="1300">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -53,13 +53,13 @@
     <t xml:space="preserve">6.27410650253296</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31442832946777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13701152801514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16926860809326</t>
+    <t xml:space="preserve">6.31442880630493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13701200485229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16926956176758</t>
   </si>
   <si>
     <t xml:space="preserve">6.12894773483276</t>
@@ -68,16 +68,16 @@
     <t xml:space="preserve">5.96765947341919</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89507961273193</t>
+    <t xml:space="preserve">5.89507913589478</t>
   </si>
   <si>
     <t xml:space="preserve">5.80637121200562</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98782062530518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79024219512939</t>
+    <t xml:space="preserve">5.98782014846802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79024171829224</t>
   </si>
   <si>
     <t xml:space="preserve">5.76201725006104</t>
@@ -89,58 +89,58 @@
     <t xml:space="preserve">5.78217792510986</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04023838043213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92733764648438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95959424972534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98378753662109</t>
+    <t xml:space="preserve">6.04023885726929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92733669281006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9595947265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98378801345825</t>
   </si>
   <si>
     <t xml:space="preserve">6.04830265045166</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89104652404785</t>
+    <t xml:space="preserve">5.89104747772217</t>
   </si>
   <si>
     <t xml:space="preserve">5.81846761703491</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21765518188477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19346237182617</t>
+    <t xml:space="preserve">6.21765565872192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19346284866333</t>
   </si>
   <si>
     <t xml:space="preserve">6.24991321563721</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33862209320068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26604175567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24184894561768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25394535064697</t>
+    <t xml:space="preserve">6.33862161636353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26604223251343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24184846878052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25394582748413</t>
   </si>
   <si>
     <t xml:space="preserve">6.4515233039856</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50394153594971</t>
+    <t xml:space="preserve">6.50394105911255</t>
   </si>
   <si>
     <t xml:space="preserve">6.45958805084229</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53216791152954</t>
+    <t xml:space="preserve">6.53216695785522</t>
   </si>
   <si>
     <t xml:space="preserve">6.5482964515686</t>
@@ -149,13 +149,13 @@
     <t xml:space="preserve">6.54023122787476</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28217124938965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12088251113892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29830026626587</t>
+    <t xml:space="preserve">6.28217077255249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12088298797607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29829883575439</t>
   </si>
   <si>
     <t xml:space="preserve">6.23781681060791</t>
@@ -167,31 +167,31 @@
     <t xml:space="preserve">6.19749450683594</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15314054489136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15717267990112</t>
+    <t xml:space="preserve">6.1531400680542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15717315673828</t>
   </si>
   <si>
     <t xml:space="preserve">6.0321741104126</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06039953231812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99185228347778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17733383178711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09668922424316</t>
+    <t xml:space="preserve">6.06039905548096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99185180664062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17733335494995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09669017791748</t>
   </si>
   <si>
     <t xml:space="preserve">6.20152711868286</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14104413986206</t>
+    <t xml:space="preserve">6.1410436630249</t>
   </si>
   <si>
     <t xml:space="preserve">6.22571992874146</t>
@@ -200,37 +200,37 @@
     <t xml:space="preserve">6.16523694992065</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25797748565674</t>
+    <t xml:space="preserve">6.2579779624939</t>
   </si>
   <si>
     <t xml:space="preserve">6.07652854919434</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14507579803467</t>
+    <t xml:space="preserve">6.14507532119751</t>
   </si>
   <si>
     <t xml:space="preserve">6.05636787414551</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99991607666016</t>
+    <t xml:space="preserve">5.99991655349731</t>
   </si>
   <si>
     <t xml:space="preserve">5.97975540161133</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16120481491089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11685037612915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11281871795654</t>
+    <t xml:space="preserve">6.16120433807373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11685132980347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11281776428223</t>
   </si>
   <si>
     <t xml:space="preserve">6.23734998703003</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27070474624634</t>
+    <t xml:space="preserve">6.2707052230835</t>
   </si>
   <si>
     <t xml:space="preserve">6.11643886566162</t>
@@ -239,31 +239,31 @@
     <t xml:space="preserve">6.20399522781372</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25402784347534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1372857093811</t>
+    <t xml:space="preserve">6.25402736663818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13728618621826</t>
   </si>
   <si>
     <t xml:space="preserve">6.21233415603638</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23318147659302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24568843841553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16230154037476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33324480056763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24152040481567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17064046859741</t>
+    <t xml:space="preserve">6.23318099975586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24568891525269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16230201721191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33324527740479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24151945114136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17064094543457</t>
   </si>
   <si>
     <t xml:space="preserve">6.18314838409424</t>
@@ -272,31 +272,34 @@
     <t xml:space="preserve">6.15396356582642</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08725357055664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93715715408325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94966554641724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85377025604248</t>
+    <t xml:space="preserve">6.0872540473938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93715667724609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94966506958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85376977920532</t>
   </si>
   <si>
     <t xml:space="preserve">6.03722143173218</t>
   </si>
   <si>
+    <t xml:space="preserve">6.12894678115845</t>
+  </si>
+  <si>
     <t xml:space="preserve">6.08308410644531</t>
   </si>
   <si>
     <t xml:space="preserve">5.98718881607056</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00386619567871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89546346664429</t>
+    <t xml:space="preserve">6.00386667251587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89546394348145</t>
   </si>
   <si>
     <t xml:space="preserve">5.82875347137451</t>
@@ -305,25 +308,25 @@
     <t xml:space="preserve">5.90380191802979</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95383453369141</t>
+    <t xml:space="preserve">5.95383405685425</t>
   </si>
   <si>
     <t xml:space="preserve">5.90797185897827</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16647148132324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05806875228882</t>
+    <t xml:space="preserve">6.16647100448608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05806827545166</t>
   </si>
   <si>
     <t xml:space="preserve">6.14562463760376</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3123984336853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19982576370239</t>
+    <t xml:space="preserve">6.31239938735962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19982671737671</t>
   </si>
   <si>
     <t xml:space="preserve">6.07474565505981</t>
@@ -332,16 +335,16 @@
     <t xml:space="preserve">6.14145517349243</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22067308425903</t>
+    <t xml:space="preserve">6.22067260742188</t>
   </si>
   <si>
     <t xml:space="preserve">6.29572153091431</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1748104095459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19565677642822</t>
+    <t xml:space="preserve">6.17480993270874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19565629959106</t>
   </si>
   <si>
     <t xml:space="preserve">6.18731832504272</t>
@@ -365,22 +368,22 @@
     <t xml:space="preserve">6.14979362487793</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02888202667236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96634244918823</t>
+    <t xml:space="preserve">6.02888250350952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96634292602539</t>
   </si>
   <si>
     <t xml:space="preserve">5.99552774429321</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07891464233398</t>
+    <t xml:space="preserve">6.07891511917114</t>
   </si>
   <si>
     <t xml:space="preserve">5.99969720840454</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04555988311768</t>
+    <t xml:space="preserve">6.04556035995483</t>
   </si>
   <si>
     <t xml:space="preserve">5.92881870269775</t>
@@ -389,7 +392,7 @@
     <t xml:space="preserve">5.97468137741089</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86627769470215</t>
+    <t xml:space="preserve">5.86627817153931</t>
   </si>
   <si>
     <t xml:space="preserve">5.85793924331665</t>
@@ -398,7 +401,7 @@
     <t xml:space="preserve">5.89129400253296</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89963293075562</t>
+    <t xml:space="preserve">5.89963245391846</t>
   </si>
   <si>
     <t xml:space="preserve">5.79956817626953</t>
@@ -407,13 +410,13 @@
     <t xml:space="preserve">5.94549608230591</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9788498878479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92047929763794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96217346191406</t>
+    <t xml:space="preserve">5.97885036468506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9204797744751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9621729850769</t>
   </si>
   <si>
     <t xml:space="preserve">6.10393095016479</t>
@@ -425,16 +428,16 @@
     <t xml:space="preserve">6.49585008621216</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57923650741577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59591484069824</t>
+    <t xml:space="preserve">6.57923698425293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59591436386108</t>
   </si>
   <si>
     <t xml:space="preserve">6.50001955032349</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33741474151611</t>
+    <t xml:space="preserve">6.33741521835327</t>
   </si>
   <si>
     <t xml:space="preserve">6.50418901443481</t>
@@ -443,13 +446,13 @@
     <t xml:space="preserve">6.42914056777954</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4458179473877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27904415130615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38327789306641</t>
+    <t xml:space="preserve">6.44581747055054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27904367446899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38327741622925</t>
   </si>
   <si>
     <t xml:space="preserve">6.42497110366821</t>
@@ -458,34 +461,34 @@
     <t xml:space="preserve">6.45415639877319</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42080116271973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55422067642212</t>
+    <t xml:space="preserve">6.42080163955688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55422115325928</t>
   </si>
   <si>
     <t xml:space="preserve">6.38744688034058</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53754377365112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37910795211792</t>
+    <t xml:space="preserve">6.53754425048828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37910842895508</t>
   </si>
   <si>
     <t xml:space="preserve">6.41663265228271</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3499231338501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4374794960022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22901153564453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01637506484985</t>
+    <t xml:space="preserve">6.34992265701294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43747901916504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22901105880737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0163745880127</t>
   </si>
   <si>
     <t xml:space="preserve">6.05389881134033</t>
@@ -497,10 +500,10 @@
     <t xml:space="preserve">6.07057666778564</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37076950073242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41246271133423</t>
+    <t xml:space="preserve">6.37076902389526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41246318817139</t>
   </si>
   <si>
     <t xml:space="preserve">6.32907629013062</t>
@@ -509,19 +512,19 @@
     <t xml:space="preserve">6.45832633972168</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28738307952881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21650409698486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74601078033447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72933387756348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69597864151001</t>
+    <t xml:space="preserve">6.28738212585449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21650362014771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74601125717163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72933435440063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69597959518433</t>
   </si>
   <si>
     <t xml:space="preserve">6.77102756500244</t>
@@ -530,67 +533,67 @@
     <t xml:space="preserve">6.78770542144775</t>
   </si>
   <si>
-    <t xml:space="preserve">7.08789825439453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25467205047607</t>
+    <t xml:space="preserve">7.08789777755737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25467157363892</t>
   </si>
   <si>
     <t xml:space="preserve">7.22965574264526</t>
   </si>
   <si>
-    <t xml:space="preserve">7.08372783660889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06288242340088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1295919418335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07122039794922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10457515716553</t>
+    <t xml:space="preserve">7.08372831344604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06288194656372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12959098815918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07122087478638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10457563400269</t>
   </si>
   <si>
     <t xml:space="preserve">7.03786611557007</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2588415145874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65493011474609</t>
+    <t xml:space="preserve">7.25884103775024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65493059158325</t>
   </si>
   <si>
     <t xml:space="preserve">7.68828535079956</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65076065063477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13793039321899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.354736328125</t>
+    <t xml:space="preserve">7.65076112747192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13793087005615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35473585128784</t>
   </si>
   <si>
     <t xml:space="preserve">7.49649429321289</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52984857559204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54235649108887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48815488815308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32972097396851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22131681442261</t>
+    <t xml:space="preserve">7.5298490524292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54235744476318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48815584182739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32971954345703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22131776809692</t>
   </si>
   <si>
     <t xml:space="preserve">7.15460729598999</t>
@@ -602,7 +605,7 @@
     <t xml:space="preserve">7.12125301361084</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10874366760254</t>
+    <t xml:space="preserve">7.1087441444397</t>
   </si>
   <si>
     <t xml:space="preserve">7.0920672416687</t>
@@ -611,7 +614,7 @@
     <t xml:space="preserve">7.05454349517822</t>
   </si>
   <si>
-    <t xml:space="preserve">6.88359975814819</t>
+    <t xml:space="preserve">6.88360023498535</t>
   </si>
   <si>
     <t xml:space="preserve">7.00451040267944</t>
@@ -626,16 +629,16 @@
     <t xml:space="preserve">6.96281766891479</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00867986679077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27968740463257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32138109207153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59655809402466</t>
+    <t xml:space="preserve">7.00868034362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27968788146973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32138204574585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59655904769897</t>
   </si>
   <si>
     <t xml:space="preserve">7.56320381164551</t>
@@ -644,10 +647,10 @@
     <t xml:space="preserve">7.69662284851074</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74665498733521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71330070495605</t>
+    <t xml:space="preserve">7.74665594100952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71330118179321</t>
   </si>
   <si>
     <t xml:space="preserve">7.9592924118042</t>
@@ -659,61 +662,61 @@
     <t xml:space="preserve">8.08854293823242</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13023662567139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90925979614258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31785583496094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25114727020264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31368923187256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54717063903809</t>
+    <t xml:space="preserve">8.13023567199707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90926074981689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31785678863525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25114822387695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31368732452393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5471715927124</t>
   </si>
   <si>
     <t xml:space="preserve">8.55551052093506</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42209148406982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45544624328613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49713706970215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68892860412598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69726943969727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65557479858398</t>
+    <t xml:space="preserve">8.42209053039551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45544528961182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49713802337646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68892955780029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69726848602295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65557384490967</t>
   </si>
   <si>
     <t xml:space="preserve">8.58886528015137</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3887357711792</t>
+    <t xml:space="preserve">8.38873672485352</t>
   </si>
   <si>
     <t xml:space="preserve">8.09688091278076</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82170486450195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01766395568848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23446941375732</t>
+    <t xml:space="preserve">7.82170391082764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01766300201416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23447036743164</t>
   </si>
   <si>
     <t xml:space="preserve">8.57218742370605</t>
@@ -722,31 +725,31 @@
     <t xml:space="preserve">8.66391372680664</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83902549743652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92241287231445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43941211700439</t>
+    <t xml:space="preserve">8.83902645111084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92241382598877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43941116333008</t>
   </si>
   <si>
     <t xml:space="preserve">9.51446056365967</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1565408706665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2315883636475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5651369094849</t>
+    <t xml:space="preserve">10.1565418243408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2315893173218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5651378631592</t>
   </si>
   <si>
     <t xml:space="preserve">10.7652654647827</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8319759368896</t>
+    <t xml:space="preserve">10.8319749832153</t>
   </si>
   <si>
     <t xml:space="preserve">10.365008354187</t>
@@ -764,7 +767,7 @@
     <t xml:space="preserve">9.9449291229248</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1328916549683</t>
+    <t xml:space="preserve">10.1328907012939</t>
   </si>
   <si>
     <t xml:space="preserve">10.192699432373</t>
@@ -773,13 +776,13 @@
     <t xml:space="preserve">10.1243486404419</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2439594268799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2525053024292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1499795913696</t>
+    <t xml:space="preserve">10.2439603805542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2525043487549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1499786376953</t>
   </si>
   <si>
     <t xml:space="preserve">10.4575538635254</t>
@@ -788,13 +791,13 @@
     <t xml:space="preserve">10.7822179794312</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7394990921021</t>
+    <t xml:space="preserve">10.7394971847534</t>
   </si>
   <si>
     <t xml:space="preserve">10.6882352828979</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5515356063843</t>
+    <t xml:space="preserve">10.5515365600586</t>
   </si>
   <si>
     <t xml:space="preserve">10.7993049621582</t>
@@ -803,31 +806,31 @@
     <t xml:space="preserve">10.7224102020264</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7053232192993</t>
+    <t xml:space="preserve">10.705322265625</t>
   </si>
   <si>
     <t xml:space="preserve">10.7138671875</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4917287826538</t>
+    <t xml:space="preserve">10.4917278289795</t>
   </si>
   <si>
     <t xml:space="preserve">10.4319229125977</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3464851379395</t>
+    <t xml:space="preserve">10.3464841842651</t>
   </si>
   <si>
     <t xml:space="preserve">10.3806610107422</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1158046722412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97910404205322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90221118927002</t>
+    <t xml:space="preserve">10.1158037185669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97910499572754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90220928192139</t>
   </si>
   <si>
     <t xml:space="preserve">9.85094738006592</t>
@@ -836,25 +839,25 @@
     <t xml:space="preserve">9.68007278442383</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50065517425537</t>
+    <t xml:space="preserve">9.50065422058105</t>
   </si>
   <si>
     <t xml:space="preserve">9.16744709014893</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22725391387939</t>
+    <t xml:space="preserve">9.22725486755371</t>
   </si>
   <si>
     <t xml:space="preserve">9.24434089660645</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2614278793335</t>
+    <t xml:space="preserve">9.26142883300781</t>
   </si>
   <si>
     <t xml:space="preserve">9.30414772033691</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29560470581055</t>
+    <t xml:space="preserve">9.29560375213623</t>
   </si>
   <si>
     <t xml:space="preserve">9.39812850952148</t>
@@ -863,7 +866,7 @@
     <t xml:space="preserve">9.27851581573486</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4408483505249</t>
+    <t xml:space="preserve">9.44084644317627</t>
   </si>
   <si>
     <t xml:space="preserve">9.75696659088135</t>
@@ -881,22 +884,22 @@
     <t xml:space="preserve">9.91929721832275</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2952241897583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3037662506104</t>
+    <t xml:space="preserve">10.295223236084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3037672042847</t>
   </si>
   <si>
     <t xml:space="preserve">10.3550300598145</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3293991088867</t>
+    <t xml:space="preserve">10.3293981552124</t>
   </si>
   <si>
     <t xml:space="preserve">10.3635730743408</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4404668807983</t>
+    <t xml:space="preserve">10.4404678344727</t>
   </si>
   <si>
     <t xml:space="preserve">10.2781352996826</t>
@@ -908,37 +911,37 @@
     <t xml:space="preserve">10.0389108657837</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96201801300049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92784214019775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8167724609375</t>
+    <t xml:space="preserve">9.96201705932617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92784118652344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81677436828613</t>
   </si>
   <si>
     <t xml:space="preserve">9.57754802703857</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7740535736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52628517150879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42375946044922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63735389709473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73133659362793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56900310516357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45793533325195</t>
+    <t xml:space="preserve">9.77405452728271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52628421783447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42376041412354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63735294342041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73133563995361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56900405883789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45793437957764</t>
   </si>
   <si>
     <t xml:space="preserve">9.3468656539917</t>
@@ -950,34 +953,34 @@
     <t xml:space="preserve">9.51774215698242</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58609104156494</t>
+    <t xml:space="preserve">9.58609199523926</t>
   </si>
   <si>
     <t xml:space="preserve">9.33832263946533</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26997470855713</t>
+    <t xml:space="preserve">9.26997375488281</t>
   </si>
   <si>
     <t xml:space="preserve">9.65444087982178</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56046104431152</t>
+    <t xml:space="preserve">9.56046009063721</t>
   </si>
   <si>
     <t xml:space="preserve">9.91075420379639</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74842262268066</t>
+    <t xml:space="preserve">9.74842357635498</t>
   </si>
   <si>
     <t xml:space="preserve">9.71424674987793</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70570373535156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8253173828125</t>
+    <t xml:space="preserve">9.70570278167725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82531642913818</t>
   </si>
   <si>
     <t xml:space="preserve">9.89366626739502</t>
@@ -986,40 +989,40 @@
     <t xml:space="preserve">9.84240436553955</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8680362701416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76551055908203</t>
+    <t xml:space="preserve">9.86803531646729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76551151275635</t>
   </si>
   <si>
     <t xml:space="preserve">9.73987865447998</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69716167449951</t>
+    <t xml:space="preserve">9.69715976715088</t>
   </si>
   <si>
     <t xml:space="preserve">9.8594913482666</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79968547821045</t>
+    <t xml:space="preserve">9.79968643188477</t>
   </si>
   <si>
     <t xml:space="preserve">9.54337310791016</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20162296295166</t>
+    <t xml:space="preserve">9.20162391662598</t>
   </si>
   <si>
     <t xml:space="preserve">9.06492137908936</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78297901153564</t>
+    <t xml:space="preserve">8.78297996520996</t>
   </si>
   <si>
     <t xml:space="preserve">8.65482234954834</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13365459442139</t>
+    <t xml:space="preserve">8.13365364074707</t>
   </si>
   <si>
     <t xml:space="preserve">8.38569355010986</t>
@@ -1034,28 +1037,28 @@
     <t xml:space="preserve">8.68899726867676</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38996505737305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40278148651123</t>
+    <t xml:space="preserve">8.38996696472168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40278053283691</t>
   </si>
   <si>
     <t xml:space="preserve">8.25326633453369</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33016014099121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43268394470215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.372878074646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35151958465576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15074157714844</t>
+    <t xml:space="preserve">8.33015918731689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43268489837646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37287902832031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35151863098145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15074062347412</t>
   </si>
   <si>
     <t xml:space="preserve">8.09520721435547</t>
@@ -1064,19 +1067,19 @@
     <t xml:space="preserve">7.9072437286377</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88161325454712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85598134994507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96704959869385</t>
+    <t xml:space="preserve">7.8816123008728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85598087310791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96705055236816</t>
   </si>
   <si>
     <t xml:space="preserve">7.91151571273804</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01404094696045</t>
+    <t xml:space="preserve">8.01403999328613</t>
   </si>
   <si>
     <t xml:space="preserve">8.035400390625</t>
@@ -1088,19 +1091,19 @@
     <t xml:space="preserve">8.06957530975342</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31307220458984</t>
+    <t xml:space="preserve">8.31307125091553</t>
   </si>
   <si>
     <t xml:space="preserve">8.21909141540527</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20627498626709</t>
+    <t xml:space="preserve">8.20627403259277</t>
   </si>
   <si>
     <t xml:space="preserve">8.10802268981934</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13792419433594</t>
+    <t xml:space="preserve">8.13792514801025</t>
   </si>
   <si>
     <t xml:space="preserve">8.23190689086914</t>
@@ -1109,7 +1112,7 @@
     <t xml:space="preserve">8.28316974639893</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34724712371826</t>
+    <t xml:space="preserve">8.34724617004395</t>
   </si>
   <si>
     <t xml:space="preserve">8.48394775390625</t>
@@ -1121,22 +1124,22 @@
     <t xml:space="preserve">8.57792854309082</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8000659942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61210441589355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5437536239624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56084156036377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71462821960449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64627838134766</t>
+    <t xml:space="preserve">8.80006694793701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61210346221924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54375267028809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56084060668945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71462917327881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64627933502197</t>
   </si>
   <si>
     <t xml:space="preserve">8.52666568756104</t>
@@ -1151,10 +1154,10 @@
     <t xml:space="preserve">8.44122886657715</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26180934906006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07384777069092</t>
+    <t xml:space="preserve">8.26181030273438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0738468170166</t>
   </si>
   <si>
     <t xml:space="preserve">8.04821586608887</t>
@@ -1163,10 +1166,10 @@
     <t xml:space="preserve">7.97132158279419</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18491554260254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03112888336182</t>
+    <t xml:space="preserve">8.18491649627686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0311279296875</t>
   </si>
   <si>
     <t xml:space="preserve">8.381422996521</t>
@@ -1178,19 +1181,19 @@
     <t xml:space="preserve">8.81715297698975</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8855037689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8342399597168</t>
+    <t xml:space="preserve">8.88550281524658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83424091339111</t>
   </si>
   <si>
     <t xml:space="preserve">8.68045425415039</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66336536407471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90259265899658</t>
+    <t xml:space="preserve">8.66336631774902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90259075164795</t>
   </si>
   <si>
     <t xml:space="preserve">9.00511646270752</t>
@@ -1199,13 +1202,13 @@
     <t xml:space="preserve">9.43230438232422</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3126916885376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19307899475098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17599105834961</t>
+    <t xml:space="preserve">9.31269073486328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19307994842529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17599201202393</t>
   </si>
   <si>
     <t xml:space="preserve">9.10764122009277</t>
@@ -1214,10 +1217,10 @@
     <t xml:space="preserve">9.15890407562256</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32978057861328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48356628417969</t>
+    <t xml:space="preserve">9.32977867126465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.483567237854</t>
   </si>
   <si>
     <t xml:space="preserve">10.2866792678833</t>
@@ -1226,10 +1229,10 @@
     <t xml:space="preserve">10.6455173492432</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7480411529541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6967811584473</t>
+    <t xml:space="preserve">10.7480421066284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6967802047729</t>
   </si>
   <si>
     <t xml:space="preserve">11.0385293960571</t>
@@ -1241,13 +1244,13 @@
     <t xml:space="preserve">11.4486293792725</t>
   </si>
   <si>
-    <t xml:space="preserve">11.551155090332</t>
+    <t xml:space="preserve">11.5511560440063</t>
   </si>
   <si>
     <t xml:space="preserve">11.624963760376</t>
   </si>
   <si>
-    <t xml:space="preserve">11.957106590271</t>
+    <t xml:space="preserve">11.9571056365967</t>
   </si>
   <si>
     <t xml:space="preserve">11.9202013015747</t>
@@ -1256,7 +1259,7 @@
     <t xml:space="preserve">11.4957981109619</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3850841522217</t>
+    <t xml:space="preserve">11.3850831985474</t>
   </si>
   <si>
     <t xml:space="preserve">11.3666315078735</t>
@@ -1265,7 +1268,7 @@
     <t xml:space="preserve">11.0344896316528</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9606809616089</t>
+    <t xml:space="preserve">10.9606800079346</t>
   </si>
   <si>
     <t xml:space="preserve">10.5731821060181</t>
@@ -1277,16 +1280,16 @@
     <t xml:space="preserve">10.683895111084</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7208003997803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5547285079956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.241039276123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0749702453613</t>
+    <t xml:space="preserve">10.720799446106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5547294616699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2410402297974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.074969291687</t>
   </si>
   <si>
     <t xml:space="preserve">10.0565166473389</t>
@@ -1295,10 +1298,10 @@
     <t xml:space="preserve">10.1303253173828</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3517532348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.148777961731</t>
+    <t xml:space="preserve">10.3517541885376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1487770080566</t>
   </si>
   <si>
     <t xml:space="preserve">10.2963972091675</t>
@@ -1319,7 +1322,7 @@
     <t xml:space="preserve">10.5178241729736</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4071102142334</t>
+    <t xml:space="preserve">10.4071092605591</t>
   </si>
   <si>
     <t xml:space="preserve">10.2779445648193</t>
@@ -1328,7 +1331,7 @@
     <t xml:space="preserve">10.1672315597534</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85354042053223</t>
+    <t xml:space="preserve">9.85354137420654</t>
   </si>
   <si>
     <t xml:space="preserve">9.87199306488037</t>
@@ -1340,13 +1343,13 @@
     <t xml:space="preserve">9.53985023498535</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74282646179199</t>
+    <t xml:space="preserve">9.74282741546631</t>
   </si>
   <si>
     <t xml:space="preserve">9.79818439483643</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72437477111816</t>
+    <t xml:space="preserve">9.72437381744385</t>
   </si>
   <si>
     <t xml:space="preserve">9.68747043609619</t>
@@ -1358,7 +1361,7 @@
     <t xml:space="preserve">9.76128005981445</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63211154937744</t>
+    <t xml:space="preserve">9.63211250305176</t>
   </si>
   <si>
     <t xml:space="preserve">9.37378120422363</t>
@@ -1367,7 +1370,7 @@
     <t xml:space="preserve">9.3184232711792</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42913722991943</t>
+    <t xml:space="preserve">9.42913818359375</t>
   </si>
   <si>
     <t xml:space="preserve">9.39223384857178</t>
@@ -1382,16 +1385,16 @@
     <t xml:space="preserve">9.15235233306885</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99550819396973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94015121459961</t>
+    <t xml:space="preserve">8.99550724029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94015026092529</t>
   </si>
   <si>
     <t xml:space="preserve">9.09699535369873</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02318668365479</t>
+    <t xml:space="preserve">9.02318572998047</t>
   </si>
   <si>
     <t xml:space="preserve">9.04163837432861</t>
@@ -1403,7 +1406,7 @@
     <t xml:space="preserve">8.58033084869385</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34045028686523</t>
+    <t xml:space="preserve">8.34044933319092</t>
   </si>
   <si>
     <t xml:space="preserve">8.9862813949585</t>
@@ -1412,7 +1415,7 @@
     <t xml:space="preserve">8.76485347747803</t>
   </si>
   <si>
-    <t xml:space="preserve">8.700270652771</t>
+    <t xml:space="preserve">8.70026969909668</t>
   </si>
   <si>
     <t xml:space="preserve">8.71872329711914</t>
@@ -1421,10 +1424,10 @@
     <t xml:space="preserve">8.69104480743408</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4142599105835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50652122497559</t>
+    <t xml:space="preserve">8.41425895690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5065221786499</t>
   </si>
   <si>
     <t xml:space="preserve">9.46604251861572</t>
@@ -1433,7 +1436,7 @@
     <t xml:space="preserve">9.44758892059326</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26306629180908</t>
+    <t xml:space="preserve">9.26306533813477</t>
   </si>
   <si>
     <t xml:space="preserve">9.06931686401367</t>
@@ -1451,7 +1454,7 @@
     <t xml:space="preserve">9.0324125289917</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06009006500244</t>
+    <t xml:space="preserve">9.06009101867676</t>
   </si>
   <si>
     <t xml:space="preserve">8.94937610626221</t>
@@ -1472,15 +1475,12 @@
     <t xml:space="preserve">8.83866310119629</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77408027648926</t>
+    <t xml:space="preserve">8.77408123016357</t>
   </si>
   <si>
     <t xml:space="preserve">8.65413951873779</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66336631774902</t>
-  </si>
-  <si>
     <t xml:space="preserve">8.46961688995361</t>
   </si>
   <si>
@@ -1490,19 +1490,19 @@
     <t xml:space="preserve">8.30354595184326</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79610633850098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75920152664185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74075078964233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6115837097168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64848804473877</t>
+    <t xml:space="preserve">7.79610681533813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.759202003479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74075031280518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61158323287964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64848852157593</t>
   </si>
   <si>
     <t xml:space="preserve">7.54700040817261</t>
@@ -1514,7 +1514,7 @@
     <t xml:space="preserve">7.45473861694336</t>
   </si>
   <si>
-    <t xml:space="preserve">7.13182353973389</t>
+    <t xml:space="preserve">7.13182306289673</t>
   </si>
   <si>
     <t xml:space="preserve">7.15950155258179</t>
@@ -1526,7 +1526,7 @@
     <t xml:space="preserve">7.21485900878906</t>
   </si>
   <si>
-    <t xml:space="preserve">7.35325050354004</t>
+    <t xml:space="preserve">7.3532509803772</t>
   </si>
   <si>
     <t xml:space="preserve">7.37170314788818</t>
@@ -1535,19 +1535,19 @@
     <t xml:space="preserve">7.53777456283569</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4731912612915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82378435134888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86069011688232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74997568130493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51009607315063</t>
+    <t xml:space="preserve">7.47319078445435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82378482818604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86069059371948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74997520446777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51009654998779</t>
   </si>
   <si>
     <t xml:space="preserve">7.6392617225647</t>
@@ -1559,43 +1559,43 @@
     <t xml:space="preserve">7.3993821144104</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56545257568359</t>
+    <t xml:space="preserve">7.56545209884644</t>
   </si>
   <si>
     <t xml:space="preserve">7.27944135665894</t>
   </si>
   <si>
-    <t xml:space="preserve">7.19640636444092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20563173294067</t>
+    <t xml:space="preserve">7.19640684127808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20563220977783</t>
   </si>
   <si>
     <t xml:space="preserve">7.11337089538574</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10414409637451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49164342880249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59313058853149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58390522003174</t>
+    <t xml:space="preserve">7.10414457321167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49164390563965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59313011169434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5839056968689</t>
   </si>
   <si>
     <t xml:space="preserve">7.52854776382446</t>
   </si>
   <si>
-    <t xml:space="preserve">7.39015531539917</t>
+    <t xml:space="preserve">7.39015579223633</t>
   </si>
   <si>
     <t xml:space="preserve">7.34402465820312</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33479833602905</t>
+    <t xml:space="preserve">7.33479881286621</t>
   </si>
   <si>
     <t xml:space="preserve">7.36247777938843</t>
@@ -1613,13 +1613,13 @@
     <t xml:space="preserve">7.73152351379395</t>
   </si>
   <si>
-    <t xml:space="preserve">7.77765417098999</t>
+    <t xml:space="preserve">7.77765464782715</t>
   </si>
   <si>
     <t xml:space="preserve">7.92527294158936</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10057067871094</t>
+    <t xml:space="preserve">8.10056972503662</t>
   </si>
   <si>
     <t xml:space="preserve">8.43271160125732</t>
@@ -1631,7 +1631,7 @@
     <t xml:space="preserve">8.55265235900879</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46039009094238</t>
+    <t xml:space="preserve">8.4603910446167</t>
   </si>
   <si>
     <t xml:space="preserve">8.40503311157227</t>
@@ -1643,37 +1643,37 @@
     <t xml:space="preserve">9.08777046203613</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19848346710205</t>
+    <t xml:space="preserve">9.19848251342773</t>
   </si>
   <si>
     <t xml:space="preserve">8.80175876617432</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17080402374268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11544799804688</t>
+    <t xml:space="preserve">9.17080497741699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11544895172119</t>
   </si>
   <si>
     <t xml:space="preserve">8.85711479187012</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72794914245605</t>
+    <t xml:space="preserve">8.72794818878174</t>
   </si>
   <si>
     <t xml:space="preserve">8.92169857025146</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07854270935059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97705554962158</t>
+    <t xml:space="preserve">9.0785436630249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97705459594727</t>
   </si>
   <si>
     <t xml:space="preserve">8.96782970428467</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91247272491455</t>
+    <t xml:space="preserve">8.91247177124023</t>
   </si>
   <si>
     <t xml:space="preserve">8.86634159088135</t>
@@ -1685,16 +1685,16 @@
     <t xml:space="preserve">8.64491367340088</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74640083312988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31277275085449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44193744659424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.331223487854</t>
+    <t xml:space="preserve">8.7464017868042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31277179718018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44193840026855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33122444152832</t>
   </si>
   <si>
     <t xml:space="preserve">8.1836051940918</t>
@@ -1709,7 +1709,7 @@
     <t xml:space="preserve">8.49729537963867</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5157470703125</t>
+    <t xml:space="preserve">8.51574611663818</t>
   </si>
   <si>
     <t xml:space="preserve">8.53420066833496</t>
@@ -1718,7 +1718,7 @@
     <t xml:space="preserve">8.5618782043457</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48806858062744</t>
+    <t xml:space="preserve">8.48806953430176</t>
   </si>
   <si>
     <t xml:space="preserve">8.52497291564941</t>
@@ -3909,6 +3909,9 @@
   </si>
   <si>
     <t xml:space="preserve">25.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1000003814697</t>
   </si>
 </sst>
 </file>
@@ -7336,7 +7339,7 @@
         <v>7.34999990463257</v>
       </c>
       <c r="G119" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="H119" t="s">
         <v>9</v>
@@ -7362,7 +7365,7 @@
         <v>7.29500007629395</v>
       </c>
       <c r="G120" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H120" t="s">
         <v>9</v>
@@ -7388,7 +7391,7 @@
         <v>7.17999982833862</v>
       </c>
       <c r="G121" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H121" t="s">
         <v>9</v>
@@ -7414,7 +7417,7 @@
         <v>7.19999980926514</v>
       </c>
       <c r="G122" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H122" t="s">
         <v>9</v>
@@ -7466,7 +7469,7 @@
         <v>7.07000017166138</v>
       </c>
       <c r="G124" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H124" t="s">
         <v>9</v>
@@ -7492,7 +7495,7 @@
         <v>6.98999977111816</v>
       </c>
       <c r="G125" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H125" t="s">
         <v>9</v>
@@ -7518,7 +7521,7 @@
         <v>7.07999992370605</v>
       </c>
       <c r="G126" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H126" t="s">
         <v>9</v>
@@ -7544,7 +7547,7 @@
         <v>7.1399998664856</v>
       </c>
       <c r="G127" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H127" t="s">
         <v>9</v>
@@ -7570,7 +7573,7 @@
         <v>7.08500003814697</v>
       </c>
       <c r="G128" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H128" t="s">
         <v>9</v>
@@ -7596,7 +7599,7 @@
         <v>7.39499998092651</v>
       </c>
       <c r="G129" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H129" t="s">
         <v>9</v>
@@ -7700,7 +7703,7 @@
         <v>7.2649998664856</v>
       </c>
       <c r="G133" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H133" t="s">
         <v>9</v>
@@ -7726,7 +7729,7 @@
         <v>7.36999988555908</v>
       </c>
       <c r="G134" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H134" t="s">
         <v>9</v>
@@ -7778,7 +7781,7 @@
         <v>7.57000017166138</v>
       </c>
       <c r="G136" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H136" t="s">
         <v>9</v>
@@ -7830,7 +7833,7 @@
         <v>7.43499994277954</v>
       </c>
       <c r="G138" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H138" t="s">
         <v>9</v>
@@ -7856,7 +7859,7 @@
         <v>7.28499984741211</v>
       </c>
       <c r="G139" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H139" t="s">
         <v>9</v>
@@ -7882,7 +7885,7 @@
         <v>7.36499977111816</v>
       </c>
       <c r="G140" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H140" t="s">
         <v>9</v>
@@ -7934,7 +7937,7 @@
         <v>7.46000003814697</v>
       </c>
       <c r="G142" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H142" t="s">
         <v>9</v>
@@ -7986,7 +7989,7 @@
         <v>7.55000019073486</v>
       </c>
       <c r="G144" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H144" t="s">
         <v>9</v>
@@ -8012,7 +8015,7 @@
         <v>7.39499998092651</v>
       </c>
       <c r="G145" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H145" t="s">
         <v>9</v>
@@ -8038,7 +8041,7 @@
         <v>7.55000019073486</v>
       </c>
       <c r="G146" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H146" t="s">
         <v>9</v>
@@ -8090,7 +8093,7 @@
         <v>7.40500020980835</v>
       </c>
       <c r="G148" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H148" t="s">
         <v>9</v>
@@ -8116,7 +8119,7 @@
         <v>7.42999982833862</v>
       </c>
       <c r="G149" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H149" t="s">
         <v>9</v>
@@ -8142,7 +8145,7 @@
         <v>7.42999982833862</v>
       </c>
       <c r="G150" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H150" t="s">
         <v>9</v>
@@ -8194,7 +8197,7 @@
         <v>7.42000007629395</v>
       </c>
       <c r="G152" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H152" t="s">
         <v>9</v>
@@ -8246,7 +8249,7 @@
         <v>7.34000015258789</v>
       </c>
       <c r="G154" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H154" t="s">
         <v>9</v>
@@ -8324,7 +8327,7 @@
         <v>7.42500019073486</v>
       </c>
       <c r="G157" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H157" t="s">
         <v>9</v>
@@ -8350,7 +8353,7 @@
         <v>7.32999992370605</v>
       </c>
       <c r="G158" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H158" t="s">
         <v>9</v>
@@ -8376,7 +8379,7 @@
         <v>7.30999994277954</v>
       </c>
       <c r="G159" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H159" t="s">
         <v>9</v>
@@ -8402,7 +8405,7 @@
         <v>7.32999992370605</v>
       </c>
       <c r="G160" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H160" t="s">
         <v>9</v>
@@ -8428,7 +8431,7 @@
         <v>7.34999990463257</v>
       </c>
       <c r="G161" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="H161" t="s">
         <v>9</v>
@@ -8480,7 +8483,7 @@
         <v>7.21000003814697</v>
       </c>
       <c r="G163" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H163" t="s">
         <v>9</v>
@@ -8506,7 +8509,7 @@
         <v>7.07999992370605</v>
       </c>
       <c r="G164" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H164" t="s">
         <v>9</v>
@@ -8532,7 +8535,7 @@
         <v>7.30999994277954</v>
       </c>
       <c r="G165" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H165" t="s">
         <v>9</v>
@@ -8558,7 +8561,7 @@
         <v>7.375</v>
       </c>
       <c r="G166" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H166" t="s">
         <v>9</v>
@@ -8610,7 +8613,7 @@
         <v>7.34000015258789</v>
       </c>
       <c r="G168" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H168" t="s">
         <v>9</v>
@@ -8662,7 +8665,7 @@
         <v>7.23000001907349</v>
       </c>
       <c r="G170" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H170" t="s">
         <v>9</v>
@@ -8688,7 +8691,7 @@
         <v>7.15500020980835</v>
       </c>
       <c r="G171" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H171" t="s">
         <v>9</v>
@@ -8714,7 +8717,7 @@
         <v>7.19000005722046</v>
       </c>
       <c r="G172" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H172" t="s">
         <v>9</v>
@@ -8740,7 +8743,7 @@
         <v>7.28999996185303</v>
       </c>
       <c r="G173" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H173" t="s">
         <v>9</v>
@@ -8766,7 +8769,7 @@
         <v>7.19000005722046</v>
       </c>
       <c r="G174" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H174" t="s">
         <v>9</v>
@@ -8792,7 +8795,7 @@
         <v>7.19500017166138</v>
       </c>
       <c r="G175" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H175" t="s">
         <v>9</v>
@@ -8818,7 +8821,7 @@
         <v>7.25</v>
       </c>
       <c r="G176" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H176" t="s">
         <v>9</v>
@@ -8844,7 +8847,7 @@
         <v>7.19500017166138</v>
       </c>
       <c r="G177" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H177" t="s">
         <v>9</v>
@@ -8870,7 +8873,7 @@
         <v>7.2649998664856</v>
       </c>
       <c r="G178" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H178" t="s">
         <v>9</v>
@@ -8896,7 +8899,7 @@
         <v>7.1100001335144</v>
       </c>
       <c r="G179" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H179" t="s">
         <v>9</v>
@@ -8922,7 +8925,7 @@
         <v>7.16499996185303</v>
       </c>
       <c r="G180" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H180" t="s">
         <v>9</v>
@@ -8974,7 +8977,7 @@
         <v>7.03499984741211</v>
       </c>
       <c r="G182" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H182" t="s">
         <v>9</v>
@@ -9000,7 +9003,7 @@
         <v>7.02500009536743</v>
       </c>
       <c r="G183" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H183" t="s">
         <v>9</v>
@@ -9026,7 +9029,7 @@
         <v>7.16499996185303</v>
       </c>
       <c r="G184" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
@@ -9052,7 +9055,7 @@
         <v>7.06500005722046</v>
       </c>
       <c r="G185" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H185" t="s">
         <v>9</v>
@@ -9078,7 +9081,7 @@
         <v>7.19000005722046</v>
       </c>
       <c r="G186" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H186" t="s">
         <v>9</v>
@@ -9104,7 +9107,7 @@
         <v>7.07499980926514</v>
       </c>
       <c r="G187" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H187" t="s">
         <v>9</v>
@@ -9130,7 +9133,7 @@
         <v>6.95499992370605</v>
       </c>
       <c r="G188" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H188" t="s">
         <v>9</v>
@@ -9156,7 +9159,7 @@
         <v>6.98999977111816</v>
       </c>
       <c r="G189" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H189" t="s">
         <v>9</v>
@@ -9182,7 +9185,7 @@
         <v>7.13000011444092</v>
       </c>
       <c r="G190" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H190" t="s">
         <v>9</v>
@@ -9208,7 +9211,7 @@
         <v>7.17000007629395</v>
       </c>
       <c r="G191" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H191" t="s">
         <v>9</v>
@@ -9234,7 +9237,7 @@
         <v>7.17999982833862</v>
       </c>
       <c r="G192" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H192" t="s">
         <v>9</v>
@@ -9260,7 +9263,7 @@
         <v>7.17000007629395</v>
       </c>
       <c r="G193" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -9286,7 +9289,7 @@
         <v>7.09999990463257</v>
       </c>
       <c r="G194" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H194" t="s">
         <v>9</v>
@@ -9312,7 +9315,7 @@
         <v>7.19999980926514</v>
       </c>
       <c r="G195" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H195" t="s">
         <v>9</v>
@@ -9338,7 +9341,7 @@
         <v>7.19500017166138</v>
       </c>
       <c r="G196" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H196" t="s">
         <v>9</v>
@@ -9364,7 +9367,7 @@
         <v>7.17999982833862</v>
       </c>
       <c r="G197" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H197" t="s">
         <v>9</v>
@@ -9390,7 +9393,7 @@
         <v>7.15000009536743</v>
       </c>
       <c r="G198" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H198" t="s">
         <v>9</v>
@@ -9442,7 +9445,7 @@
         <v>7.15500020980835</v>
       </c>
       <c r="G200" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H200" t="s">
         <v>9</v>
@@ -9468,7 +9471,7 @@
         <v>7.32000017166138</v>
       </c>
       <c r="G201" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -9546,7 +9549,7 @@
         <v>7.76000022888184</v>
       </c>
       <c r="G204" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H204" t="s">
         <v>9</v>
@@ -9572,7 +9575,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G205" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H205" t="s">
         <v>9</v>
@@ -9598,7 +9601,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G206" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H206" t="s">
         <v>9</v>
@@ -9624,7 +9627,7 @@
         <v>7.8899998664856</v>
       </c>
       <c r="G207" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H207" t="s">
         <v>9</v>
@@ -9650,7 +9653,7 @@
         <v>7.90999984741211</v>
       </c>
       <c r="G208" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -9676,7 +9679,7 @@
         <v>7.79500007629395</v>
       </c>
       <c r="G209" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -9702,7 +9705,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G210" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H210" t="s">
         <v>9</v>
@@ -9728,7 +9731,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G211" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H211" t="s">
         <v>9</v>
@@ -9754,7 +9757,7 @@
         <v>7.71000003814697</v>
       </c>
       <c r="G212" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -9780,7 +9783,7 @@
         <v>7.71000003814697</v>
       </c>
       <c r="G213" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H213" t="s">
         <v>9</v>
@@ -9806,7 +9809,7 @@
         <v>7.73000001907349</v>
       </c>
       <c r="G214" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H214" t="s">
         <v>9</v>
@@ -9832,7 +9835,7 @@
         <v>7.71000003814697</v>
       </c>
       <c r="G215" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -9858,7 +9861,7 @@
         <v>7.53000020980835</v>
       </c>
       <c r="G216" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -9884,7 +9887,7 @@
         <v>7.65500020980835</v>
       </c>
       <c r="G217" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -9910,7 +9913,7 @@
         <v>7.70499992370605</v>
       </c>
       <c r="G218" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -9936,7 +9939,7 @@
         <v>7.73999977111816</v>
       </c>
       <c r="G219" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -9962,7 +9965,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G220" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H220" t="s">
         <v>9</v>
@@ -9988,7 +9991,7 @@
         <v>7.8600001335144</v>
       </c>
       <c r="G221" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H221" t="s">
         <v>9</v>
@@ -10014,7 +10017,7 @@
         <v>7.65999984741211</v>
       </c>
       <c r="G222" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -10040,7 +10043,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G223" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H223" t="s">
         <v>9</v>
@@ -10066,7 +10069,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G224" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -10092,7 +10095,7 @@
         <v>7.69500017166138</v>
       </c>
       <c r="G225" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H225" t="s">
         <v>9</v>
@@ -10118,7 +10121,7 @@
         <v>7.61499977111816</v>
       </c>
       <c r="G226" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -10144,7 +10147,7 @@
         <v>7.71999979019165</v>
       </c>
       <c r="G227" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -10170,7 +10173,7 @@
         <v>7.61499977111816</v>
       </c>
       <c r="G228" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -10196,7 +10199,7 @@
         <v>7.46999979019165</v>
       </c>
       <c r="G229" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H229" t="s">
         <v>9</v>
@@ -10222,7 +10225,7 @@
         <v>7.32000017166138</v>
       </c>
       <c r="G230" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H230" t="s">
         <v>9</v>
@@ -10248,7 +10251,7 @@
         <v>7.21000003814697</v>
       </c>
       <c r="G231" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -10274,7 +10277,7 @@
         <v>7.21500015258789</v>
       </c>
       <c r="G232" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -10300,7 +10303,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G233" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -10326,7 +10329,7 @@
         <v>7.19000005722046</v>
       </c>
       <c r="G234" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -10352,7 +10355,7 @@
         <v>7.19000005722046</v>
       </c>
       <c r="G235" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -10378,7 +10381,7 @@
         <v>7.26999998092651</v>
       </c>
       <c r="G236" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -10404,7 +10407,7 @@
         <v>7.28000020980835</v>
       </c>
       <c r="G237" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -10430,7 +10433,7 @@
         <v>7.21500015258789</v>
       </c>
       <c r="G238" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -10482,7 +10485,7 @@
         <v>7.46999979019165</v>
       </c>
       <c r="G240" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
@@ -10560,7 +10563,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G243" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -10586,7 +10589,7 @@
         <v>7.6399998664856</v>
       </c>
       <c r="G244" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -10612,7 +10615,7 @@
         <v>7.69000005722046</v>
       </c>
       <c r="G245" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H245" t="s">
         <v>9</v>
@@ -10638,7 +10641,7 @@
         <v>7.59000015258789</v>
       </c>
       <c r="G246" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -10664,7 +10667,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G247" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H247" t="s">
         <v>9</v>
@@ -10690,7 +10693,7 @@
         <v>7.74499988555908</v>
       </c>
       <c r="G248" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -10768,7 +10771,7 @@
         <v>7.61499977111816</v>
       </c>
       <c r="G251" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H251" t="s">
         <v>9</v>
@@ -10794,7 +10797,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G252" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H252" t="s">
         <v>9</v>
@@ -10846,7 +10849,7 @@
         <v>7.53999996185303</v>
       </c>
       <c r="G254" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -10872,7 +10875,7 @@
         <v>7.45499992370605</v>
       </c>
       <c r="G255" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -10950,7 +10953,7 @@
         <v>8.09000015258789</v>
       </c>
       <c r="G258" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -10976,7 +10979,7 @@
         <v>8.06999969482422</v>
       </c>
       <c r="G259" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -11002,7 +11005,7 @@
         <v>8.02999973297119</v>
       </c>
       <c r="G260" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H260" t="s">
         <v>9</v>
@@ -11028,7 +11031,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G261" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -11054,7 +11057,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G262" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -11080,7 +11083,7 @@
         <v>8.5</v>
       </c>
       <c r="G263" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -11106,7 +11109,7 @@
         <v>8.69999980926514</v>
       </c>
       <c r="G264" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -11132,7 +11135,7 @@
         <v>8.67000007629395</v>
       </c>
       <c r="G265" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -11158,7 +11161,7 @@
         <v>8.49499988555908</v>
       </c>
       <c r="G266" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H266" t="s">
         <v>9</v>
@@ -11184,7 +11187,7 @@
         <v>8.47000026702881</v>
       </c>
       <c r="G267" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -11210,7 +11213,7 @@
         <v>8.55000019073486</v>
       </c>
       <c r="G268" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -11236,7 +11239,7 @@
         <v>8.47999954223633</v>
       </c>
       <c r="G269" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -11262,7 +11265,7 @@
         <v>8.52000045776367</v>
       </c>
       <c r="G270" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -11288,7 +11291,7 @@
         <v>8.52000045776367</v>
       </c>
       <c r="G271" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -11314,7 +11317,7 @@
         <v>8.5</v>
       </c>
       <c r="G272" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H272" t="s">
         <v>9</v>
@@ -11340,7 +11343,7 @@
         <v>8.4399995803833</v>
       </c>
       <c r="G273" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -11366,7 +11369,7 @@
         <v>8.70499992370605</v>
       </c>
       <c r="G274" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -11392,7 +11395,7 @@
         <v>9.18000030517578</v>
       </c>
       <c r="G275" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H275" t="s">
         <v>9</v>
@@ -11418,7 +11421,7 @@
         <v>9.22000026702881</v>
       </c>
       <c r="G276" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -11444,7 +11447,7 @@
         <v>9.17500019073486</v>
       </c>
       <c r="G277" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -11470,7 +11473,7 @@
         <v>8.5600004196167</v>
       </c>
       <c r="G278" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -11496,7 +11499,7 @@
         <v>8.81999969482422</v>
       </c>
       <c r="G279" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -11522,7 +11525,7 @@
         <v>8.98999977111816</v>
       </c>
       <c r="G280" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -11548,7 +11551,7 @@
         <v>9.02999973297119</v>
       </c>
       <c r="G281" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -11574,7 +11577,7 @@
         <v>9.04500007629395</v>
       </c>
       <c r="G282" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
@@ -11600,7 +11603,7 @@
         <v>8.97999954223633</v>
       </c>
       <c r="G283" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -11626,7 +11629,7 @@
         <v>8.78999996185303</v>
       </c>
       <c r="G284" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H284" t="s">
         <v>9</v>
@@ -11652,7 +11655,7 @@
         <v>8.65999984741211</v>
       </c>
       <c r="G285" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -11678,7 +11681,7 @@
         <v>8.57999992370605</v>
       </c>
       <c r="G286" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -11704,7 +11707,7 @@
         <v>8.38500022888184</v>
       </c>
       <c r="G287" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -11730,7 +11733,7 @@
         <v>8.53999996185303</v>
       </c>
       <c r="G288" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -11756,7 +11759,7 @@
         <v>8.52499961853027</v>
       </c>
       <c r="G289" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -11782,7 +11785,7 @@
         <v>8.50500011444092</v>
       </c>
       <c r="G290" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -11808,7 +11811,7 @@
         <v>8.5</v>
       </c>
       <c r="G291" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -11834,7 +11837,7 @@
         <v>8.46000003814697</v>
       </c>
       <c r="G292" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -11860,7 +11863,7 @@
         <v>8.25500011444092</v>
       </c>
       <c r="G293" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -11886,7 +11889,7 @@
         <v>8.39999961853027</v>
       </c>
       <c r="G294" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -11912,7 +11915,7 @@
         <v>8.47999954223633</v>
       </c>
       <c r="G295" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H295" t="s">
         <v>9</v>
@@ -11938,7 +11941,7 @@
         <v>8.47500038146973</v>
       </c>
       <c r="G296" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -11964,7 +11967,7 @@
         <v>8.31999969482422</v>
       </c>
       <c r="G297" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -11990,7 +11993,7 @@
         <v>8.35000038146973</v>
       </c>
       <c r="G298" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -12016,7 +12019,7 @@
         <v>8.40499973297119</v>
       </c>
       <c r="G299" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -12042,7 +12045,7 @@
         <v>8.5600004196167</v>
       </c>
       <c r="G300" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -12068,7 +12071,7 @@
         <v>8.70499992370605</v>
       </c>
       <c r="G301" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -12094,7 +12097,7 @@
         <v>8.72999954223633</v>
       </c>
       <c r="G302" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -12120,7 +12123,7 @@
         <v>8.77999973297119</v>
       </c>
       <c r="G303" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -12146,7 +12149,7 @@
         <v>9.10999965667725</v>
       </c>
       <c r="G304" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -12172,7 +12175,7 @@
         <v>9.06999969482422</v>
       </c>
       <c r="G305" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -12198,7 +12201,7 @@
         <v>9.22999954223633</v>
       </c>
       <c r="G306" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -12224,7 +12227,7 @@
         <v>9.28999996185303</v>
       </c>
       <c r="G307" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -12250,7 +12253,7 @@
         <v>9.25</v>
       </c>
       <c r="G308" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -12276,7 +12279,7 @@
         <v>9.22000026702881</v>
       </c>
       <c r="G309" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -12302,7 +12305,7 @@
         <v>9.54500007629395</v>
       </c>
       <c r="G310" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -12328,7 +12331,7 @@
         <v>9.67000007629395</v>
       </c>
       <c r="G311" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -12354,7 +12357,7 @@
         <v>9.69999980926514</v>
       </c>
       <c r="G312" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -12380,7 +12383,7 @@
         <v>9.75</v>
       </c>
       <c r="G313" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -12406,7 +12409,7 @@
         <v>9.48499965667725</v>
       </c>
       <c r="G314" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -12432,7 +12435,7 @@
         <v>9.69999980926514</v>
       </c>
       <c r="G315" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -12458,7 +12461,7 @@
         <v>9.97500038146973</v>
       </c>
       <c r="G316" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -12484,7 +12487,7 @@
         <v>9.89500045776367</v>
       </c>
       <c r="G317" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -12510,7 +12513,7 @@
         <v>9.97000026702881</v>
       </c>
       <c r="G318" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -12536,7 +12539,7 @@
         <v>10.25</v>
       </c>
       <c r="G319" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -12562,7 +12565,7 @@
         <v>10.2600002288818</v>
       </c>
       <c r="G320" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -12588,7 +12591,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G321" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -12614,7 +12617,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G322" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -12640,7 +12643,7 @@
         <v>10.1400003433228</v>
       </c>
       <c r="G323" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -12666,7 +12669,7 @@
         <v>10.1899995803833</v>
       </c>
       <c r="G324" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -12692,7 +12695,7 @@
         <v>10.4200000762939</v>
       </c>
       <c r="G325" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -12718,7 +12721,7 @@
         <v>10.4300003051758</v>
       </c>
       <c r="G326" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -12744,7 +12747,7 @@
         <v>10.3800001144409</v>
       </c>
       <c r="G327" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -12770,7 +12773,7 @@
         <v>10.3000001907349</v>
       </c>
       <c r="G328" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -12796,7 +12799,7 @@
         <v>10.0600004196167</v>
       </c>
       <c r="G329" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -12822,7 +12825,7 @@
         <v>9.97500038146973</v>
       </c>
       <c r="G330" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -12848,7 +12851,7 @@
         <v>9.71000003814697</v>
       </c>
       <c r="G331" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -12874,7 +12877,7 @@
         <v>9.38000011444092</v>
       </c>
       <c r="G332" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -12900,7 +12903,7 @@
         <v>9.61499977111816</v>
       </c>
       <c r="G333" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -12926,7 +12929,7 @@
         <v>9.75</v>
       </c>
       <c r="G334" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -12952,7 +12955,7 @@
         <v>9.875</v>
       </c>
       <c r="G335" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -12978,7 +12981,7 @@
         <v>10.1899995803833</v>
       </c>
       <c r="G336" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -13004,7 +13007,7 @@
         <v>10.2799997329712</v>
       </c>
       <c r="G337" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -13030,7 +13033,7 @@
         <v>10.3900003433228</v>
       </c>
       <c r="G338" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -13056,7 +13059,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G339" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -13082,7 +13085,7 @@
         <v>10.6999998092651</v>
       </c>
       <c r="G340" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -13108,7 +13111,7 @@
         <v>11.3199996948242</v>
       </c>
       <c r="G341" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -13134,7 +13137,7 @@
         <v>11.4099998474121</v>
       </c>
       <c r="G342" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -13160,7 +13163,7 @@
         <v>12.1800003051758</v>
       </c>
       <c r="G343" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -13186,7 +13189,7 @@
         <v>12.2700004577637</v>
       </c>
       <c r="G344" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -13212,7 +13215,7 @@
         <v>12.6700000762939</v>
       </c>
       <c r="G345" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -13238,7 +13241,7 @@
         <v>12.9099998474121</v>
       </c>
       <c r="G346" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -13264,7 +13267,7 @@
         <v>12.9899997711182</v>
       </c>
       <c r="G347" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -13290,7 +13293,7 @@
         <v>12.4300003051758</v>
       </c>
       <c r="G348" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -13316,7 +13319,7 @@
         <v>12.5</v>
       </c>
       <c r="G349" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -13342,7 +13345,7 @@
         <v>12.4700002670288</v>
       </c>
       <c r="G350" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -13368,7 +13371,7 @@
         <v>12.3299999237061</v>
       </c>
       <c r="G351" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -13394,7 +13397,7 @@
         <v>11.6400003433228</v>
       </c>
       <c r="G352" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -13420,7 +13423,7 @@
         <v>11.8599996566772</v>
       </c>
       <c r="G353" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -13446,7 +13449,7 @@
         <v>11.9300003051758</v>
       </c>
       <c r="G354" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -13472,7 +13475,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G355" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -13498,7 +13501,7 @@
         <v>11.9899997711182</v>
       </c>
       <c r="G356" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -13524,7 +13527,7 @@
         <v>12</v>
       </c>
       <c r="G357" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -13550,7 +13553,7 @@
         <v>11.9899997711182</v>
       </c>
       <c r="G358" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -13576,7 +13579,7 @@
         <v>11.9899997711182</v>
       </c>
       <c r="G359" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -13602,7 +13605,7 @@
         <v>11.8800001144409</v>
       </c>
       <c r="G360" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -13628,7 +13631,7 @@
         <v>12.2399997711182</v>
       </c>
       <c r="G361" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -13654,7 +13657,7 @@
         <v>12.6199998855591</v>
       </c>
       <c r="G362" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -13680,7 +13683,7 @@
         <v>12.5699996948242</v>
       </c>
       <c r="G363" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -13706,7 +13709,7 @@
         <v>12.5100002288818</v>
       </c>
       <c r="G364" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -13732,7 +13735,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G365" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -13758,7 +13761,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G366" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -13784,7 +13787,7 @@
         <v>12.6400003433228</v>
       </c>
       <c r="G367" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -13810,7 +13813,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G368" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -13836,7 +13839,7 @@
         <v>12.5299997329712</v>
       </c>
       <c r="G369" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -13862,7 +13865,7 @@
         <v>12.539999961853</v>
       </c>
       <c r="G370" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -13888,7 +13891,7 @@
         <v>12.2799997329712</v>
       </c>
       <c r="G371" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -13914,7 +13917,7 @@
         <v>12.210000038147</v>
       </c>
       <c r="G372" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -13940,7 +13943,7 @@
         <v>11.9300003051758</v>
       </c>
       <c r="G373" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -13966,7 +13969,7 @@
         <v>12.1099996566772</v>
       </c>
       <c r="G374" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -13992,7 +13995,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G375" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -14018,7 +14021,7 @@
         <v>11.9300003051758</v>
       </c>
       <c r="G376" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -14044,7 +14047,7 @@
         <v>11.8400001525879</v>
       </c>
       <c r="G377" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -14070,7 +14073,7 @@
         <v>11.6800003051758</v>
       </c>
       <c r="G378" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -14096,7 +14099,7 @@
         <v>11.5900001525879</v>
       </c>
       <c r="G379" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -14122,7 +14125,7 @@
         <v>11.5299997329712</v>
       </c>
       <c r="G380" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -14148,7 +14151,7 @@
         <v>11.3299999237061</v>
       </c>
       <c r="G381" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -14174,7 +14177,7 @@
         <v>11.1199998855591</v>
       </c>
       <c r="G382" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -14200,7 +14203,7 @@
         <v>10.7299995422363</v>
       </c>
       <c r="G383" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -14226,7 +14229,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G384" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -14252,7 +14255,7 @@
         <v>10.8199996948242</v>
       </c>
       <c r="G385" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -14278,7 +14281,7 @@
         <v>10.8400001525879</v>
       </c>
       <c r="G386" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -14304,7 +14307,7 @@
         <v>10.8900003433228</v>
       </c>
       <c r="G387" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -14330,7 +14333,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G388" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -14356,7 +14359,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G389" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -14382,7 +14385,7 @@
         <v>10.8800001144409</v>
       </c>
       <c r="G390" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -14408,7 +14411,7 @@
         <v>11</v>
       </c>
       <c r="G391" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -14434,7 +14437,7 @@
         <v>10.8599996566772</v>
       </c>
       <c r="G392" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -14460,7 +14463,7 @@
         <v>11.0500001907349</v>
       </c>
       <c r="G393" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -14486,7 +14489,7 @@
         <v>11.4200000762939</v>
       </c>
       <c r="G394" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -14512,7 +14515,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G395" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -14538,7 +14541,7 @@
         <v>11.8299999237061</v>
       </c>
       <c r="G396" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -14564,7 +14567,7 @@
         <v>11.8400001525879</v>
       </c>
       <c r="G397" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -14590,7 +14593,7 @@
         <v>11.6700000762939</v>
       </c>
       <c r="G398" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -14616,7 +14619,7 @@
         <v>11.6099996566772</v>
       </c>
       <c r="G399" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -14642,7 +14645,7 @@
         <v>12.0500001907349</v>
       </c>
       <c r="G400" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -14668,7 +14671,7 @@
         <v>12.0600004196167</v>
       </c>
       <c r="G401" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -14694,7 +14697,7 @@
         <v>11.9899997711182</v>
       </c>
       <c r="G402" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -14720,7 +14723,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G403" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -14746,7 +14749,7 @@
         <v>12.0900001525879</v>
       </c>
       <c r="G404" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -14772,7 +14775,7 @@
         <v>12.0500001907349</v>
       </c>
       <c r="G405" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -14798,7 +14801,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G406" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -14824,7 +14827,7 @@
         <v>12.1300001144409</v>
       </c>
       <c r="G407" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -14850,7 +14853,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G408" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -14876,7 +14879,7 @@
         <v>11.8800001144409</v>
       </c>
       <c r="G409" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -14902,7 +14905,7 @@
         <v>12.2200002670288</v>
       </c>
       <c r="G410" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -14928,7 +14931,7 @@
         <v>12.210000038147</v>
       </c>
       <c r="G411" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -14954,7 +14957,7 @@
         <v>12.0299997329712</v>
       </c>
       <c r="G412" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -14980,7 +14983,7 @@
         <v>11.8100004196167</v>
       </c>
       <c r="G413" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -15006,7 +15009,7 @@
         <v>11.6700000762939</v>
       </c>
       <c r="G414" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -15032,7 +15035,7 @@
         <v>11.75</v>
       </c>
       <c r="G415" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -15058,7 +15061,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G416" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -15084,7 +15087,7 @@
         <v>12.0500001907349</v>
       </c>
       <c r="G417" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -15110,7 +15113,7 @@
         <v>11.8800001144409</v>
       </c>
       <c r="G418" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -15136,7 +15139,7 @@
         <v>11.6599998474121</v>
       </c>
       <c r="G419" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -15162,7 +15165,7 @@
         <v>11.6199998855591</v>
       </c>
       <c r="G420" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -15188,7 +15191,7 @@
         <v>11.4899997711182</v>
       </c>
       <c r="G421" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -15214,7 +15217,7 @@
         <v>11.210000038147</v>
       </c>
       <c r="G422" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -15240,7 +15243,7 @@
         <v>11.4399995803833</v>
       </c>
       <c r="G423" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -15266,7 +15269,7 @@
         <v>11.1499996185303</v>
       </c>
       <c r="G424" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -15292,7 +15295,7 @@
         <v>11.0299997329712</v>
       </c>
       <c r="G425" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -15318,7 +15321,7 @@
         <v>11.2799997329712</v>
       </c>
       <c r="G426" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -15344,7 +15347,7 @@
         <v>11.5299997329712</v>
       </c>
       <c r="G427" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -15370,7 +15373,7 @@
         <v>11.3900003433228</v>
       </c>
       <c r="G428" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -15396,7 +15399,7 @@
         <v>11.210000038147</v>
       </c>
       <c r="G429" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -15422,7 +15425,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G430" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -15448,7 +15451,7 @@
         <v>11.0699996948242</v>
       </c>
       <c r="G431" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -15474,7 +15477,7 @@
         <v>11.1199998855591</v>
       </c>
       <c r="G432" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -15500,7 +15503,7 @@
         <v>10.9399995803833</v>
       </c>
       <c r="G433" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -15526,7 +15529,7 @@
         <v>11.0600004196167</v>
       </c>
       <c r="G434" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -15552,7 +15555,7 @@
         <v>11.1400003433228</v>
       </c>
       <c r="G435" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -15578,7 +15581,7 @@
         <v>11.2200002670288</v>
       </c>
       <c r="G436" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -15604,7 +15607,7 @@
         <v>11.1400003433228</v>
       </c>
       <c r="G437" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -15630,7 +15633,7 @@
         <v>11.0500001907349</v>
       </c>
       <c r="G438" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -15656,7 +15659,7 @@
         <v>11.0600004196167</v>
       </c>
       <c r="G439" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -15682,7 +15685,7 @@
         <v>10.9300003051758</v>
       </c>
       <c r="G440" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -15708,7 +15711,7 @@
         <v>10.8900003433228</v>
       </c>
       <c r="G441" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -15734,7 +15737,7 @@
         <v>10.8800001144409</v>
       </c>
       <c r="G442" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -15760,7 +15763,7 @@
         <v>10.8500003814697</v>
       </c>
       <c r="G443" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -15786,7 +15789,7 @@
         <v>10.8900003433228</v>
       </c>
       <c r="G444" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -15812,7 +15815,7 @@
         <v>11.3000001907349</v>
       </c>
       <c r="G445" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -15838,7 +15841,7 @@
         <v>11.6700000762939</v>
       </c>
       <c r="G446" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -15864,7 +15867,7 @@
         <v>11.4399995803833</v>
       </c>
       <c r="G447" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -15890,7 +15893,7 @@
         <v>11.1899995803833</v>
       </c>
       <c r="G448" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -15916,7 +15919,7 @@
         <v>11.8800001144409</v>
       </c>
       <c r="G449" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -15942,7 +15945,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G450" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -15968,7 +15971,7 @@
         <v>11.4099998474121</v>
       </c>
       <c r="G451" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -15994,7 +15997,7 @@
         <v>11.4200000762939</v>
       </c>
       <c r="G452" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -16020,7 +16023,7 @@
         <v>11.2200002670288</v>
       </c>
       <c r="G453" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -16046,7 +16049,7 @@
         <v>11.3900003433228</v>
       </c>
       <c r="G454" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -16072,7 +16075,7 @@
         <v>11.2799997329712</v>
       </c>
       <c r="G455" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -16098,7 +16101,7 @@
         <v>11.3699998855591</v>
       </c>
       <c r="G456" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -16124,7 +16127,7 @@
         <v>11.3599996566772</v>
       </c>
       <c r="G457" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -16150,7 +16153,7 @@
         <v>11.5</v>
       </c>
       <c r="G458" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -16176,7 +16179,7 @@
         <v>11.5799999237061</v>
       </c>
       <c r="G459" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -16202,7 +16205,7 @@
         <v>11.5200004577637</v>
       </c>
       <c r="G460" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -16228,7 +16231,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G461" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -16254,7 +16257,7 @@
         <v>11.4300003051758</v>
       </c>
       <c r="G462" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -16280,7 +16283,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G463" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -16306,7 +16309,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G464" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -16332,7 +16335,7 @@
         <v>11.5</v>
       </c>
       <c r="G465" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -16358,7 +16361,7 @@
         <v>11.4899997711182</v>
       </c>
       <c r="G466" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -16384,7 +16387,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G467" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -16410,7 +16413,7 @@
         <v>11.539999961853</v>
       </c>
       <c r="G468" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -16436,7 +16439,7 @@
         <v>11.4700002670288</v>
       </c>
       <c r="G469" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -16462,7 +16465,7 @@
         <v>11.5200004577637</v>
       </c>
       <c r="G470" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -16488,7 +16491,7 @@
         <v>11.4700002670288</v>
       </c>
       <c r="G471" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -16514,7 +16517,7 @@
         <v>11.5299997329712</v>
       </c>
       <c r="G472" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -16540,7 +16543,7 @@
         <v>11.539999961853</v>
       </c>
       <c r="G473" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -16566,7 +16569,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G474" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -16592,7 +16595,7 @@
         <v>11.4200000762939</v>
       </c>
       <c r="G475" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -16618,7 +16621,7 @@
         <v>11.1700000762939</v>
       </c>
       <c r="G476" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -16644,7 +16647,7 @@
         <v>10.7700004577637</v>
       </c>
       <c r="G477" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -16670,7 +16673,7 @@
         <v>10.6099996566772</v>
       </c>
       <c r="G478" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -16696,7 +16699,7 @@
         <v>10.2799997329712</v>
       </c>
       <c r="G479" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -16722,7 +16725,7 @@
         <v>10.1300001144409</v>
       </c>
       <c r="G480" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -16748,7 +16751,7 @@
         <v>9.52000045776367</v>
       </c>
       <c r="G481" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -16774,7 +16777,7 @@
         <v>9.8149995803833</v>
       </c>
       <c r="G482" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -16800,7 +16803,7 @@
         <v>9.55000019073486</v>
       </c>
       <c r="G483" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -16826,7 +16829,7 @@
         <v>9.57499980926514</v>
       </c>
       <c r="G484" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -16852,7 +16855,7 @@
         <v>10.1700000762939</v>
       </c>
       <c r="G485" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -16878,7 +16881,7 @@
         <v>9.81999969482422</v>
       </c>
       <c r="G486" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -16904,7 +16907,7 @@
         <v>9.83500003814697</v>
       </c>
       <c r="G487" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -16930,7 +16933,7 @@
         <v>9.65999984741211</v>
       </c>
       <c r="G488" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -16956,7 +16959,7 @@
         <v>9.75</v>
       </c>
       <c r="G489" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -16982,7 +16985,7 @@
         <v>9.86999988555908</v>
       </c>
       <c r="G490" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -17008,7 +17011,7 @@
         <v>9.80000019073486</v>
       </c>
       <c r="G491" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -17034,7 +17037,7 @@
         <v>9.77499961853027</v>
       </c>
       <c r="G492" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -17060,7 +17063,7 @@
         <v>9.53999996185303</v>
       </c>
       <c r="G493" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -17086,7 +17089,7 @@
         <v>9.47500038146973</v>
       </c>
       <c r="G494" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -17112,7 +17115,7 @@
         <v>9.25500011444092</v>
       </c>
       <c r="G495" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -17138,7 +17141,7 @@
         <v>9.22500038146973</v>
       </c>
       <c r="G496" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -17164,7 +17167,7 @@
         <v>9.19499969482422</v>
       </c>
       <c r="G497" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -17190,7 +17193,7 @@
         <v>9.32499980926514</v>
       </c>
       <c r="G498" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -17216,7 +17219,7 @@
         <v>9.26000022888184</v>
       </c>
       <c r="G499" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -17242,7 +17245,7 @@
         <v>9.38000011444092</v>
       </c>
       <c r="G500" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -17268,7 +17271,7 @@
         <v>9.40499973297119</v>
       </c>
       <c r="G501" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -17294,7 +17297,7 @@
         <v>9.45499992370605</v>
       </c>
       <c r="G502" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -17320,7 +17323,7 @@
         <v>9.44499969482422</v>
       </c>
       <c r="G503" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -17346,7 +17349,7 @@
         <v>9.72999954223633</v>
       </c>
       <c r="G504" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -17372,7 +17375,7 @@
         <v>9.72999954223633</v>
       </c>
       <c r="G505" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -17398,7 +17401,7 @@
         <v>9.61999988555908</v>
       </c>
       <c r="G506" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -17424,7 +17427,7 @@
         <v>9.60499954223633</v>
       </c>
       <c r="G507" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -17450,7 +17453,7 @@
         <v>9.48999977111816</v>
       </c>
       <c r="G508" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -17476,7 +17479,7 @@
         <v>9.52499961853027</v>
       </c>
       <c r="G509" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -17502,7 +17505,7 @@
         <v>9.65999984741211</v>
       </c>
       <c r="G510" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -17528,7 +17531,7 @@
         <v>9.63500022888184</v>
       </c>
       <c r="G511" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -17554,7 +17557,7 @@
         <v>9.69499969482422</v>
       </c>
       <c r="G512" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -17580,7 +17583,7 @@
         <v>9.77000045776367</v>
       </c>
       <c r="G513" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -17606,7 +17609,7 @@
         <v>9.93000030517578</v>
       </c>
       <c r="G514" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -17632,7 +17635,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G515" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -17658,7 +17661,7 @@
         <v>10.039999961853</v>
       </c>
       <c r="G516" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -17684,7 +17687,7 @@
         <v>10.3000001907349</v>
       </c>
       <c r="G517" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -17710,7 +17713,7 @@
         <v>10.0799999237061</v>
       </c>
       <c r="G518" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -17736,7 +17739,7 @@
         <v>10</v>
       </c>
       <c r="G519" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -17762,7 +17765,7 @@
         <v>10.0799999237061</v>
       </c>
       <c r="G520" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -17788,7 +17791,7 @@
         <v>10.0200004577637</v>
       </c>
       <c r="G521" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -17814,7 +17817,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G522" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -17840,7 +17843,7 @@
         <v>10.1199998855591</v>
       </c>
       <c r="G523" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -17866,7 +17869,7 @@
         <v>10.1199998855591</v>
       </c>
       <c r="G524" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -17892,7 +17895,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G525" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -17918,7 +17921,7 @@
         <v>10</v>
       </c>
       <c r="G526" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -17944,7 +17947,7 @@
         <v>9.97000026702881</v>
       </c>
       <c r="G527" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -17970,7 +17973,7 @@
         <v>9.90999984741211</v>
       </c>
       <c r="G528" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -17996,7 +17999,7 @@
         <v>9.88000011444092</v>
       </c>
       <c r="G529" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -18022,7 +18025,7 @@
         <v>10.1199998855591</v>
       </c>
       <c r="G530" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -18048,7 +18051,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G531" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -18074,7 +18077,7 @@
         <v>9.80000019073486</v>
       </c>
       <c r="G532" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -18100,7 +18103,7 @@
         <v>9.80000019073486</v>
       </c>
       <c r="G533" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -18126,7 +18129,7 @@
         <v>9.67000007629395</v>
       </c>
       <c r="G534" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -18152,7 +18155,7 @@
         <v>9.44999980926514</v>
       </c>
       <c r="G535" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -18178,7 +18181,7 @@
         <v>9.42000007629395</v>
       </c>
       <c r="G536" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -18204,7 +18207,7 @@
         <v>9.32999992370605</v>
       </c>
       <c r="G537" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -18230,7 +18233,7 @@
         <v>9.57999992370605</v>
       </c>
       <c r="G538" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -18256,7 +18259,7 @@
         <v>9.52000045776367</v>
       </c>
       <c r="G539" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -18282,7 +18285,7 @@
         <v>9.39999961853027</v>
       </c>
       <c r="G540" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -18308,7 +18311,7 @@
         <v>9.8100004196167</v>
       </c>
       <c r="G541" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -18334,7 +18337,7 @@
         <v>10.0799999237061</v>
       </c>
       <c r="G542" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -18360,7 +18363,7 @@
         <v>10.0200004577637</v>
       </c>
       <c r="G543" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -18386,7 +18389,7 @@
         <v>10.1199998855591</v>
       </c>
       <c r="G544" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -18412,7 +18415,7 @@
         <v>10.1199998855591</v>
       </c>
       <c r="G545" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -18438,7 +18441,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G546" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -18464,7 +18467,7 @@
         <v>10.2799997329712</v>
       </c>
       <c r="G547" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -18490,7 +18493,7 @@
         <v>10.5</v>
       </c>
       <c r="G548" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -18516,7 +18519,7 @@
         <v>10.3199996948242</v>
       </c>
       <c r="G549" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -18542,7 +18545,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G550" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -18568,7 +18571,7 @@
         <v>10.3400001525879</v>
       </c>
       <c r="G551" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -18594,7 +18597,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G552" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -18620,7 +18623,7 @@
         <v>10.1599998474121</v>
       </c>
       <c r="G553" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -18646,7 +18649,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G554" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -18672,7 +18675,7 @@
         <v>10.1400003433228</v>
       </c>
       <c r="G555" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -18698,7 +18701,7 @@
         <v>10.4200000762939</v>
       </c>
       <c r="G556" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -18724,7 +18727,7 @@
         <v>10.539999961853</v>
       </c>
       <c r="G557" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -18750,7 +18753,7 @@
         <v>11.039999961853</v>
       </c>
       <c r="G558" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -18776,7 +18779,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G559" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -18802,7 +18805,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G560" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -18828,7 +18831,7 @@
         <v>10.9399995803833</v>
       </c>
       <c r="G561" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -18854,7 +18857,7 @@
         <v>11</v>
       </c>
       <c r="G562" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -18880,7 +18883,7 @@
         <v>10.8400001525879</v>
       </c>
       <c r="G563" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -18906,7 +18909,7 @@
         <v>10.8599996566772</v>
       </c>
       <c r="G564" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -18932,7 +18935,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G565" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -18958,7 +18961,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G566" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -18984,7 +18987,7 @@
         <v>10.8599996566772</v>
       </c>
       <c r="G567" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -19010,7 +19013,7 @@
         <v>10.8800001144409</v>
       </c>
       <c r="G568" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -19036,7 +19039,7 @@
         <v>10.7600002288818</v>
       </c>
       <c r="G569" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -19062,7 +19065,7 @@
         <v>10.8400001525879</v>
       </c>
       <c r="G570" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -19088,7 +19091,7 @@
         <v>10.8400001525879</v>
       </c>
       <c r="G571" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -19114,7 +19117,7 @@
         <v>10.8800001144409</v>
       </c>
       <c r="G572" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -19140,7 +19143,7 @@
         <v>10.7399997711182</v>
       </c>
       <c r="G573" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -19166,7 +19169,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G574" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -19192,7 +19195,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G575" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -19218,7 +19221,7 @@
         <v>10.6599998474121</v>
       </c>
       <c r="G576" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -19244,7 +19247,7 @@
         <v>10.7200002670288</v>
       </c>
       <c r="G577" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -19270,7 +19273,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G578" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -19296,7 +19299,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G579" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -19322,7 +19325,7 @@
         <v>10.9399995803833</v>
       </c>
       <c r="G580" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -19348,7 +19351,7 @@
         <v>10.8800001144409</v>
       </c>
       <c r="G581" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -19374,7 +19377,7 @@
         <v>10.8599996566772</v>
       </c>
       <c r="G582" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -19400,7 +19403,7 @@
         <v>10.9200000762939</v>
       </c>
       <c r="G583" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -19426,7 +19429,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G584" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -19452,7 +19455,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G585" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -19478,7 +19481,7 @@
         <v>11.2799997329712</v>
       </c>
       <c r="G586" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -19504,7 +19507,7 @@
         <v>11.4200000762939</v>
       </c>
       <c r="G587" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -19530,7 +19533,7 @@
         <v>12.039999961853</v>
       </c>
       <c r="G588" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -19556,7 +19559,7 @@
         <v>12.460000038147</v>
       </c>
       <c r="G589" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -19582,7 +19585,7 @@
         <v>12.5799999237061</v>
       </c>
       <c r="G590" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -19608,7 +19611,7 @@
         <v>12.5200004577637</v>
       </c>
       <c r="G591" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -19634,7 +19637,7 @@
         <v>12.5200004577637</v>
       </c>
       <c r="G592" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -19660,7 +19663,7 @@
         <v>12.5799999237061</v>
       </c>
       <c r="G593" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -19686,7 +19689,7 @@
         <v>12.9200000762939</v>
       </c>
       <c r="G594" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -19712,7 +19715,7 @@
         <v>13.4799995422363</v>
       </c>
       <c r="G595" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -19738,7 +19741,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G596" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -19764,7 +19767,7 @@
         <v>13.5200004577637</v>
       </c>
       <c r="G597" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -19790,7 +19793,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G598" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -19816,7 +19819,7 @@
         <v>12.960000038147</v>
       </c>
       <c r="G599" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -19842,7 +19845,7 @@
         <v>12.960000038147</v>
       </c>
       <c r="G600" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -19868,7 +19871,7 @@
         <v>12.9200000762939</v>
       </c>
       <c r="G601" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -19894,7 +19897,7 @@
         <v>12.460000038147</v>
       </c>
       <c r="G602" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -19920,7 +19923,7 @@
         <v>12.3400001525879</v>
       </c>
       <c r="G603" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -19946,7 +19949,7 @@
         <v>12.3199996948242</v>
       </c>
       <c r="G604" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -19972,7 +19975,7 @@
         <v>11.960000038147</v>
       </c>
       <c r="G605" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -19998,7 +20001,7 @@
         <v>11.8800001144409</v>
       </c>
       <c r="G606" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -20024,7 +20027,7 @@
         <v>11.460000038147</v>
       </c>
       <c r="G607" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -20050,7 +20053,7 @@
         <v>11.6800003051758</v>
       </c>
       <c r="G608" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -20076,7 +20079,7 @@
         <v>11.5799999237061</v>
       </c>
       <c r="G609" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -20102,7 +20105,7 @@
         <v>11.5799999237061</v>
       </c>
       <c r="G610" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -20128,7 +20131,7 @@
         <v>11.6199998855591</v>
       </c>
       <c r="G611" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -20154,7 +20157,7 @@
         <v>11.4399995803833</v>
       </c>
       <c r="G612" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -20180,7 +20183,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G613" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -20206,7 +20209,7 @@
         <v>10.9200000762939</v>
       </c>
       <c r="G614" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -20232,7 +20235,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G615" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -20258,7 +20261,7 @@
         <v>10.9799995422363</v>
       </c>
       <c r="G616" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -20284,7 +20287,7 @@
         <v>11.2200002670288</v>
       </c>
       <c r="G617" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -20310,7 +20313,7 @@
         <v>11</v>
       </c>
       <c r="G618" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -20336,7 +20339,7 @@
         <v>11.1599998474121</v>
       </c>
       <c r="G619" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -20362,7 +20365,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G620" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -20388,7 +20391,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G621" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -20414,7 +20417,7 @@
         <v>11.0600004196167</v>
       </c>
       <c r="G622" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -20440,7 +20443,7 @@
         <v>11.3599996566772</v>
       </c>
       <c r="G623" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -20466,7 +20469,7 @@
         <v>11.2600002288818</v>
       </c>
       <c r="G624" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -20492,7 +20495,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G625" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -20518,7 +20521,7 @@
         <v>11.2799997329712</v>
       </c>
       <c r="G626" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -20544,7 +20547,7 @@
         <v>11.1400003433228</v>
       </c>
       <c r="G627" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -20570,7 +20573,7 @@
         <v>10.9799995422363</v>
       </c>
       <c r="G628" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -20596,7 +20599,7 @@
         <v>11.1599998474121</v>
       </c>
       <c r="G629" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -20622,7 +20625,7 @@
         <v>11.1400003433228</v>
       </c>
       <c r="G630" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -20648,7 +20651,7 @@
         <v>11.0200004577637</v>
       </c>
       <c r="G631" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -20674,7 +20677,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G632" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -20700,7 +20703,7 @@
         <v>10.6800003051758</v>
       </c>
       <c r="G633" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -20726,7 +20729,7 @@
         <v>10.6999998092651</v>
       </c>
       <c r="G634" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -20752,7 +20755,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G635" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -20778,7 +20781,7 @@
         <v>10.3400001525879</v>
       </c>
       <c r="G636" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -20804,7 +20807,7 @@
         <v>10.5600004196167</v>
       </c>
       <c r="G637" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -20830,7 +20833,7 @@
         <v>10.6199998855591</v>
       </c>
       <c r="G638" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -20856,7 +20859,7 @@
         <v>10.539999961853</v>
       </c>
       <c r="G639" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -20882,7 +20885,7 @@
         <v>10.5</v>
       </c>
       <c r="G640" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -20908,7 +20911,7 @@
         <v>10.6199998855591</v>
       </c>
       <c r="G641" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -20934,7 +20937,7 @@
         <v>10.6400003433228</v>
       </c>
       <c r="G642" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -20960,7 +20963,7 @@
         <v>10.5799999237061</v>
       </c>
       <c r="G643" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -20986,7 +20989,7 @@
         <v>10.4399995803833</v>
       </c>
       <c r="G644" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -21012,7 +21015,7 @@
         <v>10.1599998474121</v>
       </c>
       <c r="G645" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -21038,7 +21041,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G646" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -21064,7 +21067,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G647" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -21090,7 +21093,7 @@
         <v>10.2200002670288</v>
       </c>
       <c r="G648" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -21116,7 +21119,7 @@
         <v>10.1599998474121</v>
       </c>
       <c r="G649" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -21142,7 +21145,7 @@
         <v>10.1800003051758</v>
       </c>
       <c r="G650" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -21168,7 +21171,7 @@
         <v>10.1199998855591</v>
       </c>
       <c r="G651" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -21194,7 +21197,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G652" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -21220,7 +21223,7 @@
         <v>9.92000007629395</v>
       </c>
       <c r="G653" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -21246,7 +21249,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G654" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -21272,7 +21275,7 @@
         <v>9.75</v>
       </c>
       <c r="G655" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -21298,7 +21301,7 @@
         <v>9.6899995803833</v>
       </c>
       <c r="G656" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -21324,7 +21327,7 @@
         <v>9.85999965667725</v>
       </c>
       <c r="G657" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -21350,7 +21353,7 @@
         <v>9.77999973297119</v>
       </c>
       <c r="G658" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -21376,7 +21379,7 @@
         <v>9.80000019073486</v>
       </c>
       <c r="G659" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -21402,7 +21405,7 @@
         <v>9.80000019073486</v>
       </c>
       <c r="G660" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -21428,7 +21431,7 @@
         <v>9.6899995803833</v>
       </c>
       <c r="G661" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -21454,7 +21457,7 @@
         <v>9.76000022888184</v>
       </c>
       <c r="G662" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -21480,7 +21483,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G663" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -21506,7 +21509,7 @@
         <v>9.03999996185303</v>
       </c>
       <c r="G664" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -21532,7 +21535,7 @@
         <v>9.73999977111816</v>
       </c>
       <c r="G665" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -21558,7 +21561,7 @@
         <v>9.6899995803833</v>
       </c>
       <c r="G666" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -21584,7 +21587,7 @@
         <v>9.5</v>
       </c>
       <c r="G667" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -21610,7 +21613,7 @@
         <v>9.43000030517578</v>
       </c>
       <c r="G668" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -21636,7 +21639,7 @@
         <v>9.44999980926514</v>
       </c>
       <c r="G669" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -21662,7 +21665,7 @@
         <v>9.42000007629395</v>
       </c>
       <c r="G670" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -21688,7 +21691,7 @@
         <v>9.11999988555908</v>
       </c>
       <c r="G671" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -21714,7 +21717,7 @@
         <v>9.22000026702881</v>
       </c>
       <c r="G672" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -21740,7 +21743,7 @@
         <v>9.42000007629395</v>
       </c>
       <c r="G673" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -21766,7 +21769,7 @@
         <v>9.85999965667725</v>
       </c>
       <c r="G674" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -21792,7 +21795,7 @@
         <v>10.2600002288818</v>
       </c>
       <c r="G675" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -21818,7 +21821,7 @@
         <v>10.2399997711182</v>
       </c>
       <c r="G676" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -21844,7 +21847,7 @@
         <v>10.2399997711182</v>
       </c>
       <c r="G677" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -21870,7 +21873,7 @@
         <v>10.1599998474121</v>
       </c>
       <c r="G678" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -21896,7 +21899,7 @@
         <v>10.1800003051758</v>
       </c>
       <c r="G679" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -21922,7 +21925,7 @@
         <v>10.039999961853</v>
       </c>
       <c r="G680" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -21948,7 +21951,7 @@
         <v>9.82999992370605</v>
       </c>
       <c r="G681" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -21974,7 +21977,7 @@
         <v>10.2600002288818</v>
       </c>
       <c r="G682" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -22000,7 +22003,7 @@
         <v>10.2200002670288</v>
       </c>
       <c r="G683" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -22026,7 +22029,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G684" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -22052,7 +22055,7 @@
         <v>9.96000003814697</v>
       </c>
       <c r="G685" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -22078,7 +22081,7 @@
         <v>9.86999988555908</v>
       </c>
       <c r="G686" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -22104,7 +22107,7 @@
         <v>9.78999996185303</v>
       </c>
       <c r="G687" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -22130,7 +22133,7 @@
         <v>9.78999996185303</v>
       </c>
       <c r="G688" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -22156,7 +22159,7 @@
         <v>9.78999996185303</v>
       </c>
       <c r="G689" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -22182,7 +22185,7 @@
         <v>9.81999969482422</v>
       </c>
       <c r="G690" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -22208,7 +22211,7 @@
         <v>9.69999980926514</v>
       </c>
       <c r="G691" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -22234,7 +22237,7 @@
         <v>9.78999996185303</v>
       </c>
       <c r="G692" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -22260,7 +22263,7 @@
         <v>9.68000030517578</v>
       </c>
       <c r="G693" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -22286,7 +22289,7 @@
         <v>9.6899995803833</v>
       </c>
       <c r="G694" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -22312,7 +22315,7 @@
         <v>9.69999980926514</v>
       </c>
       <c r="G695" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -22338,7 +22341,7 @@
         <v>9.69999980926514</v>
       </c>
       <c r="G696" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -22364,7 +22367,7 @@
         <v>9.59000015258789</v>
       </c>
       <c r="G697" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -22390,7 +22393,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G698" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -22416,7 +22419,7 @@
         <v>9.64999961853027</v>
       </c>
       <c r="G699" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -22442,7 +22445,7 @@
         <v>9.57999992370605</v>
       </c>
       <c r="G700" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -22468,7 +22471,7 @@
         <v>9.51000022888184</v>
       </c>
       <c r="G701" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -22494,7 +22497,7 @@
         <v>9.44999980926514</v>
       </c>
       <c r="G702" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -22520,7 +22523,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G703" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -22546,7 +22549,7 @@
         <v>9.38000011444092</v>
       </c>
       <c r="G704" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -22572,7 +22575,7 @@
         <v>9.39000034332275</v>
       </c>
       <c r="G705" t="s">
-        <v>488</v>
+        <v>392</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -22624,7 +22627,7 @@
         <v>9.11999988555908</v>
       </c>
       <c r="G707" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -24210,7 +24213,7 @@
         <v>9.11999988555908</v>
       </c>
       <c r="G768" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -24444,7 +24447,7 @@
         <v>9.39000034332275</v>
       </c>
       <c r="G777" t="s">
-        <v>488</v>
+        <v>392</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -24470,7 +24473,7 @@
         <v>9.38000011444092</v>
       </c>
       <c r="G778" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -24496,7 +24499,7 @@
         <v>9.5</v>
       </c>
       <c r="G779" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -24522,7 +24525,7 @@
         <v>9.75</v>
       </c>
       <c r="G780" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -24548,7 +24551,7 @@
         <v>9.80000019073486</v>
       </c>
       <c r="G781" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -24626,7 +24629,7 @@
         <v>9.80000019073486</v>
       </c>
       <c r="G784" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -24678,7 +24681,7 @@
         <v>9.64999961853027</v>
       </c>
       <c r="G786" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -24756,7 +24759,7 @@
         <v>9.80000019073486</v>
       </c>
       <c r="G789" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -24808,7 +24811,7 @@
         <v>9.39000034332275</v>
       </c>
       <c r="G791" t="s">
-        <v>488</v>
+        <v>392</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -24860,7 +24863,7 @@
         <v>9.80000019073486</v>
       </c>
       <c r="G793" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -24912,7 +24915,7 @@
         <v>9.75</v>
       </c>
       <c r="G795" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -24938,7 +24941,7 @@
         <v>9.81999969482422</v>
       </c>
       <c r="G796" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -24990,7 +24993,7 @@
         <v>9.75</v>
       </c>
       <c r="G798" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -25042,7 +25045,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G800" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -25068,7 +25071,7 @@
         <v>9.73999977111816</v>
       </c>
       <c r="G801" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -25094,7 +25097,7 @@
         <v>9.77999973297119</v>
       </c>
       <c r="G802" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -25224,7 +25227,7 @@
         <v>9.64999961853027</v>
       </c>
       <c r="G807" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -25276,7 +25279,7 @@
         <v>9.77999973297119</v>
       </c>
       <c r="G809" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -25302,7 +25305,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G810" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -25510,7 +25513,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G818" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -25666,7 +25669,7 @@
         <v>9.03999996185303</v>
       </c>
       <c r="G824" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -25822,7 +25825,7 @@
         <v>9.11999988555908</v>
       </c>
       <c r="G830" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -26160,7 +26163,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G843" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -26212,7 +26215,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G845" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -60566,7 +60569,7 @@
     </row>
     <row r="2167">
       <c r="A2167" s="1" t="n">
-        <v>45478.6495717593</v>
+        <v>45478.2916666667</v>
       </c>
       <c r="B2167" t="n">
         <v>14277</v>
@@ -60587,6 +60590,32 @@
         <v>1298</v>
       </c>
       <c r="H2167" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2168">
+      <c r="A2168" s="1" t="n">
+        <v>45481.6493055556</v>
+      </c>
+      <c r="B2168" t="n">
+        <v>27156</v>
+      </c>
+      <c r="C2168" t="n">
+        <v>26.3500003814697</v>
+      </c>
+      <c r="D2168" t="n">
+        <v>25.2000007629395</v>
+      </c>
+      <c r="E2168" t="n">
+        <v>25.6000003814697</v>
+      </c>
+      <c r="F2168" t="n">
+        <v>26.1000003814697</v>
+      </c>
+      <c r="G2168" t="s">
+        <v>1299</v>
+      </c>
+      <c r="H2168" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TXT.MI.xlsx
+++ b/data/TXT.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="1307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="1308">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,25 +38,25 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45555543899536</t>
+    <t xml:space="preserve">6.45555639266968</t>
   </si>
   <si>
     <t xml:space="preserve">TXT.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43539428710938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44345855712891</t>
+    <t xml:space="preserve">6.43539524078369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44345903396606</t>
   </si>
   <si>
     <t xml:space="preserve">6.27410650253296</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31442928314209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13701152801514</t>
+    <t xml:space="preserve">6.31442832946777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13701200485229</t>
   </si>
   <si>
     <t xml:space="preserve">6.16926908493042</t>
@@ -65,28 +65,28 @@
     <t xml:space="preserve">6.12894725799561</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96765899658203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89507865905762</t>
+    <t xml:space="preserve">5.96765947341919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89507961273193</t>
   </si>
   <si>
     <t xml:space="preserve">5.80637073516846</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98782014846802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79024171829224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76201629638672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7660493850708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78217744827271</t>
+    <t xml:space="preserve">5.98782062530518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79024267196655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76201725006104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76604890823364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78217792510986</t>
   </si>
   <si>
     <t xml:space="preserve">6.04023885726929</t>
@@ -101,40 +101,40 @@
     <t xml:space="preserve">5.98378801345825</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04830312728882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89104747772217</t>
+    <t xml:space="preserve">6.04830265045166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89104700088501</t>
   </si>
   <si>
     <t xml:space="preserve">5.81846809387207</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21765613555908</t>
+    <t xml:space="preserve">6.21765565872192</t>
   </si>
   <si>
     <t xml:space="preserve">6.19346237182617</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24991369247437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33862161636353</t>
+    <t xml:space="preserve">6.24991321563721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33862209320068</t>
   </si>
   <si>
     <t xml:space="preserve">6.26604223251343</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24184846878052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25394487380981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45152378082275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50394105911255</t>
+    <t xml:space="preserve">6.24184894561768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25394535064697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4515233039856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50394153594971</t>
   </si>
   <si>
     <t xml:space="preserve">6.45958805084229</t>
@@ -143,55 +143,55 @@
     <t xml:space="preserve">6.53216743469238</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54829597473145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54023170471191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28217124938965</t>
+    <t xml:space="preserve">6.5482964515686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54023122787476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28217077255249</t>
   </si>
   <si>
     <t xml:space="preserve">6.12088251113892</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29829978942871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23781633377075</t>
+    <t xml:space="preserve">6.29829931259155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23781681060791</t>
   </si>
   <si>
     <t xml:space="preserve">6.18539810180664</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19749450683594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1531400680542</t>
+    <t xml:space="preserve">6.1974949836731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15314054489136</t>
   </si>
   <si>
     <t xml:space="preserve">6.15717267990112</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03217458724976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06040000915527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99185180664062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17733335494995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09668922424316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20152711868286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1410436630249</t>
+    <t xml:space="preserve">6.0321741104126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06039953231812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99185228347778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17733383178711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09668970108032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2015266418457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14104318618774</t>
   </si>
   <si>
     <t xml:space="preserve">6.22571992874146</t>
@@ -200,52 +200,52 @@
     <t xml:space="preserve">6.16523694992065</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2579779624939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07652807235718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14507579803467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05636739730835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99991703033447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97975540161133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16120481491089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11685132980347</t>
+    <t xml:space="preserve">6.25797748565674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07652854919434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14507627487183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05636787414551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99991607666016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97975587844849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16120433807373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11685037612915</t>
   </si>
   <si>
     <t xml:space="preserve">6.11281824111938</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23735046386719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2707052230835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11643934249878</t>
+    <t xml:space="preserve">6.23734998703003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27070474624634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11643886566162</t>
   </si>
   <si>
     <t xml:space="preserve">6.20399522781372</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25402736663818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13728618621826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21233367919922</t>
+    <t xml:space="preserve">6.25402784347534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1372857093811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21233415603638</t>
   </si>
   <si>
     <t xml:space="preserve">6.23318099975586</t>
@@ -257,7 +257,7 @@
     <t xml:space="preserve">6.16230154037476</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33324575424194</t>
+    <t xml:space="preserve">6.33324480056763</t>
   </si>
   <si>
     <t xml:space="preserve">6.24151992797852</t>
@@ -269,82 +269,82 @@
     <t xml:space="preserve">6.18314838409424</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15396404266357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08725357055664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93715667724609</t>
+    <t xml:space="preserve">6.15396308898926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0872540473938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93715715408325</t>
   </si>
   <si>
     <t xml:space="preserve">5.94966506958008</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85376977920532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03722143173218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08308458328247</t>
+    <t xml:space="preserve">5.85377025604248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03722190856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08308410644531</t>
   </si>
   <si>
     <t xml:space="preserve">5.98718881607056</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00386667251587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89546394348145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82875394821167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90380239486694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95383453369141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90797138214111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16647100448608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0580677986145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14562511444092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31239891052246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19982671737671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07474565505981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14145469665527</t>
+    <t xml:space="preserve">6.00386619567871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89546346664429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82875347137451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90380191802979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95383405685425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90797185897827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16647148132324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05806875228882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14562463760376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3123984336853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19982576370239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07474517822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14145517349243</t>
   </si>
   <si>
     <t xml:space="preserve">6.22067308425903</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29572200775146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17480945587158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19565629959106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18731880187988</t>
+    <t xml:space="preserve">6.29572153091431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1748104095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19565677642822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18731832504272</t>
   </si>
   <si>
     <t xml:space="preserve">6.12060880661011</t>
@@ -356,7 +356,7 @@
     <t xml:space="preserve">6.11226987838745</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09559154510498</t>
+    <t xml:space="preserve">6.0955924987793</t>
   </si>
   <si>
     <t xml:space="preserve">6.01220560073853</t>
@@ -365,16 +365,16 @@
     <t xml:space="preserve">6.14979410171509</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02888250350952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96634340286255</t>
+    <t xml:space="preserve">6.02888298034668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96634244918823</t>
   </si>
   <si>
     <t xml:space="preserve">5.99552774429321</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07891464233398</t>
+    <t xml:space="preserve">6.07891511917114</t>
   </si>
   <si>
     <t xml:space="preserve">5.9996976852417</t>
@@ -386,13 +386,13 @@
     <t xml:space="preserve">5.92881870269775</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97468137741089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86627817153931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85793972015381</t>
+    <t xml:space="preserve">5.97468090057373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86627769470215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85793924331665</t>
   </si>
   <si>
     <t xml:space="preserve">5.89129400253296</t>
@@ -404,7 +404,7 @@
     <t xml:space="preserve">5.79956817626953</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94549608230591</t>
+    <t xml:space="preserve">5.94549560546875</t>
   </si>
   <si>
     <t xml:space="preserve">5.97885036468506</t>
@@ -413,7 +413,7 @@
     <t xml:space="preserve">5.92047929763794</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96217346191406</t>
+    <t xml:space="preserve">5.9621729850769</t>
   </si>
   <si>
     <t xml:space="preserve">6.10393095016479</t>
@@ -422,10 +422,10 @@
     <t xml:space="preserve">6.47083425521851</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49585008621216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57923698425293</t>
+    <t xml:space="preserve">6.495849609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57923650741577</t>
   </si>
   <si>
     <t xml:space="preserve">6.59591436386108</t>
@@ -434,19 +434,19 @@
     <t xml:space="preserve">6.50001955032349</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33741521835327</t>
+    <t xml:space="preserve">6.33741474151611</t>
   </si>
   <si>
     <t xml:space="preserve">6.50418901443481</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42914056777954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44581747055054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27904415130615</t>
+    <t xml:space="preserve">6.4291410446167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4458179473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27904367446899</t>
   </si>
   <si>
     <t xml:space="preserve">6.38327789306641</t>
@@ -458,49 +458,49 @@
     <t xml:space="preserve">6.45415639877319</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42080163955688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55422115325928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38744640350342</t>
+    <t xml:space="preserve">6.42080116271973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55422067642212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38744688034058</t>
   </si>
   <si>
     <t xml:space="preserve">6.53754377365112</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37910842895508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41663265228271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34992218017578</t>
+    <t xml:space="preserve">6.37910795211792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41663312911987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34992265701294</t>
   </si>
   <si>
     <t xml:space="preserve">6.4374794960022</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22901153564453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0163745880127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05389928817749</t>
+    <t xml:space="preserve">6.22901105880737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01637506484985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05389881134033</t>
   </si>
   <si>
     <t xml:space="preserve">6.06223726272583</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07057619094849</t>
+    <t xml:space="preserve">6.07057666778564</t>
   </si>
   <si>
     <t xml:space="preserve">6.37076950073242</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41246366500854</t>
+    <t xml:space="preserve">6.41246271133423</t>
   </si>
   <si>
     <t xml:space="preserve">6.32907629013062</t>
@@ -509,7 +509,7 @@
     <t xml:space="preserve">6.45832586288452</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28738212585449</t>
+    <t xml:space="preserve">6.28738260269165</t>
   </si>
   <si>
     <t xml:space="preserve">6.21650362014771</t>
@@ -521,10 +521,10 @@
     <t xml:space="preserve">6.72933387756348</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69597959518433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77102708816528</t>
+    <t xml:space="preserve">6.69597911834717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77102756500244</t>
   </si>
   <si>
     <t xml:space="preserve">6.78770542144775</t>
@@ -533,97 +533,97 @@
     <t xml:space="preserve">7.08789825439453</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25467205047607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22965621948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08372831344604</t>
+    <t xml:space="preserve">7.25467300415039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22965574264526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08372926712036</t>
   </si>
   <si>
     <t xml:space="preserve">7.06288242340088</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12959146499634</t>
+    <t xml:space="preserve">7.1295919418335</t>
   </si>
   <si>
     <t xml:space="preserve">7.07122039794922</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10457563400269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03786563873291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25884199142456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65492963790894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6882848739624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65076112747192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13793087005615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35473680496216</t>
+    <t xml:space="preserve">7.10457611083984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03786611557007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2588415145874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65492916107178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68828535079956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65075969696045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13793134689331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.354736328125</t>
   </si>
   <si>
     <t xml:space="preserve">7.49649429321289</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5298490524292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54235792160034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48815536499023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32972097396851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22131681442261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15460681915283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99200391769409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12125253677368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1087441444397</t>
+    <t xml:space="preserve">7.52984857559204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54235649108887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48815488815308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32972049713135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22131776809692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15460729598999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99200248718262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12125396728516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10874462127686</t>
   </si>
   <si>
     <t xml:space="preserve">7.0920672416687</t>
   </si>
   <si>
-    <t xml:space="preserve">7.05454349517822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88360023498535</t>
+    <t xml:space="preserve">7.05454254150391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88360071182251</t>
   </si>
   <si>
     <t xml:space="preserve">7.00451040267944</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06705188751221</t>
+    <t xml:space="preserve">7.06705141067505</t>
   </si>
   <si>
     <t xml:space="preserve">6.93780088424683</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96281814575195</t>
+    <t xml:space="preserve">6.96281766891479</t>
   </si>
   <si>
     <t xml:space="preserve">7.00867986679077</t>
@@ -632,25 +632,25 @@
     <t xml:space="preserve">7.27968835830688</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32138156890869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59655904769897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56320428848267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69662237167358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74665594100952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71330118179321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9592924118042</t>
+    <t xml:space="preserve">7.32138204574585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59655809402466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56320381164551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69662284851074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74665498733521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71330165863037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95929336547852</t>
   </si>
   <si>
     <t xml:space="preserve">8.06352615356445</t>
@@ -659,43 +659,43 @@
     <t xml:space="preserve">8.08854198455811</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13023567199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90925884246826</t>
+    <t xml:space="preserve">8.13023662567139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90925979614258</t>
   </si>
   <si>
     <t xml:space="preserve">8.31785678863525</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25114822387695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31368827819824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54717254638672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55550861358643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42208957672119</t>
+    <t xml:space="preserve">8.25114727020264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31368923187256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54717063903809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55551052093506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42209148406982</t>
   </si>
   <si>
     <t xml:space="preserve">8.45544528961182</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49713897705078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68892955780029</t>
+    <t xml:space="preserve">8.49713802337646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68892860412598</t>
   </si>
   <si>
     <t xml:space="preserve">8.69726848602295</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65557384490967</t>
+    <t xml:space="preserve">8.65557479858398</t>
   </si>
   <si>
     <t xml:space="preserve">8.58886528015137</t>
@@ -704,61 +704,61 @@
     <t xml:space="preserve">8.38873672485352</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09688186645508</t>
+    <t xml:space="preserve">8.09688091278076</t>
   </si>
   <si>
     <t xml:space="preserve">7.82170391082764</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01766395568848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23447036743164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57218742370605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66391372680664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83902645111084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92241287231445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43941211700439</t>
+    <t xml:space="preserve">8.01766300201416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23446941375732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57218837738037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66391277313232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83902549743652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92241382598877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43941116333008</t>
   </si>
   <si>
     <t xml:space="preserve">9.51446056365967</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1565418243408</t>
+    <t xml:space="preserve">10.1565408706665</t>
   </si>
   <si>
     <t xml:space="preserve">10.2315893173218</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5651378631592</t>
+    <t xml:space="preserve">10.5651369094849</t>
   </si>
   <si>
     <t xml:space="preserve">10.765266418457</t>
   </si>
   <si>
-    <t xml:space="preserve">10.831976890564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3650093078613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4233808517456</t>
+    <t xml:space="preserve">10.8319759368896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.365008354187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4233798980713</t>
   </si>
   <si>
     <t xml:space="preserve">10.6540613174438</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5344486236572</t>
+    <t xml:space="preserve">10.5344476699829</t>
   </si>
   <si>
     <t xml:space="preserve">9.9449291229248</t>
@@ -767,37 +767,34 @@
     <t xml:space="preserve">10.1328916549683</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1926984786987</t>
+    <t xml:space="preserve">10.192699432373</t>
   </si>
   <si>
     <t xml:space="preserve">10.1243486404419</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2439603805542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2525043487549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1499786376953</t>
+    <t xml:space="preserve">10.2439594268799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2525053024292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1499795913696</t>
   </si>
   <si>
     <t xml:space="preserve">10.4575538635254</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7822170257568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7394971847534</t>
+    <t xml:space="preserve">10.7822179794312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7394990921021</t>
   </si>
   <si>
     <t xml:space="preserve">10.6882352828979</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5515365600586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4233798980713</t>
+    <t xml:space="preserve">10.5515356063843</t>
   </si>
   <si>
     <t xml:space="preserve">10.7993049621582</t>
@@ -806,67 +803,67 @@
     <t xml:space="preserve">10.7224102020264</t>
   </si>
   <si>
-    <t xml:space="preserve">10.705322265625</t>
+    <t xml:space="preserve">10.7053232192993</t>
   </si>
   <si>
     <t xml:space="preserve">10.7138671875</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4917278289795</t>
+    <t xml:space="preserve">10.4917287826538</t>
   </si>
   <si>
     <t xml:space="preserve">10.4319229125977</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3464841842651</t>
+    <t xml:space="preserve">10.3464851379395</t>
   </si>
   <si>
     <t xml:space="preserve">10.3806610107422</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1158037185669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97910499572754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9022102355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8509464263916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68007373809814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50065326690674</t>
+    <t xml:space="preserve">10.1158046722412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97910404205322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90221118927002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85094738006592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68007278442383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50065517425537</t>
   </si>
   <si>
     <t xml:space="preserve">9.16744709014893</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22725296020508</t>
+    <t xml:space="preserve">9.22725391387939</t>
   </si>
   <si>
     <t xml:space="preserve">9.24434089660645</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26142883300781</t>
+    <t xml:space="preserve">9.2614278793335</t>
   </si>
   <si>
     <t xml:space="preserve">9.30414772033691</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29560375213623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3981294631958</t>
+    <t xml:space="preserve">9.29560470581055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39812850952148</t>
   </si>
   <si>
     <t xml:space="preserve">9.27851581573486</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44084739685059</t>
+    <t xml:space="preserve">9.4408483505249</t>
   </si>
   <si>
     <t xml:space="preserve">9.75696659088135</t>
@@ -878,46 +875,46 @@
     <t xml:space="preserve">10.1072607040405</t>
   </si>
   <si>
-    <t xml:space="preserve">9.97056102752686</t>
+    <t xml:space="preserve">9.97056007385254</t>
   </si>
   <si>
     <t xml:space="preserve">9.91929721832275</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2952222824097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3037672042847</t>
+    <t xml:space="preserve">10.2952241897583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3037662506104</t>
   </si>
   <si>
     <t xml:space="preserve">10.3550300598145</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3293972015381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3635740280151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4404678344727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2781343460083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0901737213135</t>
+    <t xml:space="preserve">10.3293991088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3635730743408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4404668807983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2781352996826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0901727676392</t>
   </si>
   <si>
     <t xml:space="preserve">10.0389108657837</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96201705932617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92784118652344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81677436828613</t>
+    <t xml:space="preserve">9.96201801300049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92784214019775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8167724609375</t>
   </si>
   <si>
     <t xml:space="preserve">9.57754802703857</t>
@@ -926,85 +923,85 @@
     <t xml:space="preserve">9.7740535736084</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52628421783447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42376041412354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63735294342041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7313346862793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56900405883789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45793437957764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34686470031738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44939231872559</t>
+    <t xml:space="preserve">9.52628517150879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42375946044922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63735389709473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73133659362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56900310516357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45793533325195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3468656539917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44939136505127</t>
   </si>
   <si>
     <t xml:space="preserve">9.51774215698242</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58609294891357</t>
+    <t xml:space="preserve">9.58609104156494</t>
   </si>
   <si>
     <t xml:space="preserve">9.33832263946533</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26997184753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65444183349609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56045913696289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91075325012207</t>
+    <t xml:space="preserve">9.26997470855713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65444087982178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56046104431152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91075420379639</t>
   </si>
   <si>
     <t xml:space="preserve">9.74842262268066</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71424770355225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70570278167725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82531642913818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89366722106934</t>
+    <t xml:space="preserve">9.71424674987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70570373535156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8253173828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89366626739502</t>
   </si>
   <si>
     <t xml:space="preserve">9.84240436553955</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86803436279297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76551151275635</t>
+    <t xml:space="preserve">9.8680362701416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76551055908203</t>
   </si>
   <si>
     <t xml:space="preserve">9.73987865447998</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6971607208252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85949230194092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79968643188477</t>
+    <t xml:space="preserve">9.69716167449951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8594913482666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79968547821045</t>
   </si>
   <si>
     <t xml:space="preserve">9.54337310791016</t>
@@ -1013,7 +1010,7 @@
     <t xml:space="preserve">9.20162296295166</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06492233276367</t>
+    <t xml:space="preserve">9.06492137908936</t>
   </si>
   <si>
     <t xml:space="preserve">8.78297901153564</t>
@@ -1022,10 +1019,10 @@
     <t xml:space="preserve">8.65482234954834</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13365364074707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38569259643555</t>
+    <t xml:space="preserve">8.13365459442139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38569355010986</t>
   </si>
   <si>
     <t xml:space="preserve">8.1592845916748</t>
@@ -1034,10 +1031,10 @@
     <t xml:space="preserve">8.18064403533936</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68899631500244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38996696472168</t>
+    <t xml:space="preserve">8.68899726867676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38996505737305</t>
   </si>
   <si>
     <t xml:space="preserve">8.40278148651123</t>
@@ -1049,10 +1046,10 @@
     <t xml:space="preserve">8.33016014099121</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43268489837646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37287902832031</t>
+    <t xml:space="preserve">8.43268394470215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.372878074646</t>
   </si>
   <si>
     <t xml:space="preserve">8.35151958465576</t>
@@ -1067,19 +1064,19 @@
     <t xml:space="preserve">7.9072437286377</t>
   </si>
   <si>
-    <t xml:space="preserve">7.8816123008728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85598182678223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96705055236816</t>
+    <t xml:space="preserve">7.88161325454712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85598134994507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96704959869385</t>
   </si>
   <si>
     <t xml:space="preserve">7.91151571273804</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01404190063477</t>
+    <t xml:space="preserve">8.01404094696045</t>
   </si>
   <si>
     <t xml:space="preserve">8.035400390625</t>
@@ -1091,16 +1088,16 @@
     <t xml:space="preserve">8.06957530975342</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31307125091553</t>
+    <t xml:space="preserve">8.31307220458984</t>
   </si>
   <si>
     <t xml:space="preserve">8.21909141540527</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20627403259277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10802173614502</t>
+    <t xml:space="preserve">8.20627498626709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10802268981934</t>
   </si>
   <si>
     <t xml:space="preserve">8.13792419433594</t>
@@ -1121,28 +1118,28 @@
     <t xml:space="preserve">8.62919139862061</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57792949676514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80006694793701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61210346221924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54375267028809</t>
+    <t xml:space="preserve">8.57792854309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8000659942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61210441589355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5437536239624</t>
   </si>
   <si>
     <t xml:space="preserve">8.56084156036377</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71462917327881</t>
+    <t xml:space="preserve">8.71462821960449</t>
   </si>
   <si>
     <t xml:space="preserve">8.64627838134766</t>
   </si>
   <si>
-    <t xml:space="preserve">8.52666473388672</t>
+    <t xml:space="preserve">8.52666568756104</t>
   </si>
   <si>
     <t xml:space="preserve">8.51812267303467</t>
@@ -1169,7 +1166,7 @@
     <t xml:space="preserve">8.18491554260254</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0311279296875</t>
+    <t xml:space="preserve">8.03112888336182</t>
   </si>
   <si>
     <t xml:space="preserve">8.381422996521</t>
@@ -1181,306 +1178,309 @@
     <t xml:space="preserve">8.81715297698975</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88550281524658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83424186706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68045330047607</t>
+    <t xml:space="preserve">8.8855037689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8342399597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68045425415039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66336536407471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90259265899658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00511646270752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43230438232422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3126916885376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19307899475098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17599105834961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10764122009277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15890407562256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32978057861328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48356628417969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2866792678833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6455173492432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7480411529541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6967811584473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0385293960571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5169792175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4486293792725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.551155090332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.624963760376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.957106590271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9202013015747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4957981109619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3850841522217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3666315078735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0344896316528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9606809616089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5731821060181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7761564254761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.683895111084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7208003997803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5547285079956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.241039276123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0749702453613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0565166473389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1303253173828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3517532348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.148777961731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2963972091675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3333005905151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2041349411011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4809198379517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3886585235596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5178241729736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4071102142334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2779445648193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1672315597534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85354042053223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87199306488037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77973175048828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53985023498535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74282646179199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79818439483643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72437477111816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68747043609619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81663608551025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76128005981445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63211154937744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37378120422363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3184232711792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42913722991943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39223384857178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33687591552734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1338996887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15235233306885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99550819396973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94015121459961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09699535369873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02318668365479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04163837432861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00473403930664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58033084869385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34045028686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9862813949585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76485347747803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.700270652771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71872329711914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69104480743408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4142599105835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50652122497559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46604251861572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44758892059326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26306629180908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06931686401367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20770931243896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18925762176514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10622119903564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0324125289917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06009006500244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94937610626221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9309253692627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84788990020752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89402008056641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90324592590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83866310119629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77408027648926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65413951873779</t>
   </si>
   <si>
     <t xml:space="preserve">8.66336631774902</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90259075164795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00511646270752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43230438232422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3126916885376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19307994842529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17599296569824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10764122009277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15890407562256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32977771759033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48356628417969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2866792678833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6455163955688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7480430603027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6967802047729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0385303497314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5169792175293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4486293792725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.551155090332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6249647140503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9571056365967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.920202255249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4957981109619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3850831985474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3666315078735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0344896316528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9606800079346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5731821060181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7761564254761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.683895111084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7208003997803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5547285079956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2410402297974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.074969291687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0565156936646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1303262710571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3517541885376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.148777961731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2963972091675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3333005905151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2041349411011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4809198379517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3886585235596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5178241729736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4071092605591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2779445648193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1672315597534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85354137420654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87199306488037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77973175048828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53985118865967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74282741546631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79818439483643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72437381744385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68747043609619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81663608551025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76127910614014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63211250305176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37378025054932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3184232711792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42913818359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39223384857178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33687591552734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1338996887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15235233306885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99550724029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94015026092529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09699535369873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02318668365479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04163837432861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00473403930664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58033084869385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34044933319092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9862813949585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76485347747803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70026969909668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71872234344482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69104480743408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41425895690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5065221786499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46604156494141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44758892059326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26306629180908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06931686401367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20770931243896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18925762176514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10622119903564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03241348266602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06009101867676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94937705993652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9309253692627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8478889465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89402008056641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90324687957764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83866310119629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77408123016357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65414047241211</t>
-  </si>
-  <si>
     <t xml:space="preserve">8.46961688995361</t>
   </si>
   <si>
@@ -1490,13 +1490,13 @@
     <t xml:space="preserve">8.30354595184326</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79610681533813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.759202003479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74075031280518</t>
+    <t xml:space="preserve">7.79610633850098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75920152664185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74075078964233</t>
   </si>
   <si>
     <t xml:space="preserve">7.6115837097168</t>
@@ -1514,25 +1514,25 @@
     <t xml:space="preserve">7.45473861694336</t>
   </si>
   <si>
-    <t xml:space="preserve">7.13182306289673</t>
+    <t xml:space="preserve">7.13182353973389</t>
   </si>
   <si>
     <t xml:space="preserve">7.15950155258179</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43628692626953</t>
+    <t xml:space="preserve">7.43628644943237</t>
   </si>
   <si>
     <t xml:space="preserve">7.21485900878906</t>
   </si>
   <si>
-    <t xml:space="preserve">7.3532509803772</t>
+    <t xml:space="preserve">7.35325050354004</t>
   </si>
   <si>
     <t xml:space="preserve">7.37170314788818</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53777408599854</t>
+    <t xml:space="preserve">7.53777456283569</t>
   </si>
   <si>
     <t xml:space="preserve">7.4731912612915</t>
@@ -1541,16 +1541,16 @@
     <t xml:space="preserve">7.82378435134888</t>
   </si>
   <si>
-    <t xml:space="preserve">7.86069059371948</t>
+    <t xml:space="preserve">7.86069011688232</t>
   </si>
   <si>
     <t xml:space="preserve">7.74997568130493</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51009654998779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63926124572754</t>
+    <t xml:space="preserve">7.51009607315063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6392617225647</t>
   </si>
   <si>
     <t xml:space="preserve">7.62080955505371</t>
@@ -1559,37 +1559,37 @@
     <t xml:space="preserve">7.3993821144104</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56545209884644</t>
+    <t xml:space="preserve">7.56545257568359</t>
   </si>
   <si>
     <t xml:space="preserve">7.27944135665894</t>
   </si>
   <si>
-    <t xml:space="preserve">7.19640684127808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20563220977783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11337041854858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10414457321167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49164295196533</t>
+    <t xml:space="preserve">7.19640636444092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20563173294067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11337089538574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10414409637451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49164342880249</t>
   </si>
   <si>
     <t xml:space="preserve">7.59313058853149</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5839056968689</t>
+    <t xml:space="preserve">7.58390522003174</t>
   </si>
   <si>
     <t xml:space="preserve">7.52854776382446</t>
   </si>
   <si>
-    <t xml:space="preserve">7.39015579223633</t>
+    <t xml:space="preserve">7.39015531539917</t>
   </si>
   <si>
     <t xml:space="preserve">7.34402465820312</t>
@@ -1601,16 +1601,16 @@
     <t xml:space="preserve">7.36247777938843</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29789400100708</t>
+    <t xml:space="preserve">7.29789352416992</t>
   </si>
   <si>
     <t xml:space="preserve">7.32557249069214</t>
   </si>
   <si>
-    <t xml:space="preserve">7.40860748291016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7315239906311</t>
+    <t xml:space="preserve">7.40860795974731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73152351379395</t>
   </si>
   <si>
     <t xml:space="preserve">7.77765417098999</t>
@@ -1619,19 +1619,19 @@
     <t xml:space="preserve">7.92527294158936</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10056972503662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43271255493164</t>
+    <t xml:space="preserve">8.10057067871094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43271160125732</t>
   </si>
   <si>
     <t xml:space="preserve">8.45116424560547</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55265140533447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4603910446167</t>
+    <t xml:space="preserve">8.55265235900879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46039009094238</t>
   </si>
   <si>
     <t xml:space="preserve">8.40503311157227</t>
@@ -1649,10 +1649,10 @@
     <t xml:space="preserve">8.80175876617432</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17080497741699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11544895172119</t>
+    <t xml:space="preserve">9.17080402374268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11544799804688</t>
   </si>
   <si>
     <t xml:space="preserve">8.85711479187012</t>
@@ -1667,16 +1667,16 @@
     <t xml:space="preserve">9.07854270935059</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97705459594727</t>
+    <t xml:space="preserve">8.97705554962158</t>
   </si>
   <si>
     <t xml:space="preserve">8.96782970428467</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91247177124023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86634063720703</t>
+    <t xml:space="preserve">8.91247272491455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86634159088135</t>
   </si>
   <si>
     <t xml:space="preserve">8.87556838989258</t>
@@ -1685,16 +1685,16 @@
     <t xml:space="preserve">8.64491367340088</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7464017868042</t>
+    <t xml:space="preserve">8.74640083312988</t>
   </si>
   <si>
     <t xml:space="preserve">8.31277275085449</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44193840026855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33122444152832</t>
+    <t xml:space="preserve">8.44193744659424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.331223487854</t>
   </si>
   <si>
     <t xml:space="preserve">8.1836051940918</t>
@@ -1703,16 +1703,16 @@
     <t xml:space="preserve">8.32199859619141</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29432010650635</t>
+    <t xml:space="preserve">8.29431915283203</t>
   </si>
   <si>
     <t xml:space="preserve">8.49729537963867</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51574611663818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53419971466064</t>
+    <t xml:space="preserve">8.5157470703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53420066833496</t>
   </si>
   <si>
     <t xml:space="preserve">8.5618782043457</t>
@@ -1724,7 +1724,7 @@
     <t xml:space="preserve">8.52497291564941</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5711030960083</t>
+    <t xml:space="preserve">8.57110404968262</t>
   </si>
   <si>
     <t xml:space="preserve">8.59878253936768</t>
@@ -1736,7 +1736,7 @@
     <t xml:space="preserve">8.67259216308594</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60800933837891</t>
+    <t xml:space="preserve">8.60800838470459</t>
   </si>
   <si>
     <t xml:space="preserve">9.28066349029541</t>
@@ -3933,6 +3933,9 @@
   </si>
   <si>
     <t xml:space="preserve">25.8999996185303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0499992370605</t>
   </si>
 </sst>
 </file>
@@ -13782,7 +13785,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G366" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -13808,7 +13811,7 @@
         <v>12.6400003433228</v>
       </c>
       <c r="G367" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -13834,7 +13837,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G368" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -13860,7 +13863,7 @@
         <v>12.5299997329712</v>
       </c>
       <c r="G369" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -13886,7 +13889,7 @@
         <v>12.539999961853</v>
       </c>
       <c r="G370" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -13912,7 +13915,7 @@
         <v>12.2799997329712</v>
       </c>
       <c r="G371" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -13938,7 +13941,7 @@
         <v>12.210000038147</v>
       </c>
       <c r="G372" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -13990,7 +13993,7 @@
         <v>12.1099996566772</v>
       </c>
       <c r="G374" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -14016,7 +14019,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G375" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -14068,7 +14071,7 @@
         <v>11.8400001525879</v>
       </c>
       <c r="G377" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -14094,7 +14097,7 @@
         <v>11.6800003051758</v>
       </c>
       <c r="G378" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -14120,7 +14123,7 @@
         <v>11.5900001525879</v>
       </c>
       <c r="G379" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -14146,7 +14149,7 @@
         <v>11.5299997329712</v>
       </c>
       <c r="G380" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -14172,7 +14175,7 @@
         <v>11.3299999237061</v>
       </c>
       <c r="G381" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -14198,7 +14201,7 @@
         <v>11.1199998855591</v>
       </c>
       <c r="G382" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -14224,7 +14227,7 @@
         <v>10.7299995422363</v>
       </c>
       <c r="G383" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -14250,7 +14253,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G384" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -14276,7 +14279,7 @@
         <v>10.8199996948242</v>
       </c>
       <c r="G385" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -14302,7 +14305,7 @@
         <v>10.8400001525879</v>
       </c>
       <c r="G386" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -14328,7 +14331,7 @@
         <v>10.8900003433228</v>
       </c>
       <c r="G387" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -14354,7 +14357,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G388" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -14380,7 +14383,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G389" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -14406,7 +14409,7 @@
         <v>10.8800001144409</v>
       </c>
       <c r="G390" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -14432,7 +14435,7 @@
         <v>11</v>
       </c>
       <c r="G391" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -14458,7 +14461,7 @@
         <v>10.8599996566772</v>
       </c>
       <c r="G392" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -14484,7 +14487,7 @@
         <v>11.0500001907349</v>
       </c>
       <c r="G393" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -14510,7 +14513,7 @@
         <v>11.4200000762939</v>
       </c>
       <c r="G394" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -14536,7 +14539,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G395" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -14562,7 +14565,7 @@
         <v>11.8299999237061</v>
       </c>
       <c r="G396" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -14588,7 +14591,7 @@
         <v>11.8400001525879</v>
       </c>
       <c r="G397" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -14614,7 +14617,7 @@
         <v>11.6700000762939</v>
       </c>
       <c r="G398" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -14640,7 +14643,7 @@
         <v>11.6099996566772</v>
       </c>
       <c r="G399" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -14666,7 +14669,7 @@
         <v>12.0500001907349</v>
       </c>
       <c r="G400" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -14692,7 +14695,7 @@
         <v>12.0600004196167</v>
       </c>
       <c r="G401" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -14744,7 +14747,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G403" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -14770,7 +14773,7 @@
         <v>12.0900001525879</v>
       </c>
       <c r="G404" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -14796,7 +14799,7 @@
         <v>12.0500001907349</v>
       </c>
       <c r="G405" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -14822,7 +14825,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G406" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -14848,7 +14851,7 @@
         <v>12.1300001144409</v>
       </c>
       <c r="G407" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -14874,7 +14877,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G408" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -14926,7 +14929,7 @@
         <v>12.2200002670288</v>
       </c>
       <c r="G410" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -14952,7 +14955,7 @@
         <v>12.210000038147</v>
       </c>
       <c r="G411" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -14978,7 +14981,7 @@
         <v>12.0299997329712</v>
       </c>
       <c r="G412" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -15004,7 +15007,7 @@
         <v>11.8100004196167</v>
       </c>
       <c r="G413" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -15030,7 +15033,7 @@
         <v>11.6700000762939</v>
       </c>
       <c r="G414" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -15056,7 +15059,7 @@
         <v>11.75</v>
       </c>
       <c r="G415" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -15082,7 +15085,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G416" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -15108,7 +15111,7 @@
         <v>12.0500001907349</v>
       </c>
       <c r="G417" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -15160,7 +15163,7 @@
         <v>11.6599998474121</v>
       </c>
       <c r="G419" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -15186,7 +15189,7 @@
         <v>11.6199998855591</v>
       </c>
       <c r="G420" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -15212,7 +15215,7 @@
         <v>11.4899997711182</v>
       </c>
       <c r="G421" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -15238,7 +15241,7 @@
         <v>11.210000038147</v>
       </c>
       <c r="G422" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -15264,7 +15267,7 @@
         <v>11.4399995803833</v>
       </c>
       <c r="G423" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -15290,7 +15293,7 @@
         <v>11.1499996185303</v>
       </c>
       <c r="G424" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -15316,7 +15319,7 @@
         <v>11.0299997329712</v>
       </c>
       <c r="G425" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -15342,7 +15345,7 @@
         <v>11.2799997329712</v>
       </c>
       <c r="G426" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -15368,7 +15371,7 @@
         <v>11.5299997329712</v>
       </c>
       <c r="G427" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -15394,7 +15397,7 @@
         <v>11.3900003433228</v>
       </c>
       <c r="G428" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -15420,7 +15423,7 @@
         <v>11.210000038147</v>
       </c>
       <c r="G429" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -15446,7 +15449,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G430" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -15472,7 +15475,7 @@
         <v>11.0699996948242</v>
       </c>
       <c r="G431" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -15498,7 +15501,7 @@
         <v>11.1199998855591</v>
       </c>
       <c r="G432" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -15524,7 +15527,7 @@
         <v>10.9399995803833</v>
       </c>
       <c r="G433" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -15550,7 +15553,7 @@
         <v>11.0600004196167</v>
       </c>
       <c r="G434" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -15576,7 +15579,7 @@
         <v>11.1400003433228</v>
       </c>
       <c r="G435" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -15602,7 +15605,7 @@
         <v>11.2200002670288</v>
       </c>
       <c r="G436" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -15628,7 +15631,7 @@
         <v>11.1400003433228</v>
       </c>
       <c r="G437" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -15654,7 +15657,7 @@
         <v>11.0500001907349</v>
       </c>
       <c r="G438" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -15680,7 +15683,7 @@
         <v>11.0600004196167</v>
       </c>
       <c r="G439" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -15706,7 +15709,7 @@
         <v>10.9300003051758</v>
       </c>
       <c r="G440" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -15732,7 +15735,7 @@
         <v>10.8900003433228</v>
       </c>
       <c r="G441" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -15758,7 +15761,7 @@
         <v>10.8800001144409</v>
       </c>
       <c r="G442" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -15784,7 +15787,7 @@
         <v>10.8500003814697</v>
       </c>
       <c r="G443" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -15810,7 +15813,7 @@
         <v>10.8900003433228</v>
       </c>
       <c r="G444" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -15836,7 +15839,7 @@
         <v>11.3000001907349</v>
       </c>
       <c r="G445" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -15862,7 +15865,7 @@
         <v>11.6700000762939</v>
       </c>
       <c r="G446" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -15888,7 +15891,7 @@
         <v>11.4399995803833</v>
       </c>
       <c r="G447" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -15914,7 +15917,7 @@
         <v>11.1899995803833</v>
       </c>
       <c r="G448" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -15966,7 +15969,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G450" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -15992,7 +15995,7 @@
         <v>11.4099998474121</v>
       </c>
       <c r="G451" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -16018,7 +16021,7 @@
         <v>11.4200000762939</v>
       </c>
       <c r="G452" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -16044,7 +16047,7 @@
         <v>11.2200002670288</v>
       </c>
       <c r="G453" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -16070,7 +16073,7 @@
         <v>11.3900003433228</v>
       </c>
       <c r="G454" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -16096,7 +16099,7 @@
         <v>11.2799997329712</v>
       </c>
       <c r="G455" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -16122,7 +16125,7 @@
         <v>11.3699998855591</v>
       </c>
       <c r="G456" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -16148,7 +16151,7 @@
         <v>11.3599996566772</v>
       </c>
       <c r="G457" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -16174,7 +16177,7 @@
         <v>11.5</v>
       </c>
       <c r="G458" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -16200,7 +16203,7 @@
         <v>11.5799999237061</v>
       </c>
       <c r="G459" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -16226,7 +16229,7 @@
         <v>11.5200004577637</v>
       </c>
       <c r="G460" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -16252,7 +16255,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G461" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -16278,7 +16281,7 @@
         <v>11.4300003051758</v>
       </c>
       <c r="G462" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -16304,7 +16307,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G463" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -16330,7 +16333,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G464" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -16356,7 +16359,7 @@
         <v>11.5</v>
       </c>
       <c r="G465" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -16382,7 +16385,7 @@
         <v>11.4899997711182</v>
       </c>
       <c r="G466" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -16408,7 +16411,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G467" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -16434,7 +16437,7 @@
         <v>11.539999961853</v>
       </c>
       <c r="G468" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -16460,7 +16463,7 @@
         <v>11.4700002670288</v>
       </c>
       <c r="G469" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -16486,7 +16489,7 @@
         <v>11.5200004577637</v>
       </c>
       <c r="G470" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -16512,7 +16515,7 @@
         <v>11.4700002670288</v>
       </c>
       <c r="G471" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -16538,7 +16541,7 @@
         <v>11.5299997329712</v>
       </c>
       <c r="G472" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -16564,7 +16567,7 @@
         <v>11.539999961853</v>
       </c>
       <c r="G473" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -16590,7 +16593,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G474" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -16616,7 +16619,7 @@
         <v>11.4200000762939</v>
       </c>
       <c r="G475" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -16642,7 +16645,7 @@
         <v>11.1700000762939</v>
       </c>
       <c r="G476" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -16668,7 +16671,7 @@
         <v>10.7700004577637</v>
       </c>
       <c r="G477" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -16694,7 +16697,7 @@
         <v>10.6099996566772</v>
       </c>
       <c r="G478" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -16720,7 +16723,7 @@
         <v>10.2799997329712</v>
       </c>
       <c r="G479" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -16746,7 +16749,7 @@
         <v>10.1300001144409</v>
       </c>
       <c r="G480" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -16772,7 +16775,7 @@
         <v>9.52000045776367</v>
       </c>
       <c r="G481" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -16798,7 +16801,7 @@
         <v>9.8149995803833</v>
       </c>
       <c r="G482" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -16824,7 +16827,7 @@
         <v>9.55000019073486</v>
       </c>
       <c r="G483" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -16850,7 +16853,7 @@
         <v>9.57499980926514</v>
       </c>
       <c r="G484" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -16876,7 +16879,7 @@
         <v>10.1700000762939</v>
       </c>
       <c r="G485" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -16902,7 +16905,7 @@
         <v>9.81999969482422</v>
       </c>
       <c r="G486" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -16928,7 +16931,7 @@
         <v>9.83500003814697</v>
       </c>
       <c r="G487" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -16954,7 +16957,7 @@
         <v>9.65999984741211</v>
       </c>
       <c r="G488" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -16980,7 +16983,7 @@
         <v>9.75</v>
       </c>
       <c r="G489" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -17006,7 +17009,7 @@
         <v>9.86999988555908</v>
       </c>
       <c r="G490" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -17032,7 +17035,7 @@
         <v>9.80000019073486</v>
       </c>
       <c r="G491" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -17058,7 +17061,7 @@
         <v>9.77499961853027</v>
       </c>
       <c r="G492" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -17084,7 +17087,7 @@
         <v>9.53999996185303</v>
       </c>
       <c r="G493" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -17110,7 +17113,7 @@
         <v>9.47500038146973</v>
       </c>
       <c r="G494" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -17136,7 +17139,7 @@
         <v>9.25500011444092</v>
       </c>
       <c r="G495" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -17162,7 +17165,7 @@
         <v>9.22500038146973</v>
       </c>
       <c r="G496" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -17188,7 +17191,7 @@
         <v>9.19499969482422</v>
       </c>
       <c r="G497" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -17214,7 +17217,7 @@
         <v>9.32499980926514</v>
       </c>
       <c r="G498" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -17240,7 +17243,7 @@
         <v>9.26000022888184</v>
       </c>
       <c r="G499" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -17266,7 +17269,7 @@
         <v>9.38000011444092</v>
       </c>
       <c r="G500" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -17292,7 +17295,7 @@
         <v>9.40499973297119</v>
       </c>
       <c r="G501" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -17318,7 +17321,7 @@
         <v>9.45499992370605</v>
       </c>
       <c r="G502" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -17344,7 +17347,7 @@
         <v>9.44499969482422</v>
       </c>
       <c r="G503" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -17370,7 +17373,7 @@
         <v>9.72999954223633</v>
       </c>
       <c r="G504" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -17396,7 +17399,7 @@
         <v>9.72999954223633</v>
       </c>
       <c r="G505" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -17422,7 +17425,7 @@
         <v>9.61999988555908</v>
       </c>
       <c r="G506" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -17448,7 +17451,7 @@
         <v>9.60499954223633</v>
       </c>
       <c r="G507" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -17474,7 +17477,7 @@
         <v>9.48999977111816</v>
       </c>
       <c r="G508" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -17500,7 +17503,7 @@
         <v>9.52499961853027</v>
       </c>
       <c r="G509" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -17526,7 +17529,7 @@
         <v>9.65999984741211</v>
       </c>
       <c r="G510" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -17552,7 +17555,7 @@
         <v>9.63500022888184</v>
       </c>
       <c r="G511" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -17578,7 +17581,7 @@
         <v>9.69499969482422</v>
       </c>
       <c r="G512" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -17604,7 +17607,7 @@
         <v>9.77000045776367</v>
       </c>
       <c r="G513" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -17630,7 +17633,7 @@
         <v>9.93000030517578</v>
       </c>
       <c r="G514" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -17656,7 +17659,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G515" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -17682,7 +17685,7 @@
         <v>10.039999961853</v>
       </c>
       <c r="G516" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -17708,7 +17711,7 @@
         <v>10.3000001907349</v>
       </c>
       <c r="G517" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -17734,7 +17737,7 @@
         <v>10.0799999237061</v>
       </c>
       <c r="G518" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -17760,7 +17763,7 @@
         <v>10</v>
       </c>
       <c r="G519" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -17786,7 +17789,7 @@
         <v>10.0799999237061</v>
       </c>
       <c r="G520" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -17812,7 +17815,7 @@
         <v>10.0200004577637</v>
       </c>
       <c r="G521" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -17838,7 +17841,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G522" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -17864,7 +17867,7 @@
         <v>10.1199998855591</v>
       </c>
       <c r="G523" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -17890,7 +17893,7 @@
         <v>10.1199998855591</v>
       </c>
       <c r="G524" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -17916,7 +17919,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G525" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -17942,7 +17945,7 @@
         <v>10</v>
       </c>
       <c r="G526" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -17968,7 +17971,7 @@
         <v>9.97000026702881</v>
       </c>
       <c r="G527" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -17994,7 +17997,7 @@
         <v>9.90999984741211</v>
       </c>
       <c r="G528" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -18020,7 +18023,7 @@
         <v>9.88000011444092</v>
       </c>
       <c r="G529" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -18046,7 +18049,7 @@
         <v>10.1199998855591</v>
       </c>
       <c r="G530" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -18072,7 +18075,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G531" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -18098,7 +18101,7 @@
         <v>9.80000019073486</v>
       </c>
       <c r="G532" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -18124,7 +18127,7 @@
         <v>9.80000019073486</v>
       </c>
       <c r="G533" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -18150,7 +18153,7 @@
         <v>9.67000007629395</v>
       </c>
       <c r="G534" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -18176,7 +18179,7 @@
         <v>9.44999980926514</v>
       </c>
       <c r="G535" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -18202,7 +18205,7 @@
         <v>9.42000007629395</v>
       </c>
       <c r="G536" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -18228,7 +18231,7 @@
         <v>9.32999992370605</v>
       </c>
       <c r="G537" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -18254,7 +18257,7 @@
         <v>9.57999992370605</v>
       </c>
       <c r="G538" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -18280,7 +18283,7 @@
         <v>9.52000045776367</v>
       </c>
       <c r="G539" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -18306,7 +18309,7 @@
         <v>9.39999961853027</v>
       </c>
       <c r="G540" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -18332,7 +18335,7 @@
         <v>9.8100004196167</v>
       </c>
       <c r="G541" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -18358,7 +18361,7 @@
         <v>10.0799999237061</v>
       </c>
       <c r="G542" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -18384,7 +18387,7 @@
         <v>10.0200004577637</v>
       </c>
       <c r="G543" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -18410,7 +18413,7 @@
         <v>10.1199998855591</v>
       </c>
       <c r="G544" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -18436,7 +18439,7 @@
         <v>10.1199998855591</v>
       </c>
       <c r="G545" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -18462,7 +18465,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G546" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -18488,7 +18491,7 @@
         <v>10.2799997329712</v>
       </c>
       <c r="G547" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -18514,7 +18517,7 @@
         <v>10.5</v>
       </c>
       <c r="G548" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -18540,7 +18543,7 @@
         <v>10.3199996948242</v>
       </c>
       <c r="G549" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -18566,7 +18569,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G550" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -18592,7 +18595,7 @@
         <v>10.3400001525879</v>
       </c>
       <c r="G551" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -18618,7 +18621,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G552" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -18644,7 +18647,7 @@
         <v>10.1599998474121</v>
       </c>
       <c r="G553" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -18670,7 +18673,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G554" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -18696,7 +18699,7 @@
         <v>10.1400003433228</v>
       </c>
       <c r="G555" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -18722,7 +18725,7 @@
         <v>10.4200000762939</v>
       </c>
       <c r="G556" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -18748,7 +18751,7 @@
         <v>10.539999961853</v>
       </c>
       <c r="G557" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -18774,7 +18777,7 @@
         <v>11.039999961853</v>
       </c>
       <c r="G558" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -18800,7 +18803,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G559" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -18826,7 +18829,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G560" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -18852,7 +18855,7 @@
         <v>10.9399995803833</v>
       </c>
       <c r="G561" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -18878,7 +18881,7 @@
         <v>11</v>
       </c>
       <c r="G562" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -18904,7 +18907,7 @@
         <v>10.8400001525879</v>
       </c>
       <c r="G563" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -18930,7 +18933,7 @@
         <v>10.8599996566772</v>
       </c>
       <c r="G564" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -18956,7 +18959,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G565" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -18982,7 +18985,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G566" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -19008,7 +19011,7 @@
         <v>10.8599996566772</v>
       </c>
       <c r="G567" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -19034,7 +19037,7 @@
         <v>10.8800001144409</v>
       </c>
       <c r="G568" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -19060,7 +19063,7 @@
         <v>10.7600002288818</v>
       </c>
       <c r="G569" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -19086,7 +19089,7 @@
         <v>10.8400001525879</v>
       </c>
       <c r="G570" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -19112,7 +19115,7 @@
         <v>10.8400001525879</v>
       </c>
       <c r="G571" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -19138,7 +19141,7 @@
         <v>10.8800001144409</v>
       </c>
       <c r="G572" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -19164,7 +19167,7 @@
         <v>10.7399997711182</v>
       </c>
       <c r="G573" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -19190,7 +19193,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G574" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -19216,7 +19219,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G575" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -19242,7 +19245,7 @@
         <v>10.6599998474121</v>
       </c>
       <c r="G576" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -19268,7 +19271,7 @@
         <v>10.7200002670288</v>
       </c>
       <c r="G577" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -19294,7 +19297,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G578" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -19320,7 +19323,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G579" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -19346,7 +19349,7 @@
         <v>10.9399995803833</v>
       </c>
       <c r="G580" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -19372,7 +19375,7 @@
         <v>10.8800001144409</v>
       </c>
       <c r="G581" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -19398,7 +19401,7 @@
         <v>10.8599996566772</v>
       </c>
       <c r="G582" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -19424,7 +19427,7 @@
         <v>10.9200000762939</v>
       </c>
       <c r="G583" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -19450,7 +19453,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G584" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -19476,7 +19479,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G585" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -19502,7 +19505,7 @@
         <v>11.2799997329712</v>
       </c>
       <c r="G586" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -19528,7 +19531,7 @@
         <v>11.4200000762939</v>
       </c>
       <c r="G587" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -19554,7 +19557,7 @@
         <v>12.039999961853</v>
       </c>
       <c r="G588" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -19580,7 +19583,7 @@
         <v>12.460000038147</v>
       </c>
       <c r="G589" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -19606,7 +19609,7 @@
         <v>12.5799999237061</v>
       </c>
       <c r="G590" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -19632,7 +19635,7 @@
         <v>12.5200004577637</v>
       </c>
       <c r="G591" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -19658,7 +19661,7 @@
         <v>12.5200004577637</v>
       </c>
       <c r="G592" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -19684,7 +19687,7 @@
         <v>12.5799999237061</v>
       </c>
       <c r="G593" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -19710,7 +19713,7 @@
         <v>12.9200000762939</v>
       </c>
       <c r="G594" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -19736,7 +19739,7 @@
         <v>13.4799995422363</v>
       </c>
       <c r="G595" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -19762,7 +19765,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G596" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -19788,7 +19791,7 @@
         <v>13.5200004577637</v>
       </c>
       <c r="G597" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -19814,7 +19817,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G598" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -19840,7 +19843,7 @@
         <v>12.960000038147</v>
       </c>
       <c r="G599" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -19866,7 +19869,7 @@
         <v>12.960000038147</v>
       </c>
       <c r="G600" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -19892,7 +19895,7 @@
         <v>12.9200000762939</v>
       </c>
       <c r="G601" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -19918,7 +19921,7 @@
         <v>12.460000038147</v>
       </c>
       <c r="G602" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -19944,7 +19947,7 @@
         <v>12.3400001525879</v>
       </c>
       <c r="G603" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -19970,7 +19973,7 @@
         <v>12.3199996948242</v>
       </c>
       <c r="G604" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -19996,7 +19999,7 @@
         <v>11.960000038147</v>
       </c>
       <c r="G605" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -20022,7 +20025,7 @@
         <v>11.8800001144409</v>
       </c>
       <c r="G606" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -20048,7 +20051,7 @@
         <v>11.460000038147</v>
       </c>
       <c r="G607" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -20074,7 +20077,7 @@
         <v>11.6800003051758</v>
       </c>
       <c r="G608" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -20100,7 +20103,7 @@
         <v>11.5799999237061</v>
       </c>
       <c r="G609" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -20126,7 +20129,7 @@
         <v>11.5799999237061</v>
       </c>
       <c r="G610" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -20152,7 +20155,7 @@
         <v>11.6199998855591</v>
       </c>
       <c r="G611" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -20178,7 +20181,7 @@
         <v>11.4399995803833</v>
       </c>
       <c r="G612" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -20204,7 +20207,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G613" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -20230,7 +20233,7 @@
         <v>10.9200000762939</v>
       </c>
       <c r="G614" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -20256,7 +20259,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G615" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -20282,7 +20285,7 @@
         <v>10.9799995422363</v>
       </c>
       <c r="G616" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -20308,7 +20311,7 @@
         <v>11.2200002670288</v>
       </c>
       <c r="G617" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -20334,7 +20337,7 @@
         <v>11</v>
       </c>
       <c r="G618" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -20360,7 +20363,7 @@
         <v>11.1599998474121</v>
       </c>
       <c r="G619" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -20386,7 +20389,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G620" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -20412,7 +20415,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G621" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -20438,7 +20441,7 @@
         <v>11.0600004196167</v>
       </c>
       <c r="G622" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -20464,7 +20467,7 @@
         <v>11.3599996566772</v>
       </c>
       <c r="G623" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -20490,7 +20493,7 @@
         <v>11.2600002288818</v>
       </c>
       <c r="G624" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -20516,7 +20519,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G625" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -20542,7 +20545,7 @@
         <v>11.2799997329712</v>
       </c>
       <c r="G626" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -20568,7 +20571,7 @@
         <v>11.1400003433228</v>
       </c>
       <c r="G627" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -20594,7 +20597,7 @@
         <v>10.9799995422363</v>
       </c>
       <c r="G628" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -20620,7 +20623,7 @@
         <v>11.1599998474121</v>
       </c>
       <c r="G629" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -20646,7 +20649,7 @@
         <v>11.1400003433228</v>
       </c>
       <c r="G630" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -20672,7 +20675,7 @@
         <v>11.0200004577637</v>
       </c>
       <c r="G631" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -20698,7 +20701,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G632" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -20724,7 +20727,7 @@
         <v>10.6800003051758</v>
       </c>
       <c r="G633" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -20750,7 +20753,7 @@
         <v>10.6999998092651</v>
       </c>
       <c r="G634" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -20776,7 +20779,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G635" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -20802,7 +20805,7 @@
         <v>10.3400001525879</v>
       </c>
       <c r="G636" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -20828,7 +20831,7 @@
         <v>10.5600004196167</v>
       </c>
       <c r="G637" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -20854,7 +20857,7 @@
         <v>10.6199998855591</v>
       </c>
       <c r="G638" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -20880,7 +20883,7 @@
         <v>10.539999961853</v>
       </c>
       <c r="G639" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -20906,7 +20909,7 @@
         <v>10.5</v>
       </c>
       <c r="G640" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -20932,7 +20935,7 @@
         <v>10.6199998855591</v>
       </c>
       <c r="G641" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -20958,7 +20961,7 @@
         <v>10.6400003433228</v>
       </c>
       <c r="G642" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -20984,7 +20987,7 @@
         <v>10.5799999237061</v>
       </c>
       <c r="G643" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -21010,7 +21013,7 @@
         <v>10.4399995803833</v>
       </c>
       <c r="G644" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -21036,7 +21039,7 @@
         <v>10.1599998474121</v>
       </c>
       <c r="G645" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -21062,7 +21065,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G646" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -21088,7 +21091,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G647" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -21114,7 +21117,7 @@
         <v>10.2200002670288</v>
       </c>
       <c r="G648" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -21140,7 +21143,7 @@
         <v>10.1599998474121</v>
       </c>
       <c r="G649" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -21166,7 +21169,7 @@
         <v>10.1800003051758</v>
       </c>
       <c r="G650" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -21192,7 +21195,7 @@
         <v>10.1199998855591</v>
       </c>
       <c r="G651" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -21218,7 +21221,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G652" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -21244,7 +21247,7 @@
         <v>9.92000007629395</v>
       </c>
       <c r="G653" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -21270,7 +21273,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G654" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -21296,7 +21299,7 @@
         <v>9.75</v>
       </c>
       <c r="G655" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -21322,7 +21325,7 @@
         <v>9.6899995803833</v>
       </c>
       <c r="G656" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -21348,7 +21351,7 @@
         <v>9.85999965667725</v>
       </c>
       <c r="G657" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -21374,7 +21377,7 @@
         <v>9.77999973297119</v>
       </c>
       <c r="G658" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -21400,7 +21403,7 @@
         <v>9.80000019073486</v>
       </c>
       <c r="G659" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -21426,7 +21429,7 @@
         <v>9.80000019073486</v>
       </c>
       <c r="G660" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -21452,7 +21455,7 @@
         <v>9.6899995803833</v>
       </c>
       <c r="G661" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -21478,7 +21481,7 @@
         <v>9.76000022888184</v>
       </c>
       <c r="G662" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -21504,7 +21507,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G663" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -21530,7 +21533,7 @@
         <v>9.03999996185303</v>
       </c>
       <c r="G664" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -21556,7 +21559,7 @@
         <v>9.73999977111816</v>
       </c>
       <c r="G665" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -21582,7 +21585,7 @@
         <v>9.6899995803833</v>
       </c>
       <c r="G666" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -21608,7 +21611,7 @@
         <v>9.5</v>
       </c>
       <c r="G667" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -21634,7 +21637,7 @@
         <v>9.43000030517578</v>
       </c>
       <c r="G668" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -21660,7 +21663,7 @@
         <v>9.44999980926514</v>
       </c>
       <c r="G669" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -21686,7 +21689,7 @@
         <v>9.42000007629395</v>
       </c>
       <c r="G670" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -21712,7 +21715,7 @@
         <v>9.11999988555908</v>
       </c>
       <c r="G671" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -21738,7 +21741,7 @@
         <v>9.22000026702881</v>
       </c>
       <c r="G672" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -21764,7 +21767,7 @@
         <v>9.42000007629395</v>
       </c>
       <c r="G673" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -21790,7 +21793,7 @@
         <v>9.85999965667725</v>
       </c>
       <c r="G674" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -21816,7 +21819,7 @@
         <v>10.2600002288818</v>
       </c>
       <c r="G675" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -21842,7 +21845,7 @@
         <v>10.2399997711182</v>
       </c>
       <c r="G676" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -21868,7 +21871,7 @@
         <v>10.2399997711182</v>
       </c>
       <c r="G677" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -21894,7 +21897,7 @@
         <v>10.1599998474121</v>
       </c>
       <c r="G678" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -21920,7 +21923,7 @@
         <v>10.1800003051758</v>
       </c>
       <c r="G679" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -21946,7 +21949,7 @@
         <v>10.039999961853</v>
       </c>
       <c r="G680" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -21972,7 +21975,7 @@
         <v>9.82999992370605</v>
       </c>
       <c r="G681" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -21998,7 +22001,7 @@
         <v>10.2600002288818</v>
       </c>
       <c r="G682" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -22024,7 +22027,7 @@
         <v>10.2200002670288</v>
       </c>
       <c r="G683" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -22050,7 +22053,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G684" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -22076,7 +22079,7 @@
         <v>9.96000003814697</v>
       </c>
       <c r="G685" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -22102,7 +22105,7 @@
         <v>9.86999988555908</v>
       </c>
       <c r="G686" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -22128,7 +22131,7 @@
         <v>9.78999996185303</v>
       </c>
       <c r="G687" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -22154,7 +22157,7 @@
         <v>9.78999996185303</v>
       </c>
       <c r="G688" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -22180,7 +22183,7 @@
         <v>9.78999996185303</v>
       </c>
       <c r="G689" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -22206,7 +22209,7 @@
         <v>9.81999969482422</v>
       </c>
       <c r="G690" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -22232,7 +22235,7 @@
         <v>9.69999980926514</v>
       </c>
       <c r="G691" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -22258,7 +22261,7 @@
         <v>9.78999996185303</v>
       </c>
       <c r="G692" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -22284,7 +22287,7 @@
         <v>9.68000030517578</v>
       </c>
       <c r="G693" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -22310,7 +22313,7 @@
         <v>9.6899995803833</v>
       </c>
       <c r="G694" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -22336,7 +22339,7 @@
         <v>9.69999980926514</v>
       </c>
       <c r="G695" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -22362,7 +22365,7 @@
         <v>9.69999980926514</v>
       </c>
       <c r="G696" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -22388,7 +22391,7 @@
         <v>9.59000015258789</v>
       </c>
       <c r="G697" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -22414,7 +22417,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G698" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -22440,7 +22443,7 @@
         <v>9.64999961853027</v>
       </c>
       <c r="G699" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -22466,7 +22469,7 @@
         <v>9.57999992370605</v>
       </c>
       <c r="G700" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -22492,7 +22495,7 @@
         <v>9.51000022888184</v>
       </c>
       <c r="G701" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -22518,7 +22521,7 @@
         <v>9.44999980926514</v>
       </c>
       <c r="G702" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -22544,7 +22547,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G703" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -22570,7 +22573,7 @@
         <v>9.38000011444092</v>
       </c>
       <c r="G704" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -22596,7 +22599,7 @@
         <v>9.39000034332275</v>
       </c>
       <c r="G705" t="s">
-        <v>392</v>
+        <v>488</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -22648,7 +22651,7 @@
         <v>9.11999988555908</v>
       </c>
       <c r="G707" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -24234,7 +24237,7 @@
         <v>9.11999988555908</v>
       </c>
       <c r="G768" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -24468,7 +24471,7 @@
         <v>9.39000034332275</v>
       </c>
       <c r="G777" t="s">
-        <v>392</v>
+        <v>488</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -24494,7 +24497,7 @@
         <v>9.38000011444092</v>
       </c>
       <c r="G778" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -24520,7 +24523,7 @@
         <v>9.5</v>
       </c>
       <c r="G779" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -24546,7 +24549,7 @@
         <v>9.75</v>
       </c>
       <c r="G780" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -24572,7 +24575,7 @@
         <v>9.80000019073486</v>
       </c>
       <c r="G781" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -24650,7 +24653,7 @@
         <v>9.80000019073486</v>
       </c>
       <c r="G784" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -24702,7 +24705,7 @@
         <v>9.64999961853027</v>
       </c>
       <c r="G786" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -24780,7 +24783,7 @@
         <v>9.80000019073486</v>
       </c>
       <c r="G789" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -24832,7 +24835,7 @@
         <v>9.39000034332275</v>
       </c>
       <c r="G791" t="s">
-        <v>392</v>
+        <v>488</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -24884,7 +24887,7 @@
         <v>9.80000019073486</v>
       </c>
       <c r="G793" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -24936,7 +24939,7 @@
         <v>9.75</v>
       </c>
       <c r="G795" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -24962,7 +24965,7 @@
         <v>9.81999969482422</v>
       </c>
       <c r="G796" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -25014,7 +25017,7 @@
         <v>9.75</v>
       </c>
       <c r="G798" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -25066,7 +25069,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G800" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -25092,7 +25095,7 @@
         <v>9.73999977111816</v>
       </c>
       <c r="G801" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -25118,7 +25121,7 @@
         <v>9.77999973297119</v>
       </c>
       <c r="G802" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -25248,7 +25251,7 @@
         <v>9.64999961853027</v>
       </c>
       <c r="G807" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -25300,7 +25303,7 @@
         <v>9.77999973297119</v>
       </c>
       <c r="G809" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -25326,7 +25329,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G810" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -25534,7 +25537,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G818" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -25690,7 +25693,7 @@
         <v>9.03999996185303</v>
       </c>
       <c r="G824" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -25846,7 +25849,7 @@
         <v>9.11999988555908</v>
       </c>
       <c r="G830" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -26184,7 +26187,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G843" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -26236,7 +26239,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G845" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -60824,7 +60827,7 @@
     </row>
     <row r="2176">
       <c r="A2176" s="1" t="n">
-        <v>45491.6494907407</v>
+        <v>45491.2916666667</v>
       </c>
       <c r="B2176" t="n">
         <v>10323</v>
@@ -60845,6 +60848,32 @@
         <v>1299</v>
       </c>
       <c r="H2176" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2177">
+      <c r="A2177" s="1" t="n">
+        <v>45492.6496296296</v>
+      </c>
+      <c r="B2177" t="n">
+        <v>6961</v>
+      </c>
+      <c r="C2177" t="n">
+        <v>26.2000007629395</v>
+      </c>
+      <c r="D2177" t="n">
+        <v>25.8999996185303</v>
+      </c>
+      <c r="E2177" t="n">
+        <v>26.2000007629395</v>
+      </c>
+      <c r="F2177" t="n">
+        <v>26.0499992370605</v>
+      </c>
+      <c r="G2177" t="s">
+        <v>1307</v>
+      </c>
+      <c r="H2177" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TXT.MI.xlsx
+++ b/data/TXT.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="1311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="1312">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45555591583252</t>
+    <t xml:space="preserve">6.4555549621582</t>
   </si>
   <si>
     <t xml:space="preserve">TXT.MI</t>
@@ -56,7 +56,7 @@
     <t xml:space="preserve">6.31442880630493</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13701152801514</t>
+    <t xml:space="preserve">6.13701200485229</t>
   </si>
   <si>
     <t xml:space="preserve">6.16926956176758</t>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">5.89507961273193</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80637168884277</t>
+    <t xml:space="preserve">5.80637073516846</t>
   </si>
   <si>
     <t xml:space="preserve">5.98782014846802</t>
@@ -80,64 +80,64 @@
     <t xml:space="preserve">5.79024219512939</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76201725006104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76604890823364</t>
+    <t xml:space="preserve">5.76201677322388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76604843139648</t>
   </si>
   <si>
     <t xml:space="preserve">5.78217792510986</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04023790359497</t>
+    <t xml:space="preserve">6.04023838043213</t>
   </si>
   <si>
     <t xml:space="preserve">5.92733716964722</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9595947265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98378801345825</t>
+    <t xml:space="preserve">5.95959424972534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98378753662109</t>
   </si>
   <si>
     <t xml:space="preserve">6.04830360412598</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89104700088501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81846809387207</t>
+    <t xml:space="preserve">5.89104747772217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81846761703491</t>
   </si>
   <si>
     <t xml:space="preserve">6.21765613555908</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19346189498901</t>
+    <t xml:space="preserve">6.19346237182617</t>
   </si>
   <si>
     <t xml:space="preserve">6.24991226196289</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33862161636353</t>
+    <t xml:space="preserve">6.33862113952637</t>
   </si>
   <si>
     <t xml:space="preserve">6.26604223251343</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24184846878052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25394630432129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45152282714844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50394201278687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45958852767944</t>
+    <t xml:space="preserve">6.24184799194336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25394582748413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4515233039856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50394153594971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45958805084229</t>
   </si>
   <si>
     <t xml:space="preserve">6.53216743469238</t>
@@ -155,7 +155,7 @@
     <t xml:space="preserve">6.12088346481323</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29829883575439</t>
+    <t xml:space="preserve">6.29829931259155</t>
   </si>
   <si>
     <t xml:space="preserve">6.23781681060791</t>
@@ -164,25 +164,25 @@
     <t xml:space="preserve">6.18539810180664</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19749450683594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15314102172852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15717363357544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03217458724976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06040000915527</t>
+    <t xml:space="preserve">6.19749402999878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15314054489136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15717315673828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0321741104126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06039953231812</t>
   </si>
   <si>
     <t xml:space="preserve">5.99185180664062</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17733383178711</t>
+    <t xml:space="preserve">6.17733335494995</t>
   </si>
   <si>
     <t xml:space="preserve">6.09668970108032</t>
@@ -197,13 +197,13 @@
     <t xml:space="preserve">6.22571992874146</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16523742675781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25797843933105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07652854919434</t>
+    <t xml:space="preserve">6.16523694992065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2579779624939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07652807235718</t>
   </si>
   <si>
     <t xml:space="preserve">6.14507532119751</t>
@@ -218,13 +218,13 @@
     <t xml:space="preserve">5.97975540161133</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16120481491089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11685085296631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11281824111938</t>
+    <t xml:space="preserve">6.16120433807373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11685037612915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11281728744507</t>
   </si>
   <si>
     <t xml:space="preserve">6.23734998703003</t>
@@ -3945,6 +3945,9 @@
   </si>
   <si>
     <t xml:space="preserve">25.8500003814697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4500007629395</t>
   </si>
 </sst>
 </file>
@@ -60940,7 +60943,7 @@
     </row>
     <row r="2180">
       <c r="A2180" s="1" t="n">
-        <v>45497.6495833333</v>
+        <v>45497.2916666667</v>
       </c>
       <c r="B2180" t="n">
         <v>13095</v>
@@ -60961,6 +60964,32 @@
         <v>1310</v>
       </c>
       <c r="H2180" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2181">
+      <c r="A2181" s="1" t="n">
+        <v>45498.6493865741</v>
+      </c>
+      <c r="B2181" t="n">
+        <v>19310</v>
+      </c>
+      <c r="C2181" t="n">
+        <v>25.7999992370605</v>
+      </c>
+      <c r="D2181" t="n">
+        <v>25.0499992370605</v>
+      </c>
+      <c r="E2181" t="n">
+        <v>25.7999992370605</v>
+      </c>
+      <c r="F2181" t="n">
+        <v>25.4500007629395</v>
+      </c>
+      <c r="G2181" t="s">
+        <v>1311</v>
+      </c>
+      <c r="H2181" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TXT.MI.xlsx
+++ b/data/TXT.MI.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">TXT.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43539476394653</t>
+    <t xml:space="preserve">6.43539381027222</t>
   </si>
   <si>
     <t xml:space="preserve">6.44345855712891</t>
@@ -59,265 +59,268 @@
     <t xml:space="preserve">6.13701152801514</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16926956176758</t>
+    <t xml:space="preserve">6.16926908493042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12894678115845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96765851974487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89507961273193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80637121200562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98781967163086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79024219512939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76201677322388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7660493850708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78217792510986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04023838043213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92733716964722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95959424972534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98378849029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04830312728882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89104700088501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81846809387207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21765613555908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19346189498901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24991321563721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33862161636353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26604223251343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24184846878052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25394582748413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45152378082275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50394153594971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45958805084229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5321683883667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5482964515686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54023122787476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28217172622681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12088298797607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29829978942871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23781633377075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18539810180664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19749450683594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1531400680542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15717267990112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03217458724976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06039953231812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99185228347778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17733335494995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09668922424316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2015266418457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1410436630249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22571992874146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16523694992065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25797843933105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07652807235718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14507579803467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05636787414551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99991655349731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97975540161133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16120481491089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11685085296631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11281824111938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23734998703003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2707052230835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11643886566162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20399522781372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25402784347534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1372857093811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21233367919922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2331805229187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24568891525269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16230201721191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33324527740479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2415189743042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17064046859741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1831488609314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15396356582642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08725452423096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93715620040894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94966506958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85377025604248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03722095489502</t>
   </si>
   <si>
     <t xml:space="preserve">6.12894725799561</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96765995025635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89507913589478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80637073516846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98781967163086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79024219512939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76201677322388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76604890823364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78217792510986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04023885726929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92733716964722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95959424972534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98378849029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04830312728882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89104700088501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81846857070923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21765565872192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19346237182617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24991321563721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33862209320068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26604175567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24184846878052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25394535064697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45152378082275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50394201278687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45958805084229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5321683883667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54829549789429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54023170471191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28217077255249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12088251113892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29829978942871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23781681060791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1853985786438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19749450683594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15314054489136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15717267990112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0321741104126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06040048599243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99185228347778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17733335494995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09668970108032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2015266418457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1410436630249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22571992874146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16523694992065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2579779624939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07652902603149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14507627487183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05636787414551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99991607666016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97975587844849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16120433807373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11685037612915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11281824111938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23734998703003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27070569992065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11643886566162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20399570465088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25402784347534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13728618621826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21233367919922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2331805229187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24568891525269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16230154037476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33324527740479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24151992797852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17064142227173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1831488609314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15396308898926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0872540473938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93715667724609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94966506958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85376977920532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03722095489502</t>
-  </si>
-  <si>
     <t xml:space="preserve">6.08308458328247</t>
   </si>
   <si>
     <t xml:space="preserve">5.98718881607056</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00386619567871</t>
+    <t xml:space="preserve">6.00386667251587</t>
   </si>
   <si>
     <t xml:space="preserve">5.89546346664429</t>
   </si>
   <si>
-    <t xml:space="preserve">5.82875299453735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90380191802979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95383453369141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90797185897827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16647148132324</t>
+    <t xml:space="preserve">5.82875394821167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90380144119263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95383405685425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90797138214111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1664719581604</t>
   </si>
   <si>
     <t xml:space="preserve">6.05806827545166</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14562511444092</t>
+    <t xml:space="preserve">6.1456241607666</t>
   </si>
   <si>
     <t xml:space="preserve">6.31239891052246</t>
@@ -326,16 +329,16 @@
     <t xml:space="preserve">6.19982624053955</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07474565505981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14145517349243</t>
+    <t xml:space="preserve">6.07474517822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14145469665527</t>
   </si>
   <si>
     <t xml:space="preserve">6.22067308425903</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29572153091431</t>
+    <t xml:space="preserve">6.29572105407715</t>
   </si>
   <si>
     <t xml:space="preserve">6.17480993270874</t>
@@ -344,13 +347,13 @@
     <t xml:space="preserve">6.19565677642822</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18731832504272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12060832977295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19148731231689</t>
+    <t xml:space="preserve">6.18731880187988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12060880661011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19148778915405</t>
   </si>
   <si>
     <t xml:space="preserve">6.11226940155029</t>
@@ -359,13 +362,13 @@
     <t xml:space="preserve">6.0955924987793</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01220512390137</t>
+    <t xml:space="preserve">6.01220560073853</t>
   </si>
   <si>
     <t xml:space="preserve">6.14979362487793</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02888298034668</t>
+    <t xml:space="preserve">6.02888250350952</t>
   </si>
   <si>
     <t xml:space="preserve">5.96634244918823</t>
@@ -374,16 +377,16 @@
     <t xml:space="preserve">5.99552774429321</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07891464233398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99969673156738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04556035995483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9288182258606</t>
+    <t xml:space="preserve">6.07891511917114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9996976852417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04555988311768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92881870269775</t>
   </si>
   <si>
     <t xml:space="preserve">5.97468137741089</t>
@@ -398,28 +401,28 @@
     <t xml:space="preserve">5.89129400253296</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89963245391846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79956865310669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94549560546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97885084152222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92048025131226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9621729850769</t>
+    <t xml:space="preserve">5.8996319770813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79956769943237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94549608230591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97885036468506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9204797744751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96217346191406</t>
   </si>
   <si>
     <t xml:space="preserve">6.10393142700195</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47083425521851</t>
+    <t xml:space="preserve">6.47083473205566</t>
   </si>
   <si>
     <t xml:space="preserve">6.49585008621216</t>
@@ -428,22 +431,22 @@
     <t xml:space="preserve">6.57923650741577</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59591436386108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50001907348633</t>
+    <t xml:space="preserve">6.59591484069824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50001955032349</t>
   </si>
   <si>
     <t xml:space="preserve">6.33741474151611</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50418901443481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42914056777954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4458179473877</t>
+    <t xml:space="preserve">6.50418949127197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4291410446167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44581747055054</t>
   </si>
   <si>
     <t xml:space="preserve">6.27904415130615</t>
@@ -452,37 +455,37 @@
     <t xml:space="preserve">6.38327789306641</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42497062683105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45415639877319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42080211639404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55422163009644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38744688034058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53754329681396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37910890579224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41663265228271</t>
+    <t xml:space="preserve">6.42497158050537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45415592193604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42080163955688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55422115325928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38744640350342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53754425048828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37910842895508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41663312911987</t>
   </si>
   <si>
     <t xml:space="preserve">6.34992265701294</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43747901916504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22901201248169</t>
+    <t xml:space="preserve">6.4374794960022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22901153564453</t>
   </si>
   <si>
     <t xml:space="preserve">6.01637506484985</t>
@@ -491,7 +494,7 @@
     <t xml:space="preserve">6.05389928817749</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06223773956299</t>
+    <t xml:space="preserve">6.06223726272583</t>
   </si>
   <si>
     <t xml:space="preserve">6.07057619094849</t>
@@ -500,19 +503,19 @@
     <t xml:space="preserve">6.37076950073242</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41246271133423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32907581329346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45832586288452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28738164901733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21650314331055</t>
+    <t xml:space="preserve">6.41246318817139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32907629013062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45832633972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28738260269165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21650362014771</t>
   </si>
   <si>
     <t xml:space="preserve">6.74601173400879</t>
@@ -521,121 +524,121 @@
     <t xml:space="preserve">6.72933340072632</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69597864151001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77102661132812</t>
+    <t xml:space="preserve">6.69597911834717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77102708816528</t>
   </si>
   <si>
     <t xml:space="preserve">6.7877049446106</t>
   </si>
   <si>
-    <t xml:space="preserve">7.08789777755737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25467205047607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22965669631958</t>
+    <t xml:space="preserve">7.08789873123169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25467252731323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22965621948242</t>
   </si>
   <si>
     <t xml:space="preserve">7.0837287902832</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06288194656372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1295919418335</t>
+    <t xml:space="preserve">7.06288242340088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12959146499634</t>
   </si>
   <si>
     <t xml:space="preserve">7.07122039794922</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10457611083984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03786516189575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25884056091309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65493154525757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68828582763672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65076160430908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13792991638184</t>
+    <t xml:space="preserve">7.10457515716553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03786611557007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25884103775024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65493059158325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6882848739624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65076112747192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13793039321899</t>
   </si>
   <si>
     <t xml:space="preserve">7.35473585128784</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49649477005005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52984857559204</t>
+    <t xml:space="preserve">7.49649429321289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52984952926636</t>
   </si>
   <si>
     <t xml:space="preserve">7.54235744476318</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48815536499023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32972145080566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22131681442261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15460872650146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99200296401978</t>
+    <t xml:space="preserve">7.48815488815308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32972049713135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22131729125977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15460729598999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99200344085693</t>
   </si>
   <si>
     <t xml:space="preserve">7.12125301361084</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1087441444397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09206771850586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05454301834106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88360023498535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0045108795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06705141067505</t>
+    <t xml:space="preserve">7.10874462127686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0920672416687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05454349517822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88359975814819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00451135635376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06705188751221</t>
   </si>
   <si>
     <t xml:space="preserve">6.93780088424683</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96281814575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00867938995361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27968740463257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32138156890869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59655809402466</t>
+    <t xml:space="preserve">6.96281719207764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00867986679077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27968835830688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32138109207153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59655857086182</t>
   </si>
   <si>
     <t xml:space="preserve">7.56320428848267</t>
@@ -644,25 +647,25 @@
     <t xml:space="preserve">7.69662284851074</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74665546417236</t>
+    <t xml:space="preserve">7.74665594100952</t>
   </si>
   <si>
     <t xml:space="preserve">7.71330118179321</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95929193496704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06352710723877</t>
+    <t xml:space="preserve">7.9592924118042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06352615356445</t>
   </si>
   <si>
     <t xml:space="preserve">8.08854198455811</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13023662567139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90926122665405</t>
+    <t xml:space="preserve">8.13023567199707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90925979614258</t>
   </si>
   <si>
     <t xml:space="preserve">8.31785774230957</t>
@@ -674,25 +677,25 @@
     <t xml:space="preserve">8.31368732452393</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54717063903809</t>
+    <t xml:space="preserve">8.5471715927124</t>
   </si>
   <si>
     <t xml:space="preserve">8.55550956726074</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42209148406982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45544528961182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49713897705078</t>
+    <t xml:space="preserve">8.42209053039551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4554443359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49713802337646</t>
   </si>
   <si>
     <t xml:space="preserve">8.68892955780029</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69726657867432</t>
+    <t xml:space="preserve">8.69726753234863</t>
   </si>
   <si>
     <t xml:space="preserve">8.65557479858398</t>
@@ -701,16 +704,16 @@
     <t xml:space="preserve">8.58886432647705</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38873672485352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09688091278076</t>
+    <t xml:space="preserve">8.3887357711792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09688186645508</t>
   </si>
   <si>
     <t xml:space="preserve">7.82170391082764</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01766395568848</t>
+    <t xml:space="preserve">8.01766300201416</t>
   </si>
   <si>
     <t xml:space="preserve">8.23447036743164</t>
@@ -719,13 +722,13 @@
     <t xml:space="preserve">8.57218742370605</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66391277313232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83902740478516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92241287231445</t>
+    <t xml:space="preserve">8.66391372680664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83902645111084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92241191864014</t>
   </si>
   <si>
     <t xml:space="preserve">9.43941211700439</t>
@@ -734,25 +737,25 @@
     <t xml:space="preserve">9.51446056365967</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1565408706665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2315893173218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5651378631592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7652673721313</t>
+    <t xml:space="preserve">10.1565418243408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2315883636475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5651369094849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.765266418457</t>
   </si>
   <si>
     <t xml:space="preserve">10.8319759368896</t>
   </si>
   <si>
-    <t xml:space="preserve">10.365008354187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4233798980713</t>
+    <t xml:space="preserve">10.3650074005127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.423378944397</t>
   </si>
   <si>
     <t xml:space="preserve">10.6540613174438</t>
@@ -767,16 +770,16 @@
     <t xml:space="preserve">10.1328916549683</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1926975250244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1243486404419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2439613342285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2525033950806</t>
+    <t xml:space="preserve">10.1926984786987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1243476867676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2439603805542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2525043487549</t>
   </si>
   <si>
     <t xml:space="preserve">10.1499795913696</t>
@@ -785,28 +788,28 @@
     <t xml:space="preserve">10.4575538635254</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7822170257568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7394981384277</t>
+    <t xml:space="preserve">10.7822179794312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7394971847534</t>
   </si>
   <si>
     <t xml:space="preserve">10.6882362365723</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5515356063843</t>
+    <t xml:space="preserve">10.5515365600586</t>
   </si>
   <si>
     <t xml:space="preserve">10.7993049621582</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7224092483521</t>
+    <t xml:space="preserve">10.7224111557007</t>
   </si>
   <si>
     <t xml:space="preserve">10.7053232192993</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7138671875</t>
+    <t xml:space="preserve">10.7138662338257</t>
   </si>
   <si>
     <t xml:space="preserve">10.4917287826538</t>
@@ -815,46 +818,46 @@
     <t xml:space="preserve">10.431923866272</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3464860916138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3806591033936</t>
+    <t xml:space="preserve">10.3464851379395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3806610107422</t>
   </si>
   <si>
     <t xml:space="preserve">10.1158046722412</t>
   </si>
   <si>
-    <t xml:space="preserve">9.97910499572754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9022102355957</t>
+    <t xml:space="preserve">9.97910594940186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90221118927002</t>
   </si>
   <si>
     <t xml:space="preserve">9.85094738006592</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68007278442383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50065231323242</t>
+    <t xml:space="preserve">9.68007183074951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50065326690674</t>
   </si>
   <si>
     <t xml:space="preserve">9.16744709014893</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22725391387939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24433994293213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26142883300781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30414772033691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29560470581055</t>
+    <t xml:space="preserve">9.22725486755371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24434089660645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2614278793335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30414867401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29560375213623</t>
   </si>
   <si>
     <t xml:space="preserve">9.3981294631958</t>
@@ -878,10 +881,10 @@
     <t xml:space="preserve">9.97056102752686</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91929817199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2952222824097</t>
+    <t xml:space="preserve">9.91929721832275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.295223236084</t>
   </si>
   <si>
     <t xml:space="preserve">10.3037672042847</t>
@@ -893,10 +896,10 @@
     <t xml:space="preserve">10.3293981552124</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3635740280151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4404678344727</t>
+    <t xml:space="preserve">10.3635730743408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4404668807983</t>
   </si>
   <si>
     <t xml:space="preserve">10.2781352996826</t>
@@ -908,22 +911,22 @@
     <t xml:space="preserve">10.0389108657837</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96201610565186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92784118652344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81677150726318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57754802703857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77405452728271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52628517150879</t>
+    <t xml:space="preserve">9.96201705932617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92784214019775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81677341461182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57754898071289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7740535736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52628421783447</t>
   </si>
   <si>
     <t xml:space="preserve">9.42375946044922</t>
@@ -941,19 +944,19 @@
     <t xml:space="preserve">9.45793533325195</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3468656539917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44939231872559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51774215698242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58609008789062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33832359313965</t>
+    <t xml:space="preserve">9.34686470031738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44939136505127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51774120330811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58609104156494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33832263946533</t>
   </si>
   <si>
     <t xml:space="preserve">9.2699728012085</t>
@@ -962,37 +965,37 @@
     <t xml:space="preserve">9.65444278717041</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56046009063721</t>
+    <t xml:space="preserve">9.56045913696289</t>
   </si>
   <si>
     <t xml:space="preserve">9.91075420379639</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74842357635498</t>
+    <t xml:space="preserve">9.74842166900635</t>
   </si>
   <si>
     <t xml:space="preserve">9.71424770355225</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70570278167725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82531642913818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89366817474365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84240436553955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8680362701416</t>
+    <t xml:space="preserve">9.70570373535156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8253173828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89366722106934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84240531921387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86803531646729</t>
   </si>
   <si>
     <t xml:space="preserve">9.76551055908203</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73987865447998</t>
+    <t xml:space="preserve">9.7398796081543</t>
   </si>
   <si>
     <t xml:space="preserve">9.69715976715088</t>
@@ -1004,10 +1007,10 @@
     <t xml:space="preserve">9.79968547821045</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54337310791016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20162296295166</t>
+    <t xml:space="preserve">9.54337215423584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20162391662598</t>
   </si>
   <si>
     <t xml:space="preserve">9.06492328643799</t>
@@ -1019,13 +1022,13 @@
     <t xml:space="preserve">8.65482234954834</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13365364074707</t>
+    <t xml:space="preserve">8.13365268707275</t>
   </si>
   <si>
     <t xml:space="preserve">8.38569355010986</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15928554534912</t>
+    <t xml:space="preserve">8.15928363800049</t>
   </si>
   <si>
     <t xml:space="preserve">8.18064498901367</t>
@@ -1040,31 +1043,31 @@
     <t xml:space="preserve">8.40278148651123</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25326538085938</t>
+    <t xml:space="preserve">8.25326633453369</t>
   </si>
   <si>
     <t xml:space="preserve">8.33015918731689</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43268585205078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37287902832031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35151863098145</t>
+    <t xml:space="preserve">8.43268489837646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.372878074646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35151958465576</t>
   </si>
   <si>
     <t xml:space="preserve">8.15074062347412</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09520721435547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9072437286377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88161182403564</t>
+    <t xml:space="preserve">8.09520816802979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90724420547485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88161277770996</t>
   </si>
   <si>
     <t xml:space="preserve">7.85598182678223</t>
@@ -1073,43 +1076,43 @@
     <t xml:space="preserve">7.96704959869385</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91151571273804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01404094696045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.035400390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0781192779541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06957530975342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31307220458984</t>
+    <t xml:space="preserve">7.9115161895752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01404190063477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03539943695068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07811832427979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0695743560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31307125091553</t>
   </si>
   <si>
     <t xml:space="preserve">8.21909046173096</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20627593994141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10802173614502</t>
+    <t xml:space="preserve">8.20627498626709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10802268981934</t>
   </si>
   <si>
     <t xml:space="preserve">8.13792419433594</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23190593719482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28316879272461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34724807739258</t>
+    <t xml:space="preserve">8.23190689086914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28316974639893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34724712371826</t>
   </si>
   <si>
     <t xml:space="preserve">8.48394680023193</t>
@@ -1118,22 +1121,22 @@
     <t xml:space="preserve">8.62919235229492</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57792854309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8000659942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61210346221924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54375457763672</t>
+    <t xml:space="preserve">8.57792949676514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80006694793701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61210441589355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5437536239624</t>
   </si>
   <si>
     <t xml:space="preserve">8.56084060668945</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71462821960449</t>
+    <t xml:space="preserve">8.71462917327881</t>
   </si>
   <si>
     <t xml:space="preserve">8.64627838134766</t>
@@ -1148,10 +1151,10 @@
     <t xml:space="preserve">8.46685981750488</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44122791290283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26180934906006</t>
+    <t xml:space="preserve">8.44122886657715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26181030273438</t>
   </si>
   <si>
     <t xml:space="preserve">8.07384777069092</t>
@@ -1166,7 +1169,7 @@
     <t xml:space="preserve">8.18491649627686</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0311279296875</t>
+    <t xml:space="preserve">8.03112888336182</t>
   </si>
   <si>
     <t xml:space="preserve">8.381422996521</t>
@@ -1175,22 +1178,22 @@
     <t xml:space="preserve">8.9709415435791</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81715297698975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8855037689209</t>
+    <t xml:space="preserve">8.81715393066406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88550281524658</t>
   </si>
   <si>
     <t xml:space="preserve">8.83424091339111</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68045234680176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66336631774902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90259170532227</t>
+    <t xml:space="preserve">8.68045425415039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66336727142334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90259075164795</t>
   </si>
   <si>
     <t xml:space="preserve">9.00511646270752</t>
@@ -1208,7 +1211,7 @@
     <t xml:space="preserve">9.17599105834961</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10764122009277</t>
+    <t xml:space="preserve">9.10764026641846</t>
   </si>
   <si>
     <t xml:space="preserve">9.15890312194824</t>
@@ -1220,7 +1223,7 @@
     <t xml:space="preserve">9.483567237854</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2866792678833</t>
+    <t xml:space="preserve">10.286678314209</t>
   </si>
   <si>
     <t xml:space="preserve">10.6455163955688</t>
@@ -1232,55 +1235,55 @@
     <t xml:space="preserve">10.6967802047729</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0385293960571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.516978263855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4486293792725</t>
+    <t xml:space="preserve">11.0385303497314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5169792175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4486303329468</t>
   </si>
   <si>
     <t xml:space="preserve">11.551155090332</t>
   </si>
   <si>
-    <t xml:space="preserve">11.624963760376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9571056365967</t>
+    <t xml:space="preserve">11.6249647140503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.957106590271</t>
   </si>
   <si>
     <t xml:space="preserve">11.9202013015747</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4957971572876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3850841522217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3666305541992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0344886779785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9606809616089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5731811523438</t>
+    <t xml:space="preserve">11.4957981109619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3850831985474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3666315078735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0344896316528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9606800079346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5731821060181</t>
   </si>
   <si>
     <t xml:space="preserve">10.7761573791504</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6838960647583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7208003997803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5547294616699</t>
+    <t xml:space="preserve">10.6838941574097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7208013534546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5547285079956</t>
   </si>
   <si>
     <t xml:space="preserve">10.2410402297974</t>
@@ -1289,13 +1292,13 @@
     <t xml:space="preserve">10.0749683380127</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0565156936646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1303262710571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.351752281189</t>
+    <t xml:space="preserve">10.0565166473389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1303253173828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3517532348633</t>
   </si>
   <si>
     <t xml:space="preserve">10.148777961731</t>
@@ -1304,37 +1307,37 @@
     <t xml:space="preserve">10.2963962554932</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3333015441895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2041349411011</t>
+    <t xml:space="preserve">10.3333005905151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2041358947754</t>
   </si>
   <si>
     <t xml:space="preserve">10.4809188842773</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3886575698853</t>
+    <t xml:space="preserve">10.3886585235596</t>
   </si>
   <si>
     <t xml:space="preserve">10.5178241729736</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4071111679077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2779445648193</t>
+    <t xml:space="preserve">10.4071102142334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.277943611145</t>
   </si>
   <si>
     <t xml:space="preserve">10.1672306060791</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85354137420654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87199401855469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7797327041626</t>
+    <t xml:space="preserve">9.85354232788086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87199306488037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77973175048828</t>
   </si>
   <si>
     <t xml:space="preserve">9.53985118865967</t>
@@ -1346,22 +1349,22 @@
     <t xml:space="preserve">9.79818344116211</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72437477111816</t>
+    <t xml:space="preserve">9.72437381744385</t>
   </si>
   <si>
     <t xml:space="preserve">9.68747043609619</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81663608551025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76127910614014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63211250305176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.373779296875</t>
+    <t xml:space="preserve">9.81663513183594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76128005981445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63211154937744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37378025054932</t>
   </si>
   <si>
     <t xml:space="preserve">9.31842422485352</t>
@@ -1394,7 +1397,7 @@
     <t xml:space="preserve">9.02318668365479</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04163837432861</t>
+    <t xml:space="preserve">9.04163932800293</t>
   </si>
   <si>
     <t xml:space="preserve">9.00473403930664</t>
@@ -1403,13 +1406,13 @@
     <t xml:space="preserve">8.58033084869385</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34045028686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98628044128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76485443115234</t>
+    <t xml:space="preserve">8.34044933319092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9862813949585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76485347747803</t>
   </si>
   <si>
     <t xml:space="preserve">8.700270652771</t>
@@ -1418,10 +1421,10 @@
     <t xml:space="preserve">8.71872329711914</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69104385375977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4142599105835</t>
+    <t xml:space="preserve">8.69104480743408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41425895690918</t>
   </si>
   <si>
     <t xml:space="preserve">8.50652122497559</t>
@@ -1430,10 +1433,10 @@
     <t xml:space="preserve">9.46604156494141</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44758987426758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26306629180908</t>
+    <t xml:space="preserve">9.44758892059326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26306533813477</t>
   </si>
   <si>
     <t xml:space="preserve">9.06931686401367</t>
@@ -1445,16 +1448,16 @@
     <t xml:space="preserve">9.18925762176514</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10622215270996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03241157531738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06009101867676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94937705993652</t>
+    <t xml:space="preserve">9.10622119903564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0324125289917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06009006500244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94937610626221</t>
   </si>
   <si>
     <t xml:space="preserve">8.9309253692627</t>
@@ -1469,7 +1472,7 @@
     <t xml:space="preserve">8.90324592590332</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83866310119629</t>
+    <t xml:space="preserve">8.83866405487061</t>
   </si>
   <si>
     <t xml:space="preserve">8.77407932281494</t>
@@ -1478,37 +1481,34 @@
     <t xml:space="preserve">8.65414047241211</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66336727142334</t>
-  </si>
-  <si>
     <t xml:space="preserve">8.46961784362793</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36812877655029</t>
+    <t xml:space="preserve">8.36812782287598</t>
   </si>
   <si>
     <t xml:space="preserve">8.30354595184326</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79610633850098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75920104980469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74075078964233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6115837097168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64848899841309</t>
+    <t xml:space="preserve">7.79610681533813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75920152664185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74075031280518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61158323287964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64848852157593</t>
   </si>
   <si>
     <t xml:space="preserve">7.54700088500977</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44551229476929</t>
+    <t xml:space="preserve">7.44551277160645</t>
   </si>
   <si>
     <t xml:space="preserve">7.45473909378052</t>
@@ -1517,13 +1517,13 @@
     <t xml:space="preserve">7.13182306289673</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15950202941895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43628692626953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2148585319519</t>
+    <t xml:space="preserve">7.15950155258179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43628644943237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21485900878906</t>
   </si>
   <si>
     <t xml:space="preserve">7.3532509803772</t>
@@ -1538,7 +1538,7 @@
     <t xml:space="preserve">7.47319221496582</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82378530502319</t>
+    <t xml:space="preserve">7.82378482818604</t>
   </si>
   <si>
     <t xml:space="preserve">7.86069011688232</t>
@@ -1562,13 +1562,13 @@
     <t xml:space="preserve">7.56545305252075</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27944135665894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19640636444092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20563268661499</t>
+    <t xml:space="preserve">7.27944183349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19640684127808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20563220977783</t>
   </si>
   <si>
     <t xml:space="preserve">7.11337089538574</t>
@@ -1577,16 +1577,16 @@
     <t xml:space="preserve">7.10414457321167</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49164247512817</t>
+    <t xml:space="preserve">7.49164295196533</t>
   </si>
   <si>
     <t xml:space="preserve">7.59313011169434</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58390474319458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52854824066162</t>
+    <t xml:space="preserve">7.58390522003174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52854776382446</t>
   </si>
   <si>
     <t xml:space="preserve">7.39015579223633</t>
@@ -1595,13 +1595,13 @@
     <t xml:space="preserve">7.34402465820312</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33479881286621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36247682571411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29789352416992</t>
+    <t xml:space="preserve">7.33479833602905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36247730255127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29789400100708</t>
   </si>
   <si>
     <t xml:space="preserve">7.32557249069214</t>
@@ -1616,16 +1616,16 @@
     <t xml:space="preserve">7.77765417098999</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92527341842651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10056972503662</t>
+    <t xml:space="preserve">7.92527389526367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10057067871094</t>
   </si>
   <si>
     <t xml:space="preserve">8.43271160125732</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45116329193115</t>
+    <t xml:space="preserve">8.45116424560547</t>
   </si>
   <si>
     <t xml:space="preserve">8.55265235900879</t>
@@ -1634,7 +1634,7 @@
     <t xml:space="preserve">8.4603910446167</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40503215789795</t>
+    <t xml:space="preserve">8.40503311157227</t>
   </si>
   <si>
     <t xml:space="preserve">8.39580726623535</t>
@@ -1646,7 +1646,7 @@
     <t xml:space="preserve">9.19848346710205</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80175876617432</t>
+    <t xml:space="preserve">8.8017578125</t>
   </si>
   <si>
     <t xml:space="preserve">9.17080402374268</t>
@@ -1667,7 +1667,7 @@
     <t xml:space="preserve">9.07854270935059</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97705459594727</t>
+    <t xml:space="preserve">8.97705554962158</t>
   </si>
   <si>
     <t xml:space="preserve">8.96782970428467</t>
@@ -1676,19 +1676,19 @@
     <t xml:space="preserve">8.91247177124023</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86634159088135</t>
+    <t xml:space="preserve">8.86634254455566</t>
   </si>
   <si>
     <t xml:space="preserve">8.87556743621826</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64491271972656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74640083312988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31277179718018</t>
+    <t xml:space="preserve">8.64491367340088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7464017868042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31277275085449</t>
   </si>
   <si>
     <t xml:space="preserve">8.44193744659424</t>
@@ -1706,7 +1706,7 @@
     <t xml:space="preserve">8.29432010650635</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49729442596436</t>
+    <t xml:space="preserve">8.49729537963867</t>
   </si>
   <si>
     <t xml:space="preserve">8.5157470703125</t>
@@ -1718,16 +1718,16 @@
     <t xml:space="preserve">8.5618782043457</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48806858062744</t>
+    <t xml:space="preserve">8.48806953430176</t>
   </si>
   <si>
     <t xml:space="preserve">8.52497291564941</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57110500335693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59878253936768</t>
+    <t xml:space="preserve">8.57110404968262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59878158569336</t>
   </si>
   <si>
     <t xml:space="preserve">8.68181800842285</t>
@@ -1742,10 +1742,10 @@
     <t xml:space="preserve">9.28066253662109</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76398754119873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4617805480957</t>
+    <t xml:space="preserve">8.76398658752441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46178150177002</t>
   </si>
   <si>
     <t xml:space="preserve">8.24731063842773</t>
@@ -1754,16 +1754,16 @@
     <t xml:space="preserve">7.95485353469849</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12057876586914</t>
+    <t xml:space="preserve">8.12057971954346</t>
   </si>
   <si>
     <t xml:space="preserve">8.0425910949707</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35454559326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14982414245605</t>
+    <t xml:space="preserve">8.35454654693604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14982509613037</t>
   </si>
   <si>
     <t xml:space="preserve">8.09133434295654</t>
@@ -1772,7 +1772,7 @@
     <t xml:space="preserve">8.11083030700684</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08158588409424</t>
+    <t xml:space="preserve">8.08158493041992</t>
   </si>
   <si>
     <t xml:space="preserve">8.15957355499268</t>
@@ -1787,7 +1787,7 @@
     <t xml:space="preserve">8.03284168243408</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02309226989746</t>
+    <t xml:space="preserve">8.02309322357178</t>
   </si>
   <si>
     <t xml:space="preserve">8.22781372070312</t>
@@ -1799,7 +1799,7 @@
     <t xml:space="preserve">8.31555080413818</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19856739044189</t>
+    <t xml:space="preserve">8.19856834411621</t>
   </si>
   <si>
     <t xml:space="preserve">7.9840989112854</t>
@@ -1808,19 +1808,19 @@
     <t xml:space="preserve">8.13032817840576</t>
   </si>
   <si>
-    <t xml:space="preserve">8.14007759094238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96460247039795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99384832382202</t>
+    <t xml:space="preserve">8.14007663726807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96460199356079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99384784698486</t>
   </si>
   <si>
     <t xml:space="preserve">8.23756217956543</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1693229675293</t>
+    <t xml:space="preserve">8.16932201385498</t>
   </si>
   <si>
     <t xml:space="preserve">8.18881988525391</t>
@@ -1850,16 +1850,16 @@
     <t xml:space="preserve">7.92560768127441</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93535614013672</t>
+    <t xml:space="preserve">7.93535661697388</t>
   </si>
   <si>
     <t xml:space="preserve">7.97435092926025</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01334476470947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50077533721924</t>
+    <t xml:space="preserve">8.01334571838379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50077438354492</t>
   </si>
   <si>
     <t xml:space="preserve">8.39353942871094</t>
@@ -1868,19 +1868,19 @@
     <t xml:space="preserve">8.34479713439941</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28630542755127</t>
+    <t xml:space="preserve">8.28630638122559</t>
   </si>
   <si>
     <t xml:space="preserve">8.51052188873291</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5885124206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85172462463379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21242237091064</t>
+    <t xml:space="preserve">8.58851146697998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85172367095947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21242141723633</t>
   </si>
   <si>
     <t xml:space="preserve">9.20267295837402</t>
@@ -1898,7 +1898,7 @@
     <t xml:space="preserve">9.52437782287598</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51462841033936</t>
+    <t xml:space="preserve">9.51462936401367</t>
   </si>
   <si>
     <t xml:space="preserve">9.62186336517334</t>
@@ -1907,13 +1907,13 @@
     <t xml:space="preserve">9.60236644744873</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59261703491211</t>
+    <t xml:space="preserve">9.59261798858643</t>
   </si>
   <si>
     <t xml:space="preserve">10.0995435714722</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3920011520386</t>
+    <t xml:space="preserve">10.3920021057129</t>
   </si>
   <si>
     <t xml:space="preserve">10.1190423965454</t>
@@ -1922,7 +1922,7 @@
     <t xml:space="preserve">10.1385383605957</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0605497360229</t>
+    <t xml:space="preserve">10.0605487823486</t>
   </si>
   <si>
     <t xml:space="preserve">10.0215559005737</t>
@@ -1931,10 +1931,10 @@
     <t xml:space="preserve">9.67060661315918</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74859523773193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68035411834717</t>
+    <t xml:space="preserve">9.74859428405762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68035507202148</t>
   </si>
   <si>
     <t xml:space="preserve">9.76809215545654</t>
@@ -1943,22 +1943,22 @@
     <t xml:space="preserve">9.78758907318115</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5731201171875</t>
+    <t xml:space="preserve">9.57311916351318</t>
   </si>
   <si>
     <t xml:space="preserve">9.65110874176025</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53412628173828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94356632232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47563457489014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41714191436768</t>
+    <t xml:space="preserve">9.53412532806396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94356727600098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47563362121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41714286804199</t>
   </si>
   <si>
     <t xml:space="preserve">9.50487995147705</t>
@@ -1967,7 +1967,7 @@
     <t xml:space="preserve">9.44638824462891</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39764595031738</t>
+    <t xml:space="preserve">9.39764499664307</t>
   </si>
   <si>
     <t xml:space="preserve">9.84608173370361</t>
@@ -1991,10 +1991,10 @@
     <t xml:space="preserve">9.26116561889648</t>
   </si>
   <si>
-    <t xml:space="preserve">9.23191928863525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1441822052002</t>
+    <t xml:space="preserve">9.23192024230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14418315887451</t>
   </si>
   <si>
     <t xml:space="preserve">9.17342758178711</t>
@@ -2015,7 +2015,7 @@
     <t xml:space="preserve">8.78348350524902</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83222675323486</t>
+    <t xml:space="preserve">8.83222770690918</t>
   </si>
   <si>
     <t xml:space="preserve">8.99795246124268</t>
@@ -2027,31 +2027,31 @@
     <t xml:space="preserve">9.02719879150391</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22217082977295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11493682861328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03694820404053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86147403717041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38379192352295</t>
+    <t xml:space="preserve">9.22216987609863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11493587493896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03694725036621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86147308349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38379287719727</t>
   </si>
   <si>
     <t xml:space="preserve">7.89636278152466</t>
   </si>
   <si>
-    <t xml:space="preserve">7.84761905670166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66239595413208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58440685272217</t>
+    <t xml:space="preserve">7.8476185798645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66239547729492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58440637588501</t>
   </si>
   <si>
     <t xml:space="preserve">7.67214393615723</t>
@@ -2066,19 +2066,19 @@
     <t xml:space="preserve">6.62904500961304</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49256420135498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17650365829468</t>
+    <t xml:space="preserve">6.49256372451782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17650318145752</t>
   </si>
   <si>
     <t xml:space="preserve">5.51770448684692</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5720911026001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67932558059692</t>
+    <t xml:space="preserve">4.57209157943726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67932605743408</t>
   </si>
   <si>
     <t xml:space="preserve">4.51359939575195</t>
@@ -2087,7 +2087,7 @@
     <t xml:space="preserve">4.55259370803833</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87429761886597</t>
+    <t xml:space="preserve">4.87429714202881</t>
   </si>
   <si>
     <t xml:space="preserve">5.16675567626953</t>
@@ -2096,16 +2096,16 @@
     <t xml:space="preserve">5.5566987991333</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08312320709229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04412889480591</t>
+    <t xml:space="preserve">6.08312273025513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04412841796875</t>
   </si>
   <si>
     <t xml:space="preserve">6.02463150024414</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92714548110962</t>
+    <t xml:space="preserve">5.92714595794678</t>
   </si>
   <si>
     <t xml:space="preserve">5.83940839767456</t>
@@ -2129,7 +2129,7 @@
     <t xml:space="preserve">6.48281574249268</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26834630966187</t>
+    <t xml:space="preserve">6.26834583282471</t>
   </si>
   <si>
     <t xml:space="preserve">6.47306680679321</t>
@@ -2138,7 +2138,7 @@
     <t xml:space="preserve">6.5803017616272</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5900502204895</t>
+    <t xml:space="preserve">6.59005069732666</t>
   </si>
   <si>
     <t xml:space="preserve">7.34069204330444</t>
@@ -2150,13 +2150,13 @@
     <t xml:space="preserve">7.60390424728394</t>
   </si>
   <si>
-    <t xml:space="preserve">7.64289808273315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76962995529175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69164085388184</t>
+    <t xml:space="preserve">7.64289855957031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76963043212891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69164133071899</t>
   </si>
   <si>
     <t xml:space="preserve">7.44792604446411</t>
@@ -2165,7 +2165,7 @@
     <t xml:space="preserve">7.48692035675049</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24320554733276</t>
+    <t xml:space="preserve">7.24320602416992</t>
   </si>
   <si>
     <t xml:space="preserve">7.45767545700073</t>
@@ -2177,13 +2177,13 @@
     <t xml:space="preserve">7.49666929244995</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54541206359863</t>
+    <t xml:space="preserve">7.54541254043579</t>
   </si>
   <si>
     <t xml:space="preserve">7.51616668701172</t>
   </si>
   <si>
-    <t xml:space="preserve">7.75013303756714</t>
+    <t xml:space="preserve">7.75013256072998</t>
   </si>
   <si>
     <t xml:space="preserve">7.90610980987549</t>
@@ -2207,13 +2207,13 @@
     <t xml:space="preserve">7.36993789672852</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36018943786621</t>
+    <t xml:space="preserve">7.36018896102905</t>
   </si>
   <si>
     <t xml:space="preserve">7.28220081329346</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57465791702271</t>
+    <t xml:space="preserve">7.57465839385986</t>
   </si>
   <si>
     <t xml:space="preserve">7.59415531158447</t>
@@ -2222,28 +2222,28 @@
     <t xml:space="preserve">7.56490993499756</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43817806243896</t>
+    <t xml:space="preserve">7.43817758560181</t>
   </si>
   <si>
     <t xml:space="preserve">7.38943481445312</t>
   </si>
   <si>
-    <t xml:space="preserve">7.40893220901489</t>
+    <t xml:space="preserve">7.40893173217773</t>
   </si>
   <si>
     <t xml:space="preserve">7.50641822814941</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70139026641846</t>
+    <t xml:space="preserve">7.7013897895813</t>
   </si>
   <si>
     <t xml:space="preserve">7.63314962387085</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46742343902588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35044002532959</t>
+    <t xml:space="preserve">7.46742391586304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35044050216675</t>
   </si>
   <si>
     <t xml:space="preserve">7.31144618988037</t>
@@ -2258,25 +2258,25 @@
     <t xml:space="preserve">7.94510459899902</t>
   </si>
   <si>
-    <t xml:space="preserve">7.8866138458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79887628555298</t>
+    <t xml:space="preserve">7.88661336898804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79887580871582</t>
   </si>
   <si>
     <t xml:space="preserve">7.78912687301636</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4186806678772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32119512557983</t>
+    <t xml:space="preserve">7.41868114471436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32119464874268</t>
   </si>
   <si>
     <t xml:space="preserve">7.26270294189453</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21396064758301</t>
+    <t xml:space="preserve">7.21396017074585</t>
   </si>
   <si>
     <t xml:space="preserve">7.17496585845947</t>
@@ -2294,19 +2294,19 @@
     <t xml:space="preserve">7.53566360473633</t>
   </si>
   <si>
-    <t xml:space="preserve">7.72088718414307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4771728515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19446277618408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09697723388672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15546846389771</t>
+    <t xml:space="preserve">7.72088766098022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47717237472534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19446325302124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09697675704956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15546894073486</t>
   </si>
   <si>
     <t xml:space="preserve">7.16521739959717</t>
@@ -2324,13 +2324,13 @@
     <t xml:space="preserve">7.25295448303223</t>
   </si>
   <si>
-    <t xml:space="preserve">7.23345804214478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18471479415894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20421123504639</t>
+    <t xml:space="preserve">7.23345756530762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18471431732178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20421171188354</t>
   </si>
   <si>
     <t xml:space="preserve">7.68189287185669</t>
@@ -2339,13 +2339,13 @@
     <t xml:space="preserve">7.07748031616211</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12622261047363</t>
+    <t xml:space="preserve">7.12622308731079</t>
   </si>
   <si>
     <t xml:space="preserve">7.06773138046265</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01898813247681</t>
+    <t xml:space="preserve">7.01898860931396</t>
   </si>
   <si>
     <t xml:space="preserve">6.94099950790405</t>
@@ -2357,19 +2357,19 @@
     <t xml:space="preserve">7.11647462844849</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10672521591187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92150259017944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98974275588989</t>
+    <t xml:space="preserve">7.10672569274902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92150211334229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98974227905273</t>
   </si>
   <si>
     <t xml:space="preserve">6.95074796676636</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87275981903076</t>
+    <t xml:space="preserve">6.8727593421936</t>
   </si>
   <si>
     <t xml:space="preserve">6.85326242446899</t>
@@ -2378,16 +2378,16 @@
     <t xml:space="preserve">6.82401657104492</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8142671585083</t>
+    <t xml:space="preserve">6.81426763534546</t>
   </si>
   <si>
     <t xml:space="preserve">6.88250780105591</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83376550674438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86301040649414</t>
+    <t xml:space="preserve">6.83376502990723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8630108833313</t>
   </si>
   <si>
     <t xml:space="preserve">6.84351348876953</t>
@@ -2399,13 +2399,13 @@
     <t xml:space="preserve">6.78502225875854</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67778730392456</t>
+    <t xml:space="preserve">6.67778778076172</t>
   </si>
   <si>
     <t xml:space="preserve">6.7265305519104</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97999382019043</t>
+    <t xml:space="preserve">6.97999429702759</t>
   </si>
   <si>
     <t xml:space="preserve">7.39928722381592</t>
@@ -7387,7 +7387,7 @@
         <v>7.34999990463257</v>
       </c>
       <c r="G119" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="H119" t="s">
         <v>9</v>
@@ -7413,7 +7413,7 @@
         <v>7.29500007629395</v>
       </c>
       <c r="G120" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H120" t="s">
         <v>9</v>
@@ -7439,7 +7439,7 @@
         <v>7.17999982833862</v>
       </c>
       <c r="G121" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H121" t="s">
         <v>9</v>
@@ -7465,7 +7465,7 @@
         <v>7.19999980926514</v>
       </c>
       <c r="G122" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H122" t="s">
         <v>9</v>
@@ -7517,7 +7517,7 @@
         <v>7.07000017166138</v>
       </c>
       <c r="G124" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H124" t="s">
         <v>9</v>
@@ -7543,7 +7543,7 @@
         <v>6.98999977111816</v>
       </c>
       <c r="G125" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H125" t="s">
         <v>9</v>
@@ -7569,7 +7569,7 @@
         <v>7.07999992370605</v>
       </c>
       <c r="G126" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H126" t="s">
         <v>9</v>
@@ -7595,7 +7595,7 @@
         <v>7.1399998664856</v>
       </c>
       <c r="G127" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H127" t="s">
         <v>9</v>
@@ -7621,7 +7621,7 @@
         <v>7.08500003814697</v>
       </c>
       <c r="G128" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H128" t="s">
         <v>9</v>
@@ -7647,7 +7647,7 @@
         <v>7.39499998092651</v>
       </c>
       <c r="G129" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H129" t="s">
         <v>9</v>
@@ -7751,7 +7751,7 @@
         <v>7.2649998664856</v>
       </c>
       <c r="G133" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H133" t="s">
         <v>9</v>
@@ -7777,7 +7777,7 @@
         <v>7.36999988555908</v>
       </c>
       <c r="G134" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H134" t="s">
         <v>9</v>
@@ -7829,7 +7829,7 @@
         <v>7.57000017166138</v>
       </c>
       <c r="G136" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H136" t="s">
         <v>9</v>
@@ -7881,7 +7881,7 @@
         <v>7.43499994277954</v>
       </c>
       <c r="G138" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H138" t="s">
         <v>9</v>
@@ -7907,7 +7907,7 @@
         <v>7.28499984741211</v>
       </c>
       <c r="G139" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H139" t="s">
         <v>9</v>
@@ -7933,7 +7933,7 @@
         <v>7.36499977111816</v>
       </c>
       <c r="G140" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H140" t="s">
         <v>9</v>
@@ -7985,7 +7985,7 @@
         <v>7.46000003814697</v>
       </c>
       <c r="G142" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H142" t="s">
         <v>9</v>
@@ -8037,7 +8037,7 @@
         <v>7.55000019073486</v>
       </c>
       <c r="G144" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H144" t="s">
         <v>9</v>
@@ -8063,7 +8063,7 @@
         <v>7.39499998092651</v>
       </c>
       <c r="G145" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H145" t="s">
         <v>9</v>
@@ -8089,7 +8089,7 @@
         <v>7.55000019073486</v>
       </c>
       <c r="G146" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H146" t="s">
         <v>9</v>
@@ -8141,7 +8141,7 @@
         <v>7.40500020980835</v>
       </c>
       <c r="G148" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H148" t="s">
         <v>9</v>
@@ -8167,7 +8167,7 @@
         <v>7.42999982833862</v>
       </c>
       <c r="G149" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H149" t="s">
         <v>9</v>
@@ -8193,7 +8193,7 @@
         <v>7.42999982833862</v>
       </c>
       <c r="G150" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H150" t="s">
         <v>9</v>
@@ -8245,7 +8245,7 @@
         <v>7.42000007629395</v>
       </c>
       <c r="G152" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H152" t="s">
         <v>9</v>
@@ -8297,7 +8297,7 @@
         <v>7.34000015258789</v>
       </c>
       <c r="G154" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H154" t="s">
         <v>9</v>
@@ -8375,7 +8375,7 @@
         <v>7.42500019073486</v>
       </c>
       <c r="G157" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H157" t="s">
         <v>9</v>
@@ -8401,7 +8401,7 @@
         <v>7.32999992370605</v>
       </c>
       <c r="G158" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H158" t="s">
         <v>9</v>
@@ -8427,7 +8427,7 @@
         <v>7.30999994277954</v>
       </c>
       <c r="G159" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H159" t="s">
         <v>9</v>
@@ -8453,7 +8453,7 @@
         <v>7.32999992370605</v>
       </c>
       <c r="G160" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H160" t="s">
         <v>9</v>
@@ -8479,7 +8479,7 @@
         <v>7.34999990463257</v>
       </c>
       <c r="G161" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="H161" t="s">
         <v>9</v>
@@ -8531,7 +8531,7 @@
         <v>7.21000003814697</v>
       </c>
       <c r="G163" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H163" t="s">
         <v>9</v>
@@ -8557,7 +8557,7 @@
         <v>7.07999992370605</v>
       </c>
       <c r="G164" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H164" t="s">
         <v>9</v>
@@ -8583,7 +8583,7 @@
         <v>7.30999994277954</v>
       </c>
       <c r="G165" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H165" t="s">
         <v>9</v>
@@ -8609,7 +8609,7 @@
         <v>7.375</v>
       </c>
       <c r="G166" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H166" t="s">
         <v>9</v>
@@ -8661,7 +8661,7 @@
         <v>7.34000015258789</v>
       </c>
       <c r="G168" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H168" t="s">
         <v>9</v>
@@ -8713,7 +8713,7 @@
         <v>7.23000001907349</v>
       </c>
       <c r="G170" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H170" t="s">
         <v>9</v>
@@ -8739,7 +8739,7 @@
         <v>7.15500020980835</v>
       </c>
       <c r="G171" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H171" t="s">
         <v>9</v>
@@ -8765,7 +8765,7 @@
         <v>7.19000005722046</v>
       </c>
       <c r="G172" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H172" t="s">
         <v>9</v>
@@ -8791,7 +8791,7 @@
         <v>7.28999996185303</v>
       </c>
       <c r="G173" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H173" t="s">
         <v>9</v>
@@ -8817,7 +8817,7 @@
         <v>7.19000005722046</v>
       </c>
       <c r="G174" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H174" t="s">
         <v>9</v>
@@ -8843,7 +8843,7 @@
         <v>7.19500017166138</v>
       </c>
       <c r="G175" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H175" t="s">
         <v>9</v>
@@ -8869,7 +8869,7 @@
         <v>7.25</v>
       </c>
       <c r="G176" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H176" t="s">
         <v>9</v>
@@ -8895,7 +8895,7 @@
         <v>7.19500017166138</v>
       </c>
       <c r="G177" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H177" t="s">
         <v>9</v>
@@ -8921,7 +8921,7 @@
         <v>7.2649998664856</v>
       </c>
       <c r="G178" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H178" t="s">
         <v>9</v>
@@ -8947,7 +8947,7 @@
         <v>7.1100001335144</v>
       </c>
       <c r="G179" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H179" t="s">
         <v>9</v>
@@ -8973,7 +8973,7 @@
         <v>7.16499996185303</v>
       </c>
       <c r="G180" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H180" t="s">
         <v>9</v>
@@ -9025,7 +9025,7 @@
         <v>7.03499984741211</v>
       </c>
       <c r="G182" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H182" t="s">
         <v>9</v>
@@ -9051,7 +9051,7 @@
         <v>7.02500009536743</v>
       </c>
       <c r="G183" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H183" t="s">
         <v>9</v>
@@ -9077,7 +9077,7 @@
         <v>7.16499996185303</v>
       </c>
       <c r="G184" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
@@ -9103,7 +9103,7 @@
         <v>7.06500005722046</v>
       </c>
       <c r="G185" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H185" t="s">
         <v>9</v>
@@ -9129,7 +9129,7 @@
         <v>7.19000005722046</v>
       </c>
       <c r="G186" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H186" t="s">
         <v>9</v>
@@ -9155,7 +9155,7 @@
         <v>7.07499980926514</v>
       </c>
       <c r="G187" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H187" t="s">
         <v>9</v>
@@ -9181,7 +9181,7 @@
         <v>6.95499992370605</v>
       </c>
       <c r="G188" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H188" t="s">
         <v>9</v>
@@ -9207,7 +9207,7 @@
         <v>6.98999977111816</v>
       </c>
       <c r="G189" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H189" t="s">
         <v>9</v>
@@ -9233,7 +9233,7 @@
         <v>7.13000011444092</v>
       </c>
       <c r="G190" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H190" t="s">
         <v>9</v>
@@ -9259,7 +9259,7 @@
         <v>7.17000007629395</v>
       </c>
       <c r="G191" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H191" t="s">
         <v>9</v>
@@ -9285,7 +9285,7 @@
         <v>7.17999982833862</v>
       </c>
       <c r="G192" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H192" t="s">
         <v>9</v>
@@ -9311,7 +9311,7 @@
         <v>7.17000007629395</v>
       </c>
       <c r="G193" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -9337,7 +9337,7 @@
         <v>7.09999990463257</v>
       </c>
       <c r="G194" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H194" t="s">
         <v>9</v>
@@ -9363,7 +9363,7 @@
         <v>7.19999980926514</v>
       </c>
       <c r="G195" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H195" t="s">
         <v>9</v>
@@ -9389,7 +9389,7 @@
         <v>7.19500017166138</v>
       </c>
       <c r="G196" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H196" t="s">
         <v>9</v>
@@ -9415,7 +9415,7 @@
         <v>7.17999982833862</v>
       </c>
       <c r="G197" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H197" t="s">
         <v>9</v>
@@ -9441,7 +9441,7 @@
         <v>7.15000009536743</v>
       </c>
       <c r="G198" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H198" t="s">
         <v>9</v>
@@ -9493,7 +9493,7 @@
         <v>7.15500020980835</v>
       </c>
       <c r="G200" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H200" t="s">
         <v>9</v>
@@ -9519,7 +9519,7 @@
         <v>7.32000017166138</v>
       </c>
       <c r="G201" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -9597,7 +9597,7 @@
         <v>7.76000022888184</v>
       </c>
       <c r="G204" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H204" t="s">
         <v>9</v>
@@ -9623,7 +9623,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G205" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H205" t="s">
         <v>9</v>
@@ -9649,7 +9649,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G206" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H206" t="s">
         <v>9</v>
@@ -9675,7 +9675,7 @@
         <v>7.8899998664856</v>
       </c>
       <c r="G207" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H207" t="s">
         <v>9</v>
@@ -9701,7 +9701,7 @@
         <v>7.90999984741211</v>
       </c>
       <c r="G208" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -9727,7 +9727,7 @@
         <v>7.79500007629395</v>
       </c>
       <c r="G209" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -9753,7 +9753,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G210" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H210" t="s">
         <v>9</v>
@@ -9779,7 +9779,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G211" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H211" t="s">
         <v>9</v>
@@ -9805,7 +9805,7 @@
         <v>7.71000003814697</v>
       </c>
       <c r="G212" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -9831,7 +9831,7 @@
         <v>7.71000003814697</v>
       </c>
       <c r="G213" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H213" t="s">
         <v>9</v>
@@ -9857,7 +9857,7 @@
         <v>7.73000001907349</v>
       </c>
       <c r="G214" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H214" t="s">
         <v>9</v>
@@ -9883,7 +9883,7 @@
         <v>7.71000003814697</v>
       </c>
       <c r="G215" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -9909,7 +9909,7 @@
         <v>7.53000020980835</v>
       </c>
       <c r="G216" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -9935,7 +9935,7 @@
         <v>7.65500020980835</v>
       </c>
       <c r="G217" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -9961,7 +9961,7 @@
         <v>7.70499992370605</v>
       </c>
       <c r="G218" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -9987,7 +9987,7 @@
         <v>7.73999977111816</v>
       </c>
       <c r="G219" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -10013,7 +10013,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G220" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H220" t="s">
         <v>9</v>
@@ -10039,7 +10039,7 @@
         <v>7.8600001335144</v>
       </c>
       <c r="G221" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H221" t="s">
         <v>9</v>
@@ -10065,7 +10065,7 @@
         <v>7.65999984741211</v>
       </c>
       <c r="G222" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -10091,7 +10091,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G223" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H223" t="s">
         <v>9</v>
@@ -10117,7 +10117,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G224" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -10143,7 +10143,7 @@
         <v>7.69500017166138</v>
       </c>
       <c r="G225" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H225" t="s">
         <v>9</v>
@@ -10169,7 +10169,7 @@
         <v>7.61499977111816</v>
       </c>
       <c r="G226" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -10195,7 +10195,7 @@
         <v>7.71999979019165</v>
       </c>
       <c r="G227" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -10221,7 +10221,7 @@
         <v>7.61499977111816</v>
       </c>
       <c r="G228" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -10247,7 +10247,7 @@
         <v>7.46999979019165</v>
       </c>
       <c r="G229" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H229" t="s">
         <v>9</v>
@@ -10273,7 +10273,7 @@
         <v>7.32000017166138</v>
       </c>
       <c r="G230" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H230" t="s">
         <v>9</v>
@@ -10299,7 +10299,7 @@
         <v>7.21000003814697</v>
       </c>
       <c r="G231" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -10325,7 +10325,7 @@
         <v>7.21500015258789</v>
       </c>
       <c r="G232" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -10351,7 +10351,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G233" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -10377,7 +10377,7 @@
         <v>7.19000005722046</v>
       </c>
       <c r="G234" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -10403,7 +10403,7 @@
         <v>7.19000005722046</v>
       </c>
       <c r="G235" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -10429,7 +10429,7 @@
         <v>7.26999998092651</v>
       </c>
       <c r="G236" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -10455,7 +10455,7 @@
         <v>7.28000020980835</v>
       </c>
       <c r="G237" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -10481,7 +10481,7 @@
         <v>7.21500015258789</v>
       </c>
       <c r="G238" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -10533,7 +10533,7 @@
         <v>7.46999979019165</v>
       </c>
       <c r="G240" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
@@ -10611,7 +10611,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G243" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -10637,7 +10637,7 @@
         <v>7.6399998664856</v>
       </c>
       <c r="G244" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -10663,7 +10663,7 @@
         <v>7.69000005722046</v>
       </c>
       <c r="G245" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H245" t="s">
         <v>9</v>
@@ -10689,7 +10689,7 @@
         <v>7.59000015258789</v>
       </c>
       <c r="G246" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -10715,7 +10715,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G247" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H247" t="s">
         <v>9</v>
@@ -10741,7 +10741,7 @@
         <v>7.74499988555908</v>
       </c>
       <c r="G248" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -10819,7 +10819,7 @@
         <v>7.61499977111816</v>
       </c>
       <c r="G251" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H251" t="s">
         <v>9</v>
@@ -10845,7 +10845,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G252" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H252" t="s">
         <v>9</v>
@@ -10897,7 +10897,7 @@
         <v>7.53999996185303</v>
       </c>
       <c r="G254" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -10923,7 +10923,7 @@
         <v>7.45499992370605</v>
       </c>
       <c r="G255" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -11001,7 +11001,7 @@
         <v>8.09000015258789</v>
       </c>
       <c r="G258" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -11027,7 +11027,7 @@
         <v>8.06999969482422</v>
       </c>
       <c r="G259" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -11053,7 +11053,7 @@
         <v>8.02999973297119</v>
       </c>
       <c r="G260" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H260" t="s">
         <v>9</v>
@@ -11079,7 +11079,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G261" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -11105,7 +11105,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G262" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -11131,7 +11131,7 @@
         <v>8.5</v>
       </c>
       <c r="G263" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -11157,7 +11157,7 @@
         <v>8.69999980926514</v>
       </c>
       <c r="G264" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -11183,7 +11183,7 @@
         <v>8.67000007629395</v>
       </c>
       <c r="G265" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -11209,7 +11209,7 @@
         <v>8.49499988555908</v>
       </c>
       <c r="G266" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H266" t="s">
         <v>9</v>
@@ -11235,7 +11235,7 @@
         <v>8.47000026702881</v>
       </c>
       <c r="G267" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -11261,7 +11261,7 @@
         <v>8.55000019073486</v>
       </c>
       <c r="G268" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -11287,7 +11287,7 @@
         <v>8.47999954223633</v>
       </c>
       <c r="G269" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -11313,7 +11313,7 @@
         <v>8.52000045776367</v>
       </c>
       <c r="G270" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -11339,7 +11339,7 @@
         <v>8.52000045776367</v>
       </c>
       <c r="G271" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -11365,7 +11365,7 @@
         <v>8.5</v>
       </c>
       <c r="G272" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H272" t="s">
         <v>9</v>
@@ -11391,7 +11391,7 @@
         <v>8.4399995803833</v>
       </c>
       <c r="G273" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -11417,7 +11417,7 @@
         <v>8.70499992370605</v>
       </c>
       <c r="G274" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -11443,7 +11443,7 @@
         <v>9.18000030517578</v>
       </c>
       <c r="G275" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H275" t="s">
         <v>9</v>
@@ -11469,7 +11469,7 @@
         <v>9.22000026702881</v>
       </c>
       <c r="G276" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -11495,7 +11495,7 @@
         <v>9.17500019073486</v>
       </c>
       <c r="G277" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -11521,7 +11521,7 @@
         <v>8.5600004196167</v>
       </c>
       <c r="G278" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -11547,7 +11547,7 @@
         <v>8.81999969482422</v>
       </c>
       <c r="G279" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -11573,7 +11573,7 @@
         <v>8.98999977111816</v>
       </c>
       <c r="G280" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -11599,7 +11599,7 @@
         <v>9.02999973297119</v>
       </c>
       <c r="G281" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -11625,7 +11625,7 @@
         <v>9.04500007629395</v>
       </c>
       <c r="G282" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
@@ -11651,7 +11651,7 @@
         <v>8.97999954223633</v>
       </c>
       <c r="G283" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -11677,7 +11677,7 @@
         <v>8.78999996185303</v>
       </c>
       <c r="G284" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H284" t="s">
         <v>9</v>
@@ -11703,7 +11703,7 @@
         <v>8.65999984741211</v>
       </c>
       <c r="G285" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -11729,7 +11729,7 @@
         <v>8.57999992370605</v>
       </c>
       <c r="G286" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -11755,7 +11755,7 @@
         <v>8.38500022888184</v>
       </c>
       <c r="G287" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -11781,7 +11781,7 @@
         <v>8.53999996185303</v>
       </c>
       <c r="G288" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -11807,7 +11807,7 @@
         <v>8.52499961853027</v>
       </c>
       <c r="G289" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -11833,7 +11833,7 @@
         <v>8.50500011444092</v>
       </c>
       <c r="G290" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -11859,7 +11859,7 @@
         <v>8.5</v>
       </c>
       <c r="G291" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -11885,7 +11885,7 @@
         <v>8.46000003814697</v>
       </c>
       <c r="G292" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -11911,7 +11911,7 @@
         <v>8.25500011444092</v>
       </c>
       <c r="G293" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -11937,7 +11937,7 @@
         <v>8.39999961853027</v>
       </c>
       <c r="G294" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -11963,7 +11963,7 @@
         <v>8.47999954223633</v>
       </c>
       <c r="G295" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H295" t="s">
         <v>9</v>
@@ -11989,7 +11989,7 @@
         <v>8.47500038146973</v>
       </c>
       <c r="G296" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -12015,7 +12015,7 @@
         <v>8.31999969482422</v>
       </c>
       <c r="G297" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -12041,7 +12041,7 @@
         <v>8.35000038146973</v>
       </c>
       <c r="G298" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -12067,7 +12067,7 @@
         <v>8.40499973297119</v>
       </c>
       <c r="G299" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -12093,7 +12093,7 @@
         <v>8.5600004196167</v>
       </c>
       <c r="G300" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -12119,7 +12119,7 @@
         <v>8.70499992370605</v>
       </c>
       <c r="G301" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -12145,7 +12145,7 @@
         <v>8.72999954223633</v>
       </c>
       <c r="G302" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -12171,7 +12171,7 @@
         <v>8.77999973297119</v>
       </c>
       <c r="G303" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -12197,7 +12197,7 @@
         <v>9.10999965667725</v>
       </c>
       <c r="G304" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -12223,7 +12223,7 @@
         <v>9.06999969482422</v>
       </c>
       <c r="G305" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -12249,7 +12249,7 @@
         <v>9.22999954223633</v>
       </c>
       <c r="G306" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -12275,7 +12275,7 @@
         <v>9.28999996185303</v>
       </c>
       <c r="G307" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -12301,7 +12301,7 @@
         <v>9.25</v>
       </c>
       <c r="G308" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -12327,7 +12327,7 @@
         <v>9.22000026702881</v>
       </c>
       <c r="G309" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -12353,7 +12353,7 @@
         <v>9.54500007629395</v>
       </c>
       <c r="G310" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -12379,7 +12379,7 @@
         <v>9.67000007629395</v>
       </c>
       <c r="G311" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -12405,7 +12405,7 @@
         <v>9.69999980926514</v>
       </c>
       <c r="G312" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -12431,7 +12431,7 @@
         <v>9.75</v>
       </c>
       <c r="G313" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -12457,7 +12457,7 @@
         <v>9.48499965667725</v>
       </c>
       <c r="G314" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -12483,7 +12483,7 @@
         <v>9.69999980926514</v>
       </c>
       <c r="G315" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -12509,7 +12509,7 @@
         <v>9.97500038146973</v>
       </c>
       <c r="G316" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -12535,7 +12535,7 @@
         <v>9.89500045776367</v>
       </c>
       <c r="G317" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -12561,7 +12561,7 @@
         <v>9.97000026702881</v>
       </c>
       <c r="G318" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -12587,7 +12587,7 @@
         <v>10.25</v>
       </c>
       <c r="G319" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -12613,7 +12613,7 @@
         <v>10.2600002288818</v>
       </c>
       <c r="G320" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -12639,7 +12639,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G321" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -12665,7 +12665,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G322" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -12691,7 +12691,7 @@
         <v>10.1400003433228</v>
       </c>
       <c r="G323" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -12717,7 +12717,7 @@
         <v>10.1899995803833</v>
       </c>
       <c r="G324" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -12743,7 +12743,7 @@
         <v>10.4200000762939</v>
       </c>
       <c r="G325" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -12769,7 +12769,7 @@
         <v>10.4300003051758</v>
       </c>
       <c r="G326" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -12795,7 +12795,7 @@
         <v>10.3800001144409</v>
       </c>
       <c r="G327" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -12821,7 +12821,7 @@
         <v>10.3000001907349</v>
       </c>
       <c r="G328" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -12847,7 +12847,7 @@
         <v>10.0600004196167</v>
       </c>
       <c r="G329" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -12873,7 +12873,7 @@
         <v>9.97500038146973</v>
       </c>
       <c r="G330" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -12899,7 +12899,7 @@
         <v>9.71000003814697</v>
       </c>
       <c r="G331" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -12925,7 +12925,7 @@
         <v>9.38000011444092</v>
       </c>
       <c r="G332" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -12951,7 +12951,7 @@
         <v>9.61499977111816</v>
       </c>
       <c r="G333" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -12977,7 +12977,7 @@
         <v>9.75</v>
       </c>
       <c r="G334" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -13003,7 +13003,7 @@
         <v>9.875</v>
       </c>
       <c r="G335" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -13029,7 +13029,7 @@
         <v>10.1899995803833</v>
       </c>
       <c r="G336" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -13055,7 +13055,7 @@
         <v>10.2799997329712</v>
       </c>
       <c r="G337" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -13081,7 +13081,7 @@
         <v>10.3900003433228</v>
       </c>
       <c r="G338" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -13107,7 +13107,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G339" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -13133,7 +13133,7 @@
         <v>10.6999998092651</v>
       </c>
       <c r="G340" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -13159,7 +13159,7 @@
         <v>11.3199996948242</v>
       </c>
       <c r="G341" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -13185,7 +13185,7 @@
         <v>11.4099998474121</v>
       </c>
       <c r="G342" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -13211,7 +13211,7 @@
         <v>12.1800003051758</v>
       </c>
       <c r="G343" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -13237,7 +13237,7 @@
         <v>12.2700004577637</v>
       </c>
       <c r="G344" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -13263,7 +13263,7 @@
         <v>12.6700000762939</v>
       </c>
       <c r="G345" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -13289,7 +13289,7 @@
         <v>12.9099998474121</v>
       </c>
       <c r="G346" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -13315,7 +13315,7 @@
         <v>12.9899997711182</v>
       </c>
       <c r="G347" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -13341,7 +13341,7 @@
         <v>12.4300003051758</v>
       </c>
       <c r="G348" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -13367,7 +13367,7 @@
         <v>12.5</v>
       </c>
       <c r="G349" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -13393,7 +13393,7 @@
         <v>12.4700002670288</v>
       </c>
       <c r="G350" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -13419,7 +13419,7 @@
         <v>12.3299999237061</v>
       </c>
       <c r="G351" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -13445,7 +13445,7 @@
         <v>11.6400003433228</v>
       </c>
       <c r="G352" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -13471,7 +13471,7 @@
         <v>11.8599996566772</v>
       </c>
       <c r="G353" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -13497,7 +13497,7 @@
         <v>11.9300003051758</v>
       </c>
       <c r="G354" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -13523,7 +13523,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G355" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -13549,7 +13549,7 @@
         <v>11.9899997711182</v>
       </c>
       <c r="G356" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -13575,7 +13575,7 @@
         <v>12</v>
       </c>
       <c r="G357" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -13601,7 +13601,7 @@
         <v>11.9899997711182</v>
       </c>
       <c r="G358" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -13627,7 +13627,7 @@
         <v>11.9899997711182</v>
       </c>
       <c r="G359" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -13653,7 +13653,7 @@
         <v>11.8800001144409</v>
       </c>
       <c r="G360" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -13679,7 +13679,7 @@
         <v>12.2399997711182</v>
       </c>
       <c r="G361" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -13705,7 +13705,7 @@
         <v>12.6199998855591</v>
       </c>
       <c r="G362" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -13731,7 +13731,7 @@
         <v>12.5699996948242</v>
       </c>
       <c r="G363" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -13757,7 +13757,7 @@
         <v>12.5100002288818</v>
       </c>
       <c r="G364" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -13783,7 +13783,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G365" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -13809,7 +13809,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G366" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -13835,7 +13835,7 @@
         <v>12.6400003433228</v>
       </c>
       <c r="G367" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -13861,7 +13861,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G368" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -13887,7 +13887,7 @@
         <v>12.5299997329712</v>
       </c>
       <c r="G369" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -13913,7 +13913,7 @@
         <v>12.539999961853</v>
       </c>
       <c r="G370" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -13939,7 +13939,7 @@
         <v>12.2799997329712</v>
       </c>
       <c r="G371" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -13965,7 +13965,7 @@
         <v>12.210000038147</v>
       </c>
       <c r="G372" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -13991,7 +13991,7 @@
         <v>11.9300003051758</v>
       </c>
       <c r="G373" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -14017,7 +14017,7 @@
         <v>12.1099996566772</v>
       </c>
       <c r="G374" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -14043,7 +14043,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G375" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -14069,7 +14069,7 @@
         <v>11.9300003051758</v>
       </c>
       <c r="G376" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -14095,7 +14095,7 @@
         <v>11.8400001525879</v>
       </c>
       <c r="G377" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -14121,7 +14121,7 @@
         <v>11.6800003051758</v>
       </c>
       <c r="G378" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -14147,7 +14147,7 @@
         <v>11.5900001525879</v>
       </c>
       <c r="G379" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -14173,7 +14173,7 @@
         <v>11.5299997329712</v>
       </c>
       <c r="G380" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -14199,7 +14199,7 @@
         <v>11.3299999237061</v>
       </c>
       <c r="G381" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -14225,7 +14225,7 @@
         <v>11.1199998855591</v>
       </c>
       <c r="G382" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -14251,7 +14251,7 @@
         <v>10.7299995422363</v>
       </c>
       <c r="G383" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -14277,7 +14277,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G384" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -14303,7 +14303,7 @@
         <v>10.8199996948242</v>
       </c>
       <c r="G385" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -14329,7 +14329,7 @@
         <v>10.8400001525879</v>
       </c>
       <c r="G386" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -14355,7 +14355,7 @@
         <v>10.8900003433228</v>
       </c>
       <c r="G387" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -14381,7 +14381,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G388" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -14407,7 +14407,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G389" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -14433,7 +14433,7 @@
         <v>10.8800001144409</v>
       </c>
       <c r="G390" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -14459,7 +14459,7 @@
         <v>11</v>
       </c>
       <c r="G391" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -14485,7 +14485,7 @@
         <v>10.8599996566772</v>
       </c>
       <c r="G392" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -14511,7 +14511,7 @@
         <v>11.0500001907349</v>
       </c>
       <c r="G393" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -14537,7 +14537,7 @@
         <v>11.4200000762939</v>
       </c>
       <c r="G394" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -14563,7 +14563,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G395" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -14589,7 +14589,7 @@
         <v>11.8299999237061</v>
       </c>
       <c r="G396" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -14615,7 +14615,7 @@
         <v>11.8400001525879</v>
       </c>
       <c r="G397" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -14641,7 +14641,7 @@
         <v>11.6700000762939</v>
       </c>
       <c r="G398" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -14667,7 +14667,7 @@
         <v>11.6099996566772</v>
       </c>
       <c r="G399" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -14693,7 +14693,7 @@
         <v>12.0500001907349</v>
       </c>
       <c r="G400" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -14719,7 +14719,7 @@
         <v>12.0600004196167</v>
       </c>
       <c r="G401" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -14745,7 +14745,7 @@
         <v>11.9899997711182</v>
       </c>
       <c r="G402" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -14771,7 +14771,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G403" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -14797,7 +14797,7 @@
         <v>12.0900001525879</v>
       </c>
       <c r="G404" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -14823,7 +14823,7 @@
         <v>12.0500001907349</v>
       </c>
       <c r="G405" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -14849,7 +14849,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G406" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -14875,7 +14875,7 @@
         <v>12.1300001144409</v>
       </c>
       <c r="G407" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -14901,7 +14901,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G408" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -14927,7 +14927,7 @@
         <v>11.8800001144409</v>
       </c>
       <c r="G409" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -14953,7 +14953,7 @@
         <v>12.2200002670288</v>
       </c>
       <c r="G410" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -14979,7 +14979,7 @@
         <v>12.210000038147</v>
       </c>
       <c r="G411" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -15005,7 +15005,7 @@
         <v>12.0299997329712</v>
       </c>
       <c r="G412" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -15031,7 +15031,7 @@
         <v>11.8100004196167</v>
       </c>
       <c r="G413" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -15057,7 +15057,7 @@
         <v>11.6700000762939</v>
       </c>
       <c r="G414" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -15083,7 +15083,7 @@
         <v>11.75</v>
       </c>
       <c r="G415" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -15109,7 +15109,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G416" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -15135,7 +15135,7 @@
         <v>12.0500001907349</v>
       </c>
       <c r="G417" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -15161,7 +15161,7 @@
         <v>11.8800001144409</v>
       </c>
       <c r="G418" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -15187,7 +15187,7 @@
         <v>11.6599998474121</v>
       </c>
       <c r="G419" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -15213,7 +15213,7 @@
         <v>11.6199998855591</v>
       </c>
       <c r="G420" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -15239,7 +15239,7 @@
         <v>11.4899997711182</v>
       </c>
       <c r="G421" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -15265,7 +15265,7 @@
         <v>11.210000038147</v>
       </c>
       <c r="G422" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -15291,7 +15291,7 @@
         <v>11.4399995803833</v>
       </c>
       <c r="G423" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -15317,7 +15317,7 @@
         <v>11.1499996185303</v>
       </c>
       <c r="G424" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -15343,7 +15343,7 @@
         <v>11.0299997329712</v>
       </c>
       <c r="G425" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -15369,7 +15369,7 @@
         <v>11.2799997329712</v>
       </c>
       <c r="G426" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -15395,7 +15395,7 @@
         <v>11.5299997329712</v>
       </c>
       <c r="G427" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -15421,7 +15421,7 @@
         <v>11.3900003433228</v>
       </c>
       <c r="G428" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -15447,7 +15447,7 @@
         <v>11.210000038147</v>
       </c>
       <c r="G429" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -15473,7 +15473,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G430" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -15499,7 +15499,7 @@
         <v>11.0699996948242</v>
       </c>
       <c r="G431" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -15525,7 +15525,7 @@
         <v>11.1199998855591</v>
       </c>
       <c r="G432" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -15551,7 +15551,7 @@
         <v>10.9399995803833</v>
       </c>
       <c r="G433" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -15577,7 +15577,7 @@
         <v>11.0600004196167</v>
       </c>
       <c r="G434" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -15603,7 +15603,7 @@
         <v>11.1400003433228</v>
       </c>
       <c r="G435" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -15629,7 +15629,7 @@
         <v>11.2200002670288</v>
       </c>
       <c r="G436" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -15655,7 +15655,7 @@
         <v>11.1400003433228</v>
       </c>
       <c r="G437" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -15681,7 +15681,7 @@
         <v>11.0500001907349</v>
       </c>
       <c r="G438" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -15707,7 +15707,7 @@
         <v>11.0600004196167</v>
       </c>
       <c r="G439" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -15733,7 +15733,7 @@
         <v>10.9300003051758</v>
       </c>
       <c r="G440" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -15759,7 +15759,7 @@
         <v>10.8900003433228</v>
       </c>
       <c r="G441" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -15785,7 +15785,7 @@
         <v>10.8800001144409</v>
       </c>
       <c r="G442" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -15811,7 +15811,7 @@
         <v>10.8500003814697</v>
       </c>
       <c r="G443" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -15837,7 +15837,7 @@
         <v>10.8900003433228</v>
       </c>
       <c r="G444" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -15863,7 +15863,7 @@
         <v>11.3000001907349</v>
       </c>
       <c r="G445" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -15889,7 +15889,7 @@
         <v>11.6700000762939</v>
       </c>
       <c r="G446" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -15915,7 +15915,7 @@
         <v>11.4399995803833</v>
       </c>
       <c r="G447" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -15941,7 +15941,7 @@
         <v>11.1899995803833</v>
       </c>
       <c r="G448" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -15967,7 +15967,7 @@
         <v>11.8800001144409</v>
       </c>
       <c r="G449" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -15993,7 +15993,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G450" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -16019,7 +16019,7 @@
         <v>11.4099998474121</v>
       </c>
       <c r="G451" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -16045,7 +16045,7 @@
         <v>11.4200000762939</v>
       </c>
       <c r="G452" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -16071,7 +16071,7 @@
         <v>11.2200002670288</v>
       </c>
       <c r="G453" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -16097,7 +16097,7 @@
         <v>11.3900003433228</v>
       </c>
       <c r="G454" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -16123,7 +16123,7 @@
         <v>11.2799997329712</v>
       </c>
       <c r="G455" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -16149,7 +16149,7 @@
         <v>11.3699998855591</v>
       </c>
       <c r="G456" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -16175,7 +16175,7 @@
         <v>11.3599996566772</v>
       </c>
       <c r="G457" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -16201,7 +16201,7 @@
         <v>11.5</v>
       </c>
       <c r="G458" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -16227,7 +16227,7 @@
         <v>11.5799999237061</v>
       </c>
       <c r="G459" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -16253,7 +16253,7 @@
         <v>11.5200004577637</v>
       </c>
       <c r="G460" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -16279,7 +16279,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G461" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -16305,7 +16305,7 @@
         <v>11.4300003051758</v>
       </c>
       <c r="G462" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -16331,7 +16331,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G463" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -16357,7 +16357,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G464" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -16383,7 +16383,7 @@
         <v>11.5</v>
       </c>
       <c r="G465" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -16409,7 +16409,7 @@
         <v>11.4899997711182</v>
       </c>
       <c r="G466" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -16435,7 +16435,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G467" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -16461,7 +16461,7 @@
         <v>11.539999961853</v>
       </c>
       <c r="G468" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -16487,7 +16487,7 @@
         <v>11.4700002670288</v>
       </c>
       <c r="G469" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -16513,7 +16513,7 @@
         <v>11.5200004577637</v>
       </c>
       <c r="G470" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -16539,7 +16539,7 @@
         <v>11.4700002670288</v>
       </c>
       <c r="G471" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -16565,7 +16565,7 @@
         <v>11.5299997329712</v>
       </c>
       <c r="G472" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -16591,7 +16591,7 @@
         <v>11.539999961853</v>
       </c>
       <c r="G473" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -16617,7 +16617,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G474" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -16643,7 +16643,7 @@
         <v>11.4200000762939</v>
       </c>
       <c r="G475" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -16669,7 +16669,7 @@
         <v>11.1700000762939</v>
       </c>
       <c r="G476" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -16695,7 +16695,7 @@
         <v>10.7700004577637</v>
       </c>
       <c r="G477" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -16721,7 +16721,7 @@
         <v>10.6099996566772</v>
       </c>
       <c r="G478" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -16747,7 +16747,7 @@
         <v>10.2799997329712</v>
       </c>
       <c r="G479" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -16773,7 +16773,7 @@
         <v>10.1300001144409</v>
       </c>
       <c r="G480" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -16799,7 +16799,7 @@
         <v>9.52000045776367</v>
       </c>
       <c r="G481" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -16825,7 +16825,7 @@
         <v>9.8149995803833</v>
       </c>
       <c r="G482" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -16851,7 +16851,7 @@
         <v>9.55000019073486</v>
       </c>
       <c r="G483" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -16877,7 +16877,7 @@
         <v>9.57499980926514</v>
       </c>
       <c r="G484" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -16903,7 +16903,7 @@
         <v>10.1700000762939</v>
       </c>
       <c r="G485" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -16929,7 +16929,7 @@
         <v>9.81999969482422</v>
       </c>
       <c r="G486" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -16955,7 +16955,7 @@
         <v>9.83500003814697</v>
       </c>
       <c r="G487" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -16981,7 +16981,7 @@
         <v>9.65999984741211</v>
       </c>
       <c r="G488" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -17007,7 +17007,7 @@
         <v>9.75</v>
       </c>
       <c r="G489" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -17033,7 +17033,7 @@
         <v>9.86999988555908</v>
       </c>
       <c r="G490" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -17059,7 +17059,7 @@
         <v>9.80000019073486</v>
       </c>
       <c r="G491" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -17085,7 +17085,7 @@
         <v>9.77499961853027</v>
       </c>
       <c r="G492" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -17111,7 +17111,7 @@
         <v>9.53999996185303</v>
       </c>
       <c r="G493" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -17137,7 +17137,7 @@
         <v>9.47500038146973</v>
       </c>
       <c r="G494" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -17163,7 +17163,7 @@
         <v>9.25500011444092</v>
       </c>
       <c r="G495" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -17189,7 +17189,7 @@
         <v>9.22500038146973</v>
       </c>
       <c r="G496" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -17215,7 +17215,7 @@
         <v>9.19499969482422</v>
       </c>
       <c r="G497" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -17241,7 +17241,7 @@
         <v>9.32499980926514</v>
       </c>
       <c r="G498" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -17267,7 +17267,7 @@
         <v>9.26000022888184</v>
       </c>
       <c r="G499" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -17293,7 +17293,7 @@
         <v>9.38000011444092</v>
       </c>
       <c r="G500" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -17319,7 +17319,7 @@
         <v>9.40499973297119</v>
       </c>
       <c r="G501" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -17345,7 +17345,7 @@
         <v>9.45499992370605</v>
       </c>
       <c r="G502" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -17371,7 +17371,7 @@
         <v>9.44499969482422</v>
       </c>
       <c r="G503" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -17397,7 +17397,7 @@
         <v>9.72999954223633</v>
       </c>
       <c r="G504" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -17423,7 +17423,7 @@
         <v>9.72999954223633</v>
       </c>
       <c r="G505" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -17449,7 +17449,7 @@
         <v>9.61999988555908</v>
       </c>
       <c r="G506" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -17475,7 +17475,7 @@
         <v>9.60499954223633</v>
       </c>
       <c r="G507" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -17501,7 +17501,7 @@
         <v>9.48999977111816</v>
       </c>
       <c r="G508" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -17527,7 +17527,7 @@
         <v>9.52499961853027</v>
       </c>
       <c r="G509" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -17553,7 +17553,7 @@
         <v>9.65999984741211</v>
       </c>
       <c r="G510" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -17579,7 +17579,7 @@
         <v>9.63500022888184</v>
       </c>
       <c r="G511" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -17605,7 +17605,7 @@
         <v>9.69499969482422</v>
       </c>
       <c r="G512" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -17631,7 +17631,7 @@
         <v>9.77000045776367</v>
       </c>
       <c r="G513" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -17657,7 +17657,7 @@
         <v>9.93000030517578</v>
       </c>
       <c r="G514" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -17683,7 +17683,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G515" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -17709,7 +17709,7 @@
         <v>10.039999961853</v>
       </c>
       <c r="G516" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -17735,7 +17735,7 @@
         <v>10.3000001907349</v>
       </c>
       <c r="G517" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -17761,7 +17761,7 @@
         <v>10.0799999237061</v>
       </c>
       <c r="G518" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -17787,7 +17787,7 @@
         <v>10</v>
       </c>
       <c r="G519" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -17813,7 +17813,7 @@
         <v>10.0799999237061</v>
       </c>
       <c r="G520" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -17839,7 +17839,7 @@
         <v>10.0200004577637</v>
       </c>
       <c r="G521" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -17865,7 +17865,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G522" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -17891,7 +17891,7 @@
         <v>10.1199998855591</v>
       </c>
       <c r="G523" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -17917,7 +17917,7 @@
         <v>10.1199998855591</v>
       </c>
       <c r="G524" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -17943,7 +17943,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G525" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -17969,7 +17969,7 @@
         <v>10</v>
       </c>
       <c r="G526" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -17995,7 +17995,7 @@
         <v>9.97000026702881</v>
       </c>
       <c r="G527" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -18021,7 +18021,7 @@
         <v>9.90999984741211</v>
       </c>
       <c r="G528" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -18047,7 +18047,7 @@
         <v>9.88000011444092</v>
       </c>
       <c r="G529" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -18073,7 +18073,7 @@
         <v>10.1199998855591</v>
       </c>
       <c r="G530" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -18099,7 +18099,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G531" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -18125,7 +18125,7 @@
         <v>9.80000019073486</v>
       </c>
       <c r="G532" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -18151,7 +18151,7 @@
         <v>9.80000019073486</v>
       </c>
       <c r="G533" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -18177,7 +18177,7 @@
         <v>9.67000007629395</v>
       </c>
       <c r="G534" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -18203,7 +18203,7 @@
         <v>9.44999980926514</v>
       </c>
       <c r="G535" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -18229,7 +18229,7 @@
         <v>9.42000007629395</v>
       </c>
       <c r="G536" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -18255,7 +18255,7 @@
         <v>9.32999992370605</v>
       </c>
       <c r="G537" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -18281,7 +18281,7 @@
         <v>9.57999992370605</v>
       </c>
       <c r="G538" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -18307,7 +18307,7 @@
         <v>9.52000045776367</v>
       </c>
       <c r="G539" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -18333,7 +18333,7 @@
         <v>9.39999961853027</v>
       </c>
       <c r="G540" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -18359,7 +18359,7 @@
         <v>9.8100004196167</v>
       </c>
       <c r="G541" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -18385,7 +18385,7 @@
         <v>10.0799999237061</v>
       </c>
       <c r="G542" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -18411,7 +18411,7 @@
         <v>10.0200004577637</v>
       </c>
       <c r="G543" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -18437,7 +18437,7 @@
         <v>10.1199998855591</v>
       </c>
       <c r="G544" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -18463,7 +18463,7 @@
         <v>10.1199998855591</v>
       </c>
       <c r="G545" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -18489,7 +18489,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G546" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -18515,7 +18515,7 @@
         <v>10.2799997329712</v>
       </c>
       <c r="G547" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -18541,7 +18541,7 @@
         <v>10.5</v>
       </c>
       <c r="G548" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -18567,7 +18567,7 @@
         <v>10.3199996948242</v>
       </c>
       <c r="G549" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -18593,7 +18593,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G550" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -18619,7 +18619,7 @@
         <v>10.3400001525879</v>
       </c>
       <c r="G551" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -18645,7 +18645,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G552" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -18671,7 +18671,7 @@
         <v>10.1599998474121</v>
       </c>
       <c r="G553" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -18697,7 +18697,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G554" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -18723,7 +18723,7 @@
         <v>10.1400003433228</v>
       </c>
       <c r="G555" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -18749,7 +18749,7 @@
         <v>10.4200000762939</v>
       </c>
       <c r="G556" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -18775,7 +18775,7 @@
         <v>10.539999961853</v>
       </c>
       <c r="G557" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -18801,7 +18801,7 @@
         <v>11.039999961853</v>
       </c>
       <c r="G558" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -18827,7 +18827,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G559" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -18853,7 +18853,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G560" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -18879,7 +18879,7 @@
         <v>10.9399995803833</v>
       </c>
       <c r="G561" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -18905,7 +18905,7 @@
         <v>11</v>
       </c>
       <c r="G562" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -18931,7 +18931,7 @@
         <v>10.8400001525879</v>
       </c>
       <c r="G563" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -18957,7 +18957,7 @@
         <v>10.8599996566772</v>
       </c>
       <c r="G564" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -18983,7 +18983,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G565" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -19009,7 +19009,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G566" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -19035,7 +19035,7 @@
         <v>10.8599996566772</v>
       </c>
       <c r="G567" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -19061,7 +19061,7 @@
         <v>10.8800001144409</v>
       </c>
       <c r="G568" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -19087,7 +19087,7 @@
         <v>10.7600002288818</v>
       </c>
       <c r="G569" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -19113,7 +19113,7 @@
         <v>10.8400001525879</v>
       </c>
       <c r="G570" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -19139,7 +19139,7 @@
         <v>10.8400001525879</v>
       </c>
       <c r="G571" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -19165,7 +19165,7 @@
         <v>10.8800001144409</v>
       </c>
       <c r="G572" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -19191,7 +19191,7 @@
         <v>10.7399997711182</v>
       </c>
       <c r="G573" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -19217,7 +19217,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G574" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -19243,7 +19243,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G575" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -19269,7 +19269,7 @@
         <v>10.6599998474121</v>
       </c>
       <c r="G576" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -19295,7 +19295,7 @@
         <v>10.7200002670288</v>
       </c>
       <c r="G577" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -19321,7 +19321,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G578" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -19347,7 +19347,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G579" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -19373,7 +19373,7 @@
         <v>10.9399995803833</v>
       </c>
       <c r="G580" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -19399,7 +19399,7 @@
         <v>10.8800001144409</v>
       </c>
       <c r="G581" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -19425,7 +19425,7 @@
         <v>10.8599996566772</v>
       </c>
       <c r="G582" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -19451,7 +19451,7 @@
         <v>10.9200000762939</v>
       </c>
       <c r="G583" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -19477,7 +19477,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G584" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -19503,7 +19503,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G585" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -19529,7 +19529,7 @@
         <v>11.2799997329712</v>
       </c>
       <c r="G586" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -19555,7 +19555,7 @@
         <v>11.4200000762939</v>
       </c>
       <c r="G587" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -19581,7 +19581,7 @@
         <v>12.039999961853</v>
       </c>
       <c r="G588" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -19607,7 +19607,7 @@
         <v>12.460000038147</v>
       </c>
       <c r="G589" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -19633,7 +19633,7 @@
         <v>12.5799999237061</v>
       </c>
       <c r="G590" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -19659,7 +19659,7 @@
         <v>12.5200004577637</v>
       </c>
       <c r="G591" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -19685,7 +19685,7 @@
         <v>12.5200004577637</v>
       </c>
       <c r="G592" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -19711,7 +19711,7 @@
         <v>12.5799999237061</v>
       </c>
       <c r="G593" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -19737,7 +19737,7 @@
         <v>12.9200000762939</v>
       </c>
       <c r="G594" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -19763,7 +19763,7 @@
         <v>13.4799995422363</v>
       </c>
       <c r="G595" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -19789,7 +19789,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G596" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -19815,7 +19815,7 @@
         <v>13.5200004577637</v>
       </c>
       <c r="G597" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -19841,7 +19841,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G598" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -19867,7 +19867,7 @@
         <v>12.960000038147</v>
       </c>
       <c r="G599" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -19893,7 +19893,7 @@
         <v>12.960000038147</v>
       </c>
       <c r="G600" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -19919,7 +19919,7 @@
         <v>12.9200000762939</v>
       </c>
       <c r="G601" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -19945,7 +19945,7 @@
         <v>12.460000038147</v>
       </c>
       <c r="G602" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -19971,7 +19971,7 @@
         <v>12.3400001525879</v>
       </c>
       <c r="G603" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -19997,7 +19997,7 @@
         <v>12.3199996948242</v>
       </c>
       <c r="G604" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -20023,7 +20023,7 @@
         <v>11.960000038147</v>
       </c>
       <c r="G605" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -20049,7 +20049,7 @@
         <v>11.8800001144409</v>
       </c>
       <c r="G606" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -20075,7 +20075,7 @@
         <v>11.460000038147</v>
       </c>
       <c r="G607" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -20101,7 +20101,7 @@
         <v>11.6800003051758</v>
       </c>
       <c r="G608" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -20127,7 +20127,7 @@
         <v>11.5799999237061</v>
       </c>
       <c r="G609" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -20153,7 +20153,7 @@
         <v>11.5799999237061</v>
       </c>
       <c r="G610" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -20179,7 +20179,7 @@
         <v>11.6199998855591</v>
       </c>
       <c r="G611" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -20205,7 +20205,7 @@
         <v>11.4399995803833</v>
       </c>
       <c r="G612" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -20231,7 +20231,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G613" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -20257,7 +20257,7 @@
         <v>10.9200000762939</v>
       </c>
       <c r="G614" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -20283,7 +20283,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G615" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -20309,7 +20309,7 @@
         <v>10.9799995422363</v>
       </c>
       <c r="G616" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -20335,7 +20335,7 @@
         <v>11.2200002670288</v>
       </c>
       <c r="G617" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -20361,7 +20361,7 @@
         <v>11</v>
       </c>
       <c r="G618" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -20387,7 +20387,7 @@
         <v>11.1599998474121</v>
       </c>
       <c r="G619" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -20413,7 +20413,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G620" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -20439,7 +20439,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G621" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -20465,7 +20465,7 @@
         <v>11.0600004196167</v>
       </c>
       <c r="G622" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -20491,7 +20491,7 @@
         <v>11.3599996566772</v>
       </c>
       <c r="G623" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -20517,7 +20517,7 @@
         <v>11.2600002288818</v>
       </c>
       <c r="G624" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -20543,7 +20543,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G625" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -20569,7 +20569,7 @@
         <v>11.2799997329712</v>
       </c>
       <c r="G626" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -20595,7 +20595,7 @@
         <v>11.1400003433228</v>
       </c>
       <c r="G627" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -20621,7 +20621,7 @@
         <v>10.9799995422363</v>
       </c>
       <c r="G628" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -20647,7 +20647,7 @@
         <v>11.1599998474121</v>
       </c>
       <c r="G629" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -20673,7 +20673,7 @@
         <v>11.1400003433228</v>
       </c>
       <c r="G630" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -20699,7 +20699,7 @@
         <v>11.0200004577637</v>
       </c>
       <c r="G631" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -20725,7 +20725,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G632" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -20751,7 +20751,7 @@
         <v>10.6800003051758</v>
       </c>
       <c r="G633" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -20777,7 +20777,7 @@
         <v>10.6999998092651</v>
       </c>
       <c r="G634" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -20803,7 +20803,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G635" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -20829,7 +20829,7 @@
         <v>10.3400001525879</v>
       </c>
       <c r="G636" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -20855,7 +20855,7 @@
         <v>10.5600004196167</v>
       </c>
       <c r="G637" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -20881,7 +20881,7 @@
         <v>10.6199998855591</v>
       </c>
       <c r="G638" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -20907,7 +20907,7 @@
         <v>10.539999961853</v>
       </c>
       <c r="G639" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -20933,7 +20933,7 @@
         <v>10.5</v>
       </c>
       <c r="G640" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -20959,7 +20959,7 @@
         <v>10.6199998855591</v>
       </c>
       <c r="G641" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -20985,7 +20985,7 @@
         <v>10.6400003433228</v>
       </c>
       <c r="G642" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -21011,7 +21011,7 @@
         <v>10.5799999237061</v>
       </c>
       <c r="G643" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -21037,7 +21037,7 @@
         <v>10.4399995803833</v>
       </c>
       <c r="G644" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -21063,7 +21063,7 @@
         <v>10.1599998474121</v>
       </c>
       <c r="G645" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -21089,7 +21089,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G646" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -21115,7 +21115,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G647" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -21141,7 +21141,7 @@
         <v>10.2200002670288</v>
       </c>
       <c r="G648" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -21167,7 +21167,7 @@
         <v>10.1599998474121</v>
       </c>
       <c r="G649" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -21193,7 +21193,7 @@
         <v>10.1800003051758</v>
       </c>
       <c r="G650" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -21219,7 +21219,7 @@
         <v>10.1199998855591</v>
       </c>
       <c r="G651" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -21245,7 +21245,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G652" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -21271,7 +21271,7 @@
         <v>9.92000007629395</v>
       </c>
       <c r="G653" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -21297,7 +21297,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G654" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -21323,7 +21323,7 @@
         <v>9.75</v>
       </c>
       <c r="G655" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -21349,7 +21349,7 @@
         <v>9.6899995803833</v>
       </c>
       <c r="G656" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -21375,7 +21375,7 @@
         <v>9.85999965667725</v>
       </c>
       <c r="G657" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -21401,7 +21401,7 @@
         <v>9.77999973297119</v>
       </c>
       <c r="G658" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -21427,7 +21427,7 @@
         <v>9.80000019073486</v>
       </c>
       <c r="G659" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -21453,7 +21453,7 @@
         <v>9.80000019073486</v>
       </c>
       <c r="G660" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -21479,7 +21479,7 @@
         <v>9.6899995803833</v>
       </c>
       <c r="G661" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -21505,7 +21505,7 @@
         <v>9.76000022888184</v>
       </c>
       <c r="G662" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -21531,7 +21531,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G663" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -21557,7 +21557,7 @@
         <v>9.03999996185303</v>
       </c>
       <c r="G664" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -21583,7 +21583,7 @@
         <v>9.73999977111816</v>
       </c>
       <c r="G665" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -21609,7 +21609,7 @@
         <v>9.6899995803833</v>
       </c>
       <c r="G666" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -21635,7 +21635,7 @@
         <v>9.5</v>
       </c>
       <c r="G667" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -21661,7 +21661,7 @@
         <v>9.43000030517578</v>
       </c>
       <c r="G668" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -21687,7 +21687,7 @@
         <v>9.44999980926514</v>
       </c>
       <c r="G669" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -21713,7 +21713,7 @@
         <v>9.42000007629395</v>
       </c>
       <c r="G670" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -21739,7 +21739,7 @@
         <v>9.11999988555908</v>
       </c>
       <c r="G671" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -21765,7 +21765,7 @@
         <v>9.22000026702881</v>
       </c>
       <c r="G672" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -21791,7 +21791,7 @@
         <v>9.42000007629395</v>
       </c>
       <c r="G673" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -21817,7 +21817,7 @@
         <v>9.85999965667725</v>
       </c>
       <c r="G674" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -21843,7 +21843,7 @@
         <v>10.2600002288818</v>
       </c>
       <c r="G675" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -21869,7 +21869,7 @@
         <v>10.2399997711182</v>
       </c>
       <c r="G676" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -21895,7 +21895,7 @@
         <v>10.2399997711182</v>
       </c>
       <c r="G677" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -21921,7 +21921,7 @@
         <v>10.1599998474121</v>
       </c>
       <c r="G678" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -21947,7 +21947,7 @@
         <v>10.1800003051758</v>
       </c>
       <c r="G679" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -21973,7 +21973,7 @@
         <v>10.039999961853</v>
       </c>
       <c r="G680" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -21999,7 +21999,7 @@
         <v>9.82999992370605</v>
       </c>
       <c r="G681" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -22025,7 +22025,7 @@
         <v>10.2600002288818</v>
       </c>
       <c r="G682" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -22051,7 +22051,7 @@
         <v>10.2200002670288</v>
       </c>
       <c r="G683" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -22077,7 +22077,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G684" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -22103,7 +22103,7 @@
         <v>9.96000003814697</v>
       </c>
       <c r="G685" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -22129,7 +22129,7 @@
         <v>9.86999988555908</v>
       </c>
       <c r="G686" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -22155,7 +22155,7 @@
         <v>9.78999996185303</v>
       </c>
       <c r="G687" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -22181,7 +22181,7 @@
         <v>9.78999996185303</v>
       </c>
       <c r="G688" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -22207,7 +22207,7 @@
         <v>9.78999996185303</v>
       </c>
       <c r="G689" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -22233,7 +22233,7 @@
         <v>9.81999969482422</v>
       </c>
       <c r="G690" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -22259,7 +22259,7 @@
         <v>9.69999980926514</v>
       </c>
       <c r="G691" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -22285,7 +22285,7 @@
         <v>9.78999996185303</v>
       </c>
       <c r="G692" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -22311,7 +22311,7 @@
         <v>9.68000030517578</v>
       </c>
       <c r="G693" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -22337,7 +22337,7 @@
         <v>9.6899995803833</v>
       </c>
       <c r="G694" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -22363,7 +22363,7 @@
         <v>9.69999980926514</v>
       </c>
       <c r="G695" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -22389,7 +22389,7 @@
         <v>9.69999980926514</v>
       </c>
       <c r="G696" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -22415,7 +22415,7 @@
         <v>9.59000015258789</v>
       </c>
       <c r="G697" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -22441,7 +22441,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G698" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -22467,7 +22467,7 @@
         <v>9.64999961853027</v>
       </c>
       <c r="G699" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -22493,7 +22493,7 @@
         <v>9.57999992370605</v>
       </c>
       <c r="G700" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -22519,7 +22519,7 @@
         <v>9.51000022888184</v>
       </c>
       <c r="G701" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -22545,7 +22545,7 @@
         <v>9.44999980926514</v>
       </c>
       <c r="G702" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -22571,7 +22571,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G703" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -22597,7 +22597,7 @@
         <v>9.38000011444092</v>
       </c>
       <c r="G704" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -22623,7 +22623,7 @@
         <v>9.39000034332275</v>
       </c>
       <c r="G705" t="s">
-        <v>488</v>
+        <v>392</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -22675,7 +22675,7 @@
         <v>9.11999988555908</v>
       </c>
       <c r="G707" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -24261,7 +24261,7 @@
         <v>9.11999988555908</v>
       </c>
       <c r="G768" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -24495,7 +24495,7 @@
         <v>9.39000034332275</v>
       </c>
       <c r="G777" t="s">
-        <v>488</v>
+        <v>392</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -24521,7 +24521,7 @@
         <v>9.38000011444092</v>
       </c>
       <c r="G778" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -24547,7 +24547,7 @@
         <v>9.5</v>
       </c>
       <c r="G779" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -24573,7 +24573,7 @@
         <v>9.75</v>
       </c>
       <c r="G780" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -24599,7 +24599,7 @@
         <v>9.80000019073486</v>
       </c>
       <c r="G781" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -24677,7 +24677,7 @@
         <v>9.80000019073486</v>
       </c>
       <c r="G784" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -24729,7 +24729,7 @@
         <v>9.64999961853027</v>
       </c>
       <c r="G786" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -24807,7 +24807,7 @@
         <v>9.80000019073486</v>
       </c>
       <c r="G789" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -24859,7 +24859,7 @@
         <v>9.39000034332275</v>
       </c>
       <c r="G791" t="s">
-        <v>488</v>
+        <v>392</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -24911,7 +24911,7 @@
         <v>9.80000019073486</v>
       </c>
       <c r="G793" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -24963,7 +24963,7 @@
         <v>9.75</v>
       </c>
       <c r="G795" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -24989,7 +24989,7 @@
         <v>9.81999969482422</v>
       </c>
       <c r="G796" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -25041,7 +25041,7 @@
         <v>9.75</v>
       </c>
       <c r="G798" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -25093,7 +25093,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G800" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -25119,7 +25119,7 @@
         <v>9.73999977111816</v>
       </c>
       <c r="G801" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -25145,7 +25145,7 @@
         <v>9.77999973297119</v>
       </c>
       <c r="G802" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -25275,7 +25275,7 @@
         <v>9.64999961853027</v>
       </c>
       <c r="G807" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -25327,7 +25327,7 @@
         <v>9.77999973297119</v>
       </c>
       <c r="G809" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -25353,7 +25353,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G810" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -25561,7 +25561,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G818" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -25717,7 +25717,7 @@
         <v>9.03999996185303</v>
       </c>
       <c r="G824" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -25873,7 +25873,7 @@
         <v>9.11999988555908</v>
       </c>
       <c r="G830" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -26211,7 +26211,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G843" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -26263,7 +26263,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G845" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -61111,7 +61111,7 @@
     </row>
     <row r="2186">
       <c r="A2186" s="1" t="n">
-        <v>45505.6496412037</v>
+        <v>45505.2916666667</v>
       </c>
       <c r="B2186" t="n">
         <v>11039</v>
@@ -61120,7 +61120,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="D2186" t="n">
-        <v>25.5</v>
+        <v>25.3999996185303</v>
       </c>
       <c r="E2186" t="n">
         <v>26.4500007629395</v>
@@ -61132,6 +61132,32 @@
         <v>1315</v>
       </c>
       <c r="H2186" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2187">
+      <c r="A2187" s="1" t="n">
+        <v>45506.6494675926</v>
+      </c>
+      <c r="B2187" t="n">
+        <v>43076</v>
+      </c>
+      <c r="C2187" t="n">
+        <v>25.4500007629395</v>
+      </c>
+      <c r="D2187" t="n">
+        <v>23.75</v>
+      </c>
+      <c r="E2187" t="n">
+        <v>25.4500007629395</v>
+      </c>
+      <c r="F2187" t="n">
+        <v>24</v>
+      </c>
+      <c r="G2187" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H2187" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TXT.MI.xlsx
+++ b/data/TXT.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="1316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="1317">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,19 +38,19 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45555543899536</t>
+    <t xml:space="preserve">6.45555591583252</t>
   </si>
   <si>
     <t xml:space="preserve">TXT.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43539381027222</t>
+    <t xml:space="preserve">6.43539476394653</t>
   </si>
   <si>
     <t xml:space="preserve">6.44345855712891</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27410650253296</t>
+    <t xml:space="preserve">6.27410697937012</t>
   </si>
   <si>
     <t xml:space="preserve">6.31442832946777</t>
@@ -59,13 +59,13 @@
     <t xml:space="preserve">6.13701152801514</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16926908493042</t>
+    <t xml:space="preserve">6.16926956176758</t>
   </si>
   <si>
     <t xml:space="preserve">6.12894678115845</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96765851974487</t>
+    <t xml:space="preserve">5.96765947341919</t>
   </si>
   <si>
     <t xml:space="preserve">5.89507961273193</t>
@@ -74,16 +74,16 @@
     <t xml:space="preserve">5.80637121200562</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98781967163086</t>
+    <t xml:space="preserve">5.98782014846802</t>
   </si>
   <si>
     <t xml:space="preserve">5.79024219512939</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76201677322388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7660493850708</t>
+    <t xml:space="preserve">5.76201725006104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76604890823364</t>
   </si>
   <si>
     <t xml:space="preserve">5.78217792510986</t>
@@ -95,7 +95,7 @@
     <t xml:space="preserve">5.92733716964722</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95959424972534</t>
+    <t xml:space="preserve">5.9595947265625</t>
   </si>
   <si>
     <t xml:space="preserve">5.98378849029541</t>
@@ -107,16 +107,16 @@
     <t xml:space="preserve">5.89104700088501</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81846809387207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21765613555908</t>
+    <t xml:space="preserve">5.81846761703491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21765565872192</t>
   </si>
   <si>
     <t xml:space="preserve">6.19346189498901</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24991321563721</t>
+    <t xml:space="preserve">6.24991273880005</t>
   </si>
   <si>
     <t xml:space="preserve">6.33862161636353</t>
@@ -125,70 +125,70 @@
     <t xml:space="preserve">6.26604223251343</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24184846878052</t>
+    <t xml:space="preserve">6.24184799194336</t>
   </si>
   <si>
     <t xml:space="preserve">6.25394582748413</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45152378082275</t>
+    <t xml:space="preserve">6.45152282714844</t>
   </si>
   <si>
     <t xml:space="preserve">6.50394153594971</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45958805084229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5321683883667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5482964515686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54023122787476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28217172622681</t>
+    <t xml:space="preserve">6.45958757400513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53216743469238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54829597473145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54023170471191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28217077255249</t>
   </si>
   <si>
     <t xml:space="preserve">6.12088298797607</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29829978942871</t>
+    <t xml:space="preserve">6.29829931259155</t>
   </si>
   <si>
     <t xml:space="preserve">6.23781633377075</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18539810180664</t>
+    <t xml:space="preserve">6.18539762496948</t>
   </si>
   <si>
     <t xml:space="preserve">6.19749450683594</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1531400680542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15717267990112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03217458724976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06039953231812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99185228347778</t>
+    <t xml:space="preserve">6.15314102172852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15717363357544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0321741104126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06040000915527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99185132980347</t>
   </si>
   <si>
     <t xml:space="preserve">6.17733335494995</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09668922424316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2015266418457</t>
+    <t xml:space="preserve">6.09668970108032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20152711868286</t>
   </si>
   <si>
     <t xml:space="preserve">6.1410436630249</t>
@@ -197,7 +197,7 @@
     <t xml:space="preserve">6.22571992874146</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16523694992065</t>
+    <t xml:space="preserve">6.16523742675781</t>
   </si>
   <si>
     <t xml:space="preserve">6.25797843933105</t>
@@ -206,7 +206,7 @@
     <t xml:space="preserve">6.07652807235718</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14507579803467</t>
+    <t xml:space="preserve">6.14507532119751</t>
   </si>
   <si>
     <t xml:space="preserve">6.05636787414551</t>
@@ -221,10 +221,10 @@
     <t xml:space="preserve">6.16120481491089</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11685085296631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11281824111938</t>
+    <t xml:space="preserve">6.11685037612915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11281871795654</t>
   </si>
   <si>
     <t xml:space="preserve">6.23734998703003</t>
@@ -236,64 +236,61 @@
     <t xml:space="preserve">6.11643886566162</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20399522781372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25402784347534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1372857093811</t>
+    <t xml:space="preserve">6.20399570465088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2540283203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13728523254395</t>
   </si>
   <si>
     <t xml:space="preserve">6.21233367919922</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2331805229187</t>
+    <t xml:space="preserve">6.23318099975586</t>
   </si>
   <si>
     <t xml:space="preserve">6.24568891525269</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16230201721191</t>
+    <t xml:space="preserve">6.16230154037476</t>
   </si>
   <si>
     <t xml:space="preserve">6.33324527740479</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2415189743042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17064046859741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1831488609314</t>
+    <t xml:space="preserve">6.24151945114136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17064094543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18314838409424</t>
   </si>
   <si>
     <t xml:space="preserve">6.15396356582642</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08725452423096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93715620040894</t>
+    <t xml:space="preserve">6.08725357055664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93715715408325</t>
   </si>
   <si>
     <t xml:space="preserve">5.94966506958008</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85377025604248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03722095489502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12894725799561</t>
+    <t xml:space="preserve">5.85376977920532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03722143173218</t>
   </si>
   <si>
     <t xml:space="preserve">6.08308458328247</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98718881607056</t>
+    <t xml:space="preserve">5.98718929290771</t>
   </si>
   <si>
     <t xml:space="preserve">6.00386667251587</t>
@@ -302,10 +299,10 @@
     <t xml:space="preserve">5.89546346664429</t>
   </si>
   <si>
-    <t xml:space="preserve">5.82875394821167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90380144119263</t>
+    <t xml:space="preserve">5.82875347137451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90380191802979</t>
   </si>
   <si>
     <t xml:space="preserve">5.95383405685425</t>
@@ -314,7 +311,7 @@
     <t xml:space="preserve">5.90797138214111</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1664719581604</t>
+    <t xml:space="preserve">6.16647100448608</t>
   </si>
   <si>
     <t xml:space="preserve">6.05806827545166</t>
@@ -344,22 +341,22 @@
     <t xml:space="preserve">6.17480993270874</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19565677642822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18731880187988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12060880661011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19148778915405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11226940155029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0955924987793</t>
+    <t xml:space="preserve">6.19565582275391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18731832504272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12060832977295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19148731231689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11226987838745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09559297561646</t>
   </si>
   <si>
     <t xml:space="preserve">6.01220560073853</t>
@@ -383,7 +380,7 @@
     <t xml:space="preserve">5.9996976852417</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04555988311768</t>
+    <t xml:space="preserve">6.04556035995483</t>
   </si>
   <si>
     <t xml:space="preserve">5.92881870269775</t>
@@ -398,52 +395,52 @@
     <t xml:space="preserve">5.85793924331665</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89129400253296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8996319770813</t>
+    <t xml:space="preserve">5.89129447937012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89963245391846</t>
   </si>
   <si>
     <t xml:space="preserve">5.79956769943237</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94549608230591</t>
+    <t xml:space="preserve">5.94549655914307</t>
   </si>
   <si>
     <t xml:space="preserve">5.97885036468506</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9204797744751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96217346191406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10393142700195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47083473205566</t>
+    <t xml:space="preserve">5.92047882080078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9621729850769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10393095016479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47083425521851</t>
   </si>
   <si>
     <t xml:space="preserve">6.49585008621216</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57923650741577</t>
+    <t xml:space="preserve">6.57923746109009</t>
   </si>
   <si>
     <t xml:space="preserve">6.59591484069824</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50001955032349</t>
+    <t xml:space="preserve">6.50001907348633</t>
   </si>
   <si>
     <t xml:space="preserve">6.33741474151611</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50418949127197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4291410446167</t>
+    <t xml:space="preserve">6.50418901443481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42914056777954</t>
   </si>
   <si>
     <t xml:space="preserve">6.44581747055054</t>
@@ -455,7 +452,7 @@
     <t xml:space="preserve">6.38327789306641</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42497158050537</t>
+    <t xml:space="preserve">6.42497110366821</t>
   </si>
   <si>
     <t xml:space="preserve">6.45415592193604</t>
@@ -464,40 +461,40 @@
     <t xml:space="preserve">6.42080163955688</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55422115325928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38744640350342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53754425048828</t>
+    <t xml:space="preserve">6.55422067642212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38744688034058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53754377365112</t>
   </si>
   <si>
     <t xml:space="preserve">6.37910842895508</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41663312911987</t>
+    <t xml:space="preserve">6.41663217544556</t>
   </si>
   <si>
     <t xml:space="preserve">6.34992265701294</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4374794960022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22901153564453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01637506484985</t>
+    <t xml:space="preserve">6.43747854232788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22901105880737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0163745880127</t>
   </si>
   <si>
     <t xml:space="preserve">6.05389928817749</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06223726272583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07057619094849</t>
+    <t xml:space="preserve">6.06223773956299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07057666778564</t>
   </si>
   <si>
     <t xml:space="preserve">6.37076950073242</t>
@@ -509,7 +506,7 @@
     <t xml:space="preserve">6.32907629013062</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45832633972168</t>
+    <t xml:space="preserve">6.45832586288452</t>
   </si>
   <si>
     <t xml:space="preserve">6.28738260269165</t>
@@ -521,7 +518,7 @@
     <t xml:space="preserve">6.74601173400879</t>
   </si>
   <si>
-    <t xml:space="preserve">6.72933340072632</t>
+    <t xml:space="preserve">6.72933387756348</t>
   </si>
   <si>
     <t xml:space="preserve">6.69597911834717</t>
@@ -533,10 +530,10 @@
     <t xml:space="preserve">6.7877049446106</t>
   </si>
   <si>
-    <t xml:space="preserve">7.08789873123169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25467252731323</t>
+    <t xml:space="preserve">7.08789777755737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25467157363892</t>
   </si>
   <si>
     <t xml:space="preserve">7.22965621948242</t>
@@ -545,34 +542,34 @@
     <t xml:space="preserve">7.0837287902832</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06288242340088</t>
+    <t xml:space="preserve">7.06288194656372</t>
   </si>
   <si>
     <t xml:space="preserve">7.12959146499634</t>
   </si>
   <si>
-    <t xml:space="preserve">7.07122039794922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10457515716553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03786611557007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25884103775024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65493059158325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6882848739624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65076112747192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13793039321899</t>
+    <t xml:space="preserve">7.07121992111206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10457563400269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03786516189575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2588415145874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65492963790894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68828439712524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65076160430908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13793087005615</t>
   </si>
   <si>
     <t xml:space="preserve">7.35473585128784</t>
@@ -587,22 +584,22 @@
     <t xml:space="preserve">7.54235744476318</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48815488815308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32972049713135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22131729125977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15460729598999</t>
+    <t xml:space="preserve">7.48815536499023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32972097396851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22131681442261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15460681915283</t>
   </si>
   <si>
     <t xml:space="preserve">6.99200344085693</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12125301361084</t>
+    <t xml:space="preserve">7.121253490448</t>
   </si>
   <si>
     <t xml:space="preserve">7.10874462127686</t>
@@ -617,76 +614,76 @@
     <t xml:space="preserve">6.88359975814819</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00451135635376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06705188751221</t>
+    <t xml:space="preserve">7.0045108795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06705093383789</t>
   </si>
   <si>
     <t xml:space="preserve">6.93780088424683</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96281719207764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00867986679077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27968835830688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32138109207153</t>
+    <t xml:space="preserve">6.96281862258911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00868034362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27968740463257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32138156890869</t>
   </si>
   <si>
     <t xml:space="preserve">7.59655857086182</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56320428848267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69662284851074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74665594100952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71330118179321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9592924118042</t>
+    <t xml:space="preserve">7.56320333480835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69662237167358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74665546417236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71330070495605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95929336547852</t>
   </si>
   <si>
     <t xml:space="preserve">8.06352615356445</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08854198455811</t>
+    <t xml:space="preserve">8.08854293823242</t>
   </si>
   <si>
     <t xml:space="preserve">8.13023567199707</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90925979614258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31785774230957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25114822387695</t>
+    <t xml:space="preserve">7.90925931930542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31785678863525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25114727020264</t>
   </si>
   <si>
     <t xml:space="preserve">8.31368732452393</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5471715927124</t>
+    <t xml:space="preserve">8.54717063903809</t>
   </si>
   <si>
     <t xml:space="preserve">8.55550956726074</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42209053039551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4554443359375</t>
+    <t xml:space="preserve">8.42209148406982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45544528961182</t>
   </si>
   <si>
     <t xml:space="preserve">8.49713802337646</t>
@@ -695,40 +692,40 @@
     <t xml:space="preserve">8.68892955780029</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69726753234863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65557479858398</t>
+    <t xml:space="preserve">8.69726848602295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65557384490967</t>
   </si>
   <si>
     <t xml:space="preserve">8.58886432647705</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3887357711792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09688186645508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82170391082764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01766300201416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23447036743164</t>
+    <t xml:space="preserve">8.38873767852783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09687995910645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82170343399048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01766395568848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23446941375732</t>
   </si>
   <si>
     <t xml:space="preserve">8.57218742370605</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66391372680664</t>
+    <t xml:space="preserve">8.66391277313232</t>
   </si>
   <si>
     <t xml:space="preserve">8.83902645111084</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92241191864014</t>
+    <t xml:space="preserve">8.92241287231445</t>
   </si>
   <si>
     <t xml:space="preserve">9.43941211700439</t>
@@ -737,10 +734,10 @@
     <t xml:space="preserve">9.51446056365967</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1565418243408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2315883636475</t>
+    <t xml:space="preserve">10.1565408706665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2315902709961</t>
   </si>
   <si>
     <t xml:space="preserve">10.5651369094849</t>
@@ -749,61 +746,61 @@
     <t xml:space="preserve">10.765266418457</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8319759368896</t>
+    <t xml:space="preserve">10.8319778442383</t>
   </si>
   <si>
     <t xml:space="preserve">10.3650074005127</t>
   </si>
   <si>
-    <t xml:space="preserve">10.423378944397</t>
+    <t xml:space="preserve">10.4233798980713</t>
   </si>
   <si>
     <t xml:space="preserve">10.6540613174438</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5344476699829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9449291229248</t>
+    <t xml:space="preserve">10.5344486236572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94493007659912</t>
   </si>
   <si>
     <t xml:space="preserve">10.1328916549683</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1926984786987</t>
+    <t xml:space="preserve">10.1926975250244</t>
   </si>
   <si>
     <t xml:space="preserve">10.1243476867676</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2439603805542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2525043487549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1499795913696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4575538635254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7822179794312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7394971847534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6882362365723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5515365600586</t>
+    <t xml:space="preserve">10.2439594268799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2525033950806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1499786376953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4575548171997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7822170257568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7394981384277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6882352828979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5515375137329</t>
   </si>
   <si>
     <t xml:space="preserve">10.7993049621582</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7224111557007</t>
+    <t xml:space="preserve">10.7224102020264</t>
   </si>
   <si>
     <t xml:space="preserve">10.7053232192993</t>
@@ -812,91 +809,91 @@
     <t xml:space="preserve">10.7138662338257</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4917287826538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.431923866272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3464851379395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3806610107422</t>
+    <t xml:space="preserve">10.4917297363281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4319229125977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3464860916138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3806600570679</t>
   </si>
   <si>
     <t xml:space="preserve">10.1158046722412</t>
   </si>
   <si>
-    <t xml:space="preserve">9.97910594940186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90221118927002</t>
+    <t xml:space="preserve">9.97910404205322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9022102355957</t>
   </si>
   <si>
     <t xml:space="preserve">9.85094738006592</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68007183074951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50065326690674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16744709014893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22725486755371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24434089660645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2614278793335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30414867401123</t>
+    <t xml:space="preserve">9.68007278442383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50065422058105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16744613647461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22725391387939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24434185028076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26142978668213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30414772033691</t>
   </si>
   <si>
     <t xml:space="preserve">9.29560375213623</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3981294631958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27851581573486</t>
+    <t xml:space="preserve">9.39812850952148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27851676940918</t>
   </si>
   <si>
     <t xml:space="preserve">9.4408483505249</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75696659088135</t>
+    <t xml:space="preserve">9.75696754455566</t>
   </si>
   <si>
     <t xml:space="preserve">10.1670665740967</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1072597503662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97056102752686</t>
+    <t xml:space="preserve">10.1072607040405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97056007385254</t>
   </si>
   <si>
     <t xml:space="preserve">9.91929721832275</t>
   </si>
   <si>
-    <t xml:space="preserve">10.295223236084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3037672042847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3550300598145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3293981552124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3635730743408</t>
+    <t xml:space="preserve">10.2952222824097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3037662506104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3550291061401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3293991088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3635740280151</t>
   </si>
   <si>
     <t xml:space="preserve">10.4404668807983</t>
@@ -911,16 +908,16 @@
     <t xml:space="preserve">10.0389108657837</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96201705932617</t>
+    <t xml:space="preserve">9.96201515197754</t>
   </si>
   <si>
     <t xml:space="preserve">9.92784214019775</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81677341461182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57754898071289</t>
+    <t xml:space="preserve">9.8167724609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57754802703857</t>
   </si>
   <si>
     <t xml:space="preserve">9.7740535736084</t>
@@ -929,49 +926,49 @@
     <t xml:space="preserve">9.52628421783447</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42375946044922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63735389709473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73133563995361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56900501251221</t>
+    <t xml:space="preserve">9.42376041412354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63735294342041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7313346862793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56900405883789</t>
   </si>
   <si>
     <t xml:space="preserve">9.45793533325195</t>
   </si>
   <si>
-    <t xml:space="preserve">9.34686470031738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44939136505127</t>
+    <t xml:space="preserve">9.3468656539917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44939231872559</t>
   </si>
   <si>
     <t xml:space="preserve">9.51774120330811</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58609104156494</t>
+    <t xml:space="preserve">9.58609199523926</t>
   </si>
   <si>
     <t xml:space="preserve">9.33832263946533</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2699728012085</t>
+    <t xml:space="preserve">9.26997375488281</t>
   </si>
   <si>
     <t xml:space="preserve">9.65444278717041</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56045913696289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91075420379639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74842166900635</t>
+    <t xml:space="preserve">9.56046009063721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9107551574707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74842262268066</t>
   </si>
   <si>
     <t xml:space="preserve">9.71424770355225</t>
@@ -980,64 +977,64 @@
     <t xml:space="preserve">9.70570373535156</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8253173828125</t>
+    <t xml:space="preserve">9.82531642913818</t>
   </si>
   <si>
     <t xml:space="preserve">9.89366722106934</t>
   </si>
   <si>
-    <t xml:space="preserve">9.84240531921387</t>
+    <t xml:space="preserve">9.84240436553955</t>
   </si>
   <si>
     <t xml:space="preserve">9.86803531646729</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76551055908203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7398796081543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69715976715088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8594913482666</t>
+    <t xml:space="preserve">9.76551151275635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73987865447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6971607208252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85949039459229</t>
   </si>
   <si>
     <t xml:space="preserve">9.79968547821045</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54337215423584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20162391662598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06492328643799</t>
+    <t xml:space="preserve">9.54337310791016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20162296295166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06492137908936</t>
   </si>
   <si>
     <t xml:space="preserve">8.78297901153564</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65482234954834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13365268707275</t>
+    <t xml:space="preserve">8.65482330322266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13365459442139</t>
   </si>
   <si>
     <t xml:space="preserve">8.38569355010986</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15928363800049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18064498901367</t>
+    <t xml:space="preserve">8.15928554534912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18064403533936</t>
   </si>
   <si>
     <t xml:space="preserve">8.68899726867676</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38996601104736</t>
+    <t xml:space="preserve">8.38996505737305</t>
   </si>
   <si>
     <t xml:space="preserve">8.40278148651123</t>
@@ -1061,7 +1058,7 @@
     <t xml:space="preserve">8.15074062347412</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09520816802979</t>
+    <t xml:space="preserve">8.09520721435547</t>
   </si>
   <si>
     <t xml:space="preserve">7.90724420547485</t>
@@ -1070,28 +1067,28 @@
     <t xml:space="preserve">7.88161277770996</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85598182678223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96704959869385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9115161895752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01404190063477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03539943695068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07811832427979</t>
+    <t xml:space="preserve">7.85598087310791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96705102920532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91151666641235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01404094696045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.035400390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0781192779541</t>
   </si>
   <si>
     <t xml:space="preserve">8.0695743560791</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31307125091553</t>
+    <t xml:space="preserve">8.31307220458984</t>
   </si>
   <si>
     <t xml:space="preserve">8.21909046173096</t>
@@ -1100,79 +1097,79 @@
     <t xml:space="preserve">8.20627498626709</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10802268981934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13792419433594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23190689086914</t>
+    <t xml:space="preserve">8.1080207824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13792514801025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23190593719482</t>
   </si>
   <si>
     <t xml:space="preserve">8.28316974639893</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34724712371826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48394680023193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62919235229492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57792949676514</t>
+    <t xml:space="preserve">8.34724903106689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48394775390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62919139862061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57792854309082</t>
   </si>
   <si>
     <t xml:space="preserve">8.80006694793701</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61210441589355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5437536239624</t>
+    <t xml:space="preserve">8.61210346221924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54375267028809</t>
   </si>
   <si>
     <t xml:space="preserve">8.56084060668945</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71462917327881</t>
+    <t xml:space="preserve">8.71462821960449</t>
   </si>
   <si>
     <t xml:space="preserve">8.64627838134766</t>
   </si>
   <si>
-    <t xml:space="preserve">8.52666568756104</t>
+    <t xml:space="preserve">8.52666473388672</t>
   </si>
   <si>
     <t xml:space="preserve">8.51812267303467</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46685981750488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44122886657715</t>
+    <t xml:space="preserve">8.4668607711792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44122791290283</t>
   </si>
   <si>
     <t xml:space="preserve">8.26181030273438</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07384777069092</t>
+    <t xml:space="preserve">8.0738468170166</t>
   </si>
   <si>
     <t xml:space="preserve">8.04821586608887</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97132158279419</t>
+    <t xml:space="preserve">7.97132205963135</t>
   </si>
   <si>
     <t xml:space="preserve">8.18491649627686</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03112888336182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.381422996521</t>
+    <t xml:space="preserve">8.03112983703613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38142204284668</t>
   </si>
   <si>
     <t xml:space="preserve">8.9709415435791</t>
@@ -1181,310 +1178,313 @@
     <t xml:space="preserve">8.81715393066406</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88550281524658</t>
+    <t xml:space="preserve">8.8855037689209</t>
   </si>
   <si>
     <t xml:space="preserve">8.83424091339111</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68045425415039</t>
+    <t xml:space="preserve">8.68045330047607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66336631774902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90259075164795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0051155090332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43230438232422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31268978118896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19307804107666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17599105834961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10764122009277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15890407562256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32977962493896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48356628417969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2866792678833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6455173492432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7480411529541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6967802047729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0385284423828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5169792175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4486303329468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.551155090332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6249647140503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9571056365967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9202003479004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4957981109619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3850841522217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3666315078735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0344905853271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9606800079346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5731811523438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7761573791504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.683895111084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.720799446106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5547294616699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2410402297974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.074969291687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0565156936646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1303253173828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3517532348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.148777961731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2963953018188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3333005905151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2041358947754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4809198379517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3886585235596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5178232192993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4071092605591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2779445648193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1672296524048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85354137420654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87199306488037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77973175048828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53985118865967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74282741546631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79818344116211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72437477111816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68746948242188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81663608551025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76128005981445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63211345672607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37378025054932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3184232711792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42913818359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39223384857178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33687496185303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1338996887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15235328674316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99550724029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94015026092529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09699535369873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02318668365479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04163932800293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00473403930664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58033084869385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34045028686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98628044128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76485347747803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.700270652771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71872329711914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69104480743408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4142599105835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50652122497559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46604251861572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44758987426758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26306629180908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06931686401367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20770931243896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18925762176514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10622119903564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0324125289917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06009006500244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94937705993652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9309253692627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8478889465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89402008056641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90324687957764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83866310119629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77407932281494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65413856506348</t>
   </si>
   <si>
     <t xml:space="preserve">8.66336727142334</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90259075164795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00511646270752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4323034286499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3126916885376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19307899475098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17599105834961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10764026641846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15890312194824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32977867126465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.483567237854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.286678314209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6455163955688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7480421066284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6967802047729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0385303497314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5169792175293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4486303329468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.551155090332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6249647140503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.957106590271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9202013015747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4957981109619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3850831985474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3666315078735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0344896316528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9606800079346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5731821060181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7761573791504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6838941574097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7208013534546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5547285079956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2410402297974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0749683380127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0565166473389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1303253173828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3517532348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.148777961731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2963962554932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3333005905151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2041358947754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4809188842773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3886585235596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5178241729736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4071102142334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.277943611145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1672306060791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85354232788086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87199306488037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77973175048828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53985118865967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74282741546631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79818344116211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72437381744385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68747043609619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81663513183594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76128005981445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63211154937744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37378025054932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31842422485352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42913722991943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39223384857178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33687591552734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1338996887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15235328674316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99550819396973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94015026092529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09699535369873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02318668365479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04163932800293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00473403930664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58033084869385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34044933319092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9862813949585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76485347747803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.700270652771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71872329711914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69104480743408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41425895690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50652122497559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46604156494141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44758892059326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26306533813477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06931686401367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20770931243896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18925762176514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10622119903564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0324125289917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06009006500244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94937610626221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9309253692627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84788990020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89402008056641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90324592590332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83866405487061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77407932281494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65414047241211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46961784362793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36812782287598</t>
+    <t xml:space="preserve">8.4696159362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36812877655029</t>
   </si>
   <si>
     <t xml:space="preserve">8.30354595184326</t>
@@ -1493,7 +1493,7 @@
     <t xml:space="preserve">7.79610681533813</t>
   </si>
   <si>
-    <t xml:space="preserve">7.75920152664185</t>
+    <t xml:space="preserve">7.759202003479</t>
   </si>
   <si>
     <t xml:space="preserve">7.74075031280518</t>
@@ -1502,25 +1502,25 @@
     <t xml:space="preserve">7.61158323287964</t>
   </si>
   <si>
-    <t xml:space="preserve">7.64848852157593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54700088500977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44551277160645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45473909378052</t>
+    <t xml:space="preserve">7.64848804473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54700040817261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44551229476929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45473861694336</t>
   </si>
   <si>
     <t xml:space="preserve">7.13182306289673</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15950155258179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43628644943237</t>
+    <t xml:space="preserve">7.15950202941895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43628692626953</t>
   </si>
   <si>
     <t xml:space="preserve">7.21485900878906</t>
@@ -1532,10 +1532,10 @@
     <t xml:space="preserve">7.37170314788818</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53777456283569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47319221496582</t>
+    <t xml:space="preserve">7.53777360916138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4731912612915</t>
   </si>
   <si>
     <t xml:space="preserve">7.82378482818604</t>
@@ -1544,28 +1544,28 @@
     <t xml:space="preserve">7.86069011688232</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74997615814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51009559631348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6392617225647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62081003189087</t>
+    <t xml:space="preserve">7.74997520446777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51009607315063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63926219940186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62080955505371</t>
   </si>
   <si>
     <t xml:space="preserve">7.39938259124756</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56545305252075</t>
+    <t xml:space="preserve">7.56545257568359</t>
   </si>
   <si>
     <t xml:space="preserve">7.27944183349609</t>
   </si>
   <si>
-    <t xml:space="preserve">7.19640684127808</t>
+    <t xml:space="preserve">7.19640636444092</t>
   </si>
   <si>
     <t xml:space="preserve">7.20563220977783</t>
@@ -1577,34 +1577,34 @@
     <t xml:space="preserve">7.10414457321167</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49164295196533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59313011169434</t>
+    <t xml:space="preserve">7.49164342880249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59313106536865</t>
   </si>
   <si>
     <t xml:space="preserve">7.58390522003174</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52854776382446</t>
+    <t xml:space="preserve">7.52854824066162</t>
   </si>
   <si>
     <t xml:space="preserve">7.39015579223633</t>
   </si>
   <si>
-    <t xml:space="preserve">7.34402465820312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33479833602905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36247730255127</t>
+    <t xml:space="preserve">7.34402513504028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33479881286621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36247682571411</t>
   </si>
   <si>
     <t xml:space="preserve">7.29789400100708</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32557249069214</t>
+    <t xml:space="preserve">7.32557201385498</t>
   </si>
   <si>
     <t xml:space="preserve">7.40860748291016</t>
@@ -1616,40 +1616,40 @@
     <t xml:space="preserve">7.77765417098999</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92527389526367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10057067871094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43271160125732</t>
+    <t xml:space="preserve">7.92527294158936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10056972503662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43271350860596</t>
   </si>
   <si>
     <t xml:space="preserve">8.45116424560547</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55265235900879</t>
+    <t xml:space="preserve">8.55265331268311</t>
   </si>
   <si>
     <t xml:space="preserve">8.4603910446167</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40503311157227</t>
+    <t xml:space="preserve">8.40503215789795</t>
   </si>
   <si>
     <t xml:space="preserve">8.39580726623535</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08776950836182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19848346710205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8017578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17080402374268</t>
+    <t xml:space="preserve">9.08777046203613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19848251342773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80175876617432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17080497741699</t>
   </si>
   <si>
     <t xml:space="preserve">9.11544799804688</t>
@@ -1673,19 +1673,19 @@
     <t xml:space="preserve">8.96782970428467</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91247177124023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86634254455566</t>
+    <t xml:space="preserve">8.91247272491455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86634063720703</t>
   </si>
   <si>
     <t xml:space="preserve">8.87556743621826</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64491367340088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7464017868042</t>
+    <t xml:space="preserve">8.64491271972656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74639987945557</t>
   </si>
   <si>
     <t xml:space="preserve">8.31277275085449</t>
@@ -1709,16 +1709,16 @@
     <t xml:space="preserve">8.49729537963867</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5157470703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53419971466064</t>
+    <t xml:space="preserve">8.51574611663818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53419876098633</t>
   </si>
   <si>
     <t xml:space="preserve">8.5618782043457</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48806953430176</t>
+    <t xml:space="preserve">8.48806858062744</t>
   </si>
   <si>
     <t xml:space="preserve">8.52497291564941</t>
@@ -1727,13 +1727,13 @@
     <t xml:space="preserve">8.57110404968262</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59878158569336</t>
+    <t xml:space="preserve">8.59878349304199</t>
   </si>
   <si>
     <t xml:space="preserve">8.68181800842285</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67259216308594</t>
+    <t xml:space="preserve">8.67259311676025</t>
   </si>
   <si>
     <t xml:space="preserve">8.60800838470459</t>
@@ -1742,10 +1742,10 @@
     <t xml:space="preserve">9.28066253662109</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76398658752441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46178150177002</t>
+    <t xml:space="preserve">8.76398754119873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4617805480957</t>
   </si>
   <si>
     <t xml:space="preserve">8.24731063842773</t>
@@ -1754,19 +1754,19 @@
     <t xml:space="preserve">7.95485353469849</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12057971954346</t>
+    <t xml:space="preserve">8.12057876586914</t>
   </si>
   <si>
     <t xml:space="preserve">8.0425910949707</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35454654693604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14982509613037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09133434295654</t>
+    <t xml:space="preserve">8.35454559326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14982414245605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09133338928223</t>
   </si>
   <si>
     <t xml:space="preserve">8.11083030700684</t>
@@ -1781,10 +1781,10 @@
     <t xml:space="preserve">8.17907238006592</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20831680297852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03284168243408</t>
+    <t xml:space="preserve">8.20831775665283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0328426361084</t>
   </si>
   <si>
     <t xml:space="preserve">8.02309322357178</t>
@@ -1808,22 +1808,22 @@
     <t xml:space="preserve">8.13032817840576</t>
   </si>
   <si>
-    <t xml:space="preserve">8.14007663726807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96460199356079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99384784698486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23756217956543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16932201385498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18881988525391</t>
+    <t xml:space="preserve">8.14007759094238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96460151672363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99384832382202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23756313323975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1693229675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18881893157959</t>
   </si>
   <si>
     <t xml:space="preserve">8.10108280181885</t>
@@ -1832,7 +1832,7 @@
     <t xml:space="preserve">8.00359630584717</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26680850982666</t>
+    <t xml:space="preserve">8.26680755615234</t>
   </si>
   <si>
     <t xml:space="preserve">8.21806526184082</t>
@@ -1847,10 +1847,10 @@
     <t xml:space="preserve">8.07183647155762</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92560768127441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93535661697388</t>
+    <t xml:space="preserve">7.92560815811157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93535614013672</t>
   </si>
   <si>
     <t xml:space="preserve">7.97435092926025</t>
@@ -1859,28 +1859,28 @@
     <t xml:space="preserve">8.01334571838379</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50077438354492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39353942871094</t>
+    <t xml:space="preserve">8.50077533721924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39354038238525</t>
   </si>
   <si>
     <t xml:space="preserve">8.34479713439941</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28630638122559</t>
+    <t xml:space="preserve">8.28630542755127</t>
   </si>
   <si>
     <t xml:space="preserve">8.51052188873291</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58851146697998</t>
+    <t xml:space="preserve">8.5885124206543</t>
   </si>
   <si>
     <t xml:space="preserve">8.85172367095947</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21242141723633</t>
+    <t xml:space="preserve">9.21242237091064</t>
   </si>
   <si>
     <t xml:space="preserve">9.20267295837402</t>
@@ -1898,13 +1898,13 @@
     <t xml:space="preserve">9.52437782287598</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51462936401367</t>
+    <t xml:space="preserve">9.51462841033936</t>
   </si>
   <si>
     <t xml:space="preserve">9.62186336517334</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60236644744873</t>
+    <t xml:space="preserve">9.60236740112305</t>
   </si>
   <si>
     <t xml:space="preserve">9.59261798858643</t>
@@ -1916,13 +1916,13 @@
     <t xml:space="preserve">10.3920021057129</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1190423965454</t>
+    <t xml:space="preserve">10.1190414428711</t>
   </si>
   <si>
     <t xml:space="preserve">10.1385383605957</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0605487823486</t>
+    <t xml:space="preserve">10.0605497360229</t>
   </si>
   <si>
     <t xml:space="preserve">10.0215559005737</t>
@@ -1934,28 +1934,28 @@
     <t xml:space="preserve">9.74859428405762</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68035507202148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76809215545654</t>
+    <t xml:space="preserve">9.68035411834717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76809310913086</t>
   </si>
   <si>
     <t xml:space="preserve">9.78758907318115</t>
   </si>
   <si>
-    <t xml:space="preserve">9.57311916351318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65110874176025</t>
+    <t xml:space="preserve">9.5731201171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65110778808594</t>
   </si>
   <si>
     <t xml:space="preserve">9.53412532806396</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94356727600098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47563362121582</t>
+    <t xml:space="preserve">9.94356632232666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47563457489014</t>
   </si>
   <si>
     <t xml:space="preserve">9.41714286804199</t>
@@ -1964,13 +1964,13 @@
     <t xml:space="preserve">9.50487995147705</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44638824462891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39764499664307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84608173370361</t>
+    <t xml:space="preserve">9.44638729095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39764595031738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8460807800293</t>
   </si>
   <si>
     <t xml:space="preserve">9.7096004486084</t>
@@ -1979,7 +1979,7 @@
     <t xml:space="preserve">9.72909736633301</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18317604064941</t>
+    <t xml:space="preserve">9.18317699432373</t>
   </si>
   <si>
     <t xml:space="preserve">9.1636791229248</t>
@@ -1988,13 +1988,13 @@
     <t xml:space="preserve">9.15393161773682</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26116561889648</t>
+    <t xml:space="preserve">9.26116466522217</t>
   </si>
   <si>
     <t xml:space="preserve">9.23192024230957</t>
   </si>
   <si>
-    <t xml:space="preserve">9.14418315887451</t>
+    <t xml:space="preserve">9.1441822052002</t>
   </si>
   <si>
     <t xml:space="preserve">9.17342758178711</t>
@@ -2006,13 +2006,13 @@
     <t xml:space="preserve">8.98820495605469</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00770092010498</t>
+    <t xml:space="preserve">9.0077018737793</t>
   </si>
   <si>
     <t xml:space="preserve">8.91996383666992</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78348350524902</t>
+    <t xml:space="preserve">8.78348445892334</t>
   </si>
   <si>
     <t xml:space="preserve">8.83222770690918</t>
@@ -2021,64 +2021,64 @@
     <t xml:space="preserve">8.99795246124268</t>
   </si>
   <si>
-    <t xml:space="preserve">9.05644512176514</t>
+    <t xml:space="preserve">9.05644416809082</t>
   </si>
   <si>
     <t xml:space="preserve">9.02719879150391</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22216987609863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11493587493896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03694725036621</t>
+    <t xml:space="preserve">9.22217082977295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11493682861328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03694820404053</t>
   </si>
   <si>
     <t xml:space="preserve">8.86147308349609</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38379287719727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89636278152466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8476185798645</t>
+    <t xml:space="preserve">8.38379192352295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8963623046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84761905670166</t>
   </si>
   <si>
     <t xml:space="preserve">7.66239547729492</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58440637588501</t>
+    <t xml:space="preserve">7.58440732955933</t>
   </si>
   <si>
     <t xml:space="preserve">7.67214393615723</t>
   </si>
   <si>
-    <t xml:space="preserve">7.39918327331543</t>
+    <t xml:space="preserve">7.39918375015259</t>
   </si>
   <si>
     <t xml:space="preserve">6.57055234909058</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62904500961304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49256372451782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17650318145752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51770448684692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57209157943726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67932605743408</t>
+    <t xml:space="preserve">6.62904453277588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49256420135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17650413513184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51770401000977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5720911026001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67932558059692</t>
   </si>
   <si>
     <t xml:space="preserve">4.51359939575195</t>
@@ -2090,22 +2090,22 @@
     <t xml:space="preserve">4.87429714202881</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16675567626953</t>
+    <t xml:space="preserve">5.16675519943237</t>
   </si>
   <si>
     <t xml:space="preserve">5.5566987991333</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08312273025513</t>
+    <t xml:space="preserve">6.08312320709229</t>
   </si>
   <si>
     <t xml:space="preserve">6.04412841796875</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02463150024414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92714595794678</t>
+    <t xml:space="preserve">6.02463102340698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92714548110962</t>
   </si>
   <si>
     <t xml:space="preserve">5.83940839767456</t>
@@ -2129,7 +2129,7 @@
     <t xml:space="preserve">6.48281574249268</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26834583282471</t>
+    <t xml:space="preserve">6.26834630966187</t>
   </si>
   <si>
     <t xml:space="preserve">6.47306680679321</t>
@@ -2138,7 +2138,7 @@
     <t xml:space="preserve">6.5803017616272</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59005069732666</t>
+    <t xml:space="preserve">6.5900502204895</t>
   </si>
   <si>
     <t xml:space="preserve">7.34069204330444</t>
@@ -2153,7 +2153,7 @@
     <t xml:space="preserve">7.64289855957031</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76963043212891</t>
+    <t xml:space="preserve">7.76962995529175</t>
   </si>
   <si>
     <t xml:space="preserve">7.69164133071899</t>
@@ -2162,10 +2162,10 @@
     <t xml:space="preserve">7.44792604446411</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48692035675049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24320602416992</t>
+    <t xml:space="preserve">7.48692083358765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24320554733276</t>
   </si>
   <si>
     <t xml:space="preserve">7.45767545700073</t>
@@ -2174,16 +2174,16 @@
     <t xml:space="preserve">7.33094358444214</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49666929244995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54541254043579</t>
+    <t xml:space="preserve">7.49666976928711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54541206359863</t>
   </si>
   <si>
     <t xml:space="preserve">7.51616668701172</t>
   </si>
   <si>
-    <t xml:space="preserve">7.75013256072998</t>
+    <t xml:space="preserve">7.75013303756714</t>
   </si>
   <si>
     <t xml:space="preserve">7.90610980987549</t>
@@ -2192,7 +2192,7 @@
     <t xml:space="preserve">7.37968683242798</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61365270614624</t>
+    <t xml:space="preserve">7.61365222930908</t>
   </si>
   <si>
     <t xml:space="preserve">7.65264701843262</t>
@@ -2207,13 +2207,13 @@
     <t xml:space="preserve">7.36993789672852</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36018896102905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28220081329346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57465839385986</t>
+    <t xml:space="preserve">7.36018943786621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2822003364563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57465791702271</t>
   </si>
   <si>
     <t xml:space="preserve">7.59415531158447</t>
@@ -2222,7 +2222,7 @@
     <t xml:space="preserve">7.56490993499756</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43817758560181</t>
+    <t xml:space="preserve">7.43817806243896</t>
   </si>
   <si>
     <t xml:space="preserve">7.38943481445312</t>
@@ -2231,7 +2231,7 @@
     <t xml:space="preserve">7.40893173217773</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50641822814941</t>
+    <t xml:space="preserve">7.50641775131226</t>
   </si>
   <si>
     <t xml:space="preserve">7.7013897895813</t>
@@ -2240,7 +2240,7 @@
     <t xml:space="preserve">7.63314962387085</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46742391586304</t>
+    <t xml:space="preserve">7.46742343902588</t>
   </si>
   <si>
     <t xml:space="preserve">7.35044050216675</t>
@@ -2258,16 +2258,16 @@
     <t xml:space="preserve">7.94510459899902</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88661336898804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79887580871582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78912687301636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41868114471436</t>
+    <t xml:space="preserve">7.8866138458252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79887628555298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78912734985352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4186806678772</t>
   </si>
   <si>
     <t xml:space="preserve">7.32119464874268</t>
@@ -2288,25 +2288,25 @@
     <t xml:space="preserve">7.75988149642944</t>
   </si>
   <si>
-    <t xml:space="preserve">7.77937841415405</t>
+    <t xml:space="preserve">7.77937889099121</t>
   </si>
   <si>
     <t xml:space="preserve">7.53566360473633</t>
   </si>
   <si>
-    <t xml:space="preserve">7.72088766098022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47717237472534</t>
+    <t xml:space="preserve">7.72088670730591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4771728515625</t>
   </si>
   <si>
     <t xml:space="preserve">7.19446325302124</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09697675704956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15546894073486</t>
+    <t xml:space="preserve">7.09697771072388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15546846389771</t>
   </si>
   <si>
     <t xml:space="preserve">7.16521739959717</t>
@@ -2318,7 +2318,7 @@
     <t xml:space="preserve">7.30169725418091</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2919487953186</t>
+    <t xml:space="preserve">7.29194927215576</t>
   </si>
   <si>
     <t xml:space="preserve">7.25295448303223</t>
@@ -2327,10 +2327,10 @@
     <t xml:space="preserve">7.23345756530762</t>
   </si>
   <si>
-    <t xml:space="preserve">7.18471431732178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20421171188354</t>
+    <t xml:space="preserve">7.18471479415894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20421123504639</t>
   </si>
   <si>
     <t xml:space="preserve">7.68189287185669</t>
@@ -2339,37 +2339,37 @@
     <t xml:space="preserve">7.07748031616211</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12622308731079</t>
+    <t xml:space="preserve">7.12622261047363</t>
   </si>
   <si>
     <t xml:space="preserve">7.06773138046265</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01898860931396</t>
+    <t xml:space="preserve">7.01898813247681</t>
   </si>
   <si>
     <t xml:space="preserve">6.94099950790405</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02873706817627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11647462844849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10672569274902</t>
+    <t xml:space="preserve">7.02873659133911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11647415161133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10672521591187</t>
   </si>
   <si>
     <t xml:space="preserve">6.92150211334229</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98974227905273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95074796676636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8727593421936</t>
+    <t xml:space="preserve">6.98974275588989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95074844360352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87275981903076</t>
   </si>
   <si>
     <t xml:space="preserve">6.85326242446899</t>
@@ -2378,7 +2378,7 @@
     <t xml:space="preserve">6.82401657104492</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81426763534546</t>
+    <t xml:space="preserve">6.8142671585083</t>
   </si>
   <si>
     <t xml:space="preserve">6.88250780105591</t>
@@ -2387,13 +2387,13 @@
     <t xml:space="preserve">6.83376502990723</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8630108833313</t>
+    <t xml:space="preserve">6.86301040649414</t>
   </si>
   <si>
     <t xml:space="preserve">6.84351348876953</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80451917648315</t>
+    <t xml:space="preserve">6.80451965332031</t>
   </si>
   <si>
     <t xml:space="preserve">6.78502225875854</t>
@@ -2405,7 +2405,7 @@
     <t xml:space="preserve">6.7265305519104</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97999429702759</t>
+    <t xml:space="preserve">6.97999382019043</t>
   </si>
   <si>
     <t xml:space="preserve">7.39928722381592</t>
@@ -2414,7 +2414,7 @@
     <t xml:space="preserve">7.19347906112671</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2718825340271</t>
+    <t xml:space="preserve">7.27188205718994</t>
   </si>
   <si>
     <t xml:space="preserve">7.34048461914062</t>
@@ -2423,7 +2423,7 @@
     <t xml:space="preserve">7.22288036346436</t>
   </si>
   <si>
-    <t xml:space="preserve">7.23268032073975</t>
+    <t xml:space="preserve">7.2326807975769</t>
   </si>
   <si>
     <t xml:space="preserve">7.48749017715454</t>
@@ -2435,7 +2435,7 @@
     <t xml:space="preserve">7.55609321594238</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54629278182983</t>
+    <t xml:space="preserve">7.54629230499268</t>
   </si>
   <si>
     <t xml:space="preserve">7.64429664611816</t>
@@ -2447,22 +2447,22 @@
     <t xml:space="preserve">7.51689195632935</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76190137863159</t>
+    <t xml:space="preserve">7.76190090179443</t>
   </si>
   <si>
     <t xml:space="preserve">7.88930606842041</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12451553344727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09511470794678</t>
+    <t xml:space="preserve">8.12451457977295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09511375427246</t>
   </si>
   <si>
     <t xml:space="preserve">8.14411640167236</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06571197509766</t>
+    <t xml:space="preserve">8.06571292877197</t>
   </si>
   <si>
     <t xml:space="preserve">8.15391540527344</t>
@@ -2471,7 +2471,7 @@
     <t xml:space="preserve">8.18331813812256</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25191974639893</t>
+    <t xml:space="preserve">8.25192070007324</t>
   </si>
   <si>
     <t xml:space="preserve">8.19311714172363</t>
@@ -2486,10 +2486,10 @@
     <t xml:space="preserve">7.84030437469482</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65409708023071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62469577789307</t>
+    <t xml:space="preserve">7.65409660339355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62469625473022</t>
   </si>
   <si>
     <t xml:space="preserve">7.78150177001953</t>
@@ -2516,7 +2516,7 @@
     <t xml:space="preserve">7.87950563430786</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70309925079346</t>
+    <t xml:space="preserve">7.7030987739563</t>
   </si>
   <si>
     <t xml:space="preserve">7.59529447555542</t>
@@ -2528,7 +2528,7 @@
     <t xml:space="preserve">7.69329833984375</t>
   </si>
   <si>
-    <t xml:space="preserve">7.6834979057312</t>
+    <t xml:space="preserve">7.68349838256836</t>
   </si>
   <si>
     <t xml:space="preserve">7.61489534378052</t>
@@ -2537,13 +2537,13 @@
     <t xml:space="preserve">7.89910697937012</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85990571975708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85010480880737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07551288604736</t>
+    <t xml:space="preserve">7.85990524291992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85010433197021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07551383972168</t>
   </si>
   <si>
     <t xml:space="preserve">7.99711036682129</t>
@@ -2555,7 +2555,7 @@
     <t xml:space="preserve">8.33032321929932</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13431644439697</t>
+    <t xml:space="preserve">8.13431549072266</t>
   </si>
   <si>
     <t xml:space="preserve">8.50673007965088</t>
@@ -2567,22 +2567,22 @@
     <t xml:space="preserve">8.4283275604248</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40872669219971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59493446350098</t>
+    <t xml:space="preserve">8.40872573852539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59493350982666</t>
   </si>
   <si>
     <t xml:space="preserve">8.81054210662842</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73213768005371</t>
+    <t xml:space="preserve">8.73213863372803</t>
   </si>
   <si>
     <t xml:space="preserve">8.74193859100342</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8791446685791</t>
+    <t xml:space="preserve">8.87914562225342</t>
   </si>
   <si>
     <t xml:space="preserve">9.08495330810547</t>
@@ -2594,13 +2594,13 @@
     <t xml:space="preserve">9.17315578460693</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10455322265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82034301757812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86934375762939</t>
+    <t xml:space="preserve">9.10455226898193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82034206390381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86934471130371</t>
   </si>
   <si>
     <t xml:space="preserve">8.63413524627686</t>
@@ -2609,13 +2609,13 @@
     <t xml:space="preserve">8.61453437805176</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46752834320068</t>
+    <t xml:space="preserve">8.467529296875</t>
   </si>
   <si>
     <t xml:space="preserve">8.57533264160156</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30092239379883</t>
+    <t xml:space="preserve">8.30092144012451</t>
   </si>
   <si>
     <t xml:space="preserve">8.3597240447998</t>
@@ -2624,10 +2624,10 @@
     <t xml:space="preserve">8.3793249130249</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49693012237549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52633094787598</t>
+    <t xml:space="preserve">8.49692916870117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52632999420166</t>
   </si>
   <si>
     <t xml:space="preserve">8.51653003692627</t>
@@ -2642,7 +2642,7 @@
     <t xml:space="preserve">8.29112148284912</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23231983184814</t>
+    <t xml:space="preserve">8.23231887817383</t>
   </si>
   <si>
     <t xml:space="preserve">8.20291805267334</t>
@@ -2651,19 +2651,19 @@
     <t xml:space="preserve">8.26172065734863</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31072235107422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28132057189941</t>
+    <t xml:space="preserve">8.3107213973999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28132152557373</t>
   </si>
   <si>
     <t xml:space="preserve">8.38912582397461</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70273780822754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64393424987793</t>
+    <t xml:space="preserve">8.70273685455322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64393520355225</t>
   </si>
   <si>
     <t xml:space="preserve">8.67333698272705</t>
@@ -2675,16 +2675,16 @@
     <t xml:space="preserve">8.56553173065186</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66353607177734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8987455368042</t>
+    <t xml:space="preserve">8.66353702545166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89874458312988</t>
   </si>
   <si>
     <t xml:space="preserve">8.77134037017822</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90854644775391</t>
+    <t xml:space="preserve">8.90854549407959</t>
   </si>
   <si>
     <t xml:space="preserve">9.07515239715576</t>
@@ -2693,19 +2693,19 @@
     <t xml:space="preserve">9.99638748168945</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81998062133789</t>
+    <t xml:space="preserve">9.81998157501221</t>
   </si>
   <si>
     <t xml:space="preserve">9.95718574523926</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3884038925171</t>
+    <t xml:space="preserve">10.3884029388428</t>
   </si>
   <si>
     <t xml:space="preserve">10.427604675293</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4472045898438</t>
+    <t xml:space="preserve">10.4472055435181</t>
   </si>
   <si>
     <t xml:space="preserve">9.83958148956299</t>
@@ -2750,10 +2750,10 @@
     <t xml:space="preserve">9.18295574188232</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31036186218262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99674987792969</t>
+    <t xml:space="preserve">9.3103609085083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99674892425537</t>
   </si>
   <si>
     <t xml:space="preserve">9.19275665283203</t>
@@ -2762,19 +2762,19 @@
     <t xml:space="preserve">9.26135921478271</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42796516418457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69257640838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64357376098633</t>
+    <t xml:space="preserve">9.42796611785889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69257545471191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64357471466064</t>
   </si>
   <si>
     <t xml:space="preserve">9.60437297821045</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8983850479126</t>
+    <t xml:space="preserve">9.89838409423828</t>
   </si>
   <si>
     <t xml:space="preserve">9.93758583068848</t>
@@ -2786,7 +2786,7 @@
     <t xml:space="preserve">9.7415771484375</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68277549743652</t>
+    <t xml:space="preserve">9.68277645111084</t>
   </si>
   <si>
     <t xml:space="preserve">9.66317462921143</t>
@@ -2801,19 +2801,19 @@
     <t xml:space="preserve">9.25155830383301</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24175834655762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28096008300781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30056095123291</t>
+    <t xml:space="preserve">9.24175930023193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28096103668213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30055999755859</t>
   </si>
   <si>
     <t xml:space="preserve">9.27116012573242</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06535148620605</t>
+    <t xml:space="preserve">9.06535243988037</t>
   </si>
   <si>
     <t xml:space="preserve">9.04575061798096</t>
@@ -2828,16 +2828,16 @@
     <t xml:space="preserve">8.44792747497559</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8301420211792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47732830047607</t>
+    <t xml:space="preserve">8.83014297485352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47732925415039</t>
   </si>
   <si>
     <t xml:space="preserve">8.34012317657471</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43812656402588</t>
+    <t xml:space="preserve">8.4381275177002</t>
   </si>
   <si>
     <t xml:space="preserve">8.78114032745361</t>
@@ -2867,7 +2867,7 @@
     <t xml:space="preserve">9.09475231170654</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49656867980957</t>
+    <t xml:space="preserve">9.49656772613525</t>
   </si>
   <si>
     <t xml:space="preserve">9.56517124176025</t>
@@ -2879,10 +2879,10 @@
     <t xml:space="preserve">9.73177719116211</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0551900863647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58477210998535</t>
+    <t xml:space="preserve">10.0551910400391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58477115631104</t>
   </si>
   <si>
     <t xml:space="preserve">9.54556941986084</t>
@@ -2897,7 +2897,7 @@
     <t xml:space="preserve">9.62397289276123</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51616954803467</t>
+    <t xml:space="preserve">9.51616859436035</t>
   </si>
   <si>
     <t xml:space="preserve">9.37896347045898</t>
@@ -2906,7 +2906,7 @@
     <t xml:space="preserve">9.3495626449585</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80038070678711</t>
+    <t xml:space="preserve">9.80037975311279</t>
   </si>
   <si>
     <t xml:space="preserve">10.1923952102661</t>
@@ -2915,7 +2915,7 @@
     <t xml:space="preserve">10.0747909545898</t>
   </si>
   <si>
-    <t xml:space="preserve">10.231595993042</t>
+    <t xml:space="preserve">10.2315969467163</t>
   </si>
   <si>
     <t xml:space="preserve">10.1531934738159</t>
@@ -2924,7 +2924,7 @@
     <t xml:space="preserve">10.2511978149414</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0943918228149</t>
+    <t xml:space="preserve">10.0943908691406</t>
   </si>
   <si>
     <t xml:space="preserve">10.1139917373657</t>
@@ -2942,25 +2942,25 @@
     <t xml:space="preserve">9.2907600402832</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3985652923584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32016086578369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46716690063477</t>
+    <t xml:space="preserve">9.39856433868408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32016181945801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46716785430908</t>
   </si>
   <si>
     <t xml:space="preserve">9.55537033081055</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70237636566162</t>
+    <t xml:space="preserve">9.7023754119873</t>
   </si>
   <si>
     <t xml:space="preserve">9.91798400878906</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4080028533936</t>
+    <t xml:space="preserve">10.4080038070679</t>
   </si>
   <si>
     <t xml:space="preserve">10.8784227371216</t>
@@ -2969,7 +2969,7 @@
     <t xml:space="preserve">11.2704372406006</t>
   </si>
   <si>
-    <t xml:space="preserve">11.348840713501</t>
+    <t xml:space="preserve">11.3488397598267</t>
   </si>
   <si>
     <t xml:space="preserve">11.6624526977539</t>
@@ -2987,7 +2987,7 @@
     <t xml:space="preserve">11.5056457519531</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5252475738525</t>
+    <t xml:space="preserve">11.5252466201782</t>
   </si>
   <si>
     <t xml:space="preserve">11.4860458374023</t>
@@ -3002,16 +3002,16 @@
     <t xml:space="preserve">11.7016534805298</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5644493103027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4468441009521</t>
+    <t xml:space="preserve">11.5644483566284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4468450546265</t>
   </si>
   <si>
     <t xml:space="preserve">11.7212543487549</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1524715423584</t>
+    <t xml:space="preserve">12.1524705886841</t>
   </si>
   <si>
     <t xml:space="preserve">12.407280921936</t>
@@ -3020,7 +3020,7 @@
     <t xml:space="preserve">12.662091255188</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5640878677368</t>
+    <t xml:space="preserve">12.5640869140625</t>
   </si>
   <si>
     <t xml:space="preserve">12.270076751709</t>
@@ -3029,13 +3029,13 @@
     <t xml:space="preserve">12.4464826583862</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7800579071045</t>
+    <t xml:space="preserve">11.7800569534302</t>
   </si>
   <si>
     <t xml:space="preserve">11.3096380233765</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9764261245728</t>
+    <t xml:space="preserve">10.9764251708984</t>
   </si>
   <si>
     <t xml:space="preserve">10.9176235198975</t>
@@ -3047,19 +3047,19 @@
     <t xml:space="preserve">10.7804183959961</t>
   </si>
   <si>
-    <t xml:space="preserve">11.094030380249</t>
+    <t xml:space="preserve">11.0940294265747</t>
   </si>
   <si>
     <t xml:space="preserve">10.9568252563477</t>
   </si>
   <si>
-    <t xml:space="preserve">10.819619178772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0352277755737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2707977294922</t>
+    <t xml:space="preserve">10.8196201324463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.035228729248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2707986831665</t>
   </si>
   <si>
     <t xml:space="preserve">10.6824140548706</t>
@@ -3074,16 +3074,16 @@
     <t xml:space="preserve">11.0156269073486</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9372243881226</t>
+    <t xml:space="preserve">10.9372234344482</t>
   </si>
   <si>
     <t xml:space="preserve">10.7020149230957</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9960260391235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2900390625</t>
+    <t xml:space="preserve">10.9960269927979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2900381088257</t>
   </si>
   <si>
     <t xml:space="preserve">11.6036500930786</t>
@@ -3101,10 +3101,10 @@
     <t xml:space="preserve">11.9368629455566</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9760656356812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2112731933594</t>
+    <t xml:space="preserve">11.9760646820068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2112741470337</t>
   </si>
   <si>
     <t xml:space="preserve">12.1916723251343</t>
@@ -3113,31 +3113,31 @@
     <t xml:space="preserve">12.6228895187378</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7404947280884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9169015884399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9757022857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6816911697388</t>
+    <t xml:space="preserve">12.7404937744141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9169006347656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9757032394409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6816921234131</t>
   </si>
   <si>
     <t xml:space="preserve">12.720892906189</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7992963790894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9561033248901</t>
+    <t xml:space="preserve">12.7992973327637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9561023712158</t>
   </si>
   <si>
     <t xml:space="preserve">12.6032886505127</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4856834411621</t>
+    <t xml:space="preserve">12.4856843948364</t>
   </si>
   <si>
     <t xml:space="preserve">12.5248851776123</t>
@@ -3146,7 +3146,7 @@
     <t xml:space="preserve">12.3484792709351</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3680801391602</t>
+    <t xml:space="preserve">12.3680791854858</t>
   </si>
   <si>
     <t xml:space="preserve">12.2308740615845</t>
@@ -3161,19 +3161,19 @@
     <t xml:space="preserve">12.6424903869629</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5836877822876</t>
+    <t xml:space="preserve">12.5836887359619</t>
   </si>
   <si>
     <t xml:space="preserve">12.1720724105835</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8776998519897</t>
+    <t xml:space="preserve">12.8777008056641</t>
   </si>
   <si>
     <t xml:space="preserve">12.3092775344849</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2697143554688</t>
+    <t xml:space="preserve">13.2697153091431</t>
   </si>
   <si>
     <t xml:space="preserve">13.0541067123413</t>
@@ -3182,7 +3182,7 @@
     <t xml:space="preserve">12.9365015029907</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1521110534668</t>
+    <t xml:space="preserve">13.1521100997925</t>
   </si>
   <si>
     <t xml:space="preserve">13.0345058441162</t>
@@ -3194,10 +3194,10 @@
     <t xml:space="preserve">13.1717100143433</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5441255569458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5637254714966</t>
+    <t xml:space="preserve">13.5441246032715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5637264251709</t>
   </si>
   <si>
     <t xml:space="preserve">14.1517486572266</t>
@@ -3212,13 +3212,13 @@
     <t xml:space="preserve">14.0341444015503</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0733451843262</t>
+    <t xml:space="preserve">14.0733461380005</t>
   </si>
   <si>
     <t xml:space="preserve">14.4065589904785</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7201719284058</t>
+    <t xml:space="preserve">14.7201709747314</t>
   </si>
   <si>
     <t xml:space="preserve">14.8573760986328</t>
@@ -3227,7 +3227,7 @@
     <t xml:space="preserve">15.2885932922363</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0533828735352</t>
+    <t xml:space="preserve">15.0533838272095</t>
   </si>
   <si>
     <t xml:space="preserve">15.0337839126587</t>
@@ -3251,16 +3251,16 @@
     <t xml:space="preserve">17.3466739654541</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6602840423584</t>
+    <t xml:space="preserve">17.660285949707</t>
   </si>
   <si>
     <t xml:space="preserve">17.5426807403564</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9150943756104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7386875152588</t>
+    <t xml:space="preserve">17.915096282959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7386894226074</t>
   </si>
   <si>
     <t xml:space="preserve">17.8954944610596</t>
@@ -3287,13 +3287,13 @@
     <t xml:space="preserve">18.7383270263672</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1695442199707</t>
+    <t xml:space="preserve">19.1695423126221</t>
   </si>
   <si>
     <t xml:space="preserve">18.1699066162109</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1307029724121</t>
+    <t xml:space="preserve">18.1307048797607</t>
   </si>
   <si>
     <t xml:space="preserve">18.6795234680176</t>
@@ -3311,7 +3311,7 @@
     <t xml:space="preserve">19.9927749633789</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8947715759277</t>
+    <t xml:space="preserve">19.8947696685791</t>
   </si>
   <si>
     <t xml:space="preserve">19.6497611999512</t>
@@ -3326,16 +3326,16 @@
     <t xml:space="preserve">18.8363304138184</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0323390960693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3067493438721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9343338012695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6403217315674</t>
+    <t xml:space="preserve">19.0323371887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3067512512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9343357086182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.640323638916</t>
   </si>
   <si>
     <t xml:space="preserve">19.0127372741699</t>
@@ -3347,7 +3347,7 @@
     <t xml:space="preserve">19.1107406616211</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9931373596191</t>
+    <t xml:space="preserve">18.9931354522705</t>
   </si>
   <si>
     <t xml:space="preserve">18.7187271118164</t>
@@ -3356,19 +3356,19 @@
     <t xml:space="preserve">18.7775287628174</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6011219024658</t>
+    <t xml:space="preserve">18.6011199951172</t>
   </si>
   <si>
     <t xml:space="preserve">18.444314956665</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3851528167725</t>
+    <t xml:space="preserve">19.3851509094238</t>
   </si>
   <si>
     <t xml:space="preserve">19.1891441345215</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2871475219727</t>
+    <t xml:space="preserve">19.2871494293213</t>
   </si>
   <si>
     <t xml:space="preserve">19.0519390106201</t>
@@ -3377,7 +3377,7 @@
     <t xml:space="preserve">19.1303424835205</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8559303283691</t>
+    <t xml:space="preserve">18.8559322357178</t>
   </si>
   <si>
     <t xml:space="preserve">19.0735759735107</t>
@@ -3960,6 +3960,9 @@
   </si>
   <si>
     <t xml:space="preserve">25.3999996185303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0499992370605</t>
   </si>
 </sst>
 </file>
@@ -7387,7 +7390,7 @@
         <v>7.34999990463257</v>
       </c>
       <c r="G119" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="H119" t="s">
         <v>9</v>
@@ -7413,7 +7416,7 @@
         <v>7.29500007629395</v>
       </c>
       <c r="G120" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H120" t="s">
         <v>9</v>
@@ -7439,7 +7442,7 @@
         <v>7.17999982833862</v>
       </c>
       <c r="G121" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H121" t="s">
         <v>9</v>
@@ -7465,7 +7468,7 @@
         <v>7.19999980926514</v>
       </c>
       <c r="G122" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H122" t="s">
         <v>9</v>
@@ -7517,7 +7520,7 @@
         <v>7.07000017166138</v>
       </c>
       <c r="G124" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H124" t="s">
         <v>9</v>
@@ -7543,7 +7546,7 @@
         <v>6.98999977111816</v>
       </c>
       <c r="G125" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H125" t="s">
         <v>9</v>
@@ -7569,7 +7572,7 @@
         <v>7.07999992370605</v>
       </c>
       <c r="G126" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H126" t="s">
         <v>9</v>
@@ -7595,7 +7598,7 @@
         <v>7.1399998664856</v>
       </c>
       <c r="G127" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H127" t="s">
         <v>9</v>
@@ -7621,7 +7624,7 @@
         <v>7.08500003814697</v>
       </c>
       <c r="G128" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H128" t="s">
         <v>9</v>
@@ -7647,7 +7650,7 @@
         <v>7.39499998092651</v>
       </c>
       <c r="G129" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H129" t="s">
         <v>9</v>
@@ -7751,7 +7754,7 @@
         <v>7.2649998664856</v>
       </c>
       <c r="G133" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H133" t="s">
         <v>9</v>
@@ -7777,7 +7780,7 @@
         <v>7.36999988555908</v>
       </c>
       <c r="G134" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H134" t="s">
         <v>9</v>
@@ -7829,7 +7832,7 @@
         <v>7.57000017166138</v>
       </c>
       <c r="G136" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H136" t="s">
         <v>9</v>
@@ -7881,7 +7884,7 @@
         <v>7.43499994277954</v>
       </c>
       <c r="G138" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H138" t="s">
         <v>9</v>
@@ -7907,7 +7910,7 @@
         <v>7.28499984741211</v>
       </c>
       <c r="G139" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H139" t="s">
         <v>9</v>
@@ -7933,7 +7936,7 @@
         <v>7.36499977111816</v>
       </c>
       <c r="G140" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H140" t="s">
         <v>9</v>
@@ -7985,7 +7988,7 @@
         <v>7.46000003814697</v>
       </c>
       <c r="G142" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H142" t="s">
         <v>9</v>
@@ -8037,7 +8040,7 @@
         <v>7.55000019073486</v>
       </c>
       <c r="G144" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H144" t="s">
         <v>9</v>
@@ -8063,7 +8066,7 @@
         <v>7.39499998092651</v>
       </c>
       <c r="G145" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H145" t="s">
         <v>9</v>
@@ -8089,7 +8092,7 @@
         <v>7.55000019073486</v>
       </c>
       <c r="G146" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H146" t="s">
         <v>9</v>
@@ -8141,7 +8144,7 @@
         <v>7.40500020980835</v>
       </c>
       <c r="G148" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H148" t="s">
         <v>9</v>
@@ -8167,7 +8170,7 @@
         <v>7.42999982833862</v>
       </c>
       <c r="G149" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H149" t="s">
         <v>9</v>
@@ -8193,7 +8196,7 @@
         <v>7.42999982833862</v>
       </c>
       <c r="G150" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H150" t="s">
         <v>9</v>
@@ -8245,7 +8248,7 @@
         <v>7.42000007629395</v>
       </c>
       <c r="G152" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H152" t="s">
         <v>9</v>
@@ -8297,7 +8300,7 @@
         <v>7.34000015258789</v>
       </c>
       <c r="G154" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H154" t="s">
         <v>9</v>
@@ -8375,7 +8378,7 @@
         <v>7.42500019073486</v>
       </c>
       <c r="G157" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H157" t="s">
         <v>9</v>
@@ -8401,7 +8404,7 @@
         <v>7.32999992370605</v>
       </c>
       <c r="G158" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H158" t="s">
         <v>9</v>
@@ -8427,7 +8430,7 @@
         <v>7.30999994277954</v>
       </c>
       <c r="G159" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H159" t="s">
         <v>9</v>
@@ -8453,7 +8456,7 @@
         <v>7.32999992370605</v>
       </c>
       <c r="G160" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H160" t="s">
         <v>9</v>
@@ -8479,7 +8482,7 @@
         <v>7.34999990463257</v>
       </c>
       <c r="G161" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="H161" t="s">
         <v>9</v>
@@ -8531,7 +8534,7 @@
         <v>7.21000003814697</v>
       </c>
       <c r="G163" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H163" t="s">
         <v>9</v>
@@ -8557,7 +8560,7 @@
         <v>7.07999992370605</v>
       </c>
       <c r="G164" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H164" t="s">
         <v>9</v>
@@ -8583,7 +8586,7 @@
         <v>7.30999994277954</v>
       </c>
       <c r="G165" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H165" t="s">
         <v>9</v>
@@ -8609,7 +8612,7 @@
         <v>7.375</v>
       </c>
       <c r="G166" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H166" t="s">
         <v>9</v>
@@ -8661,7 +8664,7 @@
         <v>7.34000015258789</v>
       </c>
       <c r="G168" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H168" t="s">
         <v>9</v>
@@ -8713,7 +8716,7 @@
         <v>7.23000001907349</v>
       </c>
       <c r="G170" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H170" t="s">
         <v>9</v>
@@ -8739,7 +8742,7 @@
         <v>7.15500020980835</v>
       </c>
       <c r="G171" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H171" t="s">
         <v>9</v>
@@ -8765,7 +8768,7 @@
         <v>7.19000005722046</v>
       </c>
       <c r="G172" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H172" t="s">
         <v>9</v>
@@ -8791,7 +8794,7 @@
         <v>7.28999996185303</v>
       </c>
       <c r="G173" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H173" t="s">
         <v>9</v>
@@ -8817,7 +8820,7 @@
         <v>7.19000005722046</v>
       </c>
       <c r="G174" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H174" t="s">
         <v>9</v>
@@ -8843,7 +8846,7 @@
         <v>7.19500017166138</v>
       </c>
       <c r="G175" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H175" t="s">
         <v>9</v>
@@ -8869,7 +8872,7 @@
         <v>7.25</v>
       </c>
       <c r="G176" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H176" t="s">
         <v>9</v>
@@ -8895,7 +8898,7 @@
         <v>7.19500017166138</v>
       </c>
       <c r="G177" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H177" t="s">
         <v>9</v>
@@ -8921,7 +8924,7 @@
         <v>7.2649998664856</v>
       </c>
       <c r="G178" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H178" t="s">
         <v>9</v>
@@ -8947,7 +8950,7 @@
         <v>7.1100001335144</v>
       </c>
       <c r="G179" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H179" t="s">
         <v>9</v>
@@ -8973,7 +8976,7 @@
         <v>7.16499996185303</v>
       </c>
       <c r="G180" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H180" t="s">
         <v>9</v>
@@ -9025,7 +9028,7 @@
         <v>7.03499984741211</v>
       </c>
       <c r="G182" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H182" t="s">
         <v>9</v>
@@ -9051,7 +9054,7 @@
         <v>7.02500009536743</v>
       </c>
       <c r="G183" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H183" t="s">
         <v>9</v>
@@ -9077,7 +9080,7 @@
         <v>7.16499996185303</v>
       </c>
       <c r="G184" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
@@ -9103,7 +9106,7 @@
         <v>7.06500005722046</v>
       </c>
       <c r="G185" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H185" t="s">
         <v>9</v>
@@ -9129,7 +9132,7 @@
         <v>7.19000005722046</v>
       </c>
       <c r="G186" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H186" t="s">
         <v>9</v>
@@ -9155,7 +9158,7 @@
         <v>7.07499980926514</v>
       </c>
       <c r="G187" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H187" t="s">
         <v>9</v>
@@ -9181,7 +9184,7 @@
         <v>6.95499992370605</v>
       </c>
       <c r="G188" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H188" t="s">
         <v>9</v>
@@ -9207,7 +9210,7 @@
         <v>6.98999977111816</v>
       </c>
       <c r="G189" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H189" t="s">
         <v>9</v>
@@ -9233,7 +9236,7 @@
         <v>7.13000011444092</v>
       </c>
       <c r="G190" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H190" t="s">
         <v>9</v>
@@ -9259,7 +9262,7 @@
         <v>7.17000007629395</v>
       </c>
       <c r="G191" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H191" t="s">
         <v>9</v>
@@ -9285,7 +9288,7 @@
         <v>7.17999982833862</v>
       </c>
       <c r="G192" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H192" t="s">
         <v>9</v>
@@ -9311,7 +9314,7 @@
         <v>7.17000007629395</v>
       </c>
       <c r="G193" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -9337,7 +9340,7 @@
         <v>7.09999990463257</v>
       </c>
       <c r="G194" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H194" t="s">
         <v>9</v>
@@ -9363,7 +9366,7 @@
         <v>7.19999980926514</v>
       </c>
       <c r="G195" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H195" t="s">
         <v>9</v>
@@ -9389,7 +9392,7 @@
         <v>7.19500017166138</v>
       </c>
       <c r="G196" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H196" t="s">
         <v>9</v>
@@ -9415,7 +9418,7 @@
         <v>7.17999982833862</v>
       </c>
       <c r="G197" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H197" t="s">
         <v>9</v>
@@ -9441,7 +9444,7 @@
         <v>7.15000009536743</v>
       </c>
       <c r="G198" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H198" t="s">
         <v>9</v>
@@ -9493,7 +9496,7 @@
         <v>7.15500020980835</v>
       </c>
       <c r="G200" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H200" t="s">
         <v>9</v>
@@ -9519,7 +9522,7 @@
         <v>7.32000017166138</v>
       </c>
       <c r="G201" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -9597,7 +9600,7 @@
         <v>7.76000022888184</v>
       </c>
       <c r="G204" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H204" t="s">
         <v>9</v>
@@ -9623,7 +9626,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G205" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H205" t="s">
         <v>9</v>
@@ -9649,7 +9652,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G206" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H206" t="s">
         <v>9</v>
@@ -9675,7 +9678,7 @@
         <v>7.8899998664856</v>
       </c>
       <c r="G207" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H207" t="s">
         <v>9</v>
@@ -9701,7 +9704,7 @@
         <v>7.90999984741211</v>
       </c>
       <c r="G208" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -9727,7 +9730,7 @@
         <v>7.79500007629395</v>
       </c>
       <c r="G209" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -9753,7 +9756,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G210" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H210" t="s">
         <v>9</v>
@@ -9779,7 +9782,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G211" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H211" t="s">
         <v>9</v>
@@ -9805,7 +9808,7 @@
         <v>7.71000003814697</v>
       </c>
       <c r="G212" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -9831,7 +9834,7 @@
         <v>7.71000003814697</v>
       </c>
       <c r="G213" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H213" t="s">
         <v>9</v>
@@ -9857,7 +9860,7 @@
         <v>7.73000001907349</v>
       </c>
       <c r="G214" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H214" t="s">
         <v>9</v>
@@ -9883,7 +9886,7 @@
         <v>7.71000003814697</v>
       </c>
       <c r="G215" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -9909,7 +9912,7 @@
         <v>7.53000020980835</v>
       </c>
       <c r="G216" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -9935,7 +9938,7 @@
         <v>7.65500020980835</v>
       </c>
       <c r="G217" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -9961,7 +9964,7 @@
         <v>7.70499992370605</v>
       </c>
       <c r="G218" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -9987,7 +9990,7 @@
         <v>7.73999977111816</v>
       </c>
       <c r="G219" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -10013,7 +10016,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G220" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H220" t="s">
         <v>9</v>
@@ -10039,7 +10042,7 @@
         <v>7.8600001335144</v>
       </c>
       <c r="G221" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H221" t="s">
         <v>9</v>
@@ -10065,7 +10068,7 @@
         <v>7.65999984741211</v>
       </c>
       <c r="G222" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -10091,7 +10094,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G223" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H223" t="s">
         <v>9</v>
@@ -10117,7 +10120,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G224" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -10143,7 +10146,7 @@
         <v>7.69500017166138</v>
       </c>
       <c r="G225" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H225" t="s">
         <v>9</v>
@@ -10169,7 +10172,7 @@
         <v>7.61499977111816</v>
       </c>
       <c r="G226" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -10195,7 +10198,7 @@
         <v>7.71999979019165</v>
       </c>
       <c r="G227" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -10221,7 +10224,7 @@
         <v>7.61499977111816</v>
       </c>
       <c r="G228" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -10247,7 +10250,7 @@
         <v>7.46999979019165</v>
       </c>
       <c r="G229" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H229" t="s">
         <v>9</v>
@@ -10273,7 +10276,7 @@
         <v>7.32000017166138</v>
       </c>
       <c r="G230" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H230" t="s">
         <v>9</v>
@@ -10299,7 +10302,7 @@
         <v>7.21000003814697</v>
       </c>
       <c r="G231" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -10325,7 +10328,7 @@
         <v>7.21500015258789</v>
       </c>
       <c r="G232" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -10351,7 +10354,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G233" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -10377,7 +10380,7 @@
         <v>7.19000005722046</v>
       </c>
       <c r="G234" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -10403,7 +10406,7 @@
         <v>7.19000005722046</v>
       </c>
       <c r="G235" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -10429,7 +10432,7 @@
         <v>7.26999998092651</v>
       </c>
       <c r="G236" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -10455,7 +10458,7 @@
         <v>7.28000020980835</v>
       </c>
       <c r="G237" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -10481,7 +10484,7 @@
         <v>7.21500015258789</v>
       </c>
       <c r="G238" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -10533,7 +10536,7 @@
         <v>7.46999979019165</v>
       </c>
       <c r="G240" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
@@ -10611,7 +10614,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G243" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -10637,7 +10640,7 @@
         <v>7.6399998664856</v>
       </c>
       <c r="G244" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -10663,7 +10666,7 @@
         <v>7.69000005722046</v>
       </c>
       <c r="G245" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H245" t="s">
         <v>9</v>
@@ -10689,7 +10692,7 @@
         <v>7.59000015258789</v>
       </c>
       <c r="G246" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -10715,7 +10718,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G247" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H247" t="s">
         <v>9</v>
@@ -10741,7 +10744,7 @@
         <v>7.74499988555908</v>
       </c>
       <c r="G248" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -10819,7 +10822,7 @@
         <v>7.61499977111816</v>
       </c>
       <c r="G251" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H251" t="s">
         <v>9</v>
@@ -10845,7 +10848,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G252" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H252" t="s">
         <v>9</v>
@@ -10897,7 +10900,7 @@
         <v>7.53999996185303</v>
       </c>
       <c r="G254" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -10923,7 +10926,7 @@
         <v>7.45499992370605</v>
       </c>
       <c r="G255" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -11001,7 +11004,7 @@
         <v>8.09000015258789</v>
       </c>
       <c r="G258" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -11027,7 +11030,7 @@
         <v>8.06999969482422</v>
       </c>
       <c r="G259" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -11053,7 +11056,7 @@
         <v>8.02999973297119</v>
       </c>
       <c r="G260" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H260" t="s">
         <v>9</v>
@@ -11079,7 +11082,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G261" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -11105,7 +11108,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G262" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -11131,7 +11134,7 @@
         <v>8.5</v>
       </c>
       <c r="G263" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -11157,7 +11160,7 @@
         <v>8.69999980926514</v>
       </c>
       <c r="G264" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -11183,7 +11186,7 @@
         <v>8.67000007629395</v>
       </c>
       <c r="G265" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -11209,7 +11212,7 @@
         <v>8.49499988555908</v>
       </c>
       <c r="G266" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H266" t="s">
         <v>9</v>
@@ -11235,7 +11238,7 @@
         <v>8.47000026702881</v>
       </c>
       <c r="G267" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -11261,7 +11264,7 @@
         <v>8.55000019073486</v>
       </c>
       <c r="G268" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -11287,7 +11290,7 @@
         <v>8.47999954223633</v>
       </c>
       <c r="G269" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -11313,7 +11316,7 @@
         <v>8.52000045776367</v>
       </c>
       <c r="G270" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -11339,7 +11342,7 @@
         <v>8.52000045776367</v>
       </c>
       <c r="G271" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -11365,7 +11368,7 @@
         <v>8.5</v>
       </c>
       <c r="G272" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H272" t="s">
         <v>9</v>
@@ -11391,7 +11394,7 @@
         <v>8.4399995803833</v>
       </c>
       <c r="G273" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -11417,7 +11420,7 @@
         <v>8.70499992370605</v>
       </c>
       <c r="G274" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -11443,7 +11446,7 @@
         <v>9.18000030517578</v>
       </c>
       <c r="G275" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H275" t="s">
         <v>9</v>
@@ -11469,7 +11472,7 @@
         <v>9.22000026702881</v>
       </c>
       <c r="G276" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -11495,7 +11498,7 @@
         <v>9.17500019073486</v>
       </c>
       <c r="G277" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -11521,7 +11524,7 @@
         <v>8.5600004196167</v>
       </c>
       <c r="G278" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -11547,7 +11550,7 @@
         <v>8.81999969482422</v>
       </c>
       <c r="G279" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -11573,7 +11576,7 @@
         <v>8.98999977111816</v>
       </c>
       <c r="G280" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -11599,7 +11602,7 @@
         <v>9.02999973297119</v>
       </c>
       <c r="G281" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -11625,7 +11628,7 @@
         <v>9.04500007629395</v>
       </c>
       <c r="G282" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
@@ -11651,7 +11654,7 @@
         <v>8.97999954223633</v>
       </c>
       <c r="G283" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -11677,7 +11680,7 @@
         <v>8.78999996185303</v>
       </c>
       <c r="G284" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H284" t="s">
         <v>9</v>
@@ -11703,7 +11706,7 @@
         <v>8.65999984741211</v>
       </c>
       <c r="G285" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -11729,7 +11732,7 @@
         <v>8.57999992370605</v>
       </c>
       <c r="G286" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -11755,7 +11758,7 @@
         <v>8.38500022888184</v>
       </c>
       <c r="G287" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -11781,7 +11784,7 @@
         <v>8.53999996185303</v>
       </c>
       <c r="G288" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -11807,7 +11810,7 @@
         <v>8.52499961853027</v>
       </c>
       <c r="G289" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -11833,7 +11836,7 @@
         <v>8.50500011444092</v>
       </c>
       <c r="G290" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -11859,7 +11862,7 @@
         <v>8.5</v>
       </c>
       <c r="G291" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -11885,7 +11888,7 @@
         <v>8.46000003814697</v>
       </c>
       <c r="G292" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -11911,7 +11914,7 @@
         <v>8.25500011444092</v>
       </c>
       <c r="G293" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -11937,7 +11940,7 @@
         <v>8.39999961853027</v>
       </c>
       <c r="G294" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -11963,7 +11966,7 @@
         <v>8.47999954223633</v>
       </c>
       <c r="G295" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H295" t="s">
         <v>9</v>
@@ -11989,7 +11992,7 @@
         <v>8.47500038146973</v>
       </c>
       <c r="G296" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -12015,7 +12018,7 @@
         <v>8.31999969482422</v>
       </c>
       <c r="G297" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -12041,7 +12044,7 @@
         <v>8.35000038146973</v>
       </c>
       <c r="G298" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -12067,7 +12070,7 @@
         <v>8.40499973297119</v>
       </c>
       <c r="G299" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -12093,7 +12096,7 @@
         <v>8.5600004196167</v>
       </c>
       <c r="G300" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -12119,7 +12122,7 @@
         <v>8.70499992370605</v>
       </c>
       <c r="G301" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -12145,7 +12148,7 @@
         <v>8.72999954223633</v>
       </c>
       <c r="G302" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -12171,7 +12174,7 @@
         <v>8.77999973297119</v>
       </c>
       <c r="G303" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -12197,7 +12200,7 @@
         <v>9.10999965667725</v>
       </c>
       <c r="G304" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -12223,7 +12226,7 @@
         <v>9.06999969482422</v>
       </c>
       <c r="G305" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -12249,7 +12252,7 @@
         <v>9.22999954223633</v>
       </c>
       <c r="G306" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -12275,7 +12278,7 @@
         <v>9.28999996185303</v>
       </c>
       <c r="G307" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -12301,7 +12304,7 @@
         <v>9.25</v>
       </c>
       <c r="G308" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -12327,7 +12330,7 @@
         <v>9.22000026702881</v>
       </c>
       <c r="G309" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -12353,7 +12356,7 @@
         <v>9.54500007629395</v>
       </c>
       <c r="G310" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -12379,7 +12382,7 @@
         <v>9.67000007629395</v>
       </c>
       <c r="G311" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -12405,7 +12408,7 @@
         <v>9.69999980926514</v>
       </c>
       <c r="G312" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -12431,7 +12434,7 @@
         <v>9.75</v>
       </c>
       <c r="G313" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -12457,7 +12460,7 @@
         <v>9.48499965667725</v>
       </c>
       <c r="G314" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -12483,7 +12486,7 @@
         <v>9.69999980926514</v>
       </c>
       <c r="G315" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -12509,7 +12512,7 @@
         <v>9.97500038146973</v>
       </c>
       <c r="G316" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -12535,7 +12538,7 @@
         <v>9.89500045776367</v>
       </c>
       <c r="G317" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -12561,7 +12564,7 @@
         <v>9.97000026702881</v>
       </c>
       <c r="G318" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -12587,7 +12590,7 @@
         <v>10.25</v>
       </c>
       <c r="G319" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -12613,7 +12616,7 @@
         <v>10.2600002288818</v>
       </c>
       <c r="G320" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -12639,7 +12642,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G321" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -12665,7 +12668,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G322" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -12691,7 +12694,7 @@
         <v>10.1400003433228</v>
       </c>
       <c r="G323" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -12717,7 +12720,7 @@
         <v>10.1899995803833</v>
       </c>
       <c r="G324" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -12743,7 +12746,7 @@
         <v>10.4200000762939</v>
       </c>
       <c r="G325" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -12769,7 +12772,7 @@
         <v>10.4300003051758</v>
       </c>
       <c r="G326" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -12795,7 +12798,7 @@
         <v>10.3800001144409</v>
       </c>
       <c r="G327" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -12821,7 +12824,7 @@
         <v>10.3000001907349</v>
       </c>
       <c r="G328" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -12847,7 +12850,7 @@
         <v>10.0600004196167</v>
       </c>
       <c r="G329" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -12873,7 +12876,7 @@
         <v>9.97500038146973</v>
       </c>
       <c r="G330" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -12899,7 +12902,7 @@
         <v>9.71000003814697</v>
       </c>
       <c r="G331" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -12925,7 +12928,7 @@
         <v>9.38000011444092</v>
       </c>
       <c r="G332" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -12951,7 +12954,7 @@
         <v>9.61499977111816</v>
       </c>
       <c r="G333" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -12977,7 +12980,7 @@
         <v>9.75</v>
       </c>
       <c r="G334" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -13003,7 +13006,7 @@
         <v>9.875</v>
       </c>
       <c r="G335" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -13029,7 +13032,7 @@
         <v>10.1899995803833</v>
       </c>
       <c r="G336" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -13055,7 +13058,7 @@
         <v>10.2799997329712</v>
       </c>
       <c r="G337" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -13081,7 +13084,7 @@
         <v>10.3900003433228</v>
       </c>
       <c r="G338" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -13107,7 +13110,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G339" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -13133,7 +13136,7 @@
         <v>10.6999998092651</v>
       </c>
       <c r="G340" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -13159,7 +13162,7 @@
         <v>11.3199996948242</v>
       </c>
       <c r="G341" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -13185,7 +13188,7 @@
         <v>11.4099998474121</v>
       </c>
       <c r="G342" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -13211,7 +13214,7 @@
         <v>12.1800003051758</v>
       </c>
       <c r="G343" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -13237,7 +13240,7 @@
         <v>12.2700004577637</v>
       </c>
       <c r="G344" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -13263,7 +13266,7 @@
         <v>12.6700000762939</v>
       </c>
       <c r="G345" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -13289,7 +13292,7 @@
         <v>12.9099998474121</v>
       </c>
       <c r="G346" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -13315,7 +13318,7 @@
         <v>12.9899997711182</v>
       </c>
       <c r="G347" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -13341,7 +13344,7 @@
         <v>12.4300003051758</v>
       </c>
       <c r="G348" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -13367,7 +13370,7 @@
         <v>12.5</v>
       </c>
       <c r="G349" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -13393,7 +13396,7 @@
         <v>12.4700002670288</v>
       </c>
       <c r="G350" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -13419,7 +13422,7 @@
         <v>12.3299999237061</v>
       </c>
       <c r="G351" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -13445,7 +13448,7 @@
         <v>11.6400003433228</v>
       </c>
       <c r="G352" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -13471,7 +13474,7 @@
         <v>11.8599996566772</v>
       </c>
       <c r="G353" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -13497,7 +13500,7 @@
         <v>11.9300003051758</v>
       </c>
       <c r="G354" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -13523,7 +13526,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G355" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -13549,7 +13552,7 @@
         <v>11.9899997711182</v>
       </c>
       <c r="G356" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -13575,7 +13578,7 @@
         <v>12</v>
       </c>
       <c r="G357" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -13601,7 +13604,7 @@
         <v>11.9899997711182</v>
       </c>
       <c r="G358" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -13627,7 +13630,7 @@
         <v>11.9899997711182</v>
       </c>
       <c r="G359" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -13653,7 +13656,7 @@
         <v>11.8800001144409</v>
       </c>
       <c r="G360" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -13679,7 +13682,7 @@
         <v>12.2399997711182</v>
       </c>
       <c r="G361" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -13705,7 +13708,7 @@
         <v>12.6199998855591</v>
       </c>
       <c r="G362" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -13731,7 +13734,7 @@
         <v>12.5699996948242</v>
       </c>
       <c r="G363" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -13757,7 +13760,7 @@
         <v>12.5100002288818</v>
       </c>
       <c r="G364" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -13783,7 +13786,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G365" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -13809,7 +13812,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G366" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -13835,7 +13838,7 @@
         <v>12.6400003433228</v>
       </c>
       <c r="G367" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -13861,7 +13864,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G368" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -13887,7 +13890,7 @@
         <v>12.5299997329712</v>
       </c>
       <c r="G369" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -13913,7 +13916,7 @@
         <v>12.539999961853</v>
       </c>
       <c r="G370" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -13939,7 +13942,7 @@
         <v>12.2799997329712</v>
       </c>
       <c r="G371" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -13965,7 +13968,7 @@
         <v>12.210000038147</v>
       </c>
       <c r="G372" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -13991,7 +13994,7 @@
         <v>11.9300003051758</v>
       </c>
       <c r="G373" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -14017,7 +14020,7 @@
         <v>12.1099996566772</v>
       </c>
       <c r="G374" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -14043,7 +14046,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G375" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -14069,7 +14072,7 @@
         <v>11.9300003051758</v>
       </c>
       <c r="G376" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -14095,7 +14098,7 @@
         <v>11.8400001525879</v>
       </c>
       <c r="G377" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -14121,7 +14124,7 @@
         <v>11.6800003051758</v>
       </c>
       <c r="G378" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -14147,7 +14150,7 @@
         <v>11.5900001525879</v>
       </c>
       <c r="G379" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -14173,7 +14176,7 @@
         <v>11.5299997329712</v>
       </c>
       <c r="G380" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -14199,7 +14202,7 @@
         <v>11.3299999237061</v>
       </c>
       <c r="G381" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -14225,7 +14228,7 @@
         <v>11.1199998855591</v>
       </c>
       <c r="G382" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -14251,7 +14254,7 @@
         <v>10.7299995422363</v>
       </c>
       <c r="G383" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -14277,7 +14280,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G384" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -14303,7 +14306,7 @@
         <v>10.8199996948242</v>
       </c>
       <c r="G385" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -14329,7 +14332,7 @@
         <v>10.8400001525879</v>
       </c>
       <c r="G386" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -14355,7 +14358,7 @@
         <v>10.8900003433228</v>
       </c>
       <c r="G387" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -14381,7 +14384,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G388" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -14407,7 +14410,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G389" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -14433,7 +14436,7 @@
         <v>10.8800001144409</v>
       </c>
       <c r="G390" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -14459,7 +14462,7 @@
         <v>11</v>
       </c>
       <c r="G391" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -14485,7 +14488,7 @@
         <v>10.8599996566772</v>
       </c>
       <c r="G392" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -14511,7 +14514,7 @@
         <v>11.0500001907349</v>
       </c>
       <c r="G393" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -14537,7 +14540,7 @@
         <v>11.4200000762939</v>
       </c>
       <c r="G394" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -14563,7 +14566,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G395" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -14589,7 +14592,7 @@
         <v>11.8299999237061</v>
       </c>
       <c r="G396" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -14615,7 +14618,7 @@
         <v>11.8400001525879</v>
       </c>
       <c r="G397" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -14641,7 +14644,7 @@
         <v>11.6700000762939</v>
       </c>
       <c r="G398" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -14667,7 +14670,7 @@
         <v>11.6099996566772</v>
       </c>
       <c r="G399" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -14693,7 +14696,7 @@
         <v>12.0500001907349</v>
       </c>
       <c r="G400" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -14719,7 +14722,7 @@
         <v>12.0600004196167</v>
       </c>
       <c r="G401" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -14745,7 +14748,7 @@
         <v>11.9899997711182</v>
       </c>
       <c r="G402" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -14771,7 +14774,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G403" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -14797,7 +14800,7 @@
         <v>12.0900001525879</v>
       </c>
       <c r="G404" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -14823,7 +14826,7 @@
         <v>12.0500001907349</v>
       </c>
       <c r="G405" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -14849,7 +14852,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G406" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -14875,7 +14878,7 @@
         <v>12.1300001144409</v>
       </c>
       <c r="G407" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -14901,7 +14904,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G408" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -14927,7 +14930,7 @@
         <v>11.8800001144409</v>
       </c>
       <c r="G409" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -14953,7 +14956,7 @@
         <v>12.2200002670288</v>
       </c>
       <c r="G410" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -14979,7 +14982,7 @@
         <v>12.210000038147</v>
       </c>
       <c r="G411" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -15005,7 +15008,7 @@
         <v>12.0299997329712</v>
       </c>
       <c r="G412" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -15031,7 +15034,7 @@
         <v>11.8100004196167</v>
       </c>
       <c r="G413" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -15057,7 +15060,7 @@
         <v>11.6700000762939</v>
       </c>
       <c r="G414" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -15083,7 +15086,7 @@
         <v>11.75</v>
       </c>
       <c r="G415" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -15109,7 +15112,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G416" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -15135,7 +15138,7 @@
         <v>12.0500001907349</v>
       </c>
       <c r="G417" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -15161,7 +15164,7 @@
         <v>11.8800001144409</v>
       </c>
       <c r="G418" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -15187,7 +15190,7 @@
         <v>11.6599998474121</v>
       </c>
       <c r="G419" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -15213,7 +15216,7 @@
         <v>11.6199998855591</v>
       </c>
       <c r="G420" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -15239,7 +15242,7 @@
         <v>11.4899997711182</v>
       </c>
       <c r="G421" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -15265,7 +15268,7 @@
         <v>11.210000038147</v>
       </c>
       <c r="G422" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -15291,7 +15294,7 @@
         <v>11.4399995803833</v>
       </c>
       <c r="G423" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -15317,7 +15320,7 @@
         <v>11.1499996185303</v>
       </c>
       <c r="G424" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -15343,7 +15346,7 @@
         <v>11.0299997329712</v>
       </c>
       <c r="G425" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -15369,7 +15372,7 @@
         <v>11.2799997329712</v>
       </c>
       <c r="G426" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -15395,7 +15398,7 @@
         <v>11.5299997329712</v>
       </c>
       <c r="G427" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -15421,7 +15424,7 @@
         <v>11.3900003433228</v>
       </c>
       <c r="G428" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -15447,7 +15450,7 @@
         <v>11.210000038147</v>
       </c>
       <c r="G429" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -15473,7 +15476,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G430" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -15499,7 +15502,7 @@
         <v>11.0699996948242</v>
       </c>
       <c r="G431" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -15525,7 +15528,7 @@
         <v>11.1199998855591</v>
       </c>
       <c r="G432" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -15551,7 +15554,7 @@
         <v>10.9399995803833</v>
       </c>
       <c r="G433" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -15577,7 +15580,7 @@
         <v>11.0600004196167</v>
       </c>
       <c r="G434" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -15603,7 +15606,7 @@
         <v>11.1400003433228</v>
       </c>
       <c r="G435" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -15629,7 +15632,7 @@
         <v>11.2200002670288</v>
       </c>
       <c r="G436" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -15655,7 +15658,7 @@
         <v>11.1400003433228</v>
       </c>
       <c r="G437" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -15681,7 +15684,7 @@
         <v>11.0500001907349</v>
       </c>
       <c r="G438" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -15707,7 +15710,7 @@
         <v>11.0600004196167</v>
       </c>
       <c r="G439" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -15733,7 +15736,7 @@
         <v>10.9300003051758</v>
       </c>
       <c r="G440" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -15759,7 +15762,7 @@
         <v>10.8900003433228</v>
       </c>
       <c r="G441" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -15785,7 +15788,7 @@
         <v>10.8800001144409</v>
       </c>
       <c r="G442" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -15811,7 +15814,7 @@
         <v>10.8500003814697</v>
       </c>
       <c r="G443" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -15837,7 +15840,7 @@
         <v>10.8900003433228</v>
       </c>
       <c r="G444" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -15863,7 +15866,7 @@
         <v>11.3000001907349</v>
       </c>
       <c r="G445" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -15889,7 +15892,7 @@
         <v>11.6700000762939</v>
       </c>
       <c r="G446" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -15915,7 +15918,7 @@
         <v>11.4399995803833</v>
       </c>
       <c r="G447" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -15941,7 +15944,7 @@
         <v>11.1899995803833</v>
       </c>
       <c r="G448" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -15967,7 +15970,7 @@
         <v>11.8800001144409</v>
       </c>
       <c r="G449" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -15993,7 +15996,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G450" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -16019,7 +16022,7 @@
         <v>11.4099998474121</v>
       </c>
       <c r="G451" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -16045,7 +16048,7 @@
         <v>11.4200000762939</v>
       </c>
       <c r="G452" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -16071,7 +16074,7 @@
         <v>11.2200002670288</v>
       </c>
       <c r="G453" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -16097,7 +16100,7 @@
         <v>11.3900003433228</v>
       </c>
       <c r="G454" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -16123,7 +16126,7 @@
         <v>11.2799997329712</v>
       </c>
       <c r="G455" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -16149,7 +16152,7 @@
         <v>11.3699998855591</v>
       </c>
       <c r="G456" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -16175,7 +16178,7 @@
         <v>11.3599996566772</v>
       </c>
       <c r="G457" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -16201,7 +16204,7 @@
         <v>11.5</v>
       </c>
       <c r="G458" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -16227,7 +16230,7 @@
         <v>11.5799999237061</v>
       </c>
       <c r="G459" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -16253,7 +16256,7 @@
         <v>11.5200004577637</v>
       </c>
       <c r="G460" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -16279,7 +16282,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G461" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -16305,7 +16308,7 @@
         <v>11.4300003051758</v>
       </c>
       <c r="G462" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -16331,7 +16334,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G463" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -16357,7 +16360,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G464" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -16383,7 +16386,7 @@
         <v>11.5</v>
       </c>
       <c r="G465" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -16409,7 +16412,7 @@
         <v>11.4899997711182</v>
       </c>
       <c r="G466" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -16435,7 +16438,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G467" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -16461,7 +16464,7 @@
         <v>11.539999961853</v>
       </c>
       <c r="G468" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -16487,7 +16490,7 @@
         <v>11.4700002670288</v>
       </c>
       <c r="G469" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -16513,7 +16516,7 @@
         <v>11.5200004577637</v>
       </c>
       <c r="G470" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -16539,7 +16542,7 @@
         <v>11.4700002670288</v>
       </c>
       <c r="G471" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -16565,7 +16568,7 @@
         <v>11.5299997329712</v>
       </c>
       <c r="G472" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -16591,7 +16594,7 @@
         <v>11.539999961853</v>
       </c>
       <c r="G473" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -16617,7 +16620,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G474" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -16643,7 +16646,7 @@
         <v>11.4200000762939</v>
       </c>
       <c r="G475" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -16669,7 +16672,7 @@
         <v>11.1700000762939</v>
       </c>
       <c r="G476" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -16695,7 +16698,7 @@
         <v>10.7700004577637</v>
       </c>
       <c r="G477" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -16721,7 +16724,7 @@
         <v>10.6099996566772</v>
       </c>
       <c r="G478" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -16747,7 +16750,7 @@
         <v>10.2799997329712</v>
       </c>
       <c r="G479" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -16773,7 +16776,7 @@
         <v>10.1300001144409</v>
       </c>
       <c r="G480" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -16799,7 +16802,7 @@
         <v>9.52000045776367</v>
       </c>
       <c r="G481" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -16825,7 +16828,7 @@
         <v>9.8149995803833</v>
       </c>
       <c r="G482" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -16851,7 +16854,7 @@
         <v>9.55000019073486</v>
       </c>
       <c r="G483" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -16877,7 +16880,7 @@
         <v>9.57499980926514</v>
       </c>
       <c r="G484" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -16903,7 +16906,7 @@
         <v>10.1700000762939</v>
       </c>
       <c r="G485" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -16929,7 +16932,7 @@
         <v>9.81999969482422</v>
       </c>
       <c r="G486" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -16955,7 +16958,7 @@
         <v>9.83500003814697</v>
       </c>
       <c r="G487" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -16981,7 +16984,7 @@
         <v>9.65999984741211</v>
       </c>
       <c r="G488" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -17007,7 +17010,7 @@
         <v>9.75</v>
       </c>
       <c r="G489" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -17033,7 +17036,7 @@
         <v>9.86999988555908</v>
       </c>
       <c r="G490" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -17059,7 +17062,7 @@
         <v>9.80000019073486</v>
       </c>
       <c r="G491" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -17085,7 +17088,7 @@
         <v>9.77499961853027</v>
       </c>
       <c r="G492" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -17111,7 +17114,7 @@
         <v>9.53999996185303</v>
       </c>
       <c r="G493" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -17137,7 +17140,7 @@
         <v>9.47500038146973</v>
       </c>
       <c r="G494" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -17163,7 +17166,7 @@
         <v>9.25500011444092</v>
       </c>
       <c r="G495" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -17189,7 +17192,7 @@
         <v>9.22500038146973</v>
       </c>
       <c r="G496" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -17215,7 +17218,7 @@
         <v>9.19499969482422</v>
       </c>
       <c r="G497" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -17241,7 +17244,7 @@
         <v>9.32499980926514</v>
       </c>
       <c r="G498" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -17267,7 +17270,7 @@
         <v>9.26000022888184</v>
       </c>
       <c r="G499" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -17293,7 +17296,7 @@
         <v>9.38000011444092</v>
       </c>
       <c r="G500" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -17319,7 +17322,7 @@
         <v>9.40499973297119</v>
       </c>
       <c r="G501" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -17345,7 +17348,7 @@
         <v>9.45499992370605</v>
       </c>
       <c r="G502" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -17371,7 +17374,7 @@
         <v>9.44499969482422</v>
       </c>
       <c r="G503" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -17397,7 +17400,7 @@
         <v>9.72999954223633</v>
       </c>
       <c r="G504" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -17423,7 +17426,7 @@
         <v>9.72999954223633</v>
       </c>
       <c r="G505" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -17449,7 +17452,7 @@
         <v>9.61999988555908</v>
       </c>
       <c r="G506" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -17475,7 +17478,7 @@
         <v>9.60499954223633</v>
       </c>
       <c r="G507" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -17501,7 +17504,7 @@
         <v>9.48999977111816</v>
       </c>
       <c r="G508" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -17527,7 +17530,7 @@
         <v>9.52499961853027</v>
       </c>
       <c r="G509" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -17553,7 +17556,7 @@
         <v>9.65999984741211</v>
       </c>
       <c r="G510" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -17579,7 +17582,7 @@
         <v>9.63500022888184</v>
       </c>
       <c r="G511" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -17605,7 +17608,7 @@
         <v>9.69499969482422</v>
       </c>
       <c r="G512" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -17631,7 +17634,7 @@
         <v>9.77000045776367</v>
       </c>
       <c r="G513" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -17657,7 +17660,7 @@
         <v>9.93000030517578</v>
       </c>
       <c r="G514" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -17683,7 +17686,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G515" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -17709,7 +17712,7 @@
         <v>10.039999961853</v>
       </c>
       <c r="G516" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -17735,7 +17738,7 @@
         <v>10.3000001907349</v>
       </c>
       <c r="G517" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -17761,7 +17764,7 @@
         <v>10.0799999237061</v>
       </c>
       <c r="G518" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -17787,7 +17790,7 @@
         <v>10</v>
       </c>
       <c r="G519" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -17813,7 +17816,7 @@
         <v>10.0799999237061</v>
       </c>
       <c r="G520" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -17839,7 +17842,7 @@
         <v>10.0200004577637</v>
       </c>
       <c r="G521" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -17865,7 +17868,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G522" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -17891,7 +17894,7 @@
         <v>10.1199998855591</v>
       </c>
       <c r="G523" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -17917,7 +17920,7 @@
         <v>10.1199998855591</v>
       </c>
       <c r="G524" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -17943,7 +17946,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G525" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -17969,7 +17972,7 @@
         <v>10</v>
       </c>
       <c r="G526" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -17995,7 +17998,7 @@
         <v>9.97000026702881</v>
       </c>
       <c r="G527" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -18021,7 +18024,7 @@
         <v>9.90999984741211</v>
       </c>
       <c r="G528" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -18047,7 +18050,7 @@
         <v>9.88000011444092</v>
       </c>
       <c r="G529" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -18073,7 +18076,7 @@
         <v>10.1199998855591</v>
       </c>
       <c r="G530" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -18099,7 +18102,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G531" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -18125,7 +18128,7 @@
         <v>9.80000019073486</v>
       </c>
       <c r="G532" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -18151,7 +18154,7 @@
         <v>9.80000019073486</v>
       </c>
       <c r="G533" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -18177,7 +18180,7 @@
         <v>9.67000007629395</v>
       </c>
       <c r="G534" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -18203,7 +18206,7 @@
         <v>9.44999980926514</v>
       </c>
       <c r="G535" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -18229,7 +18232,7 @@
         <v>9.42000007629395</v>
       </c>
       <c r="G536" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -18255,7 +18258,7 @@
         <v>9.32999992370605</v>
       </c>
       <c r="G537" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -18281,7 +18284,7 @@
         <v>9.57999992370605</v>
       </c>
       <c r="G538" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -18307,7 +18310,7 @@
         <v>9.52000045776367</v>
       </c>
       <c r="G539" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -18333,7 +18336,7 @@
         <v>9.39999961853027</v>
       </c>
       <c r="G540" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -18359,7 +18362,7 @@
         <v>9.8100004196167</v>
       </c>
       <c r="G541" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -18385,7 +18388,7 @@
         <v>10.0799999237061</v>
       </c>
       <c r="G542" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -18411,7 +18414,7 @@
         <v>10.0200004577637</v>
       </c>
       <c r="G543" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -18437,7 +18440,7 @@
         <v>10.1199998855591</v>
       </c>
       <c r="G544" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -18463,7 +18466,7 @@
         <v>10.1199998855591</v>
       </c>
       <c r="G545" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -18489,7 +18492,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G546" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -18515,7 +18518,7 @@
         <v>10.2799997329712</v>
       </c>
       <c r="G547" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -18541,7 +18544,7 @@
         <v>10.5</v>
       </c>
       <c r="G548" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -18567,7 +18570,7 @@
         <v>10.3199996948242</v>
       </c>
       <c r="G549" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -18593,7 +18596,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G550" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -18619,7 +18622,7 @@
         <v>10.3400001525879</v>
       </c>
       <c r="G551" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -18645,7 +18648,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G552" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -18671,7 +18674,7 @@
         <v>10.1599998474121</v>
       </c>
       <c r="G553" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -18697,7 +18700,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G554" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -18723,7 +18726,7 @@
         <v>10.1400003433228</v>
       </c>
       <c r="G555" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -18749,7 +18752,7 @@
         <v>10.4200000762939</v>
       </c>
       <c r="G556" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -18775,7 +18778,7 @@
         <v>10.539999961853</v>
       </c>
       <c r="G557" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -18801,7 +18804,7 @@
         <v>11.039999961853</v>
       </c>
       <c r="G558" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -18827,7 +18830,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G559" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -18853,7 +18856,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G560" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -18879,7 +18882,7 @@
         <v>10.9399995803833</v>
       </c>
       <c r="G561" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -18905,7 +18908,7 @@
         <v>11</v>
       </c>
       <c r="G562" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -18931,7 +18934,7 @@
         <v>10.8400001525879</v>
       </c>
       <c r="G563" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -18957,7 +18960,7 @@
         <v>10.8599996566772</v>
       </c>
       <c r="G564" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -18983,7 +18986,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G565" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -19009,7 +19012,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G566" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -19035,7 +19038,7 @@
         <v>10.8599996566772</v>
       </c>
       <c r="G567" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -19061,7 +19064,7 @@
         <v>10.8800001144409</v>
       </c>
       <c r="G568" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -19087,7 +19090,7 @@
         <v>10.7600002288818</v>
       </c>
       <c r="G569" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -19113,7 +19116,7 @@
         <v>10.8400001525879</v>
       </c>
       <c r="G570" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -19139,7 +19142,7 @@
         <v>10.8400001525879</v>
       </c>
       <c r="G571" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -19165,7 +19168,7 @@
         <v>10.8800001144409</v>
       </c>
       <c r="G572" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -19191,7 +19194,7 @@
         <v>10.7399997711182</v>
       </c>
       <c r="G573" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -19217,7 +19220,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G574" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -19243,7 +19246,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G575" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -19269,7 +19272,7 @@
         <v>10.6599998474121</v>
       </c>
       <c r="G576" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -19295,7 +19298,7 @@
         <v>10.7200002670288</v>
       </c>
       <c r="G577" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -19321,7 +19324,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G578" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -19347,7 +19350,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G579" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -19373,7 +19376,7 @@
         <v>10.9399995803833</v>
       </c>
       <c r="G580" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -19399,7 +19402,7 @@
         <v>10.8800001144409</v>
       </c>
       <c r="G581" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -19425,7 +19428,7 @@
         <v>10.8599996566772</v>
       </c>
       <c r="G582" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -19451,7 +19454,7 @@
         <v>10.9200000762939</v>
       </c>
       <c r="G583" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -19477,7 +19480,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G584" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -19503,7 +19506,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G585" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -19529,7 +19532,7 @@
         <v>11.2799997329712</v>
       </c>
       <c r="G586" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -19555,7 +19558,7 @@
         <v>11.4200000762939</v>
       </c>
       <c r="G587" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -19581,7 +19584,7 @@
         <v>12.039999961853</v>
       </c>
       <c r="G588" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -19607,7 +19610,7 @@
         <v>12.460000038147</v>
       </c>
       <c r="G589" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -19633,7 +19636,7 @@
         <v>12.5799999237061</v>
       </c>
       <c r="G590" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -19659,7 +19662,7 @@
         <v>12.5200004577637</v>
       </c>
       <c r="G591" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -19685,7 +19688,7 @@
         <v>12.5200004577637</v>
       </c>
       <c r="G592" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -19711,7 +19714,7 @@
         <v>12.5799999237061</v>
       </c>
       <c r="G593" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -19737,7 +19740,7 @@
         <v>12.9200000762939</v>
       </c>
       <c r="G594" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -19763,7 +19766,7 @@
         <v>13.4799995422363</v>
       </c>
       <c r="G595" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -19789,7 +19792,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G596" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -19815,7 +19818,7 @@
         <v>13.5200004577637</v>
       </c>
       <c r="G597" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -19841,7 +19844,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G598" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -19867,7 +19870,7 @@
         <v>12.960000038147</v>
       </c>
       <c r="G599" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -19893,7 +19896,7 @@
         <v>12.960000038147</v>
       </c>
       <c r="G600" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -19919,7 +19922,7 @@
         <v>12.9200000762939</v>
       </c>
       <c r="G601" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -19945,7 +19948,7 @@
         <v>12.460000038147</v>
       </c>
       <c r="G602" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -19971,7 +19974,7 @@
         <v>12.3400001525879</v>
       </c>
       <c r="G603" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -19997,7 +20000,7 @@
         <v>12.3199996948242</v>
       </c>
       <c r="G604" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -20023,7 +20026,7 @@
         <v>11.960000038147</v>
       </c>
       <c r="G605" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -20049,7 +20052,7 @@
         <v>11.8800001144409</v>
       </c>
       <c r="G606" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -20075,7 +20078,7 @@
         <v>11.460000038147</v>
       </c>
       <c r="G607" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -20101,7 +20104,7 @@
         <v>11.6800003051758</v>
       </c>
       <c r="G608" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -20127,7 +20130,7 @@
         <v>11.5799999237061</v>
       </c>
       <c r="G609" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -20153,7 +20156,7 @@
         <v>11.5799999237061</v>
       </c>
       <c r="G610" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -20179,7 +20182,7 @@
         <v>11.6199998855591</v>
       </c>
       <c r="G611" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -20205,7 +20208,7 @@
         <v>11.4399995803833</v>
       </c>
       <c r="G612" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -20231,7 +20234,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G613" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -20257,7 +20260,7 @@
         <v>10.9200000762939</v>
       </c>
       <c r="G614" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -20283,7 +20286,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G615" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -20309,7 +20312,7 @@
         <v>10.9799995422363</v>
       </c>
       <c r="G616" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -20335,7 +20338,7 @@
         <v>11.2200002670288</v>
       </c>
       <c r="G617" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -20361,7 +20364,7 @@
         <v>11</v>
       </c>
       <c r="G618" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -20387,7 +20390,7 @@
         <v>11.1599998474121</v>
       </c>
       <c r="G619" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -20413,7 +20416,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G620" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -20439,7 +20442,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G621" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -20465,7 +20468,7 @@
         <v>11.0600004196167</v>
       </c>
       <c r="G622" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -20491,7 +20494,7 @@
         <v>11.3599996566772</v>
       </c>
       <c r="G623" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -20517,7 +20520,7 @@
         <v>11.2600002288818</v>
       </c>
       <c r="G624" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -20543,7 +20546,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G625" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -20569,7 +20572,7 @@
         <v>11.2799997329712</v>
       </c>
       <c r="G626" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -20595,7 +20598,7 @@
         <v>11.1400003433228</v>
       </c>
       <c r="G627" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -20621,7 +20624,7 @@
         <v>10.9799995422363</v>
       </c>
       <c r="G628" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -20647,7 +20650,7 @@
         <v>11.1599998474121</v>
       </c>
       <c r="G629" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -20673,7 +20676,7 @@
         <v>11.1400003433228</v>
       </c>
       <c r="G630" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -20699,7 +20702,7 @@
         <v>11.0200004577637</v>
       </c>
       <c r="G631" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -20725,7 +20728,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G632" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -20751,7 +20754,7 @@
         <v>10.6800003051758</v>
       </c>
       <c r="G633" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -20777,7 +20780,7 @@
         <v>10.6999998092651</v>
       </c>
       <c r="G634" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -20803,7 +20806,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G635" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -20829,7 +20832,7 @@
         <v>10.3400001525879</v>
       </c>
       <c r="G636" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -20855,7 +20858,7 @@
         <v>10.5600004196167</v>
       </c>
       <c r="G637" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -20881,7 +20884,7 @@
         <v>10.6199998855591</v>
       </c>
       <c r="G638" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -20907,7 +20910,7 @@
         <v>10.539999961853</v>
       </c>
       <c r="G639" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -20933,7 +20936,7 @@
         <v>10.5</v>
       </c>
       <c r="G640" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -20959,7 +20962,7 @@
         <v>10.6199998855591</v>
       </c>
       <c r="G641" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -20985,7 +20988,7 @@
         <v>10.6400003433228</v>
       </c>
       <c r="G642" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -21011,7 +21014,7 @@
         <v>10.5799999237061</v>
       </c>
       <c r="G643" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -21037,7 +21040,7 @@
         <v>10.4399995803833</v>
       </c>
       <c r="G644" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -21063,7 +21066,7 @@
         <v>10.1599998474121</v>
       </c>
       <c r="G645" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -21089,7 +21092,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G646" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -21115,7 +21118,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G647" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -21141,7 +21144,7 @@
         <v>10.2200002670288</v>
       </c>
       <c r="G648" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -21167,7 +21170,7 @@
         <v>10.1599998474121</v>
       </c>
       <c r="G649" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -21193,7 +21196,7 @@
         <v>10.1800003051758</v>
       </c>
       <c r="G650" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -21219,7 +21222,7 @@
         <v>10.1199998855591</v>
       </c>
       <c r="G651" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -21245,7 +21248,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G652" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -21271,7 +21274,7 @@
         <v>9.92000007629395</v>
       </c>
       <c r="G653" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -21297,7 +21300,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G654" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -21323,7 +21326,7 @@
         <v>9.75</v>
       </c>
       <c r="G655" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -21349,7 +21352,7 @@
         <v>9.6899995803833</v>
       </c>
       <c r="G656" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -21375,7 +21378,7 @@
         <v>9.85999965667725</v>
       </c>
       <c r="G657" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -21401,7 +21404,7 @@
         <v>9.77999973297119</v>
       </c>
       <c r="G658" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -21427,7 +21430,7 @@
         <v>9.80000019073486</v>
       </c>
       <c r="G659" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -21453,7 +21456,7 @@
         <v>9.80000019073486</v>
       </c>
       <c r="G660" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -21479,7 +21482,7 @@
         <v>9.6899995803833</v>
       </c>
       <c r="G661" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -21505,7 +21508,7 @@
         <v>9.76000022888184</v>
       </c>
       <c r="G662" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -21531,7 +21534,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G663" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -21557,7 +21560,7 @@
         <v>9.03999996185303</v>
       </c>
       <c r="G664" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -21583,7 +21586,7 @@
         <v>9.73999977111816</v>
       </c>
       <c r="G665" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -21609,7 +21612,7 @@
         <v>9.6899995803833</v>
       </c>
       <c r="G666" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -21635,7 +21638,7 @@
         <v>9.5</v>
       </c>
       <c r="G667" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -21661,7 +21664,7 @@
         <v>9.43000030517578</v>
       </c>
       <c r="G668" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -21687,7 +21690,7 @@
         <v>9.44999980926514</v>
       </c>
       <c r="G669" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -21713,7 +21716,7 @@
         <v>9.42000007629395</v>
       </c>
       <c r="G670" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -21739,7 +21742,7 @@
         <v>9.11999988555908</v>
       </c>
       <c r="G671" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -21765,7 +21768,7 @@
         <v>9.22000026702881</v>
       </c>
       <c r="G672" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -21791,7 +21794,7 @@
         <v>9.42000007629395</v>
       </c>
       <c r="G673" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -21817,7 +21820,7 @@
         <v>9.85999965667725</v>
       </c>
       <c r="G674" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -21843,7 +21846,7 @@
         <v>10.2600002288818</v>
       </c>
       <c r="G675" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -21869,7 +21872,7 @@
         <v>10.2399997711182</v>
       </c>
       <c r="G676" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -21895,7 +21898,7 @@
         <v>10.2399997711182</v>
       </c>
       <c r="G677" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -21921,7 +21924,7 @@
         <v>10.1599998474121</v>
       </c>
       <c r="G678" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -21947,7 +21950,7 @@
         <v>10.1800003051758</v>
       </c>
       <c r="G679" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -21973,7 +21976,7 @@
         <v>10.039999961853</v>
       </c>
       <c r="G680" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -21999,7 +22002,7 @@
         <v>9.82999992370605</v>
       </c>
       <c r="G681" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -22025,7 +22028,7 @@
         <v>10.2600002288818</v>
       </c>
       <c r="G682" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -22051,7 +22054,7 @@
         <v>10.2200002670288</v>
       </c>
       <c r="G683" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -22077,7 +22080,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G684" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -22103,7 +22106,7 @@
         <v>9.96000003814697</v>
       </c>
       <c r="G685" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -22129,7 +22132,7 @@
         <v>9.86999988555908</v>
       </c>
       <c r="G686" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -22155,7 +22158,7 @@
         <v>9.78999996185303</v>
       </c>
       <c r="G687" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -22181,7 +22184,7 @@
         <v>9.78999996185303</v>
       </c>
       <c r="G688" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -22207,7 +22210,7 @@
         <v>9.78999996185303</v>
       </c>
       <c r="G689" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -22233,7 +22236,7 @@
         <v>9.81999969482422</v>
       </c>
       <c r="G690" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -22259,7 +22262,7 @@
         <v>9.69999980926514</v>
       </c>
       <c r="G691" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -22285,7 +22288,7 @@
         <v>9.78999996185303</v>
       </c>
       <c r="G692" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -22311,7 +22314,7 @@
         <v>9.68000030517578</v>
       </c>
       <c r="G693" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -22337,7 +22340,7 @@
         <v>9.6899995803833</v>
       </c>
       <c r="G694" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -22363,7 +22366,7 @@
         <v>9.69999980926514</v>
       </c>
       <c r="G695" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -22389,7 +22392,7 @@
         <v>9.69999980926514</v>
       </c>
       <c r="G696" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -22415,7 +22418,7 @@
         <v>9.59000015258789</v>
       </c>
       <c r="G697" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -22441,7 +22444,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G698" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -22467,7 +22470,7 @@
         <v>9.64999961853027</v>
       </c>
       <c r="G699" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -22493,7 +22496,7 @@
         <v>9.57999992370605</v>
       </c>
       <c r="G700" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -22519,7 +22522,7 @@
         <v>9.51000022888184</v>
       </c>
       <c r="G701" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -22545,7 +22548,7 @@
         <v>9.44999980926514</v>
       </c>
       <c r="G702" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -22571,7 +22574,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G703" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -22597,7 +22600,7 @@
         <v>9.38000011444092</v>
       </c>
       <c r="G704" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -22623,7 +22626,7 @@
         <v>9.39000034332275</v>
       </c>
       <c r="G705" t="s">
-        <v>392</v>
+        <v>488</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -22675,7 +22678,7 @@
         <v>9.11999988555908</v>
       </c>
       <c r="G707" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -24261,7 +24264,7 @@
         <v>9.11999988555908</v>
       </c>
       <c r="G768" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -24495,7 +24498,7 @@
         <v>9.39000034332275</v>
       </c>
       <c r="G777" t="s">
-        <v>392</v>
+        <v>488</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -24521,7 +24524,7 @@
         <v>9.38000011444092</v>
       </c>
       <c r="G778" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -24547,7 +24550,7 @@
         <v>9.5</v>
       </c>
       <c r="G779" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -24573,7 +24576,7 @@
         <v>9.75</v>
       </c>
       <c r="G780" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -24599,7 +24602,7 @@
         <v>9.80000019073486</v>
       </c>
       <c r="G781" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -24677,7 +24680,7 @@
         <v>9.80000019073486</v>
       </c>
       <c r="G784" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -24729,7 +24732,7 @@
         <v>9.64999961853027</v>
       </c>
       <c r="G786" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -24807,7 +24810,7 @@
         <v>9.80000019073486</v>
       </c>
       <c r="G789" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -24859,7 +24862,7 @@
         <v>9.39000034332275</v>
       </c>
       <c r="G791" t="s">
-        <v>392</v>
+        <v>488</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -24911,7 +24914,7 @@
         <v>9.80000019073486</v>
       </c>
       <c r="G793" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -24963,7 +24966,7 @@
         <v>9.75</v>
       </c>
       <c r="G795" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -24989,7 +24992,7 @@
         <v>9.81999969482422</v>
       </c>
       <c r="G796" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -25041,7 +25044,7 @@
         <v>9.75</v>
       </c>
       <c r="G798" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -25093,7 +25096,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G800" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -25119,7 +25122,7 @@
         <v>9.73999977111816</v>
       </c>
       <c r="G801" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -25145,7 +25148,7 @@
         <v>9.77999973297119</v>
       </c>
       <c r="G802" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -25275,7 +25278,7 @@
         <v>9.64999961853027</v>
       </c>
       <c r="G807" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -25327,7 +25330,7 @@
         <v>9.77999973297119</v>
       </c>
       <c r="G809" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -25353,7 +25356,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G810" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -25561,7 +25564,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G818" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -25717,7 +25720,7 @@
         <v>9.03999996185303</v>
       </c>
       <c r="G824" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -25873,7 +25876,7 @@
         <v>9.11999988555908</v>
       </c>
       <c r="G830" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -26211,7 +26214,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G843" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -26263,7 +26266,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G845" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -61137,7 +61140,7 @@
     </row>
     <row r="2187">
       <c r="A2187" s="1" t="n">
-        <v>45506.6494675926</v>
+        <v>45506.2916666667</v>
       </c>
       <c r="B2187" t="n">
         <v>43076</v>
@@ -61158,6 +61161,32 @@
         <v>1294</v>
       </c>
       <c r="H2187" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2188">
+      <c r="A2188" s="1" t="n">
+        <v>45509.6071180556</v>
+      </c>
+      <c r="B2188" t="n">
+        <v>79888</v>
+      </c>
+      <c r="C2188" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="D2188" t="n">
+        <v>22.0499992370605</v>
+      </c>
+      <c r="E2188" t="n">
+        <v>23.2000007629395</v>
+      </c>
+      <c r="F2188" t="n">
+        <v>23.0499992370605</v>
+      </c>
+      <c r="G2188" t="s">
+        <v>1316</v>
+      </c>
+      <c r="H2188" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/TXT.MI.xlsx
+++ b/data/TXT.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45555543899536</t>
+    <t xml:space="preserve">6.45555591583252</t>
   </si>
   <si>
     <t xml:space="preserve">TXT.MI</t>
@@ -47,16 +47,16 @@
     <t xml:space="preserve">6.43539476394653</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44345855712891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27410697937012</t>
+    <t xml:space="preserve">6.44345903396606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27410650253296</t>
   </si>
   <si>
     <t xml:space="preserve">6.31442832946777</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13701152801514</t>
+    <t xml:space="preserve">6.13701105117798</t>
   </si>
   <si>
     <t xml:space="preserve">6.16926860809326</t>
@@ -68,19 +68,19 @@
     <t xml:space="preserve">5.96765899658203</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89507913589478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80637073516846</t>
+    <t xml:space="preserve">5.89507961273193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8063702583313</t>
   </si>
   <si>
     <t xml:space="preserve">5.98782062530518</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79024171829224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76201581954956</t>
+    <t xml:space="preserve">5.79024219512939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76201629638672</t>
   </si>
   <si>
     <t xml:space="preserve">5.76604890823364</t>
@@ -89,10 +89,10 @@
     <t xml:space="preserve">5.78217840194702</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04023838043213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92733716964722</t>
+    <t xml:space="preserve">6.04023885726929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92733669281006</t>
   </si>
   <si>
     <t xml:space="preserve">5.9595947265625</t>
@@ -107,55 +107,55 @@
     <t xml:space="preserve">5.89104795455933</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81846809387207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21765613555908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19346237182617</t>
+    <t xml:space="preserve">5.81846761703491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21765565872192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19346189498901</t>
   </si>
   <si>
     <t xml:space="preserve">6.24991321563721</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33862161636353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26604270935059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24184846878052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25394487380981</t>
+    <t xml:space="preserve">6.33862209320068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26604223251343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24184894561768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25394582748413</t>
   </si>
   <si>
     <t xml:space="preserve">6.45152378082275</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50394153594971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45958805084229</t>
+    <t xml:space="preserve">6.50394201278687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45958852767944</t>
   </si>
   <si>
     <t xml:space="preserve">6.53216791152954</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54829692840576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54023170471191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28217124938965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12088251113892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29829978942871</t>
+    <t xml:space="preserve">6.54829597473145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54023122787476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28217077255249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12088298797607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29829931259155</t>
   </si>
   <si>
     <t xml:space="preserve">6.23781681060791</t>
@@ -164,16 +164,16 @@
     <t xml:space="preserve">6.18539810180664</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19749450683594</t>
+    <t xml:space="preserve">6.1974949836731</t>
   </si>
   <si>
     <t xml:space="preserve">6.15314054489136</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15717267990112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03217458724976</t>
+    <t xml:space="preserve">6.15717315673828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0321741104126</t>
   </si>
   <si>
     <t xml:space="preserve">6.06040000915527</t>
@@ -185,22 +185,22 @@
     <t xml:space="preserve">6.17733383178711</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09668922424316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20152711868286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1410436630249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22571992874146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16523742675781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25797748565674</t>
+    <t xml:space="preserve">6.09668970108032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2015266418457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14104270935059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22572040557861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1652364730835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2579779624939</t>
   </si>
   <si>
     <t xml:space="preserve">6.07652854919434</t>
@@ -212,28 +212,28 @@
     <t xml:space="preserve">6.05636835098267</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99991703033447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97975492477417</t>
+    <t xml:space="preserve">5.99991655349731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97975540161133</t>
   </si>
   <si>
     <t xml:space="preserve">6.16120481491089</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11685085296631</t>
+    <t xml:space="preserve">6.11685132980347</t>
   </si>
   <si>
     <t xml:space="preserve">6.11281824111938</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23734998703003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2707052230835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11643934249878</t>
+    <t xml:space="preserve">6.23735046386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27070474624634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11643886566162</t>
   </si>
   <si>
     <t xml:space="preserve">6.20399570465088</t>
@@ -242,7 +242,7 @@
     <t xml:space="preserve">6.25402784347534</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13728618621826</t>
+    <t xml:space="preserve">6.1372857093811</t>
   </si>
   <si>
     <t xml:space="preserve">6.21233367919922</t>
@@ -254,25 +254,25 @@
     <t xml:space="preserve">6.24568891525269</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16230154037476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33324480056763</t>
+    <t xml:space="preserve">6.16230201721191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33324527740479</t>
   </si>
   <si>
     <t xml:space="preserve">6.24151992797852</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17064094543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18314838409424</t>
+    <t xml:space="preserve">6.17064142227173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1831488609314</t>
   </si>
   <si>
     <t xml:space="preserve">6.15396356582642</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08725357055664</t>
+    <t xml:space="preserve">6.08725309371948</t>
   </si>
   <si>
     <t xml:space="preserve">5.93715667724609</t>
@@ -284,16 +284,16 @@
     <t xml:space="preserve">5.85376977920532</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03722143173218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08308458328247</t>
+    <t xml:space="preserve">6.03722095489502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08308410644531</t>
   </si>
   <si>
     <t xml:space="preserve">5.98718929290771</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00386667251587</t>
+    <t xml:space="preserve">6.00386619567871</t>
   </si>
   <si>
     <t xml:space="preserve">5.89546346664429</t>
@@ -305,7 +305,7 @@
     <t xml:space="preserve">5.90380239486694</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95383405685425</t>
+    <t xml:space="preserve">5.95383453369141</t>
   </si>
   <si>
     <t xml:space="preserve">5.90797185897827</t>
@@ -314,10 +314,10 @@
     <t xml:space="preserve">6.16647148132324</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0580677986145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14562463760376</t>
+    <t xml:space="preserve">6.05806732177734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1456241607666</t>
   </si>
   <si>
     <t xml:space="preserve">6.31239891052246</t>
@@ -326,13 +326,13 @@
     <t xml:space="preserve">6.19982671737671</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07474565505981</t>
+    <t xml:space="preserve">6.07474517822266</t>
   </si>
   <si>
     <t xml:space="preserve">6.14145469665527</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22067260742188</t>
+    <t xml:space="preserve">6.22067308425903</t>
   </si>
   <si>
     <t xml:space="preserve">6.29572153091431</t>
@@ -341,58 +341,58 @@
     <t xml:space="preserve">6.17480993270874</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19565629959106</t>
+    <t xml:space="preserve">6.19565677642822</t>
   </si>
   <si>
     <t xml:space="preserve">6.18731832504272</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12060880661011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19148731231689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11226940155029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09559154510498</t>
+    <t xml:space="preserve">6.12060832977295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19148778915405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11226892471313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0955924987793</t>
   </si>
   <si>
     <t xml:space="preserve">6.01220560073853</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14979362487793</t>
+    <t xml:space="preserve">6.14979410171509</t>
   </si>
   <si>
     <t xml:space="preserve">6.02888250350952</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96634292602539</t>
+    <t xml:space="preserve">5.96634244918823</t>
   </si>
   <si>
     <t xml:space="preserve">5.99552774429321</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07891464233398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9996976852417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04556035995483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92881870269775</t>
+    <t xml:space="preserve">6.07891416549683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99969720840454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04555988311768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9288182258606</t>
   </si>
   <si>
     <t xml:space="preserve">5.97468137741089</